--- a/1.xlsx
+++ b/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="916">
   <si>
     <t>Sno</t>
   </si>
@@ -1748,6 +1748,9 @@
   </si>
   <si>
     <t>{'harmless': 61, 'malicious': 8, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
   </si>
   <si>
     <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
@@ -3185,7 +3188,7 @@
         <v>577</v>
       </c>
       <c r="F2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G2" s="3">
         <v>45311.61894675926</v>
@@ -3194,7 +3197,7 @@
         <v>45341.32113425926</v>
       </c>
       <c r="I2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3214,16 +3217,16 @@
         <v>578</v>
       </c>
       <c r="F3" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G3" s="3">
-        <v>45298.4969212963</v>
+        <v>45328.50989583333</v>
       </c>
       <c r="H3" s="3">
-        <v>45316.08079861111</v>
+        <v>45341.27945601852</v>
       </c>
       <c r="I3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3240,10 +3243,10 @@
         <v>296</v>
       </c>
       <c r="E4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F4" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G4" s="3">
         <v>45306.97109953704</v>
@@ -3252,7 +3255,7 @@
         <v>45314.49285879629</v>
       </c>
       <c r="I4" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3269,10 +3272,10 @@
         <v>297</v>
       </c>
       <c r="E5" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F5" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G5" s="3">
         <v>45296.62438657408</v>
@@ -3281,7 +3284,7 @@
         <v>45316.37925925926</v>
       </c>
       <c r="I5" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3298,10 +3301,10 @@
         <v>298</v>
       </c>
       <c r="E6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F6" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G6" s="3">
         <v>45306.65881944444</v>
@@ -3310,7 +3313,7 @@
         <v>45316.37922453704</v>
       </c>
       <c r="I6" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3327,10 +3330,10 @@
         <v>299</v>
       </c>
       <c r="E7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F7" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G7" s="3">
         <v>45298.49136574074</v>
@@ -3339,7 +3342,7 @@
         <v>45316.42087962963</v>
       </c>
       <c r="I7" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3356,10 +3359,10 @@
         <v>300</v>
       </c>
       <c r="E8" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F8" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G8" s="3">
         <v>45302.4922337963</v>
@@ -3368,7 +3371,7 @@
         <v>45312.49145833333</v>
       </c>
       <c r="I8" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3385,10 +3388,10 @@
         <v>301</v>
       </c>
       <c r="E9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F9" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G9" s="3">
         <v>45308.21690972222</v>
@@ -3397,7 +3400,7 @@
         <v>45314.97233796296</v>
       </c>
       <c r="I9" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3414,10 +3417,10 @@
         <v>302</v>
       </c>
       <c r="E10" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F10" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G10" s="3">
         <v>45298.49690972222</v>
@@ -3426,7 +3429,7 @@
         <v>45314.49306712963</v>
       </c>
       <c r="I10" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3443,10 +3446,10 @@
         <v>303</v>
       </c>
       <c r="E11" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F11" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G11" s="3">
         <v>45282.7141087963</v>
@@ -3455,7 +3458,7 @@
         <v>45311.61704861111</v>
       </c>
       <c r="I11" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3472,10 +3475,10 @@
         <v>304</v>
       </c>
       <c r="E12" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F12" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G12" s="3">
         <v>45298.49170138889</v>
@@ -3484,7 +3487,7 @@
         <v>45316.37927083333</v>
       </c>
       <c r="I12" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3501,10 +3504,10 @@
         <v>305</v>
       </c>
       <c r="E13" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F13" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G13" s="3">
         <v>45280.79738425926</v>
@@ -3513,7 +3516,7 @@
         <v>45309.10356481482</v>
       </c>
       <c r="I13" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3530,10 +3533,10 @@
         <v>306</v>
       </c>
       <c r="E14" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F14" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G14" s="3">
         <v>45298.49263888889</v>
@@ -3542,7 +3545,7 @@
         <v>45316.37927083333</v>
       </c>
       <c r="I14" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3559,10 +3562,10 @@
         <v>307</v>
       </c>
       <c r="E15" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F15" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G15" s="3">
         <v>45310.43427083334</v>
@@ -3571,7 +3574,7 @@
         <v>45316.36269675926</v>
       </c>
       <c r="I15" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3588,10 +3591,10 @@
         <v>308</v>
       </c>
       <c r="E16" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F16" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G16" s="3">
         <v>45311.33236111111</v>
@@ -3600,7 +3603,7 @@
         <v>45314.49320601852</v>
       </c>
       <c r="I16" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3617,10 +3620,10 @@
         <v>309</v>
       </c>
       <c r="E17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F17" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G17" s="3">
         <v>45301.30826388889</v>
@@ -3629,7 +3632,7 @@
         <v>45316.37930555556</v>
       </c>
       <c r="I17" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3646,10 +3649,10 @@
         <v>310</v>
       </c>
       <c r="E18" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F18" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G18" s="3">
         <v>45306.18137731482</v>
@@ -3658,7 +3661,7 @@
         <v>45316.42100694445</v>
       </c>
       <c r="I18" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3675,10 +3678,10 @@
         <v>311</v>
       </c>
       <c r="E19" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F19" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G19" s="3">
         <v>45288.23121527778</v>
@@ -3687,7 +3690,7 @@
         <v>45302.48868055556</v>
       </c>
       <c r="I19" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3704,10 +3707,10 @@
         <v>312</v>
       </c>
       <c r="E20" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F20" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G20" s="3">
         <v>45307.52993055555</v>
@@ -3716,7 +3719,7 @@
         <v>45314.19462962963</v>
       </c>
       <c r="I20" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3733,10 +3736,10 @@
         <v>313</v>
       </c>
       <c r="E21" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F21" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G21" s="3">
         <v>45314.42365740741</v>
@@ -3745,7 +3748,7 @@
         <v>45314.42368055556</v>
       </c>
       <c r="I21" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3762,10 +3765,10 @@
         <v>314</v>
       </c>
       <c r="E22" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F22" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G22" s="3">
         <v>45305.57067129629</v>
@@ -3774,7 +3777,7 @@
         <v>45316.42155092592</v>
       </c>
       <c r="I22" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3791,10 +3794,10 @@
         <v>315</v>
       </c>
       <c r="E23" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F23" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G23" s="3">
         <v>45291.49997685185</v>
@@ -3803,7 +3806,7 @@
         <v>45314.49226851852</v>
       </c>
       <c r="I23" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3820,10 +3823,10 @@
         <v>316</v>
       </c>
       <c r="E24" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F24" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G24" s="3">
         <v>45309.80174768518</v>
@@ -3832,7 +3835,7 @@
         <v>45315.85729166667</v>
       </c>
       <c r="I24" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3849,10 +3852,10 @@
         <v>317</v>
       </c>
       <c r="E25" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F25" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G25" s="3">
         <v>45299.43368055556</v>
@@ -3861,7 +3864,7 @@
         <v>45316.37909722222</v>
       </c>
       <c r="I25" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3878,10 +3881,10 @@
         <v>318</v>
       </c>
       <c r="E26" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F26" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G26" s="3">
         <v>45314.17763888889</v>
@@ -3890,7 +3893,7 @@
         <v>45316.08064814815</v>
       </c>
       <c r="I26" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3907,10 +3910,10 @@
         <v>319</v>
       </c>
       <c r="E27" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F27" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G27" s="3">
         <v>45291.49208333333</v>
@@ -3919,7 +3922,7 @@
         <v>45316.34907407407</v>
       </c>
       <c r="I27" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3936,10 +3939,10 @@
         <v>320</v>
       </c>
       <c r="E28" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F28" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G28" s="3">
         <v>45289.73149305556</v>
@@ -3948,7 +3951,7 @@
         <v>45316.37931712963</v>
       </c>
       <c r="I28" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3965,10 +3968,10 @@
         <v>321</v>
       </c>
       <c r="E29" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F29" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G29" s="3">
         <v>45312.4952662037</v>
@@ -3977,7 +3980,7 @@
         <v>45315.52618055556</v>
       </c>
       <c r="I29" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -3994,10 +3997,10 @@
         <v>322</v>
       </c>
       <c r="E30" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F30" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G30" s="3">
         <v>45307.49253472222</v>
@@ -4006,7 +4009,7 @@
         <v>45316.3793287037</v>
       </c>
       <c r="I30" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4023,10 +4026,10 @@
         <v>323</v>
       </c>
       <c r="E31" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F31" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G31" s="3">
         <v>45311.71104166667</v>
@@ -4035,7 +4038,7 @@
         <v>45316.37922453704</v>
       </c>
       <c r="I31" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4052,10 +4055,10 @@
         <v>324</v>
       </c>
       <c r="E32" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F32" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G32" s="3">
         <v>45312.34644675926</v>
@@ -4064,7 +4067,7 @@
         <v>45316.37908564815</v>
       </c>
       <c r="I32" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4081,10 +4084,10 @@
         <v>325</v>
       </c>
       <c r="E33" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F33" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G33" s="3">
         <v>44163.34006944444</v>
@@ -4093,7 +4096,7 @@
         <v>44163.34006944444</v>
       </c>
       <c r="I33" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4110,10 +4113,10 @@
         <v>326</v>
       </c>
       <c r="E34" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F34" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G34" s="3">
         <v>45286.80534722222</v>
@@ -4122,7 +4125,7 @@
         <v>45316.37934027778</v>
       </c>
       <c r="I34" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4139,10 +4142,10 @@
         <v>327</v>
       </c>
       <c r="E35" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F35" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G35" s="3">
         <v>45302.49230324074</v>
@@ -4151,7 +4154,7 @@
         <v>45314.98761574074</v>
       </c>
       <c r="I35" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4168,10 +4171,10 @@
         <v>328</v>
       </c>
       <c r="E36" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F36" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G36" s="3">
         <v>45302.49503472223</v>
@@ -4180,7 +4183,7 @@
         <v>45315.48547453704</v>
       </c>
       <c r="I36" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4197,10 +4200,10 @@
         <v>329</v>
       </c>
       <c r="E37" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F37" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G37" s="3">
         <v>45311.61938657407</v>
@@ -4209,7 +4212,7 @@
         <v>45316.42167824074</v>
       </c>
       <c r="I37" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4226,10 +4229,10 @@
         <v>330</v>
       </c>
       <c r="E38" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F38" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G38" s="3">
         <v>45297.0796412037</v>
@@ -4238,7 +4241,7 @@
         <v>45316.49811342593</v>
       </c>
       <c r="I38" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4255,10 +4258,10 @@
         <v>331</v>
       </c>
       <c r="E39" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F39" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G39" s="3">
         <v>45290.31696759259</v>
@@ -4267,7 +4270,7 @@
         <v>45316.49866898148</v>
       </c>
       <c r="I39" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4284,10 +4287,10 @@
         <v>332</v>
       </c>
       <c r="E40" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F40" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G40" s="3">
         <v>45313.59486111111</v>
@@ -4296,7 +4299,7 @@
         <v>45316.49662037037</v>
       </c>
       <c r="I40" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4313,10 +4316,10 @@
         <v>333</v>
       </c>
       <c r="E41" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F41" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G41" s="3">
         <v>45295.49177083333</v>
@@ -4325,7 +4328,7 @@
         <v>45316.49807870371</v>
       </c>
       <c r="I41" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4342,10 +4345,10 @@
         <v>334</v>
       </c>
       <c r="E42" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F42" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G42" s="3">
         <v>45311.92179398148</v>
@@ -4354,7 +4357,7 @@
         <v>45316.4971875</v>
       </c>
       <c r="I42" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4371,10 +4374,10 @@
         <v>335</v>
       </c>
       <c r="E43" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F43" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G43" s="3">
         <v>45296.05393518518</v>
@@ -4383,7 +4386,7 @@
         <v>45316.50489583334</v>
       </c>
       <c r="I43" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4400,10 +4403,10 @@
         <v>336</v>
       </c>
       <c r="E44" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F44" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G44" s="3">
         <v>45313.11333333333</v>
@@ -4412,7 +4415,7 @@
         <v>45316.49230324074</v>
       </c>
       <c r="I44" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4429,10 +4432,10 @@
         <v>337</v>
       </c>
       <c r="E45" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F45" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G45" s="3">
         <v>45306.61894675926</v>
@@ -4441,7 +4444,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I45" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4458,10 +4461,10 @@
         <v>338</v>
       </c>
       <c r="E46" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F46" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G46" s="3">
         <v>45312.49850694444</v>
@@ -4470,7 +4473,7 @@
         <v>45316.49799768518</v>
       </c>
       <c r="I46" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4487,10 +4490,10 @@
         <v>339</v>
       </c>
       <c r="E47" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F47" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G47" s="3">
         <v>45262.49515046296</v>
@@ -4499,7 +4502,7 @@
         <v>45309.07923611111</v>
       </c>
       <c r="I47" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4516,10 +4519,10 @@
         <v>340</v>
       </c>
       <c r="E48" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F48" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G48" s="3">
         <v>45298.49847222222</v>
@@ -4528,7 +4531,7 @@
         <v>45316.49944444445</v>
       </c>
       <c r="I48" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4545,10 +4548,10 @@
         <v>341</v>
       </c>
       <c r="E49" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F49" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G49" s="3">
         <v>45311.61908564815</v>
@@ -4557,7 +4560,7 @@
         <v>45316.49847222222</v>
       </c>
       <c r="I49" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4574,10 +4577,10 @@
         <v>342</v>
       </c>
       <c r="E50" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F50" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G50" s="3">
         <v>45311.61989583333</v>
@@ -4586,7 +4589,7 @@
         <v>45316.50482638889</v>
       </c>
       <c r="I50" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4603,10 +4606,10 @@
         <v>343</v>
       </c>
       <c r="E51" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F51" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G51" s="3">
         <v>45316.50053240741</v>
@@ -4615,7 +4618,7 @@
         <v>45316.50232638889</v>
       </c>
       <c r="I51" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4632,10 +4635,10 @@
         <v>344</v>
       </c>
       <c r="E52" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F52" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G52" s="3">
         <v>45313.05881944444</v>
@@ -4644,7 +4647,7 @@
         <v>45314.42322916666</v>
       </c>
       <c r="I52" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4661,10 +4664,10 @@
         <v>345</v>
       </c>
       <c r="E53" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F53" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G53" s="3">
         <v>45316.5015162037</v>
@@ -4673,7 +4676,7 @@
         <v>45316.50331018519</v>
       </c>
       <c r="I53" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4690,10 +4693,10 @@
         <v>346</v>
       </c>
       <c r="E54" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F54" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G54" s="3">
         <v>45291.62113425926</v>
@@ -4702,7 +4705,7 @@
         <v>45316.49827546296</v>
       </c>
       <c r="I54" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4719,10 +4722,10 @@
         <v>347</v>
       </c>
       <c r="E55" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F55" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G55" s="3">
         <v>45287.49758101852</v>
@@ -4731,7 +4734,7 @@
         <v>45316.50458333334</v>
       </c>
       <c r="I55" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4748,10 +4751,10 @@
         <v>348</v>
       </c>
       <c r="E56" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F56" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G56" s="3">
         <v>45280.75131944445</v>
@@ -4760,7 +4763,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I56" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4777,10 +4780,10 @@
         <v>349</v>
       </c>
       <c r="E57" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F57" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G57" s="3">
         <v>45291.49048611111</v>
@@ -4789,7 +4792,7 @@
         <v>45316.50336805556</v>
       </c>
       <c r="I57" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4806,10 +4809,10 @@
         <v>350</v>
       </c>
       <c r="E58" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F58" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G58" s="3">
         <v>45310.86956018519</v>
@@ -4818,7 +4821,7 @@
         <v>45314.48899305556</v>
       </c>
       <c r="I58" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4835,10 +4838,10 @@
         <v>351</v>
       </c>
       <c r="E59" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F59" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G59" s="3">
         <v>45311.61930555556</v>
@@ -4847,7 +4850,7 @@
         <v>45316.49861111111</v>
       </c>
       <c r="I59" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4864,10 +4867,10 @@
         <v>352</v>
       </c>
       <c r="E60" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F60" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G60" s="3">
         <v>45313.76346064815</v>
@@ -4876,7 +4879,7 @@
         <v>45316.49800925926</v>
       </c>
       <c r="I60" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4893,10 +4896,10 @@
         <v>353</v>
       </c>
       <c r="E61" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F61" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G61" s="3">
         <v>45278.11224537037</v>
@@ -4905,7 +4908,7 @@
         <v>45302.49298611111</v>
       </c>
       <c r="I61" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4922,10 +4925,10 @@
         <v>354</v>
       </c>
       <c r="E62" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F62" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G62" s="3">
         <v>45278.21631944444</v>
@@ -4934,7 +4937,7 @@
         <v>45316.50450231481</v>
       </c>
       <c r="I62" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4951,10 +4954,10 @@
         <v>355</v>
       </c>
       <c r="E63" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F63" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G63" s="3">
         <v>45163.2121412037</v>
@@ -4963,7 +4966,7 @@
         <v>45163.2121412037</v>
       </c>
       <c r="I63" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4980,10 +4983,10 @@
         <v>356</v>
       </c>
       <c r="E64" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F64" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G64" s="3">
         <v>45316.49957175926</v>
@@ -4992,7 +4995,7 @@
         <v>45316.50452546297</v>
       </c>
       <c r="I64" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -5009,10 +5012,10 @@
         <v>357</v>
       </c>
       <c r="E65" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F65" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G65" s="3">
         <v>45297.49180555555</v>
@@ -5021,7 +5024,7 @@
         <v>45316.50127314815</v>
       </c>
       <c r="I65" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -5038,10 +5041,10 @@
         <v>358</v>
       </c>
       <c r="E66" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F66" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G66" s="3">
         <v>45297.09299768518</v>
@@ -5050,7 +5053,7 @@
         <v>45316.5039699074</v>
       </c>
       <c r="I66" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -5067,10 +5070,10 @@
         <v>359</v>
       </c>
       <c r="E67" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F67" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G67" s="3">
         <v>45316.50059027778</v>
@@ -5079,7 +5082,7 @@
         <v>45316.50255787037</v>
       </c>
       <c r="I67" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -5096,10 +5099,10 @@
         <v>360</v>
       </c>
       <c r="E68" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F68" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G68" s="3">
         <v>45313.63670138889</v>
@@ -5108,7 +5111,7 @@
         <v>45315.90416666667</v>
       </c>
       <c r="I68" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -5125,10 +5128,10 @@
         <v>361</v>
       </c>
       <c r="E69" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F69" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G69" s="3">
         <v>45304.51188657407</v>
@@ -5137,7 +5140,7 @@
         <v>45315.56863425926</v>
       </c>
       <c r="I69" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -5154,10 +5157,10 @@
         <v>362</v>
       </c>
       <c r="E70" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F70" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G70" s="3">
         <v>45291.49329861111</v>
@@ -5166,7 +5169,7 @@
         <v>45312.93239583333</v>
       </c>
       <c r="I70" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -5183,10 +5186,10 @@
         <v>363</v>
       </c>
       <c r="E71" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F71" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G71" s="3">
         <v>45300.57674768518</v>
@@ -5195,7 +5198,7 @@
         <v>45315.52626157407</v>
       </c>
       <c r="I71" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -5212,10 +5215,10 @@
         <v>364</v>
       </c>
       <c r="E72" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F72" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G72" s="3">
         <v>45310.40046296296</v>
@@ -5224,7 +5227,7 @@
         <v>45312.49293981482</v>
       </c>
       <c r="I72" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5241,10 +5244,10 @@
         <v>365</v>
       </c>
       <c r="E73" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F73" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G73" s="3">
         <v>45291.49876157408</v>
@@ -5253,7 +5256,7 @@
         <v>45314.49362268519</v>
       </c>
       <c r="I73" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5270,10 +5273,10 @@
         <v>366</v>
       </c>
       <c r="E74" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F74" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G74" s="3">
         <v>45292.49576388889</v>
@@ -5282,7 +5285,7 @@
         <v>45314.64596064815</v>
       </c>
       <c r="I74" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5299,16 +5302,16 @@
         <v>367</v>
       </c>
       <c r="E75" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F75" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H75" s="3">
         <v>45047.30018518519</v>
       </c>
       <c r="I75" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -5325,10 +5328,10 @@
         <v>368</v>
       </c>
       <c r="E76" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F76" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G76" s="3">
         <v>45291.49430555556</v>
@@ -5337,7 +5340,7 @@
         <v>45316.16467592592</v>
       </c>
       <c r="I76" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5354,10 +5357,10 @@
         <v>369</v>
       </c>
       <c r="E77" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F77" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G77" s="3">
         <v>45283.62505787037</v>
@@ -5366,7 +5369,7 @@
         <v>45309.04886574074</v>
       </c>
       <c r="I77" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5383,10 +5386,10 @@
         <v>370</v>
       </c>
       <c r="E78" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F78" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G78" s="3">
         <v>45262.59487268519</v>
@@ -5395,7 +5398,7 @@
         <v>45309.01453703704</v>
       </c>
       <c r="I78" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -5412,10 +5415,10 @@
         <v>371</v>
       </c>
       <c r="E79" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F79" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G79" s="3">
         <v>45312.49354166666</v>
@@ -5424,7 +5427,7 @@
         <v>45316.164375</v>
       </c>
       <c r="I79" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -5441,10 +5444,10 @@
         <v>372</v>
       </c>
       <c r="E80" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F80" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G80" s="3">
         <v>45312.7619675926</v>
@@ -5453,7 +5456,7 @@
         <v>45315.65320601852</v>
       </c>
       <c r="I80" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5470,10 +5473,10 @@
         <v>373</v>
       </c>
       <c r="E81" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F81" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G81" s="3">
         <v>45310.90116898148</v>
@@ -5482,7 +5485,7 @@
         <v>45316.2090625</v>
       </c>
       <c r="I81" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5499,10 +5502,10 @@
         <v>374</v>
       </c>
       <c r="E82" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F82" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G82" s="3">
         <v>45315.1578125</v>
@@ -5511,7 +5514,7 @@
         <v>45316.16471064815</v>
       </c>
       <c r="I82" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -5528,10 +5531,10 @@
         <v>375</v>
       </c>
       <c r="E83" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F83" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G83" s="3">
         <v>45287.44400462963</v>
@@ -5540,7 +5543,7 @@
         <v>45314.49243055555</v>
       </c>
       <c r="I83" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -5557,10 +5560,10 @@
         <v>376</v>
       </c>
       <c r="E84" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F84" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G84" s="3">
         <v>45309.58261574074</v>
@@ -5569,7 +5572,7 @@
         <v>45314.42337962963</v>
       </c>
       <c r="I84" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -5586,10 +5589,10 @@
         <v>377</v>
       </c>
       <c r="E85" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F85" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G85" s="3">
         <v>45280.04030092592</v>
@@ -5598,7 +5601,7 @@
         <v>45309.01909722222</v>
       </c>
       <c r="I85" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -5615,10 +5618,10 @@
         <v>378</v>
       </c>
       <c r="E86" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F86" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G86" s="3">
         <v>45302.49703703704</v>
@@ -5627,7 +5630,7 @@
         <v>45316.20864583334</v>
       </c>
       <c r="I86" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -5644,10 +5647,10 @@
         <v>379</v>
       </c>
       <c r="E87" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F87" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G87" s="3">
         <v>45313.29277777778</v>
@@ -5656,7 +5659,7 @@
         <v>45315.23820601852</v>
       </c>
       <c r="I87" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5673,10 +5676,10 @@
         <v>380</v>
       </c>
       <c r="E88" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F88" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G88" s="3">
         <v>45286.50180555556</v>
@@ -5685,7 +5688,7 @@
         <v>45312.67471064815</v>
       </c>
       <c r="I88" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5702,10 +5705,10 @@
         <v>381</v>
       </c>
       <c r="E89" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F89" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G89" s="3">
         <v>45311.42429398148</v>
@@ -5714,7 +5717,7 @@
         <v>45314.89614583334</v>
       </c>
       <c r="I89" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -5731,10 +5734,10 @@
         <v>382</v>
       </c>
       <c r="E90" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F90" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G90" s="3">
         <v>45306.6199537037</v>
@@ -5743,7 +5746,7 @@
         <v>45314.49379629629</v>
       </c>
       <c r="I90" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -5760,10 +5763,10 @@
         <v>383</v>
       </c>
       <c r="E91" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F91" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G91" s="3">
         <v>45315.42351851852</v>
@@ -5772,7 +5775,7 @@
         <v>45315.42354166666</v>
       </c>
       <c r="I91" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5789,10 +5792,10 @@
         <v>384</v>
       </c>
       <c r="E92" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F92" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G92" s="3">
         <v>45287.95120370371</v>
@@ -5801,7 +5804,7 @@
         <v>45315.61121527778</v>
       </c>
       <c r="I92" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -5818,10 +5821,10 @@
         <v>385</v>
       </c>
       <c r="E93" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F93" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G93" s="3">
         <v>45312.49561342593</v>
@@ -5830,7 +5833,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I93" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5847,10 +5850,10 @@
         <v>386</v>
       </c>
       <c r="E94" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F94" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G94" s="3">
         <v>45291.62100694444</v>
@@ -5859,7 +5862,7 @@
         <v>45314.49383101852</v>
       </c>
       <c r="I94" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5876,10 +5879,10 @@
         <v>387</v>
       </c>
       <c r="E95" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F95" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G95" s="3">
         <v>44926.35877314815</v>
@@ -5888,7 +5891,7 @@
         <v>44926.35877314815</v>
       </c>
       <c r="I95" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5905,10 +5908,10 @@
         <v>388</v>
       </c>
       <c r="E96" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F96" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G96" s="3">
         <v>45297.49363425926</v>
@@ -5917,7 +5920,7 @@
         <v>45311.89606481481</v>
       </c>
       <c r="I96" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5934,10 +5937,10 @@
         <v>389</v>
       </c>
       <c r="E97" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F97" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G97" s="3">
         <v>45314.49303240741</v>
@@ -5946,7 +5949,7 @@
         <v>45315.65373842593</v>
       </c>
       <c r="I97" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5963,10 +5966,10 @@
         <v>390</v>
       </c>
       <c r="E98" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F98" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G98" s="3">
         <v>45313.05805555556</v>
@@ -5975,7 +5978,7 @@
         <v>45313.05806712963</v>
       </c>
       <c r="I98" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -5992,10 +5995,10 @@
         <v>391</v>
       </c>
       <c r="E99" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F99" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G99" s="3">
         <v>45307.38726851852</v>
@@ -6004,7 +6007,7 @@
         <v>45314.85255787037</v>
       </c>
       <c r="I99" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -6021,10 +6024,10 @@
         <v>392</v>
       </c>
       <c r="E100" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F100" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G100" s="3">
         <v>45293.03614583334</v>
@@ -6033,7 +6036,7 @@
         <v>45293.0361574074</v>
       </c>
       <c r="I100" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6050,10 +6053,10 @@
         <v>393</v>
       </c>
       <c r="E101" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F101" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G101" s="3">
         <v>45314.50199074074</v>
@@ -6062,7 +6065,7 @@
         <v>45315.65385416667</v>
       </c>
       <c r="I101" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -6079,10 +6082,10 @@
         <v>394</v>
       </c>
       <c r="E102" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F102" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G102" s="3">
         <v>45307.37951388889</v>
@@ -6091,7 +6094,7 @@
         <v>45315.36158564815</v>
       </c>
       <c r="I102" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -6108,10 +6111,10 @@
         <v>395</v>
       </c>
       <c r="E103" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F103" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G103" s="3">
         <v>45307.00873842592</v>
@@ -6120,7 +6123,7 @@
         <v>45307.00875</v>
       </c>
       <c r="I103" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -6137,10 +6140,10 @@
         <v>396</v>
       </c>
       <c r="E104" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F104" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G104" s="3">
         <v>45315.42385416666</v>
@@ -6149,7 +6152,7 @@
         <v>45315.42386574074</v>
       </c>
       <c r="I104" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -6166,10 +6169,10 @@
         <v>397</v>
       </c>
       <c r="E105" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F105" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G105" s="3">
         <v>45291.49836805555</v>
@@ -6178,7 +6181,7 @@
         <v>45315.65422453704</v>
       </c>
       <c r="I105" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -6195,10 +6198,10 @@
         <v>398</v>
       </c>
       <c r="E106" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F106" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G106" s="3">
         <v>45280.57280092593</v>
@@ -6207,7 +6210,7 @@
         <v>45309.02465277778</v>
       </c>
       <c r="I106" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -6224,10 +6227,10 @@
         <v>399</v>
       </c>
       <c r="E107" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F107" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G107" s="3">
         <v>45302.49490740741</v>
@@ -6236,7 +6239,7 @@
         <v>45312.88666666667</v>
       </c>
       <c r="I107" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -6253,10 +6256,10 @@
         <v>400</v>
       </c>
       <c r="E108" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F108" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G108" s="3">
         <v>45288.28815972222</v>
@@ -6265,7 +6268,7 @@
         <v>45315.60980324074</v>
       </c>
       <c r="I108" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -6282,10 +6285,10 @@
         <v>401</v>
       </c>
       <c r="E109" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F109" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G109" s="3">
         <v>45295.49231481482</v>
@@ -6294,7 +6297,7 @@
         <v>45315.61019675926</v>
       </c>
       <c r="I109" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -6311,10 +6314,10 @@
         <v>402</v>
       </c>
       <c r="E110" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F110" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G110" s="3">
         <v>45312.76140046296</v>
@@ -6323,7 +6326,7 @@
         <v>45314.69101851852</v>
       </c>
       <c r="I110" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -6340,10 +6343,10 @@
         <v>403</v>
       </c>
       <c r="E111" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F111" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G111" s="3">
         <v>45314.49325231482</v>
@@ -6352,7 +6355,7 @@
         <v>45315.61035879629</v>
       </c>
       <c r="I111" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -6369,10 +6372,10 @@
         <v>404</v>
       </c>
       <c r="E112" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F112" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G112" s="3">
         <v>45313.42341435186</v>
@@ -6381,7 +6384,7 @@
         <v>45314.19578703704</v>
       </c>
       <c r="I112" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6398,10 +6401,10 @@
         <v>405</v>
       </c>
       <c r="E113" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F113" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G113" s="3">
         <v>45292.49325231482</v>
@@ -6410,7 +6413,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I113" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -6427,10 +6430,10 @@
         <v>406</v>
       </c>
       <c r="E114" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F114" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G114" s="3">
         <v>45313.0588425926</v>
@@ -6439,7 +6442,7 @@
         <v>45314.42222222222</v>
       </c>
       <c r="I114" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -6456,10 +6459,10 @@
         <v>407</v>
       </c>
       <c r="E115" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F115" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G115" s="3">
         <v>45307.5822337963</v>
@@ -6468,7 +6471,7 @@
         <v>45314.77590277778</v>
       </c>
       <c r="I115" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -6485,10 +6488,10 @@
         <v>408</v>
       </c>
       <c r="E116" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F116" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G116" s="3">
         <v>45298.49490740741</v>
@@ -6497,7 +6500,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I116" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -6514,10 +6517,10 @@
         <v>409</v>
       </c>
       <c r="E117" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F117" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G117" s="3">
         <v>45300.43424768518</v>
@@ -6526,7 +6529,7 @@
         <v>45314.49525462963</v>
       </c>
       <c r="I117" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -6543,10 +6546,10 @@
         <v>410</v>
       </c>
       <c r="E118" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F118" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G118" s="3">
         <v>45287.49133101852</v>
@@ -6555,7 +6558,7 @@
         <v>45315.68306712963</v>
       </c>
       <c r="I118" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -6572,10 +6575,10 @@
         <v>411</v>
       </c>
       <c r="E119" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F119" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G119" s="3">
         <v>45315.24193287037</v>
@@ -6584,7 +6587,7 @@
         <v>45315.65413194444</v>
       </c>
       <c r="I119" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -6601,10 +6604,10 @@
         <v>412</v>
       </c>
       <c r="E120" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F120" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G120" s="3">
         <v>45296.62521990741</v>
@@ -6613,7 +6616,7 @@
         <v>45315.32032407408</v>
       </c>
       <c r="I120" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -6630,10 +6633,10 @@
         <v>413</v>
       </c>
       <c r="E121" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F121" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G121" s="3">
         <v>45293.4970949074</v>
@@ -6642,7 +6645,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I121" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -6659,10 +6662,10 @@
         <v>414</v>
       </c>
       <c r="E122" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F122" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G122" s="3">
         <v>45282.72908564815</v>
@@ -6671,7 +6674,7 @@
         <v>45282.72909722223</v>
       </c>
       <c r="I122" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -6688,10 +6691,10 @@
         <v>415</v>
       </c>
       <c r="E123" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F123" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G123" s="3">
         <v>45314.49591435185</v>
@@ -6700,7 +6703,7 @@
         <v>45315.69609953704</v>
       </c>
       <c r="I123" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -6717,10 +6720,10 @@
         <v>416</v>
       </c>
       <c r="E124" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F124" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G124" s="3">
         <v>45300.97112268519</v>
@@ -6729,7 +6732,7 @@
         <v>45315.69616898148</v>
       </c>
       <c r="I124" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -6746,10 +6749,10 @@
         <v>417</v>
       </c>
       <c r="E125" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F125" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G125" s="3">
         <v>45273.65564814815</v>
@@ -6758,7 +6761,7 @@
         <v>45303.42461805556</v>
       </c>
       <c r="I125" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -6775,10 +6778,10 @@
         <v>418</v>
       </c>
       <c r="E126" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F126" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G126" s="3">
         <v>45298.21359953703</v>
@@ -6787,7 +6790,7 @@
         <v>45314.49523148148</v>
       </c>
       <c r="I126" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -6804,10 +6807,10 @@
         <v>419</v>
       </c>
       <c r="E127" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F127" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G127" s="3">
         <v>45308.42383101852</v>
@@ -6816,7 +6819,7 @@
         <v>45314.49195601852</v>
       </c>
       <c r="I127" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -6833,10 +6836,10 @@
         <v>420</v>
       </c>
       <c r="E128" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F128" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G128" s="3">
         <v>45294.41019675926</v>
@@ -6845,7 +6848,7 @@
         <v>45315.69918981481</v>
       </c>
       <c r="I128" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -6862,10 +6865,10 @@
         <v>421</v>
       </c>
       <c r="E129" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F129" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G129" s="3">
         <v>45310.61224537037</v>
@@ -6874,7 +6877,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I129" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -6891,10 +6894,10 @@
         <v>422</v>
       </c>
       <c r="E130" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F130" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G130" s="3">
         <v>45304.64673611111</v>
@@ -6903,7 +6906,7 @@
         <v>45315.6959375</v>
       </c>
       <c r="I130" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -6920,10 +6923,10 @@
         <v>423</v>
       </c>
       <c r="E131" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F131" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G131" s="3">
         <v>45295.49403935186</v>
@@ -6932,7 +6935,7 @@
         <v>45315.69605324074</v>
       </c>
       <c r="I131" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -6949,10 +6952,10 @@
         <v>424</v>
       </c>
       <c r="E132" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F132" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G132" s="3">
         <v>45298.06329861111</v>
@@ -6961,7 +6964,7 @@
         <v>45314.49458333333</v>
       </c>
       <c r="I132" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -6978,10 +6981,10 @@
         <v>425</v>
       </c>
       <c r="E133" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F133" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G133" s="3">
         <v>45297.49041666667</v>
@@ -6990,7 +6993,7 @@
         <v>45315.70159722222</v>
       </c>
       <c r="I133" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -7007,10 +7010,10 @@
         <v>426</v>
       </c>
       <c r="E134" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F134" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G134" s="3">
         <v>45296.21274305556</v>
@@ -7019,7 +7022,7 @@
         <v>45309.05621527778</v>
       </c>
       <c r="I134" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -7036,10 +7039,10 @@
         <v>427</v>
       </c>
       <c r="E135" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F135" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G135" s="3">
         <v>45307.08791666666</v>
@@ -7048,7 +7051,7 @@
         <v>45315.65327546297</v>
       </c>
       <c r="I135" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -7065,10 +7068,10 @@
         <v>428</v>
       </c>
       <c r="E136" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F136" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G136" s="3">
         <v>45314.49842592593</v>
@@ -7077,7 +7080,7 @@
         <v>45314.67444444444</v>
       </c>
       <c r="I136" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -7094,10 +7097,10 @@
         <v>429</v>
       </c>
       <c r="E137" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F137" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G137" s="3">
         <v>45310.65872685185</v>
@@ -7106,7 +7109,7 @@
         <v>45314.49422453704</v>
       </c>
       <c r="I137" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -7123,10 +7126,10 @@
         <v>430</v>
       </c>
       <c r="E138" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F138" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G138" s="3">
         <v>45312.13112268518</v>
@@ -7135,7 +7138,7 @@
         <v>45315.6537962963</v>
       </c>
       <c r="I138" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -7152,10 +7155,10 @@
         <v>431</v>
       </c>
       <c r="E139" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F139" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G139" s="3">
         <v>45270.59310185185</v>
@@ -7164,7 +7167,7 @@
         <v>45309.07831018518</v>
       </c>
       <c r="I139" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -7181,10 +7184,10 @@
         <v>432</v>
       </c>
       <c r="E140" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F140" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G140" s="3">
         <v>45278.77987268518</v>
@@ -7193,7 +7196,7 @@
         <v>45314.6009837963</v>
       </c>
       <c r="I140" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -7210,10 +7213,10 @@
         <v>433</v>
       </c>
       <c r="E141" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F141" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G141" s="3">
         <v>45314.49572916667</v>
@@ -7222,7 +7225,7 @@
         <v>45314.67103009259</v>
       </c>
       <c r="I141" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -7239,16 +7242,16 @@
         <v>434</v>
       </c>
       <c r="E142" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F142" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H142" s="3">
         <v>43999.85027777778</v>
       </c>
       <c r="I142" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -7265,10 +7268,10 @@
         <v>435</v>
       </c>
       <c r="E143" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F143" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G143" s="3">
         <v>45309.54311342593</v>
@@ -7277,7 +7280,7 @@
         <v>45316.16458333333</v>
       </c>
       <c r="I143" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -7294,10 +7297,10 @@
         <v>436</v>
       </c>
       <c r="E144" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F144" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G144" s="3">
         <v>45306.51280092593</v>
@@ -7306,7 +7309,7 @@
         <v>45306.51280092593</v>
       </c>
       <c r="I144" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -7323,10 +7326,10 @@
         <v>437</v>
       </c>
       <c r="E145" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F145" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G145" s="3">
         <v>45314.49275462963</v>
@@ -7335,7 +7338,7 @@
         <v>45315.73717592593</v>
       </c>
       <c r="I145" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -7352,10 +7355,10 @@
         <v>438</v>
       </c>
       <c r="E146" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F146" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G146" s="3">
         <v>45308.77947916667</v>
@@ -7364,7 +7367,7 @@
         <v>45309.07209490741</v>
       </c>
       <c r="I146" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -7381,10 +7384,10 @@
         <v>439</v>
       </c>
       <c r="E147" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F147" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G147" s="3">
         <v>45307.50165509259</v>
@@ -7393,7 +7396,7 @@
         <v>45312.88640046296</v>
       </c>
       <c r="I147" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -7410,10 +7413,10 @@
         <v>440</v>
       </c>
       <c r="E148" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F148" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G148" s="3">
         <v>45294.12988425926</v>
@@ -7422,7 +7425,7 @@
         <v>45314.49341435185</v>
       </c>
       <c r="I148" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -7439,10 +7442,10 @@
         <v>441</v>
       </c>
       <c r="E149" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F149" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G149" s="3">
         <v>45296.33108796296</v>
@@ -7451,7 +7454,7 @@
         <v>45314.51508101852</v>
       </c>
       <c r="I149" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -7468,10 +7471,10 @@
         <v>442</v>
       </c>
       <c r="E150" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F150" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G150" s="3">
         <v>45295.49210648148</v>
@@ -7480,7 +7483,7 @@
         <v>45315.69587962963</v>
       </c>
       <c r="I150" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -7497,10 +7500,10 @@
         <v>443</v>
       </c>
       <c r="E151" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F151" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G151" s="3">
         <v>45314.49277777778</v>
@@ -7509,7 +7512,7 @@
         <v>45315.73741898148</v>
       </c>
       <c r="I151" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -7526,10 +7529,10 @@
         <v>444</v>
       </c>
       <c r="E152" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F152" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G152" s="3">
         <v>45308.74111111111</v>
@@ -7538,7 +7541,7 @@
         <v>45310.69127314815</v>
       </c>
       <c r="I152" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -7555,10 +7558,10 @@
         <v>445</v>
       </c>
       <c r="E153" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F153" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G153" s="3">
         <v>45311.61907407407</v>
@@ -7567,7 +7570,7 @@
         <v>45315.73760416666</v>
       </c>
       <c r="I153" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -7584,10 +7587,10 @@
         <v>446</v>
       </c>
       <c r="E154" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F154" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G154" s="3">
         <v>45313.06128472222</v>
@@ -7596,7 +7599,7 @@
         <v>45314.4228125</v>
       </c>
       <c r="I154" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -7613,10 +7616,10 @@
         <v>447</v>
       </c>
       <c r="E155" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F155" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G155" s="3">
         <v>45291.49923611111</v>
@@ -7625,7 +7628,7 @@
         <v>45312.49590277778</v>
       </c>
       <c r="I155" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -7642,10 +7645,10 @@
         <v>448</v>
       </c>
       <c r="E156" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F156" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G156" s="3">
         <v>45302.49706018518</v>
@@ -7654,7 +7657,7 @@
         <v>45315.07060185185</v>
       </c>
       <c r="I156" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -7671,10 +7674,10 @@
         <v>449</v>
       </c>
       <c r="E157" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F157" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G157" s="3">
         <v>45286.49168981481</v>
@@ -7683,7 +7686,7 @@
         <v>45315.73706018519</v>
       </c>
       <c r="I157" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -7700,10 +7703,10 @@
         <v>450</v>
       </c>
       <c r="E158" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F158" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G158" s="3">
         <v>45306.62078703703</v>
@@ -7712,7 +7715,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I158" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -7729,10 +7732,10 @@
         <v>451</v>
       </c>
       <c r="E159" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F159" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G159" s="3">
         <v>45297.49820601852</v>
@@ -7741,7 +7744,7 @@
         <v>45315.73712962963</v>
       </c>
       <c r="I159" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -7758,10 +7761,10 @@
         <v>452</v>
       </c>
       <c r="E160" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F160" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G160" s="3">
         <v>45314.49293981482</v>
@@ -7770,7 +7773,7 @@
         <v>45315.73753472222</v>
       </c>
       <c r="I160" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -7787,10 +7790,10 @@
         <v>453</v>
       </c>
       <c r="E161" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F161" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G161" s="3">
         <v>45302.49929398148</v>
@@ -7799,7 +7802,7 @@
         <v>45314.49518518519</v>
       </c>
       <c r="I161" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -7816,16 +7819,16 @@
         <v>454</v>
       </c>
       <c r="E162" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F162" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H162" s="3">
         <v>45307.36160879629</v>
       </c>
       <c r="I162" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -7842,10 +7845,10 @@
         <v>455</v>
       </c>
       <c r="E163" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F163" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G163" s="3">
         <v>45314.4933912037</v>
@@ -7854,7 +7857,7 @@
         <v>45316.12230324074</v>
       </c>
       <c r="I163" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -7871,10 +7874,10 @@
         <v>456</v>
       </c>
       <c r="E164" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F164" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G164" s="3">
         <v>45307.36724537037</v>
@@ -7883,7 +7886,7 @@
         <v>45316.16459490741</v>
       </c>
       <c r="I164" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -7900,10 +7903,10 @@
         <v>457</v>
       </c>
       <c r="E165" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F165" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G165" s="3">
         <v>45297.31922453704</v>
@@ -7912,7 +7915,7 @@
         <v>45314.49394675926</v>
       </c>
       <c r="I165" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -7929,10 +7932,10 @@
         <v>458</v>
       </c>
       <c r="E166" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F166" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G166" s="3">
         <v>45315.42201388889</v>
@@ -7941,7 +7944,7 @@
         <v>45315.7841550926</v>
       </c>
       <c r="I166" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -7958,10 +7961,10 @@
         <v>459</v>
       </c>
       <c r="E167" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F167" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G167" s="3">
         <v>45314.42302083333</v>
@@ -7970,7 +7973,7 @@
         <v>45314.42302083333</v>
       </c>
       <c r="I167" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -7987,10 +7990,10 @@
         <v>460</v>
       </c>
       <c r="E168" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F168" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G168" s="3">
         <v>45314.49530092593</v>
@@ -7999,7 +8002,7 @@
         <v>45315.78174768519</v>
       </c>
       <c r="I168" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -8016,10 +8019,10 @@
         <v>461</v>
       </c>
       <c r="E169" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F169" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G169" s="3">
         <v>45312.49302083333</v>
@@ -8028,7 +8031,7 @@
         <v>45314.49451388889</v>
       </c>
       <c r="I169" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -8045,10 +8048,10 @@
         <v>462</v>
       </c>
       <c r="E170" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F170" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G170" s="3">
         <v>45302.49891203704</v>
@@ -8057,7 +8060,7 @@
         <v>45315.78163194445</v>
       </c>
       <c r="I170" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -8074,10 +8077,10 @@
         <v>463</v>
       </c>
       <c r="E171" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F171" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G171" s="3">
         <v>45314.49350694445</v>
@@ -8086,7 +8089,7 @@
         <v>45315.78178240741</v>
       </c>
       <c r="I171" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -8103,10 +8106,10 @@
         <v>464</v>
       </c>
       <c r="E172" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F172" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G172" s="3">
         <v>44049.84335648148</v>
@@ -8115,7 +8118,7 @@
         <v>44740.15496527778</v>
       </c>
       <c r="I172" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -8132,10 +8135,10 @@
         <v>465</v>
       </c>
       <c r="E173" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F173" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G173" s="3">
         <v>45307.49097222222</v>
@@ -8144,7 +8147,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I173" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -8161,10 +8164,10 @@
         <v>466</v>
       </c>
       <c r="E174" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F174" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G174" s="3">
         <v>45312.37847222222</v>
@@ -8173,7 +8176,7 @@
         <v>45314.42348379629</v>
       </c>
       <c r="I174" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -8190,10 +8193,10 @@
         <v>467</v>
       </c>
       <c r="E175" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F175" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G175" s="3">
         <v>45312.25097222222</v>
@@ -8202,7 +8205,7 @@
         <v>45315.74335648148</v>
       </c>
       <c r="I175" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -8219,10 +8222,10 @@
         <v>468</v>
       </c>
       <c r="E176" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F176" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G176" s="3">
         <v>45310.90118055556</v>
@@ -8231,7 +8234,7 @@
         <v>45314.49304398148</v>
       </c>
       <c r="I176" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -8248,10 +8251,10 @@
         <v>469</v>
       </c>
       <c r="E177" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F177" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G177" s="3">
         <v>45296.62515046296</v>
@@ -8260,7 +8263,7 @@
         <v>45314.49361111111</v>
       </c>
       <c r="I177" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -8277,10 +8280,10 @@
         <v>470</v>
       </c>
       <c r="E178" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F178" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G178" s="3">
         <v>45311.61869212963</v>
@@ -8289,7 +8292,7 @@
         <v>45315.73645833333</v>
       </c>
       <c r="I178" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -8306,10 +8309,10 @@
         <v>471</v>
       </c>
       <c r="E179" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F179" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G179" s="3">
         <v>45287.159375</v>
@@ -8318,7 +8321,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I179" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -8335,10 +8338,10 @@
         <v>472</v>
       </c>
       <c r="E180" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F180" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G180" s="3">
         <v>45311.68436342593</v>
@@ -8347,7 +8350,7 @@
         <v>45315.75385416667</v>
       </c>
       <c r="I180" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -8364,10 +8367,10 @@
         <v>473</v>
       </c>
       <c r="E181" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F181" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G181" s="3">
         <v>45291.49039351852</v>
@@ -8376,7 +8379,7 @@
         <v>45315.78164351852</v>
       </c>
       <c r="I181" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -8393,10 +8396,10 @@
         <v>474</v>
       </c>
       <c r="E182" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F182" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G182" s="3">
         <v>45308.74193287037</v>
@@ -8405,7 +8408,7 @@
         <v>45315.7467824074</v>
       </c>
       <c r="I182" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -8422,10 +8425,10 @@
         <v>475</v>
       </c>
       <c r="E183" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F183" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G183" s="3">
         <v>45290.68399305556</v>
@@ -8434,7 +8437,7 @@
         <v>45315.76791666666</v>
       </c>
       <c r="I183" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -8451,10 +8454,10 @@
         <v>476</v>
       </c>
       <c r="E184" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F184" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G184" s="3">
         <v>45294.52609953703</v>
@@ -8463,7 +8466,7 @@
         <v>45315.75109953704</v>
       </c>
       <c r="I184" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -8480,10 +8483,10 @@
         <v>477</v>
       </c>
       <c r="E185" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F185" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G185" s="3">
         <v>45305.28581018518</v>
@@ -8492,7 +8495,7 @@
         <v>45315.73657407407</v>
       </c>
       <c r="I185" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -8509,10 +8512,10 @@
         <v>478</v>
       </c>
       <c r="E186" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F186" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G186" s="3">
         <v>45303.07900462963</v>
@@ -8521,7 +8524,7 @@
         <v>45315.78171296296</v>
       </c>
       <c r="I186" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -8538,10 +8541,10 @@
         <v>479</v>
       </c>
       <c r="E187" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F187" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G187" s="3">
         <v>45294.00594907408</v>
@@ -8550,7 +8553,7 @@
         <v>45315.60971064815</v>
       </c>
       <c r="I187" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -8567,10 +8570,10 @@
         <v>480</v>
       </c>
       <c r="E188" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F188" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G188" s="3">
         <v>45291.6212037037</v>
@@ -8579,7 +8582,7 @@
         <v>45315.76299768518</v>
       </c>
       <c r="I188" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -8596,10 +8599,10 @@
         <v>481</v>
       </c>
       <c r="E189" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F189" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G189" s="3">
         <v>45291.62125</v>
@@ -8608,7 +8611,7 @@
         <v>45315.73672453704</v>
       </c>
       <c r="I189" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -8625,10 +8628,10 @@
         <v>482</v>
       </c>
       <c r="E190" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F190" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G190" s="3">
         <v>45291.49121527778</v>
@@ -8637,7 +8640,7 @@
         <v>45315.73679398148</v>
       </c>
       <c r="I190" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -8654,10 +8657,10 @@
         <v>483</v>
       </c>
       <c r="E191" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F191" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G191" s="3">
         <v>45305.45537037037</v>
@@ -8666,7 +8669,7 @@
         <v>45315.78153935185</v>
       </c>
       <c r="I191" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -8683,10 +8686,10 @@
         <v>484</v>
       </c>
       <c r="E192" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F192" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G192" s="3">
         <v>45312.66900462963</v>
@@ -8695,7 +8698,7 @@
         <v>45315.78197916667</v>
       </c>
       <c r="I192" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -8712,10 +8715,10 @@
         <v>485</v>
       </c>
       <c r="E193" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F193" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G193" s="3">
         <v>45283.15128472223</v>
@@ -8724,7 +8727,7 @@
         <v>45315.73756944444</v>
       </c>
       <c r="I193" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -8741,10 +8744,10 @@
         <v>486</v>
       </c>
       <c r="E194" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F194" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G194" s="3">
         <v>45290.15359953704</v>
@@ -8753,7 +8756,7 @@
         <v>45315.81050925926</v>
       </c>
       <c r="I194" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -8770,10 +8773,10 @@
         <v>487</v>
       </c>
       <c r="E195" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F195" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G195" s="3">
         <v>45288.77761574074</v>
@@ -8782,7 +8785,7 @@
         <v>45315.8109837963</v>
       </c>
       <c r="I195" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -8799,10 +8802,10 @@
         <v>488</v>
       </c>
       <c r="E196" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F196" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G196" s="3">
         <v>45283.5427199074</v>
@@ -8811,7 +8814,7 @@
         <v>45315.81034722222</v>
       </c>
       <c r="I196" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -8828,10 +8831,10 @@
         <v>489</v>
       </c>
       <c r="E197" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F197" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G197" s="3">
         <v>45290.06099537037</v>
@@ -8840,7 +8843,7 @@
         <v>45315.78223379629</v>
       </c>
       <c r="I197" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -8857,10 +8860,10 @@
         <v>490</v>
       </c>
       <c r="E198" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F198" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G198" s="3">
         <v>45285.78746527778</v>
@@ -8869,7 +8872,7 @@
         <v>45315.81327546296</v>
       </c>
       <c r="I198" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -8886,10 +8889,10 @@
         <v>491</v>
       </c>
       <c r="E199" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F199" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G199" s="3">
         <v>45300.70331018518</v>
@@ -8898,7 +8901,7 @@
         <v>45315.78243055556</v>
       </c>
       <c r="I199" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -8915,10 +8918,10 @@
         <v>492</v>
       </c>
       <c r="E200" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F200" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G200" s="3">
         <v>45313.4215625</v>
@@ -8927,7 +8930,7 @@
         <v>45314.19313657407</v>
       </c>
       <c r="I200" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -8944,10 +8947,10 @@
         <v>493</v>
       </c>
       <c r="E201" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F201" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G201" s="3">
         <v>45313.10177083333</v>
@@ -8956,7 +8959,7 @@
         <v>45315.19548611111</v>
       </c>
       <c r="I201" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -8973,10 +8976,10 @@
         <v>494</v>
       </c>
       <c r="E202" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F202" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G202" s="3">
         <v>45313.56241898148</v>
@@ -8985,7 +8988,7 @@
         <v>45315.73755787037</v>
       </c>
       <c r="I202" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -9002,10 +9005,10 @@
         <v>495</v>
       </c>
       <c r="E203" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F203" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G203" s="3">
         <v>45287.49016203704</v>
@@ -9014,7 +9017,7 @@
         <v>45315.81586805556</v>
       </c>
       <c r="I203" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -9031,10 +9034,10 @@
         <v>496</v>
       </c>
       <c r="E204" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F204" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G204" s="3">
         <v>45294.11623842592</v>
@@ -9043,7 +9046,7 @@
         <v>45315.81109953704</v>
       </c>
       <c r="I204" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -9060,10 +9063,10 @@
         <v>497</v>
       </c>
       <c r="E205" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F205" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G205" s="3">
         <v>45281.61627314815</v>
@@ -9072,7 +9075,7 @@
         <v>45315.73660879629</v>
       </c>
       <c r="I205" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -9089,10 +9092,10 @@
         <v>498</v>
       </c>
       <c r="E206" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F206" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G206" s="3">
         <v>45310.31782407407</v>
@@ -9101,7 +9104,7 @@
         <v>45315.82373842593</v>
       </c>
       <c r="I206" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -9118,10 +9121,10 @@
         <v>499</v>
       </c>
       <c r="E207" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F207" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G207" s="3">
         <v>45292.86751157408</v>
@@ -9130,7 +9133,7 @@
         <v>45315.81833333334</v>
       </c>
       <c r="I207" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -9147,10 +9150,10 @@
         <v>500</v>
       </c>
       <c r="E208" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F208" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G208" s="3">
         <v>45297.78877314815</v>
@@ -9159,7 +9162,7 @@
         <v>45315.82362268519</v>
       </c>
       <c r="I208" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -9176,10 +9179,10 @@
         <v>501</v>
       </c>
       <c r="E209" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F209" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G209" s="3">
         <v>45291.49200231482</v>
@@ -9188,7 +9191,7 @@
         <v>45315.81275462963</v>
       </c>
       <c r="I209" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -9205,10 +9208,10 @@
         <v>502</v>
       </c>
       <c r="E210" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F210" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G210" s="3">
         <v>45314.77236111111</v>
@@ -9217,7 +9220,7 @@
         <v>45315.81111111111</v>
       </c>
       <c r="I210" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -9234,10 +9237,10 @@
         <v>503</v>
       </c>
       <c r="E211" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F211" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G211" s="3">
         <v>45306.94767361111</v>
@@ -9246,7 +9249,7 @@
         <v>45315.81850694444</v>
       </c>
       <c r="I211" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -9263,10 +9266,10 @@
         <v>504</v>
       </c>
       <c r="E212" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F212" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G212" s="3">
         <v>45315.48592592592</v>
@@ -9275,7 +9278,7 @@
         <v>45315.82550925926</v>
       </c>
       <c r="I212" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -9292,10 +9295,10 @@
         <v>505</v>
       </c>
       <c r="E213" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F213" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G213" s="3">
         <v>45278.21140046296</v>
@@ -9304,7 +9307,7 @@
         <v>45315.78211805555</v>
       </c>
       <c r="I213" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -9321,10 +9324,10 @@
         <v>506</v>
       </c>
       <c r="E214" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F214" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G214" s="3">
         <v>45296.58950231481</v>
@@ -9333,7 +9336,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I214" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -9350,10 +9353,10 @@
         <v>507</v>
       </c>
       <c r="E215" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F215" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G215" s="3">
         <v>45308.74321759259</v>
@@ -9362,7 +9365,7 @@
         <v>45315.82768518518</v>
       </c>
       <c r="I215" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -9379,10 +9382,10 @@
         <v>508</v>
       </c>
       <c r="E216" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F216" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G216" s="3">
         <v>45291.49114583333</v>
@@ -9391,7 +9394,7 @@
         <v>45315.82378472222</v>
       </c>
       <c r="I216" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -9408,10 +9411,10 @@
         <v>509</v>
       </c>
       <c r="E217" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F217" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G217" s="3">
         <v>45308.16465277778</v>
@@ -9420,7 +9423,7 @@
         <v>45315.82369212963</v>
       </c>
       <c r="I217" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -9437,10 +9440,10 @@
         <v>510</v>
       </c>
       <c r="E218" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F218" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G218" s="3">
         <v>45296.21802083333</v>
@@ -9449,7 +9452,7 @@
         <v>45315.82553240741</v>
       </c>
       <c r="I218" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -9466,10 +9469,10 @@
         <v>511</v>
       </c>
       <c r="E219" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F219" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G219" s="3">
         <v>45307.36931712963</v>
@@ -9478,7 +9481,7 @@
         <v>45315.78234953704</v>
       </c>
       <c r="I219" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -9495,10 +9498,10 @@
         <v>512</v>
       </c>
       <c r="E220" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F220" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G220" s="3">
         <v>45313.02901620371</v>
@@ -9507,7 +9510,7 @@
         <v>45315.78185185185</v>
       </c>
       <c r="I220" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -9524,10 +9527,10 @@
         <v>513</v>
       </c>
       <c r="E221" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F221" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G221" s="3">
         <v>45284.49082175926</v>
@@ -9536,7 +9539,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I221" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -9553,10 +9556,10 @@
         <v>514</v>
       </c>
       <c r="E222" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F222" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G222" s="3">
         <v>45290.06063657408</v>
@@ -9565,7 +9568,7 @@
         <v>45315.81575231482</v>
       </c>
       <c r="I222" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -9582,10 +9585,10 @@
         <v>515</v>
       </c>
       <c r="E223" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F223" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G223" s="3">
         <v>45292.49101851852</v>
@@ -9594,7 +9597,7 @@
         <v>45315.81292824074</v>
       </c>
       <c r="I223" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -9611,10 +9614,10 @@
         <v>516</v>
       </c>
       <c r="E224" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F224" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G224" s="3">
         <v>45291.34520833333</v>
@@ -9623,7 +9626,7 @@
         <v>45315.82354166666</v>
       </c>
       <c r="I224" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -9640,10 +9643,10 @@
         <v>517</v>
       </c>
       <c r="E225" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F225" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G225" s="3">
         <v>45314.42053240741</v>
@@ -9652,7 +9655,7 @@
         <v>45315.81092592593</v>
       </c>
       <c r="I225" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -9669,10 +9672,10 @@
         <v>518</v>
       </c>
       <c r="E226" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F226" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G226" s="3">
         <v>45291.49119212963</v>
@@ -9681,7 +9684,7 @@
         <v>45314.49342592592</v>
       </c>
       <c r="I226" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -9698,10 +9701,10 @@
         <v>519</v>
       </c>
       <c r="E227" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F227" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G227" s="3">
         <v>45306.91820601852</v>
@@ -9710,7 +9713,7 @@
         <v>45315.82215277778</v>
       </c>
       <c r="I227" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -9727,10 +9730,10 @@
         <v>520</v>
       </c>
       <c r="E228" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F228" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G228" s="3">
         <v>45286.62017361111</v>
@@ -9739,7 +9742,7 @@
         <v>45315.78180555555</v>
       </c>
       <c r="I228" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -9756,10 +9759,10 @@
         <v>521</v>
       </c>
       <c r="E229" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F229" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G229" s="3">
         <v>45308.74159722222</v>
@@ -9768,7 +9771,7 @@
         <v>45315.82368055556</v>
       </c>
       <c r="I229" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -9785,10 +9788,10 @@
         <v>522</v>
       </c>
       <c r="E230" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F230" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G230" s="3">
         <v>45283.53591435185</v>
@@ -9797,7 +9800,7 @@
         <v>45315.82388888889</v>
       </c>
       <c r="I230" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -9814,10 +9817,10 @@
         <v>523</v>
       </c>
       <c r="E231" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F231" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G231" s="3">
         <v>45279.15613425926</v>
@@ -9826,7 +9829,7 @@
         <v>45310.69137731481</v>
       </c>
       <c r="I231" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -9843,10 +9846,10 @@
         <v>524</v>
       </c>
       <c r="E232" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F232" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G232" s="3">
         <v>45302.49265046296</v>
@@ -9855,7 +9858,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I232" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -9872,10 +9875,10 @@
         <v>525</v>
       </c>
       <c r="E233" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F233" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G233" s="3">
         <v>45286.49104166667</v>
@@ -9884,7 +9887,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I233" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -9901,10 +9904,10 @@
         <v>526</v>
       </c>
       <c r="E234" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F234" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G234" s="3">
         <v>45313.42326388889</v>
@@ -9913,7 +9916,7 @@
         <v>45314.18550925926</v>
       </c>
       <c r="I234" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -9930,10 +9933,10 @@
         <v>527</v>
       </c>
       <c r="E235" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F235" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G235" s="3">
         <v>44288.33525462963</v>
@@ -9942,7 +9945,7 @@
         <v>44288.33525462963</v>
       </c>
       <c r="I235" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -9959,10 +9962,10 @@
         <v>528</v>
       </c>
       <c r="E236" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F236" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G236" s="3">
         <v>45287.22329861111</v>
@@ -9971,7 +9974,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I236" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -9988,10 +9991,10 @@
         <v>529</v>
       </c>
       <c r="E237" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F237" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G237" s="3">
         <v>45311.90133101852</v>
@@ -10000,7 +10003,7 @@
         <v>45315.82358796296</v>
       </c>
       <c r="I237" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -10017,10 +10020,10 @@
         <v>530</v>
       </c>
       <c r="E238" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F238" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G238" s="3">
         <v>45298.44405092593</v>
@@ -10029,7 +10032,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I238" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -10046,10 +10049,10 @@
         <v>531</v>
       </c>
       <c r="E239" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F239" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G239" s="3">
         <v>45297.01849537037</v>
@@ -10058,7 +10061,7 @@
         <v>45314.90065972223</v>
       </c>
       <c r="I239" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -10075,10 +10078,10 @@
         <v>532</v>
       </c>
       <c r="E240" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F240" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G240" s="3">
         <v>45280.57440972222</v>
@@ -10087,7 +10090,7 @@
         <v>45309.03163194445</v>
       </c>
       <c r="I240" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -10104,10 +10107,10 @@
         <v>533</v>
       </c>
       <c r="E241" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F241" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G241" s="3">
         <v>45314.42252314815</v>
@@ -10116,7 +10119,7 @@
         <v>45315.82351851852</v>
       </c>
       <c r="I241" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -10133,10 +10136,10 @@
         <v>534</v>
       </c>
       <c r="E242" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F242" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G242" s="3">
         <v>45301.61993055556</v>
@@ -10145,7 +10148,7 @@
         <v>45314.018125</v>
       </c>
       <c r="I242" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -10162,10 +10165,10 @@
         <v>535</v>
       </c>
       <c r="E243" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F243" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G243" s="3">
         <v>45312.49469907407</v>
@@ -10174,7 +10177,7 @@
         <v>45315.78165509259</v>
       </c>
       <c r="I243" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -10191,10 +10194,10 @@
         <v>536</v>
       </c>
       <c r="E244" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F244" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G244" s="3">
         <v>45295.49803240741</v>
@@ -10203,7 +10206,7 @@
         <v>45315.8234837963</v>
       </c>
       <c r="I244" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -10220,10 +10223,10 @@
         <v>537</v>
       </c>
       <c r="E245" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F245" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G245" s="3">
         <v>45313.05956018518</v>
@@ -10232,7 +10235,7 @@
         <v>45315.82376157407</v>
       </c>
       <c r="I245" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -10249,10 +10252,10 @@
         <v>538</v>
       </c>
       <c r="E246" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F246" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G246" s="3">
         <v>45298.49199074074</v>
@@ -10261,7 +10264,7 @@
         <v>45315.82392361111</v>
       </c>
       <c r="I246" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -10278,10 +10281,10 @@
         <v>539</v>
       </c>
       <c r="E247" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F247" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G247" s="3">
         <v>45286.6203587963</v>
@@ -10290,7 +10293,7 @@
         <v>45315.82366898148</v>
       </c>
       <c r="I247" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -10307,10 +10310,10 @@
         <v>540</v>
       </c>
       <c r="E248" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F248" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G248" s="3">
         <v>45311.61991898148</v>
@@ -10319,7 +10322,7 @@
         <v>45315.02909722222</v>
       </c>
       <c r="I248" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -10336,10 +10339,10 @@
         <v>541</v>
       </c>
       <c r="E249" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F249" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G249" s="3">
         <v>45306.75461805556</v>
@@ -10348,7 +10351,7 @@
         <v>45315.04524305555</v>
       </c>
       <c r="I249" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -10365,10 +10368,10 @@
         <v>542</v>
       </c>
       <c r="E250" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F250" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G250" s="3">
         <v>45292.49578703703</v>
@@ -10377,7 +10380,7 @@
         <v>45315.4852662037</v>
       </c>
       <c r="I250" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -10394,10 +10397,10 @@
         <v>543</v>
       </c>
       <c r="E251" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F251" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G251" s="3">
         <v>45308.60100694445</v>
@@ -10406,7 +10409,7 @@
         <v>45314.49393518519</v>
       </c>
       <c r="I251" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -10423,10 +10426,10 @@
         <v>544</v>
       </c>
       <c r="E252" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F252" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G252" s="3">
         <v>45289.35146990741</v>
@@ -10435,7 +10438,7 @@
         <v>45314.49217592592</v>
       </c>
       <c r="I252" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -10452,10 +10455,10 @@
         <v>545</v>
       </c>
       <c r="E253" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F253" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G253" s="3">
         <v>45307.49243055555</v>
@@ -10464,7 +10467,7 @@
         <v>45314.49329861111</v>
       </c>
       <c r="I253" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -10481,10 +10484,10 @@
         <v>546</v>
       </c>
       <c r="E254" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F254" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G254" s="3">
         <v>45313.42297453704</v>
@@ -10493,7 +10496,7 @@
         <v>45313.42299768519</v>
       </c>
       <c r="I254" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -10510,10 +10513,10 @@
         <v>547</v>
       </c>
       <c r="E255" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F255" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G255" s="3">
         <v>45291.49054398148</v>
@@ -10522,7 +10525,7 @@
         <v>45314.94496527778</v>
       </c>
       <c r="I255" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -10539,10 +10542,10 @@
         <v>548</v>
       </c>
       <c r="E256" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F256" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G256" s="3">
         <v>45292.15671296296</v>
@@ -10551,7 +10554,7 @@
         <v>45312.75942129629</v>
       </c>
       <c r="I256" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -10568,10 +10571,10 @@
         <v>549</v>
       </c>
       <c r="E257" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F257" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G257" s="3">
         <v>45287.83861111111</v>
@@ -10580,7 +10583,7 @@
         <v>45316.03899305555</v>
       </c>
       <c r="I257" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -10597,10 +10600,10 @@
         <v>550</v>
       </c>
       <c r="E258" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F258" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G258" s="3">
         <v>45293.04358796297</v>
@@ -10609,7 +10612,7 @@
         <v>45315.8656712963</v>
       </c>
       <c r="I258" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -10626,10 +10629,10 @@
         <v>551</v>
       </c>
       <c r="E259" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F259" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G259" s="3">
         <v>45307.49564814815</v>
@@ -10638,7 +10641,7 @@
         <v>45315.9937037037</v>
       </c>
       <c r="I259" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -10655,10 +10658,10 @@
         <v>552</v>
       </c>
       <c r="E260" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F260" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G260" s="3">
         <v>45314.90094907407</v>
@@ -10667,7 +10670,7 @@
         <v>45315.89604166667</v>
       </c>
       <c r="I260" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -10684,10 +10687,10 @@
         <v>553</v>
       </c>
       <c r="E261" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F261" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G261" s="3">
         <v>45294.84780092593</v>
@@ -10696,7 +10699,7 @@
         <v>45316.03907407408</v>
       </c>
       <c r="I261" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -10713,10 +10716,10 @@
         <v>554</v>
       </c>
       <c r="E262" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F262" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G262" s="3">
         <v>45296.61121527778</v>
@@ -10725,7 +10728,7 @@
         <v>45316.03895833333</v>
       </c>
       <c r="I262" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -10742,10 +10745,10 @@
         <v>555</v>
       </c>
       <c r="E263" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F263" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G263" s="3">
         <v>45311.62060185185</v>
@@ -10754,7 +10757,7 @@
         <v>45316.03954861111</v>
       </c>
       <c r="I263" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -10771,10 +10774,10 @@
         <v>556</v>
       </c>
       <c r="E264" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F264" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G264" s="3">
         <v>45301.61861111111</v>
@@ -10783,7 +10786,7 @@
         <v>45316.08056712963</v>
       </c>
       <c r="I264" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -10800,10 +10803,10 @@
         <v>557</v>
       </c>
       <c r="E265" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F265" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G265" s="3">
         <v>45286.49385416666</v>
@@ -10812,7 +10815,7 @@
         <v>45316.03959490741</v>
       </c>
       <c r="I265" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -10829,10 +10832,10 @@
         <v>558</v>
       </c>
       <c r="E266" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F266" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G266" s="3">
         <v>45311.71087962963</v>
@@ -10841,7 +10844,7 @@
         <v>45314.67140046296</v>
       </c>
       <c r="I266" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -10858,10 +10861,10 @@
         <v>559</v>
       </c>
       <c r="E267" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F267" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G267" s="3">
         <v>45288.63045138889</v>
@@ -10870,7 +10873,7 @@
         <v>45316.03887731482</v>
       </c>
       <c r="I267" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -10887,10 +10890,10 @@
         <v>560</v>
       </c>
       <c r="E268" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F268" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G268" s="3">
         <v>45280.82067129629</v>
@@ -10899,7 +10902,7 @@
         <v>45316.03997685185</v>
       </c>
       <c r="I268" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -10916,10 +10919,10 @@
         <v>561</v>
       </c>
       <c r="E269" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F269" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G269" s="3">
         <v>45296.62119212963</v>
@@ -10928,7 +10931,7 @@
         <v>45316.08042824074</v>
       </c>
       <c r="I269" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -10945,10 +10948,10 @@
         <v>562</v>
       </c>
       <c r="E270" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F270" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G270" s="3">
         <v>45300.48923611111</v>
@@ -10957,7 +10960,7 @@
         <v>45316.08054398148</v>
       </c>
       <c r="I270" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -10974,10 +10977,10 @@
         <v>563</v>
       </c>
       <c r="E271" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F271" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G271" s="3">
         <v>45314.49359953704</v>
@@ -10986,7 +10989,7 @@
         <v>45314.66849537037</v>
       </c>
       <c r="I271" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -11003,10 +11006,10 @@
         <v>564</v>
       </c>
       <c r="E272" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F272" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G272" s="3">
         <v>45312.50121527778</v>
@@ -11015,7 +11018,7 @@
         <v>45312.67422453704</v>
       </c>
       <c r="I272" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -11032,10 +11035,10 @@
         <v>565</v>
       </c>
       <c r="E273" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F273" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G273" s="3">
         <v>45261.49545138889</v>
@@ -11044,7 +11047,7 @@
         <v>45309.04300925926</v>
       </c>
       <c r="I273" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -11061,10 +11064,10 @@
         <v>566</v>
       </c>
       <c r="E274" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F274" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G274" s="3">
         <v>45291.49003472222</v>
@@ -11073,7 +11076,7 @@
         <v>45316.08077546296</v>
       </c>
       <c r="I274" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -11090,10 +11093,10 @@
         <v>567</v>
       </c>
       <c r="E275" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F275" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G275" s="3">
         <v>45280.21361111111</v>
@@ -11102,7 +11105,7 @@
         <v>45309.04177083333</v>
       </c>
       <c r="I275" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -11119,10 +11122,10 @@
         <v>568</v>
       </c>
       <c r="E276" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F276" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G276" s="3">
         <v>45314.56188657408</v>
@@ -11131,7 +11134,7 @@
         <v>45315.48497685185</v>
       </c>
       <c r="I276" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -11148,10 +11151,10 @@
         <v>569</v>
       </c>
       <c r="E277" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F277" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G277" s="3">
         <v>45302.49186342592</v>
@@ -11160,7 +11163,7 @@
         <v>45316.08069444444</v>
       </c>
       <c r="I277" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -11177,10 +11180,10 @@
         <v>570</v>
       </c>
       <c r="E278" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F278" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G278" s="3">
         <v>45291.5000462963</v>
@@ -11189,7 +11192,7 @@
         <v>45314.49376157407</v>
       </c>
       <c r="I278" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -11206,10 +11209,10 @@
         <v>571</v>
       </c>
       <c r="E279" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F279" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G279" s="3">
         <v>45291.49392361111</v>
@@ -11218,7 +11221,7 @@
         <v>45314.49452546296</v>
       </c>
       <c r="I279" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -11235,10 +11238,10 @@
         <v>572</v>
       </c>
       <c r="E280" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F280" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G280" s="3">
         <v>45312.49576388889</v>
@@ -11247,7 +11250,7 @@
         <v>45316.03846064815</v>
       </c>
       <c r="I280" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -11264,10 +11267,10 @@
         <v>573</v>
       </c>
       <c r="E281" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F281" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G281" s="3">
         <v>45312.98068287037</v>
@@ -11276,7 +11279,7 @@
         <v>45316.08041666666</v>
       </c>
       <c r="I281" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -11293,10 +11296,10 @@
         <v>574</v>
       </c>
       <c r="E282" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F282" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G282" s="3">
         <v>45314.49623842593</v>
@@ -11305,7 +11308,7 @@
         <v>45316.08075231482</v>
       </c>
       <c r="I282" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -11322,10 +11325,10 @@
         <v>575</v>
       </c>
       <c r="E283" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F283" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G283" s="3">
         <v>45313.14449074074</v>
@@ -11334,7 +11337,7 @@
         <v>45316.08082175926</v>
       </c>
       <c r="I283" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -11351,10 +11354,10 @@
         <v>576</v>
       </c>
       <c r="E284" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F284" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G284" s="3">
         <v>45312.50119212963</v>
@@ -11363,7 +11366,7 @@
         <v>45316.08556712963</v>
       </c>
       <c r="I284" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -1753,85 +1753,85 @@
     <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
   </si>
   <si>
+    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 50, 'malicious': 18, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 3, 'suspicious': 0, 'undetected': 23, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 52, 'malicious': 14, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 0, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
     <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 50, 'malicious': 18, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 3, 'suspicious': 0, 'undetected': 23, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 52, 'malicious': 14, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 0, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
   </si>
   <si>
     <t>{'harmless': 61, 'malicious': 6, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
@@ -3243,7 +3243,7 @@
         <v>296</v>
       </c>
       <c r="E4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F4" t="s">
         <v>714</v>
@@ -3252,7 +3252,7 @@
         <v>45306.97109953704</v>
       </c>
       <c r="H4" s="3">
-        <v>45314.49285879629</v>
+        <v>45341.06746527777</v>
       </c>
       <c r="I4" t="s">
         <v>766</v>
@@ -3272,7 +3272,7 @@
         <v>297</v>
       </c>
       <c r="E5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F5" t="s">
         <v>712</v>
@@ -3301,7 +3301,7 @@
         <v>298</v>
       </c>
       <c r="E6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F6" t="s">
         <v>712</v>
@@ -3330,7 +3330,7 @@
         <v>299</v>
       </c>
       <c r="E7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F7" t="s">
         <v>715</v>
@@ -3359,7 +3359,7 @@
         <v>300</v>
       </c>
       <c r="E8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F8" t="s">
         <v>716</v>
@@ -3388,7 +3388,7 @@
         <v>301</v>
       </c>
       <c r="E9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F9" t="s">
         <v>717</v>
@@ -3417,7 +3417,7 @@
         <v>302</v>
       </c>
       <c r="E10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F10" t="s">
         <v>717</v>
@@ -3446,7 +3446,7 @@
         <v>303</v>
       </c>
       <c r="E11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F11" t="s">
         <v>713</v>
@@ -3475,7 +3475,7 @@
         <v>304</v>
       </c>
       <c r="E12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F12" t="s">
         <v>718</v>
@@ -3504,7 +3504,7 @@
         <v>305</v>
       </c>
       <c r="E13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F13" t="s">
         <v>719</v>
@@ -3533,7 +3533,7 @@
         <v>306</v>
       </c>
       <c r="E14" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F14" t="s">
         <v>720</v>
@@ -3562,7 +3562,7 @@
         <v>307</v>
       </c>
       <c r="E15" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F15" t="s">
         <v>718</v>
@@ -3591,7 +3591,7 @@
         <v>308</v>
       </c>
       <c r="E16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F16" t="s">
         <v>719</v>
@@ -3620,7 +3620,7 @@
         <v>309</v>
       </c>
       <c r="E17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F17" t="s">
         <v>721</v>
@@ -3649,7 +3649,7 @@
         <v>310</v>
       </c>
       <c r="E18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F18" t="s">
         <v>712</v>
@@ -3678,7 +3678,7 @@
         <v>311</v>
       </c>
       <c r="E19" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F19" t="s">
         <v>722</v>
@@ -3707,7 +3707,7 @@
         <v>312</v>
       </c>
       <c r="E20" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F20" t="s">
         <v>718</v>
@@ -3736,7 +3736,7 @@
         <v>313</v>
       </c>
       <c r="E21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F21" t="s">
         <v>723</v>
@@ -3765,7 +3765,7 @@
         <v>314</v>
       </c>
       <c r="E22" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F22" t="s">
         <v>724</v>
@@ -3794,7 +3794,7 @@
         <v>315</v>
       </c>
       <c r="E23" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F23" t="s">
         <v>725</v>
@@ -3823,7 +3823,7 @@
         <v>316</v>
       </c>
       <c r="E24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F24" t="s">
         <v>718</v>
@@ -3852,7 +3852,7 @@
         <v>317</v>
       </c>
       <c r="E25" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F25" t="s">
         <v>726</v>
@@ -3881,7 +3881,7 @@
         <v>318</v>
       </c>
       <c r="E26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F26" t="s">
         <v>727</v>
@@ -3910,7 +3910,7 @@
         <v>319</v>
       </c>
       <c r="E27" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F27" t="s">
         <v>724</v>
@@ -3939,7 +3939,7 @@
         <v>320</v>
       </c>
       <c r="E28" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F28" t="s">
         <v>728</v>
@@ -3968,7 +3968,7 @@
         <v>321</v>
       </c>
       <c r="E29" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F29" t="s">
         <v>729</v>
@@ -3997,7 +3997,7 @@
         <v>322</v>
       </c>
       <c r="E30" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F30" t="s">
         <v>730</v>
@@ -4026,7 +4026,7 @@
         <v>323</v>
       </c>
       <c r="E31" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F31" t="s">
         <v>731</v>
@@ -4055,7 +4055,7 @@
         <v>324</v>
       </c>
       <c r="E32" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F32" t="s">
         <v>713</v>
@@ -4084,7 +4084,7 @@
         <v>325</v>
       </c>
       <c r="E33" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F33" t="s">
         <v>727</v>
@@ -4113,7 +4113,7 @@
         <v>326</v>
       </c>
       <c r="E34" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F34" t="s">
         <v>729</v>
@@ -4142,7 +4142,7 @@
         <v>327</v>
       </c>
       <c r="E35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F35" t="s">
         <v>732</v>
@@ -4171,7 +4171,7 @@
         <v>328</v>
       </c>
       <c r="E36" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F36" t="s">
         <v>713</v>
@@ -4200,7 +4200,7 @@
         <v>329</v>
       </c>
       <c r="E37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F37" t="s">
         <v>733</v>
@@ -4229,7 +4229,7 @@
         <v>330</v>
       </c>
       <c r="E38" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F38" t="s">
         <v>734</v>
@@ -4258,7 +4258,7 @@
         <v>331</v>
       </c>
       <c r="E39" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="F39" t="s">
         <v>717</v>
@@ -4403,7 +4403,7 @@
         <v>336</v>
       </c>
       <c r="E44" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F44" t="s">
         <v>717</v>
@@ -4432,7 +4432,7 @@
         <v>337</v>
       </c>
       <c r="E45" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F45" t="s">
         <v>712</v>
@@ -4519,7 +4519,7 @@
         <v>340</v>
       </c>
       <c r="E48" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="F48" t="s">
         <v>712</v>
@@ -4606,7 +4606,7 @@
         <v>343</v>
       </c>
       <c r="E51" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F51" t="s">
         <v>723</v>
@@ -4635,7 +4635,7 @@
         <v>344</v>
       </c>
       <c r="E52" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F52" t="s">
         <v>723</v>
@@ -4780,7 +4780,7 @@
         <v>349</v>
       </c>
       <c r="E57" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F57" t="s">
         <v>739</v>
@@ -4809,7 +4809,7 @@
         <v>350</v>
       </c>
       <c r="E58" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F58" t="s">
         <v>713</v>
@@ -4838,7 +4838,7 @@
         <v>351</v>
       </c>
       <c r="E59" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F59" t="s">
         <v>712</v>
@@ -4954,7 +4954,7 @@
         <v>355</v>
       </c>
       <c r="E63" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F63" t="s">
         <v>741</v>
@@ -4983,7 +4983,7 @@
         <v>356</v>
       </c>
       <c r="E64" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F64" t="s">
         <v>712</v>
@@ -5128,7 +5128,7 @@
         <v>361</v>
       </c>
       <c r="E69" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F69" t="s">
         <v>725</v>
@@ -5302,7 +5302,7 @@
         <v>367</v>
       </c>
       <c r="E75" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F75" t="s">
         <v>715</v>
@@ -5357,7 +5357,7 @@
         <v>369</v>
       </c>
       <c r="E77" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F77" t="s">
         <v>725</v>
@@ -5444,7 +5444,7 @@
         <v>372</v>
       </c>
       <c r="E80" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F80" t="s">
         <v>712</v>
@@ -5473,7 +5473,7 @@
         <v>373</v>
       </c>
       <c r="E81" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="F81" t="s">
         <v>742</v>
@@ -5560,7 +5560,7 @@
         <v>376</v>
       </c>
       <c r="E84" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F84" t="s">
         <v>723</v>
@@ -5647,7 +5647,7 @@
         <v>379</v>
       </c>
       <c r="E87" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F87" t="s">
         <v>719</v>
@@ -5763,7 +5763,7 @@
         <v>383</v>
       </c>
       <c r="E91" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F91" t="s">
         <v>723</v>
@@ -5792,7 +5792,7 @@
         <v>384</v>
       </c>
       <c r="E92" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F92" t="s">
         <v>712</v>
@@ -5850,7 +5850,7 @@
         <v>386</v>
       </c>
       <c r="E94" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F94" t="s">
         <v>712</v>
@@ -5908,7 +5908,7 @@
         <v>388</v>
       </c>
       <c r="E96" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F96" t="s">
         <v>731</v>
@@ -5966,7 +5966,7 @@
         <v>390</v>
       </c>
       <c r="E98" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F98" t="s">
         <v>746</v>
@@ -6111,7 +6111,7 @@
         <v>395</v>
       </c>
       <c r="E103" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F103" t="s">
         <v>717</v>
@@ -6343,7 +6343,7 @@
         <v>403</v>
       </c>
       <c r="E111" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F111" t="s">
         <v>712</v>
@@ -6401,7 +6401,7 @@
         <v>405</v>
       </c>
       <c r="E113" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F113" t="s">
         <v>712</v>
@@ -6430,7 +6430,7 @@
         <v>406</v>
       </c>
       <c r="E114" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F114" t="s">
         <v>723</v>
@@ -6604,7 +6604,7 @@
         <v>412</v>
       </c>
       <c r="E120" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F120" t="s">
         <v>712</v>
@@ -6633,7 +6633,7 @@
         <v>413</v>
       </c>
       <c r="E121" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F121" t="s">
         <v>718</v>
@@ -6778,7 +6778,7 @@
         <v>418</v>
       </c>
       <c r="E126" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F126" t="s">
         <v>712</v>
@@ -6865,7 +6865,7 @@
         <v>421</v>
       </c>
       <c r="E129" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F129" t="s">
         <v>718</v>
@@ -7010,7 +7010,7 @@
         <v>426</v>
       </c>
       <c r="E134" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F134" t="s">
         <v>719</v>
@@ -7097,7 +7097,7 @@
         <v>429</v>
       </c>
       <c r="E137" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F137" t="s">
         <v>713</v>
@@ -7126,7 +7126,7 @@
         <v>430</v>
       </c>
       <c r="E138" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F138" t="s">
         <v>750</v>
@@ -7213,7 +7213,7 @@
         <v>433</v>
       </c>
       <c r="E141" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F141" t="s">
         <v>723</v>
@@ -7242,7 +7242,7 @@
         <v>434</v>
       </c>
       <c r="E142" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F142" t="s">
         <v>723</v>
@@ -7297,7 +7297,7 @@
         <v>436</v>
       </c>
       <c r="E144" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F144" t="s">
         <v>718</v>
@@ -7587,7 +7587,7 @@
         <v>446</v>
       </c>
       <c r="E154" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F154" t="s">
         <v>727</v>
@@ -7674,7 +7674,7 @@
         <v>449</v>
       </c>
       <c r="E157" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F157" t="s">
         <v>750</v>
@@ -7819,7 +7819,7 @@
         <v>454</v>
       </c>
       <c r="E162" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F162" t="s">
         <v>718</v>
@@ -7961,7 +7961,7 @@
         <v>459</v>
       </c>
       <c r="E167" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F167" t="s">
         <v>723</v>
@@ -8106,7 +8106,7 @@
         <v>464</v>
       </c>
       <c r="E172" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F172" t="s">
         <v>741</v>
@@ -8135,7 +8135,7 @@
         <v>465</v>
       </c>
       <c r="E173" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F173" t="s">
         <v>712</v>
@@ -8164,7 +8164,7 @@
         <v>466</v>
       </c>
       <c r="E174" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F174" t="s">
         <v>723</v>
@@ -8193,7 +8193,7 @@
         <v>467</v>
       </c>
       <c r="E175" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="F175" t="s">
         <v>752</v>
@@ -8251,7 +8251,7 @@
         <v>469</v>
       </c>
       <c r="E177" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F177" t="s">
         <v>718</v>
@@ -8512,7 +8512,7 @@
         <v>478</v>
       </c>
       <c r="E186" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F186" t="s">
         <v>752</v>
@@ -8657,7 +8657,7 @@
         <v>483</v>
       </c>
       <c r="E191" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F191" t="s">
         <v>721</v>
@@ -8947,7 +8947,7 @@
         <v>493</v>
       </c>
       <c r="E201" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F201" t="s">
         <v>725</v>
@@ -9092,7 +9092,7 @@
         <v>498</v>
       </c>
       <c r="E206" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F206" t="s">
         <v>744</v>
@@ -9469,7 +9469,7 @@
         <v>511</v>
       </c>
       <c r="E219" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F219" t="s">
         <v>713</v>
@@ -9498,7 +9498,7 @@
         <v>512</v>
       </c>
       <c r="E220" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F220" t="s">
         <v>717</v>
@@ -9730,7 +9730,7 @@
         <v>520</v>
       </c>
       <c r="E228" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F228" t="s">
         <v>725</v>
@@ -9788,7 +9788,7 @@
         <v>522</v>
       </c>
       <c r="E230" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F230" t="s">
         <v>752</v>
@@ -9846,7 +9846,7 @@
         <v>524</v>
       </c>
       <c r="E232" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="F232" t="s">
         <v>712</v>
@@ -9933,7 +9933,7 @@
         <v>527</v>
       </c>
       <c r="E235" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F235" t="s">
         <v>723</v>
@@ -10020,7 +10020,7 @@
         <v>530</v>
       </c>
       <c r="E238" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F238" t="s">
         <v>725</v>
@@ -10049,7 +10049,7 @@
         <v>531</v>
       </c>
       <c r="E239" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F239" t="s">
         <v>759</v>
@@ -10107,7 +10107,7 @@
         <v>533</v>
       </c>
       <c r="E241" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F241" t="s">
         <v>723</v>
@@ -10136,7 +10136,7 @@
         <v>534</v>
       </c>
       <c r="E242" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="F242" t="s">
         <v>712</v>
@@ -10281,7 +10281,7 @@
         <v>539</v>
       </c>
       <c r="E247" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="F247" t="s">
         <v>760</v>
@@ -10368,7 +10368,7 @@
         <v>542</v>
       </c>
       <c r="E250" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F250" t="s">
         <v>713</v>
@@ -10426,7 +10426,7 @@
         <v>544</v>
       </c>
       <c r="E252" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F252" t="s">
         <v>724</v>
@@ -10513,7 +10513,7 @@
         <v>547</v>
       </c>
       <c r="E255" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F255" t="s">
         <v>712</v>
@@ -10629,7 +10629,7 @@
         <v>551</v>
       </c>
       <c r="E259" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F259" t="s">
         <v>723</v>
@@ -10658,7 +10658,7 @@
         <v>552</v>
       </c>
       <c r="E260" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F260" t="s">
         <v>762</v>
@@ -10687,7 +10687,7 @@
         <v>553</v>
       </c>
       <c r="E261" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F261" t="s">
         <v>724</v>
@@ -10716,7 +10716,7 @@
         <v>554</v>
       </c>
       <c r="E262" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F262" t="s">
         <v>712</v>
@@ -10774,7 +10774,7 @@
         <v>556</v>
       </c>
       <c r="E264" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F264" t="s">
         <v>717</v>
@@ -10803,7 +10803,7 @@
         <v>557</v>
       </c>
       <c r="E265" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F265" t="s">
         <v>721</v>
@@ -10948,7 +10948,7 @@
         <v>562</v>
       </c>
       <c r="E270" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F270" t="s">
         <v>712</v>
@@ -11122,7 +11122,7 @@
         <v>568</v>
       </c>
       <c r="E276" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F276" t="s">
         <v>758</v>
@@ -11151,7 +11151,7 @@
         <v>569</v>
       </c>
       <c r="E277" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F277" t="s">
         <v>738</v>
@@ -11238,7 +11238,7 @@
         <v>572</v>
       </c>
       <c r="E280" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F280" t="s">
         <v>728</v>
@@ -11325,7 +11325,7 @@
         <v>575</v>
       </c>
       <c r="E283" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F283" t="s">
         <v>712</v>

--- a/1.xlsx
+++ b/1.xlsx
@@ -1753,82 +1753,82 @@
     <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
   </si>
   <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 50, 'malicious': 18, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 3, 'suspicious': 0, 'undetected': 23, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 52, 'malicious': 14, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 0, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
     <t>{'harmless': 54, 'malicious': 14, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 50, 'malicious': 18, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 3, 'suspicious': 0, 'undetected': 23, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 52, 'malicious': 14, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 0, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
   </si>
   <si>
     <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
@@ -3272,16 +3272,16 @@
         <v>297</v>
       </c>
       <c r="E5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F5" t="s">
         <v>712</v>
       </c>
       <c r="G5" s="3">
-        <v>45296.62438657408</v>
+        <v>45328.57457175926</v>
       </c>
       <c r="H5" s="3">
-        <v>45316.37925925926</v>
+        <v>45341.27858796297</v>
       </c>
       <c r="I5" t="s">
         <v>767</v>
@@ -3301,7 +3301,7 @@
         <v>298</v>
       </c>
       <c r="E6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F6" t="s">
         <v>712</v>
@@ -3330,7 +3330,7 @@
         <v>299</v>
       </c>
       <c r="E7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F7" t="s">
         <v>715</v>
@@ -3359,7 +3359,7 @@
         <v>300</v>
       </c>
       <c r="E8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F8" t="s">
         <v>716</v>
@@ -3388,7 +3388,7 @@
         <v>301</v>
       </c>
       <c r="E9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F9" t="s">
         <v>717</v>
@@ -3417,7 +3417,7 @@
         <v>302</v>
       </c>
       <c r="E10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F10" t="s">
         <v>717</v>
@@ -3446,7 +3446,7 @@
         <v>303</v>
       </c>
       <c r="E11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F11" t="s">
         <v>713</v>
@@ -3475,7 +3475,7 @@
         <v>304</v>
       </c>
       <c r="E12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F12" t="s">
         <v>718</v>
@@ -3504,7 +3504,7 @@
         <v>305</v>
       </c>
       <c r="E13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F13" t="s">
         <v>719</v>
@@ -3533,7 +3533,7 @@
         <v>306</v>
       </c>
       <c r="E14" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F14" t="s">
         <v>720</v>
@@ -3562,7 +3562,7 @@
         <v>307</v>
       </c>
       <c r="E15" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F15" t="s">
         <v>718</v>
@@ -3591,7 +3591,7 @@
         <v>308</v>
       </c>
       <c r="E16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F16" t="s">
         <v>719</v>
@@ -3620,7 +3620,7 @@
         <v>309</v>
       </c>
       <c r="E17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F17" t="s">
         <v>721</v>
@@ -3649,7 +3649,7 @@
         <v>310</v>
       </c>
       <c r="E18" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F18" t="s">
         <v>712</v>
@@ -3678,7 +3678,7 @@
         <v>311</v>
       </c>
       <c r="E19" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F19" t="s">
         <v>722</v>
@@ -3707,7 +3707,7 @@
         <v>312</v>
       </c>
       <c r="E20" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F20" t="s">
         <v>718</v>
@@ -3736,7 +3736,7 @@
         <v>313</v>
       </c>
       <c r="E21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F21" t="s">
         <v>723</v>
@@ -3765,7 +3765,7 @@
         <v>314</v>
       </c>
       <c r="E22" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F22" t="s">
         <v>724</v>
@@ -3794,7 +3794,7 @@
         <v>315</v>
       </c>
       <c r="E23" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F23" t="s">
         <v>725</v>
@@ -3823,7 +3823,7 @@
         <v>316</v>
       </c>
       <c r="E24" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F24" t="s">
         <v>718</v>
@@ -3852,7 +3852,7 @@
         <v>317</v>
       </c>
       <c r="E25" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F25" t="s">
         <v>726</v>
@@ -3881,7 +3881,7 @@
         <v>318</v>
       </c>
       <c r="E26" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F26" t="s">
         <v>727</v>
@@ -3910,7 +3910,7 @@
         <v>319</v>
       </c>
       <c r="E27" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F27" t="s">
         <v>724</v>
@@ -3939,7 +3939,7 @@
         <v>320</v>
       </c>
       <c r="E28" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F28" t="s">
         <v>728</v>
@@ -3968,7 +3968,7 @@
         <v>321</v>
       </c>
       <c r="E29" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F29" t="s">
         <v>729</v>
@@ -3997,7 +3997,7 @@
         <v>322</v>
       </c>
       <c r="E30" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F30" t="s">
         <v>730</v>
@@ -4026,7 +4026,7 @@
         <v>323</v>
       </c>
       <c r="E31" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F31" t="s">
         <v>731</v>
@@ -4055,7 +4055,7 @@
         <v>324</v>
       </c>
       <c r="E32" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F32" t="s">
         <v>713</v>
@@ -4084,7 +4084,7 @@
         <v>325</v>
       </c>
       <c r="E33" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F33" t="s">
         <v>727</v>
@@ -4113,7 +4113,7 @@
         <v>326</v>
       </c>
       <c r="E34" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F34" t="s">
         <v>729</v>
@@ -4142,7 +4142,7 @@
         <v>327</v>
       </c>
       <c r="E35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F35" t="s">
         <v>732</v>
@@ -4171,7 +4171,7 @@
         <v>328</v>
       </c>
       <c r="E36" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F36" t="s">
         <v>713</v>
@@ -4200,7 +4200,7 @@
         <v>329</v>
       </c>
       <c r="E37" t="s">
-        <v>579</v>
+        <v>604</v>
       </c>
       <c r="F37" t="s">
         <v>733</v>
@@ -4229,7 +4229,7 @@
         <v>330</v>
       </c>
       <c r="E38" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F38" t="s">
         <v>734</v>
@@ -4403,7 +4403,7 @@
         <v>336</v>
       </c>
       <c r="E44" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F44" t="s">
         <v>717</v>
@@ -4432,7 +4432,7 @@
         <v>337</v>
       </c>
       <c r="E45" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F45" t="s">
         <v>712</v>
@@ -4606,7 +4606,7 @@
         <v>343</v>
       </c>
       <c r="E51" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F51" t="s">
         <v>723</v>
@@ -4635,7 +4635,7 @@
         <v>344</v>
       </c>
       <c r="E52" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F52" t="s">
         <v>723</v>
@@ -4780,7 +4780,7 @@
         <v>349</v>
       </c>
       <c r="E57" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F57" t="s">
         <v>739</v>
@@ -4809,7 +4809,7 @@
         <v>350</v>
       </c>
       <c r="E58" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F58" t="s">
         <v>713</v>
@@ -4838,7 +4838,7 @@
         <v>351</v>
       </c>
       <c r="E59" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F59" t="s">
         <v>712</v>
@@ -4954,7 +4954,7 @@
         <v>355</v>
       </c>
       <c r="E63" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F63" t="s">
         <v>741</v>
@@ -4983,7 +4983,7 @@
         <v>356</v>
       </c>
       <c r="E64" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F64" t="s">
         <v>712</v>
@@ -5128,7 +5128,7 @@
         <v>361</v>
       </c>
       <c r="E69" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F69" t="s">
         <v>725</v>
@@ -5302,7 +5302,7 @@
         <v>367</v>
       </c>
       <c r="E75" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F75" t="s">
         <v>715</v>
@@ -5357,7 +5357,7 @@
         <v>369</v>
       </c>
       <c r="E77" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F77" t="s">
         <v>725</v>
@@ -5444,7 +5444,7 @@
         <v>372</v>
       </c>
       <c r="E80" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F80" t="s">
         <v>712</v>
@@ -5560,7 +5560,7 @@
         <v>376</v>
       </c>
       <c r="E84" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F84" t="s">
         <v>723</v>
@@ -5647,7 +5647,7 @@
         <v>379</v>
       </c>
       <c r="E87" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F87" t="s">
         <v>719</v>
@@ -5763,7 +5763,7 @@
         <v>383</v>
       </c>
       <c r="E91" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F91" t="s">
         <v>723</v>
@@ -5792,7 +5792,7 @@
         <v>384</v>
       </c>
       <c r="E92" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F92" t="s">
         <v>712</v>
@@ -5850,7 +5850,7 @@
         <v>386</v>
       </c>
       <c r="E94" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F94" t="s">
         <v>712</v>
@@ -5908,7 +5908,7 @@
         <v>388</v>
       </c>
       <c r="E96" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F96" t="s">
         <v>731</v>
@@ -5966,7 +5966,7 @@
         <v>390</v>
       </c>
       <c r="E98" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F98" t="s">
         <v>746</v>
@@ -6111,7 +6111,7 @@
         <v>395</v>
       </c>
       <c r="E103" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F103" t="s">
         <v>717</v>
@@ -6343,7 +6343,7 @@
         <v>403</v>
       </c>
       <c r="E111" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F111" t="s">
         <v>712</v>
@@ -6401,7 +6401,7 @@
         <v>405</v>
       </c>
       <c r="E113" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F113" t="s">
         <v>712</v>
@@ -6430,7 +6430,7 @@
         <v>406</v>
       </c>
       <c r="E114" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F114" t="s">
         <v>723</v>
@@ -6604,7 +6604,7 @@
         <v>412</v>
       </c>
       <c r="E120" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F120" t="s">
         <v>712</v>
@@ -6633,7 +6633,7 @@
         <v>413</v>
       </c>
       <c r="E121" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F121" t="s">
         <v>718</v>
@@ -6778,7 +6778,7 @@
         <v>418</v>
       </c>
       <c r="E126" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F126" t="s">
         <v>712</v>
@@ -6865,7 +6865,7 @@
         <v>421</v>
       </c>
       <c r="E129" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F129" t="s">
         <v>718</v>
@@ -7010,7 +7010,7 @@
         <v>426</v>
       </c>
       <c r="E134" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F134" t="s">
         <v>719</v>
@@ -7097,7 +7097,7 @@
         <v>429</v>
       </c>
       <c r="E137" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F137" t="s">
         <v>713</v>
@@ -7126,7 +7126,7 @@
         <v>430</v>
       </c>
       <c r="E138" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F138" t="s">
         <v>750</v>
@@ -7213,7 +7213,7 @@
         <v>433</v>
       </c>
       <c r="E141" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F141" t="s">
         <v>723</v>
@@ -7242,7 +7242,7 @@
         <v>434</v>
       </c>
       <c r="E142" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F142" t="s">
         <v>723</v>
@@ -7297,7 +7297,7 @@
         <v>436</v>
       </c>
       <c r="E144" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F144" t="s">
         <v>718</v>
@@ -7587,7 +7587,7 @@
         <v>446</v>
       </c>
       <c r="E154" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F154" t="s">
         <v>727</v>
@@ -7674,7 +7674,7 @@
         <v>449</v>
       </c>
       <c r="E157" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F157" t="s">
         <v>750</v>
@@ -7819,7 +7819,7 @@
         <v>454</v>
       </c>
       <c r="E162" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F162" t="s">
         <v>718</v>
@@ -7961,7 +7961,7 @@
         <v>459</v>
       </c>
       <c r="E167" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F167" t="s">
         <v>723</v>
@@ -8106,7 +8106,7 @@
         <v>464</v>
       </c>
       <c r="E172" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F172" t="s">
         <v>741</v>
@@ -8135,7 +8135,7 @@
         <v>465</v>
       </c>
       <c r="E173" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F173" t="s">
         <v>712</v>
@@ -8164,7 +8164,7 @@
         <v>466</v>
       </c>
       <c r="E174" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F174" t="s">
         <v>723</v>
@@ -8251,7 +8251,7 @@
         <v>469</v>
       </c>
       <c r="E177" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F177" t="s">
         <v>718</v>
@@ -8512,7 +8512,7 @@
         <v>478</v>
       </c>
       <c r="E186" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F186" t="s">
         <v>752</v>
@@ -8657,7 +8657,7 @@
         <v>483</v>
       </c>
       <c r="E191" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F191" t="s">
         <v>721</v>
@@ -8947,7 +8947,7 @@
         <v>493</v>
       </c>
       <c r="E201" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F201" t="s">
         <v>725</v>
@@ -9092,7 +9092,7 @@
         <v>498</v>
       </c>
       <c r="E206" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F206" t="s">
         <v>744</v>
@@ -9469,7 +9469,7 @@
         <v>511</v>
       </c>
       <c r="E219" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F219" t="s">
         <v>713</v>
@@ -9498,7 +9498,7 @@
         <v>512</v>
       </c>
       <c r="E220" t="s">
-        <v>579</v>
+        <v>604</v>
       </c>
       <c r="F220" t="s">
         <v>717</v>
@@ -9730,7 +9730,7 @@
         <v>520</v>
       </c>
       <c r="E228" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F228" t="s">
         <v>725</v>
@@ -9788,7 +9788,7 @@
         <v>522</v>
       </c>
       <c r="E230" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F230" t="s">
         <v>752</v>
@@ -9933,7 +9933,7 @@
         <v>527</v>
       </c>
       <c r="E235" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F235" t="s">
         <v>723</v>
@@ -10020,7 +10020,7 @@
         <v>530</v>
       </c>
       <c r="E238" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F238" t="s">
         <v>725</v>
@@ -10049,7 +10049,7 @@
         <v>531</v>
       </c>
       <c r="E239" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F239" t="s">
         <v>759</v>
@@ -10107,7 +10107,7 @@
         <v>533</v>
       </c>
       <c r="E241" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F241" t="s">
         <v>723</v>
@@ -10368,7 +10368,7 @@
         <v>542</v>
       </c>
       <c r="E250" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F250" t="s">
         <v>713</v>
@@ -10426,7 +10426,7 @@
         <v>544</v>
       </c>
       <c r="E252" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F252" t="s">
         <v>724</v>
@@ -10513,7 +10513,7 @@
         <v>547</v>
       </c>
       <c r="E255" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F255" t="s">
         <v>712</v>
@@ -10629,7 +10629,7 @@
         <v>551</v>
       </c>
       <c r="E259" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F259" t="s">
         <v>723</v>
@@ -10658,7 +10658,7 @@
         <v>552</v>
       </c>
       <c r="E260" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F260" t="s">
         <v>762</v>
@@ -10687,7 +10687,7 @@
         <v>553</v>
       </c>
       <c r="E261" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F261" t="s">
         <v>724</v>
@@ -10716,7 +10716,7 @@
         <v>554</v>
       </c>
       <c r="E262" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F262" t="s">
         <v>712</v>
@@ -10774,7 +10774,7 @@
         <v>556</v>
       </c>
       <c r="E264" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F264" t="s">
         <v>717</v>
@@ -10803,7 +10803,7 @@
         <v>557</v>
       </c>
       <c r="E265" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F265" t="s">
         <v>721</v>
@@ -10948,7 +10948,7 @@
         <v>562</v>
       </c>
       <c r="E270" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F270" t="s">
         <v>712</v>
@@ -11122,7 +11122,7 @@
         <v>568</v>
       </c>
       <c r="E276" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F276" t="s">
         <v>758</v>
@@ -11151,7 +11151,7 @@
         <v>569</v>
       </c>
       <c r="E277" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F277" t="s">
         <v>738</v>
@@ -11238,7 +11238,7 @@
         <v>572</v>
       </c>
       <c r="E280" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F280" t="s">
         <v>728</v>
@@ -11325,7 +11325,7 @@
         <v>575</v>
       </c>
       <c r="E283" t="s">
-        <v>579</v>
+        <v>604</v>
       </c>
       <c r="F283" t="s">
         <v>712</v>

--- a/1.xlsx
+++ b/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="917">
   <si>
     <t>Sno</t>
   </si>
@@ -1753,298 +1753,301 @@
     <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
   </si>
   <si>
+    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 50, 'malicious': 18, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 3, 'suspicious': 0, 'undetected': 23, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 52, 'malicious': 14, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 0, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 7, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 9, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 10, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 52, 'malicious': 17, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 5, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 1, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 12, 'suspicious': 2, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 16, 'suspicious': 1, 'undetected': 19, 'harmless': 53, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 6, 'suspicious': 2, 'undetected': 20, 'harmless': 61, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 13, 'suspicious': 1, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 14, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 8, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 8, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 6, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 11, 'suspicious': 1, 'undetected': 23, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 8, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 0, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 1, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 9, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 1, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 4, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 5, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 2, 'suspicious': 1, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 4, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 65, 'malicious': 2, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 51, 'malicious': 18, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 16, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 12, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 52, 'malicious': 16, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 6, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 51, 'malicious': 18, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 12, 'suspicious': 0, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 4, 'suspicious': 2, 'undetected': 23, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 51, 'malicious': 18, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 5, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 15, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 16, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 15, 'suspicious': 2, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 3, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 4, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
     <t>{'harmless': 57, 'malicious': 11, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 50, 'malicious': 18, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 3, 'suspicious': 0, 'undetected': 23, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 52, 'malicious': 14, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 0, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 7, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 9, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 10, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 52, 'malicious': 17, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 5, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 1, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 12, 'suspicious': 2, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 16, 'suspicious': 1, 'undetected': 19, 'harmless': 53, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 6, 'suspicious': 2, 'undetected': 20, 'harmless': 61, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 13, 'suspicious': 1, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 14, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 8, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 8, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 6, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 11, 'suspicious': 1, 'undetected': 23, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 8, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 0, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 1, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 9, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 1, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 4, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 5, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 2, 'suspicious': 1, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 4, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 65, 'malicious': 2, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 51, 'malicious': 18, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 16, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 12, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 52, 'malicious': 16, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 6, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 51, 'malicious': 18, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 12, 'suspicious': 0, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 4, 'suspicious': 2, 'undetected': 23, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 51, 'malicious': 18, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 5, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 15, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 16, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 15, 'suspicious': 2, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 3, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 4, 'undetected': 17, 'timeout': 0}</t>
   </si>
   <si>
     <t>{'harmless': 58, 'malicious': 11, 'suspicious': 3, 'undetected': 17, 'timeout': 0}</t>
@@ -3188,7 +3191,7 @@
         <v>577</v>
       </c>
       <c r="F2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G2" s="3">
         <v>45311.61894675926</v>
@@ -3197,7 +3200,7 @@
         <v>45341.32113425926</v>
       </c>
       <c r="I2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3217,7 +3220,7 @@
         <v>578</v>
       </c>
       <c r="F3" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G3" s="3">
         <v>45328.50989583333</v>
@@ -3226,7 +3229,7 @@
         <v>45341.27945601852</v>
       </c>
       <c r="I3" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3246,7 +3249,7 @@
         <v>578</v>
       </c>
       <c r="F4" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G4" s="3">
         <v>45306.97109953704</v>
@@ -3255,7 +3258,7 @@
         <v>45341.06746527777</v>
       </c>
       <c r="I4" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3275,7 +3278,7 @@
         <v>578</v>
       </c>
       <c r="F5" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G5" s="3">
         <v>45328.57457175926</v>
@@ -3284,7 +3287,7 @@
         <v>45341.27858796297</v>
       </c>
       <c r="I5" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3304,16 +3307,16 @@
         <v>579</v>
       </c>
       <c r="F6" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G6" s="3">
-        <v>45306.65881944444</v>
+        <v>45337.51012731482</v>
       </c>
       <c r="H6" s="3">
-        <v>45316.37922453704</v>
+        <v>45341.27866898148</v>
       </c>
       <c r="I6" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3333,7 +3336,7 @@
         <v>580</v>
       </c>
       <c r="F7" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G7" s="3">
         <v>45298.49136574074</v>
@@ -3342,7 +3345,7 @@
         <v>45316.42087962963</v>
       </c>
       <c r="I7" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3362,7 +3365,7 @@
         <v>581</v>
       </c>
       <c r="F8" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G8" s="3">
         <v>45302.4922337963</v>
@@ -3371,7 +3374,7 @@
         <v>45312.49145833333</v>
       </c>
       <c r="I8" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3391,7 +3394,7 @@
         <v>582</v>
       </c>
       <c r="F9" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G9" s="3">
         <v>45308.21690972222</v>
@@ -3400,7 +3403,7 @@
         <v>45314.97233796296</v>
       </c>
       <c r="I9" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3420,7 +3423,7 @@
         <v>583</v>
       </c>
       <c r="F10" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G10" s="3">
         <v>45298.49690972222</v>
@@ -3429,7 +3432,7 @@
         <v>45314.49306712963</v>
       </c>
       <c r="I10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3449,7 +3452,7 @@
         <v>584</v>
       </c>
       <c r="F11" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G11" s="3">
         <v>45282.7141087963</v>
@@ -3458,7 +3461,7 @@
         <v>45311.61704861111</v>
       </c>
       <c r="I11" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3478,7 +3481,7 @@
         <v>585</v>
       </c>
       <c r="F12" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G12" s="3">
         <v>45298.49170138889</v>
@@ -3487,7 +3490,7 @@
         <v>45316.37927083333</v>
       </c>
       <c r="I12" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3507,7 +3510,7 @@
         <v>586</v>
       </c>
       <c r="F13" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G13" s="3">
         <v>45280.79738425926</v>
@@ -3516,7 +3519,7 @@
         <v>45309.10356481482</v>
       </c>
       <c r="I13" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3536,7 +3539,7 @@
         <v>587</v>
       </c>
       <c r="F14" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G14" s="3">
         <v>45298.49263888889</v>
@@ -3545,7 +3548,7 @@
         <v>45316.37927083333</v>
       </c>
       <c r="I14" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3565,7 +3568,7 @@
         <v>588</v>
       </c>
       <c r="F15" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G15" s="3">
         <v>45310.43427083334</v>
@@ -3574,7 +3577,7 @@
         <v>45316.36269675926</v>
       </c>
       <c r="I15" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3594,7 +3597,7 @@
         <v>589</v>
       </c>
       <c r="F16" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G16" s="3">
         <v>45311.33236111111</v>
@@ -3603,7 +3606,7 @@
         <v>45314.49320601852</v>
       </c>
       <c r="I16" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3623,7 +3626,7 @@
         <v>590</v>
       </c>
       <c r="F17" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G17" s="3">
         <v>45301.30826388889</v>
@@ -3632,7 +3635,7 @@
         <v>45316.37930555556</v>
       </c>
       <c r="I17" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3652,7 +3655,7 @@
         <v>591</v>
       </c>
       <c r="F18" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G18" s="3">
         <v>45306.18137731482</v>
@@ -3661,7 +3664,7 @@
         <v>45316.42100694445</v>
       </c>
       <c r="I18" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3681,7 +3684,7 @@
         <v>592</v>
       </c>
       <c r="F19" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G19" s="3">
         <v>45288.23121527778</v>
@@ -3690,7 +3693,7 @@
         <v>45302.48868055556</v>
       </c>
       <c r="I19" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3710,7 +3713,7 @@
         <v>593</v>
       </c>
       <c r="F20" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G20" s="3">
         <v>45307.52993055555</v>
@@ -3719,7 +3722,7 @@
         <v>45314.19462962963</v>
       </c>
       <c r="I20" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3739,7 +3742,7 @@
         <v>594</v>
       </c>
       <c r="F21" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G21" s="3">
         <v>45314.42365740741</v>
@@ -3748,7 +3751,7 @@
         <v>45314.42368055556</v>
       </c>
       <c r="I21" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3768,7 +3771,7 @@
         <v>584</v>
       </c>
       <c r="F22" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G22" s="3">
         <v>45305.57067129629</v>
@@ -3777,7 +3780,7 @@
         <v>45316.42155092592</v>
       </c>
       <c r="I22" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3797,7 +3800,7 @@
         <v>582</v>
       </c>
       <c r="F23" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G23" s="3">
         <v>45291.49997685185</v>
@@ -3806,7 +3809,7 @@
         <v>45314.49226851852</v>
       </c>
       <c r="I23" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3826,7 +3829,7 @@
         <v>595</v>
       </c>
       <c r="F24" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G24" s="3">
         <v>45309.80174768518</v>
@@ -3835,7 +3838,7 @@
         <v>45315.85729166667</v>
       </c>
       <c r="I24" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3855,7 +3858,7 @@
         <v>586</v>
       </c>
       <c r="F25" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G25" s="3">
         <v>45299.43368055556</v>
@@ -3864,7 +3867,7 @@
         <v>45316.37909722222</v>
       </c>
       <c r="I25" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3884,7 +3887,7 @@
         <v>596</v>
       </c>
       <c r="F26" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G26" s="3">
         <v>45314.17763888889</v>
@@ -3893,7 +3896,7 @@
         <v>45316.08064814815</v>
       </c>
       <c r="I26" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3913,7 +3916,7 @@
         <v>597</v>
       </c>
       <c r="F27" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G27" s="3">
         <v>45291.49208333333</v>
@@ -3922,7 +3925,7 @@
         <v>45316.34907407407</v>
       </c>
       <c r="I27" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3942,7 +3945,7 @@
         <v>598</v>
       </c>
       <c r="F28" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G28" s="3">
         <v>45289.73149305556</v>
@@ -3951,7 +3954,7 @@
         <v>45316.37931712963</v>
       </c>
       <c r="I28" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3971,7 +3974,7 @@
         <v>599</v>
       </c>
       <c r="F29" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G29" s="3">
         <v>45312.4952662037</v>
@@ -3980,7 +3983,7 @@
         <v>45315.52618055556</v>
       </c>
       <c r="I29" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4000,7 +4003,7 @@
         <v>600</v>
       </c>
       <c r="F30" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G30" s="3">
         <v>45307.49253472222</v>
@@ -4009,7 +4012,7 @@
         <v>45316.3793287037</v>
       </c>
       <c r="I30" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4029,7 +4032,7 @@
         <v>596</v>
       </c>
       <c r="F31" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G31" s="3">
         <v>45311.71104166667</v>
@@ -4038,7 +4041,7 @@
         <v>45316.37922453704</v>
       </c>
       <c r="I31" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4058,7 +4061,7 @@
         <v>596</v>
       </c>
       <c r="F32" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G32" s="3">
         <v>45312.34644675926</v>
@@ -4067,7 +4070,7 @@
         <v>45316.37908564815</v>
       </c>
       <c r="I32" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4087,7 +4090,7 @@
         <v>601</v>
       </c>
       <c r="F33" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G33" s="3">
         <v>44163.34006944444</v>
@@ -4096,7 +4099,7 @@
         <v>44163.34006944444</v>
       </c>
       <c r="I33" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4116,7 +4119,7 @@
         <v>591</v>
       </c>
       <c r="F34" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G34" s="3">
         <v>45286.80534722222</v>
@@ -4125,7 +4128,7 @@
         <v>45316.37934027778</v>
       </c>
       <c r="I34" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4145,7 +4148,7 @@
         <v>602</v>
       </c>
       <c r="F35" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G35" s="3">
         <v>45302.49230324074</v>
@@ -4154,7 +4157,7 @@
         <v>45314.98761574074</v>
       </c>
       <c r="I35" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4174,7 +4177,7 @@
         <v>603</v>
       </c>
       <c r="F36" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G36" s="3">
         <v>45302.49503472223</v>
@@ -4183,7 +4186,7 @@
         <v>45315.48547453704</v>
       </c>
       <c r="I36" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4203,7 +4206,7 @@
         <v>604</v>
       </c>
       <c r="F37" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G37" s="3">
         <v>45311.61938657407</v>
@@ -4212,7 +4215,7 @@
         <v>45316.42167824074</v>
       </c>
       <c r="I37" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4232,7 +4235,7 @@
         <v>600</v>
       </c>
       <c r="F38" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G38" s="3">
         <v>45297.0796412037</v>
@@ -4241,7 +4244,7 @@
         <v>45316.49811342593</v>
       </c>
       <c r="I38" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4261,7 +4264,7 @@
         <v>605</v>
       </c>
       <c r="F39" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G39" s="3">
         <v>45290.31696759259</v>
@@ -4270,7 +4273,7 @@
         <v>45316.49866898148</v>
       </c>
       <c r="I39" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4290,7 +4293,7 @@
         <v>606</v>
       </c>
       <c r="F40" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G40" s="3">
         <v>45313.59486111111</v>
@@ -4299,7 +4302,7 @@
         <v>45316.49662037037</v>
       </c>
       <c r="I40" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4319,7 +4322,7 @@
         <v>607</v>
       </c>
       <c r="F41" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G41" s="3">
         <v>45295.49177083333</v>
@@ -4328,7 +4331,7 @@
         <v>45316.49807870371</v>
       </c>
       <c r="I41" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4348,7 +4351,7 @@
         <v>608</v>
       </c>
       <c r="F42" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G42" s="3">
         <v>45311.92179398148</v>
@@ -4357,7 +4360,7 @@
         <v>45316.4971875</v>
       </c>
       <c r="I42" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4377,7 +4380,7 @@
         <v>607</v>
       </c>
       <c r="F43" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G43" s="3">
         <v>45296.05393518518</v>
@@ -4386,7 +4389,7 @@
         <v>45316.50489583334</v>
       </c>
       <c r="I43" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4406,7 +4409,7 @@
         <v>596</v>
       </c>
       <c r="F44" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G44" s="3">
         <v>45313.11333333333</v>
@@ -4415,7 +4418,7 @@
         <v>45316.49230324074</v>
       </c>
       <c r="I44" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4435,7 +4438,7 @@
         <v>599</v>
       </c>
       <c r="F45" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G45" s="3">
         <v>45306.61894675926</v>
@@ -4444,7 +4447,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I45" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4464,7 +4467,7 @@
         <v>609</v>
       </c>
       <c r="F46" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G46" s="3">
         <v>45312.49850694444</v>
@@ -4473,7 +4476,7 @@
         <v>45316.49799768518</v>
       </c>
       <c r="I46" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4493,7 +4496,7 @@
         <v>610</v>
       </c>
       <c r="F47" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G47" s="3">
         <v>45262.49515046296</v>
@@ -4502,7 +4505,7 @@
         <v>45309.07923611111</v>
       </c>
       <c r="I47" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4522,7 +4525,7 @@
         <v>605</v>
       </c>
       <c r="F48" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G48" s="3">
         <v>45298.49847222222</v>
@@ -4531,7 +4534,7 @@
         <v>45316.49944444445</v>
       </c>
       <c r="I48" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4551,7 +4554,7 @@
         <v>611</v>
       </c>
       <c r="F49" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G49" s="3">
         <v>45311.61908564815</v>
@@ -4560,7 +4563,7 @@
         <v>45316.49847222222</v>
       </c>
       <c r="I49" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4580,7 +4583,7 @@
         <v>612</v>
       </c>
       <c r="F50" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G50" s="3">
         <v>45311.61989583333</v>
@@ -4589,7 +4592,7 @@
         <v>45316.50482638889</v>
       </c>
       <c r="I50" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4609,7 +4612,7 @@
         <v>600</v>
       </c>
       <c r="F51" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G51" s="3">
         <v>45316.50053240741</v>
@@ -4618,7 +4621,7 @@
         <v>45316.50232638889</v>
       </c>
       <c r="I51" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4638,7 +4641,7 @@
         <v>594</v>
       </c>
       <c r="F52" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G52" s="3">
         <v>45313.05881944444</v>
@@ -4647,7 +4650,7 @@
         <v>45314.42322916666</v>
       </c>
       <c r="I52" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4667,7 +4670,7 @@
         <v>613</v>
       </c>
       <c r="F53" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G53" s="3">
         <v>45316.5015162037</v>
@@ -4676,7 +4679,7 @@
         <v>45316.50331018519</v>
       </c>
       <c r="I53" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4696,7 +4699,7 @@
         <v>614</v>
       </c>
       <c r="F54" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G54" s="3">
         <v>45291.62113425926</v>
@@ -4705,7 +4708,7 @@
         <v>45316.49827546296</v>
       </c>
       <c r="I54" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4725,7 +4728,7 @@
         <v>615</v>
       </c>
       <c r="F55" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G55" s="3">
         <v>45287.49758101852</v>
@@ -4734,7 +4737,7 @@
         <v>45316.50458333334</v>
       </c>
       <c r="I55" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4754,7 +4757,7 @@
         <v>616</v>
       </c>
       <c r="F56" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G56" s="3">
         <v>45280.75131944445</v>
@@ -4763,7 +4766,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I56" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4783,7 +4786,7 @@
         <v>599</v>
       </c>
       <c r="F57" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G57" s="3">
         <v>45291.49048611111</v>
@@ -4792,7 +4795,7 @@
         <v>45316.50336805556</v>
       </c>
       <c r="I57" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4812,7 +4815,7 @@
         <v>590</v>
       </c>
       <c r="F58" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G58" s="3">
         <v>45310.86956018519</v>
@@ -4821,7 +4824,7 @@
         <v>45314.48899305556</v>
       </c>
       <c r="I58" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4841,7 +4844,7 @@
         <v>584</v>
       </c>
       <c r="F59" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G59" s="3">
         <v>45311.61930555556</v>
@@ -4850,7 +4853,7 @@
         <v>45316.49861111111</v>
       </c>
       <c r="I59" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4870,7 +4873,7 @@
         <v>617</v>
       </c>
       <c r="F60" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G60" s="3">
         <v>45313.76346064815</v>
@@ -4879,7 +4882,7 @@
         <v>45316.49800925926</v>
       </c>
       <c r="I60" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4899,7 +4902,7 @@
         <v>618</v>
       </c>
       <c r="F61" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G61" s="3">
         <v>45278.11224537037</v>
@@ -4908,7 +4911,7 @@
         <v>45302.49298611111</v>
       </c>
       <c r="I61" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4928,7 +4931,7 @@
         <v>607</v>
       </c>
       <c r="F62" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G62" s="3">
         <v>45278.21631944444</v>
@@ -4937,7 +4940,7 @@
         <v>45316.50450231481</v>
       </c>
       <c r="I62" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4957,7 +4960,7 @@
         <v>601</v>
       </c>
       <c r="F63" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G63" s="3">
         <v>45163.2121412037</v>
@@ -4966,7 +4969,7 @@
         <v>45163.2121412037</v>
       </c>
       <c r="I63" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4986,7 +4989,7 @@
         <v>603</v>
       </c>
       <c r="F64" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G64" s="3">
         <v>45316.49957175926</v>
@@ -4995,7 +4998,7 @@
         <v>45316.50452546297</v>
       </c>
       <c r="I64" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -5015,7 +5018,7 @@
         <v>619</v>
       </c>
       <c r="F65" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G65" s="3">
         <v>45297.49180555555</v>
@@ -5024,7 +5027,7 @@
         <v>45316.50127314815</v>
       </c>
       <c r="I65" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -5044,7 +5047,7 @@
         <v>620</v>
       </c>
       <c r="F66" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G66" s="3">
         <v>45297.09299768518</v>
@@ -5053,7 +5056,7 @@
         <v>45316.5039699074</v>
       </c>
       <c r="I66" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -5073,7 +5076,7 @@
         <v>621</v>
       </c>
       <c r="F67" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G67" s="3">
         <v>45316.50059027778</v>
@@ -5082,7 +5085,7 @@
         <v>45316.50255787037</v>
       </c>
       <c r="I67" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -5102,7 +5105,7 @@
         <v>622</v>
       </c>
       <c r="F68" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G68" s="3">
         <v>45313.63670138889</v>
@@ -5111,7 +5114,7 @@
         <v>45315.90416666667</v>
       </c>
       <c r="I68" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -5131,7 +5134,7 @@
         <v>584</v>
       </c>
       <c r="F69" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G69" s="3">
         <v>45304.51188657407</v>
@@ -5140,7 +5143,7 @@
         <v>45315.56863425926</v>
       </c>
       <c r="I69" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -5160,7 +5163,7 @@
         <v>623</v>
       </c>
       <c r="F70" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G70" s="3">
         <v>45291.49329861111</v>
@@ -5169,7 +5172,7 @@
         <v>45312.93239583333</v>
       </c>
       <c r="I70" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -5189,7 +5192,7 @@
         <v>624</v>
       </c>
       <c r="F71" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G71" s="3">
         <v>45300.57674768518</v>
@@ -5198,7 +5201,7 @@
         <v>45315.52626157407</v>
       </c>
       <c r="I71" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -5218,7 +5221,7 @@
         <v>625</v>
       </c>
       <c r="F72" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G72" s="3">
         <v>45310.40046296296</v>
@@ -5227,7 +5230,7 @@
         <v>45312.49293981482</v>
       </c>
       <c r="I72" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5247,7 +5250,7 @@
         <v>625</v>
       </c>
       <c r="F73" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G73" s="3">
         <v>45291.49876157408</v>
@@ -5256,7 +5259,7 @@
         <v>45314.49362268519</v>
       </c>
       <c r="I73" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5276,7 +5279,7 @@
         <v>626</v>
       </c>
       <c r="F74" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G74" s="3">
         <v>45292.49576388889</v>
@@ -5285,7 +5288,7 @@
         <v>45314.64596064815</v>
       </c>
       <c r="I74" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5305,13 +5308,13 @@
         <v>601</v>
       </c>
       <c r="F75" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H75" s="3">
         <v>45047.30018518519</v>
       </c>
       <c r="I75" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -5331,7 +5334,7 @@
         <v>627</v>
       </c>
       <c r="F76" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G76" s="3">
         <v>45291.49430555556</v>
@@ -5340,7 +5343,7 @@
         <v>45316.16467592592</v>
       </c>
       <c r="I76" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5360,7 +5363,7 @@
         <v>596</v>
       </c>
       <c r="F77" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G77" s="3">
         <v>45283.62505787037</v>
@@ -5369,7 +5372,7 @@
         <v>45309.04886574074</v>
       </c>
       <c r="I77" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5389,7 +5392,7 @@
         <v>617</v>
       </c>
       <c r="F78" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G78" s="3">
         <v>45262.59487268519</v>
@@ -5398,7 +5401,7 @@
         <v>45309.01453703704</v>
       </c>
       <c r="I78" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -5418,7 +5421,7 @@
         <v>628</v>
       </c>
       <c r="F79" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G79" s="3">
         <v>45312.49354166666</v>
@@ -5427,7 +5430,7 @@
         <v>45316.164375</v>
       </c>
       <c r="I79" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -5447,7 +5450,7 @@
         <v>590</v>
       </c>
       <c r="F80" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G80" s="3">
         <v>45312.7619675926</v>
@@ -5456,7 +5459,7 @@
         <v>45315.65320601852</v>
       </c>
       <c r="I80" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5476,7 +5479,7 @@
         <v>605</v>
       </c>
       <c r="F81" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G81" s="3">
         <v>45310.90116898148</v>
@@ -5485,7 +5488,7 @@
         <v>45316.2090625</v>
       </c>
       <c r="I81" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5505,7 +5508,7 @@
         <v>629</v>
       </c>
       <c r="F82" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G82" s="3">
         <v>45315.1578125</v>
@@ -5514,7 +5517,7 @@
         <v>45316.16471064815</v>
       </c>
       <c r="I82" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -5534,7 +5537,7 @@
         <v>630</v>
       </c>
       <c r="F83" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G83" s="3">
         <v>45287.44400462963</v>
@@ -5543,7 +5546,7 @@
         <v>45314.49243055555</v>
       </c>
       <c r="I83" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -5563,7 +5566,7 @@
         <v>594</v>
       </c>
       <c r="F84" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G84" s="3">
         <v>45309.58261574074</v>
@@ -5572,7 +5575,7 @@
         <v>45314.42337962963</v>
       </c>
       <c r="I84" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -5592,7 +5595,7 @@
         <v>618</v>
       </c>
       <c r="F85" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G85" s="3">
         <v>45280.04030092592</v>
@@ -5601,7 +5604,7 @@
         <v>45309.01909722222</v>
       </c>
       <c r="I85" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -5621,7 +5624,7 @@
         <v>631</v>
       </c>
       <c r="F86" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G86" s="3">
         <v>45302.49703703704</v>
@@ -5630,7 +5633,7 @@
         <v>45316.20864583334</v>
       </c>
       <c r="I86" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -5650,7 +5653,7 @@
         <v>589</v>
       </c>
       <c r="F87" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G87" s="3">
         <v>45313.29277777778</v>
@@ -5659,7 +5662,7 @@
         <v>45315.23820601852</v>
       </c>
       <c r="I87" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5679,7 +5682,7 @@
         <v>632</v>
       </c>
       <c r="F88" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G88" s="3">
         <v>45286.50180555556</v>
@@ -5688,7 +5691,7 @@
         <v>45312.67471064815</v>
       </c>
       <c r="I88" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5708,7 +5711,7 @@
         <v>633</v>
       </c>
       <c r="F89" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G89" s="3">
         <v>45311.42429398148</v>
@@ -5717,7 +5720,7 @@
         <v>45314.89614583334</v>
       </c>
       <c r="I89" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -5737,7 +5740,7 @@
         <v>634</v>
       </c>
       <c r="F90" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G90" s="3">
         <v>45306.6199537037</v>
@@ -5746,7 +5749,7 @@
         <v>45314.49379629629</v>
       </c>
       <c r="I90" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -5766,7 +5769,7 @@
         <v>594</v>
       </c>
       <c r="F91" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G91" s="3">
         <v>45315.42351851852</v>
@@ -5775,7 +5778,7 @@
         <v>45315.42354166666</v>
       </c>
       <c r="I91" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5795,7 +5798,7 @@
         <v>600</v>
       </c>
       <c r="F92" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G92" s="3">
         <v>45287.95120370371</v>
@@ -5804,7 +5807,7 @@
         <v>45315.61121527778</v>
       </c>
       <c r="I92" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -5824,7 +5827,7 @@
         <v>635</v>
       </c>
       <c r="F93" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G93" s="3">
         <v>45312.49561342593</v>
@@ -5833,7 +5836,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I93" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5853,7 +5856,7 @@
         <v>584</v>
       </c>
       <c r="F94" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G94" s="3">
         <v>45291.62100694444</v>
@@ -5862,7 +5865,7 @@
         <v>45314.49383101852</v>
       </c>
       <c r="I94" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5882,7 +5885,7 @@
         <v>636</v>
       </c>
       <c r="F95" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G95" s="3">
         <v>44926.35877314815</v>
@@ -5891,7 +5894,7 @@
         <v>44926.35877314815</v>
       </c>
       <c r="I95" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5911,7 +5914,7 @@
         <v>584</v>
       </c>
       <c r="F96" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G96" s="3">
         <v>45297.49363425926</v>
@@ -5920,7 +5923,7 @@
         <v>45311.89606481481</v>
       </c>
       <c r="I96" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5940,7 +5943,7 @@
         <v>611</v>
       </c>
       <c r="F97" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G97" s="3">
         <v>45314.49303240741</v>
@@ -5949,7 +5952,7 @@
         <v>45315.65373842593</v>
       </c>
       <c r="I97" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5969,7 +5972,7 @@
         <v>601</v>
       </c>
       <c r="F98" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G98" s="3">
         <v>45313.05805555556</v>
@@ -5978,7 +5981,7 @@
         <v>45313.05806712963</v>
       </c>
       <c r="I98" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -5998,7 +6001,7 @@
         <v>617</v>
       </c>
       <c r="F99" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G99" s="3">
         <v>45307.38726851852</v>
@@ -6007,7 +6010,7 @@
         <v>45314.85255787037</v>
       </c>
       <c r="I99" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -6027,7 +6030,7 @@
         <v>637</v>
       </c>
       <c r="F100" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G100" s="3">
         <v>45293.03614583334</v>
@@ -6036,7 +6039,7 @@
         <v>45293.0361574074</v>
       </c>
       <c r="I100" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6056,7 +6059,7 @@
         <v>638</v>
       </c>
       <c r="F101" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G101" s="3">
         <v>45314.50199074074</v>
@@ -6065,7 +6068,7 @@
         <v>45315.65385416667</v>
       </c>
       <c r="I101" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -6085,7 +6088,7 @@
         <v>639</v>
       </c>
       <c r="F102" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G102" s="3">
         <v>45307.37951388889</v>
@@ -6094,7 +6097,7 @@
         <v>45315.36158564815</v>
       </c>
       <c r="I102" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -6114,7 +6117,7 @@
         <v>601</v>
       </c>
       <c r="F103" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G103" s="3">
         <v>45307.00873842592</v>
@@ -6123,7 +6126,7 @@
         <v>45307.00875</v>
       </c>
       <c r="I103" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -6143,7 +6146,7 @@
         <v>640</v>
       </c>
       <c r="F104" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G104" s="3">
         <v>45315.42385416666</v>
@@ -6152,7 +6155,7 @@
         <v>45315.42386574074</v>
       </c>
       <c r="I104" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -6172,7 +6175,7 @@
         <v>641</v>
       </c>
       <c r="F105" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G105" s="3">
         <v>45291.49836805555</v>
@@ -6181,7 +6184,7 @@
         <v>45315.65422453704</v>
       </c>
       <c r="I105" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -6201,7 +6204,7 @@
         <v>642</v>
       </c>
       <c r="F106" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G106" s="3">
         <v>45280.57280092593</v>
@@ -6210,7 +6213,7 @@
         <v>45309.02465277778</v>
       </c>
       <c r="I106" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -6230,7 +6233,7 @@
         <v>634</v>
       </c>
       <c r="F107" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G107" s="3">
         <v>45302.49490740741</v>
@@ -6239,7 +6242,7 @@
         <v>45312.88666666667</v>
       </c>
       <c r="I107" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -6259,7 +6262,7 @@
         <v>643</v>
       </c>
       <c r="F108" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G108" s="3">
         <v>45288.28815972222</v>
@@ -6268,7 +6271,7 @@
         <v>45315.60980324074</v>
       </c>
       <c r="I108" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -6288,7 +6291,7 @@
         <v>644</v>
       </c>
       <c r="F109" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G109" s="3">
         <v>45295.49231481482</v>
@@ -6297,7 +6300,7 @@
         <v>45315.61019675926</v>
       </c>
       <c r="I109" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -6317,7 +6320,7 @@
         <v>645</v>
       </c>
       <c r="F110" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G110" s="3">
         <v>45312.76140046296</v>
@@ -6326,7 +6329,7 @@
         <v>45314.69101851852</v>
       </c>
       <c r="I110" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -6346,7 +6349,7 @@
         <v>598</v>
       </c>
       <c r="F111" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G111" s="3">
         <v>45314.49325231482</v>
@@ -6355,7 +6358,7 @@
         <v>45315.61035879629</v>
       </c>
       <c r="I111" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -6375,7 +6378,7 @@
         <v>646</v>
       </c>
       <c r="F112" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G112" s="3">
         <v>45313.42341435186</v>
@@ -6384,7 +6387,7 @@
         <v>45314.19578703704</v>
       </c>
       <c r="I112" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6404,7 +6407,7 @@
         <v>600</v>
       </c>
       <c r="F113" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G113" s="3">
         <v>45292.49325231482</v>
@@ -6413,7 +6416,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I113" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -6433,7 +6436,7 @@
         <v>581</v>
       </c>
       <c r="F114" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G114" s="3">
         <v>45313.0588425926</v>
@@ -6442,7 +6445,7 @@
         <v>45314.42222222222</v>
       </c>
       <c r="I114" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -6462,7 +6465,7 @@
         <v>647</v>
       </c>
       <c r="F115" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G115" s="3">
         <v>45307.5822337963</v>
@@ -6471,7 +6474,7 @@
         <v>45314.77590277778</v>
       </c>
       <c r="I115" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -6491,7 +6494,7 @@
         <v>639</v>
       </c>
       <c r="F116" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G116" s="3">
         <v>45298.49490740741</v>
@@ -6500,7 +6503,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I116" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -6520,7 +6523,7 @@
         <v>648</v>
       </c>
       <c r="F117" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G117" s="3">
         <v>45300.43424768518</v>
@@ -6529,7 +6532,7 @@
         <v>45314.49525462963</v>
       </c>
       <c r="I117" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -6549,7 +6552,7 @@
         <v>649</v>
       </c>
       <c r="F118" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G118" s="3">
         <v>45287.49133101852</v>
@@ -6558,7 +6561,7 @@
         <v>45315.68306712963</v>
       </c>
       <c r="I118" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -6578,7 +6581,7 @@
         <v>643</v>
       </c>
       <c r="F119" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G119" s="3">
         <v>45315.24193287037</v>
@@ -6587,7 +6590,7 @@
         <v>45315.65413194444</v>
       </c>
       <c r="I119" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -6607,7 +6610,7 @@
         <v>600</v>
       </c>
       <c r="F120" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G120" s="3">
         <v>45296.62521990741</v>
@@ -6616,7 +6619,7 @@
         <v>45315.32032407408</v>
       </c>
       <c r="I120" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -6636,7 +6639,7 @@
         <v>580</v>
       </c>
       <c r="F121" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G121" s="3">
         <v>45293.4970949074</v>
@@ -6645,7 +6648,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I121" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -6665,7 +6668,7 @@
         <v>618</v>
       </c>
       <c r="F122" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G122" s="3">
         <v>45282.72908564815</v>
@@ -6674,7 +6677,7 @@
         <v>45282.72909722223</v>
       </c>
       <c r="I122" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -6694,7 +6697,7 @@
         <v>650</v>
       </c>
       <c r="F123" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G123" s="3">
         <v>45314.49591435185</v>
@@ -6703,7 +6706,7 @@
         <v>45315.69609953704</v>
       </c>
       <c r="I123" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -6723,7 +6726,7 @@
         <v>651</v>
       </c>
       <c r="F124" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G124" s="3">
         <v>45300.97112268519</v>
@@ -6732,7 +6735,7 @@
         <v>45315.69616898148</v>
       </c>
       <c r="I124" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -6752,7 +6755,7 @@
         <v>652</v>
       </c>
       <c r="F125" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G125" s="3">
         <v>45273.65564814815</v>
@@ -6761,7 +6764,7 @@
         <v>45303.42461805556</v>
       </c>
       <c r="I125" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -6781,7 +6784,7 @@
         <v>590</v>
       </c>
       <c r="F126" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G126" s="3">
         <v>45298.21359953703</v>
@@ -6790,7 +6793,7 @@
         <v>45314.49523148148</v>
       </c>
       <c r="I126" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -6810,7 +6813,7 @@
         <v>648</v>
       </c>
       <c r="F127" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G127" s="3">
         <v>45308.42383101852</v>
@@ -6819,7 +6822,7 @@
         <v>45314.49195601852</v>
       </c>
       <c r="I127" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -6839,7 +6842,7 @@
         <v>653</v>
       </c>
       <c r="F128" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G128" s="3">
         <v>45294.41019675926</v>
@@ -6848,7 +6851,7 @@
         <v>45315.69918981481</v>
       </c>
       <c r="I128" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -6868,7 +6871,7 @@
         <v>586</v>
       </c>
       <c r="F129" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G129" s="3">
         <v>45310.61224537037</v>
@@ -6877,7 +6880,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I129" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -6897,7 +6900,7 @@
         <v>627</v>
       </c>
       <c r="F130" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G130" s="3">
         <v>45304.64673611111</v>
@@ -6906,7 +6909,7 @@
         <v>45315.6959375</v>
       </c>
       <c r="I130" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -6926,7 +6929,7 @@
         <v>620</v>
       </c>
       <c r="F131" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G131" s="3">
         <v>45295.49403935186</v>
@@ -6935,7 +6938,7 @@
         <v>45315.69605324074</v>
       </c>
       <c r="I131" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -6955,7 +6958,7 @@
         <v>654</v>
       </c>
       <c r="F132" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G132" s="3">
         <v>45298.06329861111</v>
@@ -6964,7 +6967,7 @@
         <v>45314.49458333333</v>
       </c>
       <c r="I132" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -6984,7 +6987,7 @@
         <v>644</v>
       </c>
       <c r="F133" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G133" s="3">
         <v>45297.49041666667</v>
@@ -6993,7 +6996,7 @@
         <v>45315.70159722222</v>
       </c>
       <c r="I133" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -7013,7 +7016,7 @@
         <v>581</v>
       </c>
       <c r="F134" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G134" s="3">
         <v>45296.21274305556</v>
@@ -7022,7 +7025,7 @@
         <v>45309.05621527778</v>
       </c>
       <c r="I134" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -7042,7 +7045,7 @@
         <v>639</v>
       </c>
       <c r="F135" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G135" s="3">
         <v>45307.08791666666</v>
@@ -7051,7 +7054,7 @@
         <v>45315.65327546297</v>
       </c>
       <c r="I135" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -7071,7 +7074,7 @@
         <v>629</v>
       </c>
       <c r="F136" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G136" s="3">
         <v>45314.49842592593</v>
@@ -7080,7 +7083,7 @@
         <v>45314.67444444444</v>
       </c>
       <c r="I136" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -7100,7 +7103,7 @@
         <v>596</v>
       </c>
       <c r="F137" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G137" s="3">
         <v>45310.65872685185</v>
@@ -7109,7 +7112,7 @@
         <v>45314.49422453704</v>
       </c>
       <c r="I137" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -7129,7 +7132,7 @@
         <v>596</v>
       </c>
       <c r="F138" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G138" s="3">
         <v>45312.13112268518</v>
@@ -7138,7 +7141,7 @@
         <v>45315.6537962963</v>
       </c>
       <c r="I138" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -7158,7 +7161,7 @@
         <v>655</v>
       </c>
       <c r="F139" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G139" s="3">
         <v>45270.59310185185</v>
@@ -7167,7 +7170,7 @@
         <v>45309.07831018518</v>
       </c>
       <c r="I139" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -7187,7 +7190,7 @@
         <v>656</v>
       </c>
       <c r="F140" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G140" s="3">
         <v>45278.77987268518</v>
@@ -7196,7 +7199,7 @@
         <v>45314.6009837963</v>
       </c>
       <c r="I140" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -7216,7 +7219,7 @@
         <v>590</v>
       </c>
       <c r="F141" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G141" s="3">
         <v>45314.49572916667</v>
@@ -7225,7 +7228,7 @@
         <v>45314.67103009259</v>
       </c>
       <c r="I141" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -7245,13 +7248,13 @@
         <v>601</v>
       </c>
       <c r="F142" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H142" s="3">
         <v>43999.85027777778</v>
       </c>
       <c r="I142" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -7271,7 +7274,7 @@
         <v>657</v>
       </c>
       <c r="F143" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G143" s="3">
         <v>45309.54311342593</v>
@@ -7280,7 +7283,7 @@
         <v>45316.16458333333</v>
       </c>
       <c r="I143" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -7300,7 +7303,7 @@
         <v>601</v>
       </c>
       <c r="F144" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G144" s="3">
         <v>45306.51280092593</v>
@@ -7309,7 +7312,7 @@
         <v>45306.51280092593</v>
       </c>
       <c r="I144" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -7329,7 +7332,7 @@
         <v>621</v>
       </c>
       <c r="F145" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G145" s="3">
         <v>45314.49275462963</v>
@@ -7338,7 +7341,7 @@
         <v>45315.73717592593</v>
       </c>
       <c r="I145" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -7358,7 +7361,7 @@
         <v>606</v>
       </c>
       <c r="F146" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G146" s="3">
         <v>45308.77947916667</v>
@@ -7367,7 +7370,7 @@
         <v>45309.07209490741</v>
       </c>
       <c r="I146" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -7387,7 +7390,7 @@
         <v>622</v>
       </c>
       <c r="F147" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G147" s="3">
         <v>45307.50165509259</v>
@@ -7396,7 +7399,7 @@
         <v>45312.88640046296</v>
       </c>
       <c r="I147" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -7416,7 +7419,7 @@
         <v>621</v>
       </c>
       <c r="F148" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G148" s="3">
         <v>45294.12988425926</v>
@@ -7425,7 +7428,7 @@
         <v>45314.49341435185</v>
       </c>
       <c r="I148" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -7445,7 +7448,7 @@
         <v>642</v>
       </c>
       <c r="F149" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G149" s="3">
         <v>45296.33108796296</v>
@@ -7454,7 +7457,7 @@
         <v>45314.51508101852</v>
       </c>
       <c r="I149" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -7474,7 +7477,7 @@
         <v>658</v>
       </c>
       <c r="F150" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G150" s="3">
         <v>45295.49210648148</v>
@@ -7483,7 +7486,7 @@
         <v>45315.69587962963</v>
       </c>
       <c r="I150" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -7503,7 +7506,7 @@
         <v>643</v>
       </c>
       <c r="F151" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G151" s="3">
         <v>45314.49277777778</v>
@@ -7512,7 +7515,7 @@
         <v>45315.73741898148</v>
       </c>
       <c r="I151" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -7532,7 +7535,7 @@
         <v>659</v>
       </c>
       <c r="F152" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G152" s="3">
         <v>45308.74111111111</v>
@@ -7541,7 +7544,7 @@
         <v>45310.69127314815</v>
       </c>
       <c r="I152" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -7561,7 +7564,7 @@
         <v>660</v>
       </c>
       <c r="F153" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G153" s="3">
         <v>45311.61907407407</v>
@@ -7570,7 +7573,7 @@
         <v>45315.73760416666</v>
       </c>
       <c r="I153" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -7590,7 +7593,7 @@
         <v>594</v>
       </c>
       <c r="F154" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G154" s="3">
         <v>45313.06128472222</v>
@@ -7599,7 +7602,7 @@
         <v>45314.4228125</v>
       </c>
       <c r="I154" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -7619,7 +7622,7 @@
         <v>639</v>
       </c>
       <c r="F155" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G155" s="3">
         <v>45291.49923611111</v>
@@ -7628,7 +7631,7 @@
         <v>45312.49590277778</v>
       </c>
       <c r="I155" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -7648,7 +7651,7 @@
         <v>634</v>
       </c>
       <c r="F156" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G156" s="3">
         <v>45302.49706018518</v>
@@ -7657,7 +7660,7 @@
         <v>45315.07060185185</v>
       </c>
       <c r="I156" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -7677,7 +7680,7 @@
         <v>598</v>
       </c>
       <c r="F157" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G157" s="3">
         <v>45286.49168981481</v>
@@ -7686,7 +7689,7 @@
         <v>45315.73706018519</v>
       </c>
       <c r="I157" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -7706,7 +7709,7 @@
         <v>654</v>
       </c>
       <c r="F158" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G158" s="3">
         <v>45306.62078703703</v>
@@ -7715,7 +7718,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I158" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -7735,7 +7738,7 @@
         <v>661</v>
       </c>
       <c r="F159" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G159" s="3">
         <v>45297.49820601852</v>
@@ -7744,7 +7747,7 @@
         <v>45315.73712962963</v>
       </c>
       <c r="I159" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -7764,7 +7767,7 @@
         <v>662</v>
       </c>
       <c r="F160" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G160" s="3">
         <v>45314.49293981482</v>
@@ -7773,7 +7776,7 @@
         <v>45315.73753472222</v>
       </c>
       <c r="I160" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -7793,7 +7796,7 @@
         <v>663</v>
       </c>
       <c r="F161" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G161" s="3">
         <v>45302.49929398148</v>
@@ -7802,7 +7805,7 @@
         <v>45314.49518518519</v>
       </c>
       <c r="I161" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -7822,13 +7825,13 @@
         <v>601</v>
       </c>
       <c r="F162" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H162" s="3">
         <v>45307.36160879629</v>
       </c>
       <c r="I162" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -7848,7 +7851,7 @@
         <v>664</v>
       </c>
       <c r="F163" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G163" s="3">
         <v>45314.4933912037</v>
@@ -7857,7 +7860,7 @@
         <v>45316.12230324074</v>
       </c>
       <c r="I163" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -7877,7 +7880,7 @@
         <v>608</v>
       </c>
       <c r="F164" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G164" s="3">
         <v>45307.36724537037</v>
@@ -7886,7 +7889,7 @@
         <v>45316.16459490741</v>
       </c>
       <c r="I164" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -7906,7 +7909,7 @@
         <v>665</v>
       </c>
       <c r="F165" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G165" s="3">
         <v>45297.31922453704</v>
@@ -7915,7 +7918,7 @@
         <v>45314.49394675926</v>
       </c>
       <c r="I165" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -7935,7 +7938,7 @@
         <v>666</v>
       </c>
       <c r="F166" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G166" s="3">
         <v>45315.42201388889</v>
@@ -7944,7 +7947,7 @@
         <v>45315.7841550926</v>
       </c>
       <c r="I166" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -7964,7 +7967,7 @@
         <v>594</v>
       </c>
       <c r="F167" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G167" s="3">
         <v>45314.42302083333</v>
@@ -7973,7 +7976,7 @@
         <v>45314.42302083333</v>
       </c>
       <c r="I167" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -7993,7 +7996,7 @@
         <v>667</v>
       </c>
       <c r="F168" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G168" s="3">
         <v>45314.49530092593</v>
@@ -8002,7 +8005,7 @@
         <v>45315.78174768519</v>
       </c>
       <c r="I168" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -8022,7 +8025,7 @@
         <v>668</v>
       </c>
       <c r="F169" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G169" s="3">
         <v>45312.49302083333</v>
@@ -8031,7 +8034,7 @@
         <v>45314.49451388889</v>
       </c>
       <c r="I169" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -8051,7 +8054,7 @@
         <v>669</v>
       </c>
       <c r="F170" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G170" s="3">
         <v>45302.49891203704</v>
@@ -8060,7 +8063,7 @@
         <v>45315.78163194445</v>
       </c>
       <c r="I170" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -8080,7 +8083,7 @@
         <v>670</v>
       </c>
       <c r="F171" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G171" s="3">
         <v>45314.49350694445</v>
@@ -8089,7 +8092,7 @@
         <v>45315.78178240741</v>
       </c>
       <c r="I171" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -8109,7 +8112,7 @@
         <v>601</v>
       </c>
       <c r="F172" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G172" s="3">
         <v>44049.84335648148</v>
@@ -8118,7 +8121,7 @@
         <v>44740.15496527778</v>
       </c>
       <c r="I172" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -8138,7 +8141,7 @@
         <v>584</v>
       </c>
       <c r="F173" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G173" s="3">
         <v>45307.49097222222</v>
@@ -8147,7 +8150,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I173" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -8167,7 +8170,7 @@
         <v>594</v>
       </c>
       <c r="F174" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G174" s="3">
         <v>45312.37847222222</v>
@@ -8176,7 +8179,7 @@
         <v>45314.42348379629</v>
       </c>
       <c r="I174" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -8196,7 +8199,7 @@
         <v>605</v>
       </c>
       <c r="F175" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G175" s="3">
         <v>45312.25097222222</v>
@@ -8205,7 +8208,7 @@
         <v>45315.74335648148</v>
       </c>
       <c r="I175" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -8225,7 +8228,7 @@
         <v>659</v>
       </c>
       <c r="F176" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G176" s="3">
         <v>45310.90118055556</v>
@@ -8234,7 +8237,7 @@
         <v>45314.49304398148</v>
       </c>
       <c r="I176" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -8254,7 +8257,7 @@
         <v>599</v>
       </c>
       <c r="F177" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G177" s="3">
         <v>45296.62515046296</v>
@@ -8263,7 +8266,7 @@
         <v>45314.49361111111</v>
       </c>
       <c r="I177" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -8283,7 +8286,7 @@
         <v>671</v>
       </c>
       <c r="F178" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G178" s="3">
         <v>45311.61869212963</v>
@@ -8292,7 +8295,7 @@
         <v>45315.73645833333</v>
       </c>
       <c r="I178" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -8312,7 +8315,7 @@
         <v>644</v>
       </c>
       <c r="F179" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G179" s="3">
         <v>45287.159375</v>
@@ -8321,7 +8324,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I179" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -8341,7 +8344,7 @@
         <v>672</v>
       </c>
       <c r="F180" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G180" s="3">
         <v>45311.68436342593</v>
@@ -8350,7 +8353,7 @@
         <v>45315.75385416667</v>
       </c>
       <c r="I180" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -8370,7 +8373,7 @@
         <v>673</v>
       </c>
       <c r="F181" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G181" s="3">
         <v>45291.49039351852</v>
@@ -8379,7 +8382,7 @@
         <v>45315.78164351852</v>
       </c>
       <c r="I181" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -8399,7 +8402,7 @@
         <v>674</v>
       </c>
       <c r="F182" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G182" s="3">
         <v>45308.74193287037</v>
@@ -8408,7 +8411,7 @@
         <v>45315.7467824074</v>
       </c>
       <c r="I182" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -8428,7 +8431,7 @@
         <v>675</v>
       </c>
       <c r="F183" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G183" s="3">
         <v>45290.68399305556</v>
@@ -8437,7 +8440,7 @@
         <v>45315.76791666666</v>
       </c>
       <c r="I183" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -8457,7 +8460,7 @@
         <v>676</v>
       </c>
       <c r="F184" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G184" s="3">
         <v>45294.52609953703</v>
@@ -8466,7 +8469,7 @@
         <v>45315.75109953704</v>
       </c>
       <c r="I184" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -8486,7 +8489,7 @@
         <v>657</v>
       </c>
       <c r="F185" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G185" s="3">
         <v>45305.28581018518</v>
@@ -8495,7 +8498,7 @@
         <v>45315.73657407407</v>
       </c>
       <c r="I185" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -8512,10 +8515,10 @@
         <v>478</v>
       </c>
       <c r="E186" t="s">
-        <v>579</v>
+        <v>677</v>
       </c>
       <c r="F186" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G186" s="3">
         <v>45303.07900462963</v>
@@ -8524,7 +8527,7 @@
         <v>45315.78171296296</v>
       </c>
       <c r="I186" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -8544,7 +8547,7 @@
         <v>634</v>
       </c>
       <c r="F187" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G187" s="3">
         <v>45294.00594907408</v>
@@ -8553,7 +8556,7 @@
         <v>45315.60971064815</v>
       </c>
       <c r="I187" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -8570,10 +8573,10 @@
         <v>480</v>
       </c>
       <c r="E188" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F188" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G188" s="3">
         <v>45291.6212037037</v>
@@ -8582,7 +8585,7 @@
         <v>45315.76299768518</v>
       </c>
       <c r="I188" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -8599,10 +8602,10 @@
         <v>481</v>
       </c>
       <c r="E189" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F189" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G189" s="3">
         <v>45291.62125</v>
@@ -8611,7 +8614,7 @@
         <v>45315.73672453704</v>
       </c>
       <c r="I189" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -8628,10 +8631,10 @@
         <v>482</v>
       </c>
       <c r="E190" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F190" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G190" s="3">
         <v>45291.49121527778</v>
@@ -8640,7 +8643,7 @@
         <v>45315.73679398148</v>
       </c>
       <c r="I190" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -8660,7 +8663,7 @@
         <v>584</v>
       </c>
       <c r="F191" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G191" s="3">
         <v>45305.45537037037</v>
@@ -8669,7 +8672,7 @@
         <v>45315.78153935185</v>
       </c>
       <c r="I191" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -8686,10 +8689,10 @@
         <v>484</v>
       </c>
       <c r="E192" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F192" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G192" s="3">
         <v>45312.66900462963</v>
@@ -8698,7 +8701,7 @@
         <v>45315.78197916667</v>
       </c>
       <c r="I192" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -8715,10 +8718,10 @@
         <v>485</v>
       </c>
       <c r="E193" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F193" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G193" s="3">
         <v>45283.15128472223</v>
@@ -8727,7 +8730,7 @@
         <v>45315.73756944444</v>
       </c>
       <c r="I193" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -8744,10 +8747,10 @@
         <v>486</v>
       </c>
       <c r="E194" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F194" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G194" s="3">
         <v>45290.15359953704</v>
@@ -8756,7 +8759,7 @@
         <v>45315.81050925926</v>
       </c>
       <c r="I194" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -8773,10 +8776,10 @@
         <v>487</v>
       </c>
       <c r="E195" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F195" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G195" s="3">
         <v>45288.77761574074</v>
@@ -8785,7 +8788,7 @@
         <v>45315.8109837963</v>
       </c>
       <c r="I195" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -8802,10 +8805,10 @@
         <v>488</v>
       </c>
       <c r="E196" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F196" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G196" s="3">
         <v>45283.5427199074</v>
@@ -8814,7 +8817,7 @@
         <v>45315.81034722222</v>
       </c>
       <c r="I196" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -8831,10 +8834,10 @@
         <v>489</v>
       </c>
       <c r="E197" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F197" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G197" s="3">
         <v>45290.06099537037</v>
@@ -8843,7 +8846,7 @@
         <v>45315.78223379629</v>
       </c>
       <c r="I197" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -8860,10 +8863,10 @@
         <v>490</v>
       </c>
       <c r="E198" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F198" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G198" s="3">
         <v>45285.78746527778</v>
@@ -8872,7 +8875,7 @@
         <v>45315.81327546296</v>
       </c>
       <c r="I198" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -8892,7 +8895,7 @@
         <v>671</v>
       </c>
       <c r="F199" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G199" s="3">
         <v>45300.70331018518</v>
@@ -8901,7 +8904,7 @@
         <v>45315.78243055556</v>
       </c>
       <c r="I199" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -8921,7 +8924,7 @@
         <v>646</v>
       </c>
       <c r="F200" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G200" s="3">
         <v>45313.4215625</v>
@@ -8930,7 +8933,7 @@
         <v>45314.19313657407</v>
       </c>
       <c r="I200" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -8950,7 +8953,7 @@
         <v>586</v>
       </c>
       <c r="F201" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G201" s="3">
         <v>45313.10177083333</v>
@@ -8959,7 +8962,7 @@
         <v>45315.19548611111</v>
       </c>
       <c r="I201" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -8976,10 +8979,10 @@
         <v>494</v>
       </c>
       <c r="E202" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F202" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G202" s="3">
         <v>45313.56241898148</v>
@@ -8988,7 +8991,7 @@
         <v>45315.73755787037</v>
       </c>
       <c r="I202" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -9008,7 +9011,7 @@
         <v>672</v>
       </c>
       <c r="F203" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G203" s="3">
         <v>45287.49016203704</v>
@@ -9017,7 +9020,7 @@
         <v>45315.81586805556</v>
       </c>
       <c r="I203" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -9034,10 +9037,10 @@
         <v>496</v>
       </c>
       <c r="E204" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F204" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G204" s="3">
         <v>45294.11623842592</v>
@@ -9046,7 +9049,7 @@
         <v>45315.81109953704</v>
       </c>
       <c r="I204" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -9063,10 +9066,10 @@
         <v>497</v>
       </c>
       <c r="E205" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F205" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G205" s="3">
         <v>45281.61627314815</v>
@@ -9075,7 +9078,7 @@
         <v>45315.73660879629</v>
       </c>
       <c r="I205" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -9095,7 +9098,7 @@
         <v>584</v>
       </c>
       <c r="F206" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G206" s="3">
         <v>45310.31782407407</v>
@@ -9104,7 +9107,7 @@
         <v>45315.82373842593</v>
       </c>
       <c r="I206" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -9121,10 +9124,10 @@
         <v>499</v>
       </c>
       <c r="E207" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F207" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G207" s="3">
         <v>45292.86751157408</v>
@@ -9133,7 +9136,7 @@
         <v>45315.81833333334</v>
       </c>
       <c r="I207" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -9150,10 +9153,10 @@
         <v>500</v>
       </c>
       <c r="E208" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F208" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G208" s="3">
         <v>45297.78877314815</v>
@@ -9162,7 +9165,7 @@
         <v>45315.82362268519</v>
       </c>
       <c r="I208" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -9182,7 +9185,7 @@
         <v>676</v>
       </c>
       <c r="F209" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G209" s="3">
         <v>45291.49200231482</v>
@@ -9191,7 +9194,7 @@
         <v>45315.81275462963</v>
       </c>
       <c r="I209" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -9208,10 +9211,10 @@
         <v>502</v>
       </c>
       <c r="E210" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F210" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G210" s="3">
         <v>45314.77236111111</v>
@@ -9220,7 +9223,7 @@
         <v>45315.81111111111</v>
       </c>
       <c r="I210" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -9237,10 +9240,10 @@
         <v>503</v>
       </c>
       <c r="E211" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F211" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G211" s="3">
         <v>45306.94767361111</v>
@@ -9249,7 +9252,7 @@
         <v>45315.81850694444</v>
       </c>
       <c r="I211" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -9266,10 +9269,10 @@
         <v>504</v>
       </c>
       <c r="E212" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F212" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G212" s="3">
         <v>45315.48592592592</v>
@@ -9278,7 +9281,7 @@
         <v>45315.82550925926</v>
       </c>
       <c r="I212" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -9295,10 +9298,10 @@
         <v>505</v>
       </c>
       <c r="E213" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F213" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G213" s="3">
         <v>45278.21140046296</v>
@@ -9307,7 +9310,7 @@
         <v>45315.78211805555</v>
       </c>
       <c r="I213" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -9324,10 +9327,10 @@
         <v>506</v>
       </c>
       <c r="E214" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F214" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G214" s="3">
         <v>45296.58950231481</v>
@@ -9336,7 +9339,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I214" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -9353,10 +9356,10 @@
         <v>507</v>
       </c>
       <c r="E215" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F215" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G215" s="3">
         <v>45308.74321759259</v>
@@ -9365,7 +9368,7 @@
         <v>45315.82768518518</v>
       </c>
       <c r="I215" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -9382,10 +9385,10 @@
         <v>508</v>
       </c>
       <c r="E216" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F216" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G216" s="3">
         <v>45291.49114583333</v>
@@ -9394,7 +9397,7 @@
         <v>45315.82378472222</v>
       </c>
       <c r="I216" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -9411,10 +9414,10 @@
         <v>509</v>
       </c>
       <c r="E217" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F217" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G217" s="3">
         <v>45308.16465277778</v>
@@ -9423,7 +9426,7 @@
         <v>45315.82369212963</v>
       </c>
       <c r="I217" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -9440,10 +9443,10 @@
         <v>510</v>
       </c>
       <c r="E218" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F218" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G218" s="3">
         <v>45296.21802083333</v>
@@ -9452,7 +9455,7 @@
         <v>45315.82553240741</v>
       </c>
       <c r="I218" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -9472,7 +9475,7 @@
         <v>589</v>
       </c>
       <c r="F219" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G219" s="3">
         <v>45307.36931712963</v>
@@ -9481,7 +9484,7 @@
         <v>45315.78234953704</v>
       </c>
       <c r="I219" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -9501,7 +9504,7 @@
         <v>604</v>
       </c>
       <c r="F220" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G220" s="3">
         <v>45313.02901620371</v>
@@ -9510,7 +9513,7 @@
         <v>45315.78185185185</v>
       </c>
       <c r="I220" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -9527,10 +9530,10 @@
         <v>513</v>
       </c>
       <c r="E221" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F221" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G221" s="3">
         <v>45284.49082175926</v>
@@ -9539,7 +9542,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I221" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -9556,10 +9559,10 @@
         <v>514</v>
       </c>
       <c r="E222" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F222" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G222" s="3">
         <v>45290.06063657408</v>
@@ -9568,7 +9571,7 @@
         <v>45315.81575231482</v>
       </c>
       <c r="I222" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -9585,10 +9588,10 @@
         <v>515</v>
       </c>
       <c r="E223" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F223" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G223" s="3">
         <v>45292.49101851852</v>
@@ -9597,7 +9600,7 @@
         <v>45315.81292824074</v>
       </c>
       <c r="I223" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -9614,10 +9617,10 @@
         <v>516</v>
       </c>
       <c r="E224" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F224" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G224" s="3">
         <v>45291.34520833333</v>
@@ -9626,7 +9629,7 @@
         <v>45315.82354166666</v>
       </c>
       <c r="I224" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -9643,10 +9646,10 @@
         <v>517</v>
       </c>
       <c r="E225" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F225" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G225" s="3">
         <v>45314.42053240741</v>
@@ -9655,7 +9658,7 @@
         <v>45315.81092592593</v>
       </c>
       <c r="I225" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -9672,10 +9675,10 @@
         <v>518</v>
       </c>
       <c r="E226" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F226" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G226" s="3">
         <v>45291.49119212963</v>
@@ -9684,7 +9687,7 @@
         <v>45314.49342592592</v>
       </c>
       <c r="I226" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -9701,10 +9704,10 @@
         <v>519</v>
       </c>
       <c r="E227" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F227" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G227" s="3">
         <v>45306.91820601852</v>
@@ -9713,7 +9716,7 @@
         <v>45315.82215277778</v>
       </c>
       <c r="I227" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -9730,10 +9733,10 @@
         <v>520</v>
       </c>
       <c r="E228" t="s">
-        <v>579</v>
+        <v>677</v>
       </c>
       <c r="F228" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G228" s="3">
         <v>45286.62017361111</v>
@@ -9742,7 +9745,7 @@
         <v>45315.78180555555</v>
       </c>
       <c r="I228" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -9759,10 +9762,10 @@
         <v>521</v>
       </c>
       <c r="E229" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F229" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G229" s="3">
         <v>45308.74159722222</v>
@@ -9771,7 +9774,7 @@
         <v>45315.82368055556</v>
       </c>
       <c r="I229" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -9791,7 +9794,7 @@
         <v>599</v>
       </c>
       <c r="F230" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G230" s="3">
         <v>45283.53591435185</v>
@@ -9800,7 +9803,7 @@
         <v>45315.82388888889</v>
       </c>
       <c r="I230" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -9820,7 +9823,7 @@
         <v>668</v>
       </c>
       <c r="F231" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G231" s="3">
         <v>45279.15613425926</v>
@@ -9829,7 +9832,7 @@
         <v>45310.69137731481</v>
       </c>
       <c r="I231" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -9849,7 +9852,7 @@
         <v>605</v>
       </c>
       <c r="F232" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G232" s="3">
         <v>45302.49265046296</v>
@@ -9858,7 +9861,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I232" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -9875,10 +9878,10 @@
         <v>525</v>
       </c>
       <c r="E233" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F233" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G233" s="3">
         <v>45286.49104166667</v>
@@ -9887,7 +9890,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I233" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -9904,10 +9907,10 @@
         <v>526</v>
       </c>
       <c r="E234" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F234" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G234" s="3">
         <v>45313.42326388889</v>
@@ -9916,7 +9919,7 @@
         <v>45314.18550925926</v>
       </c>
       <c r="I234" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -9936,7 +9939,7 @@
         <v>601</v>
       </c>
       <c r="F235" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G235" s="3">
         <v>44288.33525462963</v>
@@ -9945,7 +9948,7 @@
         <v>44288.33525462963</v>
       </c>
       <c r="I235" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -9965,7 +9968,7 @@
         <v>620</v>
       </c>
       <c r="F236" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G236" s="3">
         <v>45287.22329861111</v>
@@ -9974,7 +9977,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I236" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -9991,10 +9994,10 @@
         <v>529</v>
       </c>
       <c r="E237" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F237" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G237" s="3">
         <v>45311.90133101852</v>
@@ -10003,7 +10006,7 @@
         <v>45315.82358796296</v>
       </c>
       <c r="I237" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -10023,7 +10026,7 @@
         <v>584</v>
       </c>
       <c r="F238" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G238" s="3">
         <v>45298.44405092593</v>
@@ -10032,7 +10035,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I238" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -10052,7 +10055,7 @@
         <v>600</v>
       </c>
       <c r="F239" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G239" s="3">
         <v>45297.01849537037</v>
@@ -10061,7 +10064,7 @@
         <v>45314.90065972223</v>
       </c>
       <c r="I239" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -10078,10 +10081,10 @@
         <v>532</v>
       </c>
       <c r="E240" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F240" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G240" s="3">
         <v>45280.57440972222</v>
@@ -10090,7 +10093,7 @@
         <v>45309.03163194445</v>
       </c>
       <c r="I240" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -10110,7 +10113,7 @@
         <v>592</v>
       </c>
       <c r="F241" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G241" s="3">
         <v>45314.42252314815</v>
@@ -10119,7 +10122,7 @@
         <v>45315.82351851852</v>
       </c>
       <c r="I241" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -10139,7 +10142,7 @@
         <v>605</v>
       </c>
       <c r="F242" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G242" s="3">
         <v>45301.61993055556</v>
@@ -10148,7 +10151,7 @@
         <v>45314.018125</v>
       </c>
       <c r="I242" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -10165,10 +10168,10 @@
         <v>535</v>
       </c>
       <c r="E243" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F243" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G243" s="3">
         <v>45312.49469907407</v>
@@ -10177,7 +10180,7 @@
         <v>45315.78165509259</v>
       </c>
       <c r="I243" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -10197,7 +10200,7 @@
         <v>621</v>
       </c>
       <c r="F244" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G244" s="3">
         <v>45295.49803240741</v>
@@ -10206,7 +10209,7 @@
         <v>45315.8234837963</v>
       </c>
       <c r="I244" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -10223,10 +10226,10 @@
         <v>537</v>
       </c>
       <c r="E245" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F245" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G245" s="3">
         <v>45313.05956018518</v>
@@ -10235,7 +10238,7 @@
         <v>45315.82376157407</v>
       </c>
       <c r="I245" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -10255,7 +10258,7 @@
         <v>643</v>
       </c>
       <c r="F246" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G246" s="3">
         <v>45298.49199074074</v>
@@ -10264,7 +10267,7 @@
         <v>45315.82392361111</v>
       </c>
       <c r="I246" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -10284,7 +10287,7 @@
         <v>605</v>
       </c>
       <c r="F247" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G247" s="3">
         <v>45286.6203587963</v>
@@ -10293,7 +10296,7 @@
         <v>45315.82366898148</v>
       </c>
       <c r="I247" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -10313,7 +10316,7 @@
         <v>643</v>
       </c>
       <c r="F248" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G248" s="3">
         <v>45311.61991898148</v>
@@ -10322,7 +10325,7 @@
         <v>45315.02909722222</v>
       </c>
       <c r="I248" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -10339,10 +10342,10 @@
         <v>541</v>
       </c>
       <c r="E249" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F249" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G249" s="3">
         <v>45306.75461805556</v>
@@ -10351,7 +10354,7 @@
         <v>45315.04524305555</v>
       </c>
       <c r="I249" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -10371,7 +10374,7 @@
         <v>587</v>
       </c>
       <c r="F250" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G250" s="3">
         <v>45292.49578703703</v>
@@ -10380,7 +10383,7 @@
         <v>45315.4852662037</v>
       </c>
       <c r="I250" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -10400,7 +10403,7 @@
         <v>622</v>
       </c>
       <c r="F251" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G251" s="3">
         <v>45308.60100694445</v>
@@ -10409,7 +10412,7 @@
         <v>45314.49393518519</v>
       </c>
       <c r="I251" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -10426,10 +10429,10 @@
         <v>544</v>
       </c>
       <c r="E252" t="s">
-        <v>579</v>
+        <v>677</v>
       </c>
       <c r="F252" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G252" s="3">
         <v>45289.35146990741</v>
@@ -10438,7 +10441,7 @@
         <v>45314.49217592592</v>
       </c>
       <c r="I252" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -10458,7 +10461,7 @@
         <v>634</v>
       </c>
       <c r="F253" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G253" s="3">
         <v>45307.49243055555</v>
@@ -10467,7 +10470,7 @@
         <v>45314.49329861111</v>
       </c>
       <c r="I253" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -10484,10 +10487,10 @@
         <v>546</v>
       </c>
       <c r="E254" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F254" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G254" s="3">
         <v>45313.42297453704</v>
@@ -10496,7 +10499,7 @@
         <v>45313.42299768519</v>
       </c>
       <c r="I254" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -10516,7 +10519,7 @@
         <v>603</v>
       </c>
       <c r="F255" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G255" s="3">
         <v>45291.49054398148</v>
@@ -10525,7 +10528,7 @@
         <v>45314.94496527778</v>
       </c>
       <c r="I255" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -10542,10 +10545,10 @@
         <v>548</v>
       </c>
       <c r="E256" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F256" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G256" s="3">
         <v>45292.15671296296</v>
@@ -10554,7 +10557,7 @@
         <v>45312.75942129629</v>
       </c>
       <c r="I256" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -10571,10 +10574,10 @@
         <v>549</v>
       </c>
       <c r="E257" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F257" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G257" s="3">
         <v>45287.83861111111</v>
@@ -10583,7 +10586,7 @@
         <v>45316.03899305555</v>
       </c>
       <c r="I257" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -10603,7 +10606,7 @@
         <v>651</v>
       </c>
       <c r="F258" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G258" s="3">
         <v>45293.04358796297</v>
@@ -10612,7 +10615,7 @@
         <v>45315.8656712963</v>
       </c>
       <c r="I258" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -10632,7 +10635,7 @@
         <v>596</v>
       </c>
       <c r="F259" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G259" s="3">
         <v>45307.49564814815</v>
@@ -10641,7 +10644,7 @@
         <v>45315.9937037037</v>
       </c>
       <c r="I259" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -10661,7 +10664,7 @@
         <v>584</v>
       </c>
       <c r="F260" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G260" s="3">
         <v>45314.90094907407</v>
@@ -10670,7 +10673,7 @@
         <v>45315.89604166667</v>
       </c>
       <c r="I260" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -10690,7 +10693,7 @@
         <v>597</v>
       </c>
       <c r="F261" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G261" s="3">
         <v>45294.84780092593</v>
@@ -10699,7 +10702,7 @@
         <v>45316.03907407408</v>
       </c>
       <c r="I261" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -10716,10 +10719,10 @@
         <v>554</v>
       </c>
       <c r="E262" t="s">
-        <v>579</v>
+        <v>677</v>
       </c>
       <c r="F262" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G262" s="3">
         <v>45296.61121527778</v>
@@ -10728,7 +10731,7 @@
         <v>45316.03895833333</v>
       </c>
       <c r="I262" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -10748,7 +10751,7 @@
         <v>614</v>
       </c>
       <c r="F263" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G263" s="3">
         <v>45311.62060185185</v>
@@ -10757,7 +10760,7 @@
         <v>45316.03954861111</v>
       </c>
       <c r="I263" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -10777,7 +10780,7 @@
         <v>600</v>
       </c>
       <c r="F264" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G264" s="3">
         <v>45301.61861111111</v>
@@ -10786,7 +10789,7 @@
         <v>45316.08056712963</v>
       </c>
       <c r="I264" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -10806,7 +10809,7 @@
         <v>600</v>
       </c>
       <c r="F265" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G265" s="3">
         <v>45286.49385416666</v>
@@ -10815,7 +10818,7 @@
         <v>45316.03959490741</v>
       </c>
       <c r="I265" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -10835,7 +10838,7 @@
         <v>634</v>
       </c>
       <c r="F266" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G266" s="3">
         <v>45311.71087962963</v>
@@ -10844,7 +10847,7 @@
         <v>45314.67140046296</v>
       </c>
       <c r="I266" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -10861,10 +10864,10 @@
         <v>559</v>
       </c>
       <c r="E267" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F267" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G267" s="3">
         <v>45288.63045138889</v>
@@ -10873,7 +10876,7 @@
         <v>45316.03887731482</v>
       </c>
       <c r="I267" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -10893,7 +10896,7 @@
         <v>632</v>
       </c>
       <c r="F268" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G268" s="3">
         <v>45280.82067129629</v>
@@ -10902,7 +10905,7 @@
         <v>45316.03997685185</v>
       </c>
       <c r="I268" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -10922,7 +10925,7 @@
         <v>671</v>
       </c>
       <c r="F269" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G269" s="3">
         <v>45296.62119212963</v>
@@ -10931,7 +10934,7 @@
         <v>45316.08042824074</v>
       </c>
       <c r="I269" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -10951,7 +10954,7 @@
         <v>584</v>
       </c>
       <c r="F270" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G270" s="3">
         <v>45300.48923611111</v>
@@ -10960,7 +10963,7 @@
         <v>45316.08054398148</v>
       </c>
       <c r="I270" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -10980,7 +10983,7 @@
         <v>634</v>
       </c>
       <c r="F271" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G271" s="3">
         <v>45314.49359953704</v>
@@ -10989,7 +10992,7 @@
         <v>45314.66849537037</v>
       </c>
       <c r="I271" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -11009,7 +11012,7 @@
         <v>642</v>
       </c>
       <c r="F272" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G272" s="3">
         <v>45312.50121527778</v>
@@ -11018,7 +11021,7 @@
         <v>45312.67422453704</v>
       </c>
       <c r="I272" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -11038,7 +11041,7 @@
         <v>645</v>
       </c>
       <c r="F273" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G273" s="3">
         <v>45261.49545138889</v>
@@ -11047,7 +11050,7 @@
         <v>45309.04300925926</v>
       </c>
       <c r="I273" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -11067,7 +11070,7 @@
         <v>643</v>
       </c>
       <c r="F274" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G274" s="3">
         <v>45291.49003472222</v>
@@ -11076,7 +11079,7 @@
         <v>45316.08077546296</v>
       </c>
       <c r="I274" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -11093,10 +11096,10 @@
         <v>567</v>
       </c>
       <c r="E275" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F275" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G275" s="3">
         <v>45280.21361111111</v>
@@ -11105,7 +11108,7 @@
         <v>45309.04177083333</v>
       </c>
       <c r="I275" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -11125,7 +11128,7 @@
         <v>598</v>
       </c>
       <c r="F276" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G276" s="3">
         <v>45314.56188657408</v>
@@ -11134,7 +11137,7 @@
         <v>45315.48497685185</v>
       </c>
       <c r="I276" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -11154,7 +11157,7 @@
         <v>600</v>
       </c>
       <c r="F277" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G277" s="3">
         <v>45302.49186342592</v>
@@ -11163,7 +11166,7 @@
         <v>45316.08069444444</v>
       </c>
       <c r="I277" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -11183,7 +11186,7 @@
         <v>635</v>
       </c>
       <c r="F278" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G278" s="3">
         <v>45291.5000462963</v>
@@ -11192,7 +11195,7 @@
         <v>45314.49376157407</v>
       </c>
       <c r="I278" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -11212,7 +11215,7 @@
         <v>620</v>
       </c>
       <c r="F279" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G279" s="3">
         <v>45291.49392361111</v>
@@ -11221,7 +11224,7 @@
         <v>45314.49452546296</v>
       </c>
       <c r="I279" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -11241,7 +11244,7 @@
         <v>599</v>
       </c>
       <c r="F280" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G280" s="3">
         <v>45312.49576388889</v>
@@ -11250,7 +11253,7 @@
         <v>45316.03846064815</v>
       </c>
       <c r="I280" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -11270,7 +11273,7 @@
         <v>629</v>
       </c>
       <c r="F281" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G281" s="3">
         <v>45312.98068287037</v>
@@ -11279,7 +11282,7 @@
         <v>45316.08041666666</v>
       </c>
       <c r="I281" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -11299,7 +11302,7 @@
         <v>668</v>
       </c>
       <c r="F282" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G282" s="3">
         <v>45314.49623842593</v>
@@ -11308,7 +11311,7 @@
         <v>45316.08075231482</v>
       </c>
       <c r="I282" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -11328,7 +11331,7 @@
         <v>604</v>
       </c>
       <c r="F283" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G283" s="3">
         <v>45313.14449074074</v>
@@ -11337,7 +11340,7 @@
         <v>45316.08082175926</v>
       </c>
       <c r="I283" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -11354,10 +11357,10 @@
         <v>576</v>
       </c>
       <c r="E284" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F284" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G284" s="3">
         <v>45312.50119212963</v>
@@ -11366,7 +11369,7 @@
         <v>45316.08556712963</v>
       </c>
       <c r="I284" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="918">
   <si>
     <t>Sno</t>
   </si>
@@ -1756,214 +1756,217 @@
     <t>{'harmless': 58, 'malicious': 10, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
   </si>
   <si>
+    <t>{'harmless': 49, 'malicious': 18, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 3, 'suspicious': 0, 'undetected': 23, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 52, 'malicious': 14, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 0, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 7, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 9, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 10, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 52, 'malicious': 17, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 5, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 1, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 12, 'suspicious': 2, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 16, 'suspicious': 1, 'undetected': 19, 'harmless': 53, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 6, 'suspicious': 2, 'undetected': 20, 'harmless': 61, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 13, 'suspicious': 1, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 14, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 8, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 8, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 6, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 11, 'suspicious': 1, 'undetected': 23, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 8, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 0, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 1, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 9, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 1, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 4, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 5, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 2, 'suspicious': 1, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 4, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
     <t>{'harmless': 50, 'malicious': 18, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 3, 'suspicious': 0, 'undetected': 23, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 52, 'malicious': 14, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 0, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 7, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 9, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 10, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 52, 'malicious': 17, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 5, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 1, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 12, 'suspicious': 2, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 16, 'suspicious': 1, 'undetected': 19, 'harmless': 53, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 6, 'suspicious': 2, 'undetected': 20, 'harmless': 61, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 13, 'suspicious': 1, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 14, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 8, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 8, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 6, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 11, 'suspicious': 1, 'undetected': 23, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 8, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 0, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 1, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 9, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 1, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 4, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 5, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 2, 'suspicious': 1, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 4, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
   </si>
   <si>
     <t>{'harmless': 58, 'malicious': 11, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
@@ -3191,7 +3194,7 @@
         <v>577</v>
       </c>
       <c r="F2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G2" s="3">
         <v>45311.61894675926</v>
@@ -3200,7 +3203,7 @@
         <v>45341.32113425926</v>
       </c>
       <c r="I2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3220,7 +3223,7 @@
         <v>578</v>
       </c>
       <c r="F3" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G3" s="3">
         <v>45328.50989583333</v>
@@ -3229,7 +3232,7 @@
         <v>45341.27945601852</v>
       </c>
       <c r="I3" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3249,7 +3252,7 @@
         <v>578</v>
       </c>
       <c r="F4" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G4" s="3">
         <v>45306.97109953704</v>
@@ -3258,7 +3261,7 @@
         <v>45341.06746527777</v>
       </c>
       <c r="I4" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3278,7 +3281,7 @@
         <v>578</v>
       </c>
       <c r="F5" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G5" s="3">
         <v>45328.57457175926</v>
@@ -3287,7 +3290,7 @@
         <v>45341.27858796297</v>
       </c>
       <c r="I5" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3307,7 +3310,7 @@
         <v>579</v>
       </c>
       <c r="F6" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G6" s="3">
         <v>45337.51012731482</v>
@@ -3316,7 +3319,7 @@
         <v>45341.27866898148</v>
       </c>
       <c r="I6" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3336,16 +3339,16 @@
         <v>580</v>
       </c>
       <c r="F7" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G7" s="3">
-        <v>45298.49136574074</v>
+        <v>45329.3558912037</v>
       </c>
       <c r="H7" s="3">
-        <v>45316.42087962963</v>
+        <v>45341.32061342592</v>
       </c>
       <c r="I7" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3365,7 +3368,7 @@
         <v>581</v>
       </c>
       <c r="F8" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G8" s="3">
         <v>45302.4922337963</v>
@@ -3374,7 +3377,7 @@
         <v>45312.49145833333</v>
       </c>
       <c r="I8" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3394,7 +3397,7 @@
         <v>582</v>
       </c>
       <c r="F9" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G9" s="3">
         <v>45308.21690972222</v>
@@ -3403,7 +3406,7 @@
         <v>45314.97233796296</v>
       </c>
       <c r="I9" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3423,7 +3426,7 @@
         <v>583</v>
       </c>
       <c r="F10" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G10" s="3">
         <v>45298.49690972222</v>
@@ -3432,7 +3435,7 @@
         <v>45314.49306712963</v>
       </c>
       <c r="I10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3452,7 +3455,7 @@
         <v>584</v>
       </c>
       <c r="F11" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G11" s="3">
         <v>45282.7141087963</v>
@@ -3461,7 +3464,7 @@
         <v>45311.61704861111</v>
       </c>
       <c r="I11" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3481,7 +3484,7 @@
         <v>585</v>
       </c>
       <c r="F12" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G12" s="3">
         <v>45298.49170138889</v>
@@ -3490,7 +3493,7 @@
         <v>45316.37927083333</v>
       </c>
       <c r="I12" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3510,7 +3513,7 @@
         <v>586</v>
       </c>
       <c r="F13" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G13" s="3">
         <v>45280.79738425926</v>
@@ -3519,7 +3522,7 @@
         <v>45309.10356481482</v>
       </c>
       <c r="I13" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3539,7 +3542,7 @@
         <v>587</v>
       </c>
       <c r="F14" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G14" s="3">
         <v>45298.49263888889</v>
@@ -3548,7 +3551,7 @@
         <v>45316.37927083333</v>
       </c>
       <c r="I14" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3568,7 +3571,7 @@
         <v>588</v>
       </c>
       <c r="F15" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G15" s="3">
         <v>45310.43427083334</v>
@@ -3577,7 +3580,7 @@
         <v>45316.36269675926</v>
       </c>
       <c r="I15" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3597,7 +3600,7 @@
         <v>589</v>
       </c>
       <c r="F16" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G16" s="3">
         <v>45311.33236111111</v>
@@ -3606,7 +3609,7 @@
         <v>45314.49320601852</v>
       </c>
       <c r="I16" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3626,7 +3629,7 @@
         <v>590</v>
       </c>
       <c r="F17" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G17" s="3">
         <v>45301.30826388889</v>
@@ -3635,7 +3638,7 @@
         <v>45316.37930555556</v>
       </c>
       <c r="I17" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3655,7 +3658,7 @@
         <v>591</v>
       </c>
       <c r="F18" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G18" s="3">
         <v>45306.18137731482</v>
@@ -3664,7 +3667,7 @@
         <v>45316.42100694445</v>
       </c>
       <c r="I18" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3684,7 +3687,7 @@
         <v>592</v>
       </c>
       <c r="F19" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G19" s="3">
         <v>45288.23121527778</v>
@@ -3693,7 +3696,7 @@
         <v>45302.48868055556</v>
       </c>
       <c r="I19" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3713,7 +3716,7 @@
         <v>593</v>
       </c>
       <c r="F20" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G20" s="3">
         <v>45307.52993055555</v>
@@ -3722,7 +3725,7 @@
         <v>45314.19462962963</v>
       </c>
       <c r="I20" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3742,7 +3745,7 @@
         <v>594</v>
       </c>
       <c r="F21" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G21" s="3">
         <v>45314.42365740741</v>
@@ -3751,7 +3754,7 @@
         <v>45314.42368055556</v>
       </c>
       <c r="I21" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3771,7 +3774,7 @@
         <v>584</v>
       </c>
       <c r="F22" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G22" s="3">
         <v>45305.57067129629</v>
@@ -3780,7 +3783,7 @@
         <v>45316.42155092592</v>
       </c>
       <c r="I22" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3800,7 +3803,7 @@
         <v>582</v>
       </c>
       <c r="F23" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G23" s="3">
         <v>45291.49997685185</v>
@@ -3809,7 +3812,7 @@
         <v>45314.49226851852</v>
       </c>
       <c r="I23" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3829,7 +3832,7 @@
         <v>595</v>
       </c>
       <c r="F24" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G24" s="3">
         <v>45309.80174768518</v>
@@ -3838,7 +3841,7 @@
         <v>45315.85729166667</v>
       </c>
       <c r="I24" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3858,7 +3861,7 @@
         <v>586</v>
       </c>
       <c r="F25" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G25" s="3">
         <v>45299.43368055556</v>
@@ -3867,7 +3870,7 @@
         <v>45316.37909722222</v>
       </c>
       <c r="I25" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3887,7 +3890,7 @@
         <v>596</v>
       </c>
       <c r="F26" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G26" s="3">
         <v>45314.17763888889</v>
@@ -3896,7 +3899,7 @@
         <v>45316.08064814815</v>
       </c>
       <c r="I26" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3916,7 +3919,7 @@
         <v>597</v>
       </c>
       <c r="F27" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G27" s="3">
         <v>45291.49208333333</v>
@@ -3925,7 +3928,7 @@
         <v>45316.34907407407</v>
       </c>
       <c r="I27" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3945,7 +3948,7 @@
         <v>598</v>
       </c>
       <c r="F28" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G28" s="3">
         <v>45289.73149305556</v>
@@ -3954,7 +3957,7 @@
         <v>45316.37931712963</v>
       </c>
       <c r="I28" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3974,7 +3977,7 @@
         <v>599</v>
       </c>
       <c r="F29" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G29" s="3">
         <v>45312.4952662037</v>
@@ -3983,7 +3986,7 @@
         <v>45315.52618055556</v>
       </c>
       <c r="I29" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4003,7 +4006,7 @@
         <v>600</v>
       </c>
       <c r="F30" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G30" s="3">
         <v>45307.49253472222</v>
@@ -4012,7 +4015,7 @@
         <v>45316.3793287037</v>
       </c>
       <c r="I30" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4032,7 +4035,7 @@
         <v>596</v>
       </c>
       <c r="F31" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G31" s="3">
         <v>45311.71104166667</v>
@@ -4041,7 +4044,7 @@
         <v>45316.37922453704</v>
       </c>
       <c r="I31" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4061,7 +4064,7 @@
         <v>596</v>
       </c>
       <c r="F32" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G32" s="3">
         <v>45312.34644675926</v>
@@ -4070,7 +4073,7 @@
         <v>45316.37908564815</v>
       </c>
       <c r="I32" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4090,7 +4093,7 @@
         <v>601</v>
       </c>
       <c r="F33" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G33" s="3">
         <v>44163.34006944444</v>
@@ -4099,7 +4102,7 @@
         <v>44163.34006944444</v>
       </c>
       <c r="I33" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4119,7 +4122,7 @@
         <v>591</v>
       </c>
       <c r="F34" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G34" s="3">
         <v>45286.80534722222</v>
@@ -4128,7 +4131,7 @@
         <v>45316.37934027778</v>
       </c>
       <c r="I34" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4148,7 +4151,7 @@
         <v>602</v>
       </c>
       <c r="F35" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G35" s="3">
         <v>45302.49230324074</v>
@@ -4157,7 +4160,7 @@
         <v>45314.98761574074</v>
       </c>
       <c r="I35" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4177,7 +4180,7 @@
         <v>603</v>
       </c>
       <c r="F36" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G36" s="3">
         <v>45302.49503472223</v>
@@ -4186,7 +4189,7 @@
         <v>45315.48547453704</v>
       </c>
       <c r="I36" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4206,7 +4209,7 @@
         <v>604</v>
       </c>
       <c r="F37" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G37" s="3">
         <v>45311.61938657407</v>
@@ -4215,7 +4218,7 @@
         <v>45316.42167824074</v>
       </c>
       <c r="I37" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4235,7 +4238,7 @@
         <v>600</v>
       </c>
       <c r="F38" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G38" s="3">
         <v>45297.0796412037</v>
@@ -4244,7 +4247,7 @@
         <v>45316.49811342593</v>
       </c>
       <c r="I38" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4264,7 +4267,7 @@
         <v>605</v>
       </c>
       <c r="F39" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G39" s="3">
         <v>45290.31696759259</v>
@@ -4273,7 +4276,7 @@
         <v>45316.49866898148</v>
       </c>
       <c r="I39" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4293,7 +4296,7 @@
         <v>606</v>
       </c>
       <c r="F40" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G40" s="3">
         <v>45313.59486111111</v>
@@ -4302,7 +4305,7 @@
         <v>45316.49662037037</v>
       </c>
       <c r="I40" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4322,7 +4325,7 @@
         <v>607</v>
       </c>
       <c r="F41" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G41" s="3">
         <v>45295.49177083333</v>
@@ -4331,7 +4334,7 @@
         <v>45316.49807870371</v>
       </c>
       <c r="I41" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4351,7 +4354,7 @@
         <v>608</v>
       </c>
       <c r="F42" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G42" s="3">
         <v>45311.92179398148</v>
@@ -4360,7 +4363,7 @@
         <v>45316.4971875</v>
       </c>
       <c r="I42" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4380,7 +4383,7 @@
         <v>607</v>
       </c>
       <c r="F43" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G43" s="3">
         <v>45296.05393518518</v>
@@ -4389,7 +4392,7 @@
         <v>45316.50489583334</v>
       </c>
       <c r="I43" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4409,7 +4412,7 @@
         <v>596</v>
       </c>
       <c r="F44" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G44" s="3">
         <v>45313.11333333333</v>
@@ -4418,7 +4421,7 @@
         <v>45316.49230324074</v>
       </c>
       <c r="I44" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4438,7 +4441,7 @@
         <v>599</v>
       </c>
       <c r="F45" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G45" s="3">
         <v>45306.61894675926</v>
@@ -4447,7 +4450,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I45" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4467,7 +4470,7 @@
         <v>609</v>
       </c>
       <c r="F46" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G46" s="3">
         <v>45312.49850694444</v>
@@ -4476,7 +4479,7 @@
         <v>45316.49799768518</v>
       </c>
       <c r="I46" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4496,7 +4499,7 @@
         <v>610</v>
       </c>
       <c r="F47" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G47" s="3">
         <v>45262.49515046296</v>
@@ -4505,7 +4508,7 @@
         <v>45309.07923611111</v>
       </c>
       <c r="I47" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4525,7 +4528,7 @@
         <v>605</v>
       </c>
       <c r="F48" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G48" s="3">
         <v>45298.49847222222</v>
@@ -4534,7 +4537,7 @@
         <v>45316.49944444445</v>
       </c>
       <c r="I48" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4554,7 +4557,7 @@
         <v>611</v>
       </c>
       <c r="F49" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G49" s="3">
         <v>45311.61908564815</v>
@@ -4563,7 +4566,7 @@
         <v>45316.49847222222</v>
       </c>
       <c r="I49" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4583,7 +4586,7 @@
         <v>612</v>
       </c>
       <c r="F50" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G50" s="3">
         <v>45311.61989583333</v>
@@ -4592,7 +4595,7 @@
         <v>45316.50482638889</v>
       </c>
       <c r="I50" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4612,7 +4615,7 @@
         <v>600</v>
       </c>
       <c r="F51" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G51" s="3">
         <v>45316.50053240741</v>
@@ -4621,7 +4624,7 @@
         <v>45316.50232638889</v>
       </c>
       <c r="I51" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4641,7 +4644,7 @@
         <v>594</v>
       </c>
       <c r="F52" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G52" s="3">
         <v>45313.05881944444</v>
@@ -4650,7 +4653,7 @@
         <v>45314.42322916666</v>
       </c>
       <c r="I52" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4670,7 +4673,7 @@
         <v>613</v>
       </c>
       <c r="F53" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G53" s="3">
         <v>45316.5015162037</v>
@@ -4679,7 +4682,7 @@
         <v>45316.50331018519</v>
       </c>
       <c r="I53" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4699,7 +4702,7 @@
         <v>614</v>
       </c>
       <c r="F54" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G54" s="3">
         <v>45291.62113425926</v>
@@ -4708,7 +4711,7 @@
         <v>45316.49827546296</v>
       </c>
       <c r="I54" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4728,7 +4731,7 @@
         <v>615</v>
       </c>
       <c r="F55" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G55" s="3">
         <v>45287.49758101852</v>
@@ -4737,7 +4740,7 @@
         <v>45316.50458333334</v>
       </c>
       <c r="I55" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4757,7 +4760,7 @@
         <v>616</v>
       </c>
       <c r="F56" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G56" s="3">
         <v>45280.75131944445</v>
@@ -4766,7 +4769,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I56" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4786,7 +4789,7 @@
         <v>599</v>
       </c>
       <c r="F57" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G57" s="3">
         <v>45291.49048611111</v>
@@ -4795,7 +4798,7 @@
         <v>45316.50336805556</v>
       </c>
       <c r="I57" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4815,7 +4818,7 @@
         <v>590</v>
       </c>
       <c r="F58" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G58" s="3">
         <v>45310.86956018519</v>
@@ -4824,7 +4827,7 @@
         <v>45314.48899305556</v>
       </c>
       <c r="I58" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4844,7 +4847,7 @@
         <v>584</v>
       </c>
       <c r="F59" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G59" s="3">
         <v>45311.61930555556</v>
@@ -4853,7 +4856,7 @@
         <v>45316.49861111111</v>
       </c>
       <c r="I59" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4873,7 +4876,7 @@
         <v>617</v>
       </c>
       <c r="F60" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G60" s="3">
         <v>45313.76346064815</v>
@@ -4882,7 +4885,7 @@
         <v>45316.49800925926</v>
       </c>
       <c r="I60" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4902,7 +4905,7 @@
         <v>618</v>
       </c>
       <c r="F61" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G61" s="3">
         <v>45278.11224537037</v>
@@ -4911,7 +4914,7 @@
         <v>45302.49298611111</v>
       </c>
       <c r="I61" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4931,7 +4934,7 @@
         <v>607</v>
       </c>
       <c r="F62" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G62" s="3">
         <v>45278.21631944444</v>
@@ -4940,7 +4943,7 @@
         <v>45316.50450231481</v>
       </c>
       <c r="I62" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4960,7 +4963,7 @@
         <v>601</v>
       </c>
       <c r="F63" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G63" s="3">
         <v>45163.2121412037</v>
@@ -4969,7 +4972,7 @@
         <v>45163.2121412037</v>
       </c>
       <c r="I63" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4989,7 +4992,7 @@
         <v>603</v>
       </c>
       <c r="F64" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G64" s="3">
         <v>45316.49957175926</v>
@@ -4998,7 +5001,7 @@
         <v>45316.50452546297</v>
       </c>
       <c r="I64" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -5018,7 +5021,7 @@
         <v>619</v>
       </c>
       <c r="F65" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G65" s="3">
         <v>45297.49180555555</v>
@@ -5027,7 +5030,7 @@
         <v>45316.50127314815</v>
       </c>
       <c r="I65" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -5047,7 +5050,7 @@
         <v>620</v>
       </c>
       <c r="F66" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G66" s="3">
         <v>45297.09299768518</v>
@@ -5056,7 +5059,7 @@
         <v>45316.5039699074</v>
       </c>
       <c r="I66" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -5076,7 +5079,7 @@
         <v>621</v>
       </c>
       <c r="F67" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G67" s="3">
         <v>45316.50059027778</v>
@@ -5085,7 +5088,7 @@
         <v>45316.50255787037</v>
       </c>
       <c r="I67" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -5105,7 +5108,7 @@
         <v>622</v>
       </c>
       <c r="F68" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G68" s="3">
         <v>45313.63670138889</v>
@@ -5114,7 +5117,7 @@
         <v>45315.90416666667</v>
       </c>
       <c r="I68" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -5134,7 +5137,7 @@
         <v>584</v>
       </c>
       <c r="F69" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G69" s="3">
         <v>45304.51188657407</v>
@@ -5143,7 +5146,7 @@
         <v>45315.56863425926</v>
       </c>
       <c r="I69" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -5163,7 +5166,7 @@
         <v>623</v>
       </c>
       <c r="F70" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G70" s="3">
         <v>45291.49329861111</v>
@@ -5172,7 +5175,7 @@
         <v>45312.93239583333</v>
       </c>
       <c r="I70" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -5192,7 +5195,7 @@
         <v>624</v>
       </c>
       <c r="F71" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G71" s="3">
         <v>45300.57674768518</v>
@@ -5201,7 +5204,7 @@
         <v>45315.52626157407</v>
       </c>
       <c r="I71" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -5221,7 +5224,7 @@
         <v>625</v>
       </c>
       <c r="F72" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G72" s="3">
         <v>45310.40046296296</v>
@@ -5230,7 +5233,7 @@
         <v>45312.49293981482</v>
       </c>
       <c r="I72" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5250,7 +5253,7 @@
         <v>625</v>
       </c>
       <c r="F73" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G73" s="3">
         <v>45291.49876157408</v>
@@ -5259,7 +5262,7 @@
         <v>45314.49362268519</v>
       </c>
       <c r="I73" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5279,7 +5282,7 @@
         <v>626</v>
       </c>
       <c r="F74" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G74" s="3">
         <v>45292.49576388889</v>
@@ -5288,7 +5291,7 @@
         <v>45314.64596064815</v>
       </c>
       <c r="I74" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5308,13 +5311,13 @@
         <v>601</v>
       </c>
       <c r="F75" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H75" s="3">
         <v>45047.30018518519</v>
       </c>
       <c r="I75" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -5334,7 +5337,7 @@
         <v>627</v>
       </c>
       <c r="F76" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G76" s="3">
         <v>45291.49430555556</v>
@@ -5343,7 +5346,7 @@
         <v>45316.16467592592</v>
       </c>
       <c r="I76" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5363,7 +5366,7 @@
         <v>596</v>
       </c>
       <c r="F77" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G77" s="3">
         <v>45283.62505787037</v>
@@ -5372,7 +5375,7 @@
         <v>45309.04886574074</v>
       </c>
       <c r="I77" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5392,7 +5395,7 @@
         <v>617</v>
       </c>
       <c r="F78" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G78" s="3">
         <v>45262.59487268519</v>
@@ -5401,7 +5404,7 @@
         <v>45309.01453703704</v>
       </c>
       <c r="I78" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -5421,7 +5424,7 @@
         <v>628</v>
       </c>
       <c r="F79" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G79" s="3">
         <v>45312.49354166666</v>
@@ -5430,7 +5433,7 @@
         <v>45316.164375</v>
       </c>
       <c r="I79" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -5450,7 +5453,7 @@
         <v>590</v>
       </c>
       <c r="F80" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G80" s="3">
         <v>45312.7619675926</v>
@@ -5459,7 +5462,7 @@
         <v>45315.65320601852</v>
       </c>
       <c r="I80" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5479,7 +5482,7 @@
         <v>605</v>
       </c>
       <c r="F81" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G81" s="3">
         <v>45310.90116898148</v>
@@ -5488,7 +5491,7 @@
         <v>45316.2090625</v>
       </c>
       <c r="I81" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5508,7 +5511,7 @@
         <v>629</v>
       </c>
       <c r="F82" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G82" s="3">
         <v>45315.1578125</v>
@@ -5517,7 +5520,7 @@
         <v>45316.16471064815</v>
       </c>
       <c r="I82" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -5537,7 +5540,7 @@
         <v>630</v>
       </c>
       <c r="F83" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G83" s="3">
         <v>45287.44400462963</v>
@@ -5546,7 +5549,7 @@
         <v>45314.49243055555</v>
       </c>
       <c r="I83" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -5566,7 +5569,7 @@
         <v>594</v>
       </c>
       <c r="F84" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G84" s="3">
         <v>45309.58261574074</v>
@@ -5575,7 +5578,7 @@
         <v>45314.42337962963</v>
       </c>
       <c r="I84" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -5595,7 +5598,7 @@
         <v>618</v>
       </c>
       <c r="F85" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G85" s="3">
         <v>45280.04030092592</v>
@@ -5604,7 +5607,7 @@
         <v>45309.01909722222</v>
       </c>
       <c r="I85" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -5624,7 +5627,7 @@
         <v>631</v>
       </c>
       <c r="F86" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G86" s="3">
         <v>45302.49703703704</v>
@@ -5633,7 +5636,7 @@
         <v>45316.20864583334</v>
       </c>
       <c r="I86" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -5653,7 +5656,7 @@
         <v>589</v>
       </c>
       <c r="F87" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G87" s="3">
         <v>45313.29277777778</v>
@@ -5662,7 +5665,7 @@
         <v>45315.23820601852</v>
       </c>
       <c r="I87" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5682,7 +5685,7 @@
         <v>632</v>
       </c>
       <c r="F88" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G88" s="3">
         <v>45286.50180555556</v>
@@ -5691,7 +5694,7 @@
         <v>45312.67471064815</v>
       </c>
       <c r="I88" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5711,7 +5714,7 @@
         <v>633</v>
       </c>
       <c r="F89" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G89" s="3">
         <v>45311.42429398148</v>
@@ -5720,7 +5723,7 @@
         <v>45314.89614583334</v>
       </c>
       <c r="I89" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -5740,7 +5743,7 @@
         <v>634</v>
       </c>
       <c r="F90" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G90" s="3">
         <v>45306.6199537037</v>
@@ -5749,7 +5752,7 @@
         <v>45314.49379629629</v>
       </c>
       <c r="I90" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -5769,7 +5772,7 @@
         <v>594</v>
       </c>
       <c r="F91" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G91" s="3">
         <v>45315.42351851852</v>
@@ -5778,7 +5781,7 @@
         <v>45315.42354166666</v>
       </c>
       <c r="I91" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5798,7 +5801,7 @@
         <v>600</v>
       </c>
       <c r="F92" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G92" s="3">
         <v>45287.95120370371</v>
@@ -5807,7 +5810,7 @@
         <v>45315.61121527778</v>
       </c>
       <c r="I92" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -5827,7 +5830,7 @@
         <v>635</v>
       </c>
       <c r="F93" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G93" s="3">
         <v>45312.49561342593</v>
@@ -5836,7 +5839,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I93" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5856,7 +5859,7 @@
         <v>584</v>
       </c>
       <c r="F94" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G94" s="3">
         <v>45291.62100694444</v>
@@ -5865,7 +5868,7 @@
         <v>45314.49383101852</v>
       </c>
       <c r="I94" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5885,7 +5888,7 @@
         <v>636</v>
       </c>
       <c r="F95" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G95" s="3">
         <v>44926.35877314815</v>
@@ -5894,7 +5897,7 @@
         <v>44926.35877314815</v>
       </c>
       <c r="I95" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5914,7 +5917,7 @@
         <v>584</v>
       </c>
       <c r="F96" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G96" s="3">
         <v>45297.49363425926</v>
@@ -5923,7 +5926,7 @@
         <v>45311.89606481481</v>
       </c>
       <c r="I96" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5943,7 +5946,7 @@
         <v>611</v>
       </c>
       <c r="F97" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G97" s="3">
         <v>45314.49303240741</v>
@@ -5952,7 +5955,7 @@
         <v>45315.65373842593</v>
       </c>
       <c r="I97" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5972,7 +5975,7 @@
         <v>601</v>
       </c>
       <c r="F98" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G98" s="3">
         <v>45313.05805555556</v>
@@ -5981,7 +5984,7 @@
         <v>45313.05806712963</v>
       </c>
       <c r="I98" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -6001,7 +6004,7 @@
         <v>617</v>
       </c>
       <c r="F99" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G99" s="3">
         <v>45307.38726851852</v>
@@ -6010,7 +6013,7 @@
         <v>45314.85255787037</v>
       </c>
       <c r="I99" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -6030,7 +6033,7 @@
         <v>637</v>
       </c>
       <c r="F100" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G100" s="3">
         <v>45293.03614583334</v>
@@ -6039,7 +6042,7 @@
         <v>45293.0361574074</v>
       </c>
       <c r="I100" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6059,7 +6062,7 @@
         <v>638</v>
       </c>
       <c r="F101" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G101" s="3">
         <v>45314.50199074074</v>
@@ -6068,7 +6071,7 @@
         <v>45315.65385416667</v>
       </c>
       <c r="I101" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -6088,7 +6091,7 @@
         <v>639</v>
       </c>
       <c r="F102" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G102" s="3">
         <v>45307.37951388889</v>
@@ -6097,7 +6100,7 @@
         <v>45315.36158564815</v>
       </c>
       <c r="I102" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -6117,7 +6120,7 @@
         <v>601</v>
       </c>
       <c r="F103" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G103" s="3">
         <v>45307.00873842592</v>
@@ -6126,7 +6129,7 @@
         <v>45307.00875</v>
       </c>
       <c r="I103" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -6146,7 +6149,7 @@
         <v>640</v>
       </c>
       <c r="F104" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G104" s="3">
         <v>45315.42385416666</v>
@@ -6155,7 +6158,7 @@
         <v>45315.42386574074</v>
       </c>
       <c r="I104" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -6175,7 +6178,7 @@
         <v>641</v>
       </c>
       <c r="F105" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G105" s="3">
         <v>45291.49836805555</v>
@@ -6184,7 +6187,7 @@
         <v>45315.65422453704</v>
       </c>
       <c r="I105" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -6204,7 +6207,7 @@
         <v>642</v>
       </c>
       <c r="F106" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G106" s="3">
         <v>45280.57280092593</v>
@@ -6213,7 +6216,7 @@
         <v>45309.02465277778</v>
       </c>
       <c r="I106" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -6233,7 +6236,7 @@
         <v>634</v>
       </c>
       <c r="F107" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G107" s="3">
         <v>45302.49490740741</v>
@@ -6242,7 +6245,7 @@
         <v>45312.88666666667</v>
       </c>
       <c r="I107" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -6262,7 +6265,7 @@
         <v>643</v>
       </c>
       <c r="F108" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G108" s="3">
         <v>45288.28815972222</v>
@@ -6271,7 +6274,7 @@
         <v>45315.60980324074</v>
       </c>
       <c r="I108" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -6291,7 +6294,7 @@
         <v>644</v>
       </c>
       <c r="F109" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G109" s="3">
         <v>45295.49231481482</v>
@@ -6300,7 +6303,7 @@
         <v>45315.61019675926</v>
       </c>
       <c r="I109" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -6320,7 +6323,7 @@
         <v>645</v>
       </c>
       <c r="F110" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G110" s="3">
         <v>45312.76140046296</v>
@@ -6329,7 +6332,7 @@
         <v>45314.69101851852</v>
       </c>
       <c r="I110" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -6349,7 +6352,7 @@
         <v>598</v>
       </c>
       <c r="F111" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G111" s="3">
         <v>45314.49325231482</v>
@@ -6358,7 +6361,7 @@
         <v>45315.61035879629</v>
       </c>
       <c r="I111" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -6378,7 +6381,7 @@
         <v>646</v>
       </c>
       <c r="F112" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G112" s="3">
         <v>45313.42341435186</v>
@@ -6387,7 +6390,7 @@
         <v>45314.19578703704</v>
       </c>
       <c r="I112" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6407,7 +6410,7 @@
         <v>600</v>
       </c>
       <c r="F113" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G113" s="3">
         <v>45292.49325231482</v>
@@ -6416,7 +6419,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I113" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -6436,7 +6439,7 @@
         <v>581</v>
       </c>
       <c r="F114" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G114" s="3">
         <v>45313.0588425926</v>
@@ -6445,7 +6448,7 @@
         <v>45314.42222222222</v>
       </c>
       <c r="I114" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -6465,7 +6468,7 @@
         <v>647</v>
       </c>
       <c r="F115" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G115" s="3">
         <v>45307.5822337963</v>
@@ -6474,7 +6477,7 @@
         <v>45314.77590277778</v>
       </c>
       <c r="I115" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -6494,7 +6497,7 @@
         <v>639</v>
       </c>
       <c r="F116" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G116" s="3">
         <v>45298.49490740741</v>
@@ -6503,7 +6506,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I116" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -6523,7 +6526,7 @@
         <v>648</v>
       </c>
       <c r="F117" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G117" s="3">
         <v>45300.43424768518</v>
@@ -6532,7 +6535,7 @@
         <v>45314.49525462963</v>
       </c>
       <c r="I117" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -6552,7 +6555,7 @@
         <v>649</v>
       </c>
       <c r="F118" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G118" s="3">
         <v>45287.49133101852</v>
@@ -6561,7 +6564,7 @@
         <v>45315.68306712963</v>
       </c>
       <c r="I118" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -6581,7 +6584,7 @@
         <v>643</v>
       </c>
       <c r="F119" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G119" s="3">
         <v>45315.24193287037</v>
@@ -6590,7 +6593,7 @@
         <v>45315.65413194444</v>
       </c>
       <c r="I119" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -6610,7 +6613,7 @@
         <v>600</v>
       </c>
       <c r="F120" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G120" s="3">
         <v>45296.62521990741</v>
@@ -6619,7 +6622,7 @@
         <v>45315.32032407408</v>
       </c>
       <c r="I120" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -6636,10 +6639,10 @@
         <v>413</v>
       </c>
       <c r="E121" t="s">
-        <v>580</v>
+        <v>650</v>
       </c>
       <c r="F121" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G121" s="3">
         <v>45293.4970949074</v>
@@ -6648,7 +6651,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I121" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -6668,7 +6671,7 @@
         <v>618</v>
       </c>
       <c r="F122" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G122" s="3">
         <v>45282.72908564815</v>
@@ -6677,7 +6680,7 @@
         <v>45282.72909722223</v>
       </c>
       <c r="I122" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -6694,10 +6697,10 @@
         <v>415</v>
       </c>
       <c r="E123" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F123" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G123" s="3">
         <v>45314.49591435185</v>
@@ -6706,7 +6709,7 @@
         <v>45315.69609953704</v>
       </c>
       <c r="I123" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -6723,10 +6726,10 @@
         <v>416</v>
       </c>
       <c r="E124" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F124" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G124" s="3">
         <v>45300.97112268519</v>
@@ -6735,7 +6738,7 @@
         <v>45315.69616898148</v>
       </c>
       <c r="I124" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -6752,10 +6755,10 @@
         <v>417</v>
       </c>
       <c r="E125" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F125" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G125" s="3">
         <v>45273.65564814815</v>
@@ -6764,7 +6767,7 @@
         <v>45303.42461805556</v>
       </c>
       <c r="I125" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -6784,7 +6787,7 @@
         <v>590</v>
       </c>
       <c r="F126" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G126" s="3">
         <v>45298.21359953703</v>
@@ -6793,7 +6796,7 @@
         <v>45314.49523148148</v>
       </c>
       <c r="I126" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -6813,7 +6816,7 @@
         <v>648</v>
       </c>
       <c r="F127" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G127" s="3">
         <v>45308.42383101852</v>
@@ -6822,7 +6825,7 @@
         <v>45314.49195601852</v>
       </c>
       <c r="I127" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -6839,10 +6842,10 @@
         <v>420</v>
       </c>
       <c r="E128" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F128" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G128" s="3">
         <v>45294.41019675926</v>
@@ -6851,7 +6854,7 @@
         <v>45315.69918981481</v>
       </c>
       <c r="I128" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -6871,7 +6874,7 @@
         <v>586</v>
       </c>
       <c r="F129" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G129" s="3">
         <v>45310.61224537037</v>
@@ -6880,7 +6883,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I129" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -6900,7 +6903,7 @@
         <v>627</v>
       </c>
       <c r="F130" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G130" s="3">
         <v>45304.64673611111</v>
@@ -6909,7 +6912,7 @@
         <v>45315.6959375</v>
       </c>
       <c r="I130" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -6929,7 +6932,7 @@
         <v>620</v>
       </c>
       <c r="F131" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G131" s="3">
         <v>45295.49403935186</v>
@@ -6938,7 +6941,7 @@
         <v>45315.69605324074</v>
       </c>
       <c r="I131" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -6955,10 +6958,10 @@
         <v>424</v>
       </c>
       <c r="E132" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F132" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G132" s="3">
         <v>45298.06329861111</v>
@@ -6967,7 +6970,7 @@
         <v>45314.49458333333</v>
       </c>
       <c r="I132" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -6987,7 +6990,7 @@
         <v>644</v>
       </c>
       <c r="F133" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G133" s="3">
         <v>45297.49041666667</v>
@@ -6996,7 +6999,7 @@
         <v>45315.70159722222</v>
       </c>
       <c r="I133" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -7016,7 +7019,7 @@
         <v>581</v>
       </c>
       <c r="F134" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G134" s="3">
         <v>45296.21274305556</v>
@@ -7025,7 +7028,7 @@
         <v>45309.05621527778</v>
       </c>
       <c r="I134" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -7045,7 +7048,7 @@
         <v>639</v>
       </c>
       <c r="F135" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G135" s="3">
         <v>45307.08791666666</v>
@@ -7054,7 +7057,7 @@
         <v>45315.65327546297</v>
       </c>
       <c r="I135" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -7074,7 +7077,7 @@
         <v>629</v>
       </c>
       <c r="F136" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G136" s="3">
         <v>45314.49842592593</v>
@@ -7083,7 +7086,7 @@
         <v>45314.67444444444</v>
       </c>
       <c r="I136" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -7103,7 +7106,7 @@
         <v>596</v>
       </c>
       <c r="F137" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G137" s="3">
         <v>45310.65872685185</v>
@@ -7112,7 +7115,7 @@
         <v>45314.49422453704</v>
       </c>
       <c r="I137" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -7132,7 +7135,7 @@
         <v>596</v>
       </c>
       <c r="F138" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G138" s="3">
         <v>45312.13112268518</v>
@@ -7141,7 +7144,7 @@
         <v>45315.6537962963</v>
       </c>
       <c r="I138" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -7158,10 +7161,10 @@
         <v>431</v>
       </c>
       <c r="E139" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F139" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G139" s="3">
         <v>45270.59310185185</v>
@@ -7170,7 +7173,7 @@
         <v>45309.07831018518</v>
       </c>
       <c r="I139" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -7187,10 +7190,10 @@
         <v>432</v>
       </c>
       <c r="E140" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F140" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G140" s="3">
         <v>45278.77987268518</v>
@@ -7199,7 +7202,7 @@
         <v>45314.6009837963</v>
       </c>
       <c r="I140" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -7219,7 +7222,7 @@
         <v>590</v>
       </c>
       <c r="F141" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G141" s="3">
         <v>45314.49572916667</v>
@@ -7228,7 +7231,7 @@
         <v>45314.67103009259</v>
       </c>
       <c r="I141" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -7248,13 +7251,13 @@
         <v>601</v>
       </c>
       <c r="F142" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H142" s="3">
         <v>43999.85027777778</v>
       </c>
       <c r="I142" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -7271,10 +7274,10 @@
         <v>435</v>
       </c>
       <c r="E143" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F143" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G143" s="3">
         <v>45309.54311342593</v>
@@ -7283,7 +7286,7 @@
         <v>45316.16458333333</v>
       </c>
       <c r="I143" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -7303,7 +7306,7 @@
         <v>601</v>
       </c>
       <c r="F144" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G144" s="3">
         <v>45306.51280092593</v>
@@ -7312,7 +7315,7 @@
         <v>45306.51280092593</v>
       </c>
       <c r="I144" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -7332,7 +7335,7 @@
         <v>621</v>
       </c>
       <c r="F145" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G145" s="3">
         <v>45314.49275462963</v>
@@ -7341,7 +7344,7 @@
         <v>45315.73717592593</v>
       </c>
       <c r="I145" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -7361,7 +7364,7 @@
         <v>606</v>
       </c>
       <c r="F146" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G146" s="3">
         <v>45308.77947916667</v>
@@ -7370,7 +7373,7 @@
         <v>45309.07209490741</v>
       </c>
       <c r="I146" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -7390,7 +7393,7 @@
         <v>622</v>
       </c>
       <c r="F147" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G147" s="3">
         <v>45307.50165509259</v>
@@ -7399,7 +7402,7 @@
         <v>45312.88640046296</v>
       </c>
       <c r="I147" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -7419,7 +7422,7 @@
         <v>621</v>
       </c>
       <c r="F148" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G148" s="3">
         <v>45294.12988425926</v>
@@ -7428,7 +7431,7 @@
         <v>45314.49341435185</v>
       </c>
       <c r="I148" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -7448,7 +7451,7 @@
         <v>642</v>
       </c>
       <c r="F149" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G149" s="3">
         <v>45296.33108796296</v>
@@ -7457,7 +7460,7 @@
         <v>45314.51508101852</v>
       </c>
       <c r="I149" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -7474,10 +7477,10 @@
         <v>442</v>
       </c>
       <c r="E150" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F150" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G150" s="3">
         <v>45295.49210648148</v>
@@ -7486,7 +7489,7 @@
         <v>45315.69587962963</v>
       </c>
       <c r="I150" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -7506,7 +7509,7 @@
         <v>643</v>
       </c>
       <c r="F151" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G151" s="3">
         <v>45314.49277777778</v>
@@ -7515,7 +7518,7 @@
         <v>45315.73741898148</v>
       </c>
       <c r="I151" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -7532,10 +7535,10 @@
         <v>444</v>
       </c>
       <c r="E152" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F152" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G152" s="3">
         <v>45308.74111111111</v>
@@ -7544,7 +7547,7 @@
         <v>45310.69127314815</v>
       </c>
       <c r="I152" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -7561,10 +7564,10 @@
         <v>445</v>
       </c>
       <c r="E153" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F153" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G153" s="3">
         <v>45311.61907407407</v>
@@ -7573,7 +7576,7 @@
         <v>45315.73760416666</v>
       </c>
       <c r="I153" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -7593,7 +7596,7 @@
         <v>594</v>
       </c>
       <c r="F154" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G154" s="3">
         <v>45313.06128472222</v>
@@ -7602,7 +7605,7 @@
         <v>45314.4228125</v>
       </c>
       <c r="I154" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -7622,7 +7625,7 @@
         <v>639</v>
       </c>
       <c r="F155" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G155" s="3">
         <v>45291.49923611111</v>
@@ -7631,7 +7634,7 @@
         <v>45312.49590277778</v>
       </c>
       <c r="I155" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -7651,7 +7654,7 @@
         <v>634</v>
       </c>
       <c r="F156" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G156" s="3">
         <v>45302.49706018518</v>
@@ -7660,7 +7663,7 @@
         <v>45315.07060185185</v>
       </c>
       <c r="I156" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -7680,7 +7683,7 @@
         <v>598</v>
       </c>
       <c r="F157" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G157" s="3">
         <v>45286.49168981481</v>
@@ -7689,7 +7692,7 @@
         <v>45315.73706018519</v>
       </c>
       <c r="I157" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -7706,10 +7709,10 @@
         <v>450</v>
       </c>
       <c r="E158" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F158" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G158" s="3">
         <v>45306.62078703703</v>
@@ -7718,7 +7721,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I158" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -7735,10 +7738,10 @@
         <v>451</v>
       </c>
       <c r="E159" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F159" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G159" s="3">
         <v>45297.49820601852</v>
@@ -7747,7 +7750,7 @@
         <v>45315.73712962963</v>
       </c>
       <c r="I159" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -7764,10 +7767,10 @@
         <v>452</v>
       </c>
       <c r="E160" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F160" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G160" s="3">
         <v>45314.49293981482</v>
@@ -7776,7 +7779,7 @@
         <v>45315.73753472222</v>
       </c>
       <c r="I160" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -7793,10 +7796,10 @@
         <v>453</v>
       </c>
       <c r="E161" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F161" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G161" s="3">
         <v>45302.49929398148</v>
@@ -7805,7 +7808,7 @@
         <v>45314.49518518519</v>
       </c>
       <c r="I161" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -7825,13 +7828,13 @@
         <v>601</v>
       </c>
       <c r="F162" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H162" s="3">
         <v>45307.36160879629</v>
       </c>
       <c r="I162" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -7848,10 +7851,10 @@
         <v>455</v>
       </c>
       <c r="E163" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F163" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G163" s="3">
         <v>45314.4933912037</v>
@@ -7860,7 +7863,7 @@
         <v>45316.12230324074</v>
       </c>
       <c r="I163" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -7880,7 +7883,7 @@
         <v>608</v>
       </c>
       <c r="F164" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G164" s="3">
         <v>45307.36724537037</v>
@@ -7889,7 +7892,7 @@
         <v>45316.16459490741</v>
       </c>
       <c r="I164" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -7906,10 +7909,10 @@
         <v>457</v>
       </c>
       <c r="E165" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F165" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G165" s="3">
         <v>45297.31922453704</v>
@@ -7918,7 +7921,7 @@
         <v>45314.49394675926</v>
       </c>
       <c r="I165" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -7935,10 +7938,10 @@
         <v>458</v>
       </c>
       <c r="E166" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F166" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G166" s="3">
         <v>45315.42201388889</v>
@@ -7947,7 +7950,7 @@
         <v>45315.7841550926</v>
       </c>
       <c r="I166" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -7967,7 +7970,7 @@
         <v>594</v>
       </c>
       <c r="F167" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G167" s="3">
         <v>45314.42302083333</v>
@@ -7976,7 +7979,7 @@
         <v>45314.42302083333</v>
       </c>
       <c r="I167" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -7993,10 +7996,10 @@
         <v>460</v>
       </c>
       <c r="E168" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F168" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G168" s="3">
         <v>45314.49530092593</v>
@@ -8005,7 +8008,7 @@
         <v>45315.78174768519</v>
       </c>
       <c r="I168" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -8022,10 +8025,10 @@
         <v>461</v>
       </c>
       <c r="E169" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F169" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G169" s="3">
         <v>45312.49302083333</v>
@@ -8034,7 +8037,7 @@
         <v>45314.49451388889</v>
       </c>
       <c r="I169" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -8051,10 +8054,10 @@
         <v>462</v>
       </c>
       <c r="E170" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F170" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G170" s="3">
         <v>45302.49891203704</v>
@@ -8063,7 +8066,7 @@
         <v>45315.78163194445</v>
       </c>
       <c r="I170" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -8080,10 +8083,10 @@
         <v>463</v>
       </c>
       <c r="E171" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F171" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G171" s="3">
         <v>45314.49350694445</v>
@@ -8092,7 +8095,7 @@
         <v>45315.78178240741</v>
       </c>
       <c r="I171" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -8112,7 +8115,7 @@
         <v>601</v>
       </c>
       <c r="F172" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G172" s="3">
         <v>44049.84335648148</v>
@@ -8121,7 +8124,7 @@
         <v>44740.15496527778</v>
       </c>
       <c r="I172" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -8141,7 +8144,7 @@
         <v>584</v>
       </c>
       <c r="F173" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G173" s="3">
         <v>45307.49097222222</v>
@@ -8150,7 +8153,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I173" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -8170,7 +8173,7 @@
         <v>594</v>
       </c>
       <c r="F174" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G174" s="3">
         <v>45312.37847222222</v>
@@ -8179,7 +8182,7 @@
         <v>45314.42348379629</v>
       </c>
       <c r="I174" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -8199,7 +8202,7 @@
         <v>605</v>
       </c>
       <c r="F175" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G175" s="3">
         <v>45312.25097222222</v>
@@ -8208,7 +8211,7 @@
         <v>45315.74335648148</v>
       </c>
       <c r="I175" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -8225,10 +8228,10 @@
         <v>468</v>
       </c>
       <c r="E176" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F176" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G176" s="3">
         <v>45310.90118055556</v>
@@ -8237,7 +8240,7 @@
         <v>45314.49304398148</v>
       </c>
       <c r="I176" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -8257,7 +8260,7 @@
         <v>599</v>
       </c>
       <c r="F177" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G177" s="3">
         <v>45296.62515046296</v>
@@ -8266,7 +8269,7 @@
         <v>45314.49361111111</v>
       </c>
       <c r="I177" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -8283,10 +8286,10 @@
         <v>470</v>
       </c>
       <c r="E178" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F178" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G178" s="3">
         <v>45311.61869212963</v>
@@ -8295,7 +8298,7 @@
         <v>45315.73645833333</v>
       </c>
       <c r="I178" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -8315,7 +8318,7 @@
         <v>644</v>
       </c>
       <c r="F179" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G179" s="3">
         <v>45287.159375</v>
@@ -8324,7 +8327,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I179" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -8341,10 +8344,10 @@
         <v>472</v>
       </c>
       <c r="E180" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F180" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G180" s="3">
         <v>45311.68436342593</v>
@@ -8353,7 +8356,7 @@
         <v>45315.75385416667</v>
       </c>
       <c r="I180" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -8370,10 +8373,10 @@
         <v>473</v>
       </c>
       <c r="E181" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F181" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G181" s="3">
         <v>45291.49039351852</v>
@@ -8382,7 +8385,7 @@
         <v>45315.78164351852</v>
       </c>
       <c r="I181" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -8399,10 +8402,10 @@
         <v>474</v>
       </c>
       <c r="E182" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F182" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G182" s="3">
         <v>45308.74193287037</v>
@@ -8411,7 +8414,7 @@
         <v>45315.7467824074</v>
       </c>
       <c r="I182" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -8428,10 +8431,10 @@
         <v>475</v>
       </c>
       <c r="E183" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F183" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G183" s="3">
         <v>45290.68399305556</v>
@@ -8440,7 +8443,7 @@
         <v>45315.76791666666</v>
       </c>
       <c r="I183" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -8457,10 +8460,10 @@
         <v>476</v>
       </c>
       <c r="E184" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F184" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G184" s="3">
         <v>45294.52609953703</v>
@@ -8469,7 +8472,7 @@
         <v>45315.75109953704</v>
       </c>
       <c r="I184" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -8486,10 +8489,10 @@
         <v>477</v>
       </c>
       <c r="E185" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F185" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G185" s="3">
         <v>45305.28581018518</v>
@@ -8498,7 +8501,7 @@
         <v>45315.73657407407</v>
       </c>
       <c r="I185" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -8515,10 +8518,10 @@
         <v>478</v>
       </c>
       <c r="E186" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F186" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G186" s="3">
         <v>45303.07900462963</v>
@@ -8527,7 +8530,7 @@
         <v>45315.78171296296</v>
       </c>
       <c r="I186" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -8547,7 +8550,7 @@
         <v>634</v>
       </c>
       <c r="F187" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G187" s="3">
         <v>45294.00594907408</v>
@@ -8556,7 +8559,7 @@
         <v>45315.60971064815</v>
       </c>
       <c r="I187" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -8573,10 +8576,10 @@
         <v>480</v>
       </c>
       <c r="E188" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F188" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G188" s="3">
         <v>45291.6212037037</v>
@@ -8585,7 +8588,7 @@
         <v>45315.76299768518</v>
       </c>
       <c r="I188" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -8602,10 +8605,10 @@
         <v>481</v>
       </c>
       <c r="E189" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F189" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G189" s="3">
         <v>45291.62125</v>
@@ -8614,7 +8617,7 @@
         <v>45315.73672453704</v>
       </c>
       <c r="I189" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -8631,10 +8634,10 @@
         <v>482</v>
       </c>
       <c r="E190" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F190" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G190" s="3">
         <v>45291.49121527778</v>
@@ -8643,7 +8646,7 @@
         <v>45315.73679398148</v>
       </c>
       <c r="I190" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -8663,7 +8666,7 @@
         <v>584</v>
       </c>
       <c r="F191" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G191" s="3">
         <v>45305.45537037037</v>
@@ -8672,7 +8675,7 @@
         <v>45315.78153935185</v>
       </c>
       <c r="I191" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -8689,10 +8692,10 @@
         <v>484</v>
       </c>
       <c r="E192" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F192" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G192" s="3">
         <v>45312.66900462963</v>
@@ -8701,7 +8704,7 @@
         <v>45315.78197916667</v>
       </c>
       <c r="I192" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -8718,10 +8721,10 @@
         <v>485</v>
       </c>
       <c r="E193" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F193" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G193" s="3">
         <v>45283.15128472223</v>
@@ -8730,7 +8733,7 @@
         <v>45315.73756944444</v>
       </c>
       <c r="I193" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -8747,10 +8750,10 @@
         <v>486</v>
       </c>
       <c r="E194" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F194" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G194" s="3">
         <v>45290.15359953704</v>
@@ -8759,7 +8762,7 @@
         <v>45315.81050925926</v>
       </c>
       <c r="I194" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -8776,10 +8779,10 @@
         <v>487</v>
       </c>
       <c r="E195" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F195" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G195" s="3">
         <v>45288.77761574074</v>
@@ -8788,7 +8791,7 @@
         <v>45315.8109837963</v>
       </c>
       <c r="I195" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -8805,10 +8808,10 @@
         <v>488</v>
       </c>
       <c r="E196" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F196" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G196" s="3">
         <v>45283.5427199074</v>
@@ -8817,7 +8820,7 @@
         <v>45315.81034722222</v>
       </c>
       <c r="I196" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -8834,10 +8837,10 @@
         <v>489</v>
       </c>
       <c r="E197" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F197" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G197" s="3">
         <v>45290.06099537037</v>
@@ -8846,7 +8849,7 @@
         <v>45315.78223379629</v>
       </c>
       <c r="I197" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -8863,10 +8866,10 @@
         <v>490</v>
       </c>
       <c r="E198" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F198" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G198" s="3">
         <v>45285.78746527778</v>
@@ -8875,7 +8878,7 @@
         <v>45315.81327546296</v>
       </c>
       <c r="I198" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -8892,10 +8895,10 @@
         <v>491</v>
       </c>
       <c r="E199" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F199" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G199" s="3">
         <v>45300.70331018518</v>
@@ -8904,7 +8907,7 @@
         <v>45315.78243055556</v>
       </c>
       <c r="I199" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -8924,7 +8927,7 @@
         <v>646</v>
       </c>
       <c r="F200" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G200" s="3">
         <v>45313.4215625</v>
@@ -8933,7 +8936,7 @@
         <v>45314.19313657407</v>
       </c>
       <c r="I200" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -8953,7 +8956,7 @@
         <v>586</v>
       </c>
       <c r="F201" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G201" s="3">
         <v>45313.10177083333</v>
@@ -8962,7 +8965,7 @@
         <v>45315.19548611111</v>
       </c>
       <c r="I201" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -8979,10 +8982,10 @@
         <v>494</v>
       </c>
       <c r="E202" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F202" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G202" s="3">
         <v>45313.56241898148</v>
@@ -8991,7 +8994,7 @@
         <v>45315.73755787037</v>
       </c>
       <c r="I202" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -9008,10 +9011,10 @@
         <v>495</v>
       </c>
       <c r="E203" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F203" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G203" s="3">
         <v>45287.49016203704</v>
@@ -9020,7 +9023,7 @@
         <v>45315.81586805556</v>
       </c>
       <c r="I203" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -9037,10 +9040,10 @@
         <v>496</v>
       </c>
       <c r="E204" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F204" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G204" s="3">
         <v>45294.11623842592</v>
@@ -9049,7 +9052,7 @@
         <v>45315.81109953704</v>
       </c>
       <c r="I204" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -9066,10 +9069,10 @@
         <v>497</v>
       </c>
       <c r="E205" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F205" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G205" s="3">
         <v>45281.61627314815</v>
@@ -9078,7 +9081,7 @@
         <v>45315.73660879629</v>
       </c>
       <c r="I205" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -9098,7 +9101,7 @@
         <v>584</v>
       </c>
       <c r="F206" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G206" s="3">
         <v>45310.31782407407</v>
@@ -9107,7 +9110,7 @@
         <v>45315.82373842593</v>
       </c>
       <c r="I206" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -9124,10 +9127,10 @@
         <v>499</v>
       </c>
       <c r="E207" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F207" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G207" s="3">
         <v>45292.86751157408</v>
@@ -9136,7 +9139,7 @@
         <v>45315.81833333334</v>
       </c>
       <c r="I207" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -9153,10 +9156,10 @@
         <v>500</v>
       </c>
       <c r="E208" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F208" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G208" s="3">
         <v>45297.78877314815</v>
@@ -9165,7 +9168,7 @@
         <v>45315.82362268519</v>
       </c>
       <c r="I208" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -9182,10 +9185,10 @@
         <v>501</v>
       </c>
       <c r="E209" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F209" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G209" s="3">
         <v>45291.49200231482</v>
@@ -9194,7 +9197,7 @@
         <v>45315.81275462963</v>
       </c>
       <c r="I209" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -9211,10 +9214,10 @@
         <v>502</v>
       </c>
       <c r="E210" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F210" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G210" s="3">
         <v>45314.77236111111</v>
@@ -9223,7 +9226,7 @@
         <v>45315.81111111111</v>
       </c>
       <c r="I210" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -9240,10 +9243,10 @@
         <v>503</v>
       </c>
       <c r="E211" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F211" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G211" s="3">
         <v>45306.94767361111</v>
@@ -9252,7 +9255,7 @@
         <v>45315.81850694444</v>
       </c>
       <c r="I211" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -9269,10 +9272,10 @@
         <v>504</v>
       </c>
       <c r="E212" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F212" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G212" s="3">
         <v>45315.48592592592</v>
@@ -9281,7 +9284,7 @@
         <v>45315.82550925926</v>
       </c>
       <c r="I212" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -9298,10 +9301,10 @@
         <v>505</v>
       </c>
       <c r="E213" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F213" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G213" s="3">
         <v>45278.21140046296</v>
@@ -9310,7 +9313,7 @@
         <v>45315.78211805555</v>
       </c>
       <c r="I213" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -9327,10 +9330,10 @@
         <v>506</v>
       </c>
       <c r="E214" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F214" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G214" s="3">
         <v>45296.58950231481</v>
@@ -9339,7 +9342,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I214" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -9356,10 +9359,10 @@
         <v>507</v>
       </c>
       <c r="E215" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F215" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G215" s="3">
         <v>45308.74321759259</v>
@@ -9368,7 +9371,7 @@
         <v>45315.82768518518</v>
       </c>
       <c r="I215" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -9385,10 +9388,10 @@
         <v>508</v>
       </c>
       <c r="E216" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F216" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G216" s="3">
         <v>45291.49114583333</v>
@@ -9397,7 +9400,7 @@
         <v>45315.82378472222</v>
       </c>
       <c r="I216" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -9414,10 +9417,10 @@
         <v>509</v>
       </c>
       <c r="E217" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F217" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G217" s="3">
         <v>45308.16465277778</v>
@@ -9426,7 +9429,7 @@
         <v>45315.82369212963</v>
       </c>
       <c r="I217" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -9443,10 +9446,10 @@
         <v>510</v>
       </c>
       <c r="E218" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F218" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G218" s="3">
         <v>45296.21802083333</v>
@@ -9455,7 +9458,7 @@
         <v>45315.82553240741</v>
       </c>
       <c r="I218" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -9475,7 +9478,7 @@
         <v>589</v>
       </c>
       <c r="F219" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G219" s="3">
         <v>45307.36931712963</v>
@@ -9484,7 +9487,7 @@
         <v>45315.78234953704</v>
       </c>
       <c r="I219" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -9504,7 +9507,7 @@
         <v>604</v>
       </c>
       <c r="F220" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G220" s="3">
         <v>45313.02901620371</v>
@@ -9513,7 +9516,7 @@
         <v>45315.78185185185</v>
       </c>
       <c r="I220" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -9530,10 +9533,10 @@
         <v>513</v>
       </c>
       <c r="E221" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F221" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G221" s="3">
         <v>45284.49082175926</v>
@@ -9542,7 +9545,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I221" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -9559,10 +9562,10 @@
         <v>514</v>
       </c>
       <c r="E222" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F222" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G222" s="3">
         <v>45290.06063657408</v>
@@ -9571,7 +9574,7 @@
         <v>45315.81575231482</v>
       </c>
       <c r="I222" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -9588,10 +9591,10 @@
         <v>515</v>
       </c>
       <c r="E223" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F223" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G223" s="3">
         <v>45292.49101851852</v>
@@ -9600,7 +9603,7 @@
         <v>45315.81292824074</v>
       </c>
       <c r="I223" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -9617,10 +9620,10 @@
         <v>516</v>
       </c>
       <c r="E224" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F224" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G224" s="3">
         <v>45291.34520833333</v>
@@ -9629,7 +9632,7 @@
         <v>45315.82354166666</v>
       </c>
       <c r="I224" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -9646,10 +9649,10 @@
         <v>517</v>
       </c>
       <c r="E225" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F225" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G225" s="3">
         <v>45314.42053240741</v>
@@ -9658,7 +9661,7 @@
         <v>45315.81092592593</v>
       </c>
       <c r="I225" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -9675,10 +9678,10 @@
         <v>518</v>
       </c>
       <c r="E226" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F226" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G226" s="3">
         <v>45291.49119212963</v>
@@ -9687,7 +9690,7 @@
         <v>45314.49342592592</v>
       </c>
       <c r="I226" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -9704,10 +9707,10 @@
         <v>519</v>
       </c>
       <c r="E227" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F227" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G227" s="3">
         <v>45306.91820601852</v>
@@ -9716,7 +9719,7 @@
         <v>45315.82215277778</v>
       </c>
       <c r="I227" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -9733,10 +9736,10 @@
         <v>520</v>
       </c>
       <c r="E228" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F228" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G228" s="3">
         <v>45286.62017361111</v>
@@ -9745,7 +9748,7 @@
         <v>45315.78180555555</v>
       </c>
       <c r="I228" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -9762,10 +9765,10 @@
         <v>521</v>
       </c>
       <c r="E229" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F229" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G229" s="3">
         <v>45308.74159722222</v>
@@ -9774,7 +9777,7 @@
         <v>45315.82368055556</v>
       </c>
       <c r="I229" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -9794,7 +9797,7 @@
         <v>599</v>
       </c>
       <c r="F230" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G230" s="3">
         <v>45283.53591435185</v>
@@ -9803,7 +9806,7 @@
         <v>45315.82388888889</v>
       </c>
       <c r="I230" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -9820,10 +9823,10 @@
         <v>523</v>
       </c>
       <c r="E231" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F231" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G231" s="3">
         <v>45279.15613425926</v>
@@ -9832,7 +9835,7 @@
         <v>45310.69137731481</v>
       </c>
       <c r="I231" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -9852,7 +9855,7 @@
         <v>605</v>
       </c>
       <c r="F232" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G232" s="3">
         <v>45302.49265046296</v>
@@ -9861,7 +9864,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I232" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -9878,10 +9881,10 @@
         <v>525</v>
       </c>
       <c r="E233" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F233" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G233" s="3">
         <v>45286.49104166667</v>
@@ -9890,7 +9893,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I233" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -9907,10 +9910,10 @@
         <v>526</v>
       </c>
       <c r="E234" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F234" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G234" s="3">
         <v>45313.42326388889</v>
@@ -9919,7 +9922,7 @@
         <v>45314.18550925926</v>
       </c>
       <c r="I234" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -9939,7 +9942,7 @@
         <v>601</v>
       </c>
       <c r="F235" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G235" s="3">
         <v>44288.33525462963</v>
@@ -9948,7 +9951,7 @@
         <v>44288.33525462963</v>
       </c>
       <c r="I235" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -9968,7 +9971,7 @@
         <v>620</v>
       </c>
       <c r="F236" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G236" s="3">
         <v>45287.22329861111</v>
@@ -9977,7 +9980,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I236" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -9994,10 +9997,10 @@
         <v>529</v>
       </c>
       <c r="E237" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F237" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G237" s="3">
         <v>45311.90133101852</v>
@@ -10006,7 +10009,7 @@
         <v>45315.82358796296</v>
       </c>
       <c r="I237" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -10026,7 +10029,7 @@
         <v>584</v>
       </c>
       <c r="F238" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G238" s="3">
         <v>45298.44405092593</v>
@@ -10035,7 +10038,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I238" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -10055,7 +10058,7 @@
         <v>600</v>
       </c>
       <c r="F239" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G239" s="3">
         <v>45297.01849537037</v>
@@ -10064,7 +10067,7 @@
         <v>45314.90065972223</v>
       </c>
       <c r="I239" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -10081,10 +10084,10 @@
         <v>532</v>
       </c>
       <c r="E240" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F240" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G240" s="3">
         <v>45280.57440972222</v>
@@ -10093,7 +10096,7 @@
         <v>45309.03163194445</v>
       </c>
       <c r="I240" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -10113,7 +10116,7 @@
         <v>592</v>
       </c>
       <c r="F241" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G241" s="3">
         <v>45314.42252314815</v>
@@ -10122,7 +10125,7 @@
         <v>45315.82351851852</v>
       </c>
       <c r="I241" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -10142,7 +10145,7 @@
         <v>605</v>
       </c>
       <c r="F242" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G242" s="3">
         <v>45301.61993055556</v>
@@ -10151,7 +10154,7 @@
         <v>45314.018125</v>
       </c>
       <c r="I242" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -10168,10 +10171,10 @@
         <v>535</v>
       </c>
       <c r="E243" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F243" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G243" s="3">
         <v>45312.49469907407</v>
@@ -10180,7 +10183,7 @@
         <v>45315.78165509259</v>
       </c>
       <c r="I243" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -10200,7 +10203,7 @@
         <v>621</v>
       </c>
       <c r="F244" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G244" s="3">
         <v>45295.49803240741</v>
@@ -10209,7 +10212,7 @@
         <v>45315.8234837963</v>
       </c>
       <c r="I244" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -10226,10 +10229,10 @@
         <v>537</v>
       </c>
       <c r="E245" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F245" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G245" s="3">
         <v>45313.05956018518</v>
@@ -10238,7 +10241,7 @@
         <v>45315.82376157407</v>
       </c>
       <c r="I245" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -10258,7 +10261,7 @@
         <v>643</v>
       </c>
       <c r="F246" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G246" s="3">
         <v>45298.49199074074</v>
@@ -10267,7 +10270,7 @@
         <v>45315.82392361111</v>
       </c>
       <c r="I246" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -10287,7 +10290,7 @@
         <v>605</v>
       </c>
       <c r="F247" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G247" s="3">
         <v>45286.6203587963</v>
@@ -10296,7 +10299,7 @@
         <v>45315.82366898148</v>
       </c>
       <c r="I247" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -10316,7 +10319,7 @@
         <v>643</v>
       </c>
       <c r="F248" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G248" s="3">
         <v>45311.61991898148</v>
@@ -10325,7 +10328,7 @@
         <v>45315.02909722222</v>
       </c>
       <c r="I248" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -10342,10 +10345,10 @@
         <v>541</v>
       </c>
       <c r="E249" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F249" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G249" s="3">
         <v>45306.75461805556</v>
@@ -10354,7 +10357,7 @@
         <v>45315.04524305555</v>
       </c>
       <c r="I249" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -10374,7 +10377,7 @@
         <v>587</v>
       </c>
       <c r="F250" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G250" s="3">
         <v>45292.49578703703</v>
@@ -10383,7 +10386,7 @@
         <v>45315.4852662037</v>
       </c>
       <c r="I250" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -10403,7 +10406,7 @@
         <v>622</v>
       </c>
       <c r="F251" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G251" s="3">
         <v>45308.60100694445</v>
@@ -10412,7 +10415,7 @@
         <v>45314.49393518519</v>
       </c>
       <c r="I251" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -10429,10 +10432,10 @@
         <v>544</v>
       </c>
       <c r="E252" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F252" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G252" s="3">
         <v>45289.35146990741</v>
@@ -10441,7 +10444,7 @@
         <v>45314.49217592592</v>
       </c>
       <c r="I252" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -10461,7 +10464,7 @@
         <v>634</v>
       </c>
       <c r="F253" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G253" s="3">
         <v>45307.49243055555</v>
@@ -10470,7 +10473,7 @@
         <v>45314.49329861111</v>
       </c>
       <c r="I253" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -10487,10 +10490,10 @@
         <v>546</v>
       </c>
       <c r="E254" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F254" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G254" s="3">
         <v>45313.42297453704</v>
@@ -10499,7 +10502,7 @@
         <v>45313.42299768519</v>
       </c>
       <c r="I254" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -10519,7 +10522,7 @@
         <v>603</v>
       </c>
       <c r="F255" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G255" s="3">
         <v>45291.49054398148</v>
@@ -10528,7 +10531,7 @@
         <v>45314.94496527778</v>
       </c>
       <c r="I255" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -10545,10 +10548,10 @@
         <v>548</v>
       </c>
       <c r="E256" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F256" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G256" s="3">
         <v>45292.15671296296</v>
@@ -10557,7 +10560,7 @@
         <v>45312.75942129629</v>
       </c>
       <c r="I256" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -10574,10 +10577,10 @@
         <v>549</v>
       </c>
       <c r="E257" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F257" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G257" s="3">
         <v>45287.83861111111</v>
@@ -10586,7 +10589,7 @@
         <v>45316.03899305555</v>
       </c>
       <c r="I257" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -10603,10 +10606,10 @@
         <v>550</v>
       </c>
       <c r="E258" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F258" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G258" s="3">
         <v>45293.04358796297</v>
@@ -10615,7 +10618,7 @@
         <v>45315.8656712963</v>
       </c>
       <c r="I258" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -10635,7 +10638,7 @@
         <v>596</v>
       </c>
       <c r="F259" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G259" s="3">
         <v>45307.49564814815</v>
@@ -10644,7 +10647,7 @@
         <v>45315.9937037037</v>
       </c>
       <c r="I259" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -10664,7 +10667,7 @@
         <v>584</v>
       </c>
       <c r="F260" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G260" s="3">
         <v>45314.90094907407</v>
@@ -10673,7 +10676,7 @@
         <v>45315.89604166667</v>
       </c>
       <c r="I260" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -10693,7 +10696,7 @@
         <v>597</v>
       </c>
       <c r="F261" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G261" s="3">
         <v>45294.84780092593</v>
@@ -10702,7 +10705,7 @@
         <v>45316.03907407408</v>
       </c>
       <c r="I261" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -10719,10 +10722,10 @@
         <v>554</v>
       </c>
       <c r="E262" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F262" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G262" s="3">
         <v>45296.61121527778</v>
@@ -10731,7 +10734,7 @@
         <v>45316.03895833333</v>
       </c>
       <c r="I262" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -10751,7 +10754,7 @@
         <v>614</v>
       </c>
       <c r="F263" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G263" s="3">
         <v>45311.62060185185</v>
@@ -10760,7 +10763,7 @@
         <v>45316.03954861111</v>
       </c>
       <c r="I263" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -10780,7 +10783,7 @@
         <v>600</v>
       </c>
       <c r="F264" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G264" s="3">
         <v>45301.61861111111</v>
@@ -10789,7 +10792,7 @@
         <v>45316.08056712963</v>
       </c>
       <c r="I264" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -10809,7 +10812,7 @@
         <v>600</v>
       </c>
       <c r="F265" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G265" s="3">
         <v>45286.49385416666</v>
@@ -10818,7 +10821,7 @@
         <v>45316.03959490741</v>
       </c>
       <c r="I265" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -10838,7 +10841,7 @@
         <v>634</v>
       </c>
       <c r="F266" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G266" s="3">
         <v>45311.71087962963</v>
@@ -10847,7 +10850,7 @@
         <v>45314.67140046296</v>
       </c>
       <c r="I266" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -10864,10 +10867,10 @@
         <v>559</v>
       </c>
       <c r="E267" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F267" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G267" s="3">
         <v>45288.63045138889</v>
@@ -10876,7 +10879,7 @@
         <v>45316.03887731482</v>
       </c>
       <c r="I267" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -10896,7 +10899,7 @@
         <v>632</v>
       </c>
       <c r="F268" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G268" s="3">
         <v>45280.82067129629</v>
@@ -10905,7 +10908,7 @@
         <v>45316.03997685185</v>
       </c>
       <c r="I268" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -10922,10 +10925,10 @@
         <v>561</v>
       </c>
       <c r="E269" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F269" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G269" s="3">
         <v>45296.62119212963</v>
@@ -10934,7 +10937,7 @@
         <v>45316.08042824074</v>
       </c>
       <c r="I269" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -10954,7 +10957,7 @@
         <v>584</v>
       </c>
       <c r="F270" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G270" s="3">
         <v>45300.48923611111</v>
@@ -10963,7 +10966,7 @@
         <v>45316.08054398148</v>
       </c>
       <c r="I270" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -10983,7 +10986,7 @@
         <v>634</v>
       </c>
       <c r="F271" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G271" s="3">
         <v>45314.49359953704</v>
@@ -10992,7 +10995,7 @@
         <v>45314.66849537037</v>
       </c>
       <c r="I271" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -11012,7 +11015,7 @@
         <v>642</v>
       </c>
       <c r="F272" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G272" s="3">
         <v>45312.50121527778</v>
@@ -11021,7 +11024,7 @@
         <v>45312.67422453704</v>
       </c>
       <c r="I272" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -11041,7 +11044,7 @@
         <v>645</v>
       </c>
       <c r="F273" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G273" s="3">
         <v>45261.49545138889</v>
@@ -11050,7 +11053,7 @@
         <v>45309.04300925926</v>
       </c>
       <c r="I273" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -11070,7 +11073,7 @@
         <v>643</v>
       </c>
       <c r="F274" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G274" s="3">
         <v>45291.49003472222</v>
@@ -11079,7 +11082,7 @@
         <v>45316.08077546296</v>
       </c>
       <c r="I274" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -11096,10 +11099,10 @@
         <v>567</v>
       </c>
       <c r="E275" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F275" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G275" s="3">
         <v>45280.21361111111</v>
@@ -11108,7 +11111,7 @@
         <v>45309.04177083333</v>
       </c>
       <c r="I275" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -11128,7 +11131,7 @@
         <v>598</v>
       </c>
       <c r="F276" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G276" s="3">
         <v>45314.56188657408</v>
@@ -11137,7 +11140,7 @@
         <v>45315.48497685185</v>
       </c>
       <c r="I276" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -11157,7 +11160,7 @@
         <v>600</v>
       </c>
       <c r="F277" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G277" s="3">
         <v>45302.49186342592</v>
@@ -11166,7 +11169,7 @@
         <v>45316.08069444444</v>
       </c>
       <c r="I277" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -11186,7 +11189,7 @@
         <v>635</v>
       </c>
       <c r="F278" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G278" s="3">
         <v>45291.5000462963</v>
@@ -11195,7 +11198,7 @@
         <v>45314.49376157407</v>
       </c>
       <c r="I278" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -11215,7 +11218,7 @@
         <v>620</v>
       </c>
       <c r="F279" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G279" s="3">
         <v>45291.49392361111</v>
@@ -11224,7 +11227,7 @@
         <v>45314.49452546296</v>
       </c>
       <c r="I279" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -11244,7 +11247,7 @@
         <v>599</v>
       </c>
       <c r="F280" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G280" s="3">
         <v>45312.49576388889</v>
@@ -11253,7 +11256,7 @@
         <v>45316.03846064815</v>
       </c>
       <c r="I280" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -11273,7 +11276,7 @@
         <v>629</v>
       </c>
       <c r="F281" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G281" s="3">
         <v>45312.98068287037</v>
@@ -11282,7 +11285,7 @@
         <v>45316.08041666666</v>
       </c>
       <c r="I281" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -11299,10 +11302,10 @@
         <v>574</v>
       </c>
       <c r="E282" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F282" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G282" s="3">
         <v>45314.49623842593</v>
@@ -11311,7 +11314,7 @@
         <v>45316.08075231482</v>
       </c>
       <c r="I282" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -11331,7 +11334,7 @@
         <v>604</v>
       </c>
       <c r="F283" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G283" s="3">
         <v>45313.14449074074</v>
@@ -11340,7 +11343,7 @@
         <v>45316.08082175926</v>
       </c>
       <c r="I283" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -11357,10 +11360,10 @@
         <v>576</v>
       </c>
       <c r="E284" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F284" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G284" s="3">
         <v>45312.50119212963</v>
@@ -11369,7 +11372,7 @@
         <v>45316.08556712963</v>
       </c>
       <c r="I284" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="919">
   <si>
     <t>Sno</t>
   </si>
@@ -1759,202 +1759,205 @@
     <t>{'harmless': 49, 'malicious': 18, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
   </si>
   <si>
+    <t>{'harmless': 63, 'malicious': 3, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 52, 'malicious': 14, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 0, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 7, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 9, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 10, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 52, 'malicious': 17, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 5, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 1, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 12, 'suspicious': 2, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 16, 'suspicious': 1, 'undetected': 19, 'harmless': 53, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 6, 'suspicious': 2, 'undetected': 20, 'harmless': 61, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 13, 'suspicious': 1, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 14, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 8, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 8, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 6, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 11, 'suspicious': 1, 'undetected': 23, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 8, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 0, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 1, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 9, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 1, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 4, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 5, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
     <t>{'harmless': 63, 'malicious': 3, 'suspicious': 0, 'undetected': 23, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 52, 'malicious': 14, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 0, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 7, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 9, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 10, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 52, 'malicious': 17, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 5, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 1, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 12, 'suspicious': 2, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 16, 'suspicious': 1, 'undetected': 19, 'harmless': 53, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 6, 'suspicious': 2, 'undetected': 20, 'harmless': 61, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 13, 'suspicious': 1, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 14, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 8, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 8, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 6, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 11, 'suspicious': 1, 'undetected': 23, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 8, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 0, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 1, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 9, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 1, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 4, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 5, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
   </si>
   <si>
     <t>{'harmless': 62, 'malicious': 2, 'suspicious': 1, 'undetected': 24, 'timeout': 0}</t>
@@ -3194,7 +3197,7 @@
         <v>577</v>
       </c>
       <c r="F2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G2" s="3">
         <v>45311.61894675926</v>
@@ -3203,7 +3206,7 @@
         <v>45341.32113425926</v>
       </c>
       <c r="I2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3223,7 +3226,7 @@
         <v>578</v>
       </c>
       <c r="F3" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G3" s="3">
         <v>45328.50989583333</v>
@@ -3232,7 +3235,7 @@
         <v>45341.27945601852</v>
       </c>
       <c r="I3" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3252,7 +3255,7 @@
         <v>578</v>
       </c>
       <c r="F4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G4" s="3">
         <v>45306.97109953704</v>
@@ -3261,7 +3264,7 @@
         <v>45341.06746527777</v>
       </c>
       <c r="I4" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3281,7 +3284,7 @@
         <v>578</v>
       </c>
       <c r="F5" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G5" s="3">
         <v>45328.57457175926</v>
@@ -3290,7 +3293,7 @@
         <v>45341.27858796297</v>
       </c>
       <c r="I5" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3310,7 +3313,7 @@
         <v>579</v>
       </c>
       <c r="F6" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G6" s="3">
         <v>45337.51012731482</v>
@@ -3319,7 +3322,7 @@
         <v>45341.27866898148</v>
       </c>
       <c r="I6" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3339,7 +3342,7 @@
         <v>580</v>
       </c>
       <c r="F7" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G7" s="3">
         <v>45329.3558912037</v>
@@ -3348,7 +3351,7 @@
         <v>45341.32061342592</v>
       </c>
       <c r="I7" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3368,16 +3371,16 @@
         <v>581</v>
       </c>
       <c r="F8" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G8" s="3">
-        <v>45302.4922337963</v>
+        <v>45337.50997685185</v>
       </c>
       <c r="H8" s="3">
-        <v>45312.49145833333</v>
+        <v>45341.10480324074</v>
       </c>
       <c r="I8" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3397,7 +3400,7 @@
         <v>582</v>
       </c>
       <c r="F9" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G9" s="3">
         <v>45308.21690972222</v>
@@ -3406,7 +3409,7 @@
         <v>45314.97233796296</v>
       </c>
       <c r="I9" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3426,7 +3429,7 @@
         <v>583</v>
       </c>
       <c r="F10" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G10" s="3">
         <v>45298.49690972222</v>
@@ -3435,7 +3438,7 @@
         <v>45314.49306712963</v>
       </c>
       <c r="I10" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3455,7 +3458,7 @@
         <v>584</v>
       </c>
       <c r="F11" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G11" s="3">
         <v>45282.7141087963</v>
@@ -3464,7 +3467,7 @@
         <v>45311.61704861111</v>
       </c>
       <c r="I11" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3484,7 +3487,7 @@
         <v>585</v>
       </c>
       <c r="F12" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G12" s="3">
         <v>45298.49170138889</v>
@@ -3493,7 +3496,7 @@
         <v>45316.37927083333</v>
       </c>
       <c r="I12" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3513,7 +3516,7 @@
         <v>586</v>
       </c>
       <c r="F13" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G13" s="3">
         <v>45280.79738425926</v>
@@ -3522,7 +3525,7 @@
         <v>45309.10356481482</v>
       </c>
       <c r="I13" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3542,7 +3545,7 @@
         <v>587</v>
       </c>
       <c r="F14" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G14" s="3">
         <v>45298.49263888889</v>
@@ -3551,7 +3554,7 @@
         <v>45316.37927083333</v>
       </c>
       <c r="I14" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3571,7 +3574,7 @@
         <v>588</v>
       </c>
       <c r="F15" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G15" s="3">
         <v>45310.43427083334</v>
@@ -3580,7 +3583,7 @@
         <v>45316.36269675926</v>
       </c>
       <c r="I15" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3600,7 +3603,7 @@
         <v>589</v>
       </c>
       <c r="F16" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G16" s="3">
         <v>45311.33236111111</v>
@@ -3609,7 +3612,7 @@
         <v>45314.49320601852</v>
       </c>
       <c r="I16" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3629,7 +3632,7 @@
         <v>590</v>
       </c>
       <c r="F17" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G17" s="3">
         <v>45301.30826388889</v>
@@ -3638,7 +3641,7 @@
         <v>45316.37930555556</v>
       </c>
       <c r="I17" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3658,7 +3661,7 @@
         <v>591</v>
       </c>
       <c r="F18" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G18" s="3">
         <v>45306.18137731482</v>
@@ -3667,7 +3670,7 @@
         <v>45316.42100694445</v>
       </c>
       <c r="I18" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3687,7 +3690,7 @@
         <v>592</v>
       </c>
       <c r="F19" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G19" s="3">
         <v>45288.23121527778</v>
@@ -3696,7 +3699,7 @@
         <v>45302.48868055556</v>
       </c>
       <c r="I19" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3716,7 +3719,7 @@
         <v>593</v>
       </c>
       <c r="F20" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G20" s="3">
         <v>45307.52993055555</v>
@@ -3725,7 +3728,7 @@
         <v>45314.19462962963</v>
       </c>
       <c r="I20" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3745,7 +3748,7 @@
         <v>594</v>
       </c>
       <c r="F21" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G21" s="3">
         <v>45314.42365740741</v>
@@ -3754,7 +3757,7 @@
         <v>45314.42368055556</v>
       </c>
       <c r="I21" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3774,7 +3777,7 @@
         <v>584</v>
       </c>
       <c r="F22" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G22" s="3">
         <v>45305.57067129629</v>
@@ -3783,7 +3786,7 @@
         <v>45316.42155092592</v>
       </c>
       <c r="I22" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3803,7 +3806,7 @@
         <v>582</v>
       </c>
       <c r="F23" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G23" s="3">
         <v>45291.49997685185</v>
@@ -3812,7 +3815,7 @@
         <v>45314.49226851852</v>
       </c>
       <c r="I23" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3832,7 +3835,7 @@
         <v>595</v>
       </c>
       <c r="F24" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G24" s="3">
         <v>45309.80174768518</v>
@@ -3841,7 +3844,7 @@
         <v>45315.85729166667</v>
       </c>
       <c r="I24" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3861,7 +3864,7 @@
         <v>586</v>
       </c>
       <c r="F25" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G25" s="3">
         <v>45299.43368055556</v>
@@ -3870,7 +3873,7 @@
         <v>45316.37909722222</v>
       </c>
       <c r="I25" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3890,7 +3893,7 @@
         <v>596</v>
       </c>
       <c r="F26" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G26" s="3">
         <v>45314.17763888889</v>
@@ -3899,7 +3902,7 @@
         <v>45316.08064814815</v>
       </c>
       <c r="I26" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3919,7 +3922,7 @@
         <v>597</v>
       </c>
       <c r="F27" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G27" s="3">
         <v>45291.49208333333</v>
@@ -3928,7 +3931,7 @@
         <v>45316.34907407407</v>
       </c>
       <c r="I27" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3948,7 +3951,7 @@
         <v>598</v>
       </c>
       <c r="F28" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G28" s="3">
         <v>45289.73149305556</v>
@@ -3957,7 +3960,7 @@
         <v>45316.37931712963</v>
       </c>
       <c r="I28" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3977,7 +3980,7 @@
         <v>599</v>
       </c>
       <c r="F29" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G29" s="3">
         <v>45312.4952662037</v>
@@ -3986,7 +3989,7 @@
         <v>45315.52618055556</v>
       </c>
       <c r="I29" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4006,7 +4009,7 @@
         <v>600</v>
       </c>
       <c r="F30" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G30" s="3">
         <v>45307.49253472222</v>
@@ -4015,7 +4018,7 @@
         <v>45316.3793287037</v>
       </c>
       <c r="I30" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4035,7 +4038,7 @@
         <v>596</v>
       </c>
       <c r="F31" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G31" s="3">
         <v>45311.71104166667</v>
@@ -4044,7 +4047,7 @@
         <v>45316.37922453704</v>
       </c>
       <c r="I31" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4064,7 +4067,7 @@
         <v>596</v>
       </c>
       <c r="F32" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G32" s="3">
         <v>45312.34644675926</v>
@@ -4073,7 +4076,7 @@
         <v>45316.37908564815</v>
       </c>
       <c r="I32" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4093,7 +4096,7 @@
         <v>601</v>
       </c>
       <c r="F33" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G33" s="3">
         <v>44163.34006944444</v>
@@ -4102,7 +4105,7 @@
         <v>44163.34006944444</v>
       </c>
       <c r="I33" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4122,7 +4125,7 @@
         <v>591</v>
       </c>
       <c r="F34" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G34" s="3">
         <v>45286.80534722222</v>
@@ -4131,7 +4134,7 @@
         <v>45316.37934027778</v>
       </c>
       <c r="I34" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4151,7 +4154,7 @@
         <v>602</v>
       </c>
       <c r="F35" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G35" s="3">
         <v>45302.49230324074</v>
@@ -4160,7 +4163,7 @@
         <v>45314.98761574074</v>
       </c>
       <c r="I35" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4180,7 +4183,7 @@
         <v>603</v>
       </c>
       <c r="F36" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G36" s="3">
         <v>45302.49503472223</v>
@@ -4189,7 +4192,7 @@
         <v>45315.48547453704</v>
       </c>
       <c r="I36" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4209,7 +4212,7 @@
         <v>604</v>
       </c>
       <c r="F37" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G37" s="3">
         <v>45311.61938657407</v>
@@ -4218,7 +4221,7 @@
         <v>45316.42167824074</v>
       </c>
       <c r="I37" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4238,7 +4241,7 @@
         <v>600</v>
       </c>
       <c r="F38" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G38" s="3">
         <v>45297.0796412037</v>
@@ -4247,7 +4250,7 @@
         <v>45316.49811342593</v>
       </c>
       <c r="I38" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4267,7 +4270,7 @@
         <v>605</v>
       </c>
       <c r="F39" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G39" s="3">
         <v>45290.31696759259</v>
@@ -4276,7 +4279,7 @@
         <v>45316.49866898148</v>
       </c>
       <c r="I39" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4296,7 +4299,7 @@
         <v>606</v>
       </c>
       <c r="F40" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G40" s="3">
         <v>45313.59486111111</v>
@@ -4305,7 +4308,7 @@
         <v>45316.49662037037</v>
       </c>
       <c r="I40" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4325,7 +4328,7 @@
         <v>607</v>
       </c>
       <c r="F41" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G41" s="3">
         <v>45295.49177083333</v>
@@ -4334,7 +4337,7 @@
         <v>45316.49807870371</v>
       </c>
       <c r="I41" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4354,7 +4357,7 @@
         <v>608</v>
       </c>
       <c r="F42" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G42" s="3">
         <v>45311.92179398148</v>
@@ -4363,7 +4366,7 @@
         <v>45316.4971875</v>
       </c>
       <c r="I42" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4383,7 +4386,7 @@
         <v>607</v>
       </c>
       <c r="F43" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G43" s="3">
         <v>45296.05393518518</v>
@@ -4392,7 +4395,7 @@
         <v>45316.50489583334</v>
       </c>
       <c r="I43" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4412,7 +4415,7 @@
         <v>596</v>
       </c>
       <c r="F44" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G44" s="3">
         <v>45313.11333333333</v>
@@ -4421,7 +4424,7 @@
         <v>45316.49230324074</v>
       </c>
       <c r="I44" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4441,7 +4444,7 @@
         <v>599</v>
       </c>
       <c r="F45" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G45" s="3">
         <v>45306.61894675926</v>
@@ -4450,7 +4453,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I45" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4470,7 +4473,7 @@
         <v>609</v>
       </c>
       <c r="F46" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G46" s="3">
         <v>45312.49850694444</v>
@@ -4479,7 +4482,7 @@
         <v>45316.49799768518</v>
       </c>
       <c r="I46" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4499,7 +4502,7 @@
         <v>610</v>
       </c>
       <c r="F47" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G47" s="3">
         <v>45262.49515046296</v>
@@ -4508,7 +4511,7 @@
         <v>45309.07923611111</v>
       </c>
       <c r="I47" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4528,7 +4531,7 @@
         <v>605</v>
       </c>
       <c r="F48" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G48" s="3">
         <v>45298.49847222222</v>
@@ -4537,7 +4540,7 @@
         <v>45316.49944444445</v>
       </c>
       <c r="I48" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4557,7 +4560,7 @@
         <v>611</v>
       </c>
       <c r="F49" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G49" s="3">
         <v>45311.61908564815</v>
@@ -4566,7 +4569,7 @@
         <v>45316.49847222222</v>
       </c>
       <c r="I49" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4586,7 +4589,7 @@
         <v>612</v>
       </c>
       <c r="F50" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G50" s="3">
         <v>45311.61989583333</v>
@@ -4595,7 +4598,7 @@
         <v>45316.50482638889</v>
       </c>
       <c r="I50" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4615,7 +4618,7 @@
         <v>600</v>
       </c>
       <c r="F51" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G51" s="3">
         <v>45316.50053240741</v>
@@ -4624,7 +4627,7 @@
         <v>45316.50232638889</v>
       </c>
       <c r="I51" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4644,7 +4647,7 @@
         <v>594</v>
       </c>
       <c r="F52" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G52" s="3">
         <v>45313.05881944444</v>
@@ -4653,7 +4656,7 @@
         <v>45314.42322916666</v>
       </c>
       <c r="I52" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4673,7 +4676,7 @@
         <v>613</v>
       </c>
       <c r="F53" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G53" s="3">
         <v>45316.5015162037</v>
@@ -4682,7 +4685,7 @@
         <v>45316.50331018519</v>
       </c>
       <c r="I53" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4702,7 +4705,7 @@
         <v>614</v>
       </c>
       <c r="F54" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G54" s="3">
         <v>45291.62113425926</v>
@@ -4711,7 +4714,7 @@
         <v>45316.49827546296</v>
       </c>
       <c r="I54" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4731,7 +4734,7 @@
         <v>615</v>
       </c>
       <c r="F55" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G55" s="3">
         <v>45287.49758101852</v>
@@ -4740,7 +4743,7 @@
         <v>45316.50458333334</v>
       </c>
       <c r="I55" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4760,7 +4763,7 @@
         <v>616</v>
       </c>
       <c r="F56" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G56" s="3">
         <v>45280.75131944445</v>
@@ -4769,7 +4772,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I56" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4789,7 +4792,7 @@
         <v>599</v>
       </c>
       <c r="F57" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G57" s="3">
         <v>45291.49048611111</v>
@@ -4798,7 +4801,7 @@
         <v>45316.50336805556</v>
       </c>
       <c r="I57" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4818,7 +4821,7 @@
         <v>590</v>
       </c>
       <c r="F58" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G58" s="3">
         <v>45310.86956018519</v>
@@ -4827,7 +4830,7 @@
         <v>45314.48899305556</v>
       </c>
       <c r="I58" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4847,7 +4850,7 @@
         <v>584</v>
       </c>
       <c r="F59" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G59" s="3">
         <v>45311.61930555556</v>
@@ -4856,7 +4859,7 @@
         <v>45316.49861111111</v>
       </c>
       <c r="I59" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4876,7 +4879,7 @@
         <v>617</v>
       </c>
       <c r="F60" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G60" s="3">
         <v>45313.76346064815</v>
@@ -4885,7 +4888,7 @@
         <v>45316.49800925926</v>
       </c>
       <c r="I60" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4905,7 +4908,7 @@
         <v>618</v>
       </c>
       <c r="F61" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G61" s="3">
         <v>45278.11224537037</v>
@@ -4914,7 +4917,7 @@
         <v>45302.49298611111</v>
       </c>
       <c r="I61" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4934,7 +4937,7 @@
         <v>607</v>
       </c>
       <c r="F62" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G62" s="3">
         <v>45278.21631944444</v>
@@ -4943,7 +4946,7 @@
         <v>45316.50450231481</v>
       </c>
       <c r="I62" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4963,7 +4966,7 @@
         <v>601</v>
       </c>
       <c r="F63" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G63" s="3">
         <v>45163.2121412037</v>
@@ -4972,7 +4975,7 @@
         <v>45163.2121412037</v>
       </c>
       <c r="I63" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4992,7 +4995,7 @@
         <v>603</v>
       </c>
       <c r="F64" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G64" s="3">
         <v>45316.49957175926</v>
@@ -5001,7 +5004,7 @@
         <v>45316.50452546297</v>
       </c>
       <c r="I64" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -5021,7 +5024,7 @@
         <v>619</v>
       </c>
       <c r="F65" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G65" s="3">
         <v>45297.49180555555</v>
@@ -5030,7 +5033,7 @@
         <v>45316.50127314815</v>
       </c>
       <c r="I65" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -5050,7 +5053,7 @@
         <v>620</v>
       </c>
       <c r="F66" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G66" s="3">
         <v>45297.09299768518</v>
@@ -5059,7 +5062,7 @@
         <v>45316.5039699074</v>
       </c>
       <c r="I66" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -5079,7 +5082,7 @@
         <v>621</v>
       </c>
       <c r="F67" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G67" s="3">
         <v>45316.50059027778</v>
@@ -5088,7 +5091,7 @@
         <v>45316.50255787037</v>
       </c>
       <c r="I67" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -5108,7 +5111,7 @@
         <v>622</v>
       </c>
       <c r="F68" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G68" s="3">
         <v>45313.63670138889</v>
@@ -5117,7 +5120,7 @@
         <v>45315.90416666667</v>
       </c>
       <c r="I68" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -5137,7 +5140,7 @@
         <v>584</v>
       </c>
       <c r="F69" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G69" s="3">
         <v>45304.51188657407</v>
@@ -5146,7 +5149,7 @@
         <v>45315.56863425926</v>
       </c>
       <c r="I69" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -5166,7 +5169,7 @@
         <v>623</v>
       </c>
       <c r="F70" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G70" s="3">
         <v>45291.49329861111</v>
@@ -5175,7 +5178,7 @@
         <v>45312.93239583333</v>
       </c>
       <c r="I70" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -5195,7 +5198,7 @@
         <v>624</v>
       </c>
       <c r="F71" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G71" s="3">
         <v>45300.57674768518</v>
@@ -5204,7 +5207,7 @@
         <v>45315.52626157407</v>
       </c>
       <c r="I71" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -5224,7 +5227,7 @@
         <v>625</v>
       </c>
       <c r="F72" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G72" s="3">
         <v>45310.40046296296</v>
@@ -5233,7 +5236,7 @@
         <v>45312.49293981482</v>
       </c>
       <c r="I72" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5253,7 +5256,7 @@
         <v>625</v>
       </c>
       <c r="F73" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G73" s="3">
         <v>45291.49876157408</v>
@@ -5262,7 +5265,7 @@
         <v>45314.49362268519</v>
       </c>
       <c r="I73" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5282,7 +5285,7 @@
         <v>626</v>
       </c>
       <c r="F74" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G74" s="3">
         <v>45292.49576388889</v>
@@ -5291,7 +5294,7 @@
         <v>45314.64596064815</v>
       </c>
       <c r="I74" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5311,13 +5314,13 @@
         <v>601</v>
       </c>
       <c r="F75" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H75" s="3">
         <v>45047.30018518519</v>
       </c>
       <c r="I75" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -5337,7 +5340,7 @@
         <v>627</v>
       </c>
       <c r="F76" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G76" s="3">
         <v>45291.49430555556</v>
@@ -5346,7 +5349,7 @@
         <v>45316.16467592592</v>
       </c>
       <c r="I76" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5366,7 +5369,7 @@
         <v>596</v>
       </c>
       <c r="F77" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G77" s="3">
         <v>45283.62505787037</v>
@@ -5375,7 +5378,7 @@
         <v>45309.04886574074</v>
       </c>
       <c r="I77" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5395,7 +5398,7 @@
         <v>617</v>
       </c>
       <c r="F78" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G78" s="3">
         <v>45262.59487268519</v>
@@ -5404,7 +5407,7 @@
         <v>45309.01453703704</v>
       </c>
       <c r="I78" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -5424,7 +5427,7 @@
         <v>628</v>
       </c>
       <c r="F79" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G79" s="3">
         <v>45312.49354166666</v>
@@ -5433,7 +5436,7 @@
         <v>45316.164375</v>
       </c>
       <c r="I79" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -5453,7 +5456,7 @@
         <v>590</v>
       </c>
       <c r="F80" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G80" s="3">
         <v>45312.7619675926</v>
@@ -5462,7 +5465,7 @@
         <v>45315.65320601852</v>
       </c>
       <c r="I80" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5482,7 +5485,7 @@
         <v>605</v>
       </c>
       <c r="F81" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G81" s="3">
         <v>45310.90116898148</v>
@@ -5491,7 +5494,7 @@
         <v>45316.2090625</v>
       </c>
       <c r="I81" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5511,7 +5514,7 @@
         <v>629</v>
       </c>
       <c r="F82" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G82" s="3">
         <v>45315.1578125</v>
@@ -5520,7 +5523,7 @@
         <v>45316.16471064815</v>
       </c>
       <c r="I82" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -5540,7 +5543,7 @@
         <v>630</v>
       </c>
       <c r="F83" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G83" s="3">
         <v>45287.44400462963</v>
@@ -5549,7 +5552,7 @@
         <v>45314.49243055555</v>
       </c>
       <c r="I83" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -5569,7 +5572,7 @@
         <v>594</v>
       </c>
       <c r="F84" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G84" s="3">
         <v>45309.58261574074</v>
@@ -5578,7 +5581,7 @@
         <v>45314.42337962963</v>
       </c>
       <c r="I84" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -5598,7 +5601,7 @@
         <v>618</v>
       </c>
       <c r="F85" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G85" s="3">
         <v>45280.04030092592</v>
@@ -5607,7 +5610,7 @@
         <v>45309.01909722222</v>
       </c>
       <c r="I85" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -5627,7 +5630,7 @@
         <v>631</v>
       </c>
       <c r="F86" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G86" s="3">
         <v>45302.49703703704</v>
@@ -5636,7 +5639,7 @@
         <v>45316.20864583334</v>
       </c>
       <c r="I86" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -5656,7 +5659,7 @@
         <v>589</v>
       </c>
       <c r="F87" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G87" s="3">
         <v>45313.29277777778</v>
@@ -5665,7 +5668,7 @@
         <v>45315.23820601852</v>
       </c>
       <c r="I87" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5685,7 +5688,7 @@
         <v>632</v>
       </c>
       <c r="F88" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G88" s="3">
         <v>45286.50180555556</v>
@@ -5694,7 +5697,7 @@
         <v>45312.67471064815</v>
       </c>
       <c r="I88" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5714,7 +5717,7 @@
         <v>633</v>
       </c>
       <c r="F89" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G89" s="3">
         <v>45311.42429398148</v>
@@ -5723,7 +5726,7 @@
         <v>45314.89614583334</v>
       </c>
       <c r="I89" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -5743,7 +5746,7 @@
         <v>634</v>
       </c>
       <c r="F90" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G90" s="3">
         <v>45306.6199537037</v>
@@ -5752,7 +5755,7 @@
         <v>45314.49379629629</v>
       </c>
       <c r="I90" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -5772,7 +5775,7 @@
         <v>594</v>
       </c>
       <c r="F91" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G91" s="3">
         <v>45315.42351851852</v>
@@ -5781,7 +5784,7 @@
         <v>45315.42354166666</v>
       </c>
       <c r="I91" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5801,7 +5804,7 @@
         <v>600</v>
       </c>
       <c r="F92" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G92" s="3">
         <v>45287.95120370371</v>
@@ -5810,7 +5813,7 @@
         <v>45315.61121527778</v>
       </c>
       <c r="I92" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -5830,7 +5833,7 @@
         <v>635</v>
       </c>
       <c r="F93" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G93" s="3">
         <v>45312.49561342593</v>
@@ -5839,7 +5842,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I93" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5859,7 +5862,7 @@
         <v>584</v>
       </c>
       <c r="F94" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G94" s="3">
         <v>45291.62100694444</v>
@@ -5868,7 +5871,7 @@
         <v>45314.49383101852</v>
       </c>
       <c r="I94" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5888,7 +5891,7 @@
         <v>636</v>
       </c>
       <c r="F95" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G95" s="3">
         <v>44926.35877314815</v>
@@ -5897,7 +5900,7 @@
         <v>44926.35877314815</v>
       </c>
       <c r="I95" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5917,7 +5920,7 @@
         <v>584</v>
       </c>
       <c r="F96" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G96" s="3">
         <v>45297.49363425926</v>
@@ -5926,7 +5929,7 @@
         <v>45311.89606481481</v>
       </c>
       <c r="I96" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5946,7 +5949,7 @@
         <v>611</v>
       </c>
       <c r="F97" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G97" s="3">
         <v>45314.49303240741</v>
@@ -5955,7 +5958,7 @@
         <v>45315.65373842593</v>
       </c>
       <c r="I97" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5975,7 +5978,7 @@
         <v>601</v>
       </c>
       <c r="F98" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G98" s="3">
         <v>45313.05805555556</v>
@@ -5984,7 +5987,7 @@
         <v>45313.05806712963</v>
       </c>
       <c r="I98" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -6004,7 +6007,7 @@
         <v>617</v>
       </c>
       <c r="F99" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G99" s="3">
         <v>45307.38726851852</v>
@@ -6013,7 +6016,7 @@
         <v>45314.85255787037</v>
       </c>
       <c r="I99" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -6033,7 +6036,7 @@
         <v>637</v>
       </c>
       <c r="F100" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G100" s="3">
         <v>45293.03614583334</v>
@@ -6042,7 +6045,7 @@
         <v>45293.0361574074</v>
       </c>
       <c r="I100" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6062,7 +6065,7 @@
         <v>638</v>
       </c>
       <c r="F101" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G101" s="3">
         <v>45314.50199074074</v>
@@ -6071,7 +6074,7 @@
         <v>45315.65385416667</v>
       </c>
       <c r="I101" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -6091,7 +6094,7 @@
         <v>639</v>
       </c>
       <c r="F102" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G102" s="3">
         <v>45307.37951388889</v>
@@ -6100,7 +6103,7 @@
         <v>45315.36158564815</v>
       </c>
       <c r="I102" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -6120,7 +6123,7 @@
         <v>601</v>
       </c>
       <c r="F103" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G103" s="3">
         <v>45307.00873842592</v>
@@ -6129,7 +6132,7 @@
         <v>45307.00875</v>
       </c>
       <c r="I103" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -6149,7 +6152,7 @@
         <v>640</v>
       </c>
       <c r="F104" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G104" s="3">
         <v>45315.42385416666</v>
@@ -6158,7 +6161,7 @@
         <v>45315.42386574074</v>
       </c>
       <c r="I104" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -6178,7 +6181,7 @@
         <v>641</v>
       </c>
       <c r="F105" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G105" s="3">
         <v>45291.49836805555</v>
@@ -6187,7 +6190,7 @@
         <v>45315.65422453704</v>
       </c>
       <c r="I105" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -6207,7 +6210,7 @@
         <v>642</v>
       </c>
       <c r="F106" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G106" s="3">
         <v>45280.57280092593</v>
@@ -6216,7 +6219,7 @@
         <v>45309.02465277778</v>
       </c>
       <c r="I106" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -6236,7 +6239,7 @@
         <v>634</v>
       </c>
       <c r="F107" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G107" s="3">
         <v>45302.49490740741</v>
@@ -6245,7 +6248,7 @@
         <v>45312.88666666667</v>
       </c>
       <c r="I107" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -6265,7 +6268,7 @@
         <v>643</v>
       </c>
       <c r="F108" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G108" s="3">
         <v>45288.28815972222</v>
@@ -6274,7 +6277,7 @@
         <v>45315.60980324074</v>
       </c>
       <c r="I108" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -6294,7 +6297,7 @@
         <v>644</v>
       </c>
       <c r="F109" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G109" s="3">
         <v>45295.49231481482</v>
@@ -6303,7 +6306,7 @@
         <v>45315.61019675926</v>
       </c>
       <c r="I109" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -6323,7 +6326,7 @@
         <v>645</v>
       </c>
       <c r="F110" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G110" s="3">
         <v>45312.76140046296</v>
@@ -6332,7 +6335,7 @@
         <v>45314.69101851852</v>
       </c>
       <c r="I110" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -6352,7 +6355,7 @@
         <v>598</v>
       </c>
       <c r="F111" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G111" s="3">
         <v>45314.49325231482</v>
@@ -6361,7 +6364,7 @@
         <v>45315.61035879629</v>
       </c>
       <c r="I111" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -6381,7 +6384,7 @@
         <v>646</v>
       </c>
       <c r="F112" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G112" s="3">
         <v>45313.42341435186</v>
@@ -6390,7 +6393,7 @@
         <v>45314.19578703704</v>
       </c>
       <c r="I112" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6410,7 +6413,7 @@
         <v>600</v>
       </c>
       <c r="F113" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G113" s="3">
         <v>45292.49325231482</v>
@@ -6419,7 +6422,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I113" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -6436,10 +6439,10 @@
         <v>406</v>
       </c>
       <c r="E114" t="s">
-        <v>581</v>
+        <v>647</v>
       </c>
       <c r="F114" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G114" s="3">
         <v>45313.0588425926</v>
@@ -6448,7 +6451,7 @@
         <v>45314.42222222222</v>
       </c>
       <c r="I114" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -6465,10 +6468,10 @@
         <v>407</v>
       </c>
       <c r="E115" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F115" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G115" s="3">
         <v>45307.5822337963</v>
@@ -6477,7 +6480,7 @@
         <v>45314.77590277778</v>
       </c>
       <c r="I115" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -6497,7 +6500,7 @@
         <v>639</v>
       </c>
       <c r="F116" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G116" s="3">
         <v>45298.49490740741</v>
@@ -6506,7 +6509,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I116" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -6523,10 +6526,10 @@
         <v>409</v>
       </c>
       <c r="E117" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F117" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G117" s="3">
         <v>45300.43424768518</v>
@@ -6535,7 +6538,7 @@
         <v>45314.49525462963</v>
       </c>
       <c r="I117" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -6552,10 +6555,10 @@
         <v>410</v>
       </c>
       <c r="E118" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F118" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G118" s="3">
         <v>45287.49133101852</v>
@@ -6564,7 +6567,7 @@
         <v>45315.68306712963</v>
       </c>
       <c r="I118" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -6584,7 +6587,7 @@
         <v>643</v>
       </c>
       <c r="F119" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G119" s="3">
         <v>45315.24193287037</v>
@@ -6593,7 +6596,7 @@
         <v>45315.65413194444</v>
       </c>
       <c r="I119" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -6613,7 +6616,7 @@
         <v>600</v>
       </c>
       <c r="F120" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G120" s="3">
         <v>45296.62521990741</v>
@@ -6622,7 +6625,7 @@
         <v>45315.32032407408</v>
       </c>
       <c r="I120" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -6639,10 +6642,10 @@
         <v>413</v>
       </c>
       <c r="E121" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F121" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G121" s="3">
         <v>45293.4970949074</v>
@@ -6651,7 +6654,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I121" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -6671,7 +6674,7 @@
         <v>618</v>
       </c>
       <c r="F122" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G122" s="3">
         <v>45282.72908564815</v>
@@ -6680,7 +6683,7 @@
         <v>45282.72909722223</v>
       </c>
       <c r="I122" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -6697,10 +6700,10 @@
         <v>415</v>
       </c>
       <c r="E123" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F123" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G123" s="3">
         <v>45314.49591435185</v>
@@ -6709,7 +6712,7 @@
         <v>45315.69609953704</v>
       </c>
       <c r="I123" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -6726,10 +6729,10 @@
         <v>416</v>
       </c>
       <c r="E124" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F124" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G124" s="3">
         <v>45300.97112268519</v>
@@ -6738,7 +6741,7 @@
         <v>45315.69616898148</v>
       </c>
       <c r="I124" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -6755,10 +6758,10 @@
         <v>417</v>
       </c>
       <c r="E125" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F125" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G125" s="3">
         <v>45273.65564814815</v>
@@ -6767,7 +6770,7 @@
         <v>45303.42461805556</v>
       </c>
       <c r="I125" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -6787,7 +6790,7 @@
         <v>590</v>
       </c>
       <c r="F126" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G126" s="3">
         <v>45298.21359953703</v>
@@ -6796,7 +6799,7 @@
         <v>45314.49523148148</v>
       </c>
       <c r="I126" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -6813,10 +6816,10 @@
         <v>419</v>
       </c>
       <c r="E127" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F127" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G127" s="3">
         <v>45308.42383101852</v>
@@ -6825,7 +6828,7 @@
         <v>45314.49195601852</v>
       </c>
       <c r="I127" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -6842,10 +6845,10 @@
         <v>420</v>
       </c>
       <c r="E128" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F128" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G128" s="3">
         <v>45294.41019675926</v>
@@ -6854,7 +6857,7 @@
         <v>45315.69918981481</v>
       </c>
       <c r="I128" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -6874,7 +6877,7 @@
         <v>586</v>
       </c>
       <c r="F129" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G129" s="3">
         <v>45310.61224537037</v>
@@ -6883,7 +6886,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I129" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -6903,7 +6906,7 @@
         <v>627</v>
       </c>
       <c r="F130" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G130" s="3">
         <v>45304.64673611111</v>
@@ -6912,7 +6915,7 @@
         <v>45315.6959375</v>
       </c>
       <c r="I130" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -6932,7 +6935,7 @@
         <v>620</v>
       </c>
       <c r="F131" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G131" s="3">
         <v>45295.49403935186</v>
@@ -6941,7 +6944,7 @@
         <v>45315.69605324074</v>
       </c>
       <c r="I131" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -6958,10 +6961,10 @@
         <v>424</v>
       </c>
       <c r="E132" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F132" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G132" s="3">
         <v>45298.06329861111</v>
@@ -6970,7 +6973,7 @@
         <v>45314.49458333333</v>
       </c>
       <c r="I132" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -6990,7 +6993,7 @@
         <v>644</v>
       </c>
       <c r="F133" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G133" s="3">
         <v>45297.49041666667</v>
@@ -6999,7 +7002,7 @@
         <v>45315.70159722222</v>
       </c>
       <c r="I133" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -7016,10 +7019,10 @@
         <v>426</v>
       </c>
       <c r="E134" t="s">
-        <v>581</v>
+        <v>647</v>
       </c>
       <c r="F134" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G134" s="3">
         <v>45296.21274305556</v>
@@ -7028,7 +7031,7 @@
         <v>45309.05621527778</v>
       </c>
       <c r="I134" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -7048,7 +7051,7 @@
         <v>639</v>
       </c>
       <c r="F135" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G135" s="3">
         <v>45307.08791666666</v>
@@ -7057,7 +7060,7 @@
         <v>45315.65327546297</v>
       </c>
       <c r="I135" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -7077,7 +7080,7 @@
         <v>629</v>
       </c>
       <c r="F136" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G136" s="3">
         <v>45314.49842592593</v>
@@ -7086,7 +7089,7 @@
         <v>45314.67444444444</v>
       </c>
       <c r="I136" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -7106,7 +7109,7 @@
         <v>596</v>
       </c>
       <c r="F137" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G137" s="3">
         <v>45310.65872685185</v>
@@ -7115,7 +7118,7 @@
         <v>45314.49422453704</v>
       </c>
       <c r="I137" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -7135,7 +7138,7 @@
         <v>596</v>
       </c>
       <c r="F138" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G138" s="3">
         <v>45312.13112268518</v>
@@ -7144,7 +7147,7 @@
         <v>45315.6537962963</v>
       </c>
       <c r="I138" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -7161,10 +7164,10 @@
         <v>431</v>
       </c>
       <c r="E139" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F139" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G139" s="3">
         <v>45270.59310185185</v>
@@ -7173,7 +7176,7 @@
         <v>45309.07831018518</v>
       </c>
       <c r="I139" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -7190,10 +7193,10 @@
         <v>432</v>
       </c>
       <c r="E140" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F140" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G140" s="3">
         <v>45278.77987268518</v>
@@ -7202,7 +7205,7 @@
         <v>45314.6009837963</v>
       </c>
       <c r="I140" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -7222,7 +7225,7 @@
         <v>590</v>
       </c>
       <c r="F141" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G141" s="3">
         <v>45314.49572916667</v>
@@ -7231,7 +7234,7 @@
         <v>45314.67103009259</v>
       </c>
       <c r="I141" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -7251,13 +7254,13 @@
         <v>601</v>
       </c>
       <c r="F142" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H142" s="3">
         <v>43999.85027777778</v>
       </c>
       <c r="I142" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -7274,10 +7277,10 @@
         <v>435</v>
       </c>
       <c r="E143" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F143" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G143" s="3">
         <v>45309.54311342593</v>
@@ -7286,7 +7289,7 @@
         <v>45316.16458333333</v>
       </c>
       <c r="I143" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -7306,7 +7309,7 @@
         <v>601</v>
       </c>
       <c r="F144" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G144" s="3">
         <v>45306.51280092593</v>
@@ -7315,7 +7318,7 @@
         <v>45306.51280092593</v>
       </c>
       <c r="I144" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -7335,7 +7338,7 @@
         <v>621</v>
       </c>
       <c r="F145" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G145" s="3">
         <v>45314.49275462963</v>
@@ -7344,7 +7347,7 @@
         <v>45315.73717592593</v>
       </c>
       <c r="I145" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -7364,7 +7367,7 @@
         <v>606</v>
       </c>
       <c r="F146" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G146" s="3">
         <v>45308.77947916667</v>
@@ -7373,7 +7376,7 @@
         <v>45309.07209490741</v>
       </c>
       <c r="I146" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -7393,7 +7396,7 @@
         <v>622</v>
       </c>
       <c r="F147" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G147" s="3">
         <v>45307.50165509259</v>
@@ -7402,7 +7405,7 @@
         <v>45312.88640046296</v>
       </c>
       <c r="I147" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -7422,7 +7425,7 @@
         <v>621</v>
       </c>
       <c r="F148" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G148" s="3">
         <v>45294.12988425926</v>
@@ -7431,7 +7434,7 @@
         <v>45314.49341435185</v>
       </c>
       <c r="I148" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -7451,7 +7454,7 @@
         <v>642</v>
       </c>
       <c r="F149" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G149" s="3">
         <v>45296.33108796296</v>
@@ -7460,7 +7463,7 @@
         <v>45314.51508101852</v>
       </c>
       <c r="I149" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -7477,10 +7480,10 @@
         <v>442</v>
       </c>
       <c r="E150" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F150" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G150" s="3">
         <v>45295.49210648148</v>
@@ -7489,7 +7492,7 @@
         <v>45315.69587962963</v>
       </c>
       <c r="I150" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -7509,7 +7512,7 @@
         <v>643</v>
       </c>
       <c r="F151" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G151" s="3">
         <v>45314.49277777778</v>
@@ -7518,7 +7521,7 @@
         <v>45315.73741898148</v>
       </c>
       <c r="I151" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -7535,10 +7538,10 @@
         <v>444</v>
       </c>
       <c r="E152" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F152" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G152" s="3">
         <v>45308.74111111111</v>
@@ -7547,7 +7550,7 @@
         <v>45310.69127314815</v>
       </c>
       <c r="I152" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -7564,10 +7567,10 @@
         <v>445</v>
       </c>
       <c r="E153" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F153" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G153" s="3">
         <v>45311.61907407407</v>
@@ -7576,7 +7579,7 @@
         <v>45315.73760416666</v>
       </c>
       <c r="I153" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -7596,7 +7599,7 @@
         <v>594</v>
       </c>
       <c r="F154" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G154" s="3">
         <v>45313.06128472222</v>
@@ -7605,7 +7608,7 @@
         <v>45314.4228125</v>
       </c>
       <c r="I154" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -7625,7 +7628,7 @@
         <v>639</v>
       </c>
       <c r="F155" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G155" s="3">
         <v>45291.49923611111</v>
@@ -7634,7 +7637,7 @@
         <v>45312.49590277778</v>
       </c>
       <c r="I155" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -7654,7 +7657,7 @@
         <v>634</v>
       </c>
       <c r="F156" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G156" s="3">
         <v>45302.49706018518</v>
@@ -7663,7 +7666,7 @@
         <v>45315.07060185185</v>
       </c>
       <c r="I156" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -7683,7 +7686,7 @@
         <v>598</v>
       </c>
       <c r="F157" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G157" s="3">
         <v>45286.49168981481</v>
@@ -7692,7 +7695,7 @@
         <v>45315.73706018519</v>
       </c>
       <c r="I157" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -7709,10 +7712,10 @@
         <v>450</v>
       </c>
       <c r="E158" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F158" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G158" s="3">
         <v>45306.62078703703</v>
@@ -7721,7 +7724,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I158" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -7738,10 +7741,10 @@
         <v>451</v>
       </c>
       <c r="E159" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F159" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G159" s="3">
         <v>45297.49820601852</v>
@@ -7750,7 +7753,7 @@
         <v>45315.73712962963</v>
       </c>
       <c r="I159" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -7767,10 +7770,10 @@
         <v>452</v>
       </c>
       <c r="E160" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F160" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G160" s="3">
         <v>45314.49293981482</v>
@@ -7779,7 +7782,7 @@
         <v>45315.73753472222</v>
       </c>
       <c r="I160" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -7796,10 +7799,10 @@
         <v>453</v>
       </c>
       <c r="E161" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F161" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G161" s="3">
         <v>45302.49929398148</v>
@@ -7808,7 +7811,7 @@
         <v>45314.49518518519</v>
       </c>
       <c r="I161" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -7828,13 +7831,13 @@
         <v>601</v>
       </c>
       <c r="F162" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H162" s="3">
         <v>45307.36160879629</v>
       </c>
       <c r="I162" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -7851,10 +7854,10 @@
         <v>455</v>
       </c>
       <c r="E163" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F163" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G163" s="3">
         <v>45314.4933912037</v>
@@ -7863,7 +7866,7 @@
         <v>45316.12230324074</v>
       </c>
       <c r="I163" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -7883,7 +7886,7 @@
         <v>608</v>
       </c>
       <c r="F164" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G164" s="3">
         <v>45307.36724537037</v>
@@ -7892,7 +7895,7 @@
         <v>45316.16459490741</v>
       </c>
       <c r="I164" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -7909,10 +7912,10 @@
         <v>457</v>
       </c>
       <c r="E165" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F165" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G165" s="3">
         <v>45297.31922453704</v>
@@ -7921,7 +7924,7 @@
         <v>45314.49394675926</v>
       </c>
       <c r="I165" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -7938,10 +7941,10 @@
         <v>458</v>
       </c>
       <c r="E166" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F166" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G166" s="3">
         <v>45315.42201388889</v>
@@ -7950,7 +7953,7 @@
         <v>45315.7841550926</v>
       </c>
       <c r="I166" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -7970,7 +7973,7 @@
         <v>594</v>
       </c>
       <c r="F167" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G167" s="3">
         <v>45314.42302083333</v>
@@ -7979,7 +7982,7 @@
         <v>45314.42302083333</v>
       </c>
       <c r="I167" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -7996,10 +7999,10 @@
         <v>460</v>
       </c>
       <c r="E168" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F168" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G168" s="3">
         <v>45314.49530092593</v>
@@ -8008,7 +8011,7 @@
         <v>45315.78174768519</v>
       </c>
       <c r="I168" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -8025,10 +8028,10 @@
         <v>461</v>
       </c>
       <c r="E169" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F169" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G169" s="3">
         <v>45312.49302083333</v>
@@ -8037,7 +8040,7 @@
         <v>45314.49451388889</v>
       </c>
       <c r="I169" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -8054,10 +8057,10 @@
         <v>462</v>
       </c>
       <c r="E170" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F170" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G170" s="3">
         <v>45302.49891203704</v>
@@ -8066,7 +8069,7 @@
         <v>45315.78163194445</v>
       </c>
       <c r="I170" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -8083,10 +8086,10 @@
         <v>463</v>
       </c>
       <c r="E171" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F171" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G171" s="3">
         <v>45314.49350694445</v>
@@ -8095,7 +8098,7 @@
         <v>45315.78178240741</v>
       </c>
       <c r="I171" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -8115,7 +8118,7 @@
         <v>601</v>
       </c>
       <c r="F172" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G172" s="3">
         <v>44049.84335648148</v>
@@ -8124,7 +8127,7 @@
         <v>44740.15496527778</v>
       </c>
       <c r="I172" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -8144,7 +8147,7 @@
         <v>584</v>
       </c>
       <c r="F173" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G173" s="3">
         <v>45307.49097222222</v>
@@ -8153,7 +8156,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I173" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -8173,7 +8176,7 @@
         <v>594</v>
       </c>
       <c r="F174" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G174" s="3">
         <v>45312.37847222222</v>
@@ -8182,7 +8185,7 @@
         <v>45314.42348379629</v>
       </c>
       <c r="I174" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -8202,7 +8205,7 @@
         <v>605</v>
       </c>
       <c r="F175" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G175" s="3">
         <v>45312.25097222222</v>
@@ -8211,7 +8214,7 @@
         <v>45315.74335648148</v>
       </c>
       <c r="I175" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -8228,10 +8231,10 @@
         <v>468</v>
       </c>
       <c r="E176" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F176" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G176" s="3">
         <v>45310.90118055556</v>
@@ -8240,7 +8243,7 @@
         <v>45314.49304398148</v>
       </c>
       <c r="I176" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -8260,7 +8263,7 @@
         <v>599</v>
       </c>
       <c r="F177" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G177" s="3">
         <v>45296.62515046296</v>
@@ -8269,7 +8272,7 @@
         <v>45314.49361111111</v>
       </c>
       <c r="I177" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -8286,10 +8289,10 @@
         <v>470</v>
       </c>
       <c r="E178" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F178" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G178" s="3">
         <v>45311.61869212963</v>
@@ -8298,7 +8301,7 @@
         <v>45315.73645833333</v>
       </c>
       <c r="I178" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -8318,7 +8321,7 @@
         <v>644</v>
       </c>
       <c r="F179" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G179" s="3">
         <v>45287.159375</v>
@@ -8327,7 +8330,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I179" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -8344,10 +8347,10 @@
         <v>472</v>
       </c>
       <c r="E180" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F180" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G180" s="3">
         <v>45311.68436342593</v>
@@ -8356,7 +8359,7 @@
         <v>45315.75385416667</v>
       </c>
       <c r="I180" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -8373,10 +8376,10 @@
         <v>473</v>
       </c>
       <c r="E181" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F181" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G181" s="3">
         <v>45291.49039351852</v>
@@ -8385,7 +8388,7 @@
         <v>45315.78164351852</v>
       </c>
       <c r="I181" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -8402,10 +8405,10 @@
         <v>474</v>
       </c>
       <c r="E182" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F182" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G182" s="3">
         <v>45308.74193287037</v>
@@ -8414,7 +8417,7 @@
         <v>45315.7467824074</v>
       </c>
       <c r="I182" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -8431,10 +8434,10 @@
         <v>475</v>
       </c>
       <c r="E183" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F183" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G183" s="3">
         <v>45290.68399305556</v>
@@ -8443,7 +8446,7 @@
         <v>45315.76791666666</v>
       </c>
       <c r="I183" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -8460,10 +8463,10 @@
         <v>476</v>
       </c>
       <c r="E184" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F184" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G184" s="3">
         <v>45294.52609953703</v>
@@ -8472,7 +8475,7 @@
         <v>45315.75109953704</v>
       </c>
       <c r="I184" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -8489,10 +8492,10 @@
         <v>477</v>
       </c>
       <c r="E185" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F185" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G185" s="3">
         <v>45305.28581018518</v>
@@ -8501,7 +8504,7 @@
         <v>45315.73657407407</v>
       </c>
       <c r="I185" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -8518,10 +8521,10 @@
         <v>478</v>
       </c>
       <c r="E186" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F186" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G186" s="3">
         <v>45303.07900462963</v>
@@ -8530,7 +8533,7 @@
         <v>45315.78171296296</v>
       </c>
       <c r="I186" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -8550,7 +8553,7 @@
         <v>634</v>
       </c>
       <c r="F187" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G187" s="3">
         <v>45294.00594907408</v>
@@ -8559,7 +8562,7 @@
         <v>45315.60971064815</v>
       </c>
       <c r="I187" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -8576,10 +8579,10 @@
         <v>480</v>
       </c>
       <c r="E188" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F188" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G188" s="3">
         <v>45291.6212037037</v>
@@ -8588,7 +8591,7 @@
         <v>45315.76299768518</v>
       </c>
       <c r="I188" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -8605,10 +8608,10 @@
         <v>481</v>
       </c>
       <c r="E189" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F189" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G189" s="3">
         <v>45291.62125</v>
@@ -8617,7 +8620,7 @@
         <v>45315.73672453704</v>
       </c>
       <c r="I189" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -8634,10 +8637,10 @@
         <v>482</v>
       </c>
       <c r="E190" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F190" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G190" s="3">
         <v>45291.49121527778</v>
@@ -8646,7 +8649,7 @@
         <v>45315.73679398148</v>
       </c>
       <c r="I190" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -8666,7 +8669,7 @@
         <v>584</v>
       </c>
       <c r="F191" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G191" s="3">
         <v>45305.45537037037</v>
@@ -8675,7 +8678,7 @@
         <v>45315.78153935185</v>
       </c>
       <c r="I191" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -8692,10 +8695,10 @@
         <v>484</v>
       </c>
       <c r="E192" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F192" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G192" s="3">
         <v>45312.66900462963</v>
@@ -8704,7 +8707,7 @@
         <v>45315.78197916667</v>
       </c>
       <c r="I192" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -8721,10 +8724,10 @@
         <v>485</v>
       </c>
       <c r="E193" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F193" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G193" s="3">
         <v>45283.15128472223</v>
@@ -8733,7 +8736,7 @@
         <v>45315.73756944444</v>
       </c>
       <c r="I193" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -8750,10 +8753,10 @@
         <v>486</v>
       </c>
       <c r="E194" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F194" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G194" s="3">
         <v>45290.15359953704</v>
@@ -8762,7 +8765,7 @@
         <v>45315.81050925926</v>
       </c>
       <c r="I194" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -8779,10 +8782,10 @@
         <v>487</v>
       </c>
       <c r="E195" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F195" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G195" s="3">
         <v>45288.77761574074</v>
@@ -8791,7 +8794,7 @@
         <v>45315.8109837963</v>
       </c>
       <c r="I195" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -8808,10 +8811,10 @@
         <v>488</v>
       </c>
       <c r="E196" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F196" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G196" s="3">
         <v>45283.5427199074</v>
@@ -8820,7 +8823,7 @@
         <v>45315.81034722222</v>
       </c>
       <c r="I196" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -8837,10 +8840,10 @@
         <v>489</v>
       </c>
       <c r="E197" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F197" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G197" s="3">
         <v>45290.06099537037</v>
@@ -8849,7 +8852,7 @@
         <v>45315.78223379629</v>
       </c>
       <c r="I197" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -8866,10 +8869,10 @@
         <v>490</v>
       </c>
       <c r="E198" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F198" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G198" s="3">
         <v>45285.78746527778</v>
@@ -8878,7 +8881,7 @@
         <v>45315.81327546296</v>
       </c>
       <c r="I198" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -8895,10 +8898,10 @@
         <v>491</v>
       </c>
       <c r="E199" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F199" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G199" s="3">
         <v>45300.70331018518</v>
@@ -8907,7 +8910,7 @@
         <v>45315.78243055556</v>
       </c>
       <c r="I199" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -8927,7 +8930,7 @@
         <v>646</v>
       </c>
       <c r="F200" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G200" s="3">
         <v>45313.4215625</v>
@@ -8936,7 +8939,7 @@
         <v>45314.19313657407</v>
       </c>
       <c r="I200" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -8956,7 +8959,7 @@
         <v>586</v>
       </c>
       <c r="F201" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G201" s="3">
         <v>45313.10177083333</v>
@@ -8965,7 +8968,7 @@
         <v>45315.19548611111</v>
       </c>
       <c r="I201" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -8982,10 +8985,10 @@
         <v>494</v>
       </c>
       <c r="E202" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F202" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G202" s="3">
         <v>45313.56241898148</v>
@@ -8994,7 +8997,7 @@
         <v>45315.73755787037</v>
       </c>
       <c r="I202" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -9011,10 +9014,10 @@
         <v>495</v>
       </c>
       <c r="E203" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F203" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G203" s="3">
         <v>45287.49016203704</v>
@@ -9023,7 +9026,7 @@
         <v>45315.81586805556</v>
       </c>
       <c r="I203" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -9040,10 +9043,10 @@
         <v>496</v>
       </c>
       <c r="E204" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F204" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G204" s="3">
         <v>45294.11623842592</v>
@@ -9052,7 +9055,7 @@
         <v>45315.81109953704</v>
       </c>
       <c r="I204" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -9069,10 +9072,10 @@
         <v>497</v>
       </c>
       <c r="E205" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F205" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G205" s="3">
         <v>45281.61627314815</v>
@@ -9081,7 +9084,7 @@
         <v>45315.73660879629</v>
       </c>
       <c r="I205" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -9101,7 +9104,7 @@
         <v>584</v>
       </c>
       <c r="F206" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G206" s="3">
         <v>45310.31782407407</v>
@@ -9110,7 +9113,7 @@
         <v>45315.82373842593</v>
       </c>
       <c r="I206" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -9127,10 +9130,10 @@
         <v>499</v>
       </c>
       <c r="E207" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F207" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G207" s="3">
         <v>45292.86751157408</v>
@@ -9139,7 +9142,7 @@
         <v>45315.81833333334</v>
       </c>
       <c r="I207" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -9156,10 +9159,10 @@
         <v>500</v>
       </c>
       <c r="E208" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F208" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G208" s="3">
         <v>45297.78877314815</v>
@@ -9168,7 +9171,7 @@
         <v>45315.82362268519</v>
       </c>
       <c r="I208" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -9185,10 +9188,10 @@
         <v>501</v>
       </c>
       <c r="E209" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F209" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G209" s="3">
         <v>45291.49200231482</v>
@@ -9197,7 +9200,7 @@
         <v>45315.81275462963</v>
       </c>
       <c r="I209" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -9214,10 +9217,10 @@
         <v>502</v>
       </c>
       <c r="E210" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F210" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G210" s="3">
         <v>45314.77236111111</v>
@@ -9226,7 +9229,7 @@
         <v>45315.81111111111</v>
       </c>
       <c r="I210" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -9243,10 +9246,10 @@
         <v>503</v>
       </c>
       <c r="E211" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F211" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G211" s="3">
         <v>45306.94767361111</v>
@@ -9255,7 +9258,7 @@
         <v>45315.81850694444</v>
       </c>
       <c r="I211" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -9272,10 +9275,10 @@
         <v>504</v>
       </c>
       <c r="E212" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F212" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G212" s="3">
         <v>45315.48592592592</v>
@@ -9284,7 +9287,7 @@
         <v>45315.82550925926</v>
       </c>
       <c r="I212" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -9301,10 +9304,10 @@
         <v>505</v>
       </c>
       <c r="E213" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F213" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G213" s="3">
         <v>45278.21140046296</v>
@@ -9313,7 +9316,7 @@
         <v>45315.78211805555</v>
       </c>
       <c r="I213" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -9330,10 +9333,10 @@
         <v>506</v>
       </c>
       <c r="E214" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F214" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G214" s="3">
         <v>45296.58950231481</v>
@@ -9342,7 +9345,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I214" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -9359,10 +9362,10 @@
         <v>507</v>
       </c>
       <c r="E215" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F215" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G215" s="3">
         <v>45308.74321759259</v>
@@ -9371,7 +9374,7 @@
         <v>45315.82768518518</v>
       </c>
       <c r="I215" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -9388,10 +9391,10 @@
         <v>508</v>
       </c>
       <c r="E216" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F216" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G216" s="3">
         <v>45291.49114583333</v>
@@ -9400,7 +9403,7 @@
         <v>45315.82378472222</v>
       </c>
       <c r="I216" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -9417,10 +9420,10 @@
         <v>509</v>
       </c>
       <c r="E217" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F217" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G217" s="3">
         <v>45308.16465277778</v>
@@ -9429,7 +9432,7 @@
         <v>45315.82369212963</v>
       </c>
       <c r="I217" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -9446,10 +9449,10 @@
         <v>510</v>
       </c>
       <c r="E218" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F218" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G218" s="3">
         <v>45296.21802083333</v>
@@ -9458,7 +9461,7 @@
         <v>45315.82553240741</v>
       </c>
       <c r="I218" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -9478,7 +9481,7 @@
         <v>589</v>
       </c>
       <c r="F219" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G219" s="3">
         <v>45307.36931712963</v>
@@ -9487,7 +9490,7 @@
         <v>45315.78234953704</v>
       </c>
       <c r="I219" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -9507,7 +9510,7 @@
         <v>604</v>
       </c>
       <c r="F220" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G220" s="3">
         <v>45313.02901620371</v>
@@ -9516,7 +9519,7 @@
         <v>45315.78185185185</v>
       </c>
       <c r="I220" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -9533,10 +9536,10 @@
         <v>513</v>
       </c>
       <c r="E221" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F221" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G221" s="3">
         <v>45284.49082175926</v>
@@ -9545,7 +9548,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I221" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -9562,10 +9565,10 @@
         <v>514</v>
       </c>
       <c r="E222" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F222" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G222" s="3">
         <v>45290.06063657408</v>
@@ -9574,7 +9577,7 @@
         <v>45315.81575231482</v>
       </c>
       <c r="I222" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -9591,10 +9594,10 @@
         <v>515</v>
       </c>
       <c r="E223" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F223" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G223" s="3">
         <v>45292.49101851852</v>
@@ -9603,7 +9606,7 @@
         <v>45315.81292824074</v>
       </c>
       <c r="I223" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -9620,10 +9623,10 @@
         <v>516</v>
       </c>
       <c r="E224" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F224" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G224" s="3">
         <v>45291.34520833333</v>
@@ -9632,7 +9635,7 @@
         <v>45315.82354166666</v>
       </c>
       <c r="I224" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -9649,10 +9652,10 @@
         <v>517</v>
       </c>
       <c r="E225" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F225" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G225" s="3">
         <v>45314.42053240741</v>
@@ -9661,7 +9664,7 @@
         <v>45315.81092592593</v>
       </c>
       <c r="I225" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -9678,10 +9681,10 @@
         <v>518</v>
       </c>
       <c r="E226" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F226" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G226" s="3">
         <v>45291.49119212963</v>
@@ -9690,7 +9693,7 @@
         <v>45314.49342592592</v>
       </c>
       <c r="I226" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -9707,10 +9710,10 @@
         <v>519</v>
       </c>
       <c r="E227" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F227" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G227" s="3">
         <v>45306.91820601852</v>
@@ -9719,7 +9722,7 @@
         <v>45315.82215277778</v>
       </c>
       <c r="I227" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -9736,10 +9739,10 @@
         <v>520</v>
       </c>
       <c r="E228" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F228" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G228" s="3">
         <v>45286.62017361111</v>
@@ -9748,7 +9751,7 @@
         <v>45315.78180555555</v>
       </c>
       <c r="I228" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -9765,10 +9768,10 @@
         <v>521</v>
       </c>
       <c r="E229" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F229" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G229" s="3">
         <v>45308.74159722222</v>
@@ -9777,7 +9780,7 @@
         <v>45315.82368055556</v>
       </c>
       <c r="I229" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -9797,7 +9800,7 @@
         <v>599</v>
       </c>
       <c r="F230" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G230" s="3">
         <v>45283.53591435185</v>
@@ -9806,7 +9809,7 @@
         <v>45315.82388888889</v>
       </c>
       <c r="I230" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -9823,10 +9826,10 @@
         <v>523</v>
       </c>
       <c r="E231" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F231" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G231" s="3">
         <v>45279.15613425926</v>
@@ -9835,7 +9838,7 @@
         <v>45310.69137731481</v>
       </c>
       <c r="I231" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -9855,7 +9858,7 @@
         <v>605</v>
       </c>
       <c r="F232" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G232" s="3">
         <v>45302.49265046296</v>
@@ -9864,7 +9867,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I232" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -9881,10 +9884,10 @@
         <v>525</v>
       </c>
       <c r="E233" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F233" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G233" s="3">
         <v>45286.49104166667</v>
@@ -9893,7 +9896,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I233" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -9910,10 +9913,10 @@
         <v>526</v>
       </c>
       <c r="E234" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F234" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G234" s="3">
         <v>45313.42326388889</v>
@@ -9922,7 +9925,7 @@
         <v>45314.18550925926</v>
       </c>
       <c r="I234" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -9942,7 +9945,7 @@
         <v>601</v>
       </c>
       <c r="F235" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G235" s="3">
         <v>44288.33525462963</v>
@@ -9951,7 +9954,7 @@
         <v>44288.33525462963</v>
       </c>
       <c r="I235" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -9971,7 +9974,7 @@
         <v>620</v>
       </c>
       <c r="F236" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G236" s="3">
         <v>45287.22329861111</v>
@@ -9980,7 +9983,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I236" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -9997,10 +10000,10 @@
         <v>529</v>
       </c>
       <c r="E237" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F237" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G237" s="3">
         <v>45311.90133101852</v>
@@ -10009,7 +10012,7 @@
         <v>45315.82358796296</v>
       </c>
       <c r="I237" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -10029,7 +10032,7 @@
         <v>584</v>
       </c>
       <c r="F238" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G238" s="3">
         <v>45298.44405092593</v>
@@ -10038,7 +10041,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I238" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -10058,7 +10061,7 @@
         <v>600</v>
       </c>
       <c r="F239" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G239" s="3">
         <v>45297.01849537037</v>
@@ -10067,7 +10070,7 @@
         <v>45314.90065972223</v>
       </c>
       <c r="I239" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -10084,10 +10087,10 @@
         <v>532</v>
       </c>
       <c r="E240" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F240" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G240" s="3">
         <v>45280.57440972222</v>
@@ -10096,7 +10099,7 @@
         <v>45309.03163194445</v>
       </c>
       <c r="I240" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -10116,7 +10119,7 @@
         <v>592</v>
       </c>
       <c r="F241" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G241" s="3">
         <v>45314.42252314815</v>
@@ -10125,7 +10128,7 @@
         <v>45315.82351851852</v>
       </c>
       <c r="I241" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -10145,7 +10148,7 @@
         <v>605</v>
       </c>
       <c r="F242" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G242" s="3">
         <v>45301.61993055556</v>
@@ -10154,7 +10157,7 @@
         <v>45314.018125</v>
       </c>
       <c r="I242" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -10171,10 +10174,10 @@
         <v>535</v>
       </c>
       <c r="E243" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F243" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G243" s="3">
         <v>45312.49469907407</v>
@@ -10183,7 +10186,7 @@
         <v>45315.78165509259</v>
       </c>
       <c r="I243" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -10203,7 +10206,7 @@
         <v>621</v>
       </c>
       <c r="F244" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G244" s="3">
         <v>45295.49803240741</v>
@@ -10212,7 +10215,7 @@
         <v>45315.8234837963</v>
       </c>
       <c r="I244" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -10229,10 +10232,10 @@
         <v>537</v>
       </c>
       <c r="E245" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F245" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G245" s="3">
         <v>45313.05956018518</v>
@@ -10241,7 +10244,7 @@
         <v>45315.82376157407</v>
       </c>
       <c r="I245" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -10261,7 +10264,7 @@
         <v>643</v>
       </c>
       <c r="F246" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G246" s="3">
         <v>45298.49199074074</v>
@@ -10270,7 +10273,7 @@
         <v>45315.82392361111</v>
       </c>
       <c r="I246" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -10290,7 +10293,7 @@
         <v>605</v>
       </c>
       <c r="F247" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G247" s="3">
         <v>45286.6203587963</v>
@@ -10299,7 +10302,7 @@
         <v>45315.82366898148</v>
       </c>
       <c r="I247" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -10319,7 +10322,7 @@
         <v>643</v>
       </c>
       <c r="F248" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G248" s="3">
         <v>45311.61991898148</v>
@@ -10328,7 +10331,7 @@
         <v>45315.02909722222</v>
       </c>
       <c r="I248" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -10345,10 +10348,10 @@
         <v>541</v>
       </c>
       <c r="E249" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F249" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G249" s="3">
         <v>45306.75461805556</v>
@@ -10357,7 +10360,7 @@
         <v>45315.04524305555</v>
       </c>
       <c r="I249" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -10377,7 +10380,7 @@
         <v>587</v>
       </c>
       <c r="F250" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G250" s="3">
         <v>45292.49578703703</v>
@@ -10386,7 +10389,7 @@
         <v>45315.4852662037</v>
       </c>
       <c r="I250" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -10406,7 +10409,7 @@
         <v>622</v>
       </c>
       <c r="F251" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G251" s="3">
         <v>45308.60100694445</v>
@@ -10415,7 +10418,7 @@
         <v>45314.49393518519</v>
       </c>
       <c r="I251" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -10432,10 +10435,10 @@
         <v>544</v>
       </c>
       <c r="E252" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F252" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G252" s="3">
         <v>45289.35146990741</v>
@@ -10444,7 +10447,7 @@
         <v>45314.49217592592</v>
       </c>
       <c r="I252" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -10464,7 +10467,7 @@
         <v>634</v>
       </c>
       <c r="F253" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G253" s="3">
         <v>45307.49243055555</v>
@@ -10473,7 +10476,7 @@
         <v>45314.49329861111</v>
       </c>
       <c r="I253" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -10490,10 +10493,10 @@
         <v>546</v>
       </c>
       <c r="E254" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F254" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G254" s="3">
         <v>45313.42297453704</v>
@@ -10502,7 +10505,7 @@
         <v>45313.42299768519</v>
       </c>
       <c r="I254" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -10522,7 +10525,7 @@
         <v>603</v>
       </c>
       <c r="F255" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G255" s="3">
         <v>45291.49054398148</v>
@@ -10531,7 +10534,7 @@
         <v>45314.94496527778</v>
       </c>
       <c r="I255" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -10548,10 +10551,10 @@
         <v>548</v>
       </c>
       <c r="E256" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F256" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G256" s="3">
         <v>45292.15671296296</v>
@@ -10560,7 +10563,7 @@
         <v>45312.75942129629</v>
       </c>
       <c r="I256" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -10577,10 +10580,10 @@
         <v>549</v>
       </c>
       <c r="E257" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F257" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G257" s="3">
         <v>45287.83861111111</v>
@@ -10589,7 +10592,7 @@
         <v>45316.03899305555</v>
       </c>
       <c r="I257" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -10606,10 +10609,10 @@
         <v>550</v>
       </c>
       <c r="E258" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F258" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G258" s="3">
         <v>45293.04358796297</v>
@@ -10618,7 +10621,7 @@
         <v>45315.8656712963</v>
       </c>
       <c r="I258" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -10638,7 +10641,7 @@
         <v>596</v>
       </c>
       <c r="F259" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G259" s="3">
         <v>45307.49564814815</v>
@@ -10647,7 +10650,7 @@
         <v>45315.9937037037</v>
       </c>
       <c r="I259" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -10667,7 +10670,7 @@
         <v>584</v>
       </c>
       <c r="F260" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G260" s="3">
         <v>45314.90094907407</v>
@@ -10676,7 +10679,7 @@
         <v>45315.89604166667</v>
       </c>
       <c r="I260" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -10696,7 +10699,7 @@
         <v>597</v>
       </c>
       <c r="F261" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G261" s="3">
         <v>45294.84780092593</v>
@@ -10705,7 +10708,7 @@
         <v>45316.03907407408</v>
       </c>
       <c r="I261" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -10722,10 +10725,10 @@
         <v>554</v>
       </c>
       <c r="E262" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F262" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G262" s="3">
         <v>45296.61121527778</v>
@@ -10734,7 +10737,7 @@
         <v>45316.03895833333</v>
       </c>
       <c r="I262" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -10754,7 +10757,7 @@
         <v>614</v>
       </c>
       <c r="F263" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G263" s="3">
         <v>45311.62060185185</v>
@@ -10763,7 +10766,7 @@
         <v>45316.03954861111</v>
       </c>
       <c r="I263" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -10783,7 +10786,7 @@
         <v>600</v>
       </c>
       <c r="F264" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G264" s="3">
         <v>45301.61861111111</v>
@@ -10792,7 +10795,7 @@
         <v>45316.08056712963</v>
       </c>
       <c r="I264" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -10812,7 +10815,7 @@
         <v>600</v>
       </c>
       <c r="F265" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G265" s="3">
         <v>45286.49385416666</v>
@@ -10821,7 +10824,7 @@
         <v>45316.03959490741</v>
       </c>
       <c r="I265" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -10841,7 +10844,7 @@
         <v>634</v>
       </c>
       <c r="F266" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G266" s="3">
         <v>45311.71087962963</v>
@@ -10850,7 +10853,7 @@
         <v>45314.67140046296</v>
       </c>
       <c r="I266" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -10867,10 +10870,10 @@
         <v>559</v>
       </c>
       <c r="E267" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F267" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G267" s="3">
         <v>45288.63045138889</v>
@@ -10879,7 +10882,7 @@
         <v>45316.03887731482</v>
       </c>
       <c r="I267" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -10899,7 +10902,7 @@
         <v>632</v>
       </c>
       <c r="F268" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G268" s="3">
         <v>45280.82067129629</v>
@@ -10908,7 +10911,7 @@
         <v>45316.03997685185</v>
       </c>
       <c r="I268" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -10925,10 +10928,10 @@
         <v>561</v>
       </c>
       <c r="E269" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F269" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G269" s="3">
         <v>45296.62119212963</v>
@@ -10937,7 +10940,7 @@
         <v>45316.08042824074</v>
       </c>
       <c r="I269" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -10957,7 +10960,7 @@
         <v>584</v>
       </c>
       <c r="F270" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G270" s="3">
         <v>45300.48923611111</v>
@@ -10966,7 +10969,7 @@
         <v>45316.08054398148</v>
       </c>
       <c r="I270" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -10986,7 +10989,7 @@
         <v>634</v>
       </c>
       <c r="F271" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G271" s="3">
         <v>45314.49359953704</v>
@@ -10995,7 +10998,7 @@
         <v>45314.66849537037</v>
       </c>
       <c r="I271" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -11015,7 +11018,7 @@
         <v>642</v>
       </c>
       <c r="F272" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G272" s="3">
         <v>45312.50121527778</v>
@@ -11024,7 +11027,7 @@
         <v>45312.67422453704</v>
       </c>
       <c r="I272" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -11044,7 +11047,7 @@
         <v>645</v>
       </c>
       <c r="F273" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G273" s="3">
         <v>45261.49545138889</v>
@@ -11053,7 +11056,7 @@
         <v>45309.04300925926</v>
       </c>
       <c r="I273" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -11073,7 +11076,7 @@
         <v>643</v>
       </c>
       <c r="F274" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G274" s="3">
         <v>45291.49003472222</v>
@@ -11082,7 +11085,7 @@
         <v>45316.08077546296</v>
       </c>
       <c r="I274" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -11099,10 +11102,10 @@
         <v>567</v>
       </c>
       <c r="E275" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F275" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G275" s="3">
         <v>45280.21361111111</v>
@@ -11111,7 +11114,7 @@
         <v>45309.04177083333</v>
       </c>
       <c r="I275" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -11131,7 +11134,7 @@
         <v>598</v>
       </c>
       <c r="F276" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G276" s="3">
         <v>45314.56188657408</v>
@@ -11140,7 +11143,7 @@
         <v>45315.48497685185</v>
       </c>
       <c r="I276" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -11160,7 +11163,7 @@
         <v>600</v>
       </c>
       <c r="F277" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G277" s="3">
         <v>45302.49186342592</v>
@@ -11169,7 +11172,7 @@
         <v>45316.08069444444</v>
       </c>
       <c r="I277" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -11189,7 +11192,7 @@
         <v>635</v>
       </c>
       <c r="F278" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G278" s="3">
         <v>45291.5000462963</v>
@@ -11198,7 +11201,7 @@
         <v>45314.49376157407</v>
       </c>
       <c r="I278" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -11218,7 +11221,7 @@
         <v>620</v>
       </c>
       <c r="F279" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G279" s="3">
         <v>45291.49392361111</v>
@@ -11227,7 +11230,7 @@
         <v>45314.49452546296</v>
       </c>
       <c r="I279" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -11247,7 +11250,7 @@
         <v>599</v>
       </c>
       <c r="F280" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G280" s="3">
         <v>45312.49576388889</v>
@@ -11256,7 +11259,7 @@
         <v>45316.03846064815</v>
       </c>
       <c r="I280" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -11276,7 +11279,7 @@
         <v>629</v>
       </c>
       <c r="F281" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G281" s="3">
         <v>45312.98068287037</v>
@@ -11285,7 +11288,7 @@
         <v>45316.08041666666</v>
       </c>
       <c r="I281" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -11302,10 +11305,10 @@
         <v>574</v>
       </c>
       <c r="E282" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F282" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G282" s="3">
         <v>45314.49623842593</v>
@@ -11314,7 +11317,7 @@
         <v>45316.08075231482</v>
       </c>
       <c r="I282" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -11334,7 +11337,7 @@
         <v>604</v>
       </c>
       <c r="F283" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G283" s="3">
         <v>45313.14449074074</v>
@@ -11343,7 +11346,7 @@
         <v>45316.08082175926</v>
       </c>
       <c r="I283" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -11360,10 +11363,10 @@
         <v>576</v>
       </c>
       <c r="E284" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F284" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G284" s="3">
         <v>45312.50119212963</v>
@@ -11372,7 +11375,7 @@
         <v>45316.08556712963</v>
       </c>
       <c r="I284" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="920">
   <si>
     <t>Sno</t>
   </si>
@@ -1762,43 +1762,46 @@
     <t>{'harmless': 63, 'malicious': 3, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
   </si>
   <si>
+    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 52, 'malicious': 14, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 0, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
     <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 52, 'malicious': 14, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 0, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
   </si>
   <si>
     <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
@@ -3197,7 +3200,7 @@
         <v>577</v>
       </c>
       <c r="F2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G2" s="3">
         <v>45311.61894675926</v>
@@ -3206,7 +3209,7 @@
         <v>45341.32113425926</v>
       </c>
       <c r="I2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3226,7 +3229,7 @@
         <v>578</v>
       </c>
       <c r="F3" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G3" s="3">
         <v>45328.50989583333</v>
@@ -3235,7 +3238,7 @@
         <v>45341.27945601852</v>
       </c>
       <c r="I3" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3255,7 +3258,7 @@
         <v>578</v>
       </c>
       <c r="F4" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G4" s="3">
         <v>45306.97109953704</v>
@@ -3264,7 +3267,7 @@
         <v>45341.06746527777</v>
       </c>
       <c r="I4" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3284,7 +3287,7 @@
         <v>578</v>
       </c>
       <c r="F5" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G5" s="3">
         <v>45328.57457175926</v>
@@ -3293,7 +3296,7 @@
         <v>45341.27858796297</v>
       </c>
       <c r="I5" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3313,7 +3316,7 @@
         <v>579</v>
       </c>
       <c r="F6" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G6" s="3">
         <v>45337.51012731482</v>
@@ -3322,7 +3325,7 @@
         <v>45341.27866898148</v>
       </c>
       <c r="I6" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3342,7 +3345,7 @@
         <v>580</v>
       </c>
       <c r="F7" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G7" s="3">
         <v>45329.3558912037</v>
@@ -3351,7 +3354,7 @@
         <v>45341.32061342592</v>
       </c>
       <c r="I7" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3371,7 +3374,7 @@
         <v>581</v>
       </c>
       <c r="F8" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G8" s="3">
         <v>45337.50997685185</v>
@@ -3380,7 +3383,7 @@
         <v>45341.10480324074</v>
       </c>
       <c r="I8" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3400,16 +3403,16 @@
         <v>582</v>
       </c>
       <c r="F9" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G9" s="3">
         <v>45308.21690972222</v>
       </c>
       <c r="H9" s="3">
-        <v>45314.97233796296</v>
+        <v>45341.10543981481</v>
       </c>
       <c r="I9" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3429,7 +3432,7 @@
         <v>583</v>
       </c>
       <c r="F10" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G10" s="3">
         <v>45298.49690972222</v>
@@ -3438,7 +3441,7 @@
         <v>45314.49306712963</v>
       </c>
       <c r="I10" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3458,7 +3461,7 @@
         <v>584</v>
       </c>
       <c r="F11" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G11" s="3">
         <v>45282.7141087963</v>
@@ -3467,7 +3470,7 @@
         <v>45311.61704861111</v>
       </c>
       <c r="I11" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3487,7 +3490,7 @@
         <v>585</v>
       </c>
       <c r="F12" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G12" s="3">
         <v>45298.49170138889</v>
@@ -3496,7 +3499,7 @@
         <v>45316.37927083333</v>
       </c>
       <c r="I12" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3516,7 +3519,7 @@
         <v>586</v>
       </c>
       <c r="F13" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G13" s="3">
         <v>45280.79738425926</v>
@@ -3525,7 +3528,7 @@
         <v>45309.10356481482</v>
       </c>
       <c r="I13" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3545,7 +3548,7 @@
         <v>587</v>
       </c>
       <c r="F14" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G14" s="3">
         <v>45298.49263888889</v>
@@ -3554,7 +3557,7 @@
         <v>45316.37927083333</v>
       </c>
       <c r="I14" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3574,7 +3577,7 @@
         <v>588</v>
       </c>
       <c r="F15" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G15" s="3">
         <v>45310.43427083334</v>
@@ -3583,7 +3586,7 @@
         <v>45316.36269675926</v>
       </c>
       <c r="I15" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3603,7 +3606,7 @@
         <v>589</v>
       </c>
       <c r="F16" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G16" s="3">
         <v>45311.33236111111</v>
@@ -3612,7 +3615,7 @@
         <v>45314.49320601852</v>
       </c>
       <c r="I16" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3632,7 +3635,7 @@
         <v>590</v>
       </c>
       <c r="F17" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G17" s="3">
         <v>45301.30826388889</v>
@@ -3641,7 +3644,7 @@
         <v>45316.37930555556</v>
       </c>
       <c r="I17" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3661,7 +3664,7 @@
         <v>591</v>
       </c>
       <c r="F18" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G18" s="3">
         <v>45306.18137731482</v>
@@ -3670,7 +3673,7 @@
         <v>45316.42100694445</v>
       </c>
       <c r="I18" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3690,7 +3693,7 @@
         <v>592</v>
       </c>
       <c r="F19" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G19" s="3">
         <v>45288.23121527778</v>
@@ -3699,7 +3702,7 @@
         <v>45302.48868055556</v>
       </c>
       <c r="I19" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3719,7 +3722,7 @@
         <v>593</v>
       </c>
       <c r="F20" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G20" s="3">
         <v>45307.52993055555</v>
@@ -3728,7 +3731,7 @@
         <v>45314.19462962963</v>
       </c>
       <c r="I20" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3748,7 +3751,7 @@
         <v>594</v>
       </c>
       <c r="F21" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G21" s="3">
         <v>45314.42365740741</v>
@@ -3757,7 +3760,7 @@
         <v>45314.42368055556</v>
       </c>
       <c r="I21" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3777,7 +3780,7 @@
         <v>584</v>
       </c>
       <c r="F22" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G22" s="3">
         <v>45305.57067129629</v>
@@ -3786,7 +3789,7 @@
         <v>45316.42155092592</v>
       </c>
       <c r="I22" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3803,10 +3806,10 @@
         <v>315</v>
       </c>
       <c r="E23" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="F23" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G23" s="3">
         <v>45291.49997685185</v>
@@ -3815,7 +3818,7 @@
         <v>45314.49226851852</v>
       </c>
       <c r="I23" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3832,10 +3835,10 @@
         <v>316</v>
       </c>
       <c r="E24" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F24" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G24" s="3">
         <v>45309.80174768518</v>
@@ -3844,7 +3847,7 @@
         <v>45315.85729166667</v>
       </c>
       <c r="I24" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3864,7 +3867,7 @@
         <v>586</v>
       </c>
       <c r="F25" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G25" s="3">
         <v>45299.43368055556</v>
@@ -3873,7 +3876,7 @@
         <v>45316.37909722222</v>
       </c>
       <c r="I25" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3890,10 +3893,10 @@
         <v>318</v>
       </c>
       <c r="E26" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F26" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G26" s="3">
         <v>45314.17763888889</v>
@@ -3902,7 +3905,7 @@
         <v>45316.08064814815</v>
       </c>
       <c r="I26" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3919,10 +3922,10 @@
         <v>319</v>
       </c>
       <c r="E27" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F27" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G27" s="3">
         <v>45291.49208333333</v>
@@ -3931,7 +3934,7 @@
         <v>45316.34907407407</v>
       </c>
       <c r="I27" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3948,10 +3951,10 @@
         <v>320</v>
       </c>
       <c r="E28" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F28" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G28" s="3">
         <v>45289.73149305556</v>
@@ -3960,7 +3963,7 @@
         <v>45316.37931712963</v>
       </c>
       <c r="I28" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3977,10 +3980,10 @@
         <v>321</v>
       </c>
       <c r="E29" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F29" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G29" s="3">
         <v>45312.4952662037</v>
@@ -3989,7 +3992,7 @@
         <v>45315.52618055556</v>
       </c>
       <c r="I29" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4006,10 +4009,10 @@
         <v>322</v>
       </c>
       <c r="E30" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F30" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G30" s="3">
         <v>45307.49253472222</v>
@@ -4018,7 +4021,7 @@
         <v>45316.3793287037</v>
       </c>
       <c r="I30" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4035,10 +4038,10 @@
         <v>323</v>
       </c>
       <c r="E31" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F31" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G31" s="3">
         <v>45311.71104166667</v>
@@ -4047,7 +4050,7 @@
         <v>45316.37922453704</v>
       </c>
       <c r="I31" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4064,10 +4067,10 @@
         <v>324</v>
       </c>
       <c r="E32" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F32" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G32" s="3">
         <v>45312.34644675926</v>
@@ -4076,7 +4079,7 @@
         <v>45316.37908564815</v>
       </c>
       <c r="I32" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4093,10 +4096,10 @@
         <v>325</v>
       </c>
       <c r="E33" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F33" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G33" s="3">
         <v>44163.34006944444</v>
@@ -4105,7 +4108,7 @@
         <v>44163.34006944444</v>
       </c>
       <c r="I33" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4125,7 +4128,7 @@
         <v>591</v>
       </c>
       <c r="F34" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G34" s="3">
         <v>45286.80534722222</v>
@@ -4134,7 +4137,7 @@
         <v>45316.37934027778</v>
       </c>
       <c r="I34" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4151,10 +4154,10 @@
         <v>327</v>
       </c>
       <c r="E35" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F35" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G35" s="3">
         <v>45302.49230324074</v>
@@ -4163,7 +4166,7 @@
         <v>45314.98761574074</v>
       </c>
       <c r="I35" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4180,10 +4183,10 @@
         <v>328</v>
       </c>
       <c r="E36" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F36" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G36" s="3">
         <v>45302.49503472223</v>
@@ -4192,7 +4195,7 @@
         <v>45315.48547453704</v>
       </c>
       <c r="I36" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4209,10 +4212,10 @@
         <v>329</v>
       </c>
       <c r="E37" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F37" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G37" s="3">
         <v>45311.61938657407</v>
@@ -4221,7 +4224,7 @@
         <v>45316.42167824074</v>
       </c>
       <c r="I37" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4238,10 +4241,10 @@
         <v>330</v>
       </c>
       <c r="E38" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F38" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G38" s="3">
         <v>45297.0796412037</v>
@@ -4250,7 +4253,7 @@
         <v>45316.49811342593</v>
       </c>
       <c r="I38" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4267,10 +4270,10 @@
         <v>331</v>
       </c>
       <c r="E39" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F39" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G39" s="3">
         <v>45290.31696759259</v>
@@ -4279,7 +4282,7 @@
         <v>45316.49866898148</v>
       </c>
       <c r="I39" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4296,10 +4299,10 @@
         <v>332</v>
       </c>
       <c r="E40" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F40" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G40" s="3">
         <v>45313.59486111111</v>
@@ -4308,7 +4311,7 @@
         <v>45316.49662037037</v>
       </c>
       <c r="I40" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4325,10 +4328,10 @@
         <v>333</v>
       </c>
       <c r="E41" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F41" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G41" s="3">
         <v>45295.49177083333</v>
@@ -4337,7 +4340,7 @@
         <v>45316.49807870371</v>
       </c>
       <c r="I41" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4354,10 +4357,10 @@
         <v>334</v>
       </c>
       <c r="E42" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F42" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G42" s="3">
         <v>45311.92179398148</v>
@@ -4366,7 +4369,7 @@
         <v>45316.4971875</v>
       </c>
       <c r="I42" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4383,10 +4386,10 @@
         <v>335</v>
       </c>
       <c r="E43" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F43" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G43" s="3">
         <v>45296.05393518518</v>
@@ -4395,7 +4398,7 @@
         <v>45316.50489583334</v>
       </c>
       <c r="I43" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4412,10 +4415,10 @@
         <v>336</v>
       </c>
       <c r="E44" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F44" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G44" s="3">
         <v>45313.11333333333</v>
@@ -4424,7 +4427,7 @@
         <v>45316.49230324074</v>
       </c>
       <c r="I44" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4441,10 +4444,10 @@
         <v>337</v>
       </c>
       <c r="E45" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F45" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G45" s="3">
         <v>45306.61894675926</v>
@@ -4453,7 +4456,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I45" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4470,10 +4473,10 @@
         <v>338</v>
       </c>
       <c r="E46" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F46" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G46" s="3">
         <v>45312.49850694444</v>
@@ -4482,7 +4485,7 @@
         <v>45316.49799768518</v>
       </c>
       <c r="I46" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4499,10 +4502,10 @@
         <v>339</v>
       </c>
       <c r="E47" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F47" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G47" s="3">
         <v>45262.49515046296</v>
@@ -4511,7 +4514,7 @@
         <v>45309.07923611111</v>
       </c>
       <c r="I47" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4528,10 +4531,10 @@
         <v>340</v>
       </c>
       <c r="E48" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F48" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G48" s="3">
         <v>45298.49847222222</v>
@@ -4540,7 +4543,7 @@
         <v>45316.49944444445</v>
       </c>
       <c r="I48" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4557,10 +4560,10 @@
         <v>341</v>
       </c>
       <c r="E49" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F49" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G49" s="3">
         <v>45311.61908564815</v>
@@ -4569,7 +4572,7 @@
         <v>45316.49847222222</v>
       </c>
       <c r="I49" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4586,10 +4589,10 @@
         <v>342</v>
       </c>
       <c r="E50" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F50" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G50" s="3">
         <v>45311.61989583333</v>
@@ -4598,7 +4601,7 @@
         <v>45316.50482638889</v>
       </c>
       <c r="I50" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4615,10 +4618,10 @@
         <v>343</v>
       </c>
       <c r="E51" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F51" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G51" s="3">
         <v>45316.50053240741</v>
@@ -4627,7 +4630,7 @@
         <v>45316.50232638889</v>
       </c>
       <c r="I51" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4647,7 +4650,7 @@
         <v>594</v>
       </c>
       <c r="F52" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G52" s="3">
         <v>45313.05881944444</v>
@@ -4656,7 +4659,7 @@
         <v>45314.42322916666</v>
       </c>
       <c r="I52" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4673,10 +4676,10 @@
         <v>345</v>
       </c>
       <c r="E53" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F53" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G53" s="3">
         <v>45316.5015162037</v>
@@ -4685,7 +4688,7 @@
         <v>45316.50331018519</v>
       </c>
       <c r="I53" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4702,10 +4705,10 @@
         <v>346</v>
       </c>
       <c r="E54" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F54" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G54" s="3">
         <v>45291.62113425926</v>
@@ -4714,7 +4717,7 @@
         <v>45316.49827546296</v>
       </c>
       <c r="I54" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4731,10 +4734,10 @@
         <v>347</v>
       </c>
       <c r="E55" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F55" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G55" s="3">
         <v>45287.49758101852</v>
@@ -4743,7 +4746,7 @@
         <v>45316.50458333334</v>
       </c>
       <c r="I55" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4760,10 +4763,10 @@
         <v>348</v>
       </c>
       <c r="E56" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F56" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G56" s="3">
         <v>45280.75131944445</v>
@@ -4772,7 +4775,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I56" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4789,10 +4792,10 @@
         <v>349</v>
       </c>
       <c r="E57" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F57" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G57" s="3">
         <v>45291.49048611111</v>
@@ -4801,7 +4804,7 @@
         <v>45316.50336805556</v>
       </c>
       <c r="I57" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4821,7 +4824,7 @@
         <v>590</v>
       </c>
       <c r="F58" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G58" s="3">
         <v>45310.86956018519</v>
@@ -4830,7 +4833,7 @@
         <v>45314.48899305556</v>
       </c>
       <c r="I58" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4850,7 +4853,7 @@
         <v>584</v>
       </c>
       <c r="F59" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G59" s="3">
         <v>45311.61930555556</v>
@@ -4859,7 +4862,7 @@
         <v>45316.49861111111</v>
       </c>
       <c r="I59" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4876,10 +4879,10 @@
         <v>352</v>
       </c>
       <c r="E60" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F60" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G60" s="3">
         <v>45313.76346064815</v>
@@ -4888,7 +4891,7 @@
         <v>45316.49800925926</v>
       </c>
       <c r="I60" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4905,10 +4908,10 @@
         <v>353</v>
       </c>
       <c r="E61" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F61" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G61" s="3">
         <v>45278.11224537037</v>
@@ -4917,7 +4920,7 @@
         <v>45302.49298611111</v>
       </c>
       <c r="I61" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4934,10 +4937,10 @@
         <v>354</v>
       </c>
       <c r="E62" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F62" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G62" s="3">
         <v>45278.21631944444</v>
@@ -4946,7 +4949,7 @@
         <v>45316.50450231481</v>
       </c>
       <c r="I62" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4963,10 +4966,10 @@
         <v>355</v>
       </c>
       <c r="E63" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F63" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G63" s="3">
         <v>45163.2121412037</v>
@@ -4975,7 +4978,7 @@
         <v>45163.2121412037</v>
       </c>
       <c r="I63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4992,10 +4995,10 @@
         <v>356</v>
       </c>
       <c r="E64" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F64" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G64" s="3">
         <v>45316.49957175926</v>
@@ -5004,7 +5007,7 @@
         <v>45316.50452546297</v>
       </c>
       <c r="I64" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -5021,10 +5024,10 @@
         <v>357</v>
       </c>
       <c r="E65" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F65" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G65" s="3">
         <v>45297.49180555555</v>
@@ -5033,7 +5036,7 @@
         <v>45316.50127314815</v>
       </c>
       <c r="I65" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -5050,10 +5053,10 @@
         <v>358</v>
       </c>
       <c r="E66" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F66" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G66" s="3">
         <v>45297.09299768518</v>
@@ -5062,7 +5065,7 @@
         <v>45316.5039699074</v>
       </c>
       <c r="I66" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -5079,10 +5082,10 @@
         <v>359</v>
       </c>
       <c r="E67" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F67" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G67" s="3">
         <v>45316.50059027778</v>
@@ -5091,7 +5094,7 @@
         <v>45316.50255787037</v>
       </c>
       <c r="I67" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -5108,10 +5111,10 @@
         <v>360</v>
       </c>
       <c r="E68" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F68" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G68" s="3">
         <v>45313.63670138889</v>
@@ -5120,7 +5123,7 @@
         <v>45315.90416666667</v>
       </c>
       <c r="I68" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -5140,7 +5143,7 @@
         <v>584</v>
       </c>
       <c r="F69" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G69" s="3">
         <v>45304.51188657407</v>
@@ -5149,7 +5152,7 @@
         <v>45315.56863425926</v>
       </c>
       <c r="I69" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -5166,10 +5169,10 @@
         <v>362</v>
       </c>
       <c r="E70" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F70" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G70" s="3">
         <v>45291.49329861111</v>
@@ -5178,7 +5181,7 @@
         <v>45312.93239583333</v>
       </c>
       <c r="I70" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -5195,10 +5198,10 @@
         <v>363</v>
       </c>
       <c r="E71" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F71" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G71" s="3">
         <v>45300.57674768518</v>
@@ -5207,7 +5210,7 @@
         <v>45315.52626157407</v>
       </c>
       <c r="I71" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -5224,10 +5227,10 @@
         <v>364</v>
       </c>
       <c r="E72" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F72" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G72" s="3">
         <v>45310.40046296296</v>
@@ -5236,7 +5239,7 @@
         <v>45312.49293981482</v>
       </c>
       <c r="I72" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5253,10 +5256,10 @@
         <v>365</v>
       </c>
       <c r="E73" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F73" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G73" s="3">
         <v>45291.49876157408</v>
@@ -5265,7 +5268,7 @@
         <v>45314.49362268519</v>
       </c>
       <c r="I73" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5282,10 +5285,10 @@
         <v>366</v>
       </c>
       <c r="E74" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F74" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G74" s="3">
         <v>45292.49576388889</v>
@@ -5294,7 +5297,7 @@
         <v>45314.64596064815</v>
       </c>
       <c r="I74" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5311,16 +5314,16 @@
         <v>367</v>
       </c>
       <c r="E75" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F75" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H75" s="3">
         <v>45047.30018518519</v>
       </c>
       <c r="I75" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -5337,10 +5340,10 @@
         <v>368</v>
       </c>
       <c r="E76" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F76" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G76" s="3">
         <v>45291.49430555556</v>
@@ -5349,7 +5352,7 @@
         <v>45316.16467592592</v>
       </c>
       <c r="I76" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5366,10 +5369,10 @@
         <v>369</v>
       </c>
       <c r="E77" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F77" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G77" s="3">
         <v>45283.62505787037</v>
@@ -5378,7 +5381,7 @@
         <v>45309.04886574074</v>
       </c>
       <c r="I77" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5395,10 +5398,10 @@
         <v>370</v>
       </c>
       <c r="E78" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F78" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G78" s="3">
         <v>45262.59487268519</v>
@@ -5407,7 +5410,7 @@
         <v>45309.01453703704</v>
       </c>
       <c r="I78" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -5424,10 +5427,10 @@
         <v>371</v>
       </c>
       <c r="E79" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F79" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G79" s="3">
         <v>45312.49354166666</v>
@@ -5436,7 +5439,7 @@
         <v>45316.164375</v>
       </c>
       <c r="I79" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -5456,7 +5459,7 @@
         <v>590</v>
       </c>
       <c r="F80" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G80" s="3">
         <v>45312.7619675926</v>
@@ -5465,7 +5468,7 @@
         <v>45315.65320601852</v>
       </c>
       <c r="I80" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5482,10 +5485,10 @@
         <v>373</v>
       </c>
       <c r="E81" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F81" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G81" s="3">
         <v>45310.90116898148</v>
@@ -5494,7 +5497,7 @@
         <v>45316.2090625</v>
       </c>
       <c r="I81" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5511,10 +5514,10 @@
         <v>374</v>
       </c>
       <c r="E82" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F82" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G82" s="3">
         <v>45315.1578125</v>
@@ -5523,7 +5526,7 @@
         <v>45316.16471064815</v>
       </c>
       <c r="I82" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -5540,10 +5543,10 @@
         <v>375</v>
       </c>
       <c r="E83" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F83" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G83" s="3">
         <v>45287.44400462963</v>
@@ -5552,7 +5555,7 @@
         <v>45314.49243055555</v>
       </c>
       <c r="I83" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -5572,7 +5575,7 @@
         <v>594</v>
       </c>
       <c r="F84" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G84" s="3">
         <v>45309.58261574074</v>
@@ -5581,7 +5584,7 @@
         <v>45314.42337962963</v>
       </c>
       <c r="I84" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -5598,10 +5601,10 @@
         <v>377</v>
       </c>
       <c r="E85" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F85" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G85" s="3">
         <v>45280.04030092592</v>
@@ -5610,7 +5613,7 @@
         <v>45309.01909722222</v>
       </c>
       <c r="I85" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -5627,10 +5630,10 @@
         <v>378</v>
       </c>
       <c r="E86" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F86" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G86" s="3">
         <v>45302.49703703704</v>
@@ -5639,7 +5642,7 @@
         <v>45316.20864583334</v>
       </c>
       <c r="I86" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -5659,7 +5662,7 @@
         <v>589</v>
       </c>
       <c r="F87" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G87" s="3">
         <v>45313.29277777778</v>
@@ -5668,7 +5671,7 @@
         <v>45315.23820601852</v>
       </c>
       <c r="I87" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5685,10 +5688,10 @@
         <v>380</v>
       </c>
       <c r="E88" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F88" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G88" s="3">
         <v>45286.50180555556</v>
@@ -5697,7 +5700,7 @@
         <v>45312.67471064815</v>
       </c>
       <c r="I88" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5714,10 +5717,10 @@
         <v>381</v>
       </c>
       <c r="E89" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F89" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G89" s="3">
         <v>45311.42429398148</v>
@@ -5726,7 +5729,7 @@
         <v>45314.89614583334</v>
       </c>
       <c r="I89" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -5743,10 +5746,10 @@
         <v>382</v>
       </c>
       <c r="E90" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F90" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G90" s="3">
         <v>45306.6199537037</v>
@@ -5755,7 +5758,7 @@
         <v>45314.49379629629</v>
       </c>
       <c r="I90" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -5775,7 +5778,7 @@
         <v>594</v>
       </c>
       <c r="F91" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G91" s="3">
         <v>45315.42351851852</v>
@@ -5784,7 +5787,7 @@
         <v>45315.42354166666</v>
       </c>
       <c r="I91" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5801,10 +5804,10 @@
         <v>384</v>
       </c>
       <c r="E92" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F92" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G92" s="3">
         <v>45287.95120370371</v>
@@ -5813,7 +5816,7 @@
         <v>45315.61121527778</v>
       </c>
       <c r="I92" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -5830,10 +5833,10 @@
         <v>385</v>
       </c>
       <c r="E93" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F93" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G93" s="3">
         <v>45312.49561342593</v>
@@ -5842,7 +5845,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I93" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5862,7 +5865,7 @@
         <v>584</v>
       </c>
       <c r="F94" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G94" s="3">
         <v>45291.62100694444</v>
@@ -5871,7 +5874,7 @@
         <v>45314.49383101852</v>
       </c>
       <c r="I94" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5888,10 +5891,10 @@
         <v>387</v>
       </c>
       <c r="E95" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F95" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G95" s="3">
         <v>44926.35877314815</v>
@@ -5900,7 +5903,7 @@
         <v>44926.35877314815</v>
       </c>
       <c r="I95" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5920,7 +5923,7 @@
         <v>584</v>
       </c>
       <c r="F96" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G96" s="3">
         <v>45297.49363425926</v>
@@ -5929,7 +5932,7 @@
         <v>45311.89606481481</v>
       </c>
       <c r="I96" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5946,10 +5949,10 @@
         <v>389</v>
       </c>
       <c r="E97" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F97" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G97" s="3">
         <v>45314.49303240741</v>
@@ -5958,7 +5961,7 @@
         <v>45315.65373842593</v>
       </c>
       <c r="I97" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5975,10 +5978,10 @@
         <v>390</v>
       </c>
       <c r="E98" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F98" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G98" s="3">
         <v>45313.05805555556</v>
@@ -5987,7 +5990,7 @@
         <v>45313.05806712963</v>
       </c>
       <c r="I98" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -6004,10 +6007,10 @@
         <v>391</v>
       </c>
       <c r="E99" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F99" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G99" s="3">
         <v>45307.38726851852</v>
@@ -6016,7 +6019,7 @@
         <v>45314.85255787037</v>
       </c>
       <c r="I99" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -6033,10 +6036,10 @@
         <v>392</v>
       </c>
       <c r="E100" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F100" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G100" s="3">
         <v>45293.03614583334</v>
@@ -6045,7 +6048,7 @@
         <v>45293.0361574074</v>
       </c>
       <c r="I100" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6062,10 +6065,10 @@
         <v>393</v>
       </c>
       <c r="E101" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F101" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G101" s="3">
         <v>45314.50199074074</v>
@@ -6074,7 +6077,7 @@
         <v>45315.65385416667</v>
       </c>
       <c r="I101" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -6091,10 +6094,10 @@
         <v>394</v>
       </c>
       <c r="E102" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F102" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G102" s="3">
         <v>45307.37951388889</v>
@@ -6103,7 +6106,7 @@
         <v>45315.36158564815</v>
       </c>
       <c r="I102" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -6120,10 +6123,10 @@
         <v>395</v>
       </c>
       <c r="E103" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F103" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G103" s="3">
         <v>45307.00873842592</v>
@@ -6132,7 +6135,7 @@
         <v>45307.00875</v>
       </c>
       <c r="I103" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -6149,10 +6152,10 @@
         <v>396</v>
       </c>
       <c r="E104" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F104" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G104" s="3">
         <v>45315.42385416666</v>
@@ -6161,7 +6164,7 @@
         <v>45315.42386574074</v>
       </c>
       <c r="I104" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -6178,10 +6181,10 @@
         <v>397</v>
       </c>
       <c r="E105" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F105" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G105" s="3">
         <v>45291.49836805555</v>
@@ -6190,7 +6193,7 @@
         <v>45315.65422453704</v>
       </c>
       <c r="I105" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -6207,10 +6210,10 @@
         <v>398</v>
       </c>
       <c r="E106" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F106" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G106" s="3">
         <v>45280.57280092593</v>
@@ -6219,7 +6222,7 @@
         <v>45309.02465277778</v>
       </c>
       <c r="I106" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -6236,10 +6239,10 @@
         <v>399</v>
       </c>
       <c r="E107" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F107" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G107" s="3">
         <v>45302.49490740741</v>
@@ -6248,7 +6251,7 @@
         <v>45312.88666666667</v>
       </c>
       <c r="I107" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -6265,10 +6268,10 @@
         <v>400</v>
       </c>
       <c r="E108" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F108" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G108" s="3">
         <v>45288.28815972222</v>
@@ -6277,7 +6280,7 @@
         <v>45315.60980324074</v>
       </c>
       <c r="I108" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -6294,10 +6297,10 @@
         <v>401</v>
       </c>
       <c r="E109" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F109" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G109" s="3">
         <v>45295.49231481482</v>
@@ -6306,7 +6309,7 @@
         <v>45315.61019675926</v>
       </c>
       <c r="I109" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -6323,10 +6326,10 @@
         <v>402</v>
       </c>
       <c r="E110" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F110" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G110" s="3">
         <v>45312.76140046296</v>
@@ -6335,7 +6338,7 @@
         <v>45314.69101851852</v>
       </c>
       <c r="I110" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -6352,10 +6355,10 @@
         <v>403</v>
       </c>
       <c r="E111" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F111" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G111" s="3">
         <v>45314.49325231482</v>
@@ -6364,7 +6367,7 @@
         <v>45315.61035879629</v>
       </c>
       <c r="I111" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -6381,10 +6384,10 @@
         <v>404</v>
       </c>
       <c r="E112" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F112" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G112" s="3">
         <v>45313.42341435186</v>
@@ -6393,7 +6396,7 @@
         <v>45314.19578703704</v>
       </c>
       <c r="I112" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6410,10 +6413,10 @@
         <v>405</v>
       </c>
       <c r="E113" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F113" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G113" s="3">
         <v>45292.49325231482</v>
@@ -6422,7 +6425,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I113" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -6439,10 +6442,10 @@
         <v>406</v>
       </c>
       <c r="E114" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F114" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G114" s="3">
         <v>45313.0588425926</v>
@@ -6451,7 +6454,7 @@
         <v>45314.42222222222</v>
       </c>
       <c r="I114" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -6468,10 +6471,10 @@
         <v>407</v>
       </c>
       <c r="E115" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F115" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G115" s="3">
         <v>45307.5822337963</v>
@@ -6480,7 +6483,7 @@
         <v>45314.77590277778</v>
       </c>
       <c r="I115" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -6497,10 +6500,10 @@
         <v>408</v>
       </c>
       <c r="E116" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F116" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G116" s="3">
         <v>45298.49490740741</v>
@@ -6509,7 +6512,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I116" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -6526,10 +6529,10 @@
         <v>409</v>
       </c>
       <c r="E117" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F117" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G117" s="3">
         <v>45300.43424768518</v>
@@ -6538,7 +6541,7 @@
         <v>45314.49525462963</v>
       </c>
       <c r="I117" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -6555,10 +6558,10 @@
         <v>410</v>
       </c>
       <c r="E118" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F118" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G118" s="3">
         <v>45287.49133101852</v>
@@ -6567,7 +6570,7 @@
         <v>45315.68306712963</v>
       </c>
       <c r="I118" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -6584,10 +6587,10 @@
         <v>411</v>
       </c>
       <c r="E119" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F119" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G119" s="3">
         <v>45315.24193287037</v>
@@ -6596,7 +6599,7 @@
         <v>45315.65413194444</v>
       </c>
       <c r="I119" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -6613,10 +6616,10 @@
         <v>412</v>
       </c>
       <c r="E120" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F120" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G120" s="3">
         <v>45296.62521990741</v>
@@ -6625,7 +6628,7 @@
         <v>45315.32032407408</v>
       </c>
       <c r="I120" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -6642,10 +6645,10 @@
         <v>413</v>
       </c>
       <c r="E121" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F121" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G121" s="3">
         <v>45293.4970949074</v>
@@ -6654,7 +6657,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I121" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -6671,10 +6674,10 @@
         <v>414</v>
       </c>
       <c r="E122" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F122" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G122" s="3">
         <v>45282.72908564815</v>
@@ -6683,7 +6686,7 @@
         <v>45282.72909722223</v>
       </c>
       <c r="I122" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -6700,10 +6703,10 @@
         <v>415</v>
       </c>
       <c r="E123" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F123" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G123" s="3">
         <v>45314.49591435185</v>
@@ -6712,7 +6715,7 @@
         <v>45315.69609953704</v>
       </c>
       <c r="I123" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -6729,10 +6732,10 @@
         <v>416</v>
       </c>
       <c r="E124" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F124" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G124" s="3">
         <v>45300.97112268519</v>
@@ -6741,7 +6744,7 @@
         <v>45315.69616898148</v>
       </c>
       <c r="I124" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -6758,10 +6761,10 @@
         <v>417</v>
       </c>
       <c r="E125" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F125" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G125" s="3">
         <v>45273.65564814815</v>
@@ -6770,7 +6773,7 @@
         <v>45303.42461805556</v>
       </c>
       <c r="I125" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -6790,7 +6793,7 @@
         <v>590</v>
       </c>
       <c r="F126" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G126" s="3">
         <v>45298.21359953703</v>
@@ -6799,7 +6802,7 @@
         <v>45314.49523148148</v>
       </c>
       <c r="I126" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -6816,10 +6819,10 @@
         <v>419</v>
       </c>
       <c r="E127" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F127" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G127" s="3">
         <v>45308.42383101852</v>
@@ -6828,7 +6831,7 @@
         <v>45314.49195601852</v>
       </c>
       <c r="I127" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -6845,10 +6848,10 @@
         <v>420</v>
       </c>
       <c r="E128" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F128" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G128" s="3">
         <v>45294.41019675926</v>
@@ -6857,7 +6860,7 @@
         <v>45315.69918981481</v>
       </c>
       <c r="I128" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -6877,7 +6880,7 @@
         <v>586</v>
       </c>
       <c r="F129" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G129" s="3">
         <v>45310.61224537037</v>
@@ -6886,7 +6889,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I129" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -6903,10 +6906,10 @@
         <v>422</v>
       </c>
       <c r="E130" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F130" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G130" s="3">
         <v>45304.64673611111</v>
@@ -6915,7 +6918,7 @@
         <v>45315.6959375</v>
       </c>
       <c r="I130" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -6932,10 +6935,10 @@
         <v>423</v>
       </c>
       <c r="E131" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F131" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G131" s="3">
         <v>45295.49403935186</v>
@@ -6944,7 +6947,7 @@
         <v>45315.69605324074</v>
       </c>
       <c r="I131" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -6961,10 +6964,10 @@
         <v>424</v>
       </c>
       <c r="E132" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F132" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G132" s="3">
         <v>45298.06329861111</v>
@@ -6973,7 +6976,7 @@
         <v>45314.49458333333</v>
       </c>
       <c r="I132" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -6990,10 +6993,10 @@
         <v>425</v>
       </c>
       <c r="E133" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F133" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G133" s="3">
         <v>45297.49041666667</v>
@@ -7002,7 +7005,7 @@
         <v>45315.70159722222</v>
       </c>
       <c r="I133" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -7019,10 +7022,10 @@
         <v>426</v>
       </c>
       <c r="E134" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F134" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G134" s="3">
         <v>45296.21274305556</v>
@@ -7031,7 +7034,7 @@
         <v>45309.05621527778</v>
       </c>
       <c r="I134" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -7048,10 +7051,10 @@
         <v>427</v>
       </c>
       <c r="E135" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F135" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G135" s="3">
         <v>45307.08791666666</v>
@@ -7060,7 +7063,7 @@
         <v>45315.65327546297</v>
       </c>
       <c r="I135" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -7077,10 +7080,10 @@
         <v>428</v>
       </c>
       <c r="E136" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F136" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G136" s="3">
         <v>45314.49842592593</v>
@@ -7089,7 +7092,7 @@
         <v>45314.67444444444</v>
       </c>
       <c r="I136" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -7106,10 +7109,10 @@
         <v>429</v>
       </c>
       <c r="E137" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F137" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G137" s="3">
         <v>45310.65872685185</v>
@@ -7118,7 +7121,7 @@
         <v>45314.49422453704</v>
       </c>
       <c r="I137" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -7135,10 +7138,10 @@
         <v>430</v>
       </c>
       <c r="E138" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F138" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G138" s="3">
         <v>45312.13112268518</v>
@@ -7147,7 +7150,7 @@
         <v>45315.6537962963</v>
       </c>
       <c r="I138" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -7164,10 +7167,10 @@
         <v>431</v>
       </c>
       <c r="E139" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F139" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G139" s="3">
         <v>45270.59310185185</v>
@@ -7176,7 +7179,7 @@
         <v>45309.07831018518</v>
       </c>
       <c r="I139" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -7193,10 +7196,10 @@
         <v>432</v>
       </c>
       <c r="E140" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F140" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G140" s="3">
         <v>45278.77987268518</v>
@@ -7205,7 +7208,7 @@
         <v>45314.6009837963</v>
       </c>
       <c r="I140" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -7225,7 +7228,7 @@
         <v>590</v>
       </c>
       <c r="F141" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G141" s="3">
         <v>45314.49572916667</v>
@@ -7234,7 +7237,7 @@
         <v>45314.67103009259</v>
       </c>
       <c r="I141" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -7251,16 +7254,16 @@
         <v>434</v>
       </c>
       <c r="E142" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F142" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H142" s="3">
         <v>43999.85027777778</v>
       </c>
       <c r="I142" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -7277,10 +7280,10 @@
         <v>435</v>
       </c>
       <c r="E143" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F143" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G143" s="3">
         <v>45309.54311342593</v>
@@ -7289,7 +7292,7 @@
         <v>45316.16458333333</v>
       </c>
       <c r="I143" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -7306,10 +7309,10 @@
         <v>436</v>
       </c>
       <c r="E144" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F144" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G144" s="3">
         <v>45306.51280092593</v>
@@ -7318,7 +7321,7 @@
         <v>45306.51280092593</v>
       </c>
       <c r="I144" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -7335,10 +7338,10 @@
         <v>437</v>
       </c>
       <c r="E145" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F145" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G145" s="3">
         <v>45314.49275462963</v>
@@ -7347,7 +7350,7 @@
         <v>45315.73717592593</v>
       </c>
       <c r="I145" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -7364,10 +7367,10 @@
         <v>438</v>
       </c>
       <c r="E146" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F146" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G146" s="3">
         <v>45308.77947916667</v>
@@ -7376,7 +7379,7 @@
         <v>45309.07209490741</v>
       </c>
       <c r="I146" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -7393,10 +7396,10 @@
         <v>439</v>
       </c>
       <c r="E147" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F147" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G147" s="3">
         <v>45307.50165509259</v>
@@ -7405,7 +7408,7 @@
         <v>45312.88640046296</v>
       </c>
       <c r="I147" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -7422,10 +7425,10 @@
         <v>440</v>
       </c>
       <c r="E148" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F148" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G148" s="3">
         <v>45294.12988425926</v>
@@ -7434,7 +7437,7 @@
         <v>45314.49341435185</v>
       </c>
       <c r="I148" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -7451,10 +7454,10 @@
         <v>441</v>
       </c>
       <c r="E149" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F149" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G149" s="3">
         <v>45296.33108796296</v>
@@ -7463,7 +7466,7 @@
         <v>45314.51508101852</v>
       </c>
       <c r="I149" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -7480,10 +7483,10 @@
         <v>442</v>
       </c>
       <c r="E150" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F150" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G150" s="3">
         <v>45295.49210648148</v>
@@ -7492,7 +7495,7 @@
         <v>45315.69587962963</v>
       </c>
       <c r="I150" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -7509,10 +7512,10 @@
         <v>443</v>
       </c>
       <c r="E151" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F151" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G151" s="3">
         <v>45314.49277777778</v>
@@ -7521,7 +7524,7 @@
         <v>45315.73741898148</v>
       </c>
       <c r="I151" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -7538,10 +7541,10 @@
         <v>444</v>
       </c>
       <c r="E152" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F152" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G152" s="3">
         <v>45308.74111111111</v>
@@ -7550,7 +7553,7 @@
         <v>45310.69127314815</v>
       </c>
       <c r="I152" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -7567,10 +7570,10 @@
         <v>445</v>
       </c>
       <c r="E153" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F153" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G153" s="3">
         <v>45311.61907407407</v>
@@ -7579,7 +7582,7 @@
         <v>45315.73760416666</v>
       </c>
       <c r="I153" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -7599,7 +7602,7 @@
         <v>594</v>
       </c>
       <c r="F154" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G154" s="3">
         <v>45313.06128472222</v>
@@ -7608,7 +7611,7 @@
         <v>45314.4228125</v>
       </c>
       <c r="I154" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -7625,10 +7628,10 @@
         <v>447</v>
       </c>
       <c r="E155" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F155" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G155" s="3">
         <v>45291.49923611111</v>
@@ -7637,7 +7640,7 @@
         <v>45312.49590277778</v>
       </c>
       <c r="I155" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -7654,10 +7657,10 @@
         <v>448</v>
       </c>
       <c r="E156" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F156" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G156" s="3">
         <v>45302.49706018518</v>
@@ -7666,7 +7669,7 @@
         <v>45315.07060185185</v>
       </c>
       <c r="I156" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -7683,10 +7686,10 @@
         <v>449</v>
       </c>
       <c r="E157" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F157" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G157" s="3">
         <v>45286.49168981481</v>
@@ -7695,7 +7698,7 @@
         <v>45315.73706018519</v>
       </c>
       <c r="I157" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -7712,10 +7715,10 @@
         <v>450</v>
       </c>
       <c r="E158" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F158" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G158" s="3">
         <v>45306.62078703703</v>
@@ -7724,7 +7727,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I158" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -7741,10 +7744,10 @@
         <v>451</v>
       </c>
       <c r="E159" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F159" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G159" s="3">
         <v>45297.49820601852</v>
@@ -7753,7 +7756,7 @@
         <v>45315.73712962963</v>
       </c>
       <c r="I159" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -7770,10 +7773,10 @@
         <v>452</v>
       </c>
       <c r="E160" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F160" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G160" s="3">
         <v>45314.49293981482</v>
@@ -7782,7 +7785,7 @@
         <v>45315.73753472222</v>
       </c>
       <c r="I160" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -7799,10 +7802,10 @@
         <v>453</v>
       </c>
       <c r="E161" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F161" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G161" s="3">
         <v>45302.49929398148</v>
@@ -7811,7 +7814,7 @@
         <v>45314.49518518519</v>
       </c>
       <c r="I161" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -7828,16 +7831,16 @@
         <v>454</v>
       </c>
       <c r="E162" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F162" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H162" s="3">
         <v>45307.36160879629</v>
       </c>
       <c r="I162" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -7854,10 +7857,10 @@
         <v>455</v>
       </c>
       <c r="E163" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F163" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G163" s="3">
         <v>45314.4933912037</v>
@@ -7866,7 +7869,7 @@
         <v>45316.12230324074</v>
       </c>
       <c r="I163" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -7883,10 +7886,10 @@
         <v>456</v>
       </c>
       <c r="E164" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F164" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G164" s="3">
         <v>45307.36724537037</v>
@@ -7895,7 +7898,7 @@
         <v>45316.16459490741</v>
       </c>
       <c r="I164" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -7912,10 +7915,10 @@
         <v>457</v>
       </c>
       <c r="E165" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F165" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G165" s="3">
         <v>45297.31922453704</v>
@@ -7924,7 +7927,7 @@
         <v>45314.49394675926</v>
       </c>
       <c r="I165" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -7941,10 +7944,10 @@
         <v>458</v>
       </c>
       <c r="E166" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F166" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G166" s="3">
         <v>45315.42201388889</v>
@@ -7953,7 +7956,7 @@
         <v>45315.7841550926</v>
       </c>
       <c r="I166" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -7973,7 +7976,7 @@
         <v>594</v>
       </c>
       <c r="F167" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G167" s="3">
         <v>45314.42302083333</v>
@@ -7982,7 +7985,7 @@
         <v>45314.42302083333</v>
       </c>
       <c r="I167" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -7999,10 +8002,10 @@
         <v>460</v>
       </c>
       <c r="E168" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F168" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G168" s="3">
         <v>45314.49530092593</v>
@@ -8011,7 +8014,7 @@
         <v>45315.78174768519</v>
       </c>
       <c r="I168" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -8028,10 +8031,10 @@
         <v>461</v>
       </c>
       <c r="E169" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F169" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G169" s="3">
         <v>45312.49302083333</v>
@@ -8040,7 +8043,7 @@
         <v>45314.49451388889</v>
       </c>
       <c r="I169" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -8057,10 +8060,10 @@
         <v>462</v>
       </c>
       <c r="E170" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F170" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G170" s="3">
         <v>45302.49891203704</v>
@@ -8069,7 +8072,7 @@
         <v>45315.78163194445</v>
       </c>
       <c r="I170" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -8086,10 +8089,10 @@
         <v>463</v>
       </c>
       <c r="E171" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F171" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G171" s="3">
         <v>45314.49350694445</v>
@@ -8098,7 +8101,7 @@
         <v>45315.78178240741</v>
       </c>
       <c r="I171" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -8115,10 +8118,10 @@
         <v>464</v>
       </c>
       <c r="E172" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F172" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G172" s="3">
         <v>44049.84335648148</v>
@@ -8127,7 +8130,7 @@
         <v>44740.15496527778</v>
       </c>
       <c r="I172" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -8147,7 +8150,7 @@
         <v>584</v>
       </c>
       <c r="F173" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G173" s="3">
         <v>45307.49097222222</v>
@@ -8156,7 +8159,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I173" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -8176,7 +8179,7 @@
         <v>594</v>
       </c>
       <c r="F174" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G174" s="3">
         <v>45312.37847222222</v>
@@ -8185,7 +8188,7 @@
         <v>45314.42348379629</v>
       </c>
       <c r="I174" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -8202,10 +8205,10 @@
         <v>467</v>
       </c>
       <c r="E175" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F175" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G175" s="3">
         <v>45312.25097222222</v>
@@ -8214,7 +8217,7 @@
         <v>45315.74335648148</v>
       </c>
       <c r="I175" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -8231,10 +8234,10 @@
         <v>468</v>
       </c>
       <c r="E176" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F176" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G176" s="3">
         <v>45310.90118055556</v>
@@ -8243,7 +8246,7 @@
         <v>45314.49304398148</v>
       </c>
       <c r="I176" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -8260,10 +8263,10 @@
         <v>469</v>
       </c>
       <c r="E177" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F177" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G177" s="3">
         <v>45296.62515046296</v>
@@ -8272,7 +8275,7 @@
         <v>45314.49361111111</v>
       </c>
       <c r="I177" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -8289,10 +8292,10 @@
         <v>470</v>
       </c>
       <c r="E178" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F178" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G178" s="3">
         <v>45311.61869212963</v>
@@ -8301,7 +8304,7 @@
         <v>45315.73645833333</v>
       </c>
       <c r="I178" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -8318,10 +8321,10 @@
         <v>471</v>
       </c>
       <c r="E179" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F179" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G179" s="3">
         <v>45287.159375</v>
@@ -8330,7 +8333,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I179" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -8347,10 +8350,10 @@
         <v>472</v>
       </c>
       <c r="E180" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F180" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G180" s="3">
         <v>45311.68436342593</v>
@@ -8359,7 +8362,7 @@
         <v>45315.75385416667</v>
       </c>
       <c r="I180" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -8376,10 +8379,10 @@
         <v>473</v>
       </c>
       <c r="E181" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F181" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G181" s="3">
         <v>45291.49039351852</v>
@@ -8388,7 +8391,7 @@
         <v>45315.78164351852</v>
       </c>
       <c r="I181" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -8405,10 +8408,10 @@
         <v>474</v>
       </c>
       <c r="E182" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F182" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G182" s="3">
         <v>45308.74193287037</v>
@@ -8417,7 +8420,7 @@
         <v>45315.7467824074</v>
       </c>
       <c r="I182" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -8434,10 +8437,10 @@
         <v>475</v>
       </c>
       <c r="E183" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F183" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G183" s="3">
         <v>45290.68399305556</v>
@@ -8446,7 +8449,7 @@
         <v>45315.76791666666</v>
       </c>
       <c r="I183" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -8463,10 +8466,10 @@
         <v>476</v>
       </c>
       <c r="E184" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F184" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G184" s="3">
         <v>45294.52609953703</v>
@@ -8475,7 +8478,7 @@
         <v>45315.75109953704</v>
       </c>
       <c r="I184" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -8492,10 +8495,10 @@
         <v>477</v>
       </c>
       <c r="E185" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F185" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G185" s="3">
         <v>45305.28581018518</v>
@@ -8504,7 +8507,7 @@
         <v>45315.73657407407</v>
       </c>
       <c r="I185" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -8521,10 +8524,10 @@
         <v>478</v>
       </c>
       <c r="E186" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F186" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G186" s="3">
         <v>45303.07900462963</v>
@@ -8533,7 +8536,7 @@
         <v>45315.78171296296</v>
       </c>
       <c r="I186" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -8550,10 +8553,10 @@
         <v>479</v>
       </c>
       <c r="E187" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F187" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G187" s="3">
         <v>45294.00594907408</v>
@@ -8562,7 +8565,7 @@
         <v>45315.60971064815</v>
       </c>
       <c r="I187" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -8579,10 +8582,10 @@
         <v>480</v>
       </c>
       <c r="E188" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F188" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G188" s="3">
         <v>45291.6212037037</v>
@@ -8591,7 +8594,7 @@
         <v>45315.76299768518</v>
       </c>
       <c r="I188" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -8608,10 +8611,10 @@
         <v>481</v>
       </c>
       <c r="E189" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F189" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G189" s="3">
         <v>45291.62125</v>
@@ -8620,7 +8623,7 @@
         <v>45315.73672453704</v>
       </c>
       <c r="I189" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -8637,10 +8640,10 @@
         <v>482</v>
       </c>
       <c r="E190" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F190" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G190" s="3">
         <v>45291.49121527778</v>
@@ -8649,7 +8652,7 @@
         <v>45315.73679398148</v>
       </c>
       <c r="I190" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -8669,7 +8672,7 @@
         <v>584</v>
       </c>
       <c r="F191" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G191" s="3">
         <v>45305.45537037037</v>
@@ -8678,7 +8681,7 @@
         <v>45315.78153935185</v>
       </c>
       <c r="I191" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -8695,10 +8698,10 @@
         <v>484</v>
       </c>
       <c r="E192" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F192" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G192" s="3">
         <v>45312.66900462963</v>
@@ -8707,7 +8710,7 @@
         <v>45315.78197916667</v>
       </c>
       <c r="I192" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -8724,10 +8727,10 @@
         <v>485</v>
       </c>
       <c r="E193" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F193" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G193" s="3">
         <v>45283.15128472223</v>
@@ -8736,7 +8739,7 @@
         <v>45315.73756944444</v>
       </c>
       <c r="I193" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -8753,10 +8756,10 @@
         <v>486</v>
       </c>
       <c r="E194" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F194" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G194" s="3">
         <v>45290.15359953704</v>
@@ -8765,7 +8768,7 @@
         <v>45315.81050925926</v>
       </c>
       <c r="I194" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -8782,10 +8785,10 @@
         <v>487</v>
       </c>
       <c r="E195" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F195" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G195" s="3">
         <v>45288.77761574074</v>
@@ -8794,7 +8797,7 @@
         <v>45315.8109837963</v>
       </c>
       <c r="I195" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -8811,10 +8814,10 @@
         <v>488</v>
       </c>
       <c r="E196" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F196" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G196" s="3">
         <v>45283.5427199074</v>
@@ -8823,7 +8826,7 @@
         <v>45315.81034722222</v>
       </c>
       <c r="I196" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -8840,10 +8843,10 @@
         <v>489</v>
       </c>
       <c r="E197" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F197" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G197" s="3">
         <v>45290.06099537037</v>
@@ -8852,7 +8855,7 @@
         <v>45315.78223379629</v>
       </c>
       <c r="I197" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -8869,10 +8872,10 @@
         <v>490</v>
       </c>
       <c r="E198" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F198" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G198" s="3">
         <v>45285.78746527778</v>
@@ -8881,7 +8884,7 @@
         <v>45315.81327546296</v>
       </c>
       <c r="I198" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -8898,10 +8901,10 @@
         <v>491</v>
       </c>
       <c r="E199" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F199" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G199" s="3">
         <v>45300.70331018518</v>
@@ -8910,7 +8913,7 @@
         <v>45315.78243055556</v>
       </c>
       <c r="I199" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -8927,10 +8930,10 @@
         <v>492</v>
       </c>
       <c r="E200" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F200" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G200" s="3">
         <v>45313.4215625</v>
@@ -8939,7 +8942,7 @@
         <v>45314.19313657407</v>
       </c>
       <c r="I200" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -8959,7 +8962,7 @@
         <v>586</v>
       </c>
       <c r="F201" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G201" s="3">
         <v>45313.10177083333</v>
@@ -8968,7 +8971,7 @@
         <v>45315.19548611111</v>
       </c>
       <c r="I201" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -8985,10 +8988,10 @@
         <v>494</v>
       </c>
       <c r="E202" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F202" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G202" s="3">
         <v>45313.56241898148</v>
@@ -8997,7 +9000,7 @@
         <v>45315.73755787037</v>
       </c>
       <c r="I202" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -9014,10 +9017,10 @@
         <v>495</v>
       </c>
       <c r="E203" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F203" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G203" s="3">
         <v>45287.49016203704</v>
@@ -9026,7 +9029,7 @@
         <v>45315.81586805556</v>
       </c>
       <c r="I203" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -9043,10 +9046,10 @@
         <v>496</v>
       </c>
       <c r="E204" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F204" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G204" s="3">
         <v>45294.11623842592</v>
@@ -9055,7 +9058,7 @@
         <v>45315.81109953704</v>
       </c>
       <c r="I204" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -9072,10 +9075,10 @@
         <v>497</v>
       </c>
       <c r="E205" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F205" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G205" s="3">
         <v>45281.61627314815</v>
@@ -9084,7 +9087,7 @@
         <v>45315.73660879629</v>
       </c>
       <c r="I205" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -9104,7 +9107,7 @@
         <v>584</v>
       </c>
       <c r="F206" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G206" s="3">
         <v>45310.31782407407</v>
@@ -9113,7 +9116,7 @@
         <v>45315.82373842593</v>
       </c>
       <c r="I206" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -9130,10 +9133,10 @@
         <v>499</v>
       </c>
       <c r="E207" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F207" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G207" s="3">
         <v>45292.86751157408</v>
@@ -9142,7 +9145,7 @@
         <v>45315.81833333334</v>
       </c>
       <c r="I207" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -9159,10 +9162,10 @@
         <v>500</v>
       </c>
       <c r="E208" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F208" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G208" s="3">
         <v>45297.78877314815</v>
@@ -9171,7 +9174,7 @@
         <v>45315.82362268519</v>
       </c>
       <c r="I208" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -9188,10 +9191,10 @@
         <v>501</v>
       </c>
       <c r="E209" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F209" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G209" s="3">
         <v>45291.49200231482</v>
@@ -9200,7 +9203,7 @@
         <v>45315.81275462963</v>
       </c>
       <c r="I209" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -9217,10 +9220,10 @@
         <v>502</v>
       </c>
       <c r="E210" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F210" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G210" s="3">
         <v>45314.77236111111</v>
@@ -9229,7 +9232,7 @@
         <v>45315.81111111111</v>
       </c>
       <c r="I210" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -9246,10 +9249,10 @@
         <v>503</v>
       </c>
       <c r="E211" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F211" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G211" s="3">
         <v>45306.94767361111</v>
@@ -9258,7 +9261,7 @@
         <v>45315.81850694444</v>
       </c>
       <c r="I211" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -9275,10 +9278,10 @@
         <v>504</v>
       </c>
       <c r="E212" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F212" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G212" s="3">
         <v>45315.48592592592</v>
@@ -9287,7 +9290,7 @@
         <v>45315.82550925926</v>
       </c>
       <c r="I212" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -9304,10 +9307,10 @@
         <v>505</v>
       </c>
       <c r="E213" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F213" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G213" s="3">
         <v>45278.21140046296</v>
@@ -9316,7 +9319,7 @@
         <v>45315.78211805555</v>
       </c>
       <c r="I213" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -9333,10 +9336,10 @@
         <v>506</v>
       </c>
       <c r="E214" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F214" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G214" s="3">
         <v>45296.58950231481</v>
@@ -9345,7 +9348,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I214" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -9362,10 +9365,10 @@
         <v>507</v>
       </c>
       <c r="E215" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F215" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G215" s="3">
         <v>45308.74321759259</v>
@@ -9374,7 +9377,7 @@
         <v>45315.82768518518</v>
       </c>
       <c r="I215" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -9391,10 +9394,10 @@
         <v>508</v>
       </c>
       <c r="E216" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F216" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G216" s="3">
         <v>45291.49114583333</v>
@@ -9403,7 +9406,7 @@
         <v>45315.82378472222</v>
       </c>
       <c r="I216" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -9420,10 +9423,10 @@
         <v>509</v>
       </c>
       <c r="E217" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F217" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G217" s="3">
         <v>45308.16465277778</v>
@@ -9432,7 +9435,7 @@
         <v>45315.82369212963</v>
       </c>
       <c r="I217" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -9449,10 +9452,10 @@
         <v>510</v>
       </c>
       <c r="E218" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F218" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G218" s="3">
         <v>45296.21802083333</v>
@@ -9461,7 +9464,7 @@
         <v>45315.82553240741</v>
       </c>
       <c r="I218" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -9481,7 +9484,7 @@
         <v>589</v>
       </c>
       <c r="F219" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G219" s="3">
         <v>45307.36931712963</v>
@@ -9490,7 +9493,7 @@
         <v>45315.78234953704</v>
       </c>
       <c r="I219" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -9507,10 +9510,10 @@
         <v>512</v>
       </c>
       <c r="E220" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F220" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G220" s="3">
         <v>45313.02901620371</v>
@@ -9519,7 +9522,7 @@
         <v>45315.78185185185</v>
       </c>
       <c r="I220" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -9536,10 +9539,10 @@
         <v>513</v>
       </c>
       <c r="E221" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F221" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G221" s="3">
         <v>45284.49082175926</v>
@@ -9548,7 +9551,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I221" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -9565,10 +9568,10 @@
         <v>514</v>
       </c>
       <c r="E222" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F222" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G222" s="3">
         <v>45290.06063657408</v>
@@ -9577,7 +9580,7 @@
         <v>45315.81575231482</v>
       </c>
       <c r="I222" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -9594,10 +9597,10 @@
         <v>515</v>
       </c>
       <c r="E223" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F223" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G223" s="3">
         <v>45292.49101851852</v>
@@ -9606,7 +9609,7 @@
         <v>45315.81292824074</v>
       </c>
       <c r="I223" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -9623,10 +9626,10 @@
         <v>516</v>
       </c>
       <c r="E224" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F224" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G224" s="3">
         <v>45291.34520833333</v>
@@ -9635,7 +9638,7 @@
         <v>45315.82354166666</v>
       </c>
       <c r="I224" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -9652,10 +9655,10 @@
         <v>517</v>
       </c>
       <c r="E225" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F225" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G225" s="3">
         <v>45314.42053240741</v>
@@ -9664,7 +9667,7 @@
         <v>45315.81092592593</v>
       </c>
       <c r="I225" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -9681,10 +9684,10 @@
         <v>518</v>
       </c>
       <c r="E226" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F226" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G226" s="3">
         <v>45291.49119212963</v>
@@ -9693,7 +9696,7 @@
         <v>45314.49342592592</v>
       </c>
       <c r="I226" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -9710,10 +9713,10 @@
         <v>519</v>
       </c>
       <c r="E227" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F227" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G227" s="3">
         <v>45306.91820601852</v>
@@ -9722,7 +9725,7 @@
         <v>45315.82215277778</v>
       </c>
       <c r="I227" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -9739,10 +9742,10 @@
         <v>520</v>
       </c>
       <c r="E228" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F228" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G228" s="3">
         <v>45286.62017361111</v>
@@ -9751,7 +9754,7 @@
         <v>45315.78180555555</v>
       </c>
       <c r="I228" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -9768,10 +9771,10 @@
         <v>521</v>
       </c>
       <c r="E229" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F229" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G229" s="3">
         <v>45308.74159722222</v>
@@ -9780,7 +9783,7 @@
         <v>45315.82368055556</v>
       </c>
       <c r="I229" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -9797,10 +9800,10 @@
         <v>522</v>
       </c>
       <c r="E230" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F230" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G230" s="3">
         <v>45283.53591435185</v>
@@ -9809,7 +9812,7 @@
         <v>45315.82388888889</v>
       </c>
       <c r="I230" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -9826,10 +9829,10 @@
         <v>523</v>
       </c>
       <c r="E231" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F231" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G231" s="3">
         <v>45279.15613425926</v>
@@ -9838,7 +9841,7 @@
         <v>45310.69137731481</v>
       </c>
       <c r="I231" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -9855,10 +9858,10 @@
         <v>524</v>
       </c>
       <c r="E232" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F232" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G232" s="3">
         <v>45302.49265046296</v>
@@ -9867,7 +9870,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I232" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -9884,10 +9887,10 @@
         <v>525</v>
       </c>
       <c r="E233" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F233" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G233" s="3">
         <v>45286.49104166667</v>
@@ -9896,7 +9899,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I233" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -9913,10 +9916,10 @@
         <v>526</v>
       </c>
       <c r="E234" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F234" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G234" s="3">
         <v>45313.42326388889</v>
@@ -9925,7 +9928,7 @@
         <v>45314.18550925926</v>
       </c>
       <c r="I234" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -9942,10 +9945,10 @@
         <v>527</v>
       </c>
       <c r="E235" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F235" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G235" s="3">
         <v>44288.33525462963</v>
@@ -9954,7 +9957,7 @@
         <v>44288.33525462963</v>
       </c>
       <c r="I235" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -9971,10 +9974,10 @@
         <v>528</v>
       </c>
       <c r="E236" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F236" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G236" s="3">
         <v>45287.22329861111</v>
@@ -9983,7 +9986,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I236" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -10000,10 +10003,10 @@
         <v>529</v>
       </c>
       <c r="E237" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F237" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G237" s="3">
         <v>45311.90133101852</v>
@@ -10012,7 +10015,7 @@
         <v>45315.82358796296</v>
       </c>
       <c r="I237" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -10032,7 +10035,7 @@
         <v>584</v>
       </c>
       <c r="F238" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G238" s="3">
         <v>45298.44405092593</v>
@@ -10041,7 +10044,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I238" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -10058,10 +10061,10 @@
         <v>531</v>
       </c>
       <c r="E239" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F239" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G239" s="3">
         <v>45297.01849537037</v>
@@ -10070,7 +10073,7 @@
         <v>45314.90065972223</v>
       </c>
       <c r="I239" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -10087,10 +10090,10 @@
         <v>532</v>
       </c>
       <c r="E240" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F240" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G240" s="3">
         <v>45280.57440972222</v>
@@ -10099,7 +10102,7 @@
         <v>45309.03163194445</v>
       </c>
       <c r="I240" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -10119,7 +10122,7 @@
         <v>592</v>
       </c>
       <c r="F241" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G241" s="3">
         <v>45314.42252314815</v>
@@ -10128,7 +10131,7 @@
         <v>45315.82351851852</v>
       </c>
       <c r="I241" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -10145,10 +10148,10 @@
         <v>534</v>
       </c>
       <c r="E242" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F242" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G242" s="3">
         <v>45301.61993055556</v>
@@ -10157,7 +10160,7 @@
         <v>45314.018125</v>
       </c>
       <c r="I242" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -10174,10 +10177,10 @@
         <v>535</v>
       </c>
       <c r="E243" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F243" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G243" s="3">
         <v>45312.49469907407</v>
@@ -10186,7 +10189,7 @@
         <v>45315.78165509259</v>
       </c>
       <c r="I243" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -10203,10 +10206,10 @@
         <v>536</v>
       </c>
       <c r="E244" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F244" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G244" s="3">
         <v>45295.49803240741</v>
@@ -10215,7 +10218,7 @@
         <v>45315.8234837963</v>
       </c>
       <c r="I244" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -10232,10 +10235,10 @@
         <v>537</v>
       </c>
       <c r="E245" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F245" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G245" s="3">
         <v>45313.05956018518</v>
@@ -10244,7 +10247,7 @@
         <v>45315.82376157407</v>
       </c>
       <c r="I245" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -10261,10 +10264,10 @@
         <v>538</v>
       </c>
       <c r="E246" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F246" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G246" s="3">
         <v>45298.49199074074</v>
@@ -10273,7 +10276,7 @@
         <v>45315.82392361111</v>
       </c>
       <c r="I246" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -10290,10 +10293,10 @@
         <v>539</v>
       </c>
       <c r="E247" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F247" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G247" s="3">
         <v>45286.6203587963</v>
@@ -10302,7 +10305,7 @@
         <v>45315.82366898148</v>
       </c>
       <c r="I247" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -10319,10 +10322,10 @@
         <v>540</v>
       </c>
       <c r="E248" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F248" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G248" s="3">
         <v>45311.61991898148</v>
@@ -10331,7 +10334,7 @@
         <v>45315.02909722222</v>
       </c>
       <c r="I248" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -10348,10 +10351,10 @@
         <v>541</v>
       </c>
       <c r="E249" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F249" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G249" s="3">
         <v>45306.75461805556</v>
@@ -10360,7 +10363,7 @@
         <v>45315.04524305555</v>
       </c>
       <c r="I249" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -10380,7 +10383,7 @@
         <v>587</v>
       </c>
       <c r="F250" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G250" s="3">
         <v>45292.49578703703</v>
@@ -10389,7 +10392,7 @@
         <v>45315.4852662037</v>
       </c>
       <c r="I250" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -10406,10 +10409,10 @@
         <v>543</v>
       </c>
       <c r="E251" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F251" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G251" s="3">
         <v>45308.60100694445</v>
@@ -10418,7 +10421,7 @@
         <v>45314.49393518519</v>
       </c>
       <c r="I251" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -10435,10 +10438,10 @@
         <v>544</v>
       </c>
       <c r="E252" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F252" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G252" s="3">
         <v>45289.35146990741</v>
@@ -10447,7 +10450,7 @@
         <v>45314.49217592592</v>
       </c>
       <c r="I252" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -10464,10 +10467,10 @@
         <v>545</v>
       </c>
       <c r="E253" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F253" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G253" s="3">
         <v>45307.49243055555</v>
@@ -10476,7 +10479,7 @@
         <v>45314.49329861111</v>
       </c>
       <c r="I253" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -10493,10 +10496,10 @@
         <v>546</v>
       </c>
       <c r="E254" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F254" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G254" s="3">
         <v>45313.42297453704</v>
@@ -10505,7 +10508,7 @@
         <v>45313.42299768519</v>
       </c>
       <c r="I254" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -10522,10 +10525,10 @@
         <v>547</v>
       </c>
       <c r="E255" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F255" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G255" s="3">
         <v>45291.49054398148</v>
@@ -10534,7 +10537,7 @@
         <v>45314.94496527778</v>
       </c>
       <c r="I255" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -10551,10 +10554,10 @@
         <v>548</v>
       </c>
       <c r="E256" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F256" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G256" s="3">
         <v>45292.15671296296</v>
@@ -10563,7 +10566,7 @@
         <v>45312.75942129629</v>
       </c>
       <c r="I256" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -10580,10 +10583,10 @@
         <v>549</v>
       </c>
       <c r="E257" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F257" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G257" s="3">
         <v>45287.83861111111</v>
@@ -10592,7 +10595,7 @@
         <v>45316.03899305555</v>
       </c>
       <c r="I257" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -10609,10 +10612,10 @@
         <v>550</v>
       </c>
       <c r="E258" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F258" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G258" s="3">
         <v>45293.04358796297</v>
@@ -10621,7 +10624,7 @@
         <v>45315.8656712963</v>
       </c>
       <c r="I258" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -10638,10 +10641,10 @@
         <v>551</v>
       </c>
       <c r="E259" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F259" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G259" s="3">
         <v>45307.49564814815</v>
@@ -10650,7 +10653,7 @@
         <v>45315.9937037037</v>
       </c>
       <c r="I259" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -10670,7 +10673,7 @@
         <v>584</v>
       </c>
       <c r="F260" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G260" s="3">
         <v>45314.90094907407</v>
@@ -10679,7 +10682,7 @@
         <v>45315.89604166667</v>
       </c>
       <c r="I260" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -10696,10 +10699,10 @@
         <v>553</v>
       </c>
       <c r="E261" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F261" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G261" s="3">
         <v>45294.84780092593</v>
@@ -10708,7 +10711,7 @@
         <v>45316.03907407408</v>
       </c>
       <c r="I261" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -10725,10 +10728,10 @@
         <v>554</v>
       </c>
       <c r="E262" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F262" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G262" s="3">
         <v>45296.61121527778</v>
@@ -10737,7 +10740,7 @@
         <v>45316.03895833333</v>
       </c>
       <c r="I262" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -10754,10 +10757,10 @@
         <v>555</v>
       </c>
       <c r="E263" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F263" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G263" s="3">
         <v>45311.62060185185</v>
@@ -10766,7 +10769,7 @@
         <v>45316.03954861111</v>
       </c>
       <c r="I263" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -10783,10 +10786,10 @@
         <v>556</v>
       </c>
       <c r="E264" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F264" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G264" s="3">
         <v>45301.61861111111</v>
@@ -10795,7 +10798,7 @@
         <v>45316.08056712963</v>
       </c>
       <c r="I264" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -10812,10 +10815,10 @@
         <v>557</v>
       </c>
       <c r="E265" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F265" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G265" s="3">
         <v>45286.49385416666</v>
@@ -10824,7 +10827,7 @@
         <v>45316.03959490741</v>
       </c>
       <c r="I265" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -10841,10 +10844,10 @@
         <v>558</v>
       </c>
       <c r="E266" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F266" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G266" s="3">
         <v>45311.71087962963</v>
@@ -10853,7 +10856,7 @@
         <v>45314.67140046296</v>
       </c>
       <c r="I266" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -10870,10 +10873,10 @@
         <v>559</v>
       </c>
       <c r="E267" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F267" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G267" s="3">
         <v>45288.63045138889</v>
@@ -10882,7 +10885,7 @@
         <v>45316.03887731482</v>
       </c>
       <c r="I267" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -10899,10 +10902,10 @@
         <v>560</v>
       </c>
       <c r="E268" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F268" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G268" s="3">
         <v>45280.82067129629</v>
@@ -10911,7 +10914,7 @@
         <v>45316.03997685185</v>
       </c>
       <c r="I268" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -10928,10 +10931,10 @@
         <v>561</v>
       </c>
       <c r="E269" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F269" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G269" s="3">
         <v>45296.62119212963</v>
@@ -10940,7 +10943,7 @@
         <v>45316.08042824074</v>
       </c>
       <c r="I269" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -10960,7 +10963,7 @@
         <v>584</v>
       </c>
       <c r="F270" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G270" s="3">
         <v>45300.48923611111</v>
@@ -10969,7 +10972,7 @@
         <v>45316.08054398148</v>
       </c>
       <c r="I270" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -10986,10 +10989,10 @@
         <v>563</v>
       </c>
       <c r="E271" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F271" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G271" s="3">
         <v>45314.49359953704</v>
@@ -10998,7 +11001,7 @@
         <v>45314.66849537037</v>
       </c>
       <c r="I271" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -11015,10 +11018,10 @@
         <v>564</v>
       </c>
       <c r="E272" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F272" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G272" s="3">
         <v>45312.50121527778</v>
@@ -11027,7 +11030,7 @@
         <v>45312.67422453704</v>
       </c>
       <c r="I272" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -11044,10 +11047,10 @@
         <v>565</v>
       </c>
       <c r="E273" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F273" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G273" s="3">
         <v>45261.49545138889</v>
@@ -11056,7 +11059,7 @@
         <v>45309.04300925926</v>
       </c>
       <c r="I273" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -11073,10 +11076,10 @@
         <v>566</v>
       </c>
       <c r="E274" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F274" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G274" s="3">
         <v>45291.49003472222</v>
@@ -11085,7 +11088,7 @@
         <v>45316.08077546296</v>
       </c>
       <c r="I274" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -11102,10 +11105,10 @@
         <v>567</v>
       </c>
       <c r="E275" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F275" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G275" s="3">
         <v>45280.21361111111</v>
@@ -11114,7 +11117,7 @@
         <v>45309.04177083333</v>
       </c>
       <c r="I275" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -11131,10 +11134,10 @@
         <v>568</v>
       </c>
       <c r="E276" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F276" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G276" s="3">
         <v>45314.56188657408</v>
@@ -11143,7 +11146,7 @@
         <v>45315.48497685185</v>
       </c>
       <c r="I276" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -11160,10 +11163,10 @@
         <v>569</v>
       </c>
       <c r="E277" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F277" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G277" s="3">
         <v>45302.49186342592</v>
@@ -11172,7 +11175,7 @@
         <v>45316.08069444444</v>
       </c>
       <c r="I277" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -11189,10 +11192,10 @@
         <v>570</v>
       </c>
       <c r="E278" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F278" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G278" s="3">
         <v>45291.5000462963</v>
@@ -11201,7 +11204,7 @@
         <v>45314.49376157407</v>
       </c>
       <c r="I278" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -11218,10 +11221,10 @@
         <v>571</v>
       </c>
       <c r="E279" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F279" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G279" s="3">
         <v>45291.49392361111</v>
@@ -11230,7 +11233,7 @@
         <v>45314.49452546296</v>
       </c>
       <c r="I279" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -11247,10 +11250,10 @@
         <v>572</v>
       </c>
       <c r="E280" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F280" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G280" s="3">
         <v>45312.49576388889</v>
@@ -11259,7 +11262,7 @@
         <v>45316.03846064815</v>
       </c>
       <c r="I280" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -11276,10 +11279,10 @@
         <v>573</v>
       </c>
       <c r="E281" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F281" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G281" s="3">
         <v>45312.98068287037</v>
@@ -11288,7 +11291,7 @@
         <v>45316.08041666666</v>
       </c>
       <c r="I281" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -11305,10 +11308,10 @@
         <v>574</v>
       </c>
       <c r="E282" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F282" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G282" s="3">
         <v>45314.49623842593</v>
@@ -11317,7 +11320,7 @@
         <v>45316.08075231482</v>
       </c>
       <c r="I282" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -11334,10 +11337,10 @@
         <v>575</v>
       </c>
       <c r="E283" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F283" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G283" s="3">
         <v>45313.14449074074</v>
@@ -11346,7 +11349,7 @@
         <v>45316.08082175926</v>
       </c>
       <c r="I283" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -11363,10 +11366,10 @@
         <v>576</v>
       </c>
       <c r="E284" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F284" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G284" s="3">
         <v>45312.50119212963</v>
@@ -11375,7 +11378,7 @@
         <v>45316.08556712963</v>
       </c>
       <c r="I284" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -1765,7 +1765,7 @@
     <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 22, 'timeout': 0}</t>
   </si>
   <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
   </si>
   <si>
     <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
@@ -3435,10 +3435,10 @@
         <v>721</v>
       </c>
       <c r="G10" s="3">
-        <v>45298.49690972222</v>
+        <v>45329.50237268519</v>
       </c>
       <c r="H10" s="3">
-        <v>45314.49306712963</v>
+        <v>45341.04172453703</v>
       </c>
       <c r="I10" t="s">
         <v>775</v>

--- a/1.xlsx
+++ b/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="921">
   <si>
     <t>Sno</t>
   </si>
@@ -1768,37 +1768,40 @@
     <t>{'harmless': 57, 'malicious': 12, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
   </si>
   <si>
+    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 52, 'malicious': 14, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 0, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
     <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 52, 'malicious': 14, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 0, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
   </si>
   <si>
     <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
@@ -3200,7 +3203,7 @@
         <v>577</v>
       </c>
       <c r="F2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G2" s="3">
         <v>45311.61894675926</v>
@@ -3209,7 +3212,7 @@
         <v>45341.32113425926</v>
       </c>
       <c r="I2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3229,7 +3232,7 @@
         <v>578</v>
       </c>
       <c r="F3" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G3" s="3">
         <v>45328.50989583333</v>
@@ -3238,7 +3241,7 @@
         <v>45341.27945601852</v>
       </c>
       <c r="I3" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3258,7 +3261,7 @@
         <v>578</v>
       </c>
       <c r="F4" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G4" s="3">
         <v>45306.97109953704</v>
@@ -3267,7 +3270,7 @@
         <v>45341.06746527777</v>
       </c>
       <c r="I4" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3287,7 +3290,7 @@
         <v>578</v>
       </c>
       <c r="F5" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G5" s="3">
         <v>45328.57457175926</v>
@@ -3296,7 +3299,7 @@
         <v>45341.27858796297</v>
       </c>
       <c r="I5" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3316,7 +3319,7 @@
         <v>579</v>
       </c>
       <c r="F6" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G6" s="3">
         <v>45337.51012731482</v>
@@ -3325,7 +3328,7 @@
         <v>45341.27866898148</v>
       </c>
       <c r="I6" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3345,7 +3348,7 @@
         <v>580</v>
       </c>
       <c r="F7" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G7" s="3">
         <v>45329.3558912037</v>
@@ -3354,7 +3357,7 @@
         <v>45341.32061342592</v>
       </c>
       <c r="I7" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3374,7 +3377,7 @@
         <v>581</v>
       </c>
       <c r="F8" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G8" s="3">
         <v>45337.50997685185</v>
@@ -3383,7 +3386,7 @@
         <v>45341.10480324074</v>
       </c>
       <c r="I8" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3403,7 +3406,7 @@
         <v>582</v>
       </c>
       <c r="F9" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G9" s="3">
         <v>45308.21690972222</v>
@@ -3412,7 +3415,7 @@
         <v>45341.10543981481</v>
       </c>
       <c r="I9" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3432,7 +3435,7 @@
         <v>583</v>
       </c>
       <c r="F10" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G10" s="3">
         <v>45329.50237268519</v>
@@ -3441,7 +3444,7 @@
         <v>45341.04172453703</v>
       </c>
       <c r="I10" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3461,16 +3464,16 @@
         <v>584</v>
       </c>
       <c r="F11" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G11" s="3">
-        <v>45282.7141087963</v>
+        <v>45316.49925925926</v>
       </c>
       <c r="H11" s="3">
-        <v>45311.61704861111</v>
+        <v>45341.10148148148</v>
       </c>
       <c r="I11" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3490,7 +3493,7 @@
         <v>585</v>
       </c>
       <c r="F12" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G12" s="3">
         <v>45298.49170138889</v>
@@ -3499,7 +3502,7 @@
         <v>45316.37927083333</v>
       </c>
       <c r="I12" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3519,7 +3522,7 @@
         <v>586</v>
       </c>
       <c r="F13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G13" s="3">
         <v>45280.79738425926</v>
@@ -3528,7 +3531,7 @@
         <v>45309.10356481482</v>
       </c>
       <c r="I13" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3548,7 +3551,7 @@
         <v>587</v>
       </c>
       <c r="F14" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G14" s="3">
         <v>45298.49263888889</v>
@@ -3557,7 +3560,7 @@
         <v>45316.37927083333</v>
       </c>
       <c r="I14" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3577,7 +3580,7 @@
         <v>588</v>
       </c>
       <c r="F15" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G15" s="3">
         <v>45310.43427083334</v>
@@ -3586,7 +3589,7 @@
         <v>45316.36269675926</v>
       </c>
       <c r="I15" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3606,7 +3609,7 @@
         <v>589</v>
       </c>
       <c r="F16" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G16" s="3">
         <v>45311.33236111111</v>
@@ -3615,7 +3618,7 @@
         <v>45314.49320601852</v>
       </c>
       <c r="I16" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3635,7 +3638,7 @@
         <v>590</v>
       </c>
       <c r="F17" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G17" s="3">
         <v>45301.30826388889</v>
@@ -3644,7 +3647,7 @@
         <v>45316.37930555556</v>
       </c>
       <c r="I17" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3664,7 +3667,7 @@
         <v>591</v>
       </c>
       <c r="F18" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G18" s="3">
         <v>45306.18137731482</v>
@@ -3673,7 +3676,7 @@
         <v>45316.42100694445</v>
       </c>
       <c r="I18" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3693,7 +3696,7 @@
         <v>592</v>
       </c>
       <c r="F19" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G19" s="3">
         <v>45288.23121527778</v>
@@ -3702,7 +3705,7 @@
         <v>45302.48868055556</v>
       </c>
       <c r="I19" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3722,7 +3725,7 @@
         <v>593</v>
       </c>
       <c r="F20" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G20" s="3">
         <v>45307.52993055555</v>
@@ -3731,7 +3734,7 @@
         <v>45314.19462962963</v>
       </c>
       <c r="I20" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3751,7 +3754,7 @@
         <v>594</v>
       </c>
       <c r="F21" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G21" s="3">
         <v>45314.42365740741</v>
@@ -3760,7 +3763,7 @@
         <v>45314.42368055556</v>
       </c>
       <c r="I21" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3777,10 +3780,10 @@
         <v>314</v>
       </c>
       <c r="E22" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="F22" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G22" s="3">
         <v>45305.57067129629</v>
@@ -3789,7 +3792,7 @@
         <v>45316.42155092592</v>
       </c>
       <c r="I22" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3806,10 +3809,10 @@
         <v>315</v>
       </c>
       <c r="E23" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F23" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G23" s="3">
         <v>45291.49997685185</v>
@@ -3818,7 +3821,7 @@
         <v>45314.49226851852</v>
       </c>
       <c r="I23" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3835,10 +3838,10 @@
         <v>316</v>
       </c>
       <c r="E24" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F24" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G24" s="3">
         <v>45309.80174768518</v>
@@ -3847,7 +3850,7 @@
         <v>45315.85729166667</v>
       </c>
       <c r="I24" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3867,7 +3870,7 @@
         <v>586</v>
       </c>
       <c r="F25" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G25" s="3">
         <v>45299.43368055556</v>
@@ -3876,7 +3879,7 @@
         <v>45316.37909722222</v>
       </c>
       <c r="I25" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3893,10 +3896,10 @@
         <v>318</v>
       </c>
       <c r="E26" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F26" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G26" s="3">
         <v>45314.17763888889</v>
@@ -3905,7 +3908,7 @@
         <v>45316.08064814815</v>
       </c>
       <c r="I26" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3922,10 +3925,10 @@
         <v>319</v>
       </c>
       <c r="E27" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F27" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G27" s="3">
         <v>45291.49208333333</v>
@@ -3934,7 +3937,7 @@
         <v>45316.34907407407</v>
       </c>
       <c r="I27" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3951,10 +3954,10 @@
         <v>320</v>
       </c>
       <c r="E28" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F28" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G28" s="3">
         <v>45289.73149305556</v>
@@ -3963,7 +3966,7 @@
         <v>45316.37931712963</v>
       </c>
       <c r="I28" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3980,10 +3983,10 @@
         <v>321</v>
       </c>
       <c r="E29" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F29" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G29" s="3">
         <v>45312.4952662037</v>
@@ -3992,7 +3995,7 @@
         <v>45315.52618055556</v>
       </c>
       <c r="I29" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4009,10 +4012,10 @@
         <v>322</v>
       </c>
       <c r="E30" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F30" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G30" s="3">
         <v>45307.49253472222</v>
@@ -4021,7 +4024,7 @@
         <v>45316.3793287037</v>
       </c>
       <c r="I30" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4038,10 +4041,10 @@
         <v>323</v>
       </c>
       <c r="E31" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F31" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G31" s="3">
         <v>45311.71104166667</v>
@@ -4050,7 +4053,7 @@
         <v>45316.37922453704</v>
       </c>
       <c r="I31" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4067,10 +4070,10 @@
         <v>324</v>
       </c>
       <c r="E32" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F32" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G32" s="3">
         <v>45312.34644675926</v>
@@ -4079,7 +4082,7 @@
         <v>45316.37908564815</v>
       </c>
       <c r="I32" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4096,10 +4099,10 @@
         <v>325</v>
       </c>
       <c r="E33" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F33" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G33" s="3">
         <v>44163.34006944444</v>
@@ -4108,7 +4111,7 @@
         <v>44163.34006944444</v>
       </c>
       <c r="I33" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4128,7 +4131,7 @@
         <v>591</v>
       </c>
       <c r="F34" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G34" s="3">
         <v>45286.80534722222</v>
@@ -4137,7 +4140,7 @@
         <v>45316.37934027778</v>
       </c>
       <c r="I34" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4154,10 +4157,10 @@
         <v>327</v>
       </c>
       <c r="E35" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F35" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G35" s="3">
         <v>45302.49230324074</v>
@@ -4166,7 +4169,7 @@
         <v>45314.98761574074</v>
       </c>
       <c r="I35" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4183,10 +4186,10 @@
         <v>328</v>
       </c>
       <c r="E36" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F36" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G36" s="3">
         <v>45302.49503472223</v>
@@ -4195,7 +4198,7 @@
         <v>45315.48547453704</v>
       </c>
       <c r="I36" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4212,10 +4215,10 @@
         <v>329</v>
       </c>
       <c r="E37" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F37" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G37" s="3">
         <v>45311.61938657407</v>
@@ -4224,7 +4227,7 @@
         <v>45316.42167824074</v>
       </c>
       <c r="I37" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4241,10 +4244,10 @@
         <v>330</v>
       </c>
       <c r="E38" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F38" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G38" s="3">
         <v>45297.0796412037</v>
@@ -4253,7 +4256,7 @@
         <v>45316.49811342593</v>
       </c>
       <c r="I38" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4270,10 +4273,10 @@
         <v>331</v>
       </c>
       <c r="E39" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F39" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G39" s="3">
         <v>45290.31696759259</v>
@@ -4282,7 +4285,7 @@
         <v>45316.49866898148</v>
       </c>
       <c r="I39" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4299,10 +4302,10 @@
         <v>332</v>
       </c>
       <c r="E40" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F40" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G40" s="3">
         <v>45313.59486111111</v>
@@ -4311,7 +4314,7 @@
         <v>45316.49662037037</v>
       </c>
       <c r="I40" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4328,10 +4331,10 @@
         <v>333</v>
       </c>
       <c r="E41" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F41" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G41" s="3">
         <v>45295.49177083333</v>
@@ -4340,7 +4343,7 @@
         <v>45316.49807870371</v>
       </c>
       <c r="I41" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4357,10 +4360,10 @@
         <v>334</v>
       </c>
       <c r="E42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F42" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G42" s="3">
         <v>45311.92179398148</v>
@@ -4369,7 +4372,7 @@
         <v>45316.4971875</v>
       </c>
       <c r="I42" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4386,10 +4389,10 @@
         <v>335</v>
       </c>
       <c r="E43" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F43" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G43" s="3">
         <v>45296.05393518518</v>
@@ -4398,7 +4401,7 @@
         <v>45316.50489583334</v>
       </c>
       <c r="I43" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4415,10 +4418,10 @@
         <v>336</v>
       </c>
       <c r="E44" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F44" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G44" s="3">
         <v>45313.11333333333</v>
@@ -4427,7 +4430,7 @@
         <v>45316.49230324074</v>
       </c>
       <c r="I44" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4444,10 +4447,10 @@
         <v>337</v>
       </c>
       <c r="E45" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F45" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G45" s="3">
         <v>45306.61894675926</v>
@@ -4456,7 +4459,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I45" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4473,10 +4476,10 @@
         <v>338</v>
       </c>
       <c r="E46" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F46" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G46" s="3">
         <v>45312.49850694444</v>
@@ -4485,7 +4488,7 @@
         <v>45316.49799768518</v>
       </c>
       <c r="I46" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4502,10 +4505,10 @@
         <v>339</v>
       </c>
       <c r="E47" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F47" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G47" s="3">
         <v>45262.49515046296</v>
@@ -4514,7 +4517,7 @@
         <v>45309.07923611111</v>
       </c>
       <c r="I47" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4531,10 +4534,10 @@
         <v>340</v>
       </c>
       <c r="E48" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F48" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G48" s="3">
         <v>45298.49847222222</v>
@@ -4543,7 +4546,7 @@
         <v>45316.49944444445</v>
       </c>
       <c r="I48" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4560,10 +4563,10 @@
         <v>341</v>
       </c>
       <c r="E49" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F49" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G49" s="3">
         <v>45311.61908564815</v>
@@ -4572,7 +4575,7 @@
         <v>45316.49847222222</v>
       </c>
       <c r="I49" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4589,10 +4592,10 @@
         <v>342</v>
       </c>
       <c r="E50" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F50" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G50" s="3">
         <v>45311.61989583333</v>
@@ -4601,7 +4604,7 @@
         <v>45316.50482638889</v>
       </c>
       <c r="I50" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4618,10 +4621,10 @@
         <v>343</v>
       </c>
       <c r="E51" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F51" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G51" s="3">
         <v>45316.50053240741</v>
@@ -4630,7 +4633,7 @@
         <v>45316.50232638889</v>
       </c>
       <c r="I51" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4650,7 +4653,7 @@
         <v>594</v>
       </c>
       <c r="F52" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G52" s="3">
         <v>45313.05881944444</v>
@@ -4659,7 +4662,7 @@
         <v>45314.42322916666</v>
       </c>
       <c r="I52" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4676,10 +4679,10 @@
         <v>345</v>
       </c>
       <c r="E53" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F53" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G53" s="3">
         <v>45316.5015162037</v>
@@ -4688,7 +4691,7 @@
         <v>45316.50331018519</v>
       </c>
       <c r="I53" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4705,10 +4708,10 @@
         <v>346</v>
       </c>
       <c r="E54" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F54" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G54" s="3">
         <v>45291.62113425926</v>
@@ -4717,7 +4720,7 @@
         <v>45316.49827546296</v>
       </c>
       <c r="I54" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4734,10 +4737,10 @@
         <v>347</v>
       </c>
       <c r="E55" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F55" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G55" s="3">
         <v>45287.49758101852</v>
@@ -4746,7 +4749,7 @@
         <v>45316.50458333334</v>
       </c>
       <c r="I55" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4763,10 +4766,10 @@
         <v>348</v>
       </c>
       <c r="E56" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F56" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G56" s="3">
         <v>45280.75131944445</v>
@@ -4775,7 +4778,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I56" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4792,10 +4795,10 @@
         <v>349</v>
       </c>
       <c r="E57" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F57" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G57" s="3">
         <v>45291.49048611111</v>
@@ -4804,7 +4807,7 @@
         <v>45316.50336805556</v>
       </c>
       <c r="I57" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4824,7 +4827,7 @@
         <v>590</v>
       </c>
       <c r="F58" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G58" s="3">
         <v>45310.86956018519</v>
@@ -4833,7 +4836,7 @@
         <v>45314.48899305556</v>
       </c>
       <c r="I58" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4850,10 +4853,10 @@
         <v>351</v>
       </c>
       <c r="E59" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="F59" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G59" s="3">
         <v>45311.61930555556</v>
@@ -4862,7 +4865,7 @@
         <v>45316.49861111111</v>
       </c>
       <c r="I59" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4879,10 +4882,10 @@
         <v>352</v>
       </c>
       <c r="E60" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F60" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G60" s="3">
         <v>45313.76346064815</v>
@@ -4891,7 +4894,7 @@
         <v>45316.49800925926</v>
       </c>
       <c r="I60" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4908,10 +4911,10 @@
         <v>353</v>
       </c>
       <c r="E61" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F61" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G61" s="3">
         <v>45278.11224537037</v>
@@ -4920,7 +4923,7 @@
         <v>45302.49298611111</v>
       </c>
       <c r="I61" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4937,10 +4940,10 @@
         <v>354</v>
       </c>
       <c r="E62" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F62" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G62" s="3">
         <v>45278.21631944444</v>
@@ -4949,7 +4952,7 @@
         <v>45316.50450231481</v>
       </c>
       <c r="I62" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4966,10 +4969,10 @@
         <v>355</v>
       </c>
       <c r="E63" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F63" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G63" s="3">
         <v>45163.2121412037</v>
@@ -4978,7 +4981,7 @@
         <v>45163.2121412037</v>
       </c>
       <c r="I63" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4995,10 +4998,10 @@
         <v>356</v>
       </c>
       <c r="E64" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F64" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G64" s="3">
         <v>45316.49957175926</v>
@@ -5007,7 +5010,7 @@
         <v>45316.50452546297</v>
       </c>
       <c r="I64" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -5024,10 +5027,10 @@
         <v>357</v>
       </c>
       <c r="E65" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F65" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G65" s="3">
         <v>45297.49180555555</v>
@@ -5036,7 +5039,7 @@
         <v>45316.50127314815</v>
       </c>
       <c r="I65" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -5053,10 +5056,10 @@
         <v>358</v>
       </c>
       <c r="E66" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F66" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G66" s="3">
         <v>45297.09299768518</v>
@@ -5065,7 +5068,7 @@
         <v>45316.5039699074</v>
       </c>
       <c r="I66" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -5082,10 +5085,10 @@
         <v>359</v>
       </c>
       <c r="E67" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F67" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G67" s="3">
         <v>45316.50059027778</v>
@@ -5094,7 +5097,7 @@
         <v>45316.50255787037</v>
       </c>
       <c r="I67" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -5111,10 +5114,10 @@
         <v>360</v>
       </c>
       <c r="E68" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F68" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G68" s="3">
         <v>45313.63670138889</v>
@@ -5123,7 +5126,7 @@
         <v>45315.90416666667</v>
       </c>
       <c r="I68" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -5140,10 +5143,10 @@
         <v>361</v>
       </c>
       <c r="E69" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="F69" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G69" s="3">
         <v>45304.51188657407</v>
@@ -5152,7 +5155,7 @@
         <v>45315.56863425926</v>
       </c>
       <c r="I69" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -5169,10 +5172,10 @@
         <v>362</v>
       </c>
       <c r="E70" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F70" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G70" s="3">
         <v>45291.49329861111</v>
@@ -5181,7 +5184,7 @@
         <v>45312.93239583333</v>
       </c>
       <c r="I70" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -5198,10 +5201,10 @@
         <v>363</v>
       </c>
       <c r="E71" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F71" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G71" s="3">
         <v>45300.57674768518</v>
@@ -5210,7 +5213,7 @@
         <v>45315.52626157407</v>
       </c>
       <c r="I71" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -5227,10 +5230,10 @@
         <v>364</v>
       </c>
       <c r="E72" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F72" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G72" s="3">
         <v>45310.40046296296</v>
@@ -5239,7 +5242,7 @@
         <v>45312.49293981482</v>
       </c>
       <c r="I72" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5256,10 +5259,10 @@
         <v>365</v>
       </c>
       <c r="E73" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F73" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G73" s="3">
         <v>45291.49876157408</v>
@@ -5268,7 +5271,7 @@
         <v>45314.49362268519</v>
       </c>
       <c r="I73" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5285,10 +5288,10 @@
         <v>366</v>
       </c>
       <c r="E74" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F74" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G74" s="3">
         <v>45292.49576388889</v>
@@ -5297,7 +5300,7 @@
         <v>45314.64596064815</v>
       </c>
       <c r="I74" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5314,16 +5317,16 @@
         <v>367</v>
       </c>
       <c r="E75" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F75" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H75" s="3">
         <v>45047.30018518519</v>
       </c>
       <c r="I75" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -5340,10 +5343,10 @@
         <v>368</v>
       </c>
       <c r="E76" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F76" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G76" s="3">
         <v>45291.49430555556</v>
@@ -5352,7 +5355,7 @@
         <v>45316.16467592592</v>
       </c>
       <c r="I76" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5369,10 +5372,10 @@
         <v>369</v>
       </c>
       <c r="E77" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F77" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G77" s="3">
         <v>45283.62505787037</v>
@@ -5381,7 +5384,7 @@
         <v>45309.04886574074</v>
       </c>
       <c r="I77" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5398,10 +5401,10 @@
         <v>370</v>
       </c>
       <c r="E78" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F78" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G78" s="3">
         <v>45262.59487268519</v>
@@ -5410,7 +5413,7 @@
         <v>45309.01453703704</v>
       </c>
       <c r="I78" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -5427,10 +5430,10 @@
         <v>371</v>
       </c>
       <c r="E79" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F79" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G79" s="3">
         <v>45312.49354166666</v>
@@ -5439,7 +5442,7 @@
         <v>45316.164375</v>
       </c>
       <c r="I79" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -5459,7 +5462,7 @@
         <v>590</v>
       </c>
       <c r="F80" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G80" s="3">
         <v>45312.7619675926</v>
@@ -5468,7 +5471,7 @@
         <v>45315.65320601852</v>
       </c>
       <c r="I80" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5485,10 +5488,10 @@
         <v>373</v>
       </c>
       <c r="E81" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F81" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G81" s="3">
         <v>45310.90116898148</v>
@@ -5497,7 +5500,7 @@
         <v>45316.2090625</v>
       </c>
       <c r="I81" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5514,10 +5517,10 @@
         <v>374</v>
       </c>
       <c r="E82" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F82" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G82" s="3">
         <v>45315.1578125</v>
@@ -5526,7 +5529,7 @@
         <v>45316.16471064815</v>
       </c>
       <c r="I82" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -5543,10 +5546,10 @@
         <v>375</v>
       </c>
       <c r="E83" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F83" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G83" s="3">
         <v>45287.44400462963</v>
@@ -5555,7 +5558,7 @@
         <v>45314.49243055555</v>
       </c>
       <c r="I83" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -5575,7 +5578,7 @@
         <v>594</v>
       </c>
       <c r="F84" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G84" s="3">
         <v>45309.58261574074</v>
@@ -5584,7 +5587,7 @@
         <v>45314.42337962963</v>
       </c>
       <c r="I84" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -5601,10 +5604,10 @@
         <v>377</v>
       </c>
       <c r="E85" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F85" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G85" s="3">
         <v>45280.04030092592</v>
@@ -5613,7 +5616,7 @@
         <v>45309.01909722222</v>
       </c>
       <c r="I85" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -5630,10 +5633,10 @@
         <v>378</v>
       </c>
       <c r="E86" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F86" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G86" s="3">
         <v>45302.49703703704</v>
@@ -5642,7 +5645,7 @@
         <v>45316.20864583334</v>
       </c>
       <c r="I86" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -5662,7 +5665,7 @@
         <v>589</v>
       </c>
       <c r="F87" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G87" s="3">
         <v>45313.29277777778</v>
@@ -5671,7 +5674,7 @@
         <v>45315.23820601852</v>
       </c>
       <c r="I87" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5688,10 +5691,10 @@
         <v>380</v>
       </c>
       <c r="E88" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F88" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G88" s="3">
         <v>45286.50180555556</v>
@@ -5700,7 +5703,7 @@
         <v>45312.67471064815</v>
       </c>
       <c r="I88" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5717,10 +5720,10 @@
         <v>381</v>
       </c>
       <c r="E89" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F89" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G89" s="3">
         <v>45311.42429398148</v>
@@ -5729,7 +5732,7 @@
         <v>45314.89614583334</v>
       </c>
       <c r="I89" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -5746,10 +5749,10 @@
         <v>382</v>
       </c>
       <c r="E90" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F90" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G90" s="3">
         <v>45306.6199537037</v>
@@ -5758,7 +5761,7 @@
         <v>45314.49379629629</v>
       </c>
       <c r="I90" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -5778,7 +5781,7 @@
         <v>594</v>
       </c>
       <c r="F91" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G91" s="3">
         <v>45315.42351851852</v>
@@ -5787,7 +5790,7 @@
         <v>45315.42354166666</v>
       </c>
       <c r="I91" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5804,10 +5807,10 @@
         <v>384</v>
       </c>
       <c r="E92" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F92" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G92" s="3">
         <v>45287.95120370371</v>
@@ -5816,7 +5819,7 @@
         <v>45315.61121527778</v>
       </c>
       <c r="I92" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -5833,10 +5836,10 @@
         <v>385</v>
       </c>
       <c r="E93" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F93" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G93" s="3">
         <v>45312.49561342593</v>
@@ -5845,7 +5848,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I93" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5862,10 +5865,10 @@
         <v>386</v>
       </c>
       <c r="E94" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="F94" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G94" s="3">
         <v>45291.62100694444</v>
@@ -5874,7 +5877,7 @@
         <v>45314.49383101852</v>
       </c>
       <c r="I94" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5891,10 +5894,10 @@
         <v>387</v>
       </c>
       <c r="E95" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F95" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G95" s="3">
         <v>44926.35877314815</v>
@@ -5903,7 +5906,7 @@
         <v>44926.35877314815</v>
       </c>
       <c r="I95" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5920,10 +5923,10 @@
         <v>388</v>
       </c>
       <c r="E96" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="F96" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G96" s="3">
         <v>45297.49363425926</v>
@@ -5932,7 +5935,7 @@
         <v>45311.89606481481</v>
       </c>
       <c r="I96" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5949,10 +5952,10 @@
         <v>389</v>
       </c>
       <c r="E97" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F97" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G97" s="3">
         <v>45314.49303240741</v>
@@ -5961,7 +5964,7 @@
         <v>45315.65373842593</v>
       </c>
       <c r="I97" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5978,10 +5981,10 @@
         <v>390</v>
       </c>
       <c r="E98" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F98" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G98" s="3">
         <v>45313.05805555556</v>
@@ -5990,7 +5993,7 @@
         <v>45313.05806712963</v>
       </c>
       <c r="I98" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -6007,10 +6010,10 @@
         <v>391</v>
       </c>
       <c r="E99" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F99" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G99" s="3">
         <v>45307.38726851852</v>
@@ -6019,7 +6022,7 @@
         <v>45314.85255787037</v>
       </c>
       <c r="I99" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -6036,10 +6039,10 @@
         <v>392</v>
       </c>
       <c r="E100" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F100" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G100" s="3">
         <v>45293.03614583334</v>
@@ -6048,7 +6051,7 @@
         <v>45293.0361574074</v>
       </c>
       <c r="I100" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6065,10 +6068,10 @@
         <v>393</v>
       </c>
       <c r="E101" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F101" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G101" s="3">
         <v>45314.50199074074</v>
@@ -6077,7 +6080,7 @@
         <v>45315.65385416667</v>
       </c>
       <c r="I101" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -6094,10 +6097,10 @@
         <v>394</v>
       </c>
       <c r="E102" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F102" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G102" s="3">
         <v>45307.37951388889</v>
@@ -6106,7 +6109,7 @@
         <v>45315.36158564815</v>
       </c>
       <c r="I102" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -6123,10 +6126,10 @@
         <v>395</v>
       </c>
       <c r="E103" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F103" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G103" s="3">
         <v>45307.00873842592</v>
@@ -6135,7 +6138,7 @@
         <v>45307.00875</v>
       </c>
       <c r="I103" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -6152,10 +6155,10 @@
         <v>396</v>
       </c>
       <c r="E104" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F104" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G104" s="3">
         <v>45315.42385416666</v>
@@ -6164,7 +6167,7 @@
         <v>45315.42386574074</v>
       </c>
       <c r="I104" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -6181,10 +6184,10 @@
         <v>397</v>
       </c>
       <c r="E105" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F105" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G105" s="3">
         <v>45291.49836805555</v>
@@ -6193,7 +6196,7 @@
         <v>45315.65422453704</v>
       </c>
       <c r="I105" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -6210,10 +6213,10 @@
         <v>398</v>
       </c>
       <c r="E106" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F106" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G106" s="3">
         <v>45280.57280092593</v>
@@ -6222,7 +6225,7 @@
         <v>45309.02465277778</v>
       </c>
       <c r="I106" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -6239,10 +6242,10 @@
         <v>399</v>
       </c>
       <c r="E107" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F107" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G107" s="3">
         <v>45302.49490740741</v>
@@ -6251,7 +6254,7 @@
         <v>45312.88666666667</v>
       </c>
       <c r="I107" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -6268,10 +6271,10 @@
         <v>400</v>
       </c>
       <c r="E108" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F108" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G108" s="3">
         <v>45288.28815972222</v>
@@ -6280,7 +6283,7 @@
         <v>45315.60980324074</v>
       </c>
       <c r="I108" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -6297,10 +6300,10 @@
         <v>401</v>
       </c>
       <c r="E109" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F109" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G109" s="3">
         <v>45295.49231481482</v>
@@ -6309,7 +6312,7 @@
         <v>45315.61019675926</v>
       </c>
       <c r="I109" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -6326,10 +6329,10 @@
         <v>402</v>
       </c>
       <c r="E110" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F110" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G110" s="3">
         <v>45312.76140046296</v>
@@ -6338,7 +6341,7 @@
         <v>45314.69101851852</v>
       </c>
       <c r="I110" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -6355,10 +6358,10 @@
         <v>403</v>
       </c>
       <c r="E111" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F111" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G111" s="3">
         <v>45314.49325231482</v>
@@ -6367,7 +6370,7 @@
         <v>45315.61035879629</v>
       </c>
       <c r="I111" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -6384,10 +6387,10 @@
         <v>404</v>
       </c>
       <c r="E112" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F112" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G112" s="3">
         <v>45313.42341435186</v>
@@ -6396,7 +6399,7 @@
         <v>45314.19578703704</v>
       </c>
       <c r="I112" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6413,10 +6416,10 @@
         <v>405</v>
       </c>
       <c r="E113" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F113" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G113" s="3">
         <v>45292.49325231482</v>
@@ -6425,7 +6428,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I113" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -6442,10 +6445,10 @@
         <v>406</v>
       </c>
       <c r="E114" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F114" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G114" s="3">
         <v>45313.0588425926</v>
@@ -6454,7 +6457,7 @@
         <v>45314.42222222222</v>
       </c>
       <c r="I114" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -6471,10 +6474,10 @@
         <v>407</v>
       </c>
       <c r="E115" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F115" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G115" s="3">
         <v>45307.5822337963</v>
@@ -6483,7 +6486,7 @@
         <v>45314.77590277778</v>
       </c>
       <c r="I115" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -6500,10 +6503,10 @@
         <v>408</v>
       </c>
       <c r="E116" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F116" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G116" s="3">
         <v>45298.49490740741</v>
@@ -6512,7 +6515,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I116" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -6529,10 +6532,10 @@
         <v>409</v>
       </c>
       <c r="E117" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F117" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G117" s="3">
         <v>45300.43424768518</v>
@@ -6541,7 +6544,7 @@
         <v>45314.49525462963</v>
       </c>
       <c r="I117" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -6558,10 +6561,10 @@
         <v>410</v>
       </c>
       <c r="E118" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F118" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G118" s="3">
         <v>45287.49133101852</v>
@@ -6570,7 +6573,7 @@
         <v>45315.68306712963</v>
       </c>
       <c r="I118" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -6587,10 +6590,10 @@
         <v>411</v>
       </c>
       <c r="E119" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F119" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G119" s="3">
         <v>45315.24193287037</v>
@@ -6599,7 +6602,7 @@
         <v>45315.65413194444</v>
       </c>
       <c r="I119" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -6616,10 +6619,10 @@
         <v>412</v>
       </c>
       <c r="E120" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F120" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G120" s="3">
         <v>45296.62521990741</v>
@@ -6628,7 +6631,7 @@
         <v>45315.32032407408</v>
       </c>
       <c r="I120" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -6645,10 +6648,10 @@
         <v>413</v>
       </c>
       <c r="E121" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F121" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G121" s="3">
         <v>45293.4970949074</v>
@@ -6657,7 +6660,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I121" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -6674,10 +6677,10 @@
         <v>414</v>
       </c>
       <c r="E122" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F122" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G122" s="3">
         <v>45282.72908564815</v>
@@ -6686,7 +6689,7 @@
         <v>45282.72909722223</v>
       </c>
       <c r="I122" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -6703,10 +6706,10 @@
         <v>415</v>
       </c>
       <c r="E123" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F123" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G123" s="3">
         <v>45314.49591435185</v>
@@ -6715,7 +6718,7 @@
         <v>45315.69609953704</v>
       </c>
       <c r="I123" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -6732,10 +6735,10 @@
         <v>416</v>
       </c>
       <c r="E124" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F124" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G124" s="3">
         <v>45300.97112268519</v>
@@ -6744,7 +6747,7 @@
         <v>45315.69616898148</v>
       </c>
       <c r="I124" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -6761,10 +6764,10 @@
         <v>417</v>
       </c>
       <c r="E125" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F125" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G125" s="3">
         <v>45273.65564814815</v>
@@ -6773,7 +6776,7 @@
         <v>45303.42461805556</v>
       </c>
       <c r="I125" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -6793,7 +6796,7 @@
         <v>590</v>
       </c>
       <c r="F126" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G126" s="3">
         <v>45298.21359953703</v>
@@ -6802,7 +6805,7 @@
         <v>45314.49523148148</v>
       </c>
       <c r="I126" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -6819,10 +6822,10 @@
         <v>419</v>
       </c>
       <c r="E127" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F127" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G127" s="3">
         <v>45308.42383101852</v>
@@ -6831,7 +6834,7 @@
         <v>45314.49195601852</v>
       </c>
       <c r="I127" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -6848,10 +6851,10 @@
         <v>420</v>
       </c>
       <c r="E128" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F128" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G128" s="3">
         <v>45294.41019675926</v>
@@ -6860,7 +6863,7 @@
         <v>45315.69918981481</v>
       </c>
       <c r="I128" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -6880,7 +6883,7 @@
         <v>586</v>
       </c>
       <c r="F129" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G129" s="3">
         <v>45310.61224537037</v>
@@ -6889,7 +6892,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I129" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -6906,10 +6909,10 @@
         <v>422</v>
       </c>
       <c r="E130" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F130" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G130" s="3">
         <v>45304.64673611111</v>
@@ -6918,7 +6921,7 @@
         <v>45315.6959375</v>
       </c>
       <c r="I130" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -6935,10 +6938,10 @@
         <v>423</v>
       </c>
       <c r="E131" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F131" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G131" s="3">
         <v>45295.49403935186</v>
@@ -6947,7 +6950,7 @@
         <v>45315.69605324074</v>
       </c>
       <c r="I131" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -6964,10 +6967,10 @@
         <v>424</v>
       </c>
       <c r="E132" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F132" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G132" s="3">
         <v>45298.06329861111</v>
@@ -6976,7 +6979,7 @@
         <v>45314.49458333333</v>
       </c>
       <c r="I132" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -6993,10 +6996,10 @@
         <v>425</v>
       </c>
       <c r="E133" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F133" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G133" s="3">
         <v>45297.49041666667</v>
@@ -7005,7 +7008,7 @@
         <v>45315.70159722222</v>
       </c>
       <c r="I133" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -7022,10 +7025,10 @@
         <v>426</v>
       </c>
       <c r="E134" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F134" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G134" s="3">
         <v>45296.21274305556</v>
@@ -7034,7 +7037,7 @@
         <v>45309.05621527778</v>
       </c>
       <c r="I134" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -7051,10 +7054,10 @@
         <v>427</v>
       </c>
       <c r="E135" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F135" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G135" s="3">
         <v>45307.08791666666</v>
@@ -7063,7 +7066,7 @@
         <v>45315.65327546297</v>
       </c>
       <c r="I135" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -7080,10 +7083,10 @@
         <v>428</v>
       </c>
       <c r="E136" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F136" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G136" s="3">
         <v>45314.49842592593</v>
@@ -7092,7 +7095,7 @@
         <v>45314.67444444444</v>
       </c>
       <c r="I136" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -7109,10 +7112,10 @@
         <v>429</v>
       </c>
       <c r="E137" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F137" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G137" s="3">
         <v>45310.65872685185</v>
@@ -7121,7 +7124,7 @@
         <v>45314.49422453704</v>
       </c>
       <c r="I137" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -7138,10 +7141,10 @@
         <v>430</v>
       </c>
       <c r="E138" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F138" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G138" s="3">
         <v>45312.13112268518</v>
@@ -7150,7 +7153,7 @@
         <v>45315.6537962963</v>
       </c>
       <c r="I138" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -7167,10 +7170,10 @@
         <v>431</v>
       </c>
       <c r="E139" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F139" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G139" s="3">
         <v>45270.59310185185</v>
@@ -7179,7 +7182,7 @@
         <v>45309.07831018518</v>
       </c>
       <c r="I139" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -7196,10 +7199,10 @@
         <v>432</v>
       </c>
       <c r="E140" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F140" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G140" s="3">
         <v>45278.77987268518</v>
@@ -7208,7 +7211,7 @@
         <v>45314.6009837963</v>
       </c>
       <c r="I140" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -7228,7 +7231,7 @@
         <v>590</v>
       </c>
       <c r="F141" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G141" s="3">
         <v>45314.49572916667</v>
@@ -7237,7 +7240,7 @@
         <v>45314.67103009259</v>
       </c>
       <c r="I141" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -7254,16 +7257,16 @@
         <v>434</v>
       </c>
       <c r="E142" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F142" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H142" s="3">
         <v>43999.85027777778</v>
       </c>
       <c r="I142" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -7280,10 +7283,10 @@
         <v>435</v>
       </c>
       <c r="E143" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F143" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G143" s="3">
         <v>45309.54311342593</v>
@@ -7292,7 +7295,7 @@
         <v>45316.16458333333</v>
       </c>
       <c r="I143" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -7309,10 +7312,10 @@
         <v>436</v>
       </c>
       <c r="E144" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F144" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G144" s="3">
         <v>45306.51280092593</v>
@@ -7321,7 +7324,7 @@
         <v>45306.51280092593</v>
       </c>
       <c r="I144" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -7338,10 +7341,10 @@
         <v>437</v>
       </c>
       <c r="E145" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F145" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G145" s="3">
         <v>45314.49275462963</v>
@@ -7350,7 +7353,7 @@
         <v>45315.73717592593</v>
       </c>
       <c r="I145" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -7367,10 +7370,10 @@
         <v>438</v>
       </c>
       <c r="E146" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F146" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G146" s="3">
         <v>45308.77947916667</v>
@@ -7379,7 +7382,7 @@
         <v>45309.07209490741</v>
       </c>
       <c r="I146" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -7396,10 +7399,10 @@
         <v>439</v>
       </c>
       <c r="E147" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F147" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G147" s="3">
         <v>45307.50165509259</v>
@@ -7408,7 +7411,7 @@
         <v>45312.88640046296</v>
       </c>
       <c r="I147" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -7425,10 +7428,10 @@
         <v>440</v>
       </c>
       <c r="E148" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F148" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G148" s="3">
         <v>45294.12988425926</v>
@@ -7437,7 +7440,7 @@
         <v>45314.49341435185</v>
       </c>
       <c r="I148" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -7454,10 +7457,10 @@
         <v>441</v>
       </c>
       <c r="E149" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F149" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G149" s="3">
         <v>45296.33108796296</v>
@@ -7466,7 +7469,7 @@
         <v>45314.51508101852</v>
       </c>
       <c r="I149" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -7483,10 +7486,10 @@
         <v>442</v>
       </c>
       <c r="E150" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F150" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G150" s="3">
         <v>45295.49210648148</v>
@@ -7495,7 +7498,7 @@
         <v>45315.69587962963</v>
       </c>
       <c r="I150" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -7512,10 +7515,10 @@
         <v>443</v>
       </c>
       <c r="E151" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F151" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G151" s="3">
         <v>45314.49277777778</v>
@@ -7524,7 +7527,7 @@
         <v>45315.73741898148</v>
       </c>
       <c r="I151" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -7541,10 +7544,10 @@
         <v>444</v>
       </c>
       <c r="E152" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F152" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G152" s="3">
         <v>45308.74111111111</v>
@@ -7553,7 +7556,7 @@
         <v>45310.69127314815</v>
       </c>
       <c r="I152" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -7570,10 +7573,10 @@
         <v>445</v>
       </c>
       <c r="E153" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F153" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G153" s="3">
         <v>45311.61907407407</v>
@@ -7582,7 +7585,7 @@
         <v>45315.73760416666</v>
       </c>
       <c r="I153" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -7602,7 +7605,7 @@
         <v>594</v>
       </c>
       <c r="F154" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G154" s="3">
         <v>45313.06128472222</v>
@@ -7611,7 +7614,7 @@
         <v>45314.4228125</v>
       </c>
       <c r="I154" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -7628,10 +7631,10 @@
         <v>447</v>
       </c>
       <c r="E155" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F155" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G155" s="3">
         <v>45291.49923611111</v>
@@ -7640,7 +7643,7 @@
         <v>45312.49590277778</v>
       </c>
       <c r="I155" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -7657,10 +7660,10 @@
         <v>448</v>
       </c>
       <c r="E156" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F156" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G156" s="3">
         <v>45302.49706018518</v>
@@ -7669,7 +7672,7 @@
         <v>45315.07060185185</v>
       </c>
       <c r="I156" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -7686,10 +7689,10 @@
         <v>449</v>
       </c>
       <c r="E157" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F157" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G157" s="3">
         <v>45286.49168981481</v>
@@ -7698,7 +7701,7 @@
         <v>45315.73706018519</v>
       </c>
       <c r="I157" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -7715,10 +7718,10 @@
         <v>450</v>
       </c>
       <c r="E158" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F158" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G158" s="3">
         <v>45306.62078703703</v>
@@ -7727,7 +7730,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I158" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -7744,10 +7747,10 @@
         <v>451</v>
       </c>
       <c r="E159" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F159" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G159" s="3">
         <v>45297.49820601852</v>
@@ -7756,7 +7759,7 @@
         <v>45315.73712962963</v>
       </c>
       <c r="I159" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -7773,10 +7776,10 @@
         <v>452</v>
       </c>
       <c r="E160" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F160" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G160" s="3">
         <v>45314.49293981482</v>
@@ -7785,7 +7788,7 @@
         <v>45315.73753472222</v>
       </c>
       <c r="I160" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -7802,10 +7805,10 @@
         <v>453</v>
       </c>
       <c r="E161" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F161" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G161" s="3">
         <v>45302.49929398148</v>
@@ -7814,7 +7817,7 @@
         <v>45314.49518518519</v>
       </c>
       <c r="I161" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -7831,16 +7834,16 @@
         <v>454</v>
       </c>
       <c r="E162" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F162" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H162" s="3">
         <v>45307.36160879629</v>
       </c>
       <c r="I162" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -7857,10 +7860,10 @@
         <v>455</v>
       </c>
       <c r="E163" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F163" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G163" s="3">
         <v>45314.4933912037</v>
@@ -7869,7 +7872,7 @@
         <v>45316.12230324074</v>
       </c>
       <c r="I163" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -7886,10 +7889,10 @@
         <v>456</v>
       </c>
       <c r="E164" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F164" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G164" s="3">
         <v>45307.36724537037</v>
@@ -7898,7 +7901,7 @@
         <v>45316.16459490741</v>
       </c>
       <c r="I164" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -7915,10 +7918,10 @@
         <v>457</v>
       </c>
       <c r="E165" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F165" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G165" s="3">
         <v>45297.31922453704</v>
@@ -7927,7 +7930,7 @@
         <v>45314.49394675926</v>
       </c>
       <c r="I165" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -7944,10 +7947,10 @@
         <v>458</v>
       </c>
       <c r="E166" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F166" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G166" s="3">
         <v>45315.42201388889</v>
@@ -7956,7 +7959,7 @@
         <v>45315.7841550926</v>
       </c>
       <c r="I166" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -7976,7 +7979,7 @@
         <v>594</v>
       </c>
       <c r="F167" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G167" s="3">
         <v>45314.42302083333</v>
@@ -7985,7 +7988,7 @@
         <v>45314.42302083333</v>
       </c>
       <c r="I167" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -8002,10 +8005,10 @@
         <v>460</v>
       </c>
       <c r="E168" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F168" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G168" s="3">
         <v>45314.49530092593</v>
@@ -8014,7 +8017,7 @@
         <v>45315.78174768519</v>
       </c>
       <c r="I168" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -8031,10 +8034,10 @@
         <v>461</v>
       </c>
       <c r="E169" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F169" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G169" s="3">
         <v>45312.49302083333</v>
@@ -8043,7 +8046,7 @@
         <v>45314.49451388889</v>
       </c>
       <c r="I169" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -8060,10 +8063,10 @@
         <v>462</v>
       </c>
       <c r="E170" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F170" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G170" s="3">
         <v>45302.49891203704</v>
@@ -8072,7 +8075,7 @@
         <v>45315.78163194445</v>
       </c>
       <c r="I170" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -8089,10 +8092,10 @@
         <v>463</v>
       </c>
       <c r="E171" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F171" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G171" s="3">
         <v>45314.49350694445</v>
@@ -8101,7 +8104,7 @@
         <v>45315.78178240741</v>
       </c>
       <c r="I171" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -8118,10 +8121,10 @@
         <v>464</v>
       </c>
       <c r="E172" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F172" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G172" s="3">
         <v>44049.84335648148</v>
@@ -8130,7 +8133,7 @@
         <v>44740.15496527778</v>
       </c>
       <c r="I172" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -8147,10 +8150,10 @@
         <v>465</v>
       </c>
       <c r="E173" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="F173" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G173" s="3">
         <v>45307.49097222222</v>
@@ -8159,7 +8162,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I173" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -8179,7 +8182,7 @@
         <v>594</v>
       </c>
       <c r="F174" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G174" s="3">
         <v>45312.37847222222</v>
@@ -8188,7 +8191,7 @@
         <v>45314.42348379629</v>
       </c>
       <c r="I174" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -8205,10 +8208,10 @@
         <v>467</v>
       </c>
       <c r="E175" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F175" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G175" s="3">
         <v>45312.25097222222</v>
@@ -8217,7 +8220,7 @@
         <v>45315.74335648148</v>
       </c>
       <c r="I175" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -8234,10 +8237,10 @@
         <v>468</v>
       </c>
       <c r="E176" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F176" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G176" s="3">
         <v>45310.90118055556</v>
@@ -8246,7 +8249,7 @@
         <v>45314.49304398148</v>
       </c>
       <c r="I176" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -8263,10 +8266,10 @@
         <v>469</v>
       </c>
       <c r="E177" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F177" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G177" s="3">
         <v>45296.62515046296</v>
@@ -8275,7 +8278,7 @@
         <v>45314.49361111111</v>
       </c>
       <c r="I177" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -8292,10 +8295,10 @@
         <v>470</v>
       </c>
       <c r="E178" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F178" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G178" s="3">
         <v>45311.61869212963</v>
@@ -8304,7 +8307,7 @@
         <v>45315.73645833333</v>
       </c>
       <c r="I178" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -8321,10 +8324,10 @@
         <v>471</v>
       </c>
       <c r="E179" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F179" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G179" s="3">
         <v>45287.159375</v>
@@ -8333,7 +8336,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I179" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -8350,10 +8353,10 @@
         <v>472</v>
       </c>
       <c r="E180" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F180" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G180" s="3">
         <v>45311.68436342593</v>
@@ -8362,7 +8365,7 @@
         <v>45315.75385416667</v>
       </c>
       <c r="I180" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -8379,10 +8382,10 @@
         <v>473</v>
       </c>
       <c r="E181" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F181" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G181" s="3">
         <v>45291.49039351852</v>
@@ -8391,7 +8394,7 @@
         <v>45315.78164351852</v>
       </c>
       <c r="I181" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -8408,10 +8411,10 @@
         <v>474</v>
       </c>
       <c r="E182" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F182" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G182" s="3">
         <v>45308.74193287037</v>
@@ -8420,7 +8423,7 @@
         <v>45315.7467824074</v>
       </c>
       <c r="I182" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -8437,10 +8440,10 @@
         <v>475</v>
       </c>
       <c r="E183" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F183" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G183" s="3">
         <v>45290.68399305556</v>
@@ -8449,7 +8452,7 @@
         <v>45315.76791666666</v>
       </c>
       <c r="I183" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -8466,10 +8469,10 @@
         <v>476</v>
       </c>
       <c r="E184" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F184" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G184" s="3">
         <v>45294.52609953703</v>
@@ -8478,7 +8481,7 @@
         <v>45315.75109953704</v>
       </c>
       <c r="I184" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -8495,10 +8498,10 @@
         <v>477</v>
       </c>
       <c r="E185" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F185" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G185" s="3">
         <v>45305.28581018518</v>
@@ -8507,7 +8510,7 @@
         <v>45315.73657407407</v>
       </c>
       <c r="I185" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -8524,10 +8527,10 @@
         <v>478</v>
       </c>
       <c r="E186" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F186" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G186" s="3">
         <v>45303.07900462963</v>
@@ -8536,7 +8539,7 @@
         <v>45315.78171296296</v>
       </c>
       <c r="I186" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -8553,10 +8556,10 @@
         <v>479</v>
       </c>
       <c r="E187" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F187" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G187" s="3">
         <v>45294.00594907408</v>
@@ -8565,7 +8568,7 @@
         <v>45315.60971064815</v>
       </c>
       <c r="I187" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -8582,10 +8585,10 @@
         <v>480</v>
       </c>
       <c r="E188" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F188" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G188" s="3">
         <v>45291.6212037037</v>
@@ -8594,7 +8597,7 @@
         <v>45315.76299768518</v>
       </c>
       <c r="I188" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -8611,10 +8614,10 @@
         <v>481</v>
       </c>
       <c r="E189" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F189" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G189" s="3">
         <v>45291.62125</v>
@@ -8623,7 +8626,7 @@
         <v>45315.73672453704</v>
       </c>
       <c r="I189" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -8640,10 +8643,10 @@
         <v>482</v>
       </c>
       <c r="E190" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F190" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G190" s="3">
         <v>45291.49121527778</v>
@@ -8652,7 +8655,7 @@
         <v>45315.73679398148</v>
       </c>
       <c r="I190" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -8669,10 +8672,10 @@
         <v>483</v>
       </c>
       <c r="E191" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="F191" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G191" s="3">
         <v>45305.45537037037</v>
@@ -8681,7 +8684,7 @@
         <v>45315.78153935185</v>
       </c>
       <c r="I191" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -8698,10 +8701,10 @@
         <v>484</v>
       </c>
       <c r="E192" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F192" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G192" s="3">
         <v>45312.66900462963</v>
@@ -8710,7 +8713,7 @@
         <v>45315.78197916667</v>
       </c>
       <c r="I192" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -8727,10 +8730,10 @@
         <v>485</v>
       </c>
       <c r="E193" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F193" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G193" s="3">
         <v>45283.15128472223</v>
@@ -8739,7 +8742,7 @@
         <v>45315.73756944444</v>
       </c>
       <c r="I193" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -8756,10 +8759,10 @@
         <v>486</v>
       </c>
       <c r="E194" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F194" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G194" s="3">
         <v>45290.15359953704</v>
@@ -8768,7 +8771,7 @@
         <v>45315.81050925926</v>
       </c>
       <c r="I194" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -8785,10 +8788,10 @@
         <v>487</v>
       </c>
       <c r="E195" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F195" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G195" s="3">
         <v>45288.77761574074</v>
@@ -8797,7 +8800,7 @@
         <v>45315.8109837963</v>
       </c>
       <c r="I195" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -8814,10 +8817,10 @@
         <v>488</v>
       </c>
       <c r="E196" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F196" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G196" s="3">
         <v>45283.5427199074</v>
@@ -8826,7 +8829,7 @@
         <v>45315.81034722222</v>
       </c>
       <c r="I196" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -8843,10 +8846,10 @@
         <v>489</v>
       </c>
       <c r="E197" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F197" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G197" s="3">
         <v>45290.06099537037</v>
@@ -8855,7 +8858,7 @@
         <v>45315.78223379629</v>
       </c>
       <c r="I197" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -8872,10 +8875,10 @@
         <v>490</v>
       </c>
       <c r="E198" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F198" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G198" s="3">
         <v>45285.78746527778</v>
@@ -8884,7 +8887,7 @@
         <v>45315.81327546296</v>
       </c>
       <c r="I198" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -8901,10 +8904,10 @@
         <v>491</v>
       </c>
       <c r="E199" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F199" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G199" s="3">
         <v>45300.70331018518</v>
@@ -8913,7 +8916,7 @@
         <v>45315.78243055556</v>
       </c>
       <c r="I199" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -8930,10 +8933,10 @@
         <v>492</v>
       </c>
       <c r="E200" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F200" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G200" s="3">
         <v>45313.4215625</v>
@@ -8942,7 +8945,7 @@
         <v>45314.19313657407</v>
       </c>
       <c r="I200" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -8962,7 +8965,7 @@
         <v>586</v>
       </c>
       <c r="F201" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G201" s="3">
         <v>45313.10177083333</v>
@@ -8971,7 +8974,7 @@
         <v>45315.19548611111</v>
       </c>
       <c r="I201" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -8988,10 +8991,10 @@
         <v>494</v>
       </c>
       <c r="E202" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F202" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G202" s="3">
         <v>45313.56241898148</v>
@@ -9000,7 +9003,7 @@
         <v>45315.73755787037</v>
       </c>
       <c r="I202" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -9017,10 +9020,10 @@
         <v>495</v>
       </c>
       <c r="E203" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F203" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G203" s="3">
         <v>45287.49016203704</v>
@@ -9029,7 +9032,7 @@
         <v>45315.81586805556</v>
       </c>
       <c r="I203" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -9046,10 +9049,10 @@
         <v>496</v>
       </c>
       <c r="E204" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F204" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G204" s="3">
         <v>45294.11623842592</v>
@@ -9058,7 +9061,7 @@
         <v>45315.81109953704</v>
       </c>
       <c r="I204" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -9075,10 +9078,10 @@
         <v>497</v>
       </c>
       <c r="E205" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F205" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G205" s="3">
         <v>45281.61627314815</v>
@@ -9087,7 +9090,7 @@
         <v>45315.73660879629</v>
       </c>
       <c r="I205" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -9104,10 +9107,10 @@
         <v>498</v>
       </c>
       <c r="E206" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="F206" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G206" s="3">
         <v>45310.31782407407</v>
@@ -9116,7 +9119,7 @@
         <v>45315.82373842593</v>
       </c>
       <c r="I206" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -9133,10 +9136,10 @@
         <v>499</v>
       </c>
       <c r="E207" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F207" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G207" s="3">
         <v>45292.86751157408</v>
@@ -9145,7 +9148,7 @@
         <v>45315.81833333334</v>
       </c>
       <c r="I207" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -9162,10 +9165,10 @@
         <v>500</v>
       </c>
       <c r="E208" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F208" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G208" s="3">
         <v>45297.78877314815</v>
@@ -9174,7 +9177,7 @@
         <v>45315.82362268519</v>
       </c>
       <c r="I208" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -9191,10 +9194,10 @@
         <v>501</v>
       </c>
       <c r="E209" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F209" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G209" s="3">
         <v>45291.49200231482</v>
@@ -9203,7 +9206,7 @@
         <v>45315.81275462963</v>
       </c>
       <c r="I209" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -9220,10 +9223,10 @@
         <v>502</v>
       </c>
       <c r="E210" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F210" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G210" s="3">
         <v>45314.77236111111</v>
@@ -9232,7 +9235,7 @@
         <v>45315.81111111111</v>
       </c>
       <c r="I210" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -9249,10 +9252,10 @@
         <v>503</v>
       </c>
       <c r="E211" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F211" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G211" s="3">
         <v>45306.94767361111</v>
@@ -9261,7 +9264,7 @@
         <v>45315.81850694444</v>
       </c>
       <c r="I211" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -9278,10 +9281,10 @@
         <v>504</v>
       </c>
       <c r="E212" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F212" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G212" s="3">
         <v>45315.48592592592</v>
@@ -9290,7 +9293,7 @@
         <v>45315.82550925926</v>
       </c>
       <c r="I212" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -9307,10 +9310,10 @@
         <v>505</v>
       </c>
       <c r="E213" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F213" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G213" s="3">
         <v>45278.21140046296</v>
@@ -9319,7 +9322,7 @@
         <v>45315.78211805555</v>
       </c>
       <c r="I213" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -9336,10 +9339,10 @@
         <v>506</v>
       </c>
       <c r="E214" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F214" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G214" s="3">
         <v>45296.58950231481</v>
@@ -9348,7 +9351,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I214" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -9365,10 +9368,10 @@
         <v>507</v>
       </c>
       <c r="E215" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F215" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G215" s="3">
         <v>45308.74321759259</v>
@@ -9377,7 +9380,7 @@
         <v>45315.82768518518</v>
       </c>
       <c r="I215" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -9394,10 +9397,10 @@
         <v>508</v>
       </c>
       <c r="E216" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F216" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G216" s="3">
         <v>45291.49114583333</v>
@@ -9406,7 +9409,7 @@
         <v>45315.82378472222</v>
       </c>
       <c r="I216" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -9423,10 +9426,10 @@
         <v>509</v>
       </c>
       <c r="E217" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F217" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G217" s="3">
         <v>45308.16465277778</v>
@@ -9435,7 +9438,7 @@
         <v>45315.82369212963</v>
       </c>
       <c r="I217" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -9452,10 +9455,10 @@
         <v>510</v>
       </c>
       <c r="E218" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F218" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G218" s="3">
         <v>45296.21802083333</v>
@@ -9464,7 +9467,7 @@
         <v>45315.82553240741</v>
       </c>
       <c r="I218" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -9484,7 +9487,7 @@
         <v>589</v>
       </c>
       <c r="F219" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G219" s="3">
         <v>45307.36931712963</v>
@@ -9493,7 +9496,7 @@
         <v>45315.78234953704</v>
       </c>
       <c r="I219" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -9510,10 +9513,10 @@
         <v>512</v>
       </c>
       <c r="E220" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F220" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G220" s="3">
         <v>45313.02901620371</v>
@@ -9522,7 +9525,7 @@
         <v>45315.78185185185</v>
       </c>
       <c r="I220" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -9539,10 +9542,10 @@
         <v>513</v>
       </c>
       <c r="E221" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F221" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G221" s="3">
         <v>45284.49082175926</v>
@@ -9551,7 +9554,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I221" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -9568,10 +9571,10 @@
         <v>514</v>
       </c>
       <c r="E222" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F222" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G222" s="3">
         <v>45290.06063657408</v>
@@ -9580,7 +9583,7 @@
         <v>45315.81575231482</v>
       </c>
       <c r="I222" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -9597,10 +9600,10 @@
         <v>515</v>
       </c>
       <c r="E223" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F223" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G223" s="3">
         <v>45292.49101851852</v>
@@ -9609,7 +9612,7 @@
         <v>45315.81292824074</v>
       </c>
       <c r="I223" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -9626,10 +9629,10 @@
         <v>516</v>
       </c>
       <c r="E224" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F224" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G224" s="3">
         <v>45291.34520833333</v>
@@ -9638,7 +9641,7 @@
         <v>45315.82354166666</v>
       </c>
       <c r="I224" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -9655,10 +9658,10 @@
         <v>517</v>
       </c>
       <c r="E225" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F225" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G225" s="3">
         <v>45314.42053240741</v>
@@ -9667,7 +9670,7 @@
         <v>45315.81092592593</v>
       </c>
       <c r="I225" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -9684,10 +9687,10 @@
         <v>518</v>
       </c>
       <c r="E226" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F226" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G226" s="3">
         <v>45291.49119212963</v>
@@ -9696,7 +9699,7 @@
         <v>45314.49342592592</v>
       </c>
       <c r="I226" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -9713,10 +9716,10 @@
         <v>519</v>
       </c>
       <c r="E227" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F227" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G227" s="3">
         <v>45306.91820601852</v>
@@ -9725,7 +9728,7 @@
         <v>45315.82215277778</v>
       </c>
       <c r="I227" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -9742,10 +9745,10 @@
         <v>520</v>
       </c>
       <c r="E228" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F228" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G228" s="3">
         <v>45286.62017361111</v>
@@ -9754,7 +9757,7 @@
         <v>45315.78180555555</v>
       </c>
       <c r="I228" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -9771,10 +9774,10 @@
         <v>521</v>
       </c>
       <c r="E229" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F229" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G229" s="3">
         <v>45308.74159722222</v>
@@ -9783,7 +9786,7 @@
         <v>45315.82368055556</v>
       </c>
       <c r="I229" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -9800,10 +9803,10 @@
         <v>522</v>
       </c>
       <c r="E230" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F230" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G230" s="3">
         <v>45283.53591435185</v>
@@ -9812,7 +9815,7 @@
         <v>45315.82388888889</v>
       </c>
       <c r="I230" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -9829,10 +9832,10 @@
         <v>523</v>
       </c>
       <c r="E231" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F231" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G231" s="3">
         <v>45279.15613425926</v>
@@ -9841,7 +9844,7 @@
         <v>45310.69137731481</v>
       </c>
       <c r="I231" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -9858,10 +9861,10 @@
         <v>524</v>
       </c>
       <c r="E232" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F232" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G232" s="3">
         <v>45302.49265046296</v>
@@ -9870,7 +9873,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I232" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -9887,10 +9890,10 @@
         <v>525</v>
       </c>
       <c r="E233" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F233" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G233" s="3">
         <v>45286.49104166667</v>
@@ -9899,7 +9902,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I233" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -9916,10 +9919,10 @@
         <v>526</v>
       </c>
       <c r="E234" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F234" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G234" s="3">
         <v>45313.42326388889</v>
@@ -9928,7 +9931,7 @@
         <v>45314.18550925926</v>
       </c>
       <c r="I234" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -9945,10 +9948,10 @@
         <v>527</v>
       </c>
       <c r="E235" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F235" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G235" s="3">
         <v>44288.33525462963</v>
@@ -9957,7 +9960,7 @@
         <v>44288.33525462963</v>
       </c>
       <c r="I235" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -9974,10 +9977,10 @@
         <v>528</v>
       </c>
       <c r="E236" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F236" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G236" s="3">
         <v>45287.22329861111</v>
@@ -9986,7 +9989,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I236" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -10003,10 +10006,10 @@
         <v>529</v>
       </c>
       <c r="E237" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F237" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G237" s="3">
         <v>45311.90133101852</v>
@@ -10015,7 +10018,7 @@
         <v>45315.82358796296</v>
       </c>
       <c r="I237" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -10032,10 +10035,10 @@
         <v>530</v>
       </c>
       <c r="E238" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="F238" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G238" s="3">
         <v>45298.44405092593</v>
@@ -10044,7 +10047,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I238" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -10061,10 +10064,10 @@
         <v>531</v>
       </c>
       <c r="E239" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F239" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G239" s="3">
         <v>45297.01849537037</v>
@@ -10073,7 +10076,7 @@
         <v>45314.90065972223</v>
       </c>
       <c r="I239" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -10090,10 +10093,10 @@
         <v>532</v>
       </c>
       <c r="E240" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F240" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G240" s="3">
         <v>45280.57440972222</v>
@@ -10102,7 +10105,7 @@
         <v>45309.03163194445</v>
       </c>
       <c r="I240" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -10122,7 +10125,7 @@
         <v>592</v>
       </c>
       <c r="F241" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G241" s="3">
         <v>45314.42252314815</v>
@@ -10131,7 +10134,7 @@
         <v>45315.82351851852</v>
       </c>
       <c r="I241" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -10148,10 +10151,10 @@
         <v>534</v>
       </c>
       <c r="E242" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F242" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G242" s="3">
         <v>45301.61993055556</v>
@@ -10160,7 +10163,7 @@
         <v>45314.018125</v>
       </c>
       <c r="I242" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -10177,10 +10180,10 @@
         <v>535</v>
       </c>
       <c r="E243" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F243" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G243" s="3">
         <v>45312.49469907407</v>
@@ -10189,7 +10192,7 @@
         <v>45315.78165509259</v>
       </c>
       <c r="I243" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -10206,10 +10209,10 @@
         <v>536</v>
       </c>
       <c r="E244" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F244" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G244" s="3">
         <v>45295.49803240741</v>
@@ -10218,7 +10221,7 @@
         <v>45315.8234837963</v>
       </c>
       <c r="I244" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -10235,10 +10238,10 @@
         <v>537</v>
       </c>
       <c r="E245" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F245" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G245" s="3">
         <v>45313.05956018518</v>
@@ -10247,7 +10250,7 @@
         <v>45315.82376157407</v>
       </c>
       <c r="I245" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -10264,10 +10267,10 @@
         <v>538</v>
       </c>
       <c r="E246" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F246" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G246" s="3">
         <v>45298.49199074074</v>
@@ -10276,7 +10279,7 @@
         <v>45315.82392361111</v>
       </c>
       <c r="I246" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -10293,10 +10296,10 @@
         <v>539</v>
       </c>
       <c r="E247" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F247" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G247" s="3">
         <v>45286.6203587963</v>
@@ -10305,7 +10308,7 @@
         <v>45315.82366898148</v>
       </c>
       <c r="I247" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -10322,10 +10325,10 @@
         <v>540</v>
       </c>
       <c r="E248" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F248" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G248" s="3">
         <v>45311.61991898148</v>
@@ -10334,7 +10337,7 @@
         <v>45315.02909722222</v>
       </c>
       <c r="I248" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -10351,10 +10354,10 @@
         <v>541</v>
       </c>
       <c r="E249" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F249" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G249" s="3">
         <v>45306.75461805556</v>
@@ -10363,7 +10366,7 @@
         <v>45315.04524305555</v>
       </c>
       <c r="I249" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -10383,7 +10386,7 @@
         <v>587</v>
       </c>
       <c r="F250" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G250" s="3">
         <v>45292.49578703703</v>
@@ -10392,7 +10395,7 @@
         <v>45315.4852662037</v>
       </c>
       <c r="I250" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -10409,10 +10412,10 @@
         <v>543</v>
       </c>
       <c r="E251" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F251" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G251" s="3">
         <v>45308.60100694445</v>
@@ -10421,7 +10424,7 @@
         <v>45314.49393518519</v>
       </c>
       <c r="I251" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -10438,10 +10441,10 @@
         <v>544</v>
       </c>
       <c r="E252" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F252" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G252" s="3">
         <v>45289.35146990741</v>
@@ -10450,7 +10453,7 @@
         <v>45314.49217592592</v>
       </c>
       <c r="I252" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -10467,10 +10470,10 @@
         <v>545</v>
       </c>
       <c r="E253" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F253" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G253" s="3">
         <v>45307.49243055555</v>
@@ -10479,7 +10482,7 @@
         <v>45314.49329861111</v>
       </c>
       <c r="I253" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -10496,10 +10499,10 @@
         <v>546</v>
       </c>
       <c r="E254" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F254" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G254" s="3">
         <v>45313.42297453704</v>
@@ -10508,7 +10511,7 @@
         <v>45313.42299768519</v>
       </c>
       <c r="I254" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -10525,10 +10528,10 @@
         <v>547</v>
       </c>
       <c r="E255" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F255" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G255" s="3">
         <v>45291.49054398148</v>
@@ -10537,7 +10540,7 @@
         <v>45314.94496527778</v>
       </c>
       <c r="I255" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -10554,10 +10557,10 @@
         <v>548</v>
       </c>
       <c r="E256" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F256" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G256" s="3">
         <v>45292.15671296296</v>
@@ -10566,7 +10569,7 @@
         <v>45312.75942129629</v>
       </c>
       <c r="I256" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -10583,10 +10586,10 @@
         <v>549</v>
       </c>
       <c r="E257" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F257" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G257" s="3">
         <v>45287.83861111111</v>
@@ -10595,7 +10598,7 @@
         <v>45316.03899305555</v>
       </c>
       <c r="I257" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -10612,10 +10615,10 @@
         <v>550</v>
       </c>
       <c r="E258" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F258" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G258" s="3">
         <v>45293.04358796297</v>
@@ -10624,7 +10627,7 @@
         <v>45315.8656712963</v>
       </c>
       <c r="I258" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -10641,10 +10644,10 @@
         <v>551</v>
       </c>
       <c r="E259" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F259" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G259" s="3">
         <v>45307.49564814815</v>
@@ -10653,7 +10656,7 @@
         <v>45315.9937037037</v>
       </c>
       <c r="I259" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -10670,10 +10673,10 @@
         <v>552</v>
       </c>
       <c r="E260" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="F260" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G260" s="3">
         <v>45314.90094907407</v>
@@ -10682,7 +10685,7 @@
         <v>45315.89604166667</v>
       </c>
       <c r="I260" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -10699,10 +10702,10 @@
         <v>553</v>
       </c>
       <c r="E261" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F261" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G261" s="3">
         <v>45294.84780092593</v>
@@ -10711,7 +10714,7 @@
         <v>45316.03907407408</v>
       </c>
       <c r="I261" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -10728,10 +10731,10 @@
         <v>554</v>
       </c>
       <c r="E262" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F262" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G262" s="3">
         <v>45296.61121527778</v>
@@ -10740,7 +10743,7 @@
         <v>45316.03895833333</v>
       </c>
       <c r="I262" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -10757,10 +10760,10 @@
         <v>555</v>
       </c>
       <c r="E263" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F263" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G263" s="3">
         <v>45311.62060185185</v>
@@ -10769,7 +10772,7 @@
         <v>45316.03954861111</v>
       </c>
       <c r="I263" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -10786,10 +10789,10 @@
         <v>556</v>
       </c>
       <c r="E264" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F264" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G264" s="3">
         <v>45301.61861111111</v>
@@ -10798,7 +10801,7 @@
         <v>45316.08056712963</v>
       </c>
       <c r="I264" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -10815,10 +10818,10 @@
         <v>557</v>
       </c>
       <c r="E265" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F265" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G265" s="3">
         <v>45286.49385416666</v>
@@ -10827,7 +10830,7 @@
         <v>45316.03959490741</v>
       </c>
       <c r="I265" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -10844,10 +10847,10 @@
         <v>558</v>
       </c>
       <c r="E266" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F266" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G266" s="3">
         <v>45311.71087962963</v>
@@ -10856,7 +10859,7 @@
         <v>45314.67140046296</v>
       </c>
       <c r="I266" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -10873,10 +10876,10 @@
         <v>559</v>
       </c>
       <c r="E267" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F267" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G267" s="3">
         <v>45288.63045138889</v>
@@ -10885,7 +10888,7 @@
         <v>45316.03887731482</v>
       </c>
       <c r="I267" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -10902,10 +10905,10 @@
         <v>560</v>
       </c>
       <c r="E268" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F268" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G268" s="3">
         <v>45280.82067129629</v>
@@ -10914,7 +10917,7 @@
         <v>45316.03997685185</v>
       </c>
       <c r="I268" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -10931,10 +10934,10 @@
         <v>561</v>
       </c>
       <c r="E269" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F269" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G269" s="3">
         <v>45296.62119212963</v>
@@ -10943,7 +10946,7 @@
         <v>45316.08042824074</v>
       </c>
       <c r="I269" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -10960,10 +10963,10 @@
         <v>562</v>
       </c>
       <c r="E270" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="F270" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G270" s="3">
         <v>45300.48923611111</v>
@@ -10972,7 +10975,7 @@
         <v>45316.08054398148</v>
       </c>
       <c r="I270" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -10989,10 +10992,10 @@
         <v>563</v>
       </c>
       <c r="E271" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F271" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G271" s="3">
         <v>45314.49359953704</v>
@@ -11001,7 +11004,7 @@
         <v>45314.66849537037</v>
       </c>
       <c r="I271" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -11018,10 +11021,10 @@
         <v>564</v>
       </c>
       <c r="E272" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F272" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G272" s="3">
         <v>45312.50121527778</v>
@@ -11030,7 +11033,7 @@
         <v>45312.67422453704</v>
       </c>
       <c r="I272" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -11047,10 +11050,10 @@
         <v>565</v>
       </c>
       <c r="E273" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F273" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G273" s="3">
         <v>45261.49545138889</v>
@@ -11059,7 +11062,7 @@
         <v>45309.04300925926</v>
       </c>
       <c r="I273" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -11076,10 +11079,10 @@
         <v>566</v>
       </c>
       <c r="E274" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F274" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G274" s="3">
         <v>45291.49003472222</v>
@@ -11088,7 +11091,7 @@
         <v>45316.08077546296</v>
       </c>
       <c r="I274" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -11105,10 +11108,10 @@
         <v>567</v>
       </c>
       <c r="E275" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F275" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G275" s="3">
         <v>45280.21361111111</v>
@@ -11117,7 +11120,7 @@
         <v>45309.04177083333</v>
       </c>
       <c r="I275" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -11134,10 +11137,10 @@
         <v>568</v>
       </c>
       <c r="E276" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F276" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G276" s="3">
         <v>45314.56188657408</v>
@@ -11146,7 +11149,7 @@
         <v>45315.48497685185</v>
       </c>
       <c r="I276" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -11163,10 +11166,10 @@
         <v>569</v>
       </c>
       <c r="E277" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F277" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G277" s="3">
         <v>45302.49186342592</v>
@@ -11175,7 +11178,7 @@
         <v>45316.08069444444</v>
       </c>
       <c r="I277" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -11192,10 +11195,10 @@
         <v>570</v>
       </c>
       <c r="E278" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F278" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G278" s="3">
         <v>45291.5000462963</v>
@@ -11204,7 +11207,7 @@
         <v>45314.49376157407</v>
       </c>
       <c r="I278" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -11221,10 +11224,10 @@
         <v>571</v>
       </c>
       <c r="E279" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F279" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G279" s="3">
         <v>45291.49392361111</v>
@@ -11233,7 +11236,7 @@
         <v>45314.49452546296</v>
       </c>
       <c r="I279" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -11250,10 +11253,10 @@
         <v>572</v>
       </c>
       <c r="E280" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F280" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G280" s="3">
         <v>45312.49576388889</v>
@@ -11262,7 +11265,7 @@
         <v>45316.03846064815</v>
       </c>
       <c r="I280" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -11279,10 +11282,10 @@
         <v>573</v>
       </c>
       <c r="E281" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F281" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G281" s="3">
         <v>45312.98068287037</v>
@@ -11291,7 +11294,7 @@
         <v>45316.08041666666</v>
       </c>
       <c r="I281" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -11308,10 +11311,10 @@
         <v>574</v>
       </c>
       <c r="E282" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F282" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G282" s="3">
         <v>45314.49623842593</v>
@@ -11320,7 +11323,7 @@
         <v>45316.08075231482</v>
       </c>
       <c r="I282" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -11337,10 +11340,10 @@
         <v>575</v>
       </c>
       <c r="E283" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F283" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G283" s="3">
         <v>45313.14449074074</v>
@@ -11349,7 +11352,7 @@
         <v>45316.08082175926</v>
       </c>
       <c r="I283" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -11366,10 +11369,10 @@
         <v>576</v>
       </c>
       <c r="E284" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F284" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G284" s="3">
         <v>45312.50119212963</v>
@@ -11378,7 +11381,7 @@
         <v>45316.08556712963</v>
       </c>
       <c r="I284" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -1771,7 +1771,7 @@
     <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
   </si>
   <si>
-    <t>{'harmless': 52, 'malicious': 14, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
   </si>
   <si>
     <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
@@ -3496,10 +3496,10 @@
         <v>723</v>
       </c>
       <c r="G12" s="3">
-        <v>45298.49170138889</v>
+        <v>45329.01333333334</v>
       </c>
       <c r="H12" s="3">
-        <v>45316.37927083333</v>
+        <v>45341.36274305556</v>
       </c>
       <c r="I12" t="s">
         <v>778</v>

--- a/1.xlsx
+++ b/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="922">
   <si>
     <t>Sno</t>
   </si>
@@ -1774,40 +1774,43 @@
     <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
   </si>
   <si>
+    <t>{'harmless': 60, 'malicious': 8, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 0, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
     <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 0, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
   </si>
   <si>
     <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
@@ -3203,7 +3206,7 @@
         <v>577</v>
       </c>
       <c r="F2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G2" s="3">
         <v>45311.61894675926</v>
@@ -3212,7 +3215,7 @@
         <v>45341.32113425926</v>
       </c>
       <c r="I2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3232,7 +3235,7 @@
         <v>578</v>
       </c>
       <c r="F3" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G3" s="3">
         <v>45328.50989583333</v>
@@ -3241,7 +3244,7 @@
         <v>45341.27945601852</v>
       </c>
       <c r="I3" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3261,7 +3264,7 @@
         <v>578</v>
       </c>
       <c r="F4" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G4" s="3">
         <v>45306.97109953704</v>
@@ -3270,7 +3273,7 @@
         <v>45341.06746527777</v>
       </c>
       <c r="I4" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3290,7 +3293,7 @@
         <v>578</v>
       </c>
       <c r="F5" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G5" s="3">
         <v>45328.57457175926</v>
@@ -3299,7 +3302,7 @@
         <v>45341.27858796297</v>
       </c>
       <c r="I5" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3319,7 +3322,7 @@
         <v>579</v>
       </c>
       <c r="F6" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G6" s="3">
         <v>45337.51012731482</v>
@@ -3328,7 +3331,7 @@
         <v>45341.27866898148</v>
       </c>
       <c r="I6" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3348,7 +3351,7 @@
         <v>580</v>
       </c>
       <c r="F7" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G7" s="3">
         <v>45329.3558912037</v>
@@ -3357,7 +3360,7 @@
         <v>45341.32061342592</v>
       </c>
       <c r="I7" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3377,7 +3380,7 @@
         <v>581</v>
       </c>
       <c r="F8" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G8" s="3">
         <v>45337.50997685185</v>
@@ -3386,7 +3389,7 @@
         <v>45341.10480324074</v>
       </c>
       <c r="I8" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3406,7 +3409,7 @@
         <v>582</v>
       </c>
       <c r="F9" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G9" s="3">
         <v>45308.21690972222</v>
@@ -3415,7 +3418,7 @@
         <v>45341.10543981481</v>
       </c>
       <c r="I9" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3435,7 +3438,7 @@
         <v>583</v>
       </c>
       <c r="F10" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G10" s="3">
         <v>45329.50237268519</v>
@@ -3444,7 +3447,7 @@
         <v>45341.04172453703</v>
       </c>
       <c r="I10" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3464,7 +3467,7 @@
         <v>584</v>
       </c>
       <c r="F11" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G11" s="3">
         <v>45316.49925925926</v>
@@ -3473,7 +3476,7 @@
         <v>45341.10148148148</v>
       </c>
       <c r="I11" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3493,7 +3496,7 @@
         <v>585</v>
       </c>
       <c r="F12" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G12" s="3">
         <v>45329.01333333334</v>
@@ -3502,7 +3505,7 @@
         <v>45341.36274305556</v>
       </c>
       <c r="I12" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3522,16 +3525,16 @@
         <v>586</v>
       </c>
       <c r="F13" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G13" s="3">
-        <v>45280.79738425926</v>
+        <v>45320.50914351852</v>
       </c>
       <c r="H13" s="3">
-        <v>45309.10356481482</v>
+        <v>45341.02841435185</v>
       </c>
       <c r="I13" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3551,7 +3554,7 @@
         <v>587</v>
       </c>
       <c r="F14" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G14" s="3">
         <v>45298.49263888889</v>
@@ -3560,7 +3563,7 @@
         <v>45316.37927083333</v>
       </c>
       <c r="I14" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3580,7 +3583,7 @@
         <v>588</v>
       </c>
       <c r="F15" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G15" s="3">
         <v>45310.43427083334</v>
@@ -3589,7 +3592,7 @@
         <v>45316.36269675926</v>
       </c>
       <c r="I15" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3609,7 +3612,7 @@
         <v>589</v>
       </c>
       <c r="F16" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G16" s="3">
         <v>45311.33236111111</v>
@@ -3618,7 +3621,7 @@
         <v>45314.49320601852</v>
       </c>
       <c r="I16" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3638,7 +3641,7 @@
         <v>590</v>
       </c>
       <c r="F17" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G17" s="3">
         <v>45301.30826388889</v>
@@ -3647,7 +3650,7 @@
         <v>45316.37930555556</v>
       </c>
       <c r="I17" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3667,7 +3670,7 @@
         <v>591</v>
       </c>
       <c r="F18" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G18" s="3">
         <v>45306.18137731482</v>
@@ -3676,7 +3679,7 @@
         <v>45316.42100694445</v>
       </c>
       <c r="I18" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3696,7 +3699,7 @@
         <v>592</v>
       </c>
       <c r="F19" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G19" s="3">
         <v>45288.23121527778</v>
@@ -3705,7 +3708,7 @@
         <v>45302.48868055556</v>
       </c>
       <c r="I19" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3725,7 +3728,7 @@
         <v>593</v>
       </c>
       <c r="F20" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G20" s="3">
         <v>45307.52993055555</v>
@@ -3734,7 +3737,7 @@
         <v>45314.19462962963</v>
       </c>
       <c r="I20" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3754,7 +3757,7 @@
         <v>594</v>
       </c>
       <c r="F21" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G21" s="3">
         <v>45314.42365740741</v>
@@ -3763,7 +3766,7 @@
         <v>45314.42368055556</v>
       </c>
       <c r="I21" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3783,7 +3786,7 @@
         <v>595</v>
       </c>
       <c r="F22" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G22" s="3">
         <v>45305.57067129629</v>
@@ -3792,7 +3795,7 @@
         <v>45316.42155092592</v>
       </c>
       <c r="I22" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3812,7 +3815,7 @@
         <v>596</v>
       </c>
       <c r="F23" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G23" s="3">
         <v>45291.49997685185</v>
@@ -3821,7 +3824,7 @@
         <v>45314.49226851852</v>
       </c>
       <c r="I23" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3841,7 +3844,7 @@
         <v>597</v>
       </c>
       <c r="F24" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G24" s="3">
         <v>45309.80174768518</v>
@@ -3850,7 +3853,7 @@
         <v>45315.85729166667</v>
       </c>
       <c r="I24" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3867,10 +3870,10 @@
         <v>317</v>
       </c>
       <c r="E25" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="F25" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G25" s="3">
         <v>45299.43368055556</v>
@@ -3879,7 +3882,7 @@
         <v>45316.37909722222</v>
       </c>
       <c r="I25" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3896,10 +3899,10 @@
         <v>318</v>
       </c>
       <c r="E26" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F26" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G26" s="3">
         <v>45314.17763888889</v>
@@ -3908,7 +3911,7 @@
         <v>45316.08064814815</v>
       </c>
       <c r="I26" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3925,10 +3928,10 @@
         <v>319</v>
       </c>
       <c r="E27" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F27" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G27" s="3">
         <v>45291.49208333333</v>
@@ -3937,7 +3940,7 @@
         <v>45316.34907407407</v>
       </c>
       <c r="I27" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3954,10 +3957,10 @@
         <v>320</v>
       </c>
       <c r="E28" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F28" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G28" s="3">
         <v>45289.73149305556</v>
@@ -3966,7 +3969,7 @@
         <v>45316.37931712963</v>
       </c>
       <c r="I28" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3983,10 +3986,10 @@
         <v>321</v>
       </c>
       <c r="E29" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F29" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G29" s="3">
         <v>45312.4952662037</v>
@@ -3995,7 +3998,7 @@
         <v>45315.52618055556</v>
       </c>
       <c r="I29" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4012,10 +4015,10 @@
         <v>322</v>
       </c>
       <c r="E30" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F30" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G30" s="3">
         <v>45307.49253472222</v>
@@ -4024,7 +4027,7 @@
         <v>45316.3793287037</v>
       </c>
       <c r="I30" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4041,10 +4044,10 @@
         <v>323</v>
       </c>
       <c r="E31" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F31" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G31" s="3">
         <v>45311.71104166667</v>
@@ -4053,7 +4056,7 @@
         <v>45316.37922453704</v>
       </c>
       <c r="I31" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4070,10 +4073,10 @@
         <v>324</v>
       </c>
       <c r="E32" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F32" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G32" s="3">
         <v>45312.34644675926</v>
@@ -4082,7 +4085,7 @@
         <v>45316.37908564815</v>
       </c>
       <c r="I32" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4099,10 +4102,10 @@
         <v>325</v>
       </c>
       <c r="E33" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F33" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G33" s="3">
         <v>44163.34006944444</v>
@@ -4111,7 +4114,7 @@
         <v>44163.34006944444</v>
       </c>
       <c r="I33" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4131,7 +4134,7 @@
         <v>591</v>
       </c>
       <c r="F34" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G34" s="3">
         <v>45286.80534722222</v>
@@ -4140,7 +4143,7 @@
         <v>45316.37934027778</v>
       </c>
       <c r="I34" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4157,10 +4160,10 @@
         <v>327</v>
       </c>
       <c r="E35" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G35" s="3">
         <v>45302.49230324074</v>
@@ -4169,7 +4172,7 @@
         <v>45314.98761574074</v>
       </c>
       <c r="I35" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4186,10 +4189,10 @@
         <v>328</v>
       </c>
       <c r="E36" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F36" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G36" s="3">
         <v>45302.49503472223</v>
@@ -4198,7 +4201,7 @@
         <v>45315.48547453704</v>
       </c>
       <c r="I36" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4215,10 +4218,10 @@
         <v>329</v>
       </c>
       <c r="E37" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F37" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G37" s="3">
         <v>45311.61938657407</v>
@@ -4227,7 +4230,7 @@
         <v>45316.42167824074</v>
       </c>
       <c r="I37" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4244,10 +4247,10 @@
         <v>330</v>
       </c>
       <c r="E38" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F38" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G38" s="3">
         <v>45297.0796412037</v>
@@ -4256,7 +4259,7 @@
         <v>45316.49811342593</v>
       </c>
       <c r="I38" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4273,10 +4276,10 @@
         <v>331</v>
       </c>
       <c r="E39" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F39" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G39" s="3">
         <v>45290.31696759259</v>
@@ -4285,7 +4288,7 @@
         <v>45316.49866898148</v>
       </c>
       <c r="I39" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4302,10 +4305,10 @@
         <v>332</v>
       </c>
       <c r="E40" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F40" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G40" s="3">
         <v>45313.59486111111</v>
@@ -4314,7 +4317,7 @@
         <v>45316.49662037037</v>
       </c>
       <c r="I40" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4331,10 +4334,10 @@
         <v>333</v>
       </c>
       <c r="E41" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F41" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G41" s="3">
         <v>45295.49177083333</v>
@@ -4343,7 +4346,7 @@
         <v>45316.49807870371</v>
       </c>
       <c r="I41" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4360,10 +4363,10 @@
         <v>334</v>
       </c>
       <c r="E42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F42" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G42" s="3">
         <v>45311.92179398148</v>
@@ -4372,7 +4375,7 @@
         <v>45316.4971875</v>
       </c>
       <c r="I42" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4389,10 +4392,10 @@
         <v>335</v>
       </c>
       <c r="E43" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F43" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G43" s="3">
         <v>45296.05393518518</v>
@@ -4401,7 +4404,7 @@
         <v>45316.50489583334</v>
       </c>
       <c r="I43" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4418,10 +4421,10 @@
         <v>336</v>
       </c>
       <c r="E44" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F44" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G44" s="3">
         <v>45313.11333333333</v>
@@ -4430,7 +4433,7 @@
         <v>45316.49230324074</v>
       </c>
       <c r="I44" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4447,10 +4450,10 @@
         <v>337</v>
       </c>
       <c r="E45" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F45" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G45" s="3">
         <v>45306.61894675926</v>
@@ -4459,7 +4462,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I45" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4476,10 +4479,10 @@
         <v>338</v>
       </c>
       <c r="E46" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F46" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G46" s="3">
         <v>45312.49850694444</v>
@@ -4488,7 +4491,7 @@
         <v>45316.49799768518</v>
       </c>
       <c r="I46" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4505,10 +4508,10 @@
         <v>339</v>
       </c>
       <c r="E47" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F47" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G47" s="3">
         <v>45262.49515046296</v>
@@ -4517,7 +4520,7 @@
         <v>45309.07923611111</v>
       </c>
       <c r="I47" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4534,10 +4537,10 @@
         <v>340</v>
       </c>
       <c r="E48" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F48" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G48" s="3">
         <v>45298.49847222222</v>
@@ -4546,7 +4549,7 @@
         <v>45316.49944444445</v>
       </c>
       <c r="I48" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4563,10 +4566,10 @@
         <v>341</v>
       </c>
       <c r="E49" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F49" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G49" s="3">
         <v>45311.61908564815</v>
@@ -4575,7 +4578,7 @@
         <v>45316.49847222222</v>
       </c>
       <c r="I49" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4592,10 +4595,10 @@
         <v>342</v>
       </c>
       <c r="E50" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F50" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G50" s="3">
         <v>45311.61989583333</v>
@@ -4604,7 +4607,7 @@
         <v>45316.50482638889</v>
       </c>
       <c r="I50" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4621,10 +4624,10 @@
         <v>343</v>
       </c>
       <c r="E51" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F51" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G51" s="3">
         <v>45316.50053240741</v>
@@ -4633,7 +4636,7 @@
         <v>45316.50232638889</v>
       </c>
       <c r="I51" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4653,7 +4656,7 @@
         <v>594</v>
       </c>
       <c r="F52" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G52" s="3">
         <v>45313.05881944444</v>
@@ -4662,7 +4665,7 @@
         <v>45314.42322916666</v>
       </c>
       <c r="I52" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4679,10 +4682,10 @@
         <v>345</v>
       </c>
       <c r="E53" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F53" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G53" s="3">
         <v>45316.5015162037</v>
@@ -4691,7 +4694,7 @@
         <v>45316.50331018519</v>
       </c>
       <c r="I53" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4708,10 +4711,10 @@
         <v>346</v>
       </c>
       <c r="E54" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F54" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G54" s="3">
         <v>45291.62113425926</v>
@@ -4720,7 +4723,7 @@
         <v>45316.49827546296</v>
       </c>
       <c r="I54" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4737,10 +4740,10 @@
         <v>347</v>
       </c>
       <c r="E55" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F55" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G55" s="3">
         <v>45287.49758101852</v>
@@ -4749,7 +4752,7 @@
         <v>45316.50458333334</v>
       </c>
       <c r="I55" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4766,10 +4769,10 @@
         <v>348</v>
       </c>
       <c r="E56" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F56" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G56" s="3">
         <v>45280.75131944445</v>
@@ -4778,7 +4781,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I56" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4795,10 +4798,10 @@
         <v>349</v>
       </c>
       <c r="E57" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F57" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G57" s="3">
         <v>45291.49048611111</v>
@@ -4807,7 +4810,7 @@
         <v>45316.50336805556</v>
       </c>
       <c r="I57" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4827,7 +4830,7 @@
         <v>590</v>
       </c>
       <c r="F58" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G58" s="3">
         <v>45310.86956018519</v>
@@ -4836,7 +4839,7 @@
         <v>45314.48899305556</v>
       </c>
       <c r="I58" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4856,7 +4859,7 @@
         <v>595</v>
       </c>
       <c r="F59" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G59" s="3">
         <v>45311.61930555556</v>
@@ -4865,7 +4868,7 @@
         <v>45316.49861111111</v>
       </c>
       <c r="I59" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4882,10 +4885,10 @@
         <v>352</v>
       </c>
       <c r="E60" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F60" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G60" s="3">
         <v>45313.76346064815</v>
@@ -4894,7 +4897,7 @@
         <v>45316.49800925926</v>
       </c>
       <c r="I60" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4911,10 +4914,10 @@
         <v>353</v>
       </c>
       <c r="E61" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F61" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G61" s="3">
         <v>45278.11224537037</v>
@@ -4923,7 +4926,7 @@
         <v>45302.49298611111</v>
       </c>
       <c r="I61" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4940,10 +4943,10 @@
         <v>354</v>
       </c>
       <c r="E62" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F62" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G62" s="3">
         <v>45278.21631944444</v>
@@ -4952,7 +4955,7 @@
         <v>45316.50450231481</v>
       </c>
       <c r="I62" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4969,10 +4972,10 @@
         <v>355</v>
       </c>
       <c r="E63" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F63" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G63" s="3">
         <v>45163.2121412037</v>
@@ -4981,7 +4984,7 @@
         <v>45163.2121412037</v>
       </c>
       <c r="I63" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4998,10 +5001,10 @@
         <v>356</v>
       </c>
       <c r="E64" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F64" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G64" s="3">
         <v>45316.49957175926</v>
@@ -5010,7 +5013,7 @@
         <v>45316.50452546297</v>
       </c>
       <c r="I64" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -5027,10 +5030,10 @@
         <v>357</v>
       </c>
       <c r="E65" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F65" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G65" s="3">
         <v>45297.49180555555</v>
@@ -5039,7 +5042,7 @@
         <v>45316.50127314815</v>
       </c>
       <c r="I65" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -5056,10 +5059,10 @@
         <v>358</v>
       </c>
       <c r="E66" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F66" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G66" s="3">
         <v>45297.09299768518</v>
@@ -5068,7 +5071,7 @@
         <v>45316.5039699074</v>
       </c>
       <c r="I66" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -5085,10 +5088,10 @@
         <v>359</v>
       </c>
       <c r="E67" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F67" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G67" s="3">
         <v>45316.50059027778</v>
@@ -5097,7 +5100,7 @@
         <v>45316.50255787037</v>
       </c>
       <c r="I67" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -5114,10 +5117,10 @@
         <v>360</v>
       </c>
       <c r="E68" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F68" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G68" s="3">
         <v>45313.63670138889</v>
@@ -5126,7 +5129,7 @@
         <v>45315.90416666667</v>
       </c>
       <c r="I68" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -5146,7 +5149,7 @@
         <v>595</v>
       </c>
       <c r="F69" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G69" s="3">
         <v>45304.51188657407</v>
@@ -5155,7 +5158,7 @@
         <v>45315.56863425926</v>
       </c>
       <c r="I69" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -5172,10 +5175,10 @@
         <v>362</v>
       </c>
       <c r="E70" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F70" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G70" s="3">
         <v>45291.49329861111</v>
@@ -5184,7 +5187,7 @@
         <v>45312.93239583333</v>
       </c>
       <c r="I70" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -5201,10 +5204,10 @@
         <v>363</v>
       </c>
       <c r="E71" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F71" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G71" s="3">
         <v>45300.57674768518</v>
@@ -5213,7 +5216,7 @@
         <v>45315.52626157407</v>
       </c>
       <c r="I71" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -5230,10 +5233,10 @@
         <v>364</v>
       </c>
       <c r="E72" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F72" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G72" s="3">
         <v>45310.40046296296</v>
@@ -5242,7 +5245,7 @@
         <v>45312.49293981482</v>
       </c>
       <c r="I72" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5259,10 +5262,10 @@
         <v>365</v>
       </c>
       <c r="E73" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F73" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G73" s="3">
         <v>45291.49876157408</v>
@@ -5271,7 +5274,7 @@
         <v>45314.49362268519</v>
       </c>
       <c r="I73" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5288,10 +5291,10 @@
         <v>366</v>
       </c>
       <c r="E74" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F74" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G74" s="3">
         <v>45292.49576388889</v>
@@ -5300,7 +5303,7 @@
         <v>45314.64596064815</v>
       </c>
       <c r="I74" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5317,16 +5320,16 @@
         <v>367</v>
       </c>
       <c r="E75" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F75" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H75" s="3">
         <v>45047.30018518519</v>
       </c>
       <c r="I75" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -5343,10 +5346,10 @@
         <v>368</v>
       </c>
       <c r="E76" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F76" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G76" s="3">
         <v>45291.49430555556</v>
@@ -5355,7 +5358,7 @@
         <v>45316.16467592592</v>
       </c>
       <c r="I76" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5372,10 +5375,10 @@
         <v>369</v>
       </c>
       <c r="E77" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F77" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G77" s="3">
         <v>45283.62505787037</v>
@@ -5384,7 +5387,7 @@
         <v>45309.04886574074</v>
       </c>
       <c r="I77" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5401,10 +5404,10 @@
         <v>370</v>
       </c>
       <c r="E78" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F78" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G78" s="3">
         <v>45262.59487268519</v>
@@ -5413,7 +5416,7 @@
         <v>45309.01453703704</v>
       </c>
       <c r="I78" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -5430,10 +5433,10 @@
         <v>371</v>
       </c>
       <c r="E79" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F79" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G79" s="3">
         <v>45312.49354166666</v>
@@ -5442,7 +5445,7 @@
         <v>45316.164375</v>
       </c>
       <c r="I79" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -5462,7 +5465,7 @@
         <v>590</v>
       </c>
       <c r="F80" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G80" s="3">
         <v>45312.7619675926</v>
@@ -5471,7 +5474,7 @@
         <v>45315.65320601852</v>
       </c>
       <c r="I80" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5488,10 +5491,10 @@
         <v>373</v>
       </c>
       <c r="E81" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F81" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G81" s="3">
         <v>45310.90116898148</v>
@@ -5500,7 +5503,7 @@
         <v>45316.2090625</v>
       </c>
       <c r="I81" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5517,10 +5520,10 @@
         <v>374</v>
       </c>
       <c r="E82" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F82" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G82" s="3">
         <v>45315.1578125</v>
@@ -5529,7 +5532,7 @@
         <v>45316.16471064815</v>
       </c>
       <c r="I82" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -5546,10 +5549,10 @@
         <v>375</v>
       </c>
       <c r="E83" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F83" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G83" s="3">
         <v>45287.44400462963</v>
@@ -5558,7 +5561,7 @@
         <v>45314.49243055555</v>
       </c>
       <c r="I83" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -5578,7 +5581,7 @@
         <v>594</v>
       </c>
       <c r="F84" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G84" s="3">
         <v>45309.58261574074</v>
@@ -5587,7 +5590,7 @@
         <v>45314.42337962963</v>
       </c>
       <c r="I84" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -5604,10 +5607,10 @@
         <v>377</v>
       </c>
       <c r="E85" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F85" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G85" s="3">
         <v>45280.04030092592</v>
@@ -5616,7 +5619,7 @@
         <v>45309.01909722222</v>
       </c>
       <c r="I85" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -5633,10 +5636,10 @@
         <v>378</v>
       </c>
       <c r="E86" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F86" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G86" s="3">
         <v>45302.49703703704</v>
@@ -5645,7 +5648,7 @@
         <v>45316.20864583334</v>
       </c>
       <c r="I86" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -5665,7 +5668,7 @@
         <v>589</v>
       </c>
       <c r="F87" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G87" s="3">
         <v>45313.29277777778</v>
@@ -5674,7 +5677,7 @@
         <v>45315.23820601852</v>
       </c>
       <c r="I87" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5691,10 +5694,10 @@
         <v>380</v>
       </c>
       <c r="E88" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F88" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G88" s="3">
         <v>45286.50180555556</v>
@@ -5703,7 +5706,7 @@
         <v>45312.67471064815</v>
       </c>
       <c r="I88" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5720,10 +5723,10 @@
         <v>381</v>
       </c>
       <c r="E89" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F89" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G89" s="3">
         <v>45311.42429398148</v>
@@ -5732,7 +5735,7 @@
         <v>45314.89614583334</v>
       </c>
       <c r="I89" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -5749,10 +5752,10 @@
         <v>382</v>
       </c>
       <c r="E90" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F90" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G90" s="3">
         <v>45306.6199537037</v>
@@ -5761,7 +5764,7 @@
         <v>45314.49379629629</v>
       </c>
       <c r="I90" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -5781,7 +5784,7 @@
         <v>594</v>
       </c>
       <c r="F91" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G91" s="3">
         <v>45315.42351851852</v>
@@ -5790,7 +5793,7 @@
         <v>45315.42354166666</v>
       </c>
       <c r="I91" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5807,10 +5810,10 @@
         <v>384</v>
       </c>
       <c r="E92" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F92" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G92" s="3">
         <v>45287.95120370371</v>
@@ -5819,7 +5822,7 @@
         <v>45315.61121527778</v>
       </c>
       <c r="I92" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -5836,10 +5839,10 @@
         <v>385</v>
       </c>
       <c r="E93" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F93" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G93" s="3">
         <v>45312.49561342593</v>
@@ -5848,7 +5851,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I93" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5868,7 +5871,7 @@
         <v>595</v>
       </c>
       <c r="F94" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G94" s="3">
         <v>45291.62100694444</v>
@@ -5877,7 +5880,7 @@
         <v>45314.49383101852</v>
       </c>
       <c r="I94" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5894,10 +5897,10 @@
         <v>387</v>
       </c>
       <c r="E95" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F95" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G95" s="3">
         <v>44926.35877314815</v>
@@ -5906,7 +5909,7 @@
         <v>44926.35877314815</v>
       </c>
       <c r="I95" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5926,7 +5929,7 @@
         <v>595</v>
       </c>
       <c r="F96" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G96" s="3">
         <v>45297.49363425926</v>
@@ -5935,7 +5938,7 @@
         <v>45311.89606481481</v>
       </c>
       <c r="I96" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5952,10 +5955,10 @@
         <v>389</v>
       </c>
       <c r="E97" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F97" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G97" s="3">
         <v>45314.49303240741</v>
@@ -5964,7 +5967,7 @@
         <v>45315.65373842593</v>
       </c>
       <c r="I97" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5981,10 +5984,10 @@
         <v>390</v>
       </c>
       <c r="E98" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F98" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G98" s="3">
         <v>45313.05805555556</v>
@@ -5993,7 +5996,7 @@
         <v>45313.05806712963</v>
       </c>
       <c r="I98" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -6010,10 +6013,10 @@
         <v>391</v>
       </c>
       <c r="E99" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F99" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G99" s="3">
         <v>45307.38726851852</v>
@@ -6022,7 +6025,7 @@
         <v>45314.85255787037</v>
       </c>
       <c r="I99" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -6039,10 +6042,10 @@
         <v>392</v>
       </c>
       <c r="E100" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F100" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G100" s="3">
         <v>45293.03614583334</v>
@@ -6051,7 +6054,7 @@
         <v>45293.0361574074</v>
       </c>
       <c r="I100" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6068,10 +6071,10 @@
         <v>393</v>
       </c>
       <c r="E101" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F101" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G101" s="3">
         <v>45314.50199074074</v>
@@ -6080,7 +6083,7 @@
         <v>45315.65385416667</v>
       </c>
       <c r="I101" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -6097,10 +6100,10 @@
         <v>394</v>
       </c>
       <c r="E102" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F102" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G102" s="3">
         <v>45307.37951388889</v>
@@ -6109,7 +6112,7 @@
         <v>45315.36158564815</v>
       </c>
       <c r="I102" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -6126,10 +6129,10 @@
         <v>395</v>
       </c>
       <c r="E103" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F103" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G103" s="3">
         <v>45307.00873842592</v>
@@ -6138,7 +6141,7 @@
         <v>45307.00875</v>
       </c>
       <c r="I103" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -6155,10 +6158,10 @@
         <v>396</v>
       </c>
       <c r="E104" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F104" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G104" s="3">
         <v>45315.42385416666</v>
@@ -6167,7 +6170,7 @@
         <v>45315.42386574074</v>
       </c>
       <c r="I104" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -6184,10 +6187,10 @@
         <v>397</v>
       </c>
       <c r="E105" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F105" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G105" s="3">
         <v>45291.49836805555</v>
@@ -6196,7 +6199,7 @@
         <v>45315.65422453704</v>
       </c>
       <c r="I105" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -6213,10 +6216,10 @@
         <v>398</v>
       </c>
       <c r="E106" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F106" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G106" s="3">
         <v>45280.57280092593</v>
@@ -6225,7 +6228,7 @@
         <v>45309.02465277778</v>
       </c>
       <c r="I106" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -6242,10 +6245,10 @@
         <v>399</v>
       </c>
       <c r="E107" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F107" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G107" s="3">
         <v>45302.49490740741</v>
@@ -6254,7 +6257,7 @@
         <v>45312.88666666667</v>
       </c>
       <c r="I107" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -6271,10 +6274,10 @@
         <v>400</v>
       </c>
       <c r="E108" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F108" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G108" s="3">
         <v>45288.28815972222</v>
@@ -6283,7 +6286,7 @@
         <v>45315.60980324074</v>
       </c>
       <c r="I108" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -6300,10 +6303,10 @@
         <v>401</v>
       </c>
       <c r="E109" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F109" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G109" s="3">
         <v>45295.49231481482</v>
@@ -6312,7 +6315,7 @@
         <v>45315.61019675926</v>
       </c>
       <c r="I109" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -6329,10 +6332,10 @@
         <v>402</v>
       </c>
       <c r="E110" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F110" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G110" s="3">
         <v>45312.76140046296</v>
@@ -6341,7 +6344,7 @@
         <v>45314.69101851852</v>
       </c>
       <c r="I110" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -6358,10 +6361,10 @@
         <v>403</v>
       </c>
       <c r="E111" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F111" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G111" s="3">
         <v>45314.49325231482</v>
@@ -6370,7 +6373,7 @@
         <v>45315.61035879629</v>
       </c>
       <c r="I111" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -6387,10 +6390,10 @@
         <v>404</v>
       </c>
       <c r="E112" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F112" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G112" s="3">
         <v>45313.42341435186</v>
@@ -6399,7 +6402,7 @@
         <v>45314.19578703704</v>
       </c>
       <c r="I112" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6416,10 +6419,10 @@
         <v>405</v>
       </c>
       <c r="E113" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F113" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G113" s="3">
         <v>45292.49325231482</v>
@@ -6428,7 +6431,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I113" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -6445,10 +6448,10 @@
         <v>406</v>
       </c>
       <c r="E114" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F114" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G114" s="3">
         <v>45313.0588425926</v>
@@ -6457,7 +6460,7 @@
         <v>45314.42222222222</v>
       </c>
       <c r="I114" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -6474,10 +6477,10 @@
         <v>407</v>
       </c>
       <c r="E115" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F115" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G115" s="3">
         <v>45307.5822337963</v>
@@ -6486,7 +6489,7 @@
         <v>45314.77590277778</v>
       </c>
       <c r="I115" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -6503,10 +6506,10 @@
         <v>408</v>
       </c>
       <c r="E116" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F116" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G116" s="3">
         <v>45298.49490740741</v>
@@ -6515,7 +6518,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I116" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -6532,10 +6535,10 @@
         <v>409</v>
       </c>
       <c r="E117" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F117" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G117" s="3">
         <v>45300.43424768518</v>
@@ -6544,7 +6547,7 @@
         <v>45314.49525462963</v>
       </c>
       <c r="I117" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -6561,10 +6564,10 @@
         <v>410</v>
       </c>
       <c r="E118" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F118" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G118" s="3">
         <v>45287.49133101852</v>
@@ -6573,7 +6576,7 @@
         <v>45315.68306712963</v>
       </c>
       <c r="I118" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -6590,10 +6593,10 @@
         <v>411</v>
       </c>
       <c r="E119" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F119" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G119" s="3">
         <v>45315.24193287037</v>
@@ -6602,7 +6605,7 @@
         <v>45315.65413194444</v>
       </c>
       <c r="I119" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -6619,10 +6622,10 @@
         <v>412</v>
       </c>
       <c r="E120" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F120" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G120" s="3">
         <v>45296.62521990741</v>
@@ -6631,7 +6634,7 @@
         <v>45315.32032407408</v>
       </c>
       <c r="I120" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -6648,10 +6651,10 @@
         <v>413</v>
       </c>
       <c r="E121" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F121" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G121" s="3">
         <v>45293.4970949074</v>
@@ -6660,7 +6663,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I121" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -6677,10 +6680,10 @@
         <v>414</v>
       </c>
       <c r="E122" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F122" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G122" s="3">
         <v>45282.72908564815</v>
@@ -6689,7 +6692,7 @@
         <v>45282.72909722223</v>
       </c>
       <c r="I122" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -6706,10 +6709,10 @@
         <v>415</v>
       </c>
       <c r="E123" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F123" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G123" s="3">
         <v>45314.49591435185</v>
@@ -6718,7 +6721,7 @@
         <v>45315.69609953704</v>
       </c>
       <c r="I123" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -6735,10 +6738,10 @@
         <v>416</v>
       </c>
       <c r="E124" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F124" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G124" s="3">
         <v>45300.97112268519</v>
@@ -6747,7 +6750,7 @@
         <v>45315.69616898148</v>
       </c>
       <c r="I124" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -6764,10 +6767,10 @@
         <v>417</v>
       </c>
       <c r="E125" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F125" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G125" s="3">
         <v>45273.65564814815</v>
@@ -6776,7 +6779,7 @@
         <v>45303.42461805556</v>
       </c>
       <c r="I125" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -6796,7 +6799,7 @@
         <v>590</v>
       </c>
       <c r="F126" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G126" s="3">
         <v>45298.21359953703</v>
@@ -6805,7 +6808,7 @@
         <v>45314.49523148148</v>
       </c>
       <c r="I126" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -6822,10 +6825,10 @@
         <v>419</v>
       </c>
       <c r="E127" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F127" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G127" s="3">
         <v>45308.42383101852</v>
@@ -6834,7 +6837,7 @@
         <v>45314.49195601852</v>
       </c>
       <c r="I127" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -6851,10 +6854,10 @@
         <v>420</v>
       </c>
       <c r="E128" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F128" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G128" s="3">
         <v>45294.41019675926</v>
@@ -6863,7 +6866,7 @@
         <v>45315.69918981481</v>
       </c>
       <c r="I128" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -6880,10 +6883,10 @@
         <v>421</v>
       </c>
       <c r="E129" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="F129" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G129" s="3">
         <v>45310.61224537037</v>
@@ -6892,7 +6895,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I129" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -6909,10 +6912,10 @@
         <v>422</v>
       </c>
       <c r="E130" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F130" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G130" s="3">
         <v>45304.64673611111</v>
@@ -6921,7 +6924,7 @@
         <v>45315.6959375</v>
       </c>
       <c r="I130" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -6938,10 +6941,10 @@
         <v>423</v>
       </c>
       <c r="E131" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F131" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G131" s="3">
         <v>45295.49403935186</v>
@@ -6950,7 +6953,7 @@
         <v>45315.69605324074</v>
       </c>
       <c r="I131" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -6967,10 +6970,10 @@
         <v>424</v>
       </c>
       <c r="E132" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F132" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G132" s="3">
         <v>45298.06329861111</v>
@@ -6979,7 +6982,7 @@
         <v>45314.49458333333</v>
       </c>
       <c r="I132" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -6996,10 +6999,10 @@
         <v>425</v>
       </c>
       <c r="E133" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F133" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G133" s="3">
         <v>45297.49041666667</v>
@@ -7008,7 +7011,7 @@
         <v>45315.70159722222</v>
       </c>
       <c r="I133" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -7025,10 +7028,10 @@
         <v>426</v>
       </c>
       <c r="E134" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F134" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G134" s="3">
         <v>45296.21274305556</v>
@@ -7037,7 +7040,7 @@
         <v>45309.05621527778</v>
       </c>
       <c r="I134" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -7054,10 +7057,10 @@
         <v>427</v>
       </c>
       <c r="E135" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F135" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G135" s="3">
         <v>45307.08791666666</v>
@@ -7066,7 +7069,7 @@
         <v>45315.65327546297</v>
       </c>
       <c r="I135" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -7083,10 +7086,10 @@
         <v>428</v>
       </c>
       <c r="E136" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F136" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G136" s="3">
         <v>45314.49842592593</v>
@@ -7095,7 +7098,7 @@
         <v>45314.67444444444</v>
       </c>
       <c r="I136" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -7112,10 +7115,10 @@
         <v>429</v>
       </c>
       <c r="E137" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F137" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G137" s="3">
         <v>45310.65872685185</v>
@@ -7124,7 +7127,7 @@
         <v>45314.49422453704</v>
       </c>
       <c r="I137" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -7141,10 +7144,10 @@
         <v>430</v>
       </c>
       <c r="E138" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F138" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G138" s="3">
         <v>45312.13112268518</v>
@@ -7153,7 +7156,7 @@
         <v>45315.6537962963</v>
       </c>
       <c r="I138" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -7170,10 +7173,10 @@
         <v>431</v>
       </c>
       <c r="E139" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F139" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G139" s="3">
         <v>45270.59310185185</v>
@@ -7182,7 +7185,7 @@
         <v>45309.07831018518</v>
       </c>
       <c r="I139" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -7199,10 +7202,10 @@
         <v>432</v>
       </c>
       <c r="E140" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F140" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G140" s="3">
         <v>45278.77987268518</v>
@@ -7211,7 +7214,7 @@
         <v>45314.6009837963</v>
       </c>
       <c r="I140" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -7231,7 +7234,7 @@
         <v>590</v>
       </c>
       <c r="F141" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G141" s="3">
         <v>45314.49572916667</v>
@@ -7240,7 +7243,7 @@
         <v>45314.67103009259</v>
       </c>
       <c r="I141" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -7257,16 +7260,16 @@
         <v>434</v>
       </c>
       <c r="E142" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F142" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H142" s="3">
         <v>43999.85027777778</v>
       </c>
       <c r="I142" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -7283,10 +7286,10 @@
         <v>435</v>
       </c>
       <c r="E143" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F143" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G143" s="3">
         <v>45309.54311342593</v>
@@ -7295,7 +7298,7 @@
         <v>45316.16458333333</v>
       </c>
       <c r="I143" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -7312,10 +7315,10 @@
         <v>436</v>
       </c>
       <c r="E144" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F144" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G144" s="3">
         <v>45306.51280092593</v>
@@ -7324,7 +7327,7 @@
         <v>45306.51280092593</v>
       </c>
       <c r="I144" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -7341,10 +7344,10 @@
         <v>437</v>
       </c>
       <c r="E145" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F145" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G145" s="3">
         <v>45314.49275462963</v>
@@ -7353,7 +7356,7 @@
         <v>45315.73717592593</v>
       </c>
       <c r="I145" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -7370,10 +7373,10 @@
         <v>438</v>
       </c>
       <c r="E146" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F146" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G146" s="3">
         <v>45308.77947916667</v>
@@ -7382,7 +7385,7 @@
         <v>45309.07209490741</v>
       </c>
       <c r="I146" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -7399,10 +7402,10 @@
         <v>439</v>
       </c>
       <c r="E147" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F147" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G147" s="3">
         <v>45307.50165509259</v>
@@ -7411,7 +7414,7 @@
         <v>45312.88640046296</v>
       </c>
       <c r="I147" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -7428,10 +7431,10 @@
         <v>440</v>
       </c>
       <c r="E148" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F148" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G148" s="3">
         <v>45294.12988425926</v>
@@ -7440,7 +7443,7 @@
         <v>45314.49341435185</v>
       </c>
       <c r="I148" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -7457,10 +7460,10 @@
         <v>441</v>
       </c>
       <c r="E149" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F149" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G149" s="3">
         <v>45296.33108796296</v>
@@ -7469,7 +7472,7 @@
         <v>45314.51508101852</v>
       </c>
       <c r="I149" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -7486,10 +7489,10 @@
         <v>442</v>
       </c>
       <c r="E150" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F150" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G150" s="3">
         <v>45295.49210648148</v>
@@ -7498,7 +7501,7 @@
         <v>45315.69587962963</v>
       </c>
       <c r="I150" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -7515,10 +7518,10 @@
         <v>443</v>
       </c>
       <c r="E151" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F151" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G151" s="3">
         <v>45314.49277777778</v>
@@ -7527,7 +7530,7 @@
         <v>45315.73741898148</v>
       </c>
       <c r="I151" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -7544,10 +7547,10 @@
         <v>444</v>
       </c>
       <c r="E152" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F152" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G152" s="3">
         <v>45308.74111111111</v>
@@ -7556,7 +7559,7 @@
         <v>45310.69127314815</v>
       </c>
       <c r="I152" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -7573,10 +7576,10 @@
         <v>445</v>
       </c>
       <c r="E153" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F153" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G153" s="3">
         <v>45311.61907407407</v>
@@ -7585,7 +7588,7 @@
         <v>45315.73760416666</v>
       </c>
       <c r="I153" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -7605,7 +7608,7 @@
         <v>594</v>
       </c>
       <c r="F154" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G154" s="3">
         <v>45313.06128472222</v>
@@ -7614,7 +7617,7 @@
         <v>45314.4228125</v>
       </c>
       <c r="I154" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -7631,10 +7634,10 @@
         <v>447</v>
       </c>
       <c r="E155" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F155" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G155" s="3">
         <v>45291.49923611111</v>
@@ -7643,7 +7646,7 @@
         <v>45312.49590277778</v>
       </c>
       <c r="I155" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -7660,10 +7663,10 @@
         <v>448</v>
       </c>
       <c r="E156" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F156" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G156" s="3">
         <v>45302.49706018518</v>
@@ -7672,7 +7675,7 @@
         <v>45315.07060185185</v>
       </c>
       <c r="I156" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -7689,10 +7692,10 @@
         <v>449</v>
       </c>
       <c r="E157" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F157" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G157" s="3">
         <v>45286.49168981481</v>
@@ -7701,7 +7704,7 @@
         <v>45315.73706018519</v>
       </c>
       <c r="I157" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -7718,10 +7721,10 @@
         <v>450</v>
       </c>
       <c r="E158" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F158" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G158" s="3">
         <v>45306.62078703703</v>
@@ -7730,7 +7733,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I158" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -7747,10 +7750,10 @@
         <v>451</v>
       </c>
       <c r="E159" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F159" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G159" s="3">
         <v>45297.49820601852</v>
@@ -7759,7 +7762,7 @@
         <v>45315.73712962963</v>
       </c>
       <c r="I159" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -7776,10 +7779,10 @@
         <v>452</v>
       </c>
       <c r="E160" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F160" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G160" s="3">
         <v>45314.49293981482</v>
@@ -7788,7 +7791,7 @@
         <v>45315.73753472222</v>
       </c>
       <c r="I160" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -7805,10 +7808,10 @@
         <v>453</v>
       </c>
       <c r="E161" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F161" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G161" s="3">
         <v>45302.49929398148</v>
@@ -7817,7 +7820,7 @@
         <v>45314.49518518519</v>
       </c>
       <c r="I161" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -7834,16 +7837,16 @@
         <v>454</v>
       </c>
       <c r="E162" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F162" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H162" s="3">
         <v>45307.36160879629</v>
       </c>
       <c r="I162" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -7860,10 +7863,10 @@
         <v>455</v>
       </c>
       <c r="E163" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F163" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G163" s="3">
         <v>45314.4933912037</v>
@@ -7872,7 +7875,7 @@
         <v>45316.12230324074</v>
       </c>
       <c r="I163" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -7889,10 +7892,10 @@
         <v>456</v>
       </c>
       <c r="E164" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F164" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G164" s="3">
         <v>45307.36724537037</v>
@@ -7901,7 +7904,7 @@
         <v>45316.16459490741</v>
       </c>
       <c r="I164" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -7918,10 +7921,10 @@
         <v>457</v>
       </c>
       <c r="E165" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F165" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G165" s="3">
         <v>45297.31922453704</v>
@@ -7930,7 +7933,7 @@
         <v>45314.49394675926</v>
       </c>
       <c r="I165" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -7947,10 +7950,10 @@
         <v>458</v>
       </c>
       <c r="E166" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F166" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G166" s="3">
         <v>45315.42201388889</v>
@@ -7959,7 +7962,7 @@
         <v>45315.7841550926</v>
       </c>
       <c r="I166" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -7979,7 +7982,7 @@
         <v>594</v>
       </c>
       <c r="F167" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G167" s="3">
         <v>45314.42302083333</v>
@@ -7988,7 +7991,7 @@
         <v>45314.42302083333</v>
       </c>
       <c r="I167" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -8005,10 +8008,10 @@
         <v>460</v>
       </c>
       <c r="E168" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F168" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G168" s="3">
         <v>45314.49530092593</v>
@@ -8017,7 +8020,7 @@
         <v>45315.78174768519</v>
       </c>
       <c r="I168" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -8034,10 +8037,10 @@
         <v>461</v>
       </c>
       <c r="E169" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F169" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G169" s="3">
         <v>45312.49302083333</v>
@@ -8046,7 +8049,7 @@
         <v>45314.49451388889</v>
       </c>
       <c r="I169" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -8063,10 +8066,10 @@
         <v>462</v>
       </c>
       <c r="E170" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F170" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G170" s="3">
         <v>45302.49891203704</v>
@@ -8075,7 +8078,7 @@
         <v>45315.78163194445</v>
       </c>
       <c r="I170" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -8092,10 +8095,10 @@
         <v>463</v>
       </c>
       <c r="E171" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F171" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G171" s="3">
         <v>45314.49350694445</v>
@@ -8104,7 +8107,7 @@
         <v>45315.78178240741</v>
       </c>
       <c r="I171" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -8121,10 +8124,10 @@
         <v>464</v>
       </c>
       <c r="E172" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F172" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G172" s="3">
         <v>44049.84335648148</v>
@@ -8133,7 +8136,7 @@
         <v>44740.15496527778</v>
       </c>
       <c r="I172" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -8153,7 +8156,7 @@
         <v>595</v>
       </c>
       <c r="F173" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G173" s="3">
         <v>45307.49097222222</v>
@@ -8162,7 +8165,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I173" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -8182,7 +8185,7 @@
         <v>594</v>
       </c>
       <c r="F174" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G174" s="3">
         <v>45312.37847222222</v>
@@ -8191,7 +8194,7 @@
         <v>45314.42348379629</v>
       </c>
       <c r="I174" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -8208,10 +8211,10 @@
         <v>467</v>
       </c>
       <c r="E175" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F175" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G175" s="3">
         <v>45312.25097222222</v>
@@ -8220,7 +8223,7 @@
         <v>45315.74335648148</v>
       </c>
       <c r="I175" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -8237,10 +8240,10 @@
         <v>468</v>
       </c>
       <c r="E176" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F176" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G176" s="3">
         <v>45310.90118055556</v>
@@ -8249,7 +8252,7 @@
         <v>45314.49304398148</v>
       </c>
       <c r="I176" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -8266,10 +8269,10 @@
         <v>469</v>
       </c>
       <c r="E177" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F177" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G177" s="3">
         <v>45296.62515046296</v>
@@ -8278,7 +8281,7 @@
         <v>45314.49361111111</v>
       </c>
       <c r="I177" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -8295,10 +8298,10 @@
         <v>470</v>
       </c>
       <c r="E178" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F178" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G178" s="3">
         <v>45311.61869212963</v>
@@ -8307,7 +8310,7 @@
         <v>45315.73645833333</v>
       </c>
       <c r="I178" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -8324,10 +8327,10 @@
         <v>471</v>
       </c>
       <c r="E179" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F179" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G179" s="3">
         <v>45287.159375</v>
@@ -8336,7 +8339,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I179" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -8353,10 +8356,10 @@
         <v>472</v>
       </c>
       <c r="E180" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F180" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G180" s="3">
         <v>45311.68436342593</v>
@@ -8365,7 +8368,7 @@
         <v>45315.75385416667</v>
       </c>
       <c r="I180" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -8382,10 +8385,10 @@
         <v>473</v>
       </c>
       <c r="E181" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F181" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G181" s="3">
         <v>45291.49039351852</v>
@@ -8394,7 +8397,7 @@
         <v>45315.78164351852</v>
       </c>
       <c r="I181" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -8411,10 +8414,10 @@
         <v>474</v>
       </c>
       <c r="E182" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F182" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G182" s="3">
         <v>45308.74193287037</v>
@@ -8423,7 +8426,7 @@
         <v>45315.7467824074</v>
       </c>
       <c r="I182" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -8440,10 +8443,10 @@
         <v>475</v>
       </c>
       <c r="E183" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F183" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G183" s="3">
         <v>45290.68399305556</v>
@@ -8452,7 +8455,7 @@
         <v>45315.76791666666</v>
       </c>
       <c r="I183" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -8469,10 +8472,10 @@
         <v>476</v>
       </c>
       <c r="E184" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F184" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G184" s="3">
         <v>45294.52609953703</v>
@@ -8481,7 +8484,7 @@
         <v>45315.75109953704</v>
       </c>
       <c r="I184" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -8498,10 +8501,10 @@
         <v>477</v>
       </c>
       <c r="E185" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F185" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G185" s="3">
         <v>45305.28581018518</v>
@@ -8510,7 +8513,7 @@
         <v>45315.73657407407</v>
       </c>
       <c r="I185" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -8527,10 +8530,10 @@
         <v>478</v>
       </c>
       <c r="E186" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F186" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G186" s="3">
         <v>45303.07900462963</v>
@@ -8539,7 +8542,7 @@
         <v>45315.78171296296</v>
       </c>
       <c r="I186" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -8556,10 +8559,10 @@
         <v>479</v>
       </c>
       <c r="E187" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F187" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G187" s="3">
         <v>45294.00594907408</v>
@@ -8568,7 +8571,7 @@
         <v>45315.60971064815</v>
       </c>
       <c r="I187" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -8585,10 +8588,10 @@
         <v>480</v>
       </c>
       <c r="E188" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F188" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G188" s="3">
         <v>45291.6212037037</v>
@@ -8597,7 +8600,7 @@
         <v>45315.76299768518</v>
       </c>
       <c r="I188" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -8614,10 +8617,10 @@
         <v>481</v>
       </c>
       <c r="E189" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F189" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G189" s="3">
         <v>45291.62125</v>
@@ -8626,7 +8629,7 @@
         <v>45315.73672453704</v>
       </c>
       <c r="I189" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -8643,10 +8646,10 @@
         <v>482</v>
       </c>
       <c r="E190" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F190" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G190" s="3">
         <v>45291.49121527778</v>
@@ -8655,7 +8658,7 @@
         <v>45315.73679398148</v>
       </c>
       <c r="I190" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -8675,7 +8678,7 @@
         <v>595</v>
       </c>
       <c r="F191" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G191" s="3">
         <v>45305.45537037037</v>
@@ -8684,7 +8687,7 @@
         <v>45315.78153935185</v>
       </c>
       <c r="I191" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -8701,10 +8704,10 @@
         <v>484</v>
       </c>
       <c r="E192" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F192" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G192" s="3">
         <v>45312.66900462963</v>
@@ -8713,7 +8716,7 @@
         <v>45315.78197916667</v>
       </c>
       <c r="I192" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -8730,10 +8733,10 @@
         <v>485</v>
       </c>
       <c r="E193" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F193" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G193" s="3">
         <v>45283.15128472223</v>
@@ -8742,7 +8745,7 @@
         <v>45315.73756944444</v>
       </c>
       <c r="I193" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -8759,10 +8762,10 @@
         <v>486</v>
       </c>
       <c r="E194" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F194" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G194" s="3">
         <v>45290.15359953704</v>
@@ -8771,7 +8774,7 @@
         <v>45315.81050925926</v>
       </c>
       <c r="I194" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -8788,10 +8791,10 @@
         <v>487</v>
       </c>
       <c r="E195" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F195" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G195" s="3">
         <v>45288.77761574074</v>
@@ -8800,7 +8803,7 @@
         <v>45315.8109837963</v>
       </c>
       <c r="I195" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -8817,10 +8820,10 @@
         <v>488</v>
       </c>
       <c r="E196" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F196" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G196" s="3">
         <v>45283.5427199074</v>
@@ -8829,7 +8832,7 @@
         <v>45315.81034722222</v>
       </c>
       <c r="I196" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -8846,10 +8849,10 @@
         <v>489</v>
       </c>
       <c r="E197" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F197" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G197" s="3">
         <v>45290.06099537037</v>
@@ -8858,7 +8861,7 @@
         <v>45315.78223379629</v>
       </c>
       <c r="I197" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -8875,10 +8878,10 @@
         <v>490</v>
       </c>
       <c r="E198" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F198" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G198" s="3">
         <v>45285.78746527778</v>
@@ -8887,7 +8890,7 @@
         <v>45315.81327546296</v>
       </c>
       <c r="I198" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -8904,10 +8907,10 @@
         <v>491</v>
       </c>
       <c r="E199" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F199" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G199" s="3">
         <v>45300.70331018518</v>
@@ -8916,7 +8919,7 @@
         <v>45315.78243055556</v>
       </c>
       <c r="I199" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -8933,10 +8936,10 @@
         <v>492</v>
       </c>
       <c r="E200" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F200" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G200" s="3">
         <v>45313.4215625</v>
@@ -8945,7 +8948,7 @@
         <v>45314.19313657407</v>
       </c>
       <c r="I200" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -8962,10 +8965,10 @@
         <v>493</v>
       </c>
       <c r="E201" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="F201" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G201" s="3">
         <v>45313.10177083333</v>
@@ -8974,7 +8977,7 @@
         <v>45315.19548611111</v>
       </c>
       <c r="I201" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -8991,10 +8994,10 @@
         <v>494</v>
       </c>
       <c r="E202" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F202" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G202" s="3">
         <v>45313.56241898148</v>
@@ -9003,7 +9006,7 @@
         <v>45315.73755787037</v>
       </c>
       <c r="I202" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -9020,10 +9023,10 @@
         <v>495</v>
       </c>
       <c r="E203" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F203" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G203" s="3">
         <v>45287.49016203704</v>
@@ -9032,7 +9035,7 @@
         <v>45315.81586805556</v>
       </c>
       <c r="I203" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -9049,10 +9052,10 @@
         <v>496</v>
       </c>
       <c r="E204" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F204" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G204" s="3">
         <v>45294.11623842592</v>
@@ -9061,7 +9064,7 @@
         <v>45315.81109953704</v>
       </c>
       <c r="I204" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -9078,10 +9081,10 @@
         <v>497</v>
       </c>
       <c r="E205" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F205" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G205" s="3">
         <v>45281.61627314815</v>
@@ -9090,7 +9093,7 @@
         <v>45315.73660879629</v>
       </c>
       <c r="I205" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -9110,7 +9113,7 @@
         <v>595</v>
       </c>
       <c r="F206" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G206" s="3">
         <v>45310.31782407407</v>
@@ -9119,7 +9122,7 @@
         <v>45315.82373842593</v>
       </c>
       <c r="I206" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -9136,10 +9139,10 @@
         <v>499</v>
       </c>
       <c r="E207" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F207" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G207" s="3">
         <v>45292.86751157408</v>
@@ -9148,7 +9151,7 @@
         <v>45315.81833333334</v>
       </c>
       <c r="I207" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -9165,10 +9168,10 @@
         <v>500</v>
       </c>
       <c r="E208" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F208" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G208" s="3">
         <v>45297.78877314815</v>
@@ -9177,7 +9180,7 @@
         <v>45315.82362268519</v>
       </c>
       <c r="I208" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -9194,10 +9197,10 @@
         <v>501</v>
       </c>
       <c r="E209" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F209" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G209" s="3">
         <v>45291.49200231482</v>
@@ -9206,7 +9209,7 @@
         <v>45315.81275462963</v>
       </c>
       <c r="I209" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -9223,10 +9226,10 @@
         <v>502</v>
       </c>
       <c r="E210" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F210" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G210" s="3">
         <v>45314.77236111111</v>
@@ -9235,7 +9238,7 @@
         <v>45315.81111111111</v>
       </c>
       <c r="I210" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -9252,10 +9255,10 @@
         <v>503</v>
       </c>
       <c r="E211" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F211" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G211" s="3">
         <v>45306.94767361111</v>
@@ -9264,7 +9267,7 @@
         <v>45315.81850694444</v>
       </c>
       <c r="I211" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -9281,10 +9284,10 @@
         <v>504</v>
       </c>
       <c r="E212" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F212" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G212" s="3">
         <v>45315.48592592592</v>
@@ -9293,7 +9296,7 @@
         <v>45315.82550925926</v>
       </c>
       <c r="I212" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -9310,10 +9313,10 @@
         <v>505</v>
       </c>
       <c r="E213" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F213" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G213" s="3">
         <v>45278.21140046296</v>
@@ -9322,7 +9325,7 @@
         <v>45315.78211805555</v>
       </c>
       <c r="I213" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -9339,10 +9342,10 @@
         <v>506</v>
       </c>
       <c r="E214" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F214" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G214" s="3">
         <v>45296.58950231481</v>
@@ -9351,7 +9354,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I214" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -9368,10 +9371,10 @@
         <v>507</v>
       </c>
       <c r="E215" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F215" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G215" s="3">
         <v>45308.74321759259</v>
@@ -9380,7 +9383,7 @@
         <v>45315.82768518518</v>
       </c>
       <c r="I215" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -9397,10 +9400,10 @@
         <v>508</v>
       </c>
       <c r="E216" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F216" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G216" s="3">
         <v>45291.49114583333</v>
@@ -9409,7 +9412,7 @@
         <v>45315.82378472222</v>
       </c>
       <c r="I216" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -9426,10 +9429,10 @@
         <v>509</v>
       </c>
       <c r="E217" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F217" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G217" s="3">
         <v>45308.16465277778</v>
@@ -9438,7 +9441,7 @@
         <v>45315.82369212963</v>
       </c>
       <c r="I217" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -9455,10 +9458,10 @@
         <v>510</v>
       </c>
       <c r="E218" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F218" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G218" s="3">
         <v>45296.21802083333</v>
@@ -9467,7 +9470,7 @@
         <v>45315.82553240741</v>
       </c>
       <c r="I218" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -9487,7 +9490,7 @@
         <v>589</v>
       </c>
       <c r="F219" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G219" s="3">
         <v>45307.36931712963</v>
@@ -9496,7 +9499,7 @@
         <v>45315.78234953704</v>
       </c>
       <c r="I219" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -9513,10 +9516,10 @@
         <v>512</v>
       </c>
       <c r="E220" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F220" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G220" s="3">
         <v>45313.02901620371</v>
@@ -9525,7 +9528,7 @@
         <v>45315.78185185185</v>
       </c>
       <c r="I220" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -9542,10 +9545,10 @@
         <v>513</v>
       </c>
       <c r="E221" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F221" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G221" s="3">
         <v>45284.49082175926</v>
@@ -9554,7 +9557,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I221" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -9571,10 +9574,10 @@
         <v>514</v>
       </c>
       <c r="E222" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F222" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G222" s="3">
         <v>45290.06063657408</v>
@@ -9583,7 +9586,7 @@
         <v>45315.81575231482</v>
       </c>
       <c r="I222" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -9600,10 +9603,10 @@
         <v>515</v>
       </c>
       <c r="E223" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F223" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G223" s="3">
         <v>45292.49101851852</v>
@@ -9612,7 +9615,7 @@
         <v>45315.81292824074</v>
       </c>
       <c r="I223" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -9629,10 +9632,10 @@
         <v>516</v>
       </c>
       <c r="E224" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F224" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G224" s="3">
         <v>45291.34520833333</v>
@@ -9641,7 +9644,7 @@
         <v>45315.82354166666</v>
       </c>
       <c r="I224" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -9658,10 +9661,10 @@
         <v>517</v>
       </c>
       <c r="E225" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F225" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G225" s="3">
         <v>45314.42053240741</v>
@@ -9670,7 +9673,7 @@
         <v>45315.81092592593</v>
       </c>
       <c r="I225" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -9687,10 +9690,10 @@
         <v>518</v>
       </c>
       <c r="E226" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F226" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G226" s="3">
         <v>45291.49119212963</v>
@@ -9699,7 +9702,7 @@
         <v>45314.49342592592</v>
       </c>
       <c r="I226" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -9716,10 +9719,10 @@
         <v>519</v>
       </c>
       <c r="E227" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F227" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G227" s="3">
         <v>45306.91820601852</v>
@@ -9728,7 +9731,7 @@
         <v>45315.82215277778</v>
       </c>
       <c r="I227" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -9745,10 +9748,10 @@
         <v>520</v>
       </c>
       <c r="E228" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F228" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G228" s="3">
         <v>45286.62017361111</v>
@@ -9757,7 +9760,7 @@
         <v>45315.78180555555</v>
       </c>
       <c r="I228" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -9774,10 +9777,10 @@
         <v>521</v>
       </c>
       <c r="E229" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F229" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G229" s="3">
         <v>45308.74159722222</v>
@@ -9786,7 +9789,7 @@
         <v>45315.82368055556</v>
       </c>
       <c r="I229" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -9803,10 +9806,10 @@
         <v>522</v>
       </c>
       <c r="E230" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F230" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G230" s="3">
         <v>45283.53591435185</v>
@@ -9815,7 +9818,7 @@
         <v>45315.82388888889</v>
       </c>
       <c r="I230" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -9832,10 +9835,10 @@
         <v>523</v>
       </c>
       <c r="E231" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F231" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G231" s="3">
         <v>45279.15613425926</v>
@@ -9844,7 +9847,7 @@
         <v>45310.69137731481</v>
       </c>
       <c r="I231" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -9861,10 +9864,10 @@
         <v>524</v>
       </c>
       <c r="E232" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F232" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G232" s="3">
         <v>45302.49265046296</v>
@@ -9873,7 +9876,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I232" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -9890,10 +9893,10 @@
         <v>525</v>
       </c>
       <c r="E233" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F233" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G233" s="3">
         <v>45286.49104166667</v>
@@ -9902,7 +9905,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I233" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -9919,10 +9922,10 @@
         <v>526</v>
       </c>
       <c r="E234" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F234" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G234" s="3">
         <v>45313.42326388889</v>
@@ -9931,7 +9934,7 @@
         <v>45314.18550925926</v>
       </c>
       <c r="I234" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -9948,10 +9951,10 @@
         <v>527</v>
       </c>
       <c r="E235" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F235" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G235" s="3">
         <v>44288.33525462963</v>
@@ -9960,7 +9963,7 @@
         <v>44288.33525462963</v>
       </c>
       <c r="I235" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -9977,10 +9980,10 @@
         <v>528</v>
       </c>
       <c r="E236" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F236" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G236" s="3">
         <v>45287.22329861111</v>
@@ -9989,7 +9992,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I236" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -10006,10 +10009,10 @@
         <v>529</v>
       </c>
       <c r="E237" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F237" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G237" s="3">
         <v>45311.90133101852</v>
@@ -10018,7 +10021,7 @@
         <v>45315.82358796296</v>
       </c>
       <c r="I237" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -10038,7 +10041,7 @@
         <v>595</v>
       </c>
       <c r="F238" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G238" s="3">
         <v>45298.44405092593</v>
@@ -10047,7 +10050,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I238" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -10064,10 +10067,10 @@
         <v>531</v>
       </c>
       <c r="E239" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F239" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G239" s="3">
         <v>45297.01849537037</v>
@@ -10076,7 +10079,7 @@
         <v>45314.90065972223</v>
       </c>
       <c r="I239" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -10093,10 +10096,10 @@
         <v>532</v>
       </c>
       <c r="E240" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F240" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G240" s="3">
         <v>45280.57440972222</v>
@@ -10105,7 +10108,7 @@
         <v>45309.03163194445</v>
       </c>
       <c r="I240" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -10125,7 +10128,7 @@
         <v>592</v>
       </c>
       <c r="F241" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G241" s="3">
         <v>45314.42252314815</v>
@@ -10134,7 +10137,7 @@
         <v>45315.82351851852</v>
       </c>
       <c r="I241" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -10151,10 +10154,10 @@
         <v>534</v>
       </c>
       <c r="E242" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F242" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G242" s="3">
         <v>45301.61993055556</v>
@@ -10163,7 +10166,7 @@
         <v>45314.018125</v>
       </c>
       <c r="I242" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -10180,10 +10183,10 @@
         <v>535</v>
       </c>
       <c r="E243" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F243" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G243" s="3">
         <v>45312.49469907407</v>
@@ -10192,7 +10195,7 @@
         <v>45315.78165509259</v>
       </c>
       <c r="I243" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -10209,10 +10212,10 @@
         <v>536</v>
       </c>
       <c r="E244" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F244" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G244" s="3">
         <v>45295.49803240741</v>
@@ -10221,7 +10224,7 @@
         <v>45315.8234837963</v>
       </c>
       <c r="I244" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -10238,10 +10241,10 @@
         <v>537</v>
       </c>
       <c r="E245" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F245" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G245" s="3">
         <v>45313.05956018518</v>
@@ -10250,7 +10253,7 @@
         <v>45315.82376157407</v>
       </c>
       <c r="I245" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -10267,10 +10270,10 @@
         <v>538</v>
       </c>
       <c r="E246" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F246" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G246" s="3">
         <v>45298.49199074074</v>
@@ -10279,7 +10282,7 @@
         <v>45315.82392361111</v>
       </c>
       <c r="I246" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -10296,10 +10299,10 @@
         <v>539</v>
       </c>
       <c r="E247" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F247" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G247" s="3">
         <v>45286.6203587963</v>
@@ -10308,7 +10311,7 @@
         <v>45315.82366898148</v>
       </c>
       <c r="I247" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -10325,10 +10328,10 @@
         <v>540</v>
       </c>
       <c r="E248" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F248" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G248" s="3">
         <v>45311.61991898148</v>
@@ -10337,7 +10340,7 @@
         <v>45315.02909722222</v>
       </c>
       <c r="I248" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -10354,10 +10357,10 @@
         <v>541</v>
       </c>
       <c r="E249" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F249" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G249" s="3">
         <v>45306.75461805556</v>
@@ -10366,7 +10369,7 @@
         <v>45315.04524305555</v>
       </c>
       <c r="I249" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -10386,7 +10389,7 @@
         <v>587</v>
       </c>
       <c r="F250" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G250" s="3">
         <v>45292.49578703703</v>
@@ -10395,7 +10398,7 @@
         <v>45315.4852662037</v>
       </c>
       <c r="I250" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -10412,10 +10415,10 @@
         <v>543</v>
       </c>
       <c r="E251" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F251" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G251" s="3">
         <v>45308.60100694445</v>
@@ -10424,7 +10427,7 @@
         <v>45314.49393518519</v>
       </c>
       <c r="I251" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -10441,10 +10444,10 @@
         <v>544</v>
       </c>
       <c r="E252" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F252" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G252" s="3">
         <v>45289.35146990741</v>
@@ -10453,7 +10456,7 @@
         <v>45314.49217592592</v>
       </c>
       <c r="I252" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -10470,10 +10473,10 @@
         <v>545</v>
       </c>
       <c r="E253" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F253" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G253" s="3">
         <v>45307.49243055555</v>
@@ -10482,7 +10485,7 @@
         <v>45314.49329861111</v>
       </c>
       <c r="I253" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -10499,10 +10502,10 @@
         <v>546</v>
       </c>
       <c r="E254" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F254" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G254" s="3">
         <v>45313.42297453704</v>
@@ -10511,7 +10514,7 @@
         <v>45313.42299768519</v>
       </c>
       <c r="I254" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -10528,10 +10531,10 @@
         <v>547</v>
       </c>
       <c r="E255" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F255" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G255" s="3">
         <v>45291.49054398148</v>
@@ -10540,7 +10543,7 @@
         <v>45314.94496527778</v>
       </c>
       <c r="I255" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -10557,10 +10560,10 @@
         <v>548</v>
       </c>
       <c r="E256" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F256" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G256" s="3">
         <v>45292.15671296296</v>
@@ -10569,7 +10572,7 @@
         <v>45312.75942129629</v>
       </c>
       <c r="I256" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -10586,10 +10589,10 @@
         <v>549</v>
       </c>
       <c r="E257" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F257" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G257" s="3">
         <v>45287.83861111111</v>
@@ -10598,7 +10601,7 @@
         <v>45316.03899305555</v>
       </c>
       <c r="I257" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -10615,10 +10618,10 @@
         <v>550</v>
       </c>
       <c r="E258" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F258" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G258" s="3">
         <v>45293.04358796297</v>
@@ -10627,7 +10630,7 @@
         <v>45315.8656712963</v>
       </c>
       <c r="I258" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -10644,10 +10647,10 @@
         <v>551</v>
       </c>
       <c r="E259" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F259" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G259" s="3">
         <v>45307.49564814815</v>
@@ -10656,7 +10659,7 @@
         <v>45315.9937037037</v>
       </c>
       <c r="I259" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -10676,7 +10679,7 @@
         <v>595</v>
       </c>
       <c r="F260" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G260" s="3">
         <v>45314.90094907407</v>
@@ -10685,7 +10688,7 @@
         <v>45315.89604166667</v>
       </c>
       <c r="I260" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -10702,10 +10705,10 @@
         <v>553</v>
       </c>
       <c r="E261" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F261" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G261" s="3">
         <v>45294.84780092593</v>
@@ -10714,7 +10717,7 @@
         <v>45316.03907407408</v>
       </c>
       <c r="I261" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -10731,10 +10734,10 @@
         <v>554</v>
       </c>
       <c r="E262" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F262" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G262" s="3">
         <v>45296.61121527778</v>
@@ -10743,7 +10746,7 @@
         <v>45316.03895833333</v>
       </c>
       <c r="I262" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -10760,10 +10763,10 @@
         <v>555</v>
       </c>
       <c r="E263" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F263" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G263" s="3">
         <v>45311.62060185185</v>
@@ -10772,7 +10775,7 @@
         <v>45316.03954861111</v>
       </c>
       <c r="I263" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -10789,10 +10792,10 @@
         <v>556</v>
       </c>
       <c r="E264" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F264" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G264" s="3">
         <v>45301.61861111111</v>
@@ -10801,7 +10804,7 @@
         <v>45316.08056712963</v>
       </c>
       <c r="I264" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -10818,10 +10821,10 @@
         <v>557</v>
       </c>
       <c r="E265" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F265" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G265" s="3">
         <v>45286.49385416666</v>
@@ -10830,7 +10833,7 @@
         <v>45316.03959490741</v>
       </c>
       <c r="I265" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -10847,10 +10850,10 @@
         <v>558</v>
       </c>
       <c r="E266" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F266" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G266" s="3">
         <v>45311.71087962963</v>
@@ -10859,7 +10862,7 @@
         <v>45314.67140046296</v>
       </c>
       <c r="I266" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -10876,10 +10879,10 @@
         <v>559</v>
       </c>
       <c r="E267" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F267" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G267" s="3">
         <v>45288.63045138889</v>
@@ -10888,7 +10891,7 @@
         <v>45316.03887731482</v>
       </c>
       <c r="I267" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -10905,10 +10908,10 @@
         <v>560</v>
       </c>
       <c r="E268" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F268" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G268" s="3">
         <v>45280.82067129629</v>
@@ -10917,7 +10920,7 @@
         <v>45316.03997685185</v>
       </c>
       <c r="I268" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -10934,10 +10937,10 @@
         <v>561</v>
       </c>
       <c r="E269" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F269" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G269" s="3">
         <v>45296.62119212963</v>
@@ -10946,7 +10949,7 @@
         <v>45316.08042824074</v>
       </c>
       <c r="I269" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -10966,7 +10969,7 @@
         <v>595</v>
       </c>
       <c r="F270" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G270" s="3">
         <v>45300.48923611111</v>
@@ -10975,7 +10978,7 @@
         <v>45316.08054398148</v>
       </c>
       <c r="I270" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -10992,10 +10995,10 @@
         <v>563</v>
       </c>
       <c r="E271" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F271" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G271" s="3">
         <v>45314.49359953704</v>
@@ -11004,7 +11007,7 @@
         <v>45314.66849537037</v>
       </c>
       <c r="I271" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -11021,10 +11024,10 @@
         <v>564</v>
       </c>
       <c r="E272" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F272" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G272" s="3">
         <v>45312.50121527778</v>
@@ -11033,7 +11036,7 @@
         <v>45312.67422453704</v>
       </c>
       <c r="I272" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -11050,10 +11053,10 @@
         <v>565</v>
       </c>
       <c r="E273" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F273" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G273" s="3">
         <v>45261.49545138889</v>
@@ -11062,7 +11065,7 @@
         <v>45309.04300925926</v>
       </c>
       <c r="I273" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -11079,10 +11082,10 @@
         <v>566</v>
       </c>
       <c r="E274" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F274" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G274" s="3">
         <v>45291.49003472222</v>
@@ -11091,7 +11094,7 @@
         <v>45316.08077546296</v>
       </c>
       <c r="I274" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -11108,10 +11111,10 @@
         <v>567</v>
       </c>
       <c r="E275" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F275" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G275" s="3">
         <v>45280.21361111111</v>
@@ -11120,7 +11123,7 @@
         <v>45309.04177083333</v>
       </c>
       <c r="I275" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -11137,10 +11140,10 @@
         <v>568</v>
       </c>
       <c r="E276" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F276" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G276" s="3">
         <v>45314.56188657408</v>
@@ -11149,7 +11152,7 @@
         <v>45315.48497685185</v>
       </c>
       <c r="I276" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -11166,10 +11169,10 @@
         <v>569</v>
       </c>
       <c r="E277" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F277" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G277" s="3">
         <v>45302.49186342592</v>
@@ -11178,7 +11181,7 @@
         <v>45316.08069444444</v>
       </c>
       <c r="I277" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -11195,10 +11198,10 @@
         <v>570</v>
       </c>
       <c r="E278" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F278" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G278" s="3">
         <v>45291.5000462963</v>
@@ -11207,7 +11210,7 @@
         <v>45314.49376157407</v>
       </c>
       <c r="I278" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -11224,10 +11227,10 @@
         <v>571</v>
       </c>
       <c r="E279" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F279" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G279" s="3">
         <v>45291.49392361111</v>
@@ -11236,7 +11239,7 @@
         <v>45314.49452546296</v>
       </c>
       <c r="I279" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -11253,10 +11256,10 @@
         <v>572</v>
       </c>
       <c r="E280" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F280" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G280" s="3">
         <v>45312.49576388889</v>
@@ -11265,7 +11268,7 @@
         <v>45316.03846064815</v>
       </c>
       <c r="I280" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -11282,10 +11285,10 @@
         <v>573</v>
       </c>
       <c r="E281" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F281" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G281" s="3">
         <v>45312.98068287037</v>
@@ -11294,7 +11297,7 @@
         <v>45316.08041666666</v>
       </c>
       <c r="I281" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -11311,10 +11314,10 @@
         <v>574</v>
       </c>
       <c r="E282" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F282" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G282" s="3">
         <v>45314.49623842593</v>
@@ -11323,7 +11326,7 @@
         <v>45316.08075231482</v>
       </c>
       <c r="I282" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -11340,10 +11343,10 @@
         <v>575</v>
       </c>
       <c r="E283" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F283" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G283" s="3">
         <v>45313.14449074074</v>
@@ -11352,7 +11355,7 @@
         <v>45316.08082175926</v>
       </c>
       <c r="I283" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -11369,10 +11372,10 @@
         <v>576</v>
       </c>
       <c r="E284" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F284" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G284" s="3">
         <v>45312.50119212963</v>
@@ -11381,7 +11384,7 @@
         <v>45316.08556712963</v>
       </c>
       <c r="I284" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="923">
   <si>
     <t>Sno</t>
   </si>
@@ -1777,382 +1777,385 @@
     <t>{'harmless': 60, 'malicious': 8, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
   </si>
   <si>
+    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 0, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 7, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 9, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 10, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 52, 'malicious': 17, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 5, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 1, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 12, 'suspicious': 2, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 16, 'suspicious': 1, 'undetected': 19, 'harmless': 53, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 6, 'suspicious': 2, 'undetected': 20, 'harmless': 61, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 13, 'suspicious': 1, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 14, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 8, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 8, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 6, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 11, 'suspicious': 1, 'undetected': 23, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 8, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 0, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 1, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 9, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 1, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 4, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 5, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 3, 'suspicious': 0, 'undetected': 23, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 2, 'suspicious': 1, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 4, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 50, 'malicious': 18, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 65, 'malicious': 2, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 51, 'malicious': 18, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 16, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 12, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 52, 'malicious': 16, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 6, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 51, 'malicious': 18, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 12, 'suspicious': 0, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 4, 'suspicious': 2, 'undetected': 23, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 51, 'malicious': 18, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 5, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 15, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 16, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 15, 'suspicious': 2, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 3, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 4, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 3, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 2, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 8, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 4, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 4, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 4, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 13, 'suspicious': 4, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 10, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 16, 'suspicious': 3, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 4, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 4, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 5, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 3, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 3, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 52, 'malicious': 19, 'suspicious': 3, 'undetected': 15, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 4, 'suspicious': 1, 'undetected': 23, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 51, 'malicious': 16, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 6, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 4, 'suspicious': 0, 'undetected': 23, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 3, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
     <t>{'harmless': 53, 'malicious': 15, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 0, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 7, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 9, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 10, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 52, 'malicious': 17, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 5, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 1, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 12, 'suspicious': 2, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 16, 'suspicious': 1, 'undetected': 19, 'harmless': 53, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 6, 'suspicious': 2, 'undetected': 20, 'harmless': 61, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 13, 'suspicious': 1, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 14, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 8, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 8, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 6, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 11, 'suspicious': 1, 'undetected': 23, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 8, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 0, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 1, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 9, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 1, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 4, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 5, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 3, 'suspicious': 0, 'undetected': 23, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 2, 'suspicious': 1, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 4, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 50, 'malicious': 18, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 65, 'malicious': 2, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 51, 'malicious': 18, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 16, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 12, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 52, 'malicious': 16, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 6, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 51, 'malicious': 18, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 12, 'suspicious': 0, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 4, 'suspicious': 2, 'undetected': 23, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 51, 'malicious': 18, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 5, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 15, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 16, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 15, 'suspicious': 2, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 3, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 4, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 3, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 2, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 8, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 4, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 4, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 4, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 13, 'suspicious': 4, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 10, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 16, 'suspicious': 3, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 4, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 4, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 5, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 3, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 3, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 52, 'malicious': 19, 'suspicious': 3, 'undetected': 15, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 4, 'suspicious': 1, 'undetected': 23, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 51, 'malicious': 16, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 6, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 4, 'suspicious': 0, 'undetected': 23, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 3, 'undetected': 19, 'timeout': 0}</t>
   </si>
   <si>
     <t>{'harmless': 62, 'malicious': 3, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
@@ -3206,7 +3209,7 @@
         <v>577</v>
       </c>
       <c r="F2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G2" s="3">
         <v>45311.61894675926</v>
@@ -3215,7 +3218,7 @@
         <v>45341.32113425926</v>
       </c>
       <c r="I2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3235,7 +3238,7 @@
         <v>578</v>
       </c>
       <c r="F3" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G3" s="3">
         <v>45328.50989583333</v>
@@ -3244,7 +3247,7 @@
         <v>45341.27945601852</v>
       </c>
       <c r="I3" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3264,7 +3267,7 @@
         <v>578</v>
       </c>
       <c r="F4" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G4" s="3">
         <v>45306.97109953704</v>
@@ -3273,7 +3276,7 @@
         <v>45341.06746527777</v>
       </c>
       <c r="I4" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3293,7 +3296,7 @@
         <v>578</v>
       </c>
       <c r="F5" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G5" s="3">
         <v>45328.57457175926</v>
@@ -3302,7 +3305,7 @@
         <v>45341.27858796297</v>
       </c>
       <c r="I5" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3322,7 +3325,7 @@
         <v>579</v>
       </c>
       <c r="F6" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G6" s="3">
         <v>45337.51012731482</v>
@@ -3331,7 +3334,7 @@
         <v>45341.27866898148</v>
       </c>
       <c r="I6" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3351,7 +3354,7 @@
         <v>580</v>
       </c>
       <c r="F7" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G7" s="3">
         <v>45329.3558912037</v>
@@ -3360,7 +3363,7 @@
         <v>45341.32061342592</v>
       </c>
       <c r="I7" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3380,7 +3383,7 @@
         <v>581</v>
       </c>
       <c r="F8" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G8" s="3">
         <v>45337.50997685185</v>
@@ -3389,7 +3392,7 @@
         <v>45341.10480324074</v>
       </c>
       <c r="I8" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3409,7 +3412,7 @@
         <v>582</v>
       </c>
       <c r="F9" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G9" s="3">
         <v>45308.21690972222</v>
@@ -3418,7 +3421,7 @@
         <v>45341.10543981481</v>
       </c>
       <c r="I9" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3438,7 +3441,7 @@
         <v>583</v>
       </c>
       <c r="F10" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G10" s="3">
         <v>45329.50237268519</v>
@@ -3447,7 +3450,7 @@
         <v>45341.04172453703</v>
       </c>
       <c r="I10" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3467,7 +3470,7 @@
         <v>584</v>
       </c>
       <c r="F11" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G11" s="3">
         <v>45316.49925925926</v>
@@ -3476,7 +3479,7 @@
         <v>45341.10148148148</v>
       </c>
       <c r="I11" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3496,7 +3499,7 @@
         <v>585</v>
       </c>
       <c r="F12" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G12" s="3">
         <v>45329.01333333334</v>
@@ -3505,7 +3508,7 @@
         <v>45341.36274305556</v>
       </c>
       <c r="I12" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3525,7 +3528,7 @@
         <v>586</v>
       </c>
       <c r="F13" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G13" s="3">
         <v>45320.50914351852</v>
@@ -3534,7 +3537,7 @@
         <v>45341.02841435185</v>
       </c>
       <c r="I13" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3554,16 +3557,16 @@
         <v>587</v>
       </c>
       <c r="F14" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G14" s="3">
-        <v>45298.49263888889</v>
+        <v>45329.05806712963</v>
       </c>
       <c r="H14" s="3">
-        <v>45316.37927083333</v>
+        <v>45341.07314814815</v>
       </c>
       <c r="I14" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3583,7 +3586,7 @@
         <v>588</v>
       </c>
       <c r="F15" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G15" s="3">
         <v>45310.43427083334</v>
@@ -3592,7 +3595,7 @@
         <v>45316.36269675926</v>
       </c>
       <c r="I15" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3612,7 +3615,7 @@
         <v>589</v>
       </c>
       <c r="F16" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G16" s="3">
         <v>45311.33236111111</v>
@@ -3621,7 +3624,7 @@
         <v>45314.49320601852</v>
       </c>
       <c r="I16" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3641,7 +3644,7 @@
         <v>590</v>
       </c>
       <c r="F17" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G17" s="3">
         <v>45301.30826388889</v>
@@ -3650,7 +3653,7 @@
         <v>45316.37930555556</v>
       </c>
       <c r="I17" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3670,7 +3673,7 @@
         <v>591</v>
       </c>
       <c r="F18" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G18" s="3">
         <v>45306.18137731482</v>
@@ -3679,7 +3682,7 @@
         <v>45316.42100694445</v>
       </c>
       <c r="I18" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3699,7 +3702,7 @@
         <v>592</v>
       </c>
       <c r="F19" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G19" s="3">
         <v>45288.23121527778</v>
@@ -3708,7 +3711,7 @@
         <v>45302.48868055556</v>
       </c>
       <c r="I19" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3728,7 +3731,7 @@
         <v>593</v>
       </c>
       <c r="F20" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G20" s="3">
         <v>45307.52993055555</v>
@@ -3737,7 +3740,7 @@
         <v>45314.19462962963</v>
       </c>
       <c r="I20" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3757,7 +3760,7 @@
         <v>594</v>
       </c>
       <c r="F21" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G21" s="3">
         <v>45314.42365740741</v>
@@ -3766,7 +3769,7 @@
         <v>45314.42368055556</v>
       </c>
       <c r="I21" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3786,7 +3789,7 @@
         <v>595</v>
       </c>
       <c r="F22" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G22" s="3">
         <v>45305.57067129629</v>
@@ -3795,7 +3798,7 @@
         <v>45316.42155092592</v>
       </c>
       <c r="I22" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3815,7 +3818,7 @@
         <v>596</v>
       </c>
       <c r="F23" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G23" s="3">
         <v>45291.49997685185</v>
@@ -3824,7 +3827,7 @@
         <v>45314.49226851852</v>
       </c>
       <c r="I23" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3844,7 +3847,7 @@
         <v>597</v>
       </c>
       <c r="F24" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G24" s="3">
         <v>45309.80174768518</v>
@@ -3853,7 +3856,7 @@
         <v>45315.85729166667</v>
       </c>
       <c r="I24" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3873,7 +3876,7 @@
         <v>598</v>
       </c>
       <c r="F25" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G25" s="3">
         <v>45299.43368055556</v>
@@ -3882,7 +3885,7 @@
         <v>45316.37909722222</v>
       </c>
       <c r="I25" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3902,7 +3905,7 @@
         <v>599</v>
       </c>
       <c r="F26" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G26" s="3">
         <v>45314.17763888889</v>
@@ -3911,7 +3914,7 @@
         <v>45316.08064814815</v>
       </c>
       <c r="I26" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3931,7 +3934,7 @@
         <v>600</v>
       </c>
       <c r="F27" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G27" s="3">
         <v>45291.49208333333</v>
@@ -3940,7 +3943,7 @@
         <v>45316.34907407407</v>
       </c>
       <c r="I27" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3960,7 +3963,7 @@
         <v>601</v>
       </c>
       <c r="F28" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G28" s="3">
         <v>45289.73149305556</v>
@@ -3969,7 +3972,7 @@
         <v>45316.37931712963</v>
       </c>
       <c r="I28" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3989,7 +3992,7 @@
         <v>602</v>
       </c>
       <c r="F29" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G29" s="3">
         <v>45312.4952662037</v>
@@ -3998,7 +4001,7 @@
         <v>45315.52618055556</v>
       </c>
       <c r="I29" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4018,7 +4021,7 @@
         <v>603</v>
       </c>
       <c r="F30" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G30" s="3">
         <v>45307.49253472222</v>
@@ -4027,7 +4030,7 @@
         <v>45316.3793287037</v>
       </c>
       <c r="I30" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4047,7 +4050,7 @@
         <v>599</v>
       </c>
       <c r="F31" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G31" s="3">
         <v>45311.71104166667</v>
@@ -4056,7 +4059,7 @@
         <v>45316.37922453704</v>
       </c>
       <c r="I31" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4076,7 +4079,7 @@
         <v>599</v>
       </c>
       <c r="F32" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G32" s="3">
         <v>45312.34644675926</v>
@@ -4085,7 +4088,7 @@
         <v>45316.37908564815</v>
       </c>
       <c r="I32" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4105,7 +4108,7 @@
         <v>604</v>
       </c>
       <c r="F33" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G33" s="3">
         <v>44163.34006944444</v>
@@ -4114,7 +4117,7 @@
         <v>44163.34006944444</v>
       </c>
       <c r="I33" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4134,7 +4137,7 @@
         <v>591</v>
       </c>
       <c r="F34" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G34" s="3">
         <v>45286.80534722222</v>
@@ -4143,7 +4146,7 @@
         <v>45316.37934027778</v>
       </c>
       <c r="I34" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4163,7 +4166,7 @@
         <v>605</v>
       </c>
       <c r="F35" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G35" s="3">
         <v>45302.49230324074</v>
@@ -4172,7 +4175,7 @@
         <v>45314.98761574074</v>
       </c>
       <c r="I35" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4192,7 +4195,7 @@
         <v>606</v>
       </c>
       <c r="F36" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G36" s="3">
         <v>45302.49503472223</v>
@@ -4201,7 +4204,7 @@
         <v>45315.48547453704</v>
       </c>
       <c r="I36" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4221,7 +4224,7 @@
         <v>607</v>
       </c>
       <c r="F37" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G37" s="3">
         <v>45311.61938657407</v>
@@ -4230,7 +4233,7 @@
         <v>45316.42167824074</v>
       </c>
       <c r="I37" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4250,7 +4253,7 @@
         <v>603</v>
       </c>
       <c r="F38" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G38" s="3">
         <v>45297.0796412037</v>
@@ -4259,7 +4262,7 @@
         <v>45316.49811342593</v>
       </c>
       <c r="I38" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4279,7 +4282,7 @@
         <v>608</v>
       </c>
       <c r="F39" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G39" s="3">
         <v>45290.31696759259</v>
@@ -4288,7 +4291,7 @@
         <v>45316.49866898148</v>
       </c>
       <c r="I39" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4308,7 +4311,7 @@
         <v>609</v>
       </c>
       <c r="F40" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G40" s="3">
         <v>45313.59486111111</v>
@@ -4317,7 +4320,7 @@
         <v>45316.49662037037</v>
       </c>
       <c r="I40" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4337,7 +4340,7 @@
         <v>610</v>
       </c>
       <c r="F41" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G41" s="3">
         <v>45295.49177083333</v>
@@ -4346,7 +4349,7 @@
         <v>45316.49807870371</v>
       </c>
       <c r="I41" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4366,7 +4369,7 @@
         <v>611</v>
       </c>
       <c r="F42" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G42" s="3">
         <v>45311.92179398148</v>
@@ -4375,7 +4378,7 @@
         <v>45316.4971875</v>
       </c>
       <c r="I42" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4395,7 +4398,7 @@
         <v>610</v>
       </c>
       <c r="F43" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G43" s="3">
         <v>45296.05393518518</v>
@@ -4404,7 +4407,7 @@
         <v>45316.50489583334</v>
       </c>
       <c r="I43" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4424,7 +4427,7 @@
         <v>599</v>
       </c>
       <c r="F44" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G44" s="3">
         <v>45313.11333333333</v>
@@ -4433,7 +4436,7 @@
         <v>45316.49230324074</v>
       </c>
       <c r="I44" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4453,7 +4456,7 @@
         <v>602</v>
       </c>
       <c r="F45" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G45" s="3">
         <v>45306.61894675926</v>
@@ -4462,7 +4465,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I45" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4482,7 +4485,7 @@
         <v>612</v>
       </c>
       <c r="F46" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G46" s="3">
         <v>45312.49850694444</v>
@@ -4491,7 +4494,7 @@
         <v>45316.49799768518</v>
       </c>
       <c r="I46" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4511,7 +4514,7 @@
         <v>613</v>
       </c>
       <c r="F47" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G47" s="3">
         <v>45262.49515046296</v>
@@ -4520,7 +4523,7 @@
         <v>45309.07923611111</v>
       </c>
       <c r="I47" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4540,7 +4543,7 @@
         <v>608</v>
       </c>
       <c r="F48" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G48" s="3">
         <v>45298.49847222222</v>
@@ -4549,7 +4552,7 @@
         <v>45316.49944444445</v>
       </c>
       <c r="I48" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4569,7 +4572,7 @@
         <v>614</v>
       </c>
       <c r="F49" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G49" s="3">
         <v>45311.61908564815</v>
@@ -4578,7 +4581,7 @@
         <v>45316.49847222222</v>
       </c>
       <c r="I49" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4598,7 +4601,7 @@
         <v>615</v>
       </c>
       <c r="F50" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G50" s="3">
         <v>45311.61989583333</v>
@@ -4607,7 +4610,7 @@
         <v>45316.50482638889</v>
       </c>
       <c r="I50" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4627,7 +4630,7 @@
         <v>603</v>
       </c>
       <c r="F51" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G51" s="3">
         <v>45316.50053240741</v>
@@ -4636,7 +4639,7 @@
         <v>45316.50232638889</v>
       </c>
       <c r="I51" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4656,7 +4659,7 @@
         <v>594</v>
       </c>
       <c r="F52" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G52" s="3">
         <v>45313.05881944444</v>
@@ -4665,7 +4668,7 @@
         <v>45314.42322916666</v>
       </c>
       <c r="I52" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4685,7 +4688,7 @@
         <v>616</v>
       </c>
       <c r="F53" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G53" s="3">
         <v>45316.5015162037</v>
@@ -4694,7 +4697,7 @@
         <v>45316.50331018519</v>
       </c>
       <c r="I53" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4714,7 +4717,7 @@
         <v>617</v>
       </c>
       <c r="F54" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G54" s="3">
         <v>45291.62113425926</v>
@@ -4723,7 +4726,7 @@
         <v>45316.49827546296</v>
       </c>
       <c r="I54" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4743,7 +4746,7 @@
         <v>618</v>
       </c>
       <c r="F55" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G55" s="3">
         <v>45287.49758101852</v>
@@ -4752,7 +4755,7 @@
         <v>45316.50458333334</v>
       </c>
       <c r="I55" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4772,7 +4775,7 @@
         <v>619</v>
       </c>
       <c r="F56" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G56" s="3">
         <v>45280.75131944445</v>
@@ -4781,7 +4784,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I56" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4801,7 +4804,7 @@
         <v>602</v>
       </c>
       <c r="F57" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G57" s="3">
         <v>45291.49048611111</v>
@@ -4810,7 +4813,7 @@
         <v>45316.50336805556</v>
       </c>
       <c r="I57" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4830,7 +4833,7 @@
         <v>590</v>
       </c>
       <c r="F58" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G58" s="3">
         <v>45310.86956018519</v>
@@ -4839,7 +4842,7 @@
         <v>45314.48899305556</v>
       </c>
       <c r="I58" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4859,7 +4862,7 @@
         <v>595</v>
       </c>
       <c r="F59" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G59" s="3">
         <v>45311.61930555556</v>
@@ -4868,7 +4871,7 @@
         <v>45316.49861111111</v>
       </c>
       <c r="I59" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4888,7 +4891,7 @@
         <v>620</v>
       </c>
       <c r="F60" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G60" s="3">
         <v>45313.76346064815</v>
@@ -4897,7 +4900,7 @@
         <v>45316.49800925926</v>
       </c>
       <c r="I60" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4917,7 +4920,7 @@
         <v>621</v>
       </c>
       <c r="F61" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G61" s="3">
         <v>45278.11224537037</v>
@@ -4926,7 +4929,7 @@
         <v>45302.49298611111</v>
       </c>
       <c r="I61" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4946,7 +4949,7 @@
         <v>610</v>
       </c>
       <c r="F62" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G62" s="3">
         <v>45278.21631944444</v>
@@ -4955,7 +4958,7 @@
         <v>45316.50450231481</v>
       </c>
       <c r="I62" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4975,7 +4978,7 @@
         <v>604</v>
       </c>
       <c r="F63" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G63" s="3">
         <v>45163.2121412037</v>
@@ -4984,7 +4987,7 @@
         <v>45163.2121412037</v>
       </c>
       <c r="I63" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -5004,7 +5007,7 @@
         <v>606</v>
       </c>
       <c r="F64" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G64" s="3">
         <v>45316.49957175926</v>
@@ -5013,7 +5016,7 @@
         <v>45316.50452546297</v>
       </c>
       <c r="I64" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -5033,7 +5036,7 @@
         <v>622</v>
       </c>
       <c r="F65" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G65" s="3">
         <v>45297.49180555555</v>
@@ -5042,7 +5045,7 @@
         <v>45316.50127314815</v>
       </c>
       <c r="I65" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -5062,7 +5065,7 @@
         <v>623</v>
       </c>
       <c r="F66" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G66" s="3">
         <v>45297.09299768518</v>
@@ -5071,7 +5074,7 @@
         <v>45316.5039699074</v>
       </c>
       <c r="I66" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -5091,7 +5094,7 @@
         <v>624</v>
       </c>
       <c r="F67" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G67" s="3">
         <v>45316.50059027778</v>
@@ -5100,7 +5103,7 @@
         <v>45316.50255787037</v>
       </c>
       <c r="I67" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -5120,7 +5123,7 @@
         <v>625</v>
       </c>
       <c r="F68" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G68" s="3">
         <v>45313.63670138889</v>
@@ -5129,7 +5132,7 @@
         <v>45315.90416666667</v>
       </c>
       <c r="I68" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -5149,7 +5152,7 @@
         <v>595</v>
       </c>
       <c r="F69" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G69" s="3">
         <v>45304.51188657407</v>
@@ -5158,7 +5161,7 @@
         <v>45315.56863425926</v>
       </c>
       <c r="I69" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -5178,7 +5181,7 @@
         <v>626</v>
       </c>
       <c r="F70" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G70" s="3">
         <v>45291.49329861111</v>
@@ -5187,7 +5190,7 @@
         <v>45312.93239583333</v>
       </c>
       <c r="I70" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -5207,7 +5210,7 @@
         <v>627</v>
       </c>
       <c r="F71" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G71" s="3">
         <v>45300.57674768518</v>
@@ -5216,7 +5219,7 @@
         <v>45315.52626157407</v>
       </c>
       <c r="I71" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -5236,7 +5239,7 @@
         <v>628</v>
       </c>
       <c r="F72" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G72" s="3">
         <v>45310.40046296296</v>
@@ -5245,7 +5248,7 @@
         <v>45312.49293981482</v>
       </c>
       <c r="I72" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5265,7 +5268,7 @@
         <v>628</v>
       </c>
       <c r="F73" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G73" s="3">
         <v>45291.49876157408</v>
@@ -5274,7 +5277,7 @@
         <v>45314.49362268519</v>
       </c>
       <c r="I73" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5294,7 +5297,7 @@
         <v>629</v>
       </c>
       <c r="F74" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G74" s="3">
         <v>45292.49576388889</v>
@@ -5303,7 +5306,7 @@
         <v>45314.64596064815</v>
       </c>
       <c r="I74" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5323,13 +5326,13 @@
         <v>604</v>
       </c>
       <c r="F75" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H75" s="3">
         <v>45047.30018518519</v>
       </c>
       <c r="I75" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -5349,7 +5352,7 @@
         <v>630</v>
       </c>
       <c r="F76" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G76" s="3">
         <v>45291.49430555556</v>
@@ -5358,7 +5361,7 @@
         <v>45316.16467592592</v>
       </c>
       <c r="I76" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5378,7 +5381,7 @@
         <v>599</v>
       </c>
       <c r="F77" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G77" s="3">
         <v>45283.62505787037</v>
@@ -5387,7 +5390,7 @@
         <v>45309.04886574074</v>
       </c>
       <c r="I77" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5407,7 +5410,7 @@
         <v>620</v>
       </c>
       <c r="F78" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G78" s="3">
         <v>45262.59487268519</v>
@@ -5416,7 +5419,7 @@
         <v>45309.01453703704</v>
       </c>
       <c r="I78" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -5436,7 +5439,7 @@
         <v>631</v>
       </c>
       <c r="F79" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G79" s="3">
         <v>45312.49354166666</v>
@@ -5445,7 +5448,7 @@
         <v>45316.164375</v>
       </c>
       <c r="I79" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -5465,7 +5468,7 @@
         <v>590</v>
       </c>
       <c r="F80" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G80" s="3">
         <v>45312.7619675926</v>
@@ -5474,7 +5477,7 @@
         <v>45315.65320601852</v>
       </c>
       <c r="I80" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5494,7 +5497,7 @@
         <v>608</v>
       </c>
       <c r="F81" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G81" s="3">
         <v>45310.90116898148</v>
@@ -5503,7 +5506,7 @@
         <v>45316.2090625</v>
       </c>
       <c r="I81" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5523,7 +5526,7 @@
         <v>632</v>
       </c>
       <c r="F82" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G82" s="3">
         <v>45315.1578125</v>
@@ -5532,7 +5535,7 @@
         <v>45316.16471064815</v>
       </c>
       <c r="I82" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -5552,7 +5555,7 @@
         <v>633</v>
       </c>
       <c r="F83" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G83" s="3">
         <v>45287.44400462963</v>
@@ -5561,7 +5564,7 @@
         <v>45314.49243055555</v>
       </c>
       <c r="I83" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -5581,7 +5584,7 @@
         <v>594</v>
       </c>
       <c r="F84" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G84" s="3">
         <v>45309.58261574074</v>
@@ -5590,7 +5593,7 @@
         <v>45314.42337962963</v>
       </c>
       <c r="I84" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -5610,7 +5613,7 @@
         <v>621</v>
       </c>
       <c r="F85" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G85" s="3">
         <v>45280.04030092592</v>
@@ -5619,7 +5622,7 @@
         <v>45309.01909722222</v>
       </c>
       <c r="I85" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -5639,7 +5642,7 @@
         <v>634</v>
       </c>
       <c r="F86" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G86" s="3">
         <v>45302.49703703704</v>
@@ -5648,7 +5651,7 @@
         <v>45316.20864583334</v>
       </c>
       <c r="I86" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -5668,7 +5671,7 @@
         <v>589</v>
       </c>
       <c r="F87" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G87" s="3">
         <v>45313.29277777778</v>
@@ -5677,7 +5680,7 @@
         <v>45315.23820601852</v>
       </c>
       <c r="I87" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5697,7 +5700,7 @@
         <v>635</v>
       </c>
       <c r="F88" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G88" s="3">
         <v>45286.50180555556</v>
@@ -5706,7 +5709,7 @@
         <v>45312.67471064815</v>
       </c>
       <c r="I88" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5726,7 +5729,7 @@
         <v>636</v>
       </c>
       <c r="F89" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G89" s="3">
         <v>45311.42429398148</v>
@@ -5735,7 +5738,7 @@
         <v>45314.89614583334</v>
       </c>
       <c r="I89" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -5755,7 +5758,7 @@
         <v>637</v>
       </c>
       <c r="F90" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G90" s="3">
         <v>45306.6199537037</v>
@@ -5764,7 +5767,7 @@
         <v>45314.49379629629</v>
       </c>
       <c r="I90" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -5784,7 +5787,7 @@
         <v>594</v>
       </c>
       <c r="F91" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G91" s="3">
         <v>45315.42351851852</v>
@@ -5793,7 +5796,7 @@
         <v>45315.42354166666</v>
       </c>
       <c r="I91" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5813,7 +5816,7 @@
         <v>603</v>
       </c>
       <c r="F92" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G92" s="3">
         <v>45287.95120370371</v>
@@ -5822,7 +5825,7 @@
         <v>45315.61121527778</v>
       </c>
       <c r="I92" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -5842,7 +5845,7 @@
         <v>638</v>
       </c>
       <c r="F93" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G93" s="3">
         <v>45312.49561342593</v>
@@ -5851,7 +5854,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I93" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5871,7 +5874,7 @@
         <v>595</v>
       </c>
       <c r="F94" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G94" s="3">
         <v>45291.62100694444</v>
@@ -5880,7 +5883,7 @@
         <v>45314.49383101852</v>
       </c>
       <c r="I94" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5900,7 +5903,7 @@
         <v>639</v>
       </c>
       <c r="F95" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G95" s="3">
         <v>44926.35877314815</v>
@@ -5909,7 +5912,7 @@
         <v>44926.35877314815</v>
       </c>
       <c r="I95" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5929,7 +5932,7 @@
         <v>595</v>
       </c>
       <c r="F96" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G96" s="3">
         <v>45297.49363425926</v>
@@ -5938,7 +5941,7 @@
         <v>45311.89606481481</v>
       </c>
       <c r="I96" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5958,7 +5961,7 @@
         <v>614</v>
       </c>
       <c r="F97" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G97" s="3">
         <v>45314.49303240741</v>
@@ -5967,7 +5970,7 @@
         <v>45315.65373842593</v>
       </c>
       <c r="I97" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5987,7 +5990,7 @@
         <v>604</v>
       </c>
       <c r="F98" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G98" s="3">
         <v>45313.05805555556</v>
@@ -5996,7 +5999,7 @@
         <v>45313.05806712963</v>
       </c>
       <c r="I98" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -6016,7 +6019,7 @@
         <v>620</v>
       </c>
       <c r="F99" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G99" s="3">
         <v>45307.38726851852</v>
@@ -6025,7 +6028,7 @@
         <v>45314.85255787037</v>
       </c>
       <c r="I99" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -6045,7 +6048,7 @@
         <v>640</v>
       </c>
       <c r="F100" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G100" s="3">
         <v>45293.03614583334</v>
@@ -6054,7 +6057,7 @@
         <v>45293.0361574074</v>
       </c>
       <c r="I100" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6074,7 +6077,7 @@
         <v>641</v>
       </c>
       <c r="F101" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G101" s="3">
         <v>45314.50199074074</v>
@@ -6083,7 +6086,7 @@
         <v>45315.65385416667</v>
       </c>
       <c r="I101" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -6103,7 +6106,7 @@
         <v>642</v>
       </c>
       <c r="F102" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G102" s="3">
         <v>45307.37951388889</v>
@@ -6112,7 +6115,7 @@
         <v>45315.36158564815</v>
       </c>
       <c r="I102" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -6132,7 +6135,7 @@
         <v>604</v>
       </c>
       <c r="F103" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G103" s="3">
         <v>45307.00873842592</v>
@@ -6141,7 +6144,7 @@
         <v>45307.00875</v>
       </c>
       <c r="I103" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -6161,7 +6164,7 @@
         <v>643</v>
       </c>
       <c r="F104" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G104" s="3">
         <v>45315.42385416666</v>
@@ -6170,7 +6173,7 @@
         <v>45315.42386574074</v>
       </c>
       <c r="I104" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -6190,7 +6193,7 @@
         <v>644</v>
       </c>
       <c r="F105" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G105" s="3">
         <v>45291.49836805555</v>
@@ -6199,7 +6202,7 @@
         <v>45315.65422453704</v>
       </c>
       <c r="I105" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -6219,7 +6222,7 @@
         <v>645</v>
       </c>
       <c r="F106" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G106" s="3">
         <v>45280.57280092593</v>
@@ -6228,7 +6231,7 @@
         <v>45309.02465277778</v>
       </c>
       <c r="I106" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -6248,7 +6251,7 @@
         <v>637</v>
       </c>
       <c r="F107" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G107" s="3">
         <v>45302.49490740741</v>
@@ -6257,7 +6260,7 @@
         <v>45312.88666666667</v>
       </c>
       <c r="I107" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -6277,7 +6280,7 @@
         <v>646</v>
       </c>
       <c r="F108" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G108" s="3">
         <v>45288.28815972222</v>
@@ -6286,7 +6289,7 @@
         <v>45315.60980324074</v>
       </c>
       <c r="I108" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -6306,7 +6309,7 @@
         <v>647</v>
       </c>
       <c r="F109" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G109" s="3">
         <v>45295.49231481482</v>
@@ -6315,7 +6318,7 @@
         <v>45315.61019675926</v>
       </c>
       <c r="I109" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -6335,7 +6338,7 @@
         <v>648</v>
       </c>
       <c r="F110" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G110" s="3">
         <v>45312.76140046296</v>
@@ -6344,7 +6347,7 @@
         <v>45314.69101851852</v>
       </c>
       <c r="I110" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -6364,7 +6367,7 @@
         <v>601</v>
       </c>
       <c r="F111" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G111" s="3">
         <v>45314.49325231482</v>
@@ -6373,7 +6376,7 @@
         <v>45315.61035879629</v>
       </c>
       <c r="I111" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -6393,7 +6396,7 @@
         <v>649</v>
       </c>
       <c r="F112" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G112" s="3">
         <v>45313.42341435186</v>
@@ -6402,7 +6405,7 @@
         <v>45314.19578703704</v>
       </c>
       <c r="I112" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6422,7 +6425,7 @@
         <v>603</v>
       </c>
       <c r="F113" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G113" s="3">
         <v>45292.49325231482</v>
@@ -6431,7 +6434,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I113" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -6451,7 +6454,7 @@
         <v>650</v>
       </c>
       <c r="F114" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G114" s="3">
         <v>45313.0588425926</v>
@@ -6460,7 +6463,7 @@
         <v>45314.42222222222</v>
       </c>
       <c r="I114" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -6480,7 +6483,7 @@
         <v>651</v>
       </c>
       <c r="F115" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G115" s="3">
         <v>45307.5822337963</v>
@@ -6489,7 +6492,7 @@
         <v>45314.77590277778</v>
       </c>
       <c r="I115" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -6509,7 +6512,7 @@
         <v>642</v>
       </c>
       <c r="F116" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G116" s="3">
         <v>45298.49490740741</v>
@@ -6518,7 +6521,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I116" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -6538,7 +6541,7 @@
         <v>652</v>
       </c>
       <c r="F117" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G117" s="3">
         <v>45300.43424768518</v>
@@ -6547,7 +6550,7 @@
         <v>45314.49525462963</v>
       </c>
       <c r="I117" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -6567,7 +6570,7 @@
         <v>653</v>
       </c>
       <c r="F118" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G118" s="3">
         <v>45287.49133101852</v>
@@ -6576,7 +6579,7 @@
         <v>45315.68306712963</v>
       </c>
       <c r="I118" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -6596,7 +6599,7 @@
         <v>646</v>
       </c>
       <c r="F119" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G119" s="3">
         <v>45315.24193287037</v>
@@ -6605,7 +6608,7 @@
         <v>45315.65413194444</v>
       </c>
       <c r="I119" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -6625,7 +6628,7 @@
         <v>603</v>
       </c>
       <c r="F120" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G120" s="3">
         <v>45296.62521990741</v>
@@ -6634,7 +6637,7 @@
         <v>45315.32032407408</v>
       </c>
       <c r="I120" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -6654,7 +6657,7 @@
         <v>654</v>
       </c>
       <c r="F121" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G121" s="3">
         <v>45293.4970949074</v>
@@ -6663,7 +6666,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I121" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -6683,7 +6686,7 @@
         <v>621</v>
       </c>
       <c r="F122" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G122" s="3">
         <v>45282.72908564815</v>
@@ -6692,7 +6695,7 @@
         <v>45282.72909722223</v>
       </c>
       <c r="I122" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -6712,7 +6715,7 @@
         <v>655</v>
       </c>
       <c r="F123" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G123" s="3">
         <v>45314.49591435185</v>
@@ -6721,7 +6724,7 @@
         <v>45315.69609953704</v>
       </c>
       <c r="I123" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -6741,7 +6744,7 @@
         <v>656</v>
       </c>
       <c r="F124" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G124" s="3">
         <v>45300.97112268519</v>
@@ -6750,7 +6753,7 @@
         <v>45315.69616898148</v>
       </c>
       <c r="I124" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -6770,7 +6773,7 @@
         <v>657</v>
       </c>
       <c r="F125" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G125" s="3">
         <v>45273.65564814815</v>
@@ -6779,7 +6782,7 @@
         <v>45303.42461805556</v>
       </c>
       <c r="I125" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -6799,7 +6802,7 @@
         <v>590</v>
       </c>
       <c r="F126" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G126" s="3">
         <v>45298.21359953703</v>
@@ -6808,7 +6811,7 @@
         <v>45314.49523148148</v>
       </c>
       <c r="I126" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -6828,7 +6831,7 @@
         <v>652</v>
       </c>
       <c r="F127" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G127" s="3">
         <v>45308.42383101852</v>
@@ -6837,7 +6840,7 @@
         <v>45314.49195601852</v>
       </c>
       <c r="I127" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -6857,7 +6860,7 @@
         <v>658</v>
       </c>
       <c r="F128" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G128" s="3">
         <v>45294.41019675926</v>
@@ -6866,7 +6869,7 @@
         <v>45315.69918981481</v>
       </c>
       <c r="I128" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -6886,7 +6889,7 @@
         <v>598</v>
       </c>
       <c r="F129" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G129" s="3">
         <v>45310.61224537037</v>
@@ -6895,7 +6898,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I129" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -6915,7 +6918,7 @@
         <v>630</v>
       </c>
       <c r="F130" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G130" s="3">
         <v>45304.64673611111</v>
@@ -6924,7 +6927,7 @@
         <v>45315.6959375</v>
       </c>
       <c r="I130" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -6944,7 +6947,7 @@
         <v>623</v>
       </c>
       <c r="F131" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G131" s="3">
         <v>45295.49403935186</v>
@@ -6953,7 +6956,7 @@
         <v>45315.69605324074</v>
       </c>
       <c r="I131" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -6973,7 +6976,7 @@
         <v>659</v>
       </c>
       <c r="F132" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G132" s="3">
         <v>45298.06329861111</v>
@@ -6982,7 +6985,7 @@
         <v>45314.49458333333</v>
       </c>
       <c r="I132" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -7002,7 +7005,7 @@
         <v>647</v>
       </c>
       <c r="F133" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G133" s="3">
         <v>45297.49041666667</v>
@@ -7011,7 +7014,7 @@
         <v>45315.70159722222</v>
       </c>
       <c r="I133" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -7031,7 +7034,7 @@
         <v>650</v>
       </c>
       <c r="F134" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G134" s="3">
         <v>45296.21274305556</v>
@@ -7040,7 +7043,7 @@
         <v>45309.05621527778</v>
       </c>
       <c r="I134" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -7060,7 +7063,7 @@
         <v>642</v>
       </c>
       <c r="F135" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G135" s="3">
         <v>45307.08791666666</v>
@@ -7069,7 +7072,7 @@
         <v>45315.65327546297</v>
       </c>
       <c r="I135" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -7089,7 +7092,7 @@
         <v>632</v>
       </c>
       <c r="F136" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G136" s="3">
         <v>45314.49842592593</v>
@@ -7098,7 +7101,7 @@
         <v>45314.67444444444</v>
       </c>
       <c r="I136" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -7118,7 +7121,7 @@
         <v>599</v>
       </c>
       <c r="F137" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G137" s="3">
         <v>45310.65872685185</v>
@@ -7127,7 +7130,7 @@
         <v>45314.49422453704</v>
       </c>
       <c r="I137" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -7147,7 +7150,7 @@
         <v>599</v>
       </c>
       <c r="F138" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G138" s="3">
         <v>45312.13112268518</v>
@@ -7156,7 +7159,7 @@
         <v>45315.6537962963</v>
       </c>
       <c r="I138" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -7176,7 +7179,7 @@
         <v>660</v>
       </c>
       <c r="F139" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G139" s="3">
         <v>45270.59310185185</v>
@@ -7185,7 +7188,7 @@
         <v>45309.07831018518</v>
       </c>
       <c r="I139" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -7205,7 +7208,7 @@
         <v>661</v>
       </c>
       <c r="F140" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G140" s="3">
         <v>45278.77987268518</v>
@@ -7214,7 +7217,7 @@
         <v>45314.6009837963</v>
       </c>
       <c r="I140" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -7234,7 +7237,7 @@
         <v>590</v>
       </c>
       <c r="F141" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G141" s="3">
         <v>45314.49572916667</v>
@@ -7243,7 +7246,7 @@
         <v>45314.67103009259</v>
       </c>
       <c r="I141" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -7263,13 +7266,13 @@
         <v>604</v>
       </c>
       <c r="F142" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H142" s="3">
         <v>43999.85027777778</v>
       </c>
       <c r="I142" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -7289,7 +7292,7 @@
         <v>662</v>
       </c>
       <c r="F143" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G143" s="3">
         <v>45309.54311342593</v>
@@ -7298,7 +7301,7 @@
         <v>45316.16458333333</v>
       </c>
       <c r="I143" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -7318,7 +7321,7 @@
         <v>604</v>
       </c>
       <c r="F144" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G144" s="3">
         <v>45306.51280092593</v>
@@ -7327,7 +7330,7 @@
         <v>45306.51280092593</v>
       </c>
       <c r="I144" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -7347,7 +7350,7 @@
         <v>624</v>
       </c>
       <c r="F145" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G145" s="3">
         <v>45314.49275462963</v>
@@ -7356,7 +7359,7 @@
         <v>45315.73717592593</v>
       </c>
       <c r="I145" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -7376,7 +7379,7 @@
         <v>609</v>
       </c>
       <c r="F146" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G146" s="3">
         <v>45308.77947916667</v>
@@ -7385,7 +7388,7 @@
         <v>45309.07209490741</v>
       </c>
       <c r="I146" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -7405,7 +7408,7 @@
         <v>625</v>
       </c>
       <c r="F147" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G147" s="3">
         <v>45307.50165509259</v>
@@ -7414,7 +7417,7 @@
         <v>45312.88640046296</v>
       </c>
       <c r="I147" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -7434,7 +7437,7 @@
         <v>624</v>
       </c>
       <c r="F148" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G148" s="3">
         <v>45294.12988425926</v>
@@ -7443,7 +7446,7 @@
         <v>45314.49341435185</v>
       </c>
       <c r="I148" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -7463,7 +7466,7 @@
         <v>645</v>
       </c>
       <c r="F149" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G149" s="3">
         <v>45296.33108796296</v>
@@ -7472,7 +7475,7 @@
         <v>45314.51508101852</v>
       </c>
       <c r="I149" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -7492,7 +7495,7 @@
         <v>663</v>
       </c>
       <c r="F150" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G150" s="3">
         <v>45295.49210648148</v>
@@ -7501,7 +7504,7 @@
         <v>45315.69587962963</v>
       </c>
       <c r="I150" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -7521,7 +7524,7 @@
         <v>646</v>
       </c>
       <c r="F151" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G151" s="3">
         <v>45314.49277777778</v>
@@ -7530,7 +7533,7 @@
         <v>45315.73741898148</v>
       </c>
       <c r="I151" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -7550,7 +7553,7 @@
         <v>664</v>
       </c>
       <c r="F152" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G152" s="3">
         <v>45308.74111111111</v>
@@ -7559,7 +7562,7 @@
         <v>45310.69127314815</v>
       </c>
       <c r="I152" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -7579,7 +7582,7 @@
         <v>665</v>
       </c>
       <c r="F153" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G153" s="3">
         <v>45311.61907407407</v>
@@ -7588,7 +7591,7 @@
         <v>45315.73760416666</v>
       </c>
       <c r="I153" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -7608,7 +7611,7 @@
         <v>594</v>
       </c>
       <c r="F154" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G154" s="3">
         <v>45313.06128472222</v>
@@ -7617,7 +7620,7 @@
         <v>45314.4228125</v>
       </c>
       <c r="I154" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -7637,7 +7640,7 @@
         <v>642</v>
       </c>
       <c r="F155" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G155" s="3">
         <v>45291.49923611111</v>
@@ -7646,7 +7649,7 @@
         <v>45312.49590277778</v>
       </c>
       <c r="I155" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -7666,7 +7669,7 @@
         <v>637</v>
       </c>
       <c r="F156" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G156" s="3">
         <v>45302.49706018518</v>
@@ -7675,7 +7678,7 @@
         <v>45315.07060185185</v>
       </c>
       <c r="I156" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -7695,7 +7698,7 @@
         <v>601</v>
       </c>
       <c r="F157" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G157" s="3">
         <v>45286.49168981481</v>
@@ -7704,7 +7707,7 @@
         <v>45315.73706018519</v>
       </c>
       <c r="I157" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -7724,7 +7727,7 @@
         <v>659</v>
       </c>
       <c r="F158" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G158" s="3">
         <v>45306.62078703703</v>
@@ -7733,7 +7736,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I158" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -7753,7 +7756,7 @@
         <v>666</v>
       </c>
       <c r="F159" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G159" s="3">
         <v>45297.49820601852</v>
@@ -7762,7 +7765,7 @@
         <v>45315.73712962963</v>
       </c>
       <c r="I159" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -7782,7 +7785,7 @@
         <v>667</v>
       </c>
       <c r="F160" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G160" s="3">
         <v>45314.49293981482</v>
@@ -7791,7 +7794,7 @@
         <v>45315.73753472222</v>
       </c>
       <c r="I160" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -7811,7 +7814,7 @@
         <v>668</v>
       </c>
       <c r="F161" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G161" s="3">
         <v>45302.49929398148</v>
@@ -7820,7 +7823,7 @@
         <v>45314.49518518519</v>
       </c>
       <c r="I161" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -7840,13 +7843,13 @@
         <v>604</v>
       </c>
       <c r="F162" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H162" s="3">
         <v>45307.36160879629</v>
       </c>
       <c r="I162" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -7866,7 +7869,7 @@
         <v>669</v>
       </c>
       <c r="F163" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G163" s="3">
         <v>45314.4933912037</v>
@@ -7875,7 +7878,7 @@
         <v>45316.12230324074</v>
       </c>
       <c r="I163" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -7895,7 +7898,7 @@
         <v>611</v>
       </c>
       <c r="F164" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G164" s="3">
         <v>45307.36724537037</v>
@@ -7904,7 +7907,7 @@
         <v>45316.16459490741</v>
       </c>
       <c r="I164" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -7924,7 +7927,7 @@
         <v>670</v>
       </c>
       <c r="F165" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G165" s="3">
         <v>45297.31922453704</v>
@@ -7933,7 +7936,7 @@
         <v>45314.49394675926</v>
       </c>
       <c r="I165" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -7953,7 +7956,7 @@
         <v>671</v>
       </c>
       <c r="F166" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G166" s="3">
         <v>45315.42201388889</v>
@@ -7962,7 +7965,7 @@
         <v>45315.7841550926</v>
       </c>
       <c r="I166" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -7982,7 +7985,7 @@
         <v>594</v>
       </c>
       <c r="F167" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G167" s="3">
         <v>45314.42302083333</v>
@@ -7991,7 +7994,7 @@
         <v>45314.42302083333</v>
       </c>
       <c r="I167" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -8011,7 +8014,7 @@
         <v>672</v>
       </c>
       <c r="F168" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G168" s="3">
         <v>45314.49530092593</v>
@@ -8020,7 +8023,7 @@
         <v>45315.78174768519</v>
       </c>
       <c r="I168" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -8040,7 +8043,7 @@
         <v>673</v>
       </c>
       <c r="F169" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G169" s="3">
         <v>45312.49302083333</v>
@@ -8049,7 +8052,7 @@
         <v>45314.49451388889</v>
       </c>
       <c r="I169" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -8069,7 +8072,7 @@
         <v>674</v>
       </c>
       <c r="F170" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G170" s="3">
         <v>45302.49891203704</v>
@@ -8078,7 +8081,7 @@
         <v>45315.78163194445</v>
       </c>
       <c r="I170" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -8098,7 +8101,7 @@
         <v>675</v>
       </c>
       <c r="F171" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G171" s="3">
         <v>45314.49350694445</v>
@@ -8107,7 +8110,7 @@
         <v>45315.78178240741</v>
       </c>
       <c r="I171" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -8127,7 +8130,7 @@
         <v>604</v>
       </c>
       <c r="F172" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G172" s="3">
         <v>44049.84335648148</v>
@@ -8136,7 +8139,7 @@
         <v>44740.15496527778</v>
       </c>
       <c r="I172" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -8156,7 +8159,7 @@
         <v>595</v>
       </c>
       <c r="F173" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G173" s="3">
         <v>45307.49097222222</v>
@@ -8165,7 +8168,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I173" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -8185,7 +8188,7 @@
         <v>594</v>
       </c>
       <c r="F174" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G174" s="3">
         <v>45312.37847222222</v>
@@ -8194,7 +8197,7 @@
         <v>45314.42348379629</v>
       </c>
       <c r="I174" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -8214,7 +8217,7 @@
         <v>608</v>
       </c>
       <c r="F175" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G175" s="3">
         <v>45312.25097222222</v>
@@ -8223,7 +8226,7 @@
         <v>45315.74335648148</v>
       </c>
       <c r="I175" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -8243,7 +8246,7 @@
         <v>664</v>
       </c>
       <c r="F176" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G176" s="3">
         <v>45310.90118055556</v>
@@ -8252,7 +8255,7 @@
         <v>45314.49304398148</v>
       </c>
       <c r="I176" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -8272,7 +8275,7 @@
         <v>602</v>
       </c>
       <c r="F177" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G177" s="3">
         <v>45296.62515046296</v>
@@ -8281,7 +8284,7 @@
         <v>45314.49361111111</v>
       </c>
       <c r="I177" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -8301,7 +8304,7 @@
         <v>676</v>
       </c>
       <c r="F178" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G178" s="3">
         <v>45311.61869212963</v>
@@ -8310,7 +8313,7 @@
         <v>45315.73645833333</v>
       </c>
       <c r="I178" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -8330,7 +8333,7 @@
         <v>647</v>
       </c>
       <c r="F179" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G179" s="3">
         <v>45287.159375</v>
@@ -8339,7 +8342,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I179" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -8359,7 +8362,7 @@
         <v>677</v>
       </c>
       <c r="F180" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G180" s="3">
         <v>45311.68436342593</v>
@@ -8368,7 +8371,7 @@
         <v>45315.75385416667</v>
       </c>
       <c r="I180" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -8388,7 +8391,7 @@
         <v>678</v>
       </c>
       <c r="F181" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G181" s="3">
         <v>45291.49039351852</v>
@@ -8397,7 +8400,7 @@
         <v>45315.78164351852</v>
       </c>
       <c r="I181" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -8417,7 +8420,7 @@
         <v>679</v>
       </c>
       <c r="F182" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G182" s="3">
         <v>45308.74193287037</v>
@@ -8426,7 +8429,7 @@
         <v>45315.7467824074</v>
       </c>
       <c r="I182" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -8446,7 +8449,7 @@
         <v>680</v>
       </c>
       <c r="F183" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G183" s="3">
         <v>45290.68399305556</v>
@@ -8455,7 +8458,7 @@
         <v>45315.76791666666</v>
       </c>
       <c r="I183" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -8475,7 +8478,7 @@
         <v>681</v>
       </c>
       <c r="F184" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G184" s="3">
         <v>45294.52609953703</v>
@@ -8484,7 +8487,7 @@
         <v>45315.75109953704</v>
       </c>
       <c r="I184" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -8504,7 +8507,7 @@
         <v>662</v>
       </c>
       <c r="F185" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G185" s="3">
         <v>45305.28581018518</v>
@@ -8513,7 +8516,7 @@
         <v>45315.73657407407</v>
       </c>
       <c r="I185" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -8533,7 +8536,7 @@
         <v>682</v>
       </c>
       <c r="F186" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G186" s="3">
         <v>45303.07900462963</v>
@@ -8542,7 +8545,7 @@
         <v>45315.78171296296</v>
       </c>
       <c r="I186" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -8562,7 +8565,7 @@
         <v>637</v>
       </c>
       <c r="F187" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G187" s="3">
         <v>45294.00594907408</v>
@@ -8571,7 +8574,7 @@
         <v>45315.60971064815</v>
       </c>
       <c r="I187" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -8591,7 +8594,7 @@
         <v>683</v>
       </c>
       <c r="F188" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G188" s="3">
         <v>45291.6212037037</v>
@@ -8600,7 +8603,7 @@
         <v>45315.76299768518</v>
       </c>
       <c r="I188" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -8620,7 +8623,7 @@
         <v>684</v>
       </c>
       <c r="F189" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G189" s="3">
         <v>45291.62125</v>
@@ -8629,7 +8632,7 @@
         <v>45315.73672453704</v>
       </c>
       <c r="I189" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -8649,7 +8652,7 @@
         <v>685</v>
       </c>
       <c r="F190" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G190" s="3">
         <v>45291.49121527778</v>
@@ -8658,7 +8661,7 @@
         <v>45315.73679398148</v>
       </c>
       <c r="I190" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -8678,7 +8681,7 @@
         <v>595</v>
       </c>
       <c r="F191" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G191" s="3">
         <v>45305.45537037037</v>
@@ -8687,7 +8690,7 @@
         <v>45315.78153935185</v>
       </c>
       <c r="I191" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -8707,7 +8710,7 @@
         <v>686</v>
       </c>
       <c r="F192" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G192" s="3">
         <v>45312.66900462963</v>
@@ -8716,7 +8719,7 @@
         <v>45315.78197916667</v>
       </c>
       <c r="I192" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -8736,7 +8739,7 @@
         <v>687</v>
       </c>
       <c r="F193" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G193" s="3">
         <v>45283.15128472223</v>
@@ -8745,7 +8748,7 @@
         <v>45315.73756944444</v>
       </c>
       <c r="I193" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -8765,7 +8768,7 @@
         <v>688</v>
       </c>
       <c r="F194" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G194" s="3">
         <v>45290.15359953704</v>
@@ -8774,7 +8777,7 @@
         <v>45315.81050925926</v>
       </c>
       <c r="I194" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -8794,7 +8797,7 @@
         <v>689</v>
       </c>
       <c r="F195" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G195" s="3">
         <v>45288.77761574074</v>
@@ -8803,7 +8806,7 @@
         <v>45315.8109837963</v>
       </c>
       <c r="I195" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -8823,7 +8826,7 @@
         <v>690</v>
       </c>
       <c r="F196" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G196" s="3">
         <v>45283.5427199074</v>
@@ -8832,7 +8835,7 @@
         <v>45315.81034722222</v>
       </c>
       <c r="I196" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -8852,7 +8855,7 @@
         <v>691</v>
       </c>
       <c r="F197" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G197" s="3">
         <v>45290.06099537037</v>
@@ -8861,7 +8864,7 @@
         <v>45315.78223379629</v>
       </c>
       <c r="I197" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -8881,7 +8884,7 @@
         <v>692</v>
       </c>
       <c r="F198" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G198" s="3">
         <v>45285.78746527778</v>
@@ -8890,7 +8893,7 @@
         <v>45315.81327546296</v>
       </c>
       <c r="I198" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -8910,7 +8913,7 @@
         <v>676</v>
       </c>
       <c r="F199" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G199" s="3">
         <v>45300.70331018518</v>
@@ -8919,7 +8922,7 @@
         <v>45315.78243055556</v>
       </c>
       <c r="I199" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -8939,7 +8942,7 @@
         <v>649</v>
       </c>
       <c r="F200" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G200" s="3">
         <v>45313.4215625</v>
@@ -8948,7 +8951,7 @@
         <v>45314.19313657407</v>
       </c>
       <c r="I200" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -8968,7 +8971,7 @@
         <v>598</v>
       </c>
       <c r="F201" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G201" s="3">
         <v>45313.10177083333</v>
@@ -8977,7 +8980,7 @@
         <v>45315.19548611111</v>
       </c>
       <c r="I201" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -8997,7 +9000,7 @@
         <v>693</v>
       </c>
       <c r="F202" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G202" s="3">
         <v>45313.56241898148</v>
@@ -9006,7 +9009,7 @@
         <v>45315.73755787037</v>
       </c>
       <c r="I202" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -9026,7 +9029,7 @@
         <v>677</v>
       </c>
       <c r="F203" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G203" s="3">
         <v>45287.49016203704</v>
@@ -9035,7 +9038,7 @@
         <v>45315.81586805556</v>
       </c>
       <c r="I203" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -9055,7 +9058,7 @@
         <v>694</v>
       </c>
       <c r="F204" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G204" s="3">
         <v>45294.11623842592</v>
@@ -9064,7 +9067,7 @@
         <v>45315.81109953704</v>
       </c>
       <c r="I204" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -9084,7 +9087,7 @@
         <v>686</v>
       </c>
       <c r="F205" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G205" s="3">
         <v>45281.61627314815</v>
@@ -9093,7 +9096,7 @@
         <v>45315.73660879629</v>
       </c>
       <c r="I205" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -9113,7 +9116,7 @@
         <v>595</v>
       </c>
       <c r="F206" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G206" s="3">
         <v>45310.31782407407</v>
@@ -9122,7 +9125,7 @@
         <v>45315.82373842593</v>
       </c>
       <c r="I206" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -9142,7 +9145,7 @@
         <v>695</v>
       </c>
       <c r="F207" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G207" s="3">
         <v>45292.86751157408</v>
@@ -9151,7 +9154,7 @@
         <v>45315.81833333334</v>
       </c>
       <c r="I207" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -9171,7 +9174,7 @@
         <v>696</v>
       </c>
       <c r="F208" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G208" s="3">
         <v>45297.78877314815</v>
@@ -9180,7 +9183,7 @@
         <v>45315.82362268519</v>
       </c>
       <c r="I208" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -9200,7 +9203,7 @@
         <v>681</v>
       </c>
       <c r="F209" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G209" s="3">
         <v>45291.49200231482</v>
@@ -9209,7 +9212,7 @@
         <v>45315.81275462963</v>
       </c>
       <c r="I209" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -9229,7 +9232,7 @@
         <v>693</v>
       </c>
       <c r="F210" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G210" s="3">
         <v>45314.77236111111</v>
@@ -9238,7 +9241,7 @@
         <v>45315.81111111111</v>
       </c>
       <c r="I210" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -9258,7 +9261,7 @@
         <v>697</v>
       </c>
       <c r="F211" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G211" s="3">
         <v>45306.94767361111</v>
@@ -9267,7 +9270,7 @@
         <v>45315.81850694444</v>
       </c>
       <c r="I211" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -9287,7 +9290,7 @@
         <v>698</v>
       </c>
       <c r="F212" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G212" s="3">
         <v>45315.48592592592</v>
@@ -9296,7 +9299,7 @@
         <v>45315.82550925926</v>
       </c>
       <c r="I212" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -9316,7 +9319,7 @@
         <v>699</v>
       </c>
       <c r="F213" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G213" s="3">
         <v>45278.21140046296</v>
@@ -9325,7 +9328,7 @@
         <v>45315.78211805555</v>
       </c>
       <c r="I213" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -9345,7 +9348,7 @@
         <v>686</v>
       </c>
       <c r="F214" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G214" s="3">
         <v>45296.58950231481</v>
@@ -9354,7 +9357,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I214" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -9374,7 +9377,7 @@
         <v>700</v>
       </c>
       <c r="F215" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G215" s="3">
         <v>45308.74321759259</v>
@@ -9383,7 +9386,7 @@
         <v>45315.82768518518</v>
       </c>
       <c r="I215" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -9403,7 +9406,7 @@
         <v>691</v>
       </c>
       <c r="F216" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G216" s="3">
         <v>45291.49114583333</v>
@@ -9412,7 +9415,7 @@
         <v>45315.82378472222</v>
       </c>
       <c r="I216" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -9432,7 +9435,7 @@
         <v>701</v>
       </c>
       <c r="F217" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G217" s="3">
         <v>45308.16465277778</v>
@@ -9441,7 +9444,7 @@
         <v>45315.82369212963</v>
       </c>
       <c r="I217" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -9461,7 +9464,7 @@
         <v>702</v>
       </c>
       <c r="F218" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G218" s="3">
         <v>45296.21802083333</v>
@@ -9470,7 +9473,7 @@
         <v>45315.82553240741</v>
       </c>
       <c r="I218" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -9490,7 +9493,7 @@
         <v>589</v>
       </c>
       <c r="F219" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G219" s="3">
         <v>45307.36931712963</v>
@@ -9499,7 +9502,7 @@
         <v>45315.78234953704</v>
       </c>
       <c r="I219" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -9519,7 +9522,7 @@
         <v>607</v>
       </c>
       <c r="F220" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G220" s="3">
         <v>45313.02901620371</v>
@@ -9528,7 +9531,7 @@
         <v>45315.78185185185</v>
       </c>
       <c r="I220" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -9548,7 +9551,7 @@
         <v>686</v>
       </c>
       <c r="F221" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G221" s="3">
         <v>45284.49082175926</v>
@@ -9557,7 +9560,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I221" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -9577,7 +9580,7 @@
         <v>703</v>
       </c>
       <c r="F222" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G222" s="3">
         <v>45290.06063657408</v>
@@ -9586,7 +9589,7 @@
         <v>45315.81575231482</v>
       </c>
       <c r="I222" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -9606,7 +9609,7 @@
         <v>689</v>
       </c>
       <c r="F223" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G223" s="3">
         <v>45292.49101851852</v>
@@ -9615,7 +9618,7 @@
         <v>45315.81292824074</v>
       </c>
       <c r="I223" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -9635,7 +9638,7 @@
         <v>695</v>
       </c>
       <c r="F224" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G224" s="3">
         <v>45291.34520833333</v>
@@ -9644,7 +9647,7 @@
         <v>45315.82354166666</v>
       </c>
       <c r="I224" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -9664,7 +9667,7 @@
         <v>704</v>
       </c>
       <c r="F225" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G225" s="3">
         <v>45314.42053240741</v>
@@ -9673,7 +9676,7 @@
         <v>45315.81092592593</v>
       </c>
       <c r="I225" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -9693,7 +9696,7 @@
         <v>686</v>
       </c>
       <c r="F226" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G226" s="3">
         <v>45291.49119212963</v>
@@ -9702,7 +9705,7 @@
         <v>45314.49342592592</v>
       </c>
       <c r="I226" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -9722,7 +9725,7 @@
         <v>705</v>
       </c>
       <c r="F227" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G227" s="3">
         <v>45306.91820601852</v>
@@ -9731,7 +9734,7 @@
         <v>45315.82215277778</v>
       </c>
       <c r="I227" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -9751,7 +9754,7 @@
         <v>682</v>
       </c>
       <c r="F228" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G228" s="3">
         <v>45286.62017361111</v>
@@ -9760,7 +9763,7 @@
         <v>45315.78180555555</v>
       </c>
       <c r="I228" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -9780,7 +9783,7 @@
         <v>695</v>
       </c>
       <c r="F229" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G229" s="3">
         <v>45308.74159722222</v>
@@ -9789,7 +9792,7 @@
         <v>45315.82368055556</v>
       </c>
       <c r="I229" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -9809,7 +9812,7 @@
         <v>602</v>
       </c>
       <c r="F230" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G230" s="3">
         <v>45283.53591435185</v>
@@ -9818,7 +9821,7 @@
         <v>45315.82388888889</v>
       </c>
       <c r="I230" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -9838,7 +9841,7 @@
         <v>673</v>
       </c>
       <c r="F231" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G231" s="3">
         <v>45279.15613425926</v>
@@ -9847,7 +9850,7 @@
         <v>45310.69137731481</v>
       </c>
       <c r="I231" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -9867,7 +9870,7 @@
         <v>608</v>
       </c>
       <c r="F232" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G232" s="3">
         <v>45302.49265046296</v>
@@ -9876,7 +9879,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I232" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -9896,7 +9899,7 @@
         <v>706</v>
       </c>
       <c r="F233" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G233" s="3">
         <v>45286.49104166667</v>
@@ -9905,7 +9908,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I233" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -9925,7 +9928,7 @@
         <v>707</v>
       </c>
       <c r="F234" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G234" s="3">
         <v>45313.42326388889</v>
@@ -9934,7 +9937,7 @@
         <v>45314.18550925926</v>
       </c>
       <c r="I234" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -9954,7 +9957,7 @@
         <v>604</v>
       </c>
       <c r="F235" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G235" s="3">
         <v>44288.33525462963</v>
@@ -9963,7 +9966,7 @@
         <v>44288.33525462963</v>
       </c>
       <c r="I235" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -9983,7 +9986,7 @@
         <v>623</v>
       </c>
       <c r="F236" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G236" s="3">
         <v>45287.22329861111</v>
@@ -9992,7 +9995,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I236" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -10012,7 +10015,7 @@
         <v>708</v>
       </c>
       <c r="F237" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G237" s="3">
         <v>45311.90133101852</v>
@@ -10021,7 +10024,7 @@
         <v>45315.82358796296</v>
       </c>
       <c r="I237" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -10041,7 +10044,7 @@
         <v>595</v>
       </c>
       <c r="F238" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G238" s="3">
         <v>45298.44405092593</v>
@@ -10050,7 +10053,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I238" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -10070,7 +10073,7 @@
         <v>603</v>
       </c>
       <c r="F239" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G239" s="3">
         <v>45297.01849537037</v>
@@ -10079,7 +10082,7 @@
         <v>45314.90065972223</v>
       </c>
       <c r="I239" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -10099,7 +10102,7 @@
         <v>709</v>
       </c>
       <c r="F240" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G240" s="3">
         <v>45280.57440972222</v>
@@ -10108,7 +10111,7 @@
         <v>45309.03163194445</v>
       </c>
       <c r="I240" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -10128,7 +10131,7 @@
         <v>592</v>
       </c>
       <c r="F241" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G241" s="3">
         <v>45314.42252314815</v>
@@ -10137,7 +10140,7 @@
         <v>45315.82351851852</v>
       </c>
       <c r="I241" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -10157,7 +10160,7 @@
         <v>608</v>
       </c>
       <c r="F242" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G242" s="3">
         <v>45301.61993055556</v>
@@ -10166,7 +10169,7 @@
         <v>45314.018125</v>
       </c>
       <c r="I242" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -10186,7 +10189,7 @@
         <v>710</v>
       </c>
       <c r="F243" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G243" s="3">
         <v>45312.49469907407</v>
@@ -10195,7 +10198,7 @@
         <v>45315.78165509259</v>
       </c>
       <c r="I243" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -10215,7 +10218,7 @@
         <v>624</v>
       </c>
       <c r="F244" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G244" s="3">
         <v>45295.49803240741</v>
@@ -10224,7 +10227,7 @@
         <v>45315.8234837963</v>
       </c>
       <c r="I244" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -10244,7 +10247,7 @@
         <v>711</v>
       </c>
       <c r="F245" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G245" s="3">
         <v>45313.05956018518</v>
@@ -10253,7 +10256,7 @@
         <v>45315.82376157407</v>
       </c>
       <c r="I245" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -10273,7 +10276,7 @@
         <v>646</v>
       </c>
       <c r="F246" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G246" s="3">
         <v>45298.49199074074</v>
@@ -10282,7 +10285,7 @@
         <v>45315.82392361111</v>
       </c>
       <c r="I246" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -10302,7 +10305,7 @@
         <v>608</v>
       </c>
       <c r="F247" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G247" s="3">
         <v>45286.6203587963</v>
@@ -10311,7 +10314,7 @@
         <v>45315.82366898148</v>
       </c>
       <c r="I247" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -10331,7 +10334,7 @@
         <v>646</v>
       </c>
       <c r="F248" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G248" s="3">
         <v>45311.61991898148</v>
@@ -10340,7 +10343,7 @@
         <v>45315.02909722222</v>
       </c>
       <c r="I248" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -10360,7 +10363,7 @@
         <v>712</v>
       </c>
       <c r="F249" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G249" s="3">
         <v>45306.75461805556</v>
@@ -10369,7 +10372,7 @@
         <v>45315.04524305555</v>
       </c>
       <c r="I249" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -10386,10 +10389,10 @@
         <v>542</v>
       </c>
       <c r="E250" t="s">
-        <v>587</v>
+        <v>713</v>
       </c>
       <c r="F250" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G250" s="3">
         <v>45292.49578703703</v>
@@ -10398,7 +10401,7 @@
         <v>45315.4852662037</v>
       </c>
       <c r="I250" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -10418,7 +10421,7 @@
         <v>625</v>
       </c>
       <c r="F251" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G251" s="3">
         <v>45308.60100694445</v>
@@ -10427,7 +10430,7 @@
         <v>45314.49393518519</v>
       </c>
       <c r="I251" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -10447,7 +10450,7 @@
         <v>682</v>
       </c>
       <c r="F252" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G252" s="3">
         <v>45289.35146990741</v>
@@ -10456,7 +10459,7 @@
         <v>45314.49217592592</v>
       </c>
       <c r="I252" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -10476,7 +10479,7 @@
         <v>637</v>
       </c>
       <c r="F253" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G253" s="3">
         <v>45307.49243055555</v>
@@ -10485,7 +10488,7 @@
         <v>45314.49329861111</v>
       </c>
       <c r="I253" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -10502,10 +10505,10 @@
         <v>546</v>
       </c>
       <c r="E254" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F254" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G254" s="3">
         <v>45313.42297453704</v>
@@ -10514,7 +10517,7 @@
         <v>45313.42299768519</v>
       </c>
       <c r="I254" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -10534,7 +10537,7 @@
         <v>606</v>
       </c>
       <c r="F255" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G255" s="3">
         <v>45291.49054398148</v>
@@ -10543,7 +10546,7 @@
         <v>45314.94496527778</v>
       </c>
       <c r="I255" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -10560,10 +10563,10 @@
         <v>548</v>
       </c>
       <c r="E256" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F256" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G256" s="3">
         <v>45292.15671296296</v>
@@ -10572,7 +10575,7 @@
         <v>45312.75942129629</v>
       </c>
       <c r="I256" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -10589,10 +10592,10 @@
         <v>549</v>
       </c>
       <c r="E257" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F257" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G257" s="3">
         <v>45287.83861111111</v>
@@ -10601,7 +10604,7 @@
         <v>45316.03899305555</v>
       </c>
       <c r="I257" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -10621,7 +10624,7 @@
         <v>656</v>
       </c>
       <c r="F258" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G258" s="3">
         <v>45293.04358796297</v>
@@ -10630,7 +10633,7 @@
         <v>45315.8656712963</v>
       </c>
       <c r="I258" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -10650,7 +10653,7 @@
         <v>599</v>
       </c>
       <c r="F259" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G259" s="3">
         <v>45307.49564814815</v>
@@ -10659,7 +10662,7 @@
         <v>45315.9937037037</v>
       </c>
       <c r="I259" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -10679,7 +10682,7 @@
         <v>595</v>
       </c>
       <c r="F260" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G260" s="3">
         <v>45314.90094907407</v>
@@ -10688,7 +10691,7 @@
         <v>45315.89604166667</v>
       </c>
       <c r="I260" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -10708,7 +10711,7 @@
         <v>600</v>
       </c>
       <c r="F261" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G261" s="3">
         <v>45294.84780092593</v>
@@ -10717,7 +10720,7 @@
         <v>45316.03907407408</v>
       </c>
       <c r="I261" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -10737,7 +10740,7 @@
         <v>682</v>
       </c>
       <c r="F262" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G262" s="3">
         <v>45296.61121527778</v>
@@ -10746,7 +10749,7 @@
         <v>45316.03895833333</v>
       </c>
       <c r="I262" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -10766,7 +10769,7 @@
         <v>617</v>
       </c>
       <c r="F263" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G263" s="3">
         <v>45311.62060185185</v>
@@ -10775,7 +10778,7 @@
         <v>45316.03954861111</v>
       </c>
       <c r="I263" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -10795,7 +10798,7 @@
         <v>603</v>
       </c>
       <c r="F264" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G264" s="3">
         <v>45301.61861111111</v>
@@ -10804,7 +10807,7 @@
         <v>45316.08056712963</v>
       </c>
       <c r="I264" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -10824,7 +10827,7 @@
         <v>603</v>
       </c>
       <c r="F265" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G265" s="3">
         <v>45286.49385416666</v>
@@ -10833,7 +10836,7 @@
         <v>45316.03959490741</v>
       </c>
       <c r="I265" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -10853,7 +10856,7 @@
         <v>637</v>
       </c>
       <c r="F266" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G266" s="3">
         <v>45311.71087962963</v>
@@ -10862,7 +10865,7 @@
         <v>45314.67140046296</v>
       </c>
       <c r="I266" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -10879,10 +10882,10 @@
         <v>559</v>
       </c>
       <c r="E267" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F267" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G267" s="3">
         <v>45288.63045138889</v>
@@ -10891,7 +10894,7 @@
         <v>45316.03887731482</v>
       </c>
       <c r="I267" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -10911,7 +10914,7 @@
         <v>635</v>
       </c>
       <c r="F268" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G268" s="3">
         <v>45280.82067129629</v>
@@ -10920,7 +10923,7 @@
         <v>45316.03997685185</v>
       </c>
       <c r="I268" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -10940,7 +10943,7 @@
         <v>676</v>
       </c>
       <c r="F269" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G269" s="3">
         <v>45296.62119212963</v>
@@ -10949,7 +10952,7 @@
         <v>45316.08042824074</v>
       </c>
       <c r="I269" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -10969,7 +10972,7 @@
         <v>595</v>
       </c>
       <c r="F270" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G270" s="3">
         <v>45300.48923611111</v>
@@ -10978,7 +10981,7 @@
         <v>45316.08054398148</v>
       </c>
       <c r="I270" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -10998,7 +11001,7 @@
         <v>637</v>
       </c>
       <c r="F271" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G271" s="3">
         <v>45314.49359953704</v>
@@ -11007,7 +11010,7 @@
         <v>45314.66849537037</v>
       </c>
       <c r="I271" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -11027,7 +11030,7 @@
         <v>645</v>
       </c>
       <c r="F272" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G272" s="3">
         <v>45312.50121527778</v>
@@ -11036,7 +11039,7 @@
         <v>45312.67422453704</v>
       </c>
       <c r="I272" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -11056,7 +11059,7 @@
         <v>648</v>
       </c>
       <c r="F273" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G273" s="3">
         <v>45261.49545138889</v>
@@ -11065,7 +11068,7 @@
         <v>45309.04300925926</v>
       </c>
       <c r="I273" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -11085,7 +11088,7 @@
         <v>646</v>
       </c>
       <c r="F274" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G274" s="3">
         <v>45291.49003472222</v>
@@ -11094,7 +11097,7 @@
         <v>45316.08077546296</v>
       </c>
       <c r="I274" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -11111,10 +11114,10 @@
         <v>567</v>
       </c>
       <c r="E275" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F275" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G275" s="3">
         <v>45280.21361111111</v>
@@ -11123,7 +11126,7 @@
         <v>45309.04177083333</v>
       </c>
       <c r="I275" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -11143,7 +11146,7 @@
         <v>601</v>
       </c>
       <c r="F276" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G276" s="3">
         <v>45314.56188657408</v>
@@ -11152,7 +11155,7 @@
         <v>45315.48497685185</v>
       </c>
       <c r="I276" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -11172,7 +11175,7 @@
         <v>603</v>
       </c>
       <c r="F277" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G277" s="3">
         <v>45302.49186342592</v>
@@ -11181,7 +11184,7 @@
         <v>45316.08069444444</v>
       </c>
       <c r="I277" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -11201,7 +11204,7 @@
         <v>638</v>
       </c>
       <c r="F278" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G278" s="3">
         <v>45291.5000462963</v>
@@ -11210,7 +11213,7 @@
         <v>45314.49376157407</v>
       </c>
       <c r="I278" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -11230,7 +11233,7 @@
         <v>623</v>
       </c>
       <c r="F279" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G279" s="3">
         <v>45291.49392361111</v>
@@ -11239,7 +11242,7 @@
         <v>45314.49452546296</v>
       </c>
       <c r="I279" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -11259,7 +11262,7 @@
         <v>602</v>
       </c>
       <c r="F280" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G280" s="3">
         <v>45312.49576388889</v>
@@ -11268,7 +11271,7 @@
         <v>45316.03846064815</v>
       </c>
       <c r="I280" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -11288,7 +11291,7 @@
         <v>632</v>
       </c>
       <c r="F281" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G281" s="3">
         <v>45312.98068287037</v>
@@ -11297,7 +11300,7 @@
         <v>45316.08041666666</v>
       </c>
       <c r="I281" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -11317,7 +11320,7 @@
         <v>673</v>
       </c>
       <c r="F282" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G282" s="3">
         <v>45314.49623842593</v>
@@ -11326,7 +11329,7 @@
         <v>45316.08075231482</v>
       </c>
       <c r="I282" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -11346,7 +11349,7 @@
         <v>607</v>
       </c>
       <c r="F283" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G283" s="3">
         <v>45313.14449074074</v>
@@ -11355,7 +11358,7 @@
         <v>45316.08082175926</v>
       </c>
       <c r="I283" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -11375,7 +11378,7 @@
         <v>685</v>
       </c>
       <c r="F284" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G284" s="3">
         <v>45312.50119212963</v>
@@ -11384,7 +11387,7 @@
         <v>45316.08556712963</v>
       </c>
       <c r="I284" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -1780,7 +1780,7 @@
     <t>{'harmless': 53, 'malicious': 15, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
   </si>
   <si>
-    <t>{'harmless': 64, 'malicious': 0, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
+    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
   </si>
   <si>
     <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
@@ -3577,7 +3577,7 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>307</v>
@@ -3589,10 +3589,10 @@
         <v>725</v>
       </c>
       <c r="G15" s="3">
-        <v>45310.43427083334</v>
+        <v>45341.23758101852</v>
       </c>
       <c r="H15" s="3">
-        <v>45316.36269675926</v>
+        <v>45341.23922453704</v>
       </c>
       <c r="I15" t="s">
         <v>783</v>

--- a/1.xlsx
+++ b/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="924">
   <si>
     <t>Sno</t>
   </si>
@@ -1783,142 +1783,145 @@
     <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
   </si>
   <si>
+    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 7, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 9, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 10, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 52, 'malicious': 17, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 5, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 1, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 12, 'suspicious': 2, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 16, 'suspicious': 1, 'undetected': 19, 'harmless': 53, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 6, 'suspicious': 2, 'undetected': 20, 'harmless': 61, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 13, 'suspicious': 1, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 14, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 8, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 8, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
     <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 7, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 9, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 10, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 52, 'malicious': 17, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 5, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 1, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 12, 'suspicious': 2, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 16, 'suspicious': 1, 'undetected': 19, 'harmless': 53, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 6, 'suspicious': 2, 'undetected': 20, 'harmless': 61, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 13, 'suspicious': 1, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 14, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 8, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 8, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
   </si>
   <si>
     <t>{'harmless': 60, 'malicious': 6, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
@@ -3209,7 +3212,7 @@
         <v>577</v>
       </c>
       <c r="F2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G2" s="3">
         <v>45311.61894675926</v>
@@ -3218,7 +3221,7 @@
         <v>45341.32113425926</v>
       </c>
       <c r="I2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3238,7 +3241,7 @@
         <v>578</v>
       </c>
       <c r="F3" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G3" s="3">
         <v>45328.50989583333</v>
@@ -3247,7 +3250,7 @@
         <v>45341.27945601852</v>
       </c>
       <c r="I3" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3267,7 +3270,7 @@
         <v>578</v>
       </c>
       <c r="F4" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G4" s="3">
         <v>45306.97109953704</v>
@@ -3276,7 +3279,7 @@
         <v>45341.06746527777</v>
       </c>
       <c r="I4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3296,7 +3299,7 @@
         <v>578</v>
       </c>
       <c r="F5" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G5" s="3">
         <v>45328.57457175926</v>
@@ -3305,7 +3308,7 @@
         <v>45341.27858796297</v>
       </c>
       <c r="I5" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3325,7 +3328,7 @@
         <v>579</v>
       </c>
       <c r="F6" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G6" s="3">
         <v>45337.51012731482</v>
@@ -3334,7 +3337,7 @@
         <v>45341.27866898148</v>
       </c>
       <c r="I6" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3354,7 +3357,7 @@
         <v>580</v>
       </c>
       <c r="F7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G7" s="3">
         <v>45329.3558912037</v>
@@ -3363,7 +3366,7 @@
         <v>45341.32061342592</v>
       </c>
       <c r="I7" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3383,7 +3386,7 @@
         <v>581</v>
       </c>
       <c r="F8" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G8" s="3">
         <v>45337.50997685185</v>
@@ -3392,7 +3395,7 @@
         <v>45341.10480324074</v>
       </c>
       <c r="I8" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3412,7 +3415,7 @@
         <v>582</v>
       </c>
       <c r="F9" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G9" s="3">
         <v>45308.21690972222</v>
@@ -3421,7 +3424,7 @@
         <v>45341.10543981481</v>
       </c>
       <c r="I9" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3441,7 +3444,7 @@
         <v>583</v>
       </c>
       <c r="F10" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G10" s="3">
         <v>45329.50237268519</v>
@@ -3450,7 +3453,7 @@
         <v>45341.04172453703</v>
       </c>
       <c r="I10" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3470,7 +3473,7 @@
         <v>584</v>
       </c>
       <c r="F11" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G11" s="3">
         <v>45316.49925925926</v>
@@ -3479,7 +3482,7 @@
         <v>45341.10148148148</v>
       </c>
       <c r="I11" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3499,7 +3502,7 @@
         <v>585</v>
       </c>
       <c r="F12" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G12" s="3">
         <v>45329.01333333334</v>
@@ -3508,7 +3511,7 @@
         <v>45341.36274305556</v>
       </c>
       <c r="I12" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3528,7 +3531,7 @@
         <v>586</v>
       </c>
       <c r="F13" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G13" s="3">
         <v>45320.50914351852</v>
@@ -3537,7 +3540,7 @@
         <v>45341.02841435185</v>
       </c>
       <c r="I13" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3557,7 +3560,7 @@
         <v>587</v>
       </c>
       <c r="F14" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G14" s="3">
         <v>45329.05806712963</v>
@@ -3566,7 +3569,7 @@
         <v>45341.07314814815</v>
       </c>
       <c r="I14" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3586,7 +3589,7 @@
         <v>588</v>
       </c>
       <c r="F15" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G15" s="3">
         <v>45341.23758101852</v>
@@ -3595,7 +3598,7 @@
         <v>45341.23922453704</v>
       </c>
       <c r="I15" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3615,16 +3618,16 @@
         <v>589</v>
       </c>
       <c r="F16" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G16" s="3">
         <v>45311.33236111111</v>
       </c>
       <c r="H16" s="3">
-        <v>45314.49320601852</v>
+        <v>45341.09497685185</v>
       </c>
       <c r="I16" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3644,7 +3647,7 @@
         <v>590</v>
       </c>
       <c r="F17" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G17" s="3">
         <v>45301.30826388889</v>
@@ -3653,7 +3656,7 @@
         <v>45316.37930555556</v>
       </c>
       <c r="I17" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3673,7 +3676,7 @@
         <v>591</v>
       </c>
       <c r="F18" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G18" s="3">
         <v>45306.18137731482</v>
@@ -3682,7 +3685,7 @@
         <v>45316.42100694445</v>
       </c>
       <c r="I18" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3702,7 +3705,7 @@
         <v>592</v>
       </c>
       <c r="F19" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G19" s="3">
         <v>45288.23121527778</v>
@@ -3711,7 +3714,7 @@
         <v>45302.48868055556</v>
       </c>
       <c r="I19" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3731,7 +3734,7 @@
         <v>593</v>
       </c>
       <c r="F20" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G20" s="3">
         <v>45307.52993055555</v>
@@ -3740,7 +3743,7 @@
         <v>45314.19462962963</v>
       </c>
       <c r="I20" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3760,7 +3763,7 @@
         <v>594</v>
       </c>
       <c r="F21" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G21" s="3">
         <v>45314.42365740741</v>
@@ -3769,7 +3772,7 @@
         <v>45314.42368055556</v>
       </c>
       <c r="I21" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3789,7 +3792,7 @@
         <v>595</v>
       </c>
       <c r="F22" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G22" s="3">
         <v>45305.57067129629</v>
@@ -3798,7 +3801,7 @@
         <v>45316.42155092592</v>
       </c>
       <c r="I22" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3818,7 +3821,7 @@
         <v>596</v>
       </c>
       <c r="F23" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G23" s="3">
         <v>45291.49997685185</v>
@@ -3827,7 +3830,7 @@
         <v>45314.49226851852</v>
       </c>
       <c r="I23" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3847,7 +3850,7 @@
         <v>597</v>
       </c>
       <c r="F24" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G24" s="3">
         <v>45309.80174768518</v>
@@ -3856,7 +3859,7 @@
         <v>45315.85729166667</v>
       </c>
       <c r="I24" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3876,7 +3879,7 @@
         <v>598</v>
       </c>
       <c r="F25" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G25" s="3">
         <v>45299.43368055556</v>
@@ -3885,7 +3888,7 @@
         <v>45316.37909722222</v>
       </c>
       <c r="I25" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3905,7 +3908,7 @@
         <v>599</v>
       </c>
       <c r="F26" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G26" s="3">
         <v>45314.17763888889</v>
@@ -3914,7 +3917,7 @@
         <v>45316.08064814815</v>
       </c>
       <c r="I26" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3934,7 +3937,7 @@
         <v>600</v>
       </c>
       <c r="F27" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G27" s="3">
         <v>45291.49208333333</v>
@@ -3943,7 +3946,7 @@
         <v>45316.34907407407</v>
       </c>
       <c r="I27" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3963,7 +3966,7 @@
         <v>601</v>
       </c>
       <c r="F28" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G28" s="3">
         <v>45289.73149305556</v>
@@ -3972,7 +3975,7 @@
         <v>45316.37931712963</v>
       </c>
       <c r="I28" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3992,7 +3995,7 @@
         <v>602</v>
       </c>
       <c r="F29" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G29" s="3">
         <v>45312.4952662037</v>
@@ -4001,7 +4004,7 @@
         <v>45315.52618055556</v>
       </c>
       <c r="I29" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4021,7 +4024,7 @@
         <v>603</v>
       </c>
       <c r="F30" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G30" s="3">
         <v>45307.49253472222</v>
@@ -4030,7 +4033,7 @@
         <v>45316.3793287037</v>
       </c>
       <c r="I30" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4050,7 +4053,7 @@
         <v>599</v>
       </c>
       <c r="F31" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G31" s="3">
         <v>45311.71104166667</v>
@@ -4059,7 +4062,7 @@
         <v>45316.37922453704</v>
       </c>
       <c r="I31" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4079,7 +4082,7 @@
         <v>599</v>
       </c>
       <c r="F32" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G32" s="3">
         <v>45312.34644675926</v>
@@ -4088,7 +4091,7 @@
         <v>45316.37908564815</v>
       </c>
       <c r="I32" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4108,7 +4111,7 @@
         <v>604</v>
       </c>
       <c r="F33" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G33" s="3">
         <v>44163.34006944444</v>
@@ -4117,7 +4120,7 @@
         <v>44163.34006944444</v>
       </c>
       <c r="I33" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4137,7 +4140,7 @@
         <v>591</v>
       </c>
       <c r="F34" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G34" s="3">
         <v>45286.80534722222</v>
@@ -4146,7 +4149,7 @@
         <v>45316.37934027778</v>
       </c>
       <c r="I34" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4166,7 +4169,7 @@
         <v>605</v>
       </c>
       <c r="F35" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G35" s="3">
         <v>45302.49230324074</v>
@@ -4175,7 +4178,7 @@
         <v>45314.98761574074</v>
       </c>
       <c r="I35" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4195,7 +4198,7 @@
         <v>606</v>
       </c>
       <c r="F36" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G36" s="3">
         <v>45302.49503472223</v>
@@ -4204,7 +4207,7 @@
         <v>45315.48547453704</v>
       </c>
       <c r="I36" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4224,7 +4227,7 @@
         <v>607</v>
       </c>
       <c r="F37" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G37" s="3">
         <v>45311.61938657407</v>
@@ -4233,7 +4236,7 @@
         <v>45316.42167824074</v>
       </c>
       <c r="I37" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4253,7 +4256,7 @@
         <v>603</v>
       </c>
       <c r="F38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G38" s="3">
         <v>45297.0796412037</v>
@@ -4262,7 +4265,7 @@
         <v>45316.49811342593</v>
       </c>
       <c r="I38" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4282,7 +4285,7 @@
         <v>608</v>
       </c>
       <c r="F39" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G39" s="3">
         <v>45290.31696759259</v>
@@ -4291,7 +4294,7 @@
         <v>45316.49866898148</v>
       </c>
       <c r="I39" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4311,7 +4314,7 @@
         <v>609</v>
       </c>
       <c r="F40" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G40" s="3">
         <v>45313.59486111111</v>
@@ -4320,7 +4323,7 @@
         <v>45316.49662037037</v>
       </c>
       <c r="I40" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4340,7 +4343,7 @@
         <v>610</v>
       </c>
       <c r="F41" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G41" s="3">
         <v>45295.49177083333</v>
@@ -4349,7 +4352,7 @@
         <v>45316.49807870371</v>
       </c>
       <c r="I41" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4369,7 +4372,7 @@
         <v>611</v>
       </c>
       <c r="F42" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G42" s="3">
         <v>45311.92179398148</v>
@@ -4378,7 +4381,7 @@
         <v>45316.4971875</v>
       </c>
       <c r="I42" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4398,7 +4401,7 @@
         <v>610</v>
       </c>
       <c r="F43" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G43" s="3">
         <v>45296.05393518518</v>
@@ -4407,7 +4410,7 @@
         <v>45316.50489583334</v>
       </c>
       <c r="I43" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4427,7 +4430,7 @@
         <v>599</v>
       </c>
       <c r="F44" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G44" s="3">
         <v>45313.11333333333</v>
@@ -4436,7 +4439,7 @@
         <v>45316.49230324074</v>
       </c>
       <c r="I44" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4456,7 +4459,7 @@
         <v>602</v>
       </c>
       <c r="F45" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G45" s="3">
         <v>45306.61894675926</v>
@@ -4465,7 +4468,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I45" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4485,7 +4488,7 @@
         <v>612</v>
       </c>
       <c r="F46" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G46" s="3">
         <v>45312.49850694444</v>
@@ -4494,7 +4497,7 @@
         <v>45316.49799768518</v>
       </c>
       <c r="I46" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4514,7 +4517,7 @@
         <v>613</v>
       </c>
       <c r="F47" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G47" s="3">
         <v>45262.49515046296</v>
@@ -4523,7 +4526,7 @@
         <v>45309.07923611111</v>
       </c>
       <c r="I47" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4543,7 +4546,7 @@
         <v>608</v>
       </c>
       <c r="F48" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G48" s="3">
         <v>45298.49847222222</v>
@@ -4552,7 +4555,7 @@
         <v>45316.49944444445</v>
       </c>
       <c r="I48" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4572,7 +4575,7 @@
         <v>614</v>
       </c>
       <c r="F49" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G49" s="3">
         <v>45311.61908564815</v>
@@ -4581,7 +4584,7 @@
         <v>45316.49847222222</v>
       </c>
       <c r="I49" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4601,7 +4604,7 @@
         <v>615</v>
       </c>
       <c r="F50" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G50" s="3">
         <v>45311.61989583333</v>
@@ -4610,7 +4613,7 @@
         <v>45316.50482638889</v>
       </c>
       <c r="I50" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4630,7 +4633,7 @@
         <v>603</v>
       </c>
       <c r="F51" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G51" s="3">
         <v>45316.50053240741</v>
@@ -4639,7 +4642,7 @@
         <v>45316.50232638889</v>
       </c>
       <c r="I51" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4659,7 +4662,7 @@
         <v>594</v>
       </c>
       <c r="F52" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G52" s="3">
         <v>45313.05881944444</v>
@@ -4668,7 +4671,7 @@
         <v>45314.42322916666</v>
       </c>
       <c r="I52" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4688,7 +4691,7 @@
         <v>616</v>
       </c>
       <c r="F53" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G53" s="3">
         <v>45316.5015162037</v>
@@ -4697,7 +4700,7 @@
         <v>45316.50331018519</v>
       </c>
       <c r="I53" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4717,7 +4720,7 @@
         <v>617</v>
       </c>
       <c r="F54" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G54" s="3">
         <v>45291.62113425926</v>
@@ -4726,7 +4729,7 @@
         <v>45316.49827546296</v>
       </c>
       <c r="I54" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4746,7 +4749,7 @@
         <v>618</v>
       </c>
       <c r="F55" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G55" s="3">
         <v>45287.49758101852</v>
@@ -4755,7 +4758,7 @@
         <v>45316.50458333334</v>
       </c>
       <c r="I55" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4775,7 +4778,7 @@
         <v>619</v>
       </c>
       <c r="F56" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G56" s="3">
         <v>45280.75131944445</v>
@@ -4784,7 +4787,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I56" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4804,7 +4807,7 @@
         <v>602</v>
       </c>
       <c r="F57" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G57" s="3">
         <v>45291.49048611111</v>
@@ -4813,7 +4816,7 @@
         <v>45316.50336805556</v>
       </c>
       <c r="I57" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4833,7 +4836,7 @@
         <v>590</v>
       </c>
       <c r="F58" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G58" s="3">
         <v>45310.86956018519</v>
@@ -4842,7 +4845,7 @@
         <v>45314.48899305556</v>
       </c>
       <c r="I58" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4862,7 +4865,7 @@
         <v>595</v>
       </c>
       <c r="F59" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G59" s="3">
         <v>45311.61930555556</v>
@@ -4871,7 +4874,7 @@
         <v>45316.49861111111</v>
       </c>
       <c r="I59" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4891,7 +4894,7 @@
         <v>620</v>
       </c>
       <c r="F60" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G60" s="3">
         <v>45313.76346064815</v>
@@ -4900,7 +4903,7 @@
         <v>45316.49800925926</v>
       </c>
       <c r="I60" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4920,7 +4923,7 @@
         <v>621</v>
       </c>
       <c r="F61" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G61" s="3">
         <v>45278.11224537037</v>
@@ -4929,7 +4932,7 @@
         <v>45302.49298611111</v>
       </c>
       <c r="I61" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4949,7 +4952,7 @@
         <v>610</v>
       </c>
       <c r="F62" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G62" s="3">
         <v>45278.21631944444</v>
@@ -4958,7 +4961,7 @@
         <v>45316.50450231481</v>
       </c>
       <c r="I62" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4978,7 +4981,7 @@
         <v>604</v>
       </c>
       <c r="F63" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G63" s="3">
         <v>45163.2121412037</v>
@@ -4987,7 +4990,7 @@
         <v>45163.2121412037</v>
       </c>
       <c r="I63" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -5007,7 +5010,7 @@
         <v>606</v>
       </c>
       <c r="F64" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G64" s="3">
         <v>45316.49957175926</v>
@@ -5016,7 +5019,7 @@
         <v>45316.50452546297</v>
       </c>
       <c r="I64" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -5036,7 +5039,7 @@
         <v>622</v>
       </c>
       <c r="F65" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G65" s="3">
         <v>45297.49180555555</v>
@@ -5045,7 +5048,7 @@
         <v>45316.50127314815</v>
       </c>
       <c r="I65" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -5065,7 +5068,7 @@
         <v>623</v>
       </c>
       <c r="F66" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G66" s="3">
         <v>45297.09299768518</v>
@@ -5074,7 +5077,7 @@
         <v>45316.5039699074</v>
       </c>
       <c r="I66" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -5094,7 +5097,7 @@
         <v>624</v>
       </c>
       <c r="F67" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G67" s="3">
         <v>45316.50059027778</v>
@@ -5103,7 +5106,7 @@
         <v>45316.50255787037</v>
       </c>
       <c r="I67" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -5123,7 +5126,7 @@
         <v>625</v>
       </c>
       <c r="F68" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G68" s="3">
         <v>45313.63670138889</v>
@@ -5132,7 +5135,7 @@
         <v>45315.90416666667</v>
       </c>
       <c r="I68" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -5152,7 +5155,7 @@
         <v>595</v>
       </c>
       <c r="F69" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G69" s="3">
         <v>45304.51188657407</v>
@@ -5161,7 +5164,7 @@
         <v>45315.56863425926</v>
       </c>
       <c r="I69" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -5181,7 +5184,7 @@
         <v>626</v>
       </c>
       <c r="F70" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G70" s="3">
         <v>45291.49329861111</v>
@@ -5190,7 +5193,7 @@
         <v>45312.93239583333</v>
       </c>
       <c r="I70" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -5210,7 +5213,7 @@
         <v>627</v>
       </c>
       <c r="F71" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G71" s="3">
         <v>45300.57674768518</v>
@@ -5219,7 +5222,7 @@
         <v>45315.52626157407</v>
       </c>
       <c r="I71" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -5239,7 +5242,7 @@
         <v>628</v>
       </c>
       <c r="F72" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G72" s="3">
         <v>45310.40046296296</v>
@@ -5248,7 +5251,7 @@
         <v>45312.49293981482</v>
       </c>
       <c r="I72" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5268,7 +5271,7 @@
         <v>628</v>
       </c>
       <c r="F73" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G73" s="3">
         <v>45291.49876157408</v>
@@ -5277,7 +5280,7 @@
         <v>45314.49362268519</v>
       </c>
       <c r="I73" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5297,7 +5300,7 @@
         <v>629</v>
       </c>
       <c r="F74" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G74" s="3">
         <v>45292.49576388889</v>
@@ -5306,7 +5309,7 @@
         <v>45314.64596064815</v>
       </c>
       <c r="I74" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5326,13 +5329,13 @@
         <v>604</v>
       </c>
       <c r="F75" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H75" s="3">
         <v>45047.30018518519</v>
       </c>
       <c r="I75" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -5352,7 +5355,7 @@
         <v>630</v>
       </c>
       <c r="F76" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G76" s="3">
         <v>45291.49430555556</v>
@@ -5361,7 +5364,7 @@
         <v>45316.16467592592</v>
       </c>
       <c r="I76" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5381,7 +5384,7 @@
         <v>599</v>
       </c>
       <c r="F77" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G77" s="3">
         <v>45283.62505787037</v>
@@ -5390,7 +5393,7 @@
         <v>45309.04886574074</v>
       </c>
       <c r="I77" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5410,7 +5413,7 @@
         <v>620</v>
       </c>
       <c r="F78" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G78" s="3">
         <v>45262.59487268519</v>
@@ -5419,7 +5422,7 @@
         <v>45309.01453703704</v>
       </c>
       <c r="I78" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -5439,7 +5442,7 @@
         <v>631</v>
       </c>
       <c r="F79" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G79" s="3">
         <v>45312.49354166666</v>
@@ -5448,7 +5451,7 @@
         <v>45316.164375</v>
       </c>
       <c r="I79" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -5468,7 +5471,7 @@
         <v>590</v>
       </c>
       <c r="F80" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G80" s="3">
         <v>45312.7619675926</v>
@@ -5477,7 +5480,7 @@
         <v>45315.65320601852</v>
       </c>
       <c r="I80" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5497,7 +5500,7 @@
         <v>608</v>
       </c>
       <c r="F81" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G81" s="3">
         <v>45310.90116898148</v>
@@ -5506,7 +5509,7 @@
         <v>45316.2090625</v>
       </c>
       <c r="I81" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5526,7 +5529,7 @@
         <v>632</v>
       </c>
       <c r="F82" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G82" s="3">
         <v>45315.1578125</v>
@@ -5535,7 +5538,7 @@
         <v>45316.16471064815</v>
       </c>
       <c r="I82" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -5555,7 +5558,7 @@
         <v>633</v>
       </c>
       <c r="F83" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G83" s="3">
         <v>45287.44400462963</v>
@@ -5564,7 +5567,7 @@
         <v>45314.49243055555</v>
       </c>
       <c r="I83" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -5584,7 +5587,7 @@
         <v>594</v>
       </c>
       <c r="F84" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G84" s="3">
         <v>45309.58261574074</v>
@@ -5593,7 +5596,7 @@
         <v>45314.42337962963</v>
       </c>
       <c r="I84" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -5613,7 +5616,7 @@
         <v>621</v>
       </c>
       <c r="F85" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G85" s="3">
         <v>45280.04030092592</v>
@@ -5622,7 +5625,7 @@
         <v>45309.01909722222</v>
       </c>
       <c r="I85" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -5642,7 +5645,7 @@
         <v>634</v>
       </c>
       <c r="F86" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G86" s="3">
         <v>45302.49703703704</v>
@@ -5651,7 +5654,7 @@
         <v>45316.20864583334</v>
       </c>
       <c r="I86" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -5668,10 +5671,10 @@
         <v>379</v>
       </c>
       <c r="E87" t="s">
-        <v>589</v>
+        <v>635</v>
       </c>
       <c r="F87" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G87" s="3">
         <v>45313.29277777778</v>
@@ -5680,7 +5683,7 @@
         <v>45315.23820601852</v>
       </c>
       <c r="I87" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5697,10 +5700,10 @@
         <v>380</v>
       </c>
       <c r="E88" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F88" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G88" s="3">
         <v>45286.50180555556</v>
@@ -5709,7 +5712,7 @@
         <v>45312.67471064815</v>
       </c>
       <c r="I88" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5726,10 +5729,10 @@
         <v>381</v>
       </c>
       <c r="E89" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F89" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G89" s="3">
         <v>45311.42429398148</v>
@@ -5738,7 +5741,7 @@
         <v>45314.89614583334</v>
       </c>
       <c r="I89" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -5755,10 +5758,10 @@
         <v>382</v>
       </c>
       <c r="E90" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F90" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G90" s="3">
         <v>45306.6199537037</v>
@@ -5767,7 +5770,7 @@
         <v>45314.49379629629</v>
       </c>
       <c r="I90" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -5787,7 +5790,7 @@
         <v>594</v>
       </c>
       <c r="F91" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G91" s="3">
         <v>45315.42351851852</v>
@@ -5796,7 +5799,7 @@
         <v>45315.42354166666</v>
       </c>
       <c r="I91" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5816,7 +5819,7 @@
         <v>603</v>
       </c>
       <c r="F92" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G92" s="3">
         <v>45287.95120370371</v>
@@ -5825,7 +5828,7 @@
         <v>45315.61121527778</v>
       </c>
       <c r="I92" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -5842,10 +5845,10 @@
         <v>385</v>
       </c>
       <c r="E93" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F93" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G93" s="3">
         <v>45312.49561342593</v>
@@ -5854,7 +5857,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I93" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5874,7 +5877,7 @@
         <v>595</v>
       </c>
       <c r="F94" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G94" s="3">
         <v>45291.62100694444</v>
@@ -5883,7 +5886,7 @@
         <v>45314.49383101852</v>
       </c>
       <c r="I94" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5900,10 +5903,10 @@
         <v>387</v>
       </c>
       <c r="E95" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F95" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G95" s="3">
         <v>44926.35877314815</v>
@@ -5912,7 +5915,7 @@
         <v>44926.35877314815</v>
       </c>
       <c r="I95" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5932,7 +5935,7 @@
         <v>595</v>
       </c>
       <c r="F96" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G96" s="3">
         <v>45297.49363425926</v>
@@ -5941,7 +5944,7 @@
         <v>45311.89606481481</v>
       </c>
       <c r="I96" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5961,7 +5964,7 @@
         <v>614</v>
       </c>
       <c r="F97" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G97" s="3">
         <v>45314.49303240741</v>
@@ -5970,7 +5973,7 @@
         <v>45315.65373842593</v>
       </c>
       <c r="I97" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5990,7 +5993,7 @@
         <v>604</v>
       </c>
       <c r="F98" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G98" s="3">
         <v>45313.05805555556</v>
@@ -5999,7 +6002,7 @@
         <v>45313.05806712963</v>
       </c>
       <c r="I98" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -6019,7 +6022,7 @@
         <v>620</v>
       </c>
       <c r="F99" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G99" s="3">
         <v>45307.38726851852</v>
@@ -6028,7 +6031,7 @@
         <v>45314.85255787037</v>
       </c>
       <c r="I99" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -6045,10 +6048,10 @@
         <v>392</v>
       </c>
       <c r="E100" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F100" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G100" s="3">
         <v>45293.03614583334</v>
@@ -6057,7 +6060,7 @@
         <v>45293.0361574074</v>
       </c>
       <c r="I100" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6074,10 +6077,10 @@
         <v>393</v>
       </c>
       <c r="E101" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F101" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G101" s="3">
         <v>45314.50199074074</v>
@@ -6086,7 +6089,7 @@
         <v>45315.65385416667</v>
       </c>
       <c r="I101" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -6103,10 +6106,10 @@
         <v>394</v>
       </c>
       <c r="E102" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F102" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G102" s="3">
         <v>45307.37951388889</v>
@@ -6115,7 +6118,7 @@
         <v>45315.36158564815</v>
       </c>
       <c r="I102" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -6135,7 +6138,7 @@
         <v>604</v>
       </c>
       <c r="F103" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G103" s="3">
         <v>45307.00873842592</v>
@@ -6144,7 +6147,7 @@
         <v>45307.00875</v>
       </c>
       <c r="I103" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -6161,10 +6164,10 @@
         <v>396</v>
       </c>
       <c r="E104" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F104" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G104" s="3">
         <v>45315.42385416666</v>
@@ -6173,7 +6176,7 @@
         <v>45315.42386574074</v>
       </c>
       <c r="I104" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -6190,10 +6193,10 @@
         <v>397</v>
       </c>
       <c r="E105" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F105" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G105" s="3">
         <v>45291.49836805555</v>
@@ -6202,7 +6205,7 @@
         <v>45315.65422453704</v>
       </c>
       <c r="I105" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -6219,10 +6222,10 @@
         <v>398</v>
       </c>
       <c r="E106" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F106" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G106" s="3">
         <v>45280.57280092593</v>
@@ -6231,7 +6234,7 @@
         <v>45309.02465277778</v>
       </c>
       <c r="I106" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -6248,10 +6251,10 @@
         <v>399</v>
       </c>
       <c r="E107" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F107" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G107" s="3">
         <v>45302.49490740741</v>
@@ -6260,7 +6263,7 @@
         <v>45312.88666666667</v>
       </c>
       <c r="I107" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -6277,10 +6280,10 @@
         <v>400</v>
       </c>
       <c r="E108" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F108" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G108" s="3">
         <v>45288.28815972222</v>
@@ -6289,7 +6292,7 @@
         <v>45315.60980324074</v>
       </c>
       <c r="I108" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -6306,10 +6309,10 @@
         <v>401</v>
       </c>
       <c r="E109" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F109" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G109" s="3">
         <v>45295.49231481482</v>
@@ -6318,7 +6321,7 @@
         <v>45315.61019675926</v>
       </c>
       <c r="I109" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -6335,10 +6338,10 @@
         <v>402</v>
       </c>
       <c r="E110" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F110" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G110" s="3">
         <v>45312.76140046296</v>
@@ -6347,7 +6350,7 @@
         <v>45314.69101851852</v>
       </c>
       <c r="I110" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -6367,7 +6370,7 @@
         <v>601</v>
       </c>
       <c r="F111" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G111" s="3">
         <v>45314.49325231482</v>
@@ -6376,7 +6379,7 @@
         <v>45315.61035879629</v>
       </c>
       <c r="I111" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -6393,10 +6396,10 @@
         <v>404</v>
       </c>
       <c r="E112" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F112" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G112" s="3">
         <v>45313.42341435186</v>
@@ -6405,7 +6408,7 @@
         <v>45314.19578703704</v>
       </c>
       <c r="I112" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6425,7 +6428,7 @@
         <v>603</v>
       </c>
       <c r="F113" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G113" s="3">
         <v>45292.49325231482</v>
@@ -6434,7 +6437,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I113" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -6451,10 +6454,10 @@
         <v>406</v>
       </c>
       <c r="E114" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F114" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G114" s="3">
         <v>45313.0588425926</v>
@@ -6463,7 +6466,7 @@
         <v>45314.42222222222</v>
       </c>
       <c r="I114" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -6480,10 +6483,10 @@
         <v>407</v>
       </c>
       <c r="E115" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F115" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G115" s="3">
         <v>45307.5822337963</v>
@@ -6492,7 +6495,7 @@
         <v>45314.77590277778</v>
       </c>
       <c r="I115" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -6509,10 +6512,10 @@
         <v>408</v>
       </c>
       <c r="E116" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F116" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G116" s="3">
         <v>45298.49490740741</v>
@@ -6521,7 +6524,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I116" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -6538,10 +6541,10 @@
         <v>409</v>
       </c>
       <c r="E117" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F117" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G117" s="3">
         <v>45300.43424768518</v>
@@ -6550,7 +6553,7 @@
         <v>45314.49525462963</v>
       </c>
       <c r="I117" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -6567,10 +6570,10 @@
         <v>410</v>
       </c>
       <c r="E118" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F118" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G118" s="3">
         <v>45287.49133101852</v>
@@ -6579,7 +6582,7 @@
         <v>45315.68306712963</v>
       </c>
       <c r="I118" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -6596,10 +6599,10 @@
         <v>411</v>
       </c>
       <c r="E119" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F119" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G119" s="3">
         <v>45315.24193287037</v>
@@ -6608,7 +6611,7 @@
         <v>45315.65413194444</v>
       </c>
       <c r="I119" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -6628,7 +6631,7 @@
         <v>603</v>
       </c>
       <c r="F120" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G120" s="3">
         <v>45296.62521990741</v>
@@ -6637,7 +6640,7 @@
         <v>45315.32032407408</v>
       </c>
       <c r="I120" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -6654,10 +6657,10 @@
         <v>413</v>
       </c>
       <c r="E121" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F121" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G121" s="3">
         <v>45293.4970949074</v>
@@ -6666,7 +6669,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I121" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -6686,7 +6689,7 @@
         <v>621</v>
       </c>
       <c r="F122" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G122" s="3">
         <v>45282.72908564815</v>
@@ -6695,7 +6698,7 @@
         <v>45282.72909722223</v>
       </c>
       <c r="I122" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -6712,10 +6715,10 @@
         <v>415</v>
       </c>
       <c r="E123" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F123" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G123" s="3">
         <v>45314.49591435185</v>
@@ -6724,7 +6727,7 @@
         <v>45315.69609953704</v>
       </c>
       <c r="I123" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -6741,10 +6744,10 @@
         <v>416</v>
       </c>
       <c r="E124" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F124" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G124" s="3">
         <v>45300.97112268519</v>
@@ -6753,7 +6756,7 @@
         <v>45315.69616898148</v>
       </c>
       <c r="I124" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -6770,10 +6773,10 @@
         <v>417</v>
       </c>
       <c r="E125" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F125" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G125" s="3">
         <v>45273.65564814815</v>
@@ -6782,7 +6785,7 @@
         <v>45303.42461805556</v>
       </c>
       <c r="I125" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -6802,7 +6805,7 @@
         <v>590</v>
       </c>
       <c r="F126" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G126" s="3">
         <v>45298.21359953703</v>
@@ -6811,7 +6814,7 @@
         <v>45314.49523148148</v>
       </c>
       <c r="I126" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -6828,10 +6831,10 @@
         <v>419</v>
       </c>
       <c r="E127" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F127" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G127" s="3">
         <v>45308.42383101852</v>
@@ -6840,7 +6843,7 @@
         <v>45314.49195601852</v>
       </c>
       <c r="I127" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -6857,10 +6860,10 @@
         <v>420</v>
       </c>
       <c r="E128" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F128" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G128" s="3">
         <v>45294.41019675926</v>
@@ -6869,7 +6872,7 @@
         <v>45315.69918981481</v>
       </c>
       <c r="I128" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -6889,7 +6892,7 @@
         <v>598</v>
       </c>
       <c r="F129" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G129" s="3">
         <v>45310.61224537037</v>
@@ -6898,7 +6901,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I129" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -6918,7 +6921,7 @@
         <v>630</v>
       </c>
       <c r="F130" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G130" s="3">
         <v>45304.64673611111</v>
@@ -6927,7 +6930,7 @@
         <v>45315.6959375</v>
       </c>
       <c r="I130" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -6947,7 +6950,7 @@
         <v>623</v>
       </c>
       <c r="F131" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G131" s="3">
         <v>45295.49403935186</v>
@@ -6956,7 +6959,7 @@
         <v>45315.69605324074</v>
       </c>
       <c r="I131" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -6973,10 +6976,10 @@
         <v>424</v>
       </c>
       <c r="E132" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F132" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G132" s="3">
         <v>45298.06329861111</v>
@@ -6985,7 +6988,7 @@
         <v>45314.49458333333</v>
       </c>
       <c r="I132" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -7002,10 +7005,10 @@
         <v>425</v>
       </c>
       <c r="E133" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F133" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G133" s="3">
         <v>45297.49041666667</v>
@@ -7014,7 +7017,7 @@
         <v>45315.70159722222</v>
       </c>
       <c r="I133" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -7031,10 +7034,10 @@
         <v>426</v>
       </c>
       <c r="E134" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F134" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G134" s="3">
         <v>45296.21274305556</v>
@@ -7043,7 +7046,7 @@
         <v>45309.05621527778</v>
       </c>
       <c r="I134" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -7060,10 +7063,10 @@
         <v>427</v>
       </c>
       <c r="E135" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F135" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G135" s="3">
         <v>45307.08791666666</v>
@@ -7072,7 +7075,7 @@
         <v>45315.65327546297</v>
       </c>
       <c r="I135" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -7092,7 +7095,7 @@
         <v>632</v>
       </c>
       <c r="F136" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G136" s="3">
         <v>45314.49842592593</v>
@@ -7101,7 +7104,7 @@
         <v>45314.67444444444</v>
       </c>
       <c r="I136" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -7121,7 +7124,7 @@
         <v>599</v>
       </c>
       <c r="F137" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G137" s="3">
         <v>45310.65872685185</v>
@@ -7130,7 +7133,7 @@
         <v>45314.49422453704</v>
       </c>
       <c r="I137" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -7150,7 +7153,7 @@
         <v>599</v>
       </c>
       <c r="F138" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G138" s="3">
         <v>45312.13112268518</v>
@@ -7159,7 +7162,7 @@
         <v>45315.6537962963</v>
       </c>
       <c r="I138" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -7176,10 +7179,10 @@
         <v>431</v>
       </c>
       <c r="E139" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F139" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G139" s="3">
         <v>45270.59310185185</v>
@@ -7188,7 +7191,7 @@
         <v>45309.07831018518</v>
       </c>
       <c r="I139" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -7205,10 +7208,10 @@
         <v>432</v>
       </c>
       <c r="E140" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F140" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G140" s="3">
         <v>45278.77987268518</v>
@@ -7217,7 +7220,7 @@
         <v>45314.6009837963</v>
       </c>
       <c r="I140" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -7237,7 +7240,7 @@
         <v>590</v>
       </c>
       <c r="F141" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G141" s="3">
         <v>45314.49572916667</v>
@@ -7246,7 +7249,7 @@
         <v>45314.67103009259</v>
       </c>
       <c r="I141" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -7266,13 +7269,13 @@
         <v>604</v>
       </c>
       <c r="F142" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H142" s="3">
         <v>43999.85027777778</v>
       </c>
       <c r="I142" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -7289,10 +7292,10 @@
         <v>435</v>
       </c>
       <c r="E143" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F143" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G143" s="3">
         <v>45309.54311342593</v>
@@ -7301,7 +7304,7 @@
         <v>45316.16458333333</v>
       </c>
       <c r="I143" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -7321,7 +7324,7 @@
         <v>604</v>
       </c>
       <c r="F144" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G144" s="3">
         <v>45306.51280092593</v>
@@ -7330,7 +7333,7 @@
         <v>45306.51280092593</v>
       </c>
       <c r="I144" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -7350,7 +7353,7 @@
         <v>624</v>
       </c>
       <c r="F145" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G145" s="3">
         <v>45314.49275462963</v>
@@ -7359,7 +7362,7 @@
         <v>45315.73717592593</v>
       </c>
       <c r="I145" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -7379,7 +7382,7 @@
         <v>609</v>
       </c>
       <c r="F146" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G146" s="3">
         <v>45308.77947916667</v>
@@ -7388,7 +7391,7 @@
         <v>45309.07209490741</v>
       </c>
       <c r="I146" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -7408,7 +7411,7 @@
         <v>625</v>
       </c>
       <c r="F147" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G147" s="3">
         <v>45307.50165509259</v>
@@ -7417,7 +7420,7 @@
         <v>45312.88640046296</v>
       </c>
       <c r="I147" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -7437,7 +7440,7 @@
         <v>624</v>
       </c>
       <c r="F148" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G148" s="3">
         <v>45294.12988425926</v>
@@ -7446,7 +7449,7 @@
         <v>45314.49341435185</v>
       </c>
       <c r="I148" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -7463,10 +7466,10 @@
         <v>441</v>
       </c>
       <c r="E149" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F149" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G149" s="3">
         <v>45296.33108796296</v>
@@ -7475,7 +7478,7 @@
         <v>45314.51508101852</v>
       </c>
       <c r="I149" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -7492,10 +7495,10 @@
         <v>442</v>
       </c>
       <c r="E150" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F150" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G150" s="3">
         <v>45295.49210648148</v>
@@ -7504,7 +7507,7 @@
         <v>45315.69587962963</v>
       </c>
       <c r="I150" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -7521,10 +7524,10 @@
         <v>443</v>
       </c>
       <c r="E151" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F151" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G151" s="3">
         <v>45314.49277777778</v>
@@ -7533,7 +7536,7 @@
         <v>45315.73741898148</v>
       </c>
       <c r="I151" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -7550,10 +7553,10 @@
         <v>444</v>
       </c>
       <c r="E152" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F152" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G152" s="3">
         <v>45308.74111111111</v>
@@ -7562,7 +7565,7 @@
         <v>45310.69127314815</v>
       </c>
       <c r="I152" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -7579,10 +7582,10 @@
         <v>445</v>
       </c>
       <c r="E153" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F153" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G153" s="3">
         <v>45311.61907407407</v>
@@ -7591,7 +7594,7 @@
         <v>45315.73760416666</v>
       </c>
       <c r="I153" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -7611,7 +7614,7 @@
         <v>594</v>
       </c>
       <c r="F154" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G154" s="3">
         <v>45313.06128472222</v>
@@ -7620,7 +7623,7 @@
         <v>45314.4228125</v>
       </c>
       <c r="I154" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -7637,10 +7640,10 @@
         <v>447</v>
       </c>
       <c r="E155" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F155" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G155" s="3">
         <v>45291.49923611111</v>
@@ -7649,7 +7652,7 @@
         <v>45312.49590277778</v>
       </c>
       <c r="I155" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -7666,10 +7669,10 @@
         <v>448</v>
       </c>
       <c r="E156" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F156" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G156" s="3">
         <v>45302.49706018518</v>
@@ -7678,7 +7681,7 @@
         <v>45315.07060185185</v>
       </c>
       <c r="I156" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -7698,7 +7701,7 @@
         <v>601</v>
       </c>
       <c r="F157" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G157" s="3">
         <v>45286.49168981481</v>
@@ -7707,7 +7710,7 @@
         <v>45315.73706018519</v>
       </c>
       <c r="I157" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -7724,10 +7727,10 @@
         <v>450</v>
       </c>
       <c r="E158" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F158" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G158" s="3">
         <v>45306.62078703703</v>
@@ -7736,7 +7739,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I158" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -7753,10 +7756,10 @@
         <v>451</v>
       </c>
       <c r="E159" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F159" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G159" s="3">
         <v>45297.49820601852</v>
@@ -7765,7 +7768,7 @@
         <v>45315.73712962963</v>
       </c>
       <c r="I159" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -7782,10 +7785,10 @@
         <v>452</v>
       </c>
       <c r="E160" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F160" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G160" s="3">
         <v>45314.49293981482</v>
@@ -7794,7 +7797,7 @@
         <v>45315.73753472222</v>
       </c>
       <c r="I160" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -7811,10 +7814,10 @@
         <v>453</v>
       </c>
       <c r="E161" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F161" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G161" s="3">
         <v>45302.49929398148</v>
@@ -7823,7 +7826,7 @@
         <v>45314.49518518519</v>
       </c>
       <c r="I161" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -7843,13 +7846,13 @@
         <v>604</v>
       </c>
       <c r="F162" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H162" s="3">
         <v>45307.36160879629</v>
       </c>
       <c r="I162" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -7866,10 +7869,10 @@
         <v>455</v>
       </c>
       <c r="E163" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F163" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G163" s="3">
         <v>45314.4933912037</v>
@@ -7878,7 +7881,7 @@
         <v>45316.12230324074</v>
       </c>
       <c r="I163" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -7898,7 +7901,7 @@
         <v>611</v>
       </c>
       <c r="F164" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G164" s="3">
         <v>45307.36724537037</v>
@@ -7907,7 +7910,7 @@
         <v>45316.16459490741</v>
       </c>
       <c r="I164" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -7924,10 +7927,10 @@
         <v>457</v>
       </c>
       <c r="E165" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F165" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G165" s="3">
         <v>45297.31922453704</v>
@@ -7936,7 +7939,7 @@
         <v>45314.49394675926</v>
       </c>
       <c r="I165" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -7953,10 +7956,10 @@
         <v>458</v>
       </c>
       <c r="E166" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F166" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G166" s="3">
         <v>45315.42201388889</v>
@@ -7965,7 +7968,7 @@
         <v>45315.7841550926</v>
       </c>
       <c r="I166" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -7985,7 +7988,7 @@
         <v>594</v>
       </c>
       <c r="F167" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G167" s="3">
         <v>45314.42302083333</v>
@@ -7994,7 +7997,7 @@
         <v>45314.42302083333</v>
       </c>
       <c r="I167" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -8011,10 +8014,10 @@
         <v>460</v>
       </c>
       <c r="E168" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F168" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G168" s="3">
         <v>45314.49530092593</v>
@@ -8023,7 +8026,7 @@
         <v>45315.78174768519</v>
       </c>
       <c r="I168" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -8040,10 +8043,10 @@
         <v>461</v>
       </c>
       <c r="E169" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F169" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G169" s="3">
         <v>45312.49302083333</v>
@@ -8052,7 +8055,7 @@
         <v>45314.49451388889</v>
       </c>
       <c r="I169" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -8069,10 +8072,10 @@
         <v>462</v>
       </c>
       <c r="E170" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F170" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G170" s="3">
         <v>45302.49891203704</v>
@@ -8081,7 +8084,7 @@
         <v>45315.78163194445</v>
       </c>
       <c r="I170" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -8098,10 +8101,10 @@
         <v>463</v>
       </c>
       <c r="E171" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F171" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G171" s="3">
         <v>45314.49350694445</v>
@@ -8110,7 +8113,7 @@
         <v>45315.78178240741</v>
       </c>
       <c r="I171" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -8130,7 +8133,7 @@
         <v>604</v>
       </c>
       <c r="F172" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G172" s="3">
         <v>44049.84335648148</v>
@@ -8139,7 +8142,7 @@
         <v>44740.15496527778</v>
       </c>
       <c r="I172" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -8159,7 +8162,7 @@
         <v>595</v>
       </c>
       <c r="F173" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G173" s="3">
         <v>45307.49097222222</v>
@@ -8168,7 +8171,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I173" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -8188,7 +8191,7 @@
         <v>594</v>
       </c>
       <c r="F174" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G174" s="3">
         <v>45312.37847222222</v>
@@ -8197,7 +8200,7 @@
         <v>45314.42348379629</v>
       </c>
       <c r="I174" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -8217,7 +8220,7 @@
         <v>608</v>
       </c>
       <c r="F175" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G175" s="3">
         <v>45312.25097222222</v>
@@ -8226,7 +8229,7 @@
         <v>45315.74335648148</v>
       </c>
       <c r="I175" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -8243,10 +8246,10 @@
         <v>468</v>
       </c>
       <c r="E176" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F176" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G176" s="3">
         <v>45310.90118055556</v>
@@ -8255,7 +8258,7 @@
         <v>45314.49304398148</v>
       </c>
       <c r="I176" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -8275,7 +8278,7 @@
         <v>602</v>
       </c>
       <c r="F177" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G177" s="3">
         <v>45296.62515046296</v>
@@ -8284,7 +8287,7 @@
         <v>45314.49361111111</v>
       </c>
       <c r="I177" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -8301,10 +8304,10 @@
         <v>470</v>
       </c>
       <c r="E178" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F178" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G178" s="3">
         <v>45311.61869212963</v>
@@ -8313,7 +8316,7 @@
         <v>45315.73645833333</v>
       </c>
       <c r="I178" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -8330,10 +8333,10 @@
         <v>471</v>
       </c>
       <c r="E179" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F179" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G179" s="3">
         <v>45287.159375</v>
@@ -8342,7 +8345,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I179" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -8359,10 +8362,10 @@
         <v>472</v>
       </c>
       <c r="E180" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F180" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G180" s="3">
         <v>45311.68436342593</v>
@@ -8371,7 +8374,7 @@
         <v>45315.75385416667</v>
       </c>
       <c r="I180" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -8388,10 +8391,10 @@
         <v>473</v>
       </c>
       <c r="E181" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F181" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G181" s="3">
         <v>45291.49039351852</v>
@@ -8400,7 +8403,7 @@
         <v>45315.78164351852</v>
       </c>
       <c r="I181" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -8417,10 +8420,10 @@
         <v>474</v>
       </c>
       <c r="E182" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F182" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G182" s="3">
         <v>45308.74193287037</v>
@@ -8429,7 +8432,7 @@
         <v>45315.7467824074</v>
       </c>
       <c r="I182" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -8446,10 +8449,10 @@
         <v>475</v>
       </c>
       <c r="E183" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F183" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G183" s="3">
         <v>45290.68399305556</v>
@@ -8458,7 +8461,7 @@
         <v>45315.76791666666</v>
       </c>
       <c r="I183" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -8475,10 +8478,10 @@
         <v>476</v>
       </c>
       <c r="E184" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F184" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G184" s="3">
         <v>45294.52609953703</v>
@@ -8487,7 +8490,7 @@
         <v>45315.75109953704</v>
       </c>
       <c r="I184" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -8504,10 +8507,10 @@
         <v>477</v>
       </c>
       <c r="E185" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F185" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G185" s="3">
         <v>45305.28581018518</v>
@@ -8516,7 +8519,7 @@
         <v>45315.73657407407</v>
       </c>
       <c r="I185" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -8533,10 +8536,10 @@
         <v>478</v>
       </c>
       <c r="E186" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F186" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G186" s="3">
         <v>45303.07900462963</v>
@@ -8545,7 +8548,7 @@
         <v>45315.78171296296</v>
       </c>
       <c r="I186" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -8562,10 +8565,10 @@
         <v>479</v>
       </c>
       <c r="E187" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F187" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G187" s="3">
         <v>45294.00594907408</v>
@@ -8574,7 +8577,7 @@
         <v>45315.60971064815</v>
       </c>
       <c r="I187" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -8591,10 +8594,10 @@
         <v>480</v>
       </c>
       <c r="E188" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F188" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G188" s="3">
         <v>45291.6212037037</v>
@@ -8603,7 +8606,7 @@
         <v>45315.76299768518</v>
       </c>
       <c r="I188" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -8620,10 +8623,10 @@
         <v>481</v>
       </c>
       <c r="E189" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F189" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G189" s="3">
         <v>45291.62125</v>
@@ -8632,7 +8635,7 @@
         <v>45315.73672453704</v>
       </c>
       <c r="I189" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -8649,10 +8652,10 @@
         <v>482</v>
       </c>
       <c r="E190" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F190" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G190" s="3">
         <v>45291.49121527778</v>
@@ -8661,7 +8664,7 @@
         <v>45315.73679398148</v>
       </c>
       <c r="I190" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -8681,7 +8684,7 @@
         <v>595</v>
       </c>
       <c r="F191" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G191" s="3">
         <v>45305.45537037037</v>
@@ -8690,7 +8693,7 @@
         <v>45315.78153935185</v>
       </c>
       <c r="I191" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -8707,10 +8710,10 @@
         <v>484</v>
       </c>
       <c r="E192" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F192" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G192" s="3">
         <v>45312.66900462963</v>
@@ -8719,7 +8722,7 @@
         <v>45315.78197916667</v>
       </c>
       <c r="I192" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -8736,10 +8739,10 @@
         <v>485</v>
       </c>
       <c r="E193" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F193" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G193" s="3">
         <v>45283.15128472223</v>
@@ -8748,7 +8751,7 @@
         <v>45315.73756944444</v>
       </c>
       <c r="I193" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -8765,10 +8768,10 @@
         <v>486</v>
       </c>
       <c r="E194" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F194" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G194" s="3">
         <v>45290.15359953704</v>
@@ -8777,7 +8780,7 @@
         <v>45315.81050925926</v>
       </c>
       <c r="I194" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -8794,10 +8797,10 @@
         <v>487</v>
       </c>
       <c r="E195" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F195" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G195" s="3">
         <v>45288.77761574074</v>
@@ -8806,7 +8809,7 @@
         <v>45315.8109837963</v>
       </c>
       <c r="I195" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -8823,10 +8826,10 @@
         <v>488</v>
       </c>
       <c r="E196" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F196" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G196" s="3">
         <v>45283.5427199074</v>
@@ -8835,7 +8838,7 @@
         <v>45315.81034722222</v>
       </c>
       <c r="I196" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -8852,10 +8855,10 @@
         <v>489</v>
       </c>
       <c r="E197" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F197" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G197" s="3">
         <v>45290.06099537037</v>
@@ -8864,7 +8867,7 @@
         <v>45315.78223379629</v>
       </c>
       <c r="I197" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -8881,10 +8884,10 @@
         <v>490</v>
       </c>
       <c r="E198" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F198" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G198" s="3">
         <v>45285.78746527778</v>
@@ -8893,7 +8896,7 @@
         <v>45315.81327546296</v>
       </c>
       <c r="I198" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -8910,10 +8913,10 @@
         <v>491</v>
       </c>
       <c r="E199" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F199" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G199" s="3">
         <v>45300.70331018518</v>
@@ -8922,7 +8925,7 @@
         <v>45315.78243055556</v>
       </c>
       <c r="I199" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -8939,10 +8942,10 @@
         <v>492</v>
       </c>
       <c r="E200" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F200" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G200" s="3">
         <v>45313.4215625</v>
@@ -8951,7 +8954,7 @@
         <v>45314.19313657407</v>
       </c>
       <c r="I200" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -8971,7 +8974,7 @@
         <v>598</v>
       </c>
       <c r="F201" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G201" s="3">
         <v>45313.10177083333</v>
@@ -8980,7 +8983,7 @@
         <v>45315.19548611111</v>
       </c>
       <c r="I201" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -8997,10 +9000,10 @@
         <v>494</v>
       </c>
       <c r="E202" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F202" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G202" s="3">
         <v>45313.56241898148</v>
@@ -9009,7 +9012,7 @@
         <v>45315.73755787037</v>
       </c>
       <c r="I202" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -9026,10 +9029,10 @@
         <v>495</v>
       </c>
       <c r="E203" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F203" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G203" s="3">
         <v>45287.49016203704</v>
@@ -9038,7 +9041,7 @@
         <v>45315.81586805556</v>
       </c>
       <c r="I203" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -9055,10 +9058,10 @@
         <v>496</v>
       </c>
       <c r="E204" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F204" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G204" s="3">
         <v>45294.11623842592</v>
@@ -9067,7 +9070,7 @@
         <v>45315.81109953704</v>
       </c>
       <c r="I204" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -9084,10 +9087,10 @@
         <v>497</v>
       </c>
       <c r="E205" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F205" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G205" s="3">
         <v>45281.61627314815</v>
@@ -9096,7 +9099,7 @@
         <v>45315.73660879629</v>
       </c>
       <c r="I205" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -9116,7 +9119,7 @@
         <v>595</v>
       </c>
       <c r="F206" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G206" s="3">
         <v>45310.31782407407</v>
@@ -9125,7 +9128,7 @@
         <v>45315.82373842593</v>
       </c>
       <c r="I206" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -9142,10 +9145,10 @@
         <v>499</v>
       </c>
       <c r="E207" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F207" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G207" s="3">
         <v>45292.86751157408</v>
@@ -9154,7 +9157,7 @@
         <v>45315.81833333334</v>
       </c>
       <c r="I207" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -9171,10 +9174,10 @@
         <v>500</v>
       </c>
       <c r="E208" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F208" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G208" s="3">
         <v>45297.78877314815</v>
@@ -9183,7 +9186,7 @@
         <v>45315.82362268519</v>
       </c>
       <c r="I208" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -9200,10 +9203,10 @@
         <v>501</v>
       </c>
       <c r="E209" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F209" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G209" s="3">
         <v>45291.49200231482</v>
@@ -9212,7 +9215,7 @@
         <v>45315.81275462963</v>
       </c>
       <c r="I209" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -9229,10 +9232,10 @@
         <v>502</v>
       </c>
       <c r="E210" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F210" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G210" s="3">
         <v>45314.77236111111</v>
@@ -9241,7 +9244,7 @@
         <v>45315.81111111111</v>
       </c>
       <c r="I210" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -9258,10 +9261,10 @@
         <v>503</v>
       </c>
       <c r="E211" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F211" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G211" s="3">
         <v>45306.94767361111</v>
@@ -9270,7 +9273,7 @@
         <v>45315.81850694444</v>
       </c>
       <c r="I211" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -9287,10 +9290,10 @@
         <v>504</v>
       </c>
       <c r="E212" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F212" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G212" s="3">
         <v>45315.48592592592</v>
@@ -9299,7 +9302,7 @@
         <v>45315.82550925926</v>
       </c>
       <c r="I212" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -9316,10 +9319,10 @@
         <v>505</v>
       </c>
       <c r="E213" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F213" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G213" s="3">
         <v>45278.21140046296</v>
@@ -9328,7 +9331,7 @@
         <v>45315.78211805555</v>
       </c>
       <c r="I213" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -9345,10 +9348,10 @@
         <v>506</v>
       </c>
       <c r="E214" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F214" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G214" s="3">
         <v>45296.58950231481</v>
@@ -9357,7 +9360,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I214" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -9374,10 +9377,10 @@
         <v>507</v>
       </c>
       <c r="E215" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F215" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G215" s="3">
         <v>45308.74321759259</v>
@@ -9386,7 +9389,7 @@
         <v>45315.82768518518</v>
       </c>
       <c r="I215" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -9403,10 +9406,10 @@
         <v>508</v>
       </c>
       <c r="E216" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F216" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G216" s="3">
         <v>45291.49114583333</v>
@@ -9415,7 +9418,7 @@
         <v>45315.82378472222</v>
       </c>
       <c r="I216" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -9432,10 +9435,10 @@
         <v>509</v>
       </c>
       <c r="E217" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F217" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G217" s="3">
         <v>45308.16465277778</v>
@@ -9444,7 +9447,7 @@
         <v>45315.82369212963</v>
       </c>
       <c r="I217" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -9461,10 +9464,10 @@
         <v>510</v>
       </c>
       <c r="E218" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F218" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G218" s="3">
         <v>45296.21802083333</v>
@@ -9473,7 +9476,7 @@
         <v>45315.82553240741</v>
       </c>
       <c r="I218" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -9490,10 +9493,10 @@
         <v>511</v>
       </c>
       <c r="E219" t="s">
-        <v>589</v>
+        <v>635</v>
       </c>
       <c r="F219" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G219" s="3">
         <v>45307.36931712963</v>
@@ -9502,7 +9505,7 @@
         <v>45315.78234953704</v>
       </c>
       <c r="I219" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -9522,7 +9525,7 @@
         <v>607</v>
       </c>
       <c r="F220" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G220" s="3">
         <v>45313.02901620371</v>
@@ -9531,7 +9534,7 @@
         <v>45315.78185185185</v>
       </c>
       <c r="I220" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -9548,10 +9551,10 @@
         <v>513</v>
       </c>
       <c r="E221" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F221" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G221" s="3">
         <v>45284.49082175926</v>
@@ -9560,7 +9563,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I221" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -9577,10 +9580,10 @@
         <v>514</v>
       </c>
       <c r="E222" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F222" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G222" s="3">
         <v>45290.06063657408</v>
@@ -9589,7 +9592,7 @@
         <v>45315.81575231482</v>
       </c>
       <c r="I222" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -9606,10 +9609,10 @@
         <v>515</v>
       </c>
       <c r="E223" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F223" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G223" s="3">
         <v>45292.49101851852</v>
@@ -9618,7 +9621,7 @@
         <v>45315.81292824074</v>
       </c>
       <c r="I223" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -9635,10 +9638,10 @@
         <v>516</v>
       </c>
       <c r="E224" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F224" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G224" s="3">
         <v>45291.34520833333</v>
@@ -9647,7 +9650,7 @@
         <v>45315.82354166666</v>
       </c>
       <c r="I224" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -9664,10 +9667,10 @@
         <v>517</v>
       </c>
       <c r="E225" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F225" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G225" s="3">
         <v>45314.42053240741</v>
@@ -9676,7 +9679,7 @@
         <v>45315.81092592593</v>
       </c>
       <c r="I225" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -9693,10 +9696,10 @@
         <v>518</v>
       </c>
       <c r="E226" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F226" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G226" s="3">
         <v>45291.49119212963</v>
@@ -9705,7 +9708,7 @@
         <v>45314.49342592592</v>
       </c>
       <c r="I226" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -9722,10 +9725,10 @@
         <v>519</v>
       </c>
       <c r="E227" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F227" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G227" s="3">
         <v>45306.91820601852</v>
@@ -9734,7 +9737,7 @@
         <v>45315.82215277778</v>
       </c>
       <c r="I227" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -9751,10 +9754,10 @@
         <v>520</v>
       </c>
       <c r="E228" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F228" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G228" s="3">
         <v>45286.62017361111</v>
@@ -9763,7 +9766,7 @@
         <v>45315.78180555555</v>
       </c>
       <c r="I228" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -9780,10 +9783,10 @@
         <v>521</v>
       </c>
       <c r="E229" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F229" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G229" s="3">
         <v>45308.74159722222</v>
@@ -9792,7 +9795,7 @@
         <v>45315.82368055556</v>
       </c>
       <c r="I229" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -9812,7 +9815,7 @@
         <v>602</v>
       </c>
       <c r="F230" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G230" s="3">
         <v>45283.53591435185</v>
@@ -9821,7 +9824,7 @@
         <v>45315.82388888889</v>
       </c>
       <c r="I230" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -9838,10 +9841,10 @@
         <v>523</v>
       </c>
       <c r="E231" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F231" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G231" s="3">
         <v>45279.15613425926</v>
@@ -9850,7 +9853,7 @@
         <v>45310.69137731481</v>
       </c>
       <c r="I231" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -9870,7 +9873,7 @@
         <v>608</v>
       </c>
       <c r="F232" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G232" s="3">
         <v>45302.49265046296</v>
@@ -9879,7 +9882,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I232" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -9896,10 +9899,10 @@
         <v>525</v>
       </c>
       <c r="E233" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F233" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G233" s="3">
         <v>45286.49104166667</v>
@@ -9908,7 +9911,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I233" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -9925,10 +9928,10 @@
         <v>526</v>
       </c>
       <c r="E234" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F234" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G234" s="3">
         <v>45313.42326388889</v>
@@ -9937,7 +9940,7 @@
         <v>45314.18550925926</v>
       </c>
       <c r="I234" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -9957,7 +9960,7 @@
         <v>604</v>
       </c>
       <c r="F235" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G235" s="3">
         <v>44288.33525462963</v>
@@ -9966,7 +9969,7 @@
         <v>44288.33525462963</v>
       </c>
       <c r="I235" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -9986,7 +9989,7 @@
         <v>623</v>
       </c>
       <c r="F236" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G236" s="3">
         <v>45287.22329861111</v>
@@ -9995,7 +9998,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I236" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -10012,10 +10015,10 @@
         <v>529</v>
       </c>
       <c r="E237" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F237" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G237" s="3">
         <v>45311.90133101852</v>
@@ -10024,7 +10027,7 @@
         <v>45315.82358796296</v>
       </c>
       <c r="I237" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -10044,7 +10047,7 @@
         <v>595</v>
       </c>
       <c r="F238" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G238" s="3">
         <v>45298.44405092593</v>
@@ -10053,7 +10056,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I238" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -10073,7 +10076,7 @@
         <v>603</v>
       </c>
       <c r="F239" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G239" s="3">
         <v>45297.01849537037</v>
@@ -10082,7 +10085,7 @@
         <v>45314.90065972223</v>
       </c>
       <c r="I239" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -10099,10 +10102,10 @@
         <v>532</v>
       </c>
       <c r="E240" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F240" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G240" s="3">
         <v>45280.57440972222</v>
@@ -10111,7 +10114,7 @@
         <v>45309.03163194445</v>
       </c>
       <c r="I240" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -10131,7 +10134,7 @@
         <v>592</v>
       </c>
       <c r="F241" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G241" s="3">
         <v>45314.42252314815</v>
@@ -10140,7 +10143,7 @@
         <v>45315.82351851852</v>
       </c>
       <c r="I241" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -10160,7 +10163,7 @@
         <v>608</v>
       </c>
       <c r="F242" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G242" s="3">
         <v>45301.61993055556</v>
@@ -10169,7 +10172,7 @@
         <v>45314.018125</v>
       </c>
       <c r="I242" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -10186,10 +10189,10 @@
         <v>535</v>
       </c>
       <c r="E243" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F243" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G243" s="3">
         <v>45312.49469907407</v>
@@ -10198,7 +10201,7 @@
         <v>45315.78165509259</v>
       </c>
       <c r="I243" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -10218,7 +10221,7 @@
         <v>624</v>
       </c>
       <c r="F244" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G244" s="3">
         <v>45295.49803240741</v>
@@ -10227,7 +10230,7 @@
         <v>45315.8234837963</v>
       </c>
       <c r="I244" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -10244,10 +10247,10 @@
         <v>537</v>
       </c>
       <c r="E245" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F245" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G245" s="3">
         <v>45313.05956018518</v>
@@ -10256,7 +10259,7 @@
         <v>45315.82376157407</v>
       </c>
       <c r="I245" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -10273,10 +10276,10 @@
         <v>538</v>
       </c>
       <c r="E246" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F246" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G246" s="3">
         <v>45298.49199074074</v>
@@ -10285,7 +10288,7 @@
         <v>45315.82392361111</v>
       </c>
       <c r="I246" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -10305,7 +10308,7 @@
         <v>608</v>
       </c>
       <c r="F247" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G247" s="3">
         <v>45286.6203587963</v>
@@ -10314,7 +10317,7 @@
         <v>45315.82366898148</v>
       </c>
       <c r="I247" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -10331,10 +10334,10 @@
         <v>540</v>
       </c>
       <c r="E248" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F248" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G248" s="3">
         <v>45311.61991898148</v>
@@ -10343,7 +10346,7 @@
         <v>45315.02909722222</v>
       </c>
       <c r="I248" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -10360,10 +10363,10 @@
         <v>541</v>
       </c>
       <c r="E249" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F249" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G249" s="3">
         <v>45306.75461805556</v>
@@ -10372,7 +10375,7 @@
         <v>45315.04524305555</v>
       </c>
       <c r="I249" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -10389,10 +10392,10 @@
         <v>542</v>
       </c>
       <c r="E250" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F250" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G250" s="3">
         <v>45292.49578703703</v>
@@ -10401,7 +10404,7 @@
         <v>45315.4852662037</v>
       </c>
       <c r="I250" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -10421,7 +10424,7 @@
         <v>625</v>
       </c>
       <c r="F251" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G251" s="3">
         <v>45308.60100694445</v>
@@ -10430,7 +10433,7 @@
         <v>45314.49393518519</v>
       </c>
       <c r="I251" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -10447,10 +10450,10 @@
         <v>544</v>
       </c>
       <c r="E252" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F252" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G252" s="3">
         <v>45289.35146990741</v>
@@ -10459,7 +10462,7 @@
         <v>45314.49217592592</v>
       </c>
       <c r="I252" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -10476,10 +10479,10 @@
         <v>545</v>
       </c>
       <c r="E253" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F253" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G253" s="3">
         <v>45307.49243055555</v>
@@ -10488,7 +10491,7 @@
         <v>45314.49329861111</v>
       </c>
       <c r="I253" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -10505,10 +10508,10 @@
         <v>546</v>
       </c>
       <c r="E254" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F254" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G254" s="3">
         <v>45313.42297453704</v>
@@ -10517,7 +10520,7 @@
         <v>45313.42299768519</v>
       </c>
       <c r="I254" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -10537,7 +10540,7 @@
         <v>606</v>
       </c>
       <c r="F255" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G255" s="3">
         <v>45291.49054398148</v>
@@ -10546,7 +10549,7 @@
         <v>45314.94496527778</v>
       </c>
       <c r="I255" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -10563,10 +10566,10 @@
         <v>548</v>
       </c>
       <c r="E256" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F256" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G256" s="3">
         <v>45292.15671296296</v>
@@ -10575,7 +10578,7 @@
         <v>45312.75942129629</v>
       </c>
       <c r="I256" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -10592,10 +10595,10 @@
         <v>549</v>
       </c>
       <c r="E257" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F257" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G257" s="3">
         <v>45287.83861111111</v>
@@ -10604,7 +10607,7 @@
         <v>45316.03899305555</v>
       </c>
       <c r="I257" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -10621,10 +10624,10 @@
         <v>550</v>
       </c>
       <c r="E258" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F258" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G258" s="3">
         <v>45293.04358796297</v>
@@ -10633,7 +10636,7 @@
         <v>45315.8656712963</v>
       </c>
       <c r="I258" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -10653,7 +10656,7 @@
         <v>599</v>
       </c>
       <c r="F259" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G259" s="3">
         <v>45307.49564814815</v>
@@ -10662,7 +10665,7 @@
         <v>45315.9937037037</v>
       </c>
       <c r="I259" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -10682,7 +10685,7 @@
         <v>595</v>
       </c>
       <c r="F260" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G260" s="3">
         <v>45314.90094907407</v>
@@ -10691,7 +10694,7 @@
         <v>45315.89604166667</v>
       </c>
       <c r="I260" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -10711,7 +10714,7 @@
         <v>600</v>
       </c>
       <c r="F261" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G261" s="3">
         <v>45294.84780092593</v>
@@ -10720,7 +10723,7 @@
         <v>45316.03907407408</v>
       </c>
       <c r="I261" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -10737,10 +10740,10 @@
         <v>554</v>
       </c>
       <c r="E262" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F262" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G262" s="3">
         <v>45296.61121527778</v>
@@ -10749,7 +10752,7 @@
         <v>45316.03895833333</v>
       </c>
       <c r="I262" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -10769,7 +10772,7 @@
         <v>617</v>
       </c>
       <c r="F263" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G263" s="3">
         <v>45311.62060185185</v>
@@ -10778,7 +10781,7 @@
         <v>45316.03954861111</v>
       </c>
       <c r="I263" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -10798,7 +10801,7 @@
         <v>603</v>
       </c>
       <c r="F264" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G264" s="3">
         <v>45301.61861111111</v>
@@ -10807,7 +10810,7 @@
         <v>45316.08056712963</v>
       </c>
       <c r="I264" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -10827,7 +10830,7 @@
         <v>603</v>
       </c>
       <c r="F265" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G265" s="3">
         <v>45286.49385416666</v>
@@ -10836,7 +10839,7 @@
         <v>45316.03959490741</v>
       </c>
       <c r="I265" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -10853,10 +10856,10 @@
         <v>558</v>
       </c>
       <c r="E266" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F266" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G266" s="3">
         <v>45311.71087962963</v>
@@ -10865,7 +10868,7 @@
         <v>45314.67140046296</v>
       </c>
       <c r="I266" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -10882,10 +10885,10 @@
         <v>559</v>
       </c>
       <c r="E267" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F267" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G267" s="3">
         <v>45288.63045138889</v>
@@ -10894,7 +10897,7 @@
         <v>45316.03887731482</v>
       </c>
       <c r="I267" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -10911,10 +10914,10 @@
         <v>560</v>
       </c>
       <c r="E268" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F268" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G268" s="3">
         <v>45280.82067129629</v>
@@ -10923,7 +10926,7 @@
         <v>45316.03997685185</v>
       </c>
       <c r="I268" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -10940,10 +10943,10 @@
         <v>561</v>
       </c>
       <c r="E269" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F269" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G269" s="3">
         <v>45296.62119212963</v>
@@ -10952,7 +10955,7 @@
         <v>45316.08042824074</v>
       </c>
       <c r="I269" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -10972,7 +10975,7 @@
         <v>595</v>
       </c>
       <c r="F270" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G270" s="3">
         <v>45300.48923611111</v>
@@ -10981,7 +10984,7 @@
         <v>45316.08054398148</v>
       </c>
       <c r="I270" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -10998,10 +11001,10 @@
         <v>563</v>
       </c>
       <c r="E271" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F271" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G271" s="3">
         <v>45314.49359953704</v>
@@ -11010,7 +11013,7 @@
         <v>45314.66849537037</v>
       </c>
       <c r="I271" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -11027,10 +11030,10 @@
         <v>564</v>
       </c>
       <c r="E272" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F272" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G272" s="3">
         <v>45312.50121527778</v>
@@ -11039,7 +11042,7 @@
         <v>45312.67422453704</v>
       </c>
       <c r="I272" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -11056,10 +11059,10 @@
         <v>565</v>
       </c>
       <c r="E273" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F273" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G273" s="3">
         <v>45261.49545138889</v>
@@ -11068,7 +11071,7 @@
         <v>45309.04300925926</v>
       </c>
       <c r="I273" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -11085,10 +11088,10 @@
         <v>566</v>
       </c>
       <c r="E274" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F274" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G274" s="3">
         <v>45291.49003472222</v>
@@ -11097,7 +11100,7 @@
         <v>45316.08077546296</v>
       </c>
       <c r="I274" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -11114,10 +11117,10 @@
         <v>567</v>
       </c>
       <c r="E275" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F275" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G275" s="3">
         <v>45280.21361111111</v>
@@ -11126,7 +11129,7 @@
         <v>45309.04177083333</v>
       </c>
       <c r="I275" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -11146,7 +11149,7 @@
         <v>601</v>
       </c>
       <c r="F276" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G276" s="3">
         <v>45314.56188657408</v>
@@ -11155,7 +11158,7 @@
         <v>45315.48497685185</v>
       </c>
       <c r="I276" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -11175,7 +11178,7 @@
         <v>603</v>
       </c>
       <c r="F277" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G277" s="3">
         <v>45302.49186342592</v>
@@ -11184,7 +11187,7 @@
         <v>45316.08069444444</v>
       </c>
       <c r="I277" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -11201,10 +11204,10 @@
         <v>570</v>
       </c>
       <c r="E278" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F278" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G278" s="3">
         <v>45291.5000462963</v>
@@ -11213,7 +11216,7 @@
         <v>45314.49376157407</v>
       </c>
       <c r="I278" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -11233,7 +11236,7 @@
         <v>623</v>
       </c>
       <c r="F279" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G279" s="3">
         <v>45291.49392361111</v>
@@ -11242,7 +11245,7 @@
         <v>45314.49452546296</v>
       </c>
       <c r="I279" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -11262,7 +11265,7 @@
         <v>602</v>
       </c>
       <c r="F280" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G280" s="3">
         <v>45312.49576388889</v>
@@ -11271,7 +11274,7 @@
         <v>45316.03846064815</v>
       </c>
       <c r="I280" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -11291,7 +11294,7 @@
         <v>632</v>
       </c>
       <c r="F281" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G281" s="3">
         <v>45312.98068287037</v>
@@ -11300,7 +11303,7 @@
         <v>45316.08041666666</v>
       </c>
       <c r="I281" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -11317,10 +11320,10 @@
         <v>574</v>
       </c>
       <c r="E282" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F282" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G282" s="3">
         <v>45314.49623842593</v>
@@ -11329,7 +11332,7 @@
         <v>45316.08075231482</v>
       </c>
       <c r="I282" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -11349,7 +11352,7 @@
         <v>607</v>
       </c>
       <c r="F283" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G283" s="3">
         <v>45313.14449074074</v>
@@ -11358,7 +11361,7 @@
         <v>45316.08082175926</v>
       </c>
       <c r="I283" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -11375,10 +11378,10 @@
         <v>576</v>
       </c>
       <c r="E284" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F284" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G284" s="3">
         <v>45312.50119212963</v>
@@ -11387,7 +11390,7 @@
         <v>45316.08556712963</v>
       </c>
       <c r="I284" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="925">
   <si>
     <t>Sno</t>
   </si>
@@ -1786,94 +1786,97 @@
     <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
   </si>
   <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 7, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 9, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 10, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 52, 'malicious': 17, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
     <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 7, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 9, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 10, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 52, 'malicious': 17, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
   </si>
   <si>
     <t>{'harmless': 62, 'malicious': 5, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
@@ -3212,7 +3215,7 @@
         <v>577</v>
       </c>
       <c r="F2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G2" s="3">
         <v>45311.61894675926</v>
@@ -3221,7 +3224,7 @@
         <v>45341.32113425926</v>
       </c>
       <c r="I2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3241,7 +3244,7 @@
         <v>578</v>
       </c>
       <c r="F3" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G3" s="3">
         <v>45328.50989583333</v>
@@ -3250,7 +3253,7 @@
         <v>45341.27945601852</v>
       </c>
       <c r="I3" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3270,7 +3273,7 @@
         <v>578</v>
       </c>
       <c r="F4" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G4" s="3">
         <v>45306.97109953704</v>
@@ -3279,7 +3282,7 @@
         <v>45341.06746527777</v>
       </c>
       <c r="I4" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3299,7 +3302,7 @@
         <v>578</v>
       </c>
       <c r="F5" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G5" s="3">
         <v>45328.57457175926</v>
@@ -3308,7 +3311,7 @@
         <v>45341.27858796297</v>
       </c>
       <c r="I5" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3328,7 +3331,7 @@
         <v>579</v>
       </c>
       <c r="F6" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G6" s="3">
         <v>45337.51012731482</v>
@@ -3337,7 +3340,7 @@
         <v>45341.27866898148</v>
       </c>
       <c r="I6" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3357,7 +3360,7 @@
         <v>580</v>
       </c>
       <c r="F7" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G7" s="3">
         <v>45329.3558912037</v>
@@ -3366,7 +3369,7 @@
         <v>45341.32061342592</v>
       </c>
       <c r="I7" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3386,7 +3389,7 @@
         <v>581</v>
       </c>
       <c r="F8" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G8" s="3">
         <v>45337.50997685185</v>
@@ -3395,7 +3398,7 @@
         <v>45341.10480324074</v>
       </c>
       <c r="I8" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3415,7 +3418,7 @@
         <v>582</v>
       </c>
       <c r="F9" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G9" s="3">
         <v>45308.21690972222</v>
@@ -3424,7 +3427,7 @@
         <v>45341.10543981481</v>
       </c>
       <c r="I9" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3444,7 +3447,7 @@
         <v>583</v>
       </c>
       <c r="F10" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G10" s="3">
         <v>45329.50237268519</v>
@@ -3453,7 +3456,7 @@
         <v>45341.04172453703</v>
       </c>
       <c r="I10" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3473,7 +3476,7 @@
         <v>584</v>
       </c>
       <c r="F11" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G11" s="3">
         <v>45316.49925925926</v>
@@ -3482,7 +3485,7 @@
         <v>45341.10148148148</v>
       </c>
       <c r="I11" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3502,7 +3505,7 @@
         <v>585</v>
       </c>
       <c r="F12" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G12" s="3">
         <v>45329.01333333334</v>
@@ -3511,7 +3514,7 @@
         <v>45341.36274305556</v>
       </c>
       <c r="I12" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3531,7 +3534,7 @@
         <v>586</v>
       </c>
       <c r="F13" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G13" s="3">
         <v>45320.50914351852</v>
@@ -3540,7 +3543,7 @@
         <v>45341.02841435185</v>
       </c>
       <c r="I13" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3560,7 +3563,7 @@
         <v>587</v>
       </c>
       <c r="F14" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G14" s="3">
         <v>45329.05806712963</v>
@@ -3569,7 +3572,7 @@
         <v>45341.07314814815</v>
       </c>
       <c r="I14" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3589,7 +3592,7 @@
         <v>588</v>
       </c>
       <c r="F15" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G15" s="3">
         <v>45341.23758101852</v>
@@ -3598,7 +3601,7 @@
         <v>45341.23922453704</v>
       </c>
       <c r="I15" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3618,7 +3621,7 @@
         <v>589</v>
       </c>
       <c r="F16" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G16" s="3">
         <v>45311.33236111111</v>
@@ -3627,7 +3630,7 @@
         <v>45341.09497685185</v>
       </c>
       <c r="I16" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3647,16 +3650,16 @@
         <v>590</v>
       </c>
       <c r="F17" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G17" s="3">
-        <v>45301.30826388889</v>
+        <v>45331.50390046297</v>
       </c>
       <c r="H17" s="3">
-        <v>45316.37930555556</v>
+        <v>45341.03533564815</v>
       </c>
       <c r="I17" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3676,7 +3679,7 @@
         <v>591</v>
       </c>
       <c r="F18" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G18" s="3">
         <v>45306.18137731482</v>
@@ -3685,7 +3688,7 @@
         <v>45316.42100694445</v>
       </c>
       <c r="I18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3705,7 +3708,7 @@
         <v>592</v>
       </c>
       <c r="F19" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G19" s="3">
         <v>45288.23121527778</v>
@@ -3714,7 +3717,7 @@
         <v>45302.48868055556</v>
       </c>
       <c r="I19" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3734,7 +3737,7 @@
         <v>593</v>
       </c>
       <c r="F20" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G20" s="3">
         <v>45307.52993055555</v>
@@ -3743,7 +3746,7 @@
         <v>45314.19462962963</v>
       </c>
       <c r="I20" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3763,7 +3766,7 @@
         <v>594</v>
       </c>
       <c r="F21" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G21" s="3">
         <v>45314.42365740741</v>
@@ -3772,7 +3775,7 @@
         <v>45314.42368055556</v>
       </c>
       <c r="I21" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3792,7 +3795,7 @@
         <v>595</v>
       </c>
       <c r="F22" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G22" s="3">
         <v>45305.57067129629</v>
@@ -3801,7 +3804,7 @@
         <v>45316.42155092592</v>
       </c>
       <c r="I22" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3821,7 +3824,7 @@
         <v>596</v>
       </c>
       <c r="F23" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G23" s="3">
         <v>45291.49997685185</v>
@@ -3830,7 +3833,7 @@
         <v>45314.49226851852</v>
       </c>
       <c r="I23" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3850,7 +3853,7 @@
         <v>597</v>
       </c>
       <c r="F24" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G24" s="3">
         <v>45309.80174768518</v>
@@ -3859,7 +3862,7 @@
         <v>45315.85729166667</v>
       </c>
       <c r="I24" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3879,7 +3882,7 @@
         <v>598</v>
       </c>
       <c r="F25" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G25" s="3">
         <v>45299.43368055556</v>
@@ -3888,7 +3891,7 @@
         <v>45316.37909722222</v>
       </c>
       <c r="I25" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3908,7 +3911,7 @@
         <v>599</v>
       </c>
       <c r="F26" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G26" s="3">
         <v>45314.17763888889</v>
@@ -3917,7 +3920,7 @@
         <v>45316.08064814815</v>
       </c>
       <c r="I26" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3937,7 +3940,7 @@
         <v>600</v>
       </c>
       <c r="F27" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G27" s="3">
         <v>45291.49208333333</v>
@@ -3946,7 +3949,7 @@
         <v>45316.34907407407</v>
       </c>
       <c r="I27" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3966,7 +3969,7 @@
         <v>601</v>
       </c>
       <c r="F28" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G28" s="3">
         <v>45289.73149305556</v>
@@ -3975,7 +3978,7 @@
         <v>45316.37931712963</v>
       </c>
       <c r="I28" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3995,7 +3998,7 @@
         <v>602</v>
       </c>
       <c r="F29" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G29" s="3">
         <v>45312.4952662037</v>
@@ -4004,7 +4007,7 @@
         <v>45315.52618055556</v>
       </c>
       <c r="I29" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4024,7 +4027,7 @@
         <v>603</v>
       </c>
       <c r="F30" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G30" s="3">
         <v>45307.49253472222</v>
@@ -4033,7 +4036,7 @@
         <v>45316.3793287037</v>
       </c>
       <c r="I30" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4053,7 +4056,7 @@
         <v>599</v>
       </c>
       <c r="F31" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G31" s="3">
         <v>45311.71104166667</v>
@@ -4062,7 +4065,7 @@
         <v>45316.37922453704</v>
       </c>
       <c r="I31" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4082,7 +4085,7 @@
         <v>599</v>
       </c>
       <c r="F32" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G32" s="3">
         <v>45312.34644675926</v>
@@ -4091,7 +4094,7 @@
         <v>45316.37908564815</v>
       </c>
       <c r="I32" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4111,7 +4114,7 @@
         <v>604</v>
       </c>
       <c r="F33" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G33" s="3">
         <v>44163.34006944444</v>
@@ -4120,7 +4123,7 @@
         <v>44163.34006944444</v>
       </c>
       <c r="I33" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4140,7 +4143,7 @@
         <v>591</v>
       </c>
       <c r="F34" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G34" s="3">
         <v>45286.80534722222</v>
@@ -4149,7 +4152,7 @@
         <v>45316.37934027778</v>
       </c>
       <c r="I34" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4169,7 +4172,7 @@
         <v>605</v>
       </c>
       <c r="F35" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G35" s="3">
         <v>45302.49230324074</v>
@@ -4178,7 +4181,7 @@
         <v>45314.98761574074</v>
       </c>
       <c r="I35" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4198,7 +4201,7 @@
         <v>606</v>
       </c>
       <c r="F36" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G36" s="3">
         <v>45302.49503472223</v>
@@ -4207,7 +4210,7 @@
         <v>45315.48547453704</v>
       </c>
       <c r="I36" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4227,7 +4230,7 @@
         <v>607</v>
       </c>
       <c r="F37" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G37" s="3">
         <v>45311.61938657407</v>
@@ -4236,7 +4239,7 @@
         <v>45316.42167824074</v>
       </c>
       <c r="I37" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4256,7 +4259,7 @@
         <v>603</v>
       </c>
       <c r="F38" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G38" s="3">
         <v>45297.0796412037</v>
@@ -4265,7 +4268,7 @@
         <v>45316.49811342593</v>
       </c>
       <c r="I38" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4285,7 +4288,7 @@
         <v>608</v>
       </c>
       <c r="F39" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G39" s="3">
         <v>45290.31696759259</v>
@@ -4294,7 +4297,7 @@
         <v>45316.49866898148</v>
       </c>
       <c r="I39" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4314,7 +4317,7 @@
         <v>609</v>
       </c>
       <c r="F40" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G40" s="3">
         <v>45313.59486111111</v>
@@ -4323,7 +4326,7 @@
         <v>45316.49662037037</v>
       </c>
       <c r="I40" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4343,7 +4346,7 @@
         <v>610</v>
       </c>
       <c r="F41" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G41" s="3">
         <v>45295.49177083333</v>
@@ -4352,7 +4355,7 @@
         <v>45316.49807870371</v>
       </c>
       <c r="I41" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4372,7 +4375,7 @@
         <v>611</v>
       </c>
       <c r="F42" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G42" s="3">
         <v>45311.92179398148</v>
@@ -4381,7 +4384,7 @@
         <v>45316.4971875</v>
       </c>
       <c r="I42" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4401,7 +4404,7 @@
         <v>610</v>
       </c>
       <c r="F43" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G43" s="3">
         <v>45296.05393518518</v>
@@ -4410,7 +4413,7 @@
         <v>45316.50489583334</v>
       </c>
       <c r="I43" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4430,7 +4433,7 @@
         <v>599</v>
       </c>
       <c r="F44" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G44" s="3">
         <v>45313.11333333333</v>
@@ -4439,7 +4442,7 @@
         <v>45316.49230324074</v>
       </c>
       <c r="I44" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4459,7 +4462,7 @@
         <v>602</v>
       </c>
       <c r="F45" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G45" s="3">
         <v>45306.61894675926</v>
@@ -4468,7 +4471,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I45" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4488,7 +4491,7 @@
         <v>612</v>
       </c>
       <c r="F46" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G46" s="3">
         <v>45312.49850694444</v>
@@ -4497,7 +4500,7 @@
         <v>45316.49799768518</v>
       </c>
       <c r="I46" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4517,7 +4520,7 @@
         <v>613</v>
       </c>
       <c r="F47" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G47" s="3">
         <v>45262.49515046296</v>
@@ -4526,7 +4529,7 @@
         <v>45309.07923611111</v>
       </c>
       <c r="I47" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4546,7 +4549,7 @@
         <v>608</v>
       </c>
       <c r="F48" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G48" s="3">
         <v>45298.49847222222</v>
@@ -4555,7 +4558,7 @@
         <v>45316.49944444445</v>
       </c>
       <c r="I48" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4575,7 +4578,7 @@
         <v>614</v>
       </c>
       <c r="F49" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G49" s="3">
         <v>45311.61908564815</v>
@@ -4584,7 +4587,7 @@
         <v>45316.49847222222</v>
       </c>
       <c r="I49" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4604,7 +4607,7 @@
         <v>615</v>
       </c>
       <c r="F50" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G50" s="3">
         <v>45311.61989583333</v>
@@ -4613,7 +4616,7 @@
         <v>45316.50482638889</v>
       </c>
       <c r="I50" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4633,7 +4636,7 @@
         <v>603</v>
       </c>
       <c r="F51" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G51" s="3">
         <v>45316.50053240741</v>
@@ -4642,7 +4645,7 @@
         <v>45316.50232638889</v>
       </c>
       <c r="I51" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4662,7 +4665,7 @@
         <v>594</v>
       </c>
       <c r="F52" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G52" s="3">
         <v>45313.05881944444</v>
@@ -4671,7 +4674,7 @@
         <v>45314.42322916666</v>
       </c>
       <c r="I52" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4691,7 +4694,7 @@
         <v>616</v>
       </c>
       <c r="F53" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G53" s="3">
         <v>45316.5015162037</v>
@@ -4700,7 +4703,7 @@
         <v>45316.50331018519</v>
       </c>
       <c r="I53" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4720,7 +4723,7 @@
         <v>617</v>
       </c>
       <c r="F54" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G54" s="3">
         <v>45291.62113425926</v>
@@ -4729,7 +4732,7 @@
         <v>45316.49827546296</v>
       </c>
       <c r="I54" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4749,7 +4752,7 @@
         <v>618</v>
       </c>
       <c r="F55" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G55" s="3">
         <v>45287.49758101852</v>
@@ -4758,7 +4761,7 @@
         <v>45316.50458333334</v>
       </c>
       <c r="I55" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4778,7 +4781,7 @@
         <v>619</v>
       </c>
       <c r="F56" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G56" s="3">
         <v>45280.75131944445</v>
@@ -4787,7 +4790,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I56" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4807,7 +4810,7 @@
         <v>602</v>
       </c>
       <c r="F57" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G57" s="3">
         <v>45291.49048611111</v>
@@ -4816,7 +4819,7 @@
         <v>45316.50336805556</v>
       </c>
       <c r="I57" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4833,10 +4836,10 @@
         <v>350</v>
       </c>
       <c r="E58" t="s">
-        <v>590</v>
+        <v>620</v>
       </c>
       <c r="F58" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G58" s="3">
         <v>45310.86956018519</v>
@@ -4845,7 +4848,7 @@
         <v>45314.48899305556</v>
       </c>
       <c r="I58" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4865,7 +4868,7 @@
         <v>595</v>
       </c>
       <c r="F59" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G59" s="3">
         <v>45311.61930555556</v>
@@ -4874,7 +4877,7 @@
         <v>45316.49861111111</v>
       </c>
       <c r="I59" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4891,10 +4894,10 @@
         <v>352</v>
       </c>
       <c r="E60" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F60" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G60" s="3">
         <v>45313.76346064815</v>
@@ -4903,7 +4906,7 @@
         <v>45316.49800925926</v>
       </c>
       <c r="I60" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4920,10 +4923,10 @@
         <v>353</v>
       </c>
       <c r="E61" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F61" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G61" s="3">
         <v>45278.11224537037</v>
@@ -4932,7 +4935,7 @@
         <v>45302.49298611111</v>
       </c>
       <c r="I61" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4952,7 +4955,7 @@
         <v>610</v>
       </c>
       <c r="F62" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G62" s="3">
         <v>45278.21631944444</v>
@@ -4961,7 +4964,7 @@
         <v>45316.50450231481</v>
       </c>
       <c r="I62" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4981,7 +4984,7 @@
         <v>604</v>
       </c>
       <c r="F63" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G63" s="3">
         <v>45163.2121412037</v>
@@ -4990,7 +4993,7 @@
         <v>45163.2121412037</v>
       </c>
       <c r="I63" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -5010,7 +5013,7 @@
         <v>606</v>
       </c>
       <c r="F64" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G64" s="3">
         <v>45316.49957175926</v>
@@ -5019,7 +5022,7 @@
         <v>45316.50452546297</v>
       </c>
       <c r="I64" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -5036,10 +5039,10 @@
         <v>357</v>
       </c>
       <c r="E65" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F65" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G65" s="3">
         <v>45297.49180555555</v>
@@ -5048,7 +5051,7 @@
         <v>45316.50127314815</v>
       </c>
       <c r="I65" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -5065,10 +5068,10 @@
         <v>358</v>
       </c>
       <c r="E66" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F66" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G66" s="3">
         <v>45297.09299768518</v>
@@ -5077,7 +5080,7 @@
         <v>45316.5039699074</v>
       </c>
       <c r="I66" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -5094,10 +5097,10 @@
         <v>359</v>
       </c>
       <c r="E67" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F67" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G67" s="3">
         <v>45316.50059027778</v>
@@ -5106,7 +5109,7 @@
         <v>45316.50255787037</v>
       </c>
       <c r="I67" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -5123,10 +5126,10 @@
         <v>360</v>
       </c>
       <c r="E68" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F68" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G68" s="3">
         <v>45313.63670138889</v>
@@ -5135,7 +5138,7 @@
         <v>45315.90416666667</v>
       </c>
       <c r="I68" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -5155,7 +5158,7 @@
         <v>595</v>
       </c>
       <c r="F69" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G69" s="3">
         <v>45304.51188657407</v>
@@ -5164,7 +5167,7 @@
         <v>45315.56863425926</v>
       </c>
       <c r="I69" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -5181,10 +5184,10 @@
         <v>362</v>
       </c>
       <c r="E70" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F70" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G70" s="3">
         <v>45291.49329861111</v>
@@ -5193,7 +5196,7 @@
         <v>45312.93239583333</v>
       </c>
       <c r="I70" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -5210,10 +5213,10 @@
         <v>363</v>
       </c>
       <c r="E71" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F71" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G71" s="3">
         <v>45300.57674768518</v>
@@ -5222,7 +5225,7 @@
         <v>45315.52626157407</v>
       </c>
       <c r="I71" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -5239,10 +5242,10 @@
         <v>364</v>
       </c>
       <c r="E72" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F72" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G72" s="3">
         <v>45310.40046296296</v>
@@ -5251,7 +5254,7 @@
         <v>45312.49293981482</v>
       </c>
       <c r="I72" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5268,10 +5271,10 @@
         <v>365</v>
       </c>
       <c r="E73" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F73" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G73" s="3">
         <v>45291.49876157408</v>
@@ -5280,7 +5283,7 @@
         <v>45314.49362268519</v>
       </c>
       <c r="I73" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5297,10 +5300,10 @@
         <v>366</v>
       </c>
       <c r="E74" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F74" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G74" s="3">
         <v>45292.49576388889</v>
@@ -5309,7 +5312,7 @@
         <v>45314.64596064815</v>
       </c>
       <c r="I74" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5329,13 +5332,13 @@
         <v>604</v>
       </c>
       <c r="F75" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H75" s="3">
         <v>45047.30018518519</v>
       </c>
       <c r="I75" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -5352,10 +5355,10 @@
         <v>368</v>
       </c>
       <c r="E76" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F76" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G76" s="3">
         <v>45291.49430555556</v>
@@ -5364,7 +5367,7 @@
         <v>45316.16467592592</v>
       </c>
       <c r="I76" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5384,7 +5387,7 @@
         <v>599</v>
       </c>
       <c r="F77" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G77" s="3">
         <v>45283.62505787037</v>
@@ -5393,7 +5396,7 @@
         <v>45309.04886574074</v>
       </c>
       <c r="I77" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5410,10 +5413,10 @@
         <v>370</v>
       </c>
       <c r="E78" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F78" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G78" s="3">
         <v>45262.59487268519</v>
@@ -5422,7 +5425,7 @@
         <v>45309.01453703704</v>
       </c>
       <c r="I78" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -5439,10 +5442,10 @@
         <v>371</v>
       </c>
       <c r="E79" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F79" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G79" s="3">
         <v>45312.49354166666</v>
@@ -5451,7 +5454,7 @@
         <v>45316.164375</v>
       </c>
       <c r="I79" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -5468,10 +5471,10 @@
         <v>372</v>
       </c>
       <c r="E80" t="s">
-        <v>590</v>
+        <v>620</v>
       </c>
       <c r="F80" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G80" s="3">
         <v>45312.7619675926</v>
@@ -5480,7 +5483,7 @@
         <v>45315.65320601852</v>
       </c>
       <c r="I80" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5500,7 +5503,7 @@
         <v>608</v>
       </c>
       <c r="F81" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G81" s="3">
         <v>45310.90116898148</v>
@@ -5509,7 +5512,7 @@
         <v>45316.2090625</v>
       </c>
       <c r="I81" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5526,10 +5529,10 @@
         <v>374</v>
       </c>
       <c r="E82" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F82" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G82" s="3">
         <v>45315.1578125</v>
@@ -5538,7 +5541,7 @@
         <v>45316.16471064815</v>
       </c>
       <c r="I82" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -5555,10 +5558,10 @@
         <v>375</v>
       </c>
       <c r="E83" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F83" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G83" s="3">
         <v>45287.44400462963</v>
@@ -5567,7 +5570,7 @@
         <v>45314.49243055555</v>
       </c>
       <c r="I83" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -5587,7 +5590,7 @@
         <v>594</v>
       </c>
       <c r="F84" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G84" s="3">
         <v>45309.58261574074</v>
@@ -5596,7 +5599,7 @@
         <v>45314.42337962963</v>
       </c>
       <c r="I84" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -5613,10 +5616,10 @@
         <v>377</v>
       </c>
       <c r="E85" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F85" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G85" s="3">
         <v>45280.04030092592</v>
@@ -5625,7 +5628,7 @@
         <v>45309.01909722222</v>
       </c>
       <c r="I85" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -5642,10 +5645,10 @@
         <v>378</v>
       </c>
       <c r="E86" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F86" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G86" s="3">
         <v>45302.49703703704</v>
@@ -5654,7 +5657,7 @@
         <v>45316.20864583334</v>
       </c>
       <c r="I86" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -5671,10 +5674,10 @@
         <v>379</v>
       </c>
       <c r="E87" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F87" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G87" s="3">
         <v>45313.29277777778</v>
@@ -5683,7 +5686,7 @@
         <v>45315.23820601852</v>
       </c>
       <c r="I87" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5700,10 +5703,10 @@
         <v>380</v>
       </c>
       <c r="E88" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F88" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G88" s="3">
         <v>45286.50180555556</v>
@@ -5712,7 +5715,7 @@
         <v>45312.67471064815</v>
       </c>
       <c r="I88" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5729,10 +5732,10 @@
         <v>381</v>
       </c>
       <c r="E89" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F89" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G89" s="3">
         <v>45311.42429398148</v>
@@ -5741,7 +5744,7 @@
         <v>45314.89614583334</v>
       </c>
       <c r="I89" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -5758,10 +5761,10 @@
         <v>382</v>
       </c>
       <c r="E90" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F90" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G90" s="3">
         <v>45306.6199537037</v>
@@ -5770,7 +5773,7 @@
         <v>45314.49379629629</v>
       </c>
       <c r="I90" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -5790,7 +5793,7 @@
         <v>594</v>
       </c>
       <c r="F91" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G91" s="3">
         <v>45315.42351851852</v>
@@ -5799,7 +5802,7 @@
         <v>45315.42354166666</v>
       </c>
       <c r="I91" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5819,7 +5822,7 @@
         <v>603</v>
       </c>
       <c r="F92" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G92" s="3">
         <v>45287.95120370371</v>
@@ -5828,7 +5831,7 @@
         <v>45315.61121527778</v>
       </c>
       <c r="I92" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -5845,10 +5848,10 @@
         <v>385</v>
       </c>
       <c r="E93" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F93" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G93" s="3">
         <v>45312.49561342593</v>
@@ -5857,7 +5860,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I93" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5877,7 +5880,7 @@
         <v>595</v>
       </c>
       <c r="F94" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G94" s="3">
         <v>45291.62100694444</v>
@@ -5886,7 +5889,7 @@
         <v>45314.49383101852</v>
       </c>
       <c r="I94" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5903,10 +5906,10 @@
         <v>387</v>
       </c>
       <c r="E95" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F95" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G95" s="3">
         <v>44926.35877314815</v>
@@ -5915,7 +5918,7 @@
         <v>44926.35877314815</v>
       </c>
       <c r="I95" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5935,7 +5938,7 @@
         <v>595</v>
       </c>
       <c r="F96" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G96" s="3">
         <v>45297.49363425926</v>
@@ -5944,7 +5947,7 @@
         <v>45311.89606481481</v>
       </c>
       <c r="I96" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5964,7 +5967,7 @@
         <v>614</v>
       </c>
       <c r="F97" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G97" s="3">
         <v>45314.49303240741</v>
@@ -5973,7 +5976,7 @@
         <v>45315.65373842593</v>
       </c>
       <c r="I97" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5993,7 +5996,7 @@
         <v>604</v>
       </c>
       <c r="F98" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G98" s="3">
         <v>45313.05805555556</v>
@@ -6002,7 +6005,7 @@
         <v>45313.05806712963</v>
       </c>
       <c r="I98" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -6019,10 +6022,10 @@
         <v>391</v>
       </c>
       <c r="E99" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F99" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G99" s="3">
         <v>45307.38726851852</v>
@@ -6031,7 +6034,7 @@
         <v>45314.85255787037</v>
       </c>
       <c r="I99" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -6048,10 +6051,10 @@
         <v>392</v>
       </c>
       <c r="E100" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F100" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G100" s="3">
         <v>45293.03614583334</v>
@@ -6060,7 +6063,7 @@
         <v>45293.0361574074</v>
       </c>
       <c r="I100" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6077,10 +6080,10 @@
         <v>393</v>
       </c>
       <c r="E101" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F101" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G101" s="3">
         <v>45314.50199074074</v>
@@ -6089,7 +6092,7 @@
         <v>45315.65385416667</v>
       </c>
       <c r="I101" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -6106,10 +6109,10 @@
         <v>394</v>
       </c>
       <c r="E102" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F102" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G102" s="3">
         <v>45307.37951388889</v>
@@ -6118,7 +6121,7 @@
         <v>45315.36158564815</v>
       </c>
       <c r="I102" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -6138,7 +6141,7 @@
         <v>604</v>
       </c>
       <c r="F103" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G103" s="3">
         <v>45307.00873842592</v>
@@ -6147,7 +6150,7 @@
         <v>45307.00875</v>
       </c>
       <c r="I103" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -6164,10 +6167,10 @@
         <v>396</v>
       </c>
       <c r="E104" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F104" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G104" s="3">
         <v>45315.42385416666</v>
@@ -6176,7 +6179,7 @@
         <v>45315.42386574074</v>
       </c>
       <c r="I104" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -6193,10 +6196,10 @@
         <v>397</v>
       </c>
       <c r="E105" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F105" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G105" s="3">
         <v>45291.49836805555</v>
@@ -6205,7 +6208,7 @@
         <v>45315.65422453704</v>
       </c>
       <c r="I105" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -6222,10 +6225,10 @@
         <v>398</v>
       </c>
       <c r="E106" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F106" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G106" s="3">
         <v>45280.57280092593</v>
@@ -6234,7 +6237,7 @@
         <v>45309.02465277778</v>
       </c>
       <c r="I106" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -6251,10 +6254,10 @@
         <v>399</v>
       </c>
       <c r="E107" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F107" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G107" s="3">
         <v>45302.49490740741</v>
@@ -6263,7 +6266,7 @@
         <v>45312.88666666667</v>
       </c>
       <c r="I107" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -6280,10 +6283,10 @@
         <v>400</v>
       </c>
       <c r="E108" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F108" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G108" s="3">
         <v>45288.28815972222</v>
@@ -6292,7 +6295,7 @@
         <v>45315.60980324074</v>
       </c>
       <c r="I108" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -6309,10 +6312,10 @@
         <v>401</v>
       </c>
       <c r="E109" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F109" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G109" s="3">
         <v>45295.49231481482</v>
@@ -6321,7 +6324,7 @@
         <v>45315.61019675926</v>
       </c>
       <c r="I109" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -6338,10 +6341,10 @@
         <v>402</v>
       </c>
       <c r="E110" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F110" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G110" s="3">
         <v>45312.76140046296</v>
@@ -6350,7 +6353,7 @@
         <v>45314.69101851852</v>
       </c>
       <c r="I110" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -6370,7 +6373,7 @@
         <v>601</v>
       </c>
       <c r="F111" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G111" s="3">
         <v>45314.49325231482</v>
@@ -6379,7 +6382,7 @@
         <v>45315.61035879629</v>
       </c>
       <c r="I111" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -6396,10 +6399,10 @@
         <v>404</v>
       </c>
       <c r="E112" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F112" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G112" s="3">
         <v>45313.42341435186</v>
@@ -6408,7 +6411,7 @@
         <v>45314.19578703704</v>
       </c>
       <c r="I112" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6428,7 +6431,7 @@
         <v>603</v>
       </c>
       <c r="F113" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G113" s="3">
         <v>45292.49325231482</v>
@@ -6437,7 +6440,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I113" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -6454,10 +6457,10 @@
         <v>406</v>
       </c>
       <c r="E114" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F114" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G114" s="3">
         <v>45313.0588425926</v>
@@ -6466,7 +6469,7 @@
         <v>45314.42222222222</v>
       </c>
       <c r="I114" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -6483,10 +6486,10 @@
         <v>407</v>
       </c>
       <c r="E115" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F115" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G115" s="3">
         <v>45307.5822337963</v>
@@ -6495,7 +6498,7 @@
         <v>45314.77590277778</v>
       </c>
       <c r="I115" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -6512,10 +6515,10 @@
         <v>408</v>
       </c>
       <c r="E116" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F116" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G116" s="3">
         <v>45298.49490740741</v>
@@ -6524,7 +6527,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I116" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -6541,10 +6544,10 @@
         <v>409</v>
       </c>
       <c r="E117" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F117" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G117" s="3">
         <v>45300.43424768518</v>
@@ -6553,7 +6556,7 @@
         <v>45314.49525462963</v>
       </c>
       <c r="I117" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -6570,10 +6573,10 @@
         <v>410</v>
       </c>
       <c r="E118" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F118" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G118" s="3">
         <v>45287.49133101852</v>
@@ -6582,7 +6585,7 @@
         <v>45315.68306712963</v>
       </c>
       <c r="I118" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -6599,10 +6602,10 @@
         <v>411</v>
       </c>
       <c r="E119" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F119" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G119" s="3">
         <v>45315.24193287037</v>
@@ -6611,7 +6614,7 @@
         <v>45315.65413194444</v>
       </c>
       <c r="I119" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -6631,7 +6634,7 @@
         <v>603</v>
       </c>
       <c r="F120" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G120" s="3">
         <v>45296.62521990741</v>
@@ -6640,7 +6643,7 @@
         <v>45315.32032407408</v>
       </c>
       <c r="I120" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -6657,10 +6660,10 @@
         <v>413</v>
       </c>
       <c r="E121" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F121" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G121" s="3">
         <v>45293.4970949074</v>
@@ -6669,7 +6672,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I121" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -6686,10 +6689,10 @@
         <v>414</v>
       </c>
       <c r="E122" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F122" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G122" s="3">
         <v>45282.72908564815</v>
@@ -6698,7 +6701,7 @@
         <v>45282.72909722223</v>
       </c>
       <c r="I122" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -6715,10 +6718,10 @@
         <v>415</v>
       </c>
       <c r="E123" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F123" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G123" s="3">
         <v>45314.49591435185</v>
@@ -6727,7 +6730,7 @@
         <v>45315.69609953704</v>
       </c>
       <c r="I123" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -6744,10 +6747,10 @@
         <v>416</v>
       </c>
       <c r="E124" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F124" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G124" s="3">
         <v>45300.97112268519</v>
@@ -6756,7 +6759,7 @@
         <v>45315.69616898148</v>
       </c>
       <c r="I124" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -6773,10 +6776,10 @@
         <v>417</v>
       </c>
       <c r="E125" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F125" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G125" s="3">
         <v>45273.65564814815</v>
@@ -6785,7 +6788,7 @@
         <v>45303.42461805556</v>
       </c>
       <c r="I125" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -6802,10 +6805,10 @@
         <v>418</v>
       </c>
       <c r="E126" t="s">
-        <v>590</v>
+        <v>620</v>
       </c>
       <c r="F126" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G126" s="3">
         <v>45298.21359953703</v>
@@ -6814,7 +6817,7 @@
         <v>45314.49523148148</v>
       </c>
       <c r="I126" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -6831,10 +6834,10 @@
         <v>419</v>
       </c>
       <c r="E127" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F127" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G127" s="3">
         <v>45308.42383101852</v>
@@ -6843,7 +6846,7 @@
         <v>45314.49195601852</v>
       </c>
       <c r="I127" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -6860,10 +6863,10 @@
         <v>420</v>
       </c>
       <c r="E128" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F128" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G128" s="3">
         <v>45294.41019675926</v>
@@ -6872,7 +6875,7 @@
         <v>45315.69918981481</v>
       </c>
       <c r="I128" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -6892,7 +6895,7 @@
         <v>598</v>
       </c>
       <c r="F129" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G129" s="3">
         <v>45310.61224537037</v>
@@ -6901,7 +6904,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I129" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -6918,10 +6921,10 @@
         <v>422</v>
       </c>
       <c r="E130" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F130" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G130" s="3">
         <v>45304.64673611111</v>
@@ -6930,7 +6933,7 @@
         <v>45315.6959375</v>
       </c>
       <c r="I130" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -6947,10 +6950,10 @@
         <v>423</v>
       </c>
       <c r="E131" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F131" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G131" s="3">
         <v>45295.49403935186</v>
@@ -6959,7 +6962,7 @@
         <v>45315.69605324074</v>
       </c>
       <c r="I131" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -6976,10 +6979,10 @@
         <v>424</v>
       </c>
       <c r="E132" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F132" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G132" s="3">
         <v>45298.06329861111</v>
@@ -6988,7 +6991,7 @@
         <v>45314.49458333333</v>
       </c>
       <c r="I132" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -7005,10 +7008,10 @@
         <v>425</v>
       </c>
       <c r="E133" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F133" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G133" s="3">
         <v>45297.49041666667</v>
@@ -7017,7 +7020,7 @@
         <v>45315.70159722222</v>
       </c>
       <c r="I133" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -7034,10 +7037,10 @@
         <v>426</v>
       </c>
       <c r="E134" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F134" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G134" s="3">
         <v>45296.21274305556</v>
@@ -7046,7 +7049,7 @@
         <v>45309.05621527778</v>
       </c>
       <c r="I134" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -7063,10 +7066,10 @@
         <v>427</v>
       </c>
       <c r="E135" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F135" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G135" s="3">
         <v>45307.08791666666</v>
@@ -7075,7 +7078,7 @@
         <v>45315.65327546297</v>
       </c>
       <c r="I135" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -7092,10 +7095,10 @@
         <v>428</v>
       </c>
       <c r="E136" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F136" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G136" s="3">
         <v>45314.49842592593</v>
@@ -7104,7 +7107,7 @@
         <v>45314.67444444444</v>
       </c>
       <c r="I136" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -7124,7 +7127,7 @@
         <v>599</v>
       </c>
       <c r="F137" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G137" s="3">
         <v>45310.65872685185</v>
@@ -7133,7 +7136,7 @@
         <v>45314.49422453704</v>
       </c>
       <c r="I137" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -7153,7 +7156,7 @@
         <v>599</v>
       </c>
       <c r="F138" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G138" s="3">
         <v>45312.13112268518</v>
@@ -7162,7 +7165,7 @@
         <v>45315.6537962963</v>
       </c>
       <c r="I138" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -7179,10 +7182,10 @@
         <v>431</v>
       </c>
       <c r="E139" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F139" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G139" s="3">
         <v>45270.59310185185</v>
@@ -7191,7 +7194,7 @@
         <v>45309.07831018518</v>
       </c>
       <c r="I139" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -7208,10 +7211,10 @@
         <v>432</v>
       </c>
       <c r="E140" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F140" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G140" s="3">
         <v>45278.77987268518</v>
@@ -7220,7 +7223,7 @@
         <v>45314.6009837963</v>
       </c>
       <c r="I140" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -7237,10 +7240,10 @@
         <v>433</v>
       </c>
       <c r="E141" t="s">
-        <v>590</v>
+        <v>620</v>
       </c>
       <c r="F141" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G141" s="3">
         <v>45314.49572916667</v>
@@ -7249,7 +7252,7 @@
         <v>45314.67103009259</v>
       </c>
       <c r="I141" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -7269,13 +7272,13 @@
         <v>604</v>
       </c>
       <c r="F142" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H142" s="3">
         <v>43999.85027777778</v>
       </c>
       <c r="I142" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -7292,10 +7295,10 @@
         <v>435</v>
       </c>
       <c r="E143" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F143" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G143" s="3">
         <v>45309.54311342593</v>
@@ -7304,7 +7307,7 @@
         <v>45316.16458333333</v>
       </c>
       <c r="I143" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -7324,7 +7327,7 @@
         <v>604</v>
       </c>
       <c r="F144" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G144" s="3">
         <v>45306.51280092593</v>
@@ -7333,7 +7336,7 @@
         <v>45306.51280092593</v>
       </c>
       <c r="I144" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -7350,10 +7353,10 @@
         <v>437</v>
       </c>
       <c r="E145" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F145" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G145" s="3">
         <v>45314.49275462963</v>
@@ -7362,7 +7365,7 @@
         <v>45315.73717592593</v>
       </c>
       <c r="I145" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -7382,7 +7385,7 @@
         <v>609</v>
       </c>
       <c r="F146" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G146" s="3">
         <v>45308.77947916667</v>
@@ -7391,7 +7394,7 @@
         <v>45309.07209490741</v>
       </c>
       <c r="I146" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -7408,10 +7411,10 @@
         <v>439</v>
       </c>
       <c r="E147" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F147" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G147" s="3">
         <v>45307.50165509259</v>
@@ -7420,7 +7423,7 @@
         <v>45312.88640046296</v>
       </c>
       <c r="I147" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -7437,10 +7440,10 @@
         <v>440</v>
       </c>
       <c r="E148" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F148" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G148" s="3">
         <v>45294.12988425926</v>
@@ -7449,7 +7452,7 @@
         <v>45314.49341435185</v>
       </c>
       <c r="I148" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -7466,10 +7469,10 @@
         <v>441</v>
       </c>
       <c r="E149" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F149" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G149" s="3">
         <v>45296.33108796296</v>
@@ -7478,7 +7481,7 @@
         <v>45314.51508101852</v>
       </c>
       <c r="I149" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -7495,10 +7498,10 @@
         <v>442</v>
       </c>
       <c r="E150" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F150" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G150" s="3">
         <v>45295.49210648148</v>
@@ -7507,7 +7510,7 @@
         <v>45315.69587962963</v>
       </c>
       <c r="I150" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -7524,10 +7527,10 @@
         <v>443</v>
       </c>
       <c r="E151" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F151" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G151" s="3">
         <v>45314.49277777778</v>
@@ -7536,7 +7539,7 @@
         <v>45315.73741898148</v>
       </c>
       <c r="I151" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -7553,10 +7556,10 @@
         <v>444</v>
       </c>
       <c r="E152" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F152" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G152" s="3">
         <v>45308.74111111111</v>
@@ -7565,7 +7568,7 @@
         <v>45310.69127314815</v>
       </c>
       <c r="I152" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -7582,10 +7585,10 @@
         <v>445</v>
       </c>
       <c r="E153" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F153" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G153" s="3">
         <v>45311.61907407407</v>
@@ -7594,7 +7597,7 @@
         <v>45315.73760416666</v>
       </c>
       <c r="I153" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -7614,7 +7617,7 @@
         <v>594</v>
       </c>
       <c r="F154" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G154" s="3">
         <v>45313.06128472222</v>
@@ -7623,7 +7626,7 @@
         <v>45314.4228125</v>
       </c>
       <c r="I154" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -7640,10 +7643,10 @@
         <v>447</v>
       </c>
       <c r="E155" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F155" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G155" s="3">
         <v>45291.49923611111</v>
@@ -7652,7 +7655,7 @@
         <v>45312.49590277778</v>
       </c>
       <c r="I155" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -7669,10 +7672,10 @@
         <v>448</v>
       </c>
       <c r="E156" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F156" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G156" s="3">
         <v>45302.49706018518</v>
@@ -7681,7 +7684,7 @@
         <v>45315.07060185185</v>
       </c>
       <c r="I156" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -7701,7 +7704,7 @@
         <v>601</v>
       </c>
       <c r="F157" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G157" s="3">
         <v>45286.49168981481</v>
@@ -7710,7 +7713,7 @@
         <v>45315.73706018519</v>
       </c>
       <c r="I157" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -7727,10 +7730,10 @@
         <v>450</v>
       </c>
       <c r="E158" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F158" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G158" s="3">
         <v>45306.62078703703</v>
@@ -7739,7 +7742,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I158" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -7756,10 +7759,10 @@
         <v>451</v>
       </c>
       <c r="E159" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F159" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G159" s="3">
         <v>45297.49820601852</v>
@@ -7768,7 +7771,7 @@
         <v>45315.73712962963</v>
       </c>
       <c r="I159" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -7785,10 +7788,10 @@
         <v>452</v>
       </c>
       <c r="E160" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F160" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G160" s="3">
         <v>45314.49293981482</v>
@@ -7797,7 +7800,7 @@
         <v>45315.73753472222</v>
       </c>
       <c r="I160" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -7814,10 +7817,10 @@
         <v>453</v>
       </c>
       <c r="E161" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F161" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G161" s="3">
         <v>45302.49929398148</v>
@@ -7826,7 +7829,7 @@
         <v>45314.49518518519</v>
       </c>
       <c r="I161" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -7846,13 +7849,13 @@
         <v>604</v>
       </c>
       <c r="F162" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H162" s="3">
         <v>45307.36160879629</v>
       </c>
       <c r="I162" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -7869,10 +7872,10 @@
         <v>455</v>
       </c>
       <c r="E163" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F163" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G163" s="3">
         <v>45314.4933912037</v>
@@ -7881,7 +7884,7 @@
         <v>45316.12230324074</v>
       </c>
       <c r="I163" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -7901,7 +7904,7 @@
         <v>611</v>
       </c>
       <c r="F164" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G164" s="3">
         <v>45307.36724537037</v>
@@ -7910,7 +7913,7 @@
         <v>45316.16459490741</v>
       </c>
       <c r="I164" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -7927,10 +7930,10 @@
         <v>457</v>
       </c>
       <c r="E165" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F165" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G165" s="3">
         <v>45297.31922453704</v>
@@ -7939,7 +7942,7 @@
         <v>45314.49394675926</v>
       </c>
       <c r="I165" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -7956,10 +7959,10 @@
         <v>458</v>
       </c>
       <c r="E166" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F166" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G166" s="3">
         <v>45315.42201388889</v>
@@ -7968,7 +7971,7 @@
         <v>45315.7841550926</v>
       </c>
       <c r="I166" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -7988,7 +7991,7 @@
         <v>594</v>
       </c>
       <c r="F167" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G167" s="3">
         <v>45314.42302083333</v>
@@ -7997,7 +8000,7 @@
         <v>45314.42302083333</v>
       </c>
       <c r="I167" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -8014,10 +8017,10 @@
         <v>460</v>
       </c>
       <c r="E168" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F168" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G168" s="3">
         <v>45314.49530092593</v>
@@ -8026,7 +8029,7 @@
         <v>45315.78174768519</v>
       </c>
       <c r="I168" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -8043,10 +8046,10 @@
         <v>461</v>
       </c>
       <c r="E169" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F169" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G169" s="3">
         <v>45312.49302083333</v>
@@ -8055,7 +8058,7 @@
         <v>45314.49451388889</v>
       </c>
       <c r="I169" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -8072,10 +8075,10 @@
         <v>462</v>
       </c>
       <c r="E170" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F170" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G170" s="3">
         <v>45302.49891203704</v>
@@ -8084,7 +8087,7 @@
         <v>45315.78163194445</v>
       </c>
       <c r="I170" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -8101,10 +8104,10 @@
         <v>463</v>
       </c>
       <c r="E171" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F171" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G171" s="3">
         <v>45314.49350694445</v>
@@ -8113,7 +8116,7 @@
         <v>45315.78178240741</v>
       </c>
       <c r="I171" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -8133,7 +8136,7 @@
         <v>604</v>
       </c>
       <c r="F172" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G172" s="3">
         <v>44049.84335648148</v>
@@ -8142,7 +8145,7 @@
         <v>44740.15496527778</v>
       </c>
       <c r="I172" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -8162,7 +8165,7 @@
         <v>595</v>
       </c>
       <c r="F173" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G173" s="3">
         <v>45307.49097222222</v>
@@ -8171,7 +8174,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I173" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -8191,7 +8194,7 @@
         <v>594</v>
       </c>
       <c r="F174" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G174" s="3">
         <v>45312.37847222222</v>
@@ -8200,7 +8203,7 @@
         <v>45314.42348379629</v>
       </c>
       <c r="I174" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -8220,7 +8223,7 @@
         <v>608</v>
       </c>
       <c r="F175" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G175" s="3">
         <v>45312.25097222222</v>
@@ -8229,7 +8232,7 @@
         <v>45315.74335648148</v>
       </c>
       <c r="I175" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -8246,10 +8249,10 @@
         <v>468</v>
       </c>
       <c r="E176" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F176" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G176" s="3">
         <v>45310.90118055556</v>
@@ -8258,7 +8261,7 @@
         <v>45314.49304398148</v>
       </c>
       <c r="I176" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -8278,7 +8281,7 @@
         <v>602</v>
       </c>
       <c r="F177" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G177" s="3">
         <v>45296.62515046296</v>
@@ -8287,7 +8290,7 @@
         <v>45314.49361111111</v>
       </c>
       <c r="I177" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -8304,10 +8307,10 @@
         <v>470</v>
       </c>
       <c r="E178" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F178" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G178" s="3">
         <v>45311.61869212963</v>
@@ -8316,7 +8319,7 @@
         <v>45315.73645833333</v>
       </c>
       <c r="I178" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -8333,10 +8336,10 @@
         <v>471</v>
       </c>
       <c r="E179" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F179" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G179" s="3">
         <v>45287.159375</v>
@@ -8345,7 +8348,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I179" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -8362,10 +8365,10 @@
         <v>472</v>
       </c>
       <c r="E180" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F180" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G180" s="3">
         <v>45311.68436342593</v>
@@ -8374,7 +8377,7 @@
         <v>45315.75385416667</v>
       </c>
       <c r="I180" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -8391,10 +8394,10 @@
         <v>473</v>
       </c>
       <c r="E181" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F181" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G181" s="3">
         <v>45291.49039351852</v>
@@ -8403,7 +8406,7 @@
         <v>45315.78164351852</v>
       </c>
       <c r="I181" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -8420,10 +8423,10 @@
         <v>474</v>
       </c>
       <c r="E182" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F182" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G182" s="3">
         <v>45308.74193287037</v>
@@ -8432,7 +8435,7 @@
         <v>45315.7467824074</v>
       </c>
       <c r="I182" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -8449,10 +8452,10 @@
         <v>475</v>
       </c>
       <c r="E183" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F183" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G183" s="3">
         <v>45290.68399305556</v>
@@ -8461,7 +8464,7 @@
         <v>45315.76791666666</v>
       </c>
       <c r="I183" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -8478,10 +8481,10 @@
         <v>476</v>
       </c>
       <c r="E184" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F184" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G184" s="3">
         <v>45294.52609953703</v>
@@ -8490,7 +8493,7 @@
         <v>45315.75109953704</v>
       </c>
       <c r="I184" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -8507,10 +8510,10 @@
         <v>477</v>
       </c>
       <c r="E185" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F185" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G185" s="3">
         <v>45305.28581018518</v>
@@ -8519,7 +8522,7 @@
         <v>45315.73657407407</v>
       </c>
       <c r="I185" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -8536,10 +8539,10 @@
         <v>478</v>
       </c>
       <c r="E186" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F186" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G186" s="3">
         <v>45303.07900462963</v>
@@ -8548,7 +8551,7 @@
         <v>45315.78171296296</v>
       </c>
       <c r="I186" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -8565,10 +8568,10 @@
         <v>479</v>
       </c>
       <c r="E187" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F187" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G187" s="3">
         <v>45294.00594907408</v>
@@ -8577,7 +8580,7 @@
         <v>45315.60971064815</v>
       </c>
       <c r="I187" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -8594,10 +8597,10 @@
         <v>480</v>
       </c>
       <c r="E188" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F188" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G188" s="3">
         <v>45291.6212037037</v>
@@ -8606,7 +8609,7 @@
         <v>45315.76299768518</v>
       </c>
       <c r="I188" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -8623,10 +8626,10 @@
         <v>481</v>
       </c>
       <c r="E189" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F189" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G189" s="3">
         <v>45291.62125</v>
@@ -8635,7 +8638,7 @@
         <v>45315.73672453704</v>
       </c>
       <c r="I189" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -8652,10 +8655,10 @@
         <v>482</v>
       </c>
       <c r="E190" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F190" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G190" s="3">
         <v>45291.49121527778</v>
@@ -8664,7 +8667,7 @@
         <v>45315.73679398148</v>
       </c>
       <c r="I190" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -8684,7 +8687,7 @@
         <v>595</v>
       </c>
       <c r="F191" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G191" s="3">
         <v>45305.45537037037</v>
@@ -8693,7 +8696,7 @@
         <v>45315.78153935185</v>
       </c>
       <c r="I191" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -8710,10 +8713,10 @@
         <v>484</v>
       </c>
       <c r="E192" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F192" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G192" s="3">
         <v>45312.66900462963</v>
@@ -8722,7 +8725,7 @@
         <v>45315.78197916667</v>
       </c>
       <c r="I192" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -8739,10 +8742,10 @@
         <v>485</v>
       </c>
       <c r="E193" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F193" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G193" s="3">
         <v>45283.15128472223</v>
@@ -8751,7 +8754,7 @@
         <v>45315.73756944444</v>
       </c>
       <c r="I193" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -8768,10 +8771,10 @@
         <v>486</v>
       </c>
       <c r="E194" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F194" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G194" s="3">
         <v>45290.15359953704</v>
@@ -8780,7 +8783,7 @@
         <v>45315.81050925926</v>
       </c>
       <c r="I194" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -8797,10 +8800,10 @@
         <v>487</v>
       </c>
       <c r="E195" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F195" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G195" s="3">
         <v>45288.77761574074</v>
@@ -8809,7 +8812,7 @@
         <v>45315.8109837963</v>
       </c>
       <c r="I195" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -8826,10 +8829,10 @@
         <v>488</v>
       </c>
       <c r="E196" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F196" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G196" s="3">
         <v>45283.5427199074</v>
@@ -8838,7 +8841,7 @@
         <v>45315.81034722222</v>
       </c>
       <c r="I196" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -8855,10 +8858,10 @@
         <v>489</v>
       </c>
       <c r="E197" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F197" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G197" s="3">
         <v>45290.06099537037</v>
@@ -8867,7 +8870,7 @@
         <v>45315.78223379629</v>
       </c>
       <c r="I197" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -8884,10 +8887,10 @@
         <v>490</v>
       </c>
       <c r="E198" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F198" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G198" s="3">
         <v>45285.78746527778</v>
@@ -8896,7 +8899,7 @@
         <v>45315.81327546296</v>
       </c>
       <c r="I198" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -8913,10 +8916,10 @@
         <v>491</v>
       </c>
       <c r="E199" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F199" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G199" s="3">
         <v>45300.70331018518</v>
@@ -8925,7 +8928,7 @@
         <v>45315.78243055556</v>
       </c>
       <c r="I199" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -8942,10 +8945,10 @@
         <v>492</v>
       </c>
       <c r="E200" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F200" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G200" s="3">
         <v>45313.4215625</v>
@@ -8954,7 +8957,7 @@
         <v>45314.19313657407</v>
       </c>
       <c r="I200" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -8974,7 +8977,7 @@
         <v>598</v>
       </c>
       <c r="F201" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G201" s="3">
         <v>45313.10177083333</v>
@@ -8983,7 +8986,7 @@
         <v>45315.19548611111</v>
       </c>
       <c r="I201" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -9000,10 +9003,10 @@
         <v>494</v>
       </c>
       <c r="E202" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F202" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G202" s="3">
         <v>45313.56241898148</v>
@@ -9012,7 +9015,7 @@
         <v>45315.73755787037</v>
       </c>
       <c r="I202" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -9029,10 +9032,10 @@
         <v>495</v>
       </c>
       <c r="E203" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F203" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G203" s="3">
         <v>45287.49016203704</v>
@@ -9041,7 +9044,7 @@
         <v>45315.81586805556</v>
       </c>
       <c r="I203" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -9058,10 +9061,10 @@
         <v>496</v>
       </c>
       <c r="E204" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F204" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G204" s="3">
         <v>45294.11623842592</v>
@@ -9070,7 +9073,7 @@
         <v>45315.81109953704</v>
       </c>
       <c r="I204" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -9087,10 +9090,10 @@
         <v>497</v>
       </c>
       <c r="E205" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F205" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G205" s="3">
         <v>45281.61627314815</v>
@@ -9099,7 +9102,7 @@
         <v>45315.73660879629</v>
       </c>
       <c r="I205" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -9119,7 +9122,7 @@
         <v>595</v>
       </c>
       <c r="F206" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G206" s="3">
         <v>45310.31782407407</v>
@@ -9128,7 +9131,7 @@
         <v>45315.82373842593</v>
       </c>
       <c r="I206" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -9145,10 +9148,10 @@
         <v>499</v>
       </c>
       <c r="E207" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F207" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G207" s="3">
         <v>45292.86751157408</v>
@@ -9157,7 +9160,7 @@
         <v>45315.81833333334</v>
       </c>
       <c r="I207" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -9174,10 +9177,10 @@
         <v>500</v>
       </c>
       <c r="E208" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F208" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G208" s="3">
         <v>45297.78877314815</v>
@@ -9186,7 +9189,7 @@
         <v>45315.82362268519</v>
       </c>
       <c r="I208" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -9203,10 +9206,10 @@
         <v>501</v>
       </c>
       <c r="E209" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F209" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G209" s="3">
         <v>45291.49200231482</v>
@@ -9215,7 +9218,7 @@
         <v>45315.81275462963</v>
       </c>
       <c r="I209" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -9232,10 +9235,10 @@
         <v>502</v>
       </c>
       <c r="E210" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F210" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G210" s="3">
         <v>45314.77236111111</v>
@@ -9244,7 +9247,7 @@
         <v>45315.81111111111</v>
       </c>
       <c r="I210" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -9261,10 +9264,10 @@
         <v>503</v>
       </c>
       <c r="E211" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F211" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G211" s="3">
         <v>45306.94767361111</v>
@@ -9273,7 +9276,7 @@
         <v>45315.81850694444</v>
       </c>
       <c r="I211" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -9290,10 +9293,10 @@
         <v>504</v>
       </c>
       <c r="E212" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F212" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G212" s="3">
         <v>45315.48592592592</v>
@@ -9302,7 +9305,7 @@
         <v>45315.82550925926</v>
       </c>
       <c r="I212" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -9319,10 +9322,10 @@
         <v>505</v>
       </c>
       <c r="E213" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F213" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G213" s="3">
         <v>45278.21140046296</v>
@@ -9331,7 +9334,7 @@
         <v>45315.78211805555</v>
       </c>
       <c r="I213" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -9348,10 +9351,10 @@
         <v>506</v>
       </c>
       <c r="E214" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F214" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G214" s="3">
         <v>45296.58950231481</v>
@@ -9360,7 +9363,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I214" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -9377,10 +9380,10 @@
         <v>507</v>
       </c>
       <c r="E215" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F215" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G215" s="3">
         <v>45308.74321759259</v>
@@ -9389,7 +9392,7 @@
         <v>45315.82768518518</v>
       </c>
       <c r="I215" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -9406,10 +9409,10 @@
         <v>508</v>
       </c>
       <c r="E216" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F216" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G216" s="3">
         <v>45291.49114583333</v>
@@ -9418,7 +9421,7 @@
         <v>45315.82378472222</v>
       </c>
       <c r="I216" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -9435,10 +9438,10 @@
         <v>509</v>
       </c>
       <c r="E217" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F217" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G217" s="3">
         <v>45308.16465277778</v>
@@ -9447,7 +9450,7 @@
         <v>45315.82369212963</v>
       </c>
       <c r="I217" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -9464,10 +9467,10 @@
         <v>510</v>
       </c>
       <c r="E218" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F218" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G218" s="3">
         <v>45296.21802083333</v>
@@ -9476,7 +9479,7 @@
         <v>45315.82553240741</v>
       </c>
       <c r="I218" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -9493,10 +9496,10 @@
         <v>511</v>
       </c>
       <c r="E219" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F219" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G219" s="3">
         <v>45307.36931712963</v>
@@ -9505,7 +9508,7 @@
         <v>45315.78234953704</v>
       </c>
       <c r="I219" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -9525,7 +9528,7 @@
         <v>607</v>
       </c>
       <c r="F220" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G220" s="3">
         <v>45313.02901620371</v>
@@ -9534,7 +9537,7 @@
         <v>45315.78185185185</v>
       </c>
       <c r="I220" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -9551,10 +9554,10 @@
         <v>513</v>
       </c>
       <c r="E221" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F221" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G221" s="3">
         <v>45284.49082175926</v>
@@ -9563,7 +9566,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I221" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -9580,10 +9583,10 @@
         <v>514</v>
       </c>
       <c r="E222" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F222" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G222" s="3">
         <v>45290.06063657408</v>
@@ -9592,7 +9595,7 @@
         <v>45315.81575231482</v>
       </c>
       <c r="I222" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -9609,10 +9612,10 @@
         <v>515</v>
       </c>
       <c r="E223" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F223" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G223" s="3">
         <v>45292.49101851852</v>
@@ -9621,7 +9624,7 @@
         <v>45315.81292824074</v>
       </c>
       <c r="I223" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -9638,10 +9641,10 @@
         <v>516</v>
       </c>
       <c r="E224" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F224" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G224" s="3">
         <v>45291.34520833333</v>
@@ -9650,7 +9653,7 @@
         <v>45315.82354166666</v>
       </c>
       <c r="I224" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -9667,10 +9670,10 @@
         <v>517</v>
       </c>
       <c r="E225" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F225" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G225" s="3">
         <v>45314.42053240741</v>
@@ -9679,7 +9682,7 @@
         <v>45315.81092592593</v>
       </c>
       <c r="I225" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -9696,10 +9699,10 @@
         <v>518</v>
       </c>
       <c r="E226" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F226" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G226" s="3">
         <v>45291.49119212963</v>
@@ -9708,7 +9711,7 @@
         <v>45314.49342592592</v>
       </c>
       <c r="I226" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -9725,10 +9728,10 @@
         <v>519</v>
       </c>
       <c r="E227" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F227" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G227" s="3">
         <v>45306.91820601852</v>
@@ -9737,7 +9740,7 @@
         <v>45315.82215277778</v>
       </c>
       <c r="I227" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -9754,10 +9757,10 @@
         <v>520</v>
       </c>
       <c r="E228" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F228" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G228" s="3">
         <v>45286.62017361111</v>
@@ -9766,7 +9769,7 @@
         <v>45315.78180555555</v>
       </c>
       <c r="I228" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -9783,10 +9786,10 @@
         <v>521</v>
       </c>
       <c r="E229" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F229" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G229" s="3">
         <v>45308.74159722222</v>
@@ -9795,7 +9798,7 @@
         <v>45315.82368055556</v>
       </c>
       <c r="I229" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -9815,7 +9818,7 @@
         <v>602</v>
       </c>
       <c r="F230" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G230" s="3">
         <v>45283.53591435185</v>
@@ -9824,7 +9827,7 @@
         <v>45315.82388888889</v>
       </c>
       <c r="I230" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -9841,10 +9844,10 @@
         <v>523</v>
       </c>
       <c r="E231" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F231" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G231" s="3">
         <v>45279.15613425926</v>
@@ -9853,7 +9856,7 @@
         <v>45310.69137731481</v>
       </c>
       <c r="I231" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -9873,7 +9876,7 @@
         <v>608</v>
       </c>
       <c r="F232" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G232" s="3">
         <v>45302.49265046296</v>
@@ -9882,7 +9885,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I232" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -9899,10 +9902,10 @@
         <v>525</v>
       </c>
       <c r="E233" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F233" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G233" s="3">
         <v>45286.49104166667</v>
@@ -9911,7 +9914,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I233" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -9928,10 +9931,10 @@
         <v>526</v>
       </c>
       <c r="E234" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F234" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G234" s="3">
         <v>45313.42326388889</v>
@@ -9940,7 +9943,7 @@
         <v>45314.18550925926</v>
       </c>
       <c r="I234" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -9960,7 +9963,7 @@
         <v>604</v>
       </c>
       <c r="F235" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G235" s="3">
         <v>44288.33525462963</v>
@@ -9969,7 +9972,7 @@
         <v>44288.33525462963</v>
       </c>
       <c r="I235" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -9986,10 +9989,10 @@
         <v>528</v>
       </c>
       <c r="E236" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F236" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G236" s="3">
         <v>45287.22329861111</v>
@@ -9998,7 +10001,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I236" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -10015,10 +10018,10 @@
         <v>529</v>
       </c>
       <c r="E237" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F237" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G237" s="3">
         <v>45311.90133101852</v>
@@ -10027,7 +10030,7 @@
         <v>45315.82358796296</v>
       </c>
       <c r="I237" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -10047,7 +10050,7 @@
         <v>595</v>
       </c>
       <c r="F238" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G238" s="3">
         <v>45298.44405092593</v>
@@ -10056,7 +10059,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I238" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -10076,7 +10079,7 @@
         <v>603</v>
       </c>
       <c r="F239" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G239" s="3">
         <v>45297.01849537037</v>
@@ -10085,7 +10088,7 @@
         <v>45314.90065972223</v>
       </c>
       <c r="I239" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -10102,10 +10105,10 @@
         <v>532</v>
       </c>
       <c r="E240" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F240" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G240" s="3">
         <v>45280.57440972222</v>
@@ -10114,7 +10117,7 @@
         <v>45309.03163194445</v>
       </c>
       <c r="I240" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -10134,7 +10137,7 @@
         <v>592</v>
       </c>
       <c r="F241" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G241" s="3">
         <v>45314.42252314815</v>
@@ -10143,7 +10146,7 @@
         <v>45315.82351851852</v>
       </c>
       <c r="I241" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -10163,7 +10166,7 @@
         <v>608</v>
       </c>
       <c r="F242" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G242" s="3">
         <v>45301.61993055556</v>
@@ -10172,7 +10175,7 @@
         <v>45314.018125</v>
       </c>
       <c r="I242" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -10189,10 +10192,10 @@
         <v>535</v>
       </c>
       <c r="E243" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F243" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G243" s="3">
         <v>45312.49469907407</v>
@@ -10201,7 +10204,7 @@
         <v>45315.78165509259</v>
       </c>
       <c r="I243" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -10218,10 +10221,10 @@
         <v>536</v>
       </c>
       <c r="E244" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F244" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G244" s="3">
         <v>45295.49803240741</v>
@@ -10230,7 +10233,7 @@
         <v>45315.8234837963</v>
       </c>
       <c r="I244" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -10247,10 +10250,10 @@
         <v>537</v>
       </c>
       <c r="E245" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F245" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G245" s="3">
         <v>45313.05956018518</v>
@@ -10259,7 +10262,7 @@
         <v>45315.82376157407</v>
       </c>
       <c r="I245" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -10276,10 +10279,10 @@
         <v>538</v>
       </c>
       <c r="E246" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F246" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G246" s="3">
         <v>45298.49199074074</v>
@@ -10288,7 +10291,7 @@
         <v>45315.82392361111</v>
       </c>
       <c r="I246" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -10308,7 +10311,7 @@
         <v>608</v>
       </c>
       <c r="F247" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G247" s="3">
         <v>45286.6203587963</v>
@@ -10317,7 +10320,7 @@
         <v>45315.82366898148</v>
       </c>
       <c r="I247" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -10334,10 +10337,10 @@
         <v>540</v>
       </c>
       <c r="E248" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F248" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G248" s="3">
         <v>45311.61991898148</v>
@@ -10346,7 +10349,7 @@
         <v>45315.02909722222</v>
       </c>
       <c r="I248" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -10363,10 +10366,10 @@
         <v>541</v>
       </c>
       <c r="E249" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F249" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G249" s="3">
         <v>45306.75461805556</v>
@@ -10375,7 +10378,7 @@
         <v>45315.04524305555</v>
       </c>
       <c r="I249" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -10392,10 +10395,10 @@
         <v>542</v>
       </c>
       <c r="E250" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F250" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G250" s="3">
         <v>45292.49578703703</v>
@@ -10404,7 +10407,7 @@
         <v>45315.4852662037</v>
       </c>
       <c r="I250" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -10421,10 +10424,10 @@
         <v>543</v>
       </c>
       <c r="E251" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F251" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G251" s="3">
         <v>45308.60100694445</v>
@@ -10433,7 +10436,7 @@
         <v>45314.49393518519</v>
       </c>
       <c r="I251" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -10450,10 +10453,10 @@
         <v>544</v>
       </c>
       <c r="E252" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F252" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G252" s="3">
         <v>45289.35146990741</v>
@@ -10462,7 +10465,7 @@
         <v>45314.49217592592</v>
       </c>
       <c r="I252" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -10479,10 +10482,10 @@
         <v>545</v>
       </c>
       <c r="E253" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F253" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G253" s="3">
         <v>45307.49243055555</v>
@@ -10491,7 +10494,7 @@
         <v>45314.49329861111</v>
       </c>
       <c r="I253" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -10508,10 +10511,10 @@
         <v>546</v>
       </c>
       <c r="E254" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F254" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G254" s="3">
         <v>45313.42297453704</v>
@@ -10520,7 +10523,7 @@
         <v>45313.42299768519</v>
       </c>
       <c r="I254" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -10540,7 +10543,7 @@
         <v>606</v>
       </c>
       <c r="F255" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G255" s="3">
         <v>45291.49054398148</v>
@@ -10549,7 +10552,7 @@
         <v>45314.94496527778</v>
       </c>
       <c r="I255" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -10566,10 +10569,10 @@
         <v>548</v>
       </c>
       <c r="E256" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F256" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G256" s="3">
         <v>45292.15671296296</v>
@@ -10578,7 +10581,7 @@
         <v>45312.75942129629</v>
       </c>
       <c r="I256" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -10595,10 +10598,10 @@
         <v>549</v>
       </c>
       <c r="E257" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F257" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G257" s="3">
         <v>45287.83861111111</v>
@@ -10607,7 +10610,7 @@
         <v>45316.03899305555</v>
       </c>
       <c r="I257" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -10624,10 +10627,10 @@
         <v>550</v>
       </c>
       <c r="E258" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F258" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G258" s="3">
         <v>45293.04358796297</v>
@@ -10636,7 +10639,7 @@
         <v>45315.8656712963</v>
       </c>
       <c r="I258" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -10656,7 +10659,7 @@
         <v>599</v>
       </c>
       <c r="F259" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G259" s="3">
         <v>45307.49564814815</v>
@@ -10665,7 +10668,7 @@
         <v>45315.9937037037</v>
       </c>
       <c r="I259" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -10685,7 +10688,7 @@
         <v>595</v>
       </c>
       <c r="F260" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G260" s="3">
         <v>45314.90094907407</v>
@@ -10694,7 +10697,7 @@
         <v>45315.89604166667</v>
       </c>
       <c r="I260" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -10714,7 +10717,7 @@
         <v>600</v>
       </c>
       <c r="F261" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G261" s="3">
         <v>45294.84780092593</v>
@@ -10723,7 +10726,7 @@
         <v>45316.03907407408</v>
       </c>
       <c r="I261" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -10740,10 +10743,10 @@
         <v>554</v>
       </c>
       <c r="E262" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F262" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G262" s="3">
         <v>45296.61121527778</v>
@@ -10752,7 +10755,7 @@
         <v>45316.03895833333</v>
       </c>
       <c r="I262" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -10772,7 +10775,7 @@
         <v>617</v>
       </c>
       <c r="F263" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G263" s="3">
         <v>45311.62060185185</v>
@@ -10781,7 +10784,7 @@
         <v>45316.03954861111</v>
       </c>
       <c r="I263" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -10801,7 +10804,7 @@
         <v>603</v>
       </c>
       <c r="F264" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G264" s="3">
         <v>45301.61861111111</v>
@@ -10810,7 +10813,7 @@
         <v>45316.08056712963</v>
       </c>
       <c r="I264" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -10830,7 +10833,7 @@
         <v>603</v>
       </c>
       <c r="F265" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G265" s="3">
         <v>45286.49385416666</v>
@@ -10839,7 +10842,7 @@
         <v>45316.03959490741</v>
       </c>
       <c r="I265" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -10856,10 +10859,10 @@
         <v>558</v>
       </c>
       <c r="E266" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F266" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G266" s="3">
         <v>45311.71087962963</v>
@@ -10868,7 +10871,7 @@
         <v>45314.67140046296</v>
       </c>
       <c r="I266" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -10885,10 +10888,10 @@
         <v>559</v>
       </c>
       <c r="E267" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F267" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G267" s="3">
         <v>45288.63045138889</v>
@@ -10897,7 +10900,7 @@
         <v>45316.03887731482</v>
       </c>
       <c r="I267" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -10914,10 +10917,10 @@
         <v>560</v>
       </c>
       <c r="E268" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F268" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G268" s="3">
         <v>45280.82067129629</v>
@@ -10926,7 +10929,7 @@
         <v>45316.03997685185</v>
       </c>
       <c r="I268" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -10943,10 +10946,10 @@
         <v>561</v>
       </c>
       <c r="E269" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F269" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G269" s="3">
         <v>45296.62119212963</v>
@@ -10955,7 +10958,7 @@
         <v>45316.08042824074</v>
       </c>
       <c r="I269" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -10975,7 +10978,7 @@
         <v>595</v>
       </c>
       <c r="F270" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G270" s="3">
         <v>45300.48923611111</v>
@@ -10984,7 +10987,7 @@
         <v>45316.08054398148</v>
       </c>
       <c r="I270" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -11001,10 +11004,10 @@
         <v>563</v>
       </c>
       <c r="E271" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F271" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G271" s="3">
         <v>45314.49359953704</v>
@@ -11013,7 +11016,7 @@
         <v>45314.66849537037</v>
       </c>
       <c r="I271" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -11030,10 +11033,10 @@
         <v>564</v>
       </c>
       <c r="E272" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F272" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G272" s="3">
         <v>45312.50121527778</v>
@@ -11042,7 +11045,7 @@
         <v>45312.67422453704</v>
       </c>
       <c r="I272" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -11059,10 +11062,10 @@
         <v>565</v>
       </c>
       <c r="E273" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F273" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G273" s="3">
         <v>45261.49545138889</v>
@@ -11071,7 +11074,7 @@
         <v>45309.04300925926</v>
       </c>
       <c r="I273" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -11088,10 +11091,10 @@
         <v>566</v>
       </c>
       <c r="E274" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F274" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G274" s="3">
         <v>45291.49003472222</v>
@@ -11100,7 +11103,7 @@
         <v>45316.08077546296</v>
       </c>
       <c r="I274" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -11117,10 +11120,10 @@
         <v>567</v>
       </c>
       <c r="E275" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F275" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G275" s="3">
         <v>45280.21361111111</v>
@@ -11129,7 +11132,7 @@
         <v>45309.04177083333</v>
       </c>
       <c r="I275" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -11149,7 +11152,7 @@
         <v>601</v>
       </c>
       <c r="F276" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G276" s="3">
         <v>45314.56188657408</v>
@@ -11158,7 +11161,7 @@
         <v>45315.48497685185</v>
       </c>
       <c r="I276" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -11178,7 +11181,7 @@
         <v>603</v>
       </c>
       <c r="F277" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G277" s="3">
         <v>45302.49186342592</v>
@@ -11187,7 +11190,7 @@
         <v>45316.08069444444</v>
       </c>
       <c r="I277" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -11204,10 +11207,10 @@
         <v>570</v>
       </c>
       <c r="E278" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F278" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G278" s="3">
         <v>45291.5000462963</v>
@@ -11216,7 +11219,7 @@
         <v>45314.49376157407</v>
       </c>
       <c r="I278" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -11233,10 +11236,10 @@
         <v>571</v>
       </c>
       <c r="E279" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F279" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G279" s="3">
         <v>45291.49392361111</v>
@@ -11245,7 +11248,7 @@
         <v>45314.49452546296</v>
       </c>
       <c r="I279" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -11265,7 +11268,7 @@
         <v>602</v>
       </c>
       <c r="F280" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G280" s="3">
         <v>45312.49576388889</v>
@@ -11274,7 +11277,7 @@
         <v>45316.03846064815</v>
       </c>
       <c r="I280" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -11291,10 +11294,10 @@
         <v>573</v>
       </c>
       <c r="E281" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F281" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G281" s="3">
         <v>45312.98068287037</v>
@@ -11303,7 +11306,7 @@
         <v>45316.08041666666</v>
       </c>
       <c r="I281" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -11320,10 +11323,10 @@
         <v>574</v>
       </c>
       <c r="E282" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F282" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G282" s="3">
         <v>45314.49623842593</v>
@@ -11332,7 +11335,7 @@
         <v>45316.08075231482</v>
       </c>
       <c r="I282" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -11352,7 +11355,7 @@
         <v>607</v>
       </c>
       <c r="F283" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G283" s="3">
         <v>45313.14449074074</v>
@@ -11361,7 +11364,7 @@
         <v>45316.08082175926</v>
       </c>
       <c r="I283" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -11378,10 +11381,10 @@
         <v>576</v>
       </c>
       <c r="E284" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F284" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G284" s="3">
         <v>45312.50119212963</v>
@@ -11390,7 +11393,7 @@
         <v>45316.08556712963</v>
       </c>
       <c r="I284" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -1789,46 +1789,46 @@
     <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
   </si>
   <si>
+    <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
+  </si>
+  <si>
     <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
   </si>
   <si>
     <t>{'harmless': 56, 'malicious': 11, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
@@ -3676,16 +3676,16 @@
         <v>310</v>
       </c>
       <c r="E18" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="F18" t="s">
         <v>721</v>
       </c>
       <c r="G18" s="3">
-        <v>45306.18137731482</v>
+        <v>45336.62003472223</v>
       </c>
       <c r="H18" s="3">
-        <v>45316.42100694445</v>
+        <v>45341.01741898148</v>
       </c>
       <c r="I18" t="s">
         <v>776</v>
@@ -3705,7 +3705,7 @@
         <v>311</v>
       </c>
       <c r="E19" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F19" t="s">
         <v>731</v>
@@ -3734,7 +3734,7 @@
         <v>312</v>
       </c>
       <c r="E20" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F20" t="s">
         <v>727</v>
@@ -3763,7 +3763,7 @@
         <v>313</v>
       </c>
       <c r="E21" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F21" t="s">
         <v>732</v>
@@ -3792,7 +3792,7 @@
         <v>314</v>
       </c>
       <c r="E22" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F22" t="s">
         <v>733</v>
@@ -3821,7 +3821,7 @@
         <v>315</v>
       </c>
       <c r="E23" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F23" t="s">
         <v>734</v>
@@ -3850,7 +3850,7 @@
         <v>316</v>
       </c>
       <c r="E24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F24" t="s">
         <v>727</v>
@@ -3879,7 +3879,7 @@
         <v>317</v>
       </c>
       <c r="E25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F25" t="s">
         <v>735</v>
@@ -3908,7 +3908,7 @@
         <v>318</v>
       </c>
       <c r="E26" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F26" t="s">
         <v>736</v>
@@ -3937,7 +3937,7 @@
         <v>319</v>
       </c>
       <c r="E27" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F27" t="s">
         <v>733</v>
@@ -3966,7 +3966,7 @@
         <v>320</v>
       </c>
       <c r="E28" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F28" t="s">
         <v>737</v>
@@ -3995,7 +3995,7 @@
         <v>321</v>
       </c>
       <c r="E29" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F29" t="s">
         <v>738</v>
@@ -4024,7 +4024,7 @@
         <v>322</v>
       </c>
       <c r="E30" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F30" t="s">
         <v>739</v>
@@ -4053,7 +4053,7 @@
         <v>323</v>
       </c>
       <c r="E31" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F31" t="s">
         <v>740</v>
@@ -4082,7 +4082,7 @@
         <v>324</v>
       </c>
       <c r="E32" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F32" t="s">
         <v>722</v>
@@ -4111,7 +4111,7 @@
         <v>325</v>
       </c>
       <c r="E33" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F33" t="s">
         <v>736</v>
@@ -4140,7 +4140,7 @@
         <v>326</v>
       </c>
       <c r="E34" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="F34" t="s">
         <v>738</v>
@@ -4256,7 +4256,7 @@
         <v>330</v>
       </c>
       <c r="E38" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F38" t="s">
         <v>743</v>
@@ -4430,7 +4430,7 @@
         <v>336</v>
       </c>
       <c r="E44" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F44" t="s">
         <v>726</v>
@@ -4459,7 +4459,7 @@
         <v>337</v>
       </c>
       <c r="E45" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F45" t="s">
         <v>721</v>
@@ -4633,7 +4633,7 @@
         <v>343</v>
       </c>
       <c r="E51" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F51" t="s">
         <v>732</v>
@@ -4662,7 +4662,7 @@
         <v>344</v>
       </c>
       <c r="E52" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F52" t="s">
         <v>732</v>
@@ -4807,7 +4807,7 @@
         <v>349</v>
       </c>
       <c r="E57" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F57" t="s">
         <v>748</v>
@@ -4865,7 +4865,7 @@
         <v>351</v>
       </c>
       <c r="E59" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F59" t="s">
         <v>721</v>
@@ -4981,7 +4981,7 @@
         <v>355</v>
       </c>
       <c r="E63" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F63" t="s">
         <v>750</v>
@@ -5155,7 +5155,7 @@
         <v>361</v>
       </c>
       <c r="E69" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F69" t="s">
         <v>734</v>
@@ -5329,7 +5329,7 @@
         <v>367</v>
       </c>
       <c r="E75" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F75" t="s">
         <v>724</v>
@@ -5384,7 +5384,7 @@
         <v>369</v>
       </c>
       <c r="E77" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F77" t="s">
         <v>734</v>
@@ -5587,7 +5587,7 @@
         <v>376</v>
       </c>
       <c r="E84" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F84" t="s">
         <v>732</v>
@@ -5790,7 +5790,7 @@
         <v>383</v>
       </c>
       <c r="E91" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F91" t="s">
         <v>732</v>
@@ -5819,7 +5819,7 @@
         <v>384</v>
       </c>
       <c r="E92" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F92" t="s">
         <v>721</v>
@@ -5877,7 +5877,7 @@
         <v>386</v>
       </c>
       <c r="E94" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F94" t="s">
         <v>721</v>
@@ -5935,7 +5935,7 @@
         <v>388</v>
       </c>
       <c r="E96" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F96" t="s">
         <v>740</v>
@@ -5993,7 +5993,7 @@
         <v>390</v>
       </c>
       <c r="E98" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F98" t="s">
         <v>755</v>
@@ -6138,7 +6138,7 @@
         <v>395</v>
       </c>
       <c r="E103" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F103" t="s">
         <v>726</v>
@@ -6370,7 +6370,7 @@
         <v>403</v>
       </c>
       <c r="E111" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F111" t="s">
         <v>721</v>
@@ -6428,7 +6428,7 @@
         <v>405</v>
       </c>
       <c r="E113" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F113" t="s">
         <v>721</v>
@@ -6631,7 +6631,7 @@
         <v>412</v>
       </c>
       <c r="E120" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F120" t="s">
         <v>721</v>
@@ -6892,7 +6892,7 @@
         <v>421</v>
       </c>
       <c r="E129" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F129" t="s">
         <v>727</v>
@@ -7124,7 +7124,7 @@
         <v>429</v>
       </c>
       <c r="E137" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F137" t="s">
         <v>722</v>
@@ -7153,7 +7153,7 @@
         <v>430</v>
       </c>
       <c r="E138" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F138" t="s">
         <v>759</v>
@@ -7269,7 +7269,7 @@
         <v>434</v>
       </c>
       <c r="E142" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F142" t="s">
         <v>732</v>
@@ -7324,7 +7324,7 @@
         <v>436</v>
       </c>
       <c r="E144" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F144" t="s">
         <v>727</v>
@@ -7614,7 +7614,7 @@
         <v>446</v>
       </c>
       <c r="E154" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F154" t="s">
         <v>736</v>
@@ -7701,7 +7701,7 @@
         <v>449</v>
       </c>
       <c r="E157" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F157" t="s">
         <v>759</v>
@@ -7846,7 +7846,7 @@
         <v>454</v>
       </c>
       <c r="E162" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F162" t="s">
         <v>727</v>
@@ -7988,7 +7988,7 @@
         <v>459</v>
       </c>
       <c r="E167" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F167" t="s">
         <v>732</v>
@@ -8133,7 +8133,7 @@
         <v>464</v>
       </c>
       <c r="E172" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F172" t="s">
         <v>750</v>
@@ -8162,7 +8162,7 @@
         <v>465</v>
       </c>
       <c r="E173" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F173" t="s">
         <v>721</v>
@@ -8191,7 +8191,7 @@
         <v>466</v>
       </c>
       <c r="E174" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F174" t="s">
         <v>732</v>
@@ -8278,7 +8278,7 @@
         <v>469</v>
       </c>
       <c r="E177" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F177" t="s">
         <v>727</v>
@@ -8684,7 +8684,7 @@
         <v>483</v>
       </c>
       <c r="E191" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F191" t="s">
         <v>730</v>
@@ -8974,7 +8974,7 @@
         <v>493</v>
       </c>
       <c r="E201" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F201" t="s">
         <v>734</v>
@@ -9119,7 +9119,7 @@
         <v>498</v>
       </c>
       <c r="E206" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F206" t="s">
         <v>753</v>
@@ -9815,7 +9815,7 @@
         <v>522</v>
       </c>
       <c r="E230" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F230" t="s">
         <v>761</v>
@@ -9960,7 +9960,7 @@
         <v>527</v>
       </c>
       <c r="E235" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F235" t="s">
         <v>732</v>
@@ -10047,7 +10047,7 @@
         <v>530</v>
       </c>
       <c r="E238" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F238" t="s">
         <v>734</v>
@@ -10076,7 +10076,7 @@
         <v>531</v>
       </c>
       <c r="E239" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F239" t="s">
         <v>768</v>
@@ -10134,7 +10134,7 @@
         <v>533</v>
       </c>
       <c r="E241" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F241" t="s">
         <v>732</v>
@@ -10656,7 +10656,7 @@
         <v>551</v>
       </c>
       <c r="E259" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F259" t="s">
         <v>732</v>
@@ -10685,7 +10685,7 @@
         <v>552</v>
       </c>
       <c r="E260" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F260" t="s">
         <v>771</v>
@@ -10714,7 +10714,7 @@
         <v>553</v>
       </c>
       <c r="E261" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F261" t="s">
         <v>733</v>
@@ -10801,7 +10801,7 @@
         <v>556</v>
       </c>
       <c r="E264" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F264" t="s">
         <v>726</v>
@@ -10830,7 +10830,7 @@
         <v>557</v>
       </c>
       <c r="E265" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F265" t="s">
         <v>730</v>
@@ -10975,7 +10975,7 @@
         <v>562</v>
       </c>
       <c r="E270" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F270" t="s">
         <v>721</v>
@@ -11149,7 +11149,7 @@
         <v>568</v>
       </c>
       <c r="E276" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F276" t="s">
         <v>767</v>
@@ -11178,7 +11178,7 @@
         <v>569</v>
       </c>
       <c r="E277" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F277" t="s">
         <v>747</v>
@@ -11265,7 +11265,7 @@
         <v>572</v>
       </c>
       <c r="E280" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F280" t="s">
         <v>737</v>

--- a/1.xlsx
+++ b/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="926">
   <si>
     <t>Sno</t>
   </si>
@@ -1789,367 +1789,370 @@
     <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
   </si>
   <si>
+    <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 23, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 7, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 9, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 10, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 52, 'malicious': 17, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 5, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 1, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 12, 'suspicious': 2, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 16, 'suspicious': 1, 'undetected': 19, 'harmless': 53, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 6, 'suspicious': 2, 'undetected': 20, 'harmless': 61, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 13, 'suspicious': 1, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 14, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 8, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 8, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 6, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 11, 'suspicious': 1, 'undetected': 23, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 8, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 0, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 1, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 9, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 1, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 4, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 5, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 3, 'suspicious': 0, 'undetected': 23, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 2, 'suspicious': 1, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 4, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 50, 'malicious': 18, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 65, 'malicious': 2, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 51, 'malicious': 18, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 16, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 12, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 52, 'malicious': 16, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 6, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 51, 'malicious': 18, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 12, 'suspicious': 0, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 4, 'suspicious': 2, 'undetected': 23, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 51, 'malicious': 18, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 5, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 15, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 16, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 15, 'suspicious': 2, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 3, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 4, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 3, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 2, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 8, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 4, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 4, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 4, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 13, 'suspicious': 4, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 10, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 16, 'suspicious': 3, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 4, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 4, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 5, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 3, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 3, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 52, 'malicious': 19, 'suspicious': 3, 'undetected': 15, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 4, 'suspicious': 1, 'undetected': 23, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 51, 'malicious': 16, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 6, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
     <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 7, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 9, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 10, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 52, 'malicious': 17, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 5, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 1, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 12, 'suspicious': 2, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 16, 'suspicious': 1, 'undetected': 19, 'harmless': 53, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 6, 'suspicious': 2, 'undetected': 20, 'harmless': 61, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 13, 'suspicious': 1, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 14, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 8, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 8, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 6, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 11, 'suspicious': 1, 'undetected': 23, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 8, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 0, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 1, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 9, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 1, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 4, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 5, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 3, 'suspicious': 0, 'undetected': 23, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 2, 'suspicious': 1, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 4, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 50, 'malicious': 18, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 65, 'malicious': 2, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 51, 'malicious': 18, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 16, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 12, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 52, 'malicious': 16, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 6, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 51, 'malicious': 18, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 12, 'suspicious': 0, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 4, 'suspicious': 2, 'undetected': 23, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 51, 'malicious': 18, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 5, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 15, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 16, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 15, 'suspicious': 2, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 3, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 4, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 3, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 2, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 8, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 4, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 4, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 4, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 13, 'suspicious': 4, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 10, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 16, 'suspicious': 3, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 4, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 4, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 5, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 3, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 3, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 52, 'malicious': 19, 'suspicious': 3, 'undetected': 15, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 4, 'suspicious': 1, 'undetected': 23, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 51, 'malicious': 16, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 6, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
   </si>
   <si>
     <t>{'harmless': 58, 'malicious': 10, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
@@ -3215,7 +3218,7 @@
         <v>577</v>
       </c>
       <c r="F2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G2" s="3">
         <v>45311.61894675926</v>
@@ -3224,7 +3227,7 @@
         <v>45341.32113425926</v>
       </c>
       <c r="I2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3244,7 +3247,7 @@
         <v>578</v>
       </c>
       <c r="F3" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G3" s="3">
         <v>45328.50989583333</v>
@@ -3253,7 +3256,7 @@
         <v>45341.27945601852</v>
       </c>
       <c r="I3" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3273,7 +3276,7 @@
         <v>578</v>
       </c>
       <c r="F4" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G4" s="3">
         <v>45306.97109953704</v>
@@ -3282,7 +3285,7 @@
         <v>45341.06746527777</v>
       </c>
       <c r="I4" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3302,7 +3305,7 @@
         <v>578</v>
       </c>
       <c r="F5" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G5" s="3">
         <v>45328.57457175926</v>
@@ -3311,7 +3314,7 @@
         <v>45341.27858796297</v>
       </c>
       <c r="I5" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3331,7 +3334,7 @@
         <v>579</v>
       </c>
       <c r="F6" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G6" s="3">
         <v>45337.51012731482</v>
@@ -3340,7 +3343,7 @@
         <v>45341.27866898148</v>
       </c>
       <c r="I6" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3360,7 +3363,7 @@
         <v>580</v>
       </c>
       <c r="F7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G7" s="3">
         <v>45329.3558912037</v>
@@ -3369,7 +3372,7 @@
         <v>45341.32061342592</v>
       </c>
       <c r="I7" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3389,7 +3392,7 @@
         <v>581</v>
       </c>
       <c r="F8" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G8" s="3">
         <v>45337.50997685185</v>
@@ -3398,7 +3401,7 @@
         <v>45341.10480324074</v>
       </c>
       <c r="I8" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3418,7 +3421,7 @@
         <v>582</v>
       </c>
       <c r="F9" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G9" s="3">
         <v>45308.21690972222</v>
@@ -3427,7 +3430,7 @@
         <v>45341.10543981481</v>
       </c>
       <c r="I9" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3447,7 +3450,7 @@
         <v>583</v>
       </c>
       <c r="F10" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G10" s="3">
         <v>45329.50237268519</v>
@@ -3456,7 +3459,7 @@
         <v>45341.04172453703</v>
       </c>
       <c r="I10" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3476,7 +3479,7 @@
         <v>584</v>
       </c>
       <c r="F11" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G11" s="3">
         <v>45316.49925925926</v>
@@ -3485,7 +3488,7 @@
         <v>45341.10148148148</v>
       </c>
       <c r="I11" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3505,7 +3508,7 @@
         <v>585</v>
       </c>
       <c r="F12" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G12" s="3">
         <v>45329.01333333334</v>
@@ -3514,7 +3517,7 @@
         <v>45341.36274305556</v>
       </c>
       <c r="I12" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3534,7 +3537,7 @@
         <v>586</v>
       </c>
       <c r="F13" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G13" s="3">
         <v>45320.50914351852</v>
@@ -3543,7 +3546,7 @@
         <v>45341.02841435185</v>
       </c>
       <c r="I13" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3563,7 +3566,7 @@
         <v>587</v>
       </c>
       <c r="F14" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G14" s="3">
         <v>45329.05806712963</v>
@@ -3572,7 +3575,7 @@
         <v>45341.07314814815</v>
       </c>
       <c r="I14" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3592,7 +3595,7 @@
         <v>588</v>
       </c>
       <c r="F15" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G15" s="3">
         <v>45341.23758101852</v>
@@ -3601,7 +3604,7 @@
         <v>45341.23922453704</v>
       </c>
       <c r="I15" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3621,7 +3624,7 @@
         <v>589</v>
       </c>
       <c r="F16" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G16" s="3">
         <v>45311.33236111111</v>
@@ -3630,7 +3633,7 @@
         <v>45341.09497685185</v>
       </c>
       <c r="I16" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3650,7 +3653,7 @@
         <v>590</v>
       </c>
       <c r="F17" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G17" s="3">
         <v>45331.50390046297</v>
@@ -3659,7 +3662,7 @@
         <v>45341.03533564815</v>
       </c>
       <c r="I17" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3679,7 +3682,7 @@
         <v>578</v>
       </c>
       <c r="F18" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G18" s="3">
         <v>45336.62003472223</v>
@@ -3688,7 +3691,7 @@
         <v>45341.01741898148</v>
       </c>
       <c r="I18" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3708,7 +3711,7 @@
         <v>591</v>
       </c>
       <c r="F19" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G19" s="3">
         <v>45288.23121527778</v>
@@ -3717,7 +3720,7 @@
         <v>45302.48868055556</v>
       </c>
       <c r="I19" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3737,7 +3740,7 @@
         <v>592</v>
       </c>
       <c r="F20" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G20" s="3">
         <v>45307.52993055555</v>
@@ -3746,7 +3749,7 @@
         <v>45314.19462962963</v>
       </c>
       <c r="I20" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3766,7 +3769,7 @@
         <v>593</v>
       </c>
       <c r="F21" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G21" s="3">
         <v>45314.42365740741</v>
@@ -3775,7 +3778,7 @@
         <v>45314.42368055556</v>
       </c>
       <c r="I21" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3795,7 +3798,7 @@
         <v>594</v>
       </c>
       <c r="F22" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G22" s="3">
         <v>45305.57067129629</v>
@@ -3804,7 +3807,7 @@
         <v>45316.42155092592</v>
       </c>
       <c r="I22" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3824,7 +3827,7 @@
         <v>595</v>
       </c>
       <c r="F23" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G23" s="3">
         <v>45291.49997685185</v>
@@ -3833,7 +3836,7 @@
         <v>45314.49226851852</v>
       </c>
       <c r="I23" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3853,7 +3856,7 @@
         <v>596</v>
       </c>
       <c r="F24" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G24" s="3">
         <v>45309.80174768518</v>
@@ -3862,7 +3865,7 @@
         <v>45315.85729166667</v>
       </c>
       <c r="I24" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3882,7 +3885,7 @@
         <v>597</v>
       </c>
       <c r="F25" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G25" s="3">
         <v>45299.43368055556</v>
@@ -3891,7 +3894,7 @@
         <v>45316.37909722222</v>
       </c>
       <c r="I25" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3911,7 +3914,7 @@
         <v>598</v>
       </c>
       <c r="F26" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G26" s="3">
         <v>45314.17763888889</v>
@@ -3920,7 +3923,7 @@
         <v>45316.08064814815</v>
       </c>
       <c r="I26" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3940,7 +3943,7 @@
         <v>599</v>
       </c>
       <c r="F27" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G27" s="3">
         <v>45291.49208333333</v>
@@ -3949,7 +3952,7 @@
         <v>45316.34907407407</v>
       </c>
       <c r="I27" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3969,7 +3972,7 @@
         <v>600</v>
       </c>
       <c r="F28" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G28" s="3">
         <v>45289.73149305556</v>
@@ -3978,7 +3981,7 @@
         <v>45316.37931712963</v>
       </c>
       <c r="I28" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3998,7 +4001,7 @@
         <v>601</v>
       </c>
       <c r="F29" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G29" s="3">
         <v>45312.4952662037</v>
@@ -4007,7 +4010,7 @@
         <v>45315.52618055556</v>
       </c>
       <c r="I29" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4027,7 +4030,7 @@
         <v>602</v>
       </c>
       <c r="F30" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G30" s="3">
         <v>45307.49253472222</v>
@@ -4036,7 +4039,7 @@
         <v>45316.3793287037</v>
       </c>
       <c r="I30" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4056,7 +4059,7 @@
         <v>598</v>
       </c>
       <c r="F31" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G31" s="3">
         <v>45311.71104166667</v>
@@ -4065,7 +4068,7 @@
         <v>45316.37922453704</v>
       </c>
       <c r="I31" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4085,7 +4088,7 @@
         <v>598</v>
       </c>
       <c r="F32" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G32" s="3">
         <v>45312.34644675926</v>
@@ -4094,7 +4097,7 @@
         <v>45316.37908564815</v>
       </c>
       <c r="I32" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4114,7 +4117,7 @@
         <v>603</v>
       </c>
       <c r="F33" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G33" s="3">
         <v>44163.34006944444</v>
@@ -4123,7 +4126,7 @@
         <v>44163.34006944444</v>
       </c>
       <c r="I33" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4143,7 +4146,7 @@
         <v>604</v>
       </c>
       <c r="F34" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G34" s="3">
         <v>45286.80534722222</v>
@@ -4152,7 +4155,7 @@
         <v>45316.37934027778</v>
       </c>
       <c r="I34" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4172,7 +4175,7 @@
         <v>605</v>
       </c>
       <c r="F35" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G35" s="3">
         <v>45302.49230324074</v>
@@ -4181,7 +4184,7 @@
         <v>45314.98761574074</v>
       </c>
       <c r="I35" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4201,7 +4204,7 @@
         <v>606</v>
       </c>
       <c r="F36" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G36" s="3">
         <v>45302.49503472223</v>
@@ -4210,7 +4213,7 @@
         <v>45315.48547453704</v>
       </c>
       <c r="I36" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4230,7 +4233,7 @@
         <v>607</v>
       </c>
       <c r="F37" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G37" s="3">
         <v>45311.61938657407</v>
@@ -4239,7 +4242,7 @@
         <v>45316.42167824074</v>
       </c>
       <c r="I37" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4259,7 +4262,7 @@
         <v>602</v>
       </c>
       <c r="F38" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G38" s="3">
         <v>45297.0796412037</v>
@@ -4268,7 +4271,7 @@
         <v>45316.49811342593</v>
       </c>
       <c r="I38" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4288,7 +4291,7 @@
         <v>608</v>
       </c>
       <c r="F39" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G39" s="3">
         <v>45290.31696759259</v>
@@ -4297,7 +4300,7 @@
         <v>45316.49866898148</v>
       </c>
       <c r="I39" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4317,7 +4320,7 @@
         <v>609</v>
       </c>
       <c r="F40" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G40" s="3">
         <v>45313.59486111111</v>
@@ -4326,7 +4329,7 @@
         <v>45316.49662037037</v>
       </c>
       <c r="I40" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4346,7 +4349,7 @@
         <v>610</v>
       </c>
       <c r="F41" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G41" s="3">
         <v>45295.49177083333</v>
@@ -4355,7 +4358,7 @@
         <v>45316.49807870371</v>
       </c>
       <c r="I41" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4375,7 +4378,7 @@
         <v>611</v>
       </c>
       <c r="F42" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G42" s="3">
         <v>45311.92179398148</v>
@@ -4384,7 +4387,7 @@
         <v>45316.4971875</v>
       </c>
       <c r="I42" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4404,7 +4407,7 @@
         <v>610</v>
       </c>
       <c r="F43" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G43" s="3">
         <v>45296.05393518518</v>
@@ -4413,7 +4416,7 @@
         <v>45316.50489583334</v>
       </c>
       <c r="I43" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4433,7 +4436,7 @@
         <v>598</v>
       </c>
       <c r="F44" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G44" s="3">
         <v>45313.11333333333</v>
@@ -4442,7 +4445,7 @@
         <v>45316.49230324074</v>
       </c>
       <c r="I44" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4462,7 +4465,7 @@
         <v>601</v>
       </c>
       <c r="F45" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G45" s="3">
         <v>45306.61894675926</v>
@@ -4471,7 +4474,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I45" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4491,7 +4494,7 @@
         <v>612</v>
       </c>
       <c r="F46" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G46" s="3">
         <v>45312.49850694444</v>
@@ -4500,7 +4503,7 @@
         <v>45316.49799768518</v>
       </c>
       <c r="I46" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4520,7 +4523,7 @@
         <v>613</v>
       </c>
       <c r="F47" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G47" s="3">
         <v>45262.49515046296</v>
@@ -4529,7 +4532,7 @@
         <v>45309.07923611111</v>
       </c>
       <c r="I47" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4549,7 +4552,7 @@
         <v>608</v>
       </c>
       <c r="F48" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G48" s="3">
         <v>45298.49847222222</v>
@@ -4558,7 +4561,7 @@
         <v>45316.49944444445</v>
       </c>
       <c r="I48" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4578,7 +4581,7 @@
         <v>614</v>
       </c>
       <c r="F49" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G49" s="3">
         <v>45311.61908564815</v>
@@ -4587,7 +4590,7 @@
         <v>45316.49847222222</v>
       </c>
       <c r="I49" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4607,7 +4610,7 @@
         <v>615</v>
       </c>
       <c r="F50" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G50" s="3">
         <v>45311.61989583333</v>
@@ -4616,7 +4619,7 @@
         <v>45316.50482638889</v>
       </c>
       <c r="I50" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4636,7 +4639,7 @@
         <v>602</v>
       </c>
       <c r="F51" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G51" s="3">
         <v>45316.50053240741</v>
@@ -4645,7 +4648,7 @@
         <v>45316.50232638889</v>
       </c>
       <c r="I51" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4665,7 +4668,7 @@
         <v>593</v>
       </c>
       <c r="F52" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G52" s="3">
         <v>45313.05881944444</v>
@@ -4674,7 +4677,7 @@
         <v>45314.42322916666</v>
       </c>
       <c r="I52" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4694,7 +4697,7 @@
         <v>616</v>
       </c>
       <c r="F53" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G53" s="3">
         <v>45316.5015162037</v>
@@ -4703,7 +4706,7 @@
         <v>45316.50331018519</v>
       </c>
       <c r="I53" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4723,7 +4726,7 @@
         <v>617</v>
       </c>
       <c r="F54" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G54" s="3">
         <v>45291.62113425926</v>
@@ -4732,7 +4735,7 @@
         <v>45316.49827546296</v>
       </c>
       <c r="I54" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4752,7 +4755,7 @@
         <v>618</v>
       </c>
       <c r="F55" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G55" s="3">
         <v>45287.49758101852</v>
@@ -4761,7 +4764,7 @@
         <v>45316.50458333334</v>
       </c>
       <c r="I55" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4781,7 +4784,7 @@
         <v>619</v>
       </c>
       <c r="F56" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G56" s="3">
         <v>45280.75131944445</v>
@@ -4790,7 +4793,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I56" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4810,7 +4813,7 @@
         <v>601</v>
       </c>
       <c r="F57" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G57" s="3">
         <v>45291.49048611111</v>
@@ -4819,7 +4822,7 @@
         <v>45316.50336805556</v>
       </c>
       <c r="I57" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4839,7 +4842,7 @@
         <v>620</v>
       </c>
       <c r="F58" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G58" s="3">
         <v>45310.86956018519</v>
@@ -4848,7 +4851,7 @@
         <v>45314.48899305556</v>
       </c>
       <c r="I58" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4868,7 +4871,7 @@
         <v>594</v>
       </c>
       <c r="F59" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G59" s="3">
         <v>45311.61930555556</v>
@@ -4877,7 +4880,7 @@
         <v>45316.49861111111</v>
       </c>
       <c r="I59" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4897,7 +4900,7 @@
         <v>621</v>
       </c>
       <c r="F60" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G60" s="3">
         <v>45313.76346064815</v>
@@ -4906,7 +4909,7 @@
         <v>45316.49800925926</v>
       </c>
       <c r="I60" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4926,7 +4929,7 @@
         <v>622</v>
       </c>
       <c r="F61" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G61" s="3">
         <v>45278.11224537037</v>
@@ -4935,7 +4938,7 @@
         <v>45302.49298611111</v>
       </c>
       <c r="I61" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4955,7 +4958,7 @@
         <v>610</v>
       </c>
       <c r="F62" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G62" s="3">
         <v>45278.21631944444</v>
@@ -4964,7 +4967,7 @@
         <v>45316.50450231481</v>
       </c>
       <c r="I62" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4984,7 +4987,7 @@
         <v>603</v>
       </c>
       <c r="F63" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G63" s="3">
         <v>45163.2121412037</v>
@@ -4993,7 +4996,7 @@
         <v>45163.2121412037</v>
       </c>
       <c r="I63" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -5013,7 +5016,7 @@
         <v>606</v>
       </c>
       <c r="F64" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G64" s="3">
         <v>45316.49957175926</v>
@@ -5022,7 +5025,7 @@
         <v>45316.50452546297</v>
       </c>
       <c r="I64" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -5042,7 +5045,7 @@
         <v>623</v>
       </c>
       <c r="F65" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G65" s="3">
         <v>45297.49180555555</v>
@@ -5051,7 +5054,7 @@
         <v>45316.50127314815</v>
       </c>
       <c r="I65" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -5071,7 +5074,7 @@
         <v>624</v>
       </c>
       <c r="F66" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G66" s="3">
         <v>45297.09299768518</v>
@@ -5080,7 +5083,7 @@
         <v>45316.5039699074</v>
       </c>
       <c r="I66" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -5100,7 +5103,7 @@
         <v>625</v>
       </c>
       <c r="F67" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G67" s="3">
         <v>45316.50059027778</v>
@@ -5109,7 +5112,7 @@
         <v>45316.50255787037</v>
       </c>
       <c r="I67" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -5129,7 +5132,7 @@
         <v>626</v>
       </c>
       <c r="F68" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G68" s="3">
         <v>45313.63670138889</v>
@@ -5138,7 +5141,7 @@
         <v>45315.90416666667</v>
       </c>
       <c r="I68" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -5158,7 +5161,7 @@
         <v>594</v>
       </c>
       <c r="F69" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G69" s="3">
         <v>45304.51188657407</v>
@@ -5167,7 +5170,7 @@
         <v>45315.56863425926</v>
       </c>
       <c r="I69" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -5187,7 +5190,7 @@
         <v>627</v>
       </c>
       <c r="F70" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G70" s="3">
         <v>45291.49329861111</v>
@@ -5196,7 +5199,7 @@
         <v>45312.93239583333</v>
       </c>
       <c r="I70" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -5216,7 +5219,7 @@
         <v>628</v>
       </c>
       <c r="F71" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G71" s="3">
         <v>45300.57674768518</v>
@@ -5225,7 +5228,7 @@
         <v>45315.52626157407</v>
       </c>
       <c r="I71" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -5245,7 +5248,7 @@
         <v>629</v>
       </c>
       <c r="F72" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G72" s="3">
         <v>45310.40046296296</v>
@@ -5254,7 +5257,7 @@
         <v>45312.49293981482</v>
       </c>
       <c r="I72" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5274,7 +5277,7 @@
         <v>629</v>
       </c>
       <c r="F73" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G73" s="3">
         <v>45291.49876157408</v>
@@ -5283,7 +5286,7 @@
         <v>45314.49362268519</v>
       </c>
       <c r="I73" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5303,7 +5306,7 @@
         <v>630</v>
       </c>
       <c r="F74" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G74" s="3">
         <v>45292.49576388889</v>
@@ -5312,7 +5315,7 @@
         <v>45314.64596064815</v>
       </c>
       <c r="I74" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5332,13 +5335,13 @@
         <v>603</v>
       </c>
       <c r="F75" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H75" s="3">
         <v>45047.30018518519</v>
       </c>
       <c r="I75" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -5358,7 +5361,7 @@
         <v>631</v>
       </c>
       <c r="F76" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G76" s="3">
         <v>45291.49430555556</v>
@@ -5367,7 +5370,7 @@
         <v>45316.16467592592</v>
       </c>
       <c r="I76" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5387,7 +5390,7 @@
         <v>598</v>
       </c>
       <c r="F77" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G77" s="3">
         <v>45283.62505787037</v>
@@ -5396,7 +5399,7 @@
         <v>45309.04886574074</v>
       </c>
       <c r="I77" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5416,7 +5419,7 @@
         <v>621</v>
       </c>
       <c r="F78" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G78" s="3">
         <v>45262.59487268519</v>
@@ -5425,7 +5428,7 @@
         <v>45309.01453703704</v>
       </c>
       <c r="I78" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -5445,7 +5448,7 @@
         <v>632</v>
       </c>
       <c r="F79" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G79" s="3">
         <v>45312.49354166666</v>
@@ -5454,7 +5457,7 @@
         <v>45316.164375</v>
       </c>
       <c r="I79" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -5474,7 +5477,7 @@
         <v>620</v>
       </c>
       <c r="F80" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G80" s="3">
         <v>45312.7619675926</v>
@@ -5483,7 +5486,7 @@
         <v>45315.65320601852</v>
       </c>
       <c r="I80" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5503,7 +5506,7 @@
         <v>608</v>
       </c>
       <c r="F81" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G81" s="3">
         <v>45310.90116898148</v>
@@ -5512,7 +5515,7 @@
         <v>45316.2090625</v>
       </c>
       <c r="I81" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5532,7 +5535,7 @@
         <v>633</v>
       </c>
       <c r="F82" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G82" s="3">
         <v>45315.1578125</v>
@@ -5541,7 +5544,7 @@
         <v>45316.16471064815</v>
       </c>
       <c r="I82" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -5561,7 +5564,7 @@
         <v>634</v>
       </c>
       <c r="F83" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G83" s="3">
         <v>45287.44400462963</v>
@@ -5570,7 +5573,7 @@
         <v>45314.49243055555</v>
       </c>
       <c r="I83" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -5590,7 +5593,7 @@
         <v>593</v>
       </c>
       <c r="F84" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G84" s="3">
         <v>45309.58261574074</v>
@@ -5599,7 +5602,7 @@
         <v>45314.42337962963</v>
       </c>
       <c r="I84" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -5619,7 +5622,7 @@
         <v>622</v>
       </c>
       <c r="F85" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G85" s="3">
         <v>45280.04030092592</v>
@@ -5628,7 +5631,7 @@
         <v>45309.01909722222</v>
       </c>
       <c r="I85" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -5648,7 +5651,7 @@
         <v>635</v>
       </c>
       <c r="F86" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G86" s="3">
         <v>45302.49703703704</v>
@@ -5657,7 +5660,7 @@
         <v>45316.20864583334</v>
       </c>
       <c r="I86" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -5677,7 +5680,7 @@
         <v>636</v>
       </c>
       <c r="F87" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G87" s="3">
         <v>45313.29277777778</v>
@@ -5686,7 +5689,7 @@
         <v>45315.23820601852</v>
       </c>
       <c r="I87" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5706,7 +5709,7 @@
         <v>637</v>
       </c>
       <c r="F88" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G88" s="3">
         <v>45286.50180555556</v>
@@ -5715,7 +5718,7 @@
         <v>45312.67471064815</v>
       </c>
       <c r="I88" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5735,7 +5738,7 @@
         <v>638</v>
       </c>
       <c r="F89" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G89" s="3">
         <v>45311.42429398148</v>
@@ -5744,7 +5747,7 @@
         <v>45314.89614583334</v>
       </c>
       <c r="I89" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -5764,7 +5767,7 @@
         <v>639</v>
       </c>
       <c r="F90" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G90" s="3">
         <v>45306.6199537037</v>
@@ -5773,7 +5776,7 @@
         <v>45314.49379629629</v>
       </c>
       <c r="I90" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -5793,7 +5796,7 @@
         <v>593</v>
       </c>
       <c r="F91" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G91" s="3">
         <v>45315.42351851852</v>
@@ -5802,7 +5805,7 @@
         <v>45315.42354166666</v>
       </c>
       <c r="I91" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5822,7 +5825,7 @@
         <v>602</v>
       </c>
       <c r="F92" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G92" s="3">
         <v>45287.95120370371</v>
@@ -5831,7 +5834,7 @@
         <v>45315.61121527778</v>
       </c>
       <c r="I92" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -5851,7 +5854,7 @@
         <v>640</v>
       </c>
       <c r="F93" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G93" s="3">
         <v>45312.49561342593</v>
@@ -5860,7 +5863,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I93" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5880,7 +5883,7 @@
         <v>594</v>
       </c>
       <c r="F94" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G94" s="3">
         <v>45291.62100694444</v>
@@ -5889,7 +5892,7 @@
         <v>45314.49383101852</v>
       </c>
       <c r="I94" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5909,7 +5912,7 @@
         <v>641</v>
       </c>
       <c r="F95" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G95" s="3">
         <v>44926.35877314815</v>
@@ -5918,7 +5921,7 @@
         <v>44926.35877314815</v>
       </c>
       <c r="I95" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5938,7 +5941,7 @@
         <v>594</v>
       </c>
       <c r="F96" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G96" s="3">
         <v>45297.49363425926</v>
@@ -5947,7 +5950,7 @@
         <v>45311.89606481481</v>
       </c>
       <c r="I96" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5967,7 +5970,7 @@
         <v>614</v>
       </c>
       <c r="F97" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G97" s="3">
         <v>45314.49303240741</v>
@@ -5976,7 +5979,7 @@
         <v>45315.65373842593</v>
       </c>
       <c r="I97" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5996,7 +5999,7 @@
         <v>603</v>
       </c>
       <c r="F98" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G98" s="3">
         <v>45313.05805555556</v>
@@ -6005,7 +6008,7 @@
         <v>45313.05806712963</v>
       </c>
       <c r="I98" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -6025,7 +6028,7 @@
         <v>621</v>
       </c>
       <c r="F99" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G99" s="3">
         <v>45307.38726851852</v>
@@ -6034,7 +6037,7 @@
         <v>45314.85255787037</v>
       </c>
       <c r="I99" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -6054,7 +6057,7 @@
         <v>642</v>
       </c>
       <c r="F100" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G100" s="3">
         <v>45293.03614583334</v>
@@ -6063,7 +6066,7 @@
         <v>45293.0361574074</v>
       </c>
       <c r="I100" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6083,7 +6086,7 @@
         <v>643</v>
       </c>
       <c r="F101" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G101" s="3">
         <v>45314.50199074074</v>
@@ -6092,7 +6095,7 @@
         <v>45315.65385416667</v>
       </c>
       <c r="I101" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -6112,7 +6115,7 @@
         <v>644</v>
       </c>
       <c r="F102" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G102" s="3">
         <v>45307.37951388889</v>
@@ -6121,7 +6124,7 @@
         <v>45315.36158564815</v>
       </c>
       <c r="I102" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -6141,7 +6144,7 @@
         <v>603</v>
       </c>
       <c r="F103" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G103" s="3">
         <v>45307.00873842592</v>
@@ -6150,7 +6153,7 @@
         <v>45307.00875</v>
       </c>
       <c r="I103" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -6170,7 +6173,7 @@
         <v>645</v>
       </c>
       <c r="F104" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G104" s="3">
         <v>45315.42385416666</v>
@@ -6179,7 +6182,7 @@
         <v>45315.42386574074</v>
       </c>
       <c r="I104" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -6199,7 +6202,7 @@
         <v>646</v>
       </c>
       <c r="F105" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G105" s="3">
         <v>45291.49836805555</v>
@@ -6208,7 +6211,7 @@
         <v>45315.65422453704</v>
       </c>
       <c r="I105" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -6228,7 +6231,7 @@
         <v>647</v>
       </c>
       <c r="F106" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G106" s="3">
         <v>45280.57280092593</v>
@@ -6237,7 +6240,7 @@
         <v>45309.02465277778</v>
       </c>
       <c r="I106" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -6257,7 +6260,7 @@
         <v>639</v>
       </c>
       <c r="F107" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G107" s="3">
         <v>45302.49490740741</v>
@@ -6266,7 +6269,7 @@
         <v>45312.88666666667</v>
       </c>
       <c r="I107" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -6286,7 +6289,7 @@
         <v>648</v>
       </c>
       <c r="F108" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G108" s="3">
         <v>45288.28815972222</v>
@@ -6295,7 +6298,7 @@
         <v>45315.60980324074</v>
       </c>
       <c r="I108" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -6315,7 +6318,7 @@
         <v>649</v>
       </c>
       <c r="F109" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G109" s="3">
         <v>45295.49231481482</v>
@@ -6324,7 +6327,7 @@
         <v>45315.61019675926</v>
       </c>
       <c r="I109" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -6344,7 +6347,7 @@
         <v>650</v>
       </c>
       <c r="F110" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G110" s="3">
         <v>45312.76140046296</v>
@@ -6353,7 +6356,7 @@
         <v>45314.69101851852</v>
       </c>
       <c r="I110" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -6373,7 +6376,7 @@
         <v>600</v>
       </c>
       <c r="F111" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G111" s="3">
         <v>45314.49325231482</v>
@@ -6382,7 +6385,7 @@
         <v>45315.61035879629</v>
       </c>
       <c r="I111" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -6402,7 +6405,7 @@
         <v>651</v>
       </c>
       <c r="F112" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G112" s="3">
         <v>45313.42341435186</v>
@@ -6411,7 +6414,7 @@
         <v>45314.19578703704</v>
       </c>
       <c r="I112" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6431,7 +6434,7 @@
         <v>602</v>
       </c>
       <c r="F113" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G113" s="3">
         <v>45292.49325231482</v>
@@ -6440,7 +6443,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I113" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -6460,7 +6463,7 @@
         <v>652</v>
       </c>
       <c r="F114" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G114" s="3">
         <v>45313.0588425926</v>
@@ -6469,7 +6472,7 @@
         <v>45314.42222222222</v>
       </c>
       <c r="I114" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -6489,7 +6492,7 @@
         <v>653</v>
       </c>
       <c r="F115" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G115" s="3">
         <v>45307.5822337963</v>
@@ -6498,7 +6501,7 @@
         <v>45314.77590277778</v>
       </c>
       <c r="I115" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -6518,7 +6521,7 @@
         <v>644</v>
       </c>
       <c r="F116" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G116" s="3">
         <v>45298.49490740741</v>
@@ -6527,7 +6530,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I116" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -6547,7 +6550,7 @@
         <v>654</v>
       </c>
       <c r="F117" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G117" s="3">
         <v>45300.43424768518</v>
@@ -6556,7 +6559,7 @@
         <v>45314.49525462963</v>
       </c>
       <c r="I117" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -6576,7 +6579,7 @@
         <v>655</v>
       </c>
       <c r="F118" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G118" s="3">
         <v>45287.49133101852</v>
@@ -6585,7 +6588,7 @@
         <v>45315.68306712963</v>
       </c>
       <c r="I118" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -6605,7 +6608,7 @@
         <v>648</v>
       </c>
       <c r="F119" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G119" s="3">
         <v>45315.24193287037</v>
@@ -6614,7 +6617,7 @@
         <v>45315.65413194444</v>
       </c>
       <c r="I119" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -6634,7 +6637,7 @@
         <v>602</v>
       </c>
       <c r="F120" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G120" s="3">
         <v>45296.62521990741</v>
@@ -6643,7 +6646,7 @@
         <v>45315.32032407408</v>
       </c>
       <c r="I120" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -6663,7 +6666,7 @@
         <v>656</v>
       </c>
       <c r="F121" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G121" s="3">
         <v>45293.4970949074</v>
@@ -6672,7 +6675,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I121" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -6692,7 +6695,7 @@
         <v>622</v>
       </c>
       <c r="F122" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G122" s="3">
         <v>45282.72908564815</v>
@@ -6701,7 +6704,7 @@
         <v>45282.72909722223</v>
       </c>
       <c r="I122" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -6721,7 +6724,7 @@
         <v>657</v>
       </c>
       <c r="F123" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G123" s="3">
         <v>45314.49591435185</v>
@@ -6730,7 +6733,7 @@
         <v>45315.69609953704</v>
       </c>
       <c r="I123" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -6750,7 +6753,7 @@
         <v>658</v>
       </c>
       <c r="F124" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G124" s="3">
         <v>45300.97112268519</v>
@@ -6759,7 +6762,7 @@
         <v>45315.69616898148</v>
       </c>
       <c r="I124" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -6779,7 +6782,7 @@
         <v>659</v>
       </c>
       <c r="F125" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G125" s="3">
         <v>45273.65564814815</v>
@@ -6788,7 +6791,7 @@
         <v>45303.42461805556</v>
       </c>
       <c r="I125" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -6808,7 +6811,7 @@
         <v>620</v>
       </c>
       <c r="F126" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G126" s="3">
         <v>45298.21359953703</v>
@@ -6817,7 +6820,7 @@
         <v>45314.49523148148</v>
       </c>
       <c r="I126" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -6837,7 +6840,7 @@
         <v>654</v>
       </c>
       <c r="F127" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G127" s="3">
         <v>45308.42383101852</v>
@@ -6846,7 +6849,7 @@
         <v>45314.49195601852</v>
       </c>
       <c r="I127" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -6866,7 +6869,7 @@
         <v>660</v>
       </c>
       <c r="F128" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G128" s="3">
         <v>45294.41019675926</v>
@@ -6875,7 +6878,7 @@
         <v>45315.69918981481</v>
       </c>
       <c r="I128" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -6895,7 +6898,7 @@
         <v>597</v>
       </c>
       <c r="F129" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G129" s="3">
         <v>45310.61224537037</v>
@@ -6904,7 +6907,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I129" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -6924,7 +6927,7 @@
         <v>631</v>
       </c>
       <c r="F130" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G130" s="3">
         <v>45304.64673611111</v>
@@ -6933,7 +6936,7 @@
         <v>45315.6959375</v>
       </c>
       <c r="I130" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -6953,7 +6956,7 @@
         <v>624</v>
       </c>
       <c r="F131" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G131" s="3">
         <v>45295.49403935186</v>
@@ -6962,7 +6965,7 @@
         <v>45315.69605324074</v>
       </c>
       <c r="I131" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -6982,7 +6985,7 @@
         <v>661</v>
       </c>
       <c r="F132" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G132" s="3">
         <v>45298.06329861111</v>
@@ -6991,7 +6994,7 @@
         <v>45314.49458333333</v>
       </c>
       <c r="I132" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -7011,7 +7014,7 @@
         <v>649</v>
       </c>
       <c r="F133" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G133" s="3">
         <v>45297.49041666667</v>
@@ -7020,7 +7023,7 @@
         <v>45315.70159722222</v>
       </c>
       <c r="I133" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -7040,7 +7043,7 @@
         <v>652</v>
       </c>
       <c r="F134" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G134" s="3">
         <v>45296.21274305556</v>
@@ -7049,7 +7052,7 @@
         <v>45309.05621527778</v>
       </c>
       <c r="I134" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -7069,7 +7072,7 @@
         <v>644</v>
       </c>
       <c r="F135" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G135" s="3">
         <v>45307.08791666666</v>
@@ -7078,7 +7081,7 @@
         <v>45315.65327546297</v>
       </c>
       <c r="I135" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -7098,7 +7101,7 @@
         <v>633</v>
       </c>
       <c r="F136" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G136" s="3">
         <v>45314.49842592593</v>
@@ -7107,7 +7110,7 @@
         <v>45314.67444444444</v>
       </c>
       <c r="I136" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -7127,7 +7130,7 @@
         <v>598</v>
       </c>
       <c r="F137" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G137" s="3">
         <v>45310.65872685185</v>
@@ -7136,7 +7139,7 @@
         <v>45314.49422453704</v>
       </c>
       <c r="I137" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -7156,7 +7159,7 @@
         <v>598</v>
       </c>
       <c r="F138" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G138" s="3">
         <v>45312.13112268518</v>
@@ -7165,7 +7168,7 @@
         <v>45315.6537962963</v>
       </c>
       <c r="I138" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -7185,7 +7188,7 @@
         <v>662</v>
       </c>
       <c r="F139" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G139" s="3">
         <v>45270.59310185185</v>
@@ -7194,7 +7197,7 @@
         <v>45309.07831018518</v>
       </c>
       <c r="I139" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -7214,7 +7217,7 @@
         <v>663</v>
       </c>
       <c r="F140" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G140" s="3">
         <v>45278.77987268518</v>
@@ -7223,7 +7226,7 @@
         <v>45314.6009837963</v>
       </c>
       <c r="I140" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -7243,7 +7246,7 @@
         <v>620</v>
       </c>
       <c r="F141" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G141" s="3">
         <v>45314.49572916667</v>
@@ -7252,7 +7255,7 @@
         <v>45314.67103009259</v>
       </c>
       <c r="I141" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -7272,13 +7275,13 @@
         <v>603</v>
       </c>
       <c r="F142" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H142" s="3">
         <v>43999.85027777778</v>
       </c>
       <c r="I142" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -7298,7 +7301,7 @@
         <v>664</v>
       </c>
       <c r="F143" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G143" s="3">
         <v>45309.54311342593</v>
@@ -7307,7 +7310,7 @@
         <v>45316.16458333333</v>
       </c>
       <c r="I143" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -7327,7 +7330,7 @@
         <v>603</v>
       </c>
       <c r="F144" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G144" s="3">
         <v>45306.51280092593</v>
@@ -7336,7 +7339,7 @@
         <v>45306.51280092593</v>
       </c>
       <c r="I144" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -7356,7 +7359,7 @@
         <v>625</v>
       </c>
       <c r="F145" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G145" s="3">
         <v>45314.49275462963</v>
@@ -7365,7 +7368,7 @@
         <v>45315.73717592593</v>
       </c>
       <c r="I145" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -7385,7 +7388,7 @@
         <v>609</v>
       </c>
       <c r="F146" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G146" s="3">
         <v>45308.77947916667</v>
@@ -7394,7 +7397,7 @@
         <v>45309.07209490741</v>
       </c>
       <c r="I146" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -7414,7 +7417,7 @@
         <v>626</v>
       </c>
       <c r="F147" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G147" s="3">
         <v>45307.50165509259</v>
@@ -7423,7 +7426,7 @@
         <v>45312.88640046296</v>
       </c>
       <c r="I147" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -7443,7 +7446,7 @@
         <v>625</v>
       </c>
       <c r="F148" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G148" s="3">
         <v>45294.12988425926</v>
@@ -7452,7 +7455,7 @@
         <v>45314.49341435185</v>
       </c>
       <c r="I148" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -7472,7 +7475,7 @@
         <v>647</v>
       </c>
       <c r="F149" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G149" s="3">
         <v>45296.33108796296</v>
@@ -7481,7 +7484,7 @@
         <v>45314.51508101852</v>
       </c>
       <c r="I149" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -7501,7 +7504,7 @@
         <v>665</v>
       </c>
       <c r="F150" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G150" s="3">
         <v>45295.49210648148</v>
@@ -7510,7 +7513,7 @@
         <v>45315.69587962963</v>
       </c>
       <c r="I150" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -7530,7 +7533,7 @@
         <v>648</v>
       </c>
       <c r="F151" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G151" s="3">
         <v>45314.49277777778</v>
@@ -7539,7 +7542,7 @@
         <v>45315.73741898148</v>
       </c>
       <c r="I151" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -7559,7 +7562,7 @@
         <v>666</v>
       </c>
       <c r="F152" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G152" s="3">
         <v>45308.74111111111</v>
@@ -7568,7 +7571,7 @@
         <v>45310.69127314815</v>
       </c>
       <c r="I152" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -7588,7 +7591,7 @@
         <v>667</v>
       </c>
       <c r="F153" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G153" s="3">
         <v>45311.61907407407</v>
@@ -7597,7 +7600,7 @@
         <v>45315.73760416666</v>
       </c>
       <c r="I153" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -7617,7 +7620,7 @@
         <v>593</v>
       </c>
       <c r="F154" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G154" s="3">
         <v>45313.06128472222</v>
@@ -7626,7 +7629,7 @@
         <v>45314.4228125</v>
       </c>
       <c r="I154" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -7646,7 +7649,7 @@
         <v>644</v>
       </c>
       <c r="F155" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G155" s="3">
         <v>45291.49923611111</v>
@@ -7655,7 +7658,7 @@
         <v>45312.49590277778</v>
       </c>
       <c r="I155" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -7675,7 +7678,7 @@
         <v>639</v>
       </c>
       <c r="F156" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G156" s="3">
         <v>45302.49706018518</v>
@@ -7684,7 +7687,7 @@
         <v>45315.07060185185</v>
       </c>
       <c r="I156" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -7704,7 +7707,7 @@
         <v>600</v>
       </c>
       <c r="F157" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G157" s="3">
         <v>45286.49168981481</v>
@@ -7713,7 +7716,7 @@
         <v>45315.73706018519</v>
       </c>
       <c r="I157" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -7733,7 +7736,7 @@
         <v>661</v>
       </c>
       <c r="F158" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G158" s="3">
         <v>45306.62078703703</v>
@@ -7742,7 +7745,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I158" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -7762,7 +7765,7 @@
         <v>668</v>
       </c>
       <c r="F159" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G159" s="3">
         <v>45297.49820601852</v>
@@ -7771,7 +7774,7 @@
         <v>45315.73712962963</v>
       </c>
       <c r="I159" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -7791,7 +7794,7 @@
         <v>669</v>
       </c>
       <c r="F160" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G160" s="3">
         <v>45314.49293981482</v>
@@ -7800,7 +7803,7 @@
         <v>45315.73753472222</v>
       </c>
       <c r="I160" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -7820,7 +7823,7 @@
         <v>670</v>
       </c>
       <c r="F161" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G161" s="3">
         <v>45302.49929398148</v>
@@ -7829,7 +7832,7 @@
         <v>45314.49518518519</v>
       </c>
       <c r="I161" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -7849,13 +7852,13 @@
         <v>603</v>
       </c>
       <c r="F162" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H162" s="3">
         <v>45307.36160879629</v>
       </c>
       <c r="I162" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -7875,7 +7878,7 @@
         <v>671</v>
       </c>
       <c r="F163" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G163" s="3">
         <v>45314.4933912037</v>
@@ -7884,7 +7887,7 @@
         <v>45316.12230324074</v>
       </c>
       <c r="I163" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -7904,7 +7907,7 @@
         <v>611</v>
       </c>
       <c r="F164" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G164" s="3">
         <v>45307.36724537037</v>
@@ -7913,7 +7916,7 @@
         <v>45316.16459490741</v>
       </c>
       <c r="I164" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -7933,7 +7936,7 @@
         <v>672</v>
       </c>
       <c r="F165" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G165" s="3">
         <v>45297.31922453704</v>
@@ -7942,7 +7945,7 @@
         <v>45314.49394675926</v>
       </c>
       <c r="I165" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -7962,7 +7965,7 @@
         <v>673</v>
       </c>
       <c r="F166" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G166" s="3">
         <v>45315.42201388889</v>
@@ -7971,7 +7974,7 @@
         <v>45315.7841550926</v>
       </c>
       <c r="I166" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -7991,7 +7994,7 @@
         <v>593</v>
       </c>
       <c r="F167" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G167" s="3">
         <v>45314.42302083333</v>
@@ -8000,7 +8003,7 @@
         <v>45314.42302083333</v>
       </c>
       <c r="I167" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -8020,7 +8023,7 @@
         <v>674</v>
       </c>
       <c r="F168" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G168" s="3">
         <v>45314.49530092593</v>
@@ -8029,7 +8032,7 @@
         <v>45315.78174768519</v>
       </c>
       <c r="I168" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -8049,7 +8052,7 @@
         <v>675</v>
       </c>
       <c r="F169" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G169" s="3">
         <v>45312.49302083333</v>
@@ -8058,7 +8061,7 @@
         <v>45314.49451388889</v>
       </c>
       <c r="I169" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -8078,7 +8081,7 @@
         <v>676</v>
       </c>
       <c r="F170" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G170" s="3">
         <v>45302.49891203704</v>
@@ -8087,7 +8090,7 @@
         <v>45315.78163194445</v>
       </c>
       <c r="I170" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -8107,7 +8110,7 @@
         <v>677</v>
       </c>
       <c r="F171" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G171" s="3">
         <v>45314.49350694445</v>
@@ -8116,7 +8119,7 @@
         <v>45315.78178240741</v>
       </c>
       <c r="I171" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -8136,7 +8139,7 @@
         <v>603</v>
       </c>
       <c r="F172" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G172" s="3">
         <v>44049.84335648148</v>
@@ -8145,7 +8148,7 @@
         <v>44740.15496527778</v>
       </c>
       <c r="I172" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -8165,7 +8168,7 @@
         <v>594</v>
       </c>
       <c r="F173" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G173" s="3">
         <v>45307.49097222222</v>
@@ -8174,7 +8177,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I173" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -8194,7 +8197,7 @@
         <v>593</v>
       </c>
       <c r="F174" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G174" s="3">
         <v>45312.37847222222</v>
@@ -8203,7 +8206,7 @@
         <v>45314.42348379629</v>
       </c>
       <c r="I174" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -8223,7 +8226,7 @@
         <v>608</v>
       </c>
       <c r="F175" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G175" s="3">
         <v>45312.25097222222</v>
@@ -8232,7 +8235,7 @@
         <v>45315.74335648148</v>
       </c>
       <c r="I175" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -8252,7 +8255,7 @@
         <v>666</v>
       </c>
       <c r="F176" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G176" s="3">
         <v>45310.90118055556</v>
@@ -8261,7 +8264,7 @@
         <v>45314.49304398148</v>
       </c>
       <c r="I176" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -8281,7 +8284,7 @@
         <v>601</v>
       </c>
       <c r="F177" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G177" s="3">
         <v>45296.62515046296</v>
@@ -8290,7 +8293,7 @@
         <v>45314.49361111111</v>
       </c>
       <c r="I177" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -8310,7 +8313,7 @@
         <v>678</v>
       </c>
       <c r="F178" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G178" s="3">
         <v>45311.61869212963</v>
@@ -8319,7 +8322,7 @@
         <v>45315.73645833333</v>
       </c>
       <c r="I178" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -8339,7 +8342,7 @@
         <v>649</v>
       </c>
       <c r="F179" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G179" s="3">
         <v>45287.159375</v>
@@ -8348,7 +8351,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I179" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -8368,7 +8371,7 @@
         <v>679</v>
       </c>
       <c r="F180" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G180" s="3">
         <v>45311.68436342593</v>
@@ -8377,7 +8380,7 @@
         <v>45315.75385416667</v>
       </c>
       <c r="I180" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -8397,7 +8400,7 @@
         <v>680</v>
       </c>
       <c r="F181" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G181" s="3">
         <v>45291.49039351852</v>
@@ -8406,7 +8409,7 @@
         <v>45315.78164351852</v>
       </c>
       <c r="I181" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -8426,7 +8429,7 @@
         <v>681</v>
       </c>
       <c r="F182" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G182" s="3">
         <v>45308.74193287037</v>
@@ -8435,7 +8438,7 @@
         <v>45315.7467824074</v>
       </c>
       <c r="I182" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -8455,7 +8458,7 @@
         <v>682</v>
       </c>
       <c r="F183" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G183" s="3">
         <v>45290.68399305556</v>
@@ -8464,7 +8467,7 @@
         <v>45315.76791666666</v>
       </c>
       <c r="I183" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -8484,7 +8487,7 @@
         <v>683</v>
       </c>
       <c r="F184" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G184" s="3">
         <v>45294.52609953703</v>
@@ -8493,7 +8496,7 @@
         <v>45315.75109953704</v>
       </c>
       <c r="I184" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -8513,7 +8516,7 @@
         <v>664</v>
       </c>
       <c r="F185" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G185" s="3">
         <v>45305.28581018518</v>
@@ -8522,7 +8525,7 @@
         <v>45315.73657407407</v>
       </c>
       <c r="I185" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -8542,7 +8545,7 @@
         <v>684</v>
       </c>
       <c r="F186" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G186" s="3">
         <v>45303.07900462963</v>
@@ -8551,7 +8554,7 @@
         <v>45315.78171296296</v>
       </c>
       <c r="I186" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -8571,7 +8574,7 @@
         <v>639</v>
       </c>
       <c r="F187" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G187" s="3">
         <v>45294.00594907408</v>
@@ -8580,7 +8583,7 @@
         <v>45315.60971064815</v>
       </c>
       <c r="I187" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -8600,7 +8603,7 @@
         <v>685</v>
       </c>
       <c r="F188" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G188" s="3">
         <v>45291.6212037037</v>
@@ -8609,7 +8612,7 @@
         <v>45315.76299768518</v>
       </c>
       <c r="I188" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -8629,7 +8632,7 @@
         <v>686</v>
       </c>
       <c r="F189" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G189" s="3">
         <v>45291.62125</v>
@@ -8638,7 +8641,7 @@
         <v>45315.73672453704</v>
       </c>
       <c r="I189" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -8658,7 +8661,7 @@
         <v>687</v>
       </c>
       <c r="F190" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G190" s="3">
         <v>45291.49121527778</v>
@@ -8667,7 +8670,7 @@
         <v>45315.73679398148</v>
       </c>
       <c r="I190" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -8687,7 +8690,7 @@
         <v>594</v>
       </c>
       <c r="F191" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G191" s="3">
         <v>45305.45537037037</v>
@@ -8696,7 +8699,7 @@
         <v>45315.78153935185</v>
       </c>
       <c r="I191" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -8716,7 +8719,7 @@
         <v>688</v>
       </c>
       <c r="F192" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G192" s="3">
         <v>45312.66900462963</v>
@@ -8725,7 +8728,7 @@
         <v>45315.78197916667</v>
       </c>
       <c r="I192" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -8745,7 +8748,7 @@
         <v>689</v>
       </c>
       <c r="F193" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G193" s="3">
         <v>45283.15128472223</v>
@@ -8754,7 +8757,7 @@
         <v>45315.73756944444</v>
       </c>
       <c r="I193" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -8774,7 +8777,7 @@
         <v>690</v>
       </c>
       <c r="F194" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G194" s="3">
         <v>45290.15359953704</v>
@@ -8783,7 +8786,7 @@
         <v>45315.81050925926</v>
       </c>
       <c r="I194" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -8803,7 +8806,7 @@
         <v>691</v>
       </c>
       <c r="F195" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G195" s="3">
         <v>45288.77761574074</v>
@@ -8812,7 +8815,7 @@
         <v>45315.8109837963</v>
       </c>
       <c r="I195" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -8832,7 +8835,7 @@
         <v>692</v>
       </c>
       <c r="F196" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G196" s="3">
         <v>45283.5427199074</v>
@@ -8841,7 +8844,7 @@
         <v>45315.81034722222</v>
       </c>
       <c r="I196" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -8861,7 +8864,7 @@
         <v>693</v>
       </c>
       <c r="F197" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G197" s="3">
         <v>45290.06099537037</v>
@@ -8870,7 +8873,7 @@
         <v>45315.78223379629</v>
       </c>
       <c r="I197" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -8890,7 +8893,7 @@
         <v>694</v>
       </c>
       <c r="F198" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G198" s="3">
         <v>45285.78746527778</v>
@@ -8899,7 +8902,7 @@
         <v>45315.81327546296</v>
       </c>
       <c r="I198" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -8919,7 +8922,7 @@
         <v>678</v>
       </c>
       <c r="F199" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G199" s="3">
         <v>45300.70331018518</v>
@@ -8928,7 +8931,7 @@
         <v>45315.78243055556</v>
       </c>
       <c r="I199" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -8948,7 +8951,7 @@
         <v>651</v>
       </c>
       <c r="F200" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G200" s="3">
         <v>45313.4215625</v>
@@ -8957,7 +8960,7 @@
         <v>45314.19313657407</v>
       </c>
       <c r="I200" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -8977,7 +8980,7 @@
         <v>597</v>
       </c>
       <c r="F201" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G201" s="3">
         <v>45313.10177083333</v>
@@ -8986,7 +8989,7 @@
         <v>45315.19548611111</v>
       </c>
       <c r="I201" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -9006,7 +9009,7 @@
         <v>695</v>
       </c>
       <c r="F202" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G202" s="3">
         <v>45313.56241898148</v>
@@ -9015,7 +9018,7 @@
         <v>45315.73755787037</v>
       </c>
       <c r="I202" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -9035,7 +9038,7 @@
         <v>679</v>
       </c>
       <c r="F203" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G203" s="3">
         <v>45287.49016203704</v>
@@ -9044,7 +9047,7 @@
         <v>45315.81586805556</v>
       </c>
       <c r="I203" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -9064,7 +9067,7 @@
         <v>696</v>
       </c>
       <c r="F204" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G204" s="3">
         <v>45294.11623842592</v>
@@ -9073,7 +9076,7 @@
         <v>45315.81109953704</v>
       </c>
       <c r="I204" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -9093,7 +9096,7 @@
         <v>688</v>
       </c>
       <c r="F205" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G205" s="3">
         <v>45281.61627314815</v>
@@ -9102,7 +9105,7 @@
         <v>45315.73660879629</v>
       </c>
       <c r="I205" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -9122,7 +9125,7 @@
         <v>594</v>
       </c>
       <c r="F206" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G206" s="3">
         <v>45310.31782407407</v>
@@ -9131,7 +9134,7 @@
         <v>45315.82373842593</v>
       </c>
       <c r="I206" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -9151,7 +9154,7 @@
         <v>697</v>
       </c>
       <c r="F207" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G207" s="3">
         <v>45292.86751157408</v>
@@ -9160,7 +9163,7 @@
         <v>45315.81833333334</v>
       </c>
       <c r="I207" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -9180,7 +9183,7 @@
         <v>698</v>
       </c>
       <c r="F208" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G208" s="3">
         <v>45297.78877314815</v>
@@ -9189,7 +9192,7 @@
         <v>45315.82362268519</v>
       </c>
       <c r="I208" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -9209,7 +9212,7 @@
         <v>683</v>
       </c>
       <c r="F209" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G209" s="3">
         <v>45291.49200231482</v>
@@ -9218,7 +9221,7 @@
         <v>45315.81275462963</v>
       </c>
       <c r="I209" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -9238,7 +9241,7 @@
         <v>695</v>
       </c>
       <c r="F210" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G210" s="3">
         <v>45314.77236111111</v>
@@ -9247,7 +9250,7 @@
         <v>45315.81111111111</v>
       </c>
       <c r="I210" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -9267,7 +9270,7 @@
         <v>699</v>
       </c>
       <c r="F211" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G211" s="3">
         <v>45306.94767361111</v>
@@ -9276,7 +9279,7 @@
         <v>45315.81850694444</v>
       </c>
       <c r="I211" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -9296,7 +9299,7 @@
         <v>700</v>
       </c>
       <c r="F212" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G212" s="3">
         <v>45315.48592592592</v>
@@ -9305,7 +9308,7 @@
         <v>45315.82550925926</v>
       </c>
       <c r="I212" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -9325,7 +9328,7 @@
         <v>701</v>
       </c>
       <c r="F213" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G213" s="3">
         <v>45278.21140046296</v>
@@ -9334,7 +9337,7 @@
         <v>45315.78211805555</v>
       </c>
       <c r="I213" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -9354,7 +9357,7 @@
         <v>688</v>
       </c>
       <c r="F214" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G214" s="3">
         <v>45296.58950231481</v>
@@ -9363,7 +9366,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I214" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -9383,7 +9386,7 @@
         <v>702</v>
       </c>
       <c r="F215" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G215" s="3">
         <v>45308.74321759259</v>
@@ -9392,7 +9395,7 @@
         <v>45315.82768518518</v>
       </c>
       <c r="I215" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -9412,7 +9415,7 @@
         <v>693</v>
       </c>
       <c r="F216" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G216" s="3">
         <v>45291.49114583333</v>
@@ -9421,7 +9424,7 @@
         <v>45315.82378472222</v>
       </c>
       <c r="I216" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -9441,7 +9444,7 @@
         <v>703</v>
       </c>
       <c r="F217" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G217" s="3">
         <v>45308.16465277778</v>
@@ -9450,7 +9453,7 @@
         <v>45315.82369212963</v>
       </c>
       <c r="I217" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -9470,7 +9473,7 @@
         <v>704</v>
       </c>
       <c r="F218" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G218" s="3">
         <v>45296.21802083333</v>
@@ -9479,7 +9482,7 @@
         <v>45315.82553240741</v>
       </c>
       <c r="I218" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -9499,7 +9502,7 @@
         <v>636</v>
       </c>
       <c r="F219" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G219" s="3">
         <v>45307.36931712963</v>
@@ -9508,7 +9511,7 @@
         <v>45315.78234953704</v>
       </c>
       <c r="I219" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -9528,7 +9531,7 @@
         <v>607</v>
       </c>
       <c r="F220" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G220" s="3">
         <v>45313.02901620371</v>
@@ -9537,7 +9540,7 @@
         <v>45315.78185185185</v>
       </c>
       <c r="I220" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -9557,7 +9560,7 @@
         <v>688</v>
       </c>
       <c r="F221" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G221" s="3">
         <v>45284.49082175926</v>
@@ -9566,7 +9569,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I221" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -9586,7 +9589,7 @@
         <v>705</v>
       </c>
       <c r="F222" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G222" s="3">
         <v>45290.06063657408</v>
@@ -9595,7 +9598,7 @@
         <v>45315.81575231482</v>
       </c>
       <c r="I222" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -9615,7 +9618,7 @@
         <v>691</v>
       </c>
       <c r="F223" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G223" s="3">
         <v>45292.49101851852</v>
@@ -9624,7 +9627,7 @@
         <v>45315.81292824074</v>
       </c>
       <c r="I223" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -9644,7 +9647,7 @@
         <v>697</v>
       </c>
       <c r="F224" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G224" s="3">
         <v>45291.34520833333</v>
@@ -9653,7 +9656,7 @@
         <v>45315.82354166666</v>
       </c>
       <c r="I224" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -9673,7 +9676,7 @@
         <v>706</v>
       </c>
       <c r="F225" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G225" s="3">
         <v>45314.42053240741</v>
@@ -9682,7 +9685,7 @@
         <v>45315.81092592593</v>
       </c>
       <c r="I225" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -9702,7 +9705,7 @@
         <v>688</v>
       </c>
       <c r="F226" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G226" s="3">
         <v>45291.49119212963</v>
@@ -9711,7 +9714,7 @@
         <v>45314.49342592592</v>
       </c>
       <c r="I226" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -9731,7 +9734,7 @@
         <v>707</v>
       </c>
       <c r="F227" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G227" s="3">
         <v>45306.91820601852</v>
@@ -9740,7 +9743,7 @@
         <v>45315.82215277778</v>
       </c>
       <c r="I227" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -9760,7 +9763,7 @@
         <v>684</v>
       </c>
       <c r="F228" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G228" s="3">
         <v>45286.62017361111</v>
@@ -9769,7 +9772,7 @@
         <v>45315.78180555555</v>
       </c>
       <c r="I228" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -9789,7 +9792,7 @@
         <v>697</v>
       </c>
       <c r="F229" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G229" s="3">
         <v>45308.74159722222</v>
@@ -9798,7 +9801,7 @@
         <v>45315.82368055556</v>
       </c>
       <c r="I229" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -9818,7 +9821,7 @@
         <v>601</v>
       </c>
       <c r="F230" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G230" s="3">
         <v>45283.53591435185</v>
@@ -9827,7 +9830,7 @@
         <v>45315.82388888889</v>
       </c>
       <c r="I230" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -9847,7 +9850,7 @@
         <v>675</v>
       </c>
       <c r="F231" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G231" s="3">
         <v>45279.15613425926</v>
@@ -9856,7 +9859,7 @@
         <v>45310.69137731481</v>
       </c>
       <c r="I231" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -9876,7 +9879,7 @@
         <v>608</v>
       </c>
       <c r="F232" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G232" s="3">
         <v>45302.49265046296</v>
@@ -9885,7 +9888,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I232" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -9905,7 +9908,7 @@
         <v>708</v>
       </c>
       <c r="F233" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G233" s="3">
         <v>45286.49104166667</v>
@@ -9914,7 +9917,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I233" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -9934,7 +9937,7 @@
         <v>709</v>
       </c>
       <c r="F234" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G234" s="3">
         <v>45313.42326388889</v>
@@ -9943,7 +9946,7 @@
         <v>45314.18550925926</v>
       </c>
       <c r="I234" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -9963,7 +9966,7 @@
         <v>603</v>
       </c>
       <c r="F235" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G235" s="3">
         <v>44288.33525462963</v>
@@ -9972,7 +9975,7 @@
         <v>44288.33525462963</v>
       </c>
       <c r="I235" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -9992,7 +9995,7 @@
         <v>624</v>
       </c>
       <c r="F236" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G236" s="3">
         <v>45287.22329861111</v>
@@ -10001,7 +10004,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I236" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -10021,7 +10024,7 @@
         <v>710</v>
       </c>
       <c r="F237" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G237" s="3">
         <v>45311.90133101852</v>
@@ -10030,7 +10033,7 @@
         <v>45315.82358796296</v>
       </c>
       <c r="I237" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -10050,7 +10053,7 @@
         <v>594</v>
       </c>
       <c r="F238" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G238" s="3">
         <v>45298.44405092593</v>
@@ -10059,7 +10062,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I238" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -10079,7 +10082,7 @@
         <v>602</v>
       </c>
       <c r="F239" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G239" s="3">
         <v>45297.01849537037</v>
@@ -10088,7 +10091,7 @@
         <v>45314.90065972223</v>
       </c>
       <c r="I239" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -10108,7 +10111,7 @@
         <v>711</v>
       </c>
       <c r="F240" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G240" s="3">
         <v>45280.57440972222</v>
@@ -10117,7 +10120,7 @@
         <v>45309.03163194445</v>
       </c>
       <c r="I240" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -10134,10 +10137,10 @@
         <v>533</v>
       </c>
       <c r="E241" t="s">
-        <v>591</v>
+        <v>712</v>
       </c>
       <c r="F241" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G241" s="3">
         <v>45314.42252314815</v>
@@ -10146,7 +10149,7 @@
         <v>45315.82351851852</v>
       </c>
       <c r="I241" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -10166,7 +10169,7 @@
         <v>608</v>
       </c>
       <c r="F242" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G242" s="3">
         <v>45301.61993055556</v>
@@ -10175,7 +10178,7 @@
         <v>45314.018125</v>
       </c>
       <c r="I242" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -10192,10 +10195,10 @@
         <v>535</v>
       </c>
       <c r="E243" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F243" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G243" s="3">
         <v>45312.49469907407</v>
@@ -10204,7 +10207,7 @@
         <v>45315.78165509259</v>
       </c>
       <c r="I243" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -10224,7 +10227,7 @@
         <v>625</v>
       </c>
       <c r="F244" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G244" s="3">
         <v>45295.49803240741</v>
@@ -10233,7 +10236,7 @@
         <v>45315.8234837963</v>
       </c>
       <c r="I244" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -10250,10 +10253,10 @@
         <v>537</v>
       </c>
       <c r="E245" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F245" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G245" s="3">
         <v>45313.05956018518</v>
@@ -10262,7 +10265,7 @@
         <v>45315.82376157407</v>
       </c>
       <c r="I245" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -10282,7 +10285,7 @@
         <v>648</v>
       </c>
       <c r="F246" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G246" s="3">
         <v>45298.49199074074</v>
@@ -10291,7 +10294,7 @@
         <v>45315.82392361111</v>
       </c>
       <c r="I246" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -10311,7 +10314,7 @@
         <v>608</v>
       </c>
       <c r="F247" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G247" s="3">
         <v>45286.6203587963</v>
@@ -10320,7 +10323,7 @@
         <v>45315.82366898148</v>
       </c>
       <c r="I247" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -10340,7 +10343,7 @@
         <v>648</v>
       </c>
       <c r="F248" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G248" s="3">
         <v>45311.61991898148</v>
@@ -10349,7 +10352,7 @@
         <v>45315.02909722222</v>
       </c>
       <c r="I248" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -10366,10 +10369,10 @@
         <v>541</v>
       </c>
       <c r="E249" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F249" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G249" s="3">
         <v>45306.75461805556</v>
@@ -10378,7 +10381,7 @@
         <v>45315.04524305555</v>
       </c>
       <c r="I249" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -10395,10 +10398,10 @@
         <v>542</v>
       </c>
       <c r="E250" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F250" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G250" s="3">
         <v>45292.49578703703</v>
@@ -10407,7 +10410,7 @@
         <v>45315.4852662037</v>
       </c>
       <c r="I250" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -10427,7 +10430,7 @@
         <v>626</v>
       </c>
       <c r="F251" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G251" s="3">
         <v>45308.60100694445</v>
@@ -10436,7 +10439,7 @@
         <v>45314.49393518519</v>
       </c>
       <c r="I251" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -10456,7 +10459,7 @@
         <v>684</v>
       </c>
       <c r="F252" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G252" s="3">
         <v>45289.35146990741</v>
@@ -10465,7 +10468,7 @@
         <v>45314.49217592592</v>
       </c>
       <c r="I252" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -10485,7 +10488,7 @@
         <v>639</v>
       </c>
       <c r="F253" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G253" s="3">
         <v>45307.49243055555</v>
@@ -10494,7 +10497,7 @@
         <v>45314.49329861111</v>
       </c>
       <c r="I253" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -10511,10 +10514,10 @@
         <v>546</v>
       </c>
       <c r="E254" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F254" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G254" s="3">
         <v>45313.42297453704</v>
@@ -10523,7 +10526,7 @@
         <v>45313.42299768519</v>
       </c>
       <c r="I254" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -10543,7 +10546,7 @@
         <v>606</v>
       </c>
       <c r="F255" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G255" s="3">
         <v>45291.49054398148</v>
@@ -10552,7 +10555,7 @@
         <v>45314.94496527778</v>
       </c>
       <c r="I255" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -10569,10 +10572,10 @@
         <v>548</v>
       </c>
       <c r="E256" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F256" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G256" s="3">
         <v>45292.15671296296</v>
@@ -10581,7 +10584,7 @@
         <v>45312.75942129629</v>
       </c>
       <c r="I256" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -10598,10 +10601,10 @@
         <v>549</v>
       </c>
       <c r="E257" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F257" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G257" s="3">
         <v>45287.83861111111</v>
@@ -10610,7 +10613,7 @@
         <v>45316.03899305555</v>
       </c>
       <c r="I257" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -10630,7 +10633,7 @@
         <v>658</v>
       </c>
       <c r="F258" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G258" s="3">
         <v>45293.04358796297</v>
@@ -10639,7 +10642,7 @@
         <v>45315.8656712963</v>
       </c>
       <c r="I258" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -10659,7 +10662,7 @@
         <v>598</v>
       </c>
       <c r="F259" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G259" s="3">
         <v>45307.49564814815</v>
@@ -10668,7 +10671,7 @@
         <v>45315.9937037037</v>
       </c>
       <c r="I259" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -10688,7 +10691,7 @@
         <v>594</v>
       </c>
       <c r="F260" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G260" s="3">
         <v>45314.90094907407</v>
@@ -10697,7 +10700,7 @@
         <v>45315.89604166667</v>
       </c>
       <c r="I260" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -10717,7 +10720,7 @@
         <v>599</v>
       </c>
       <c r="F261" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G261" s="3">
         <v>45294.84780092593</v>
@@ -10726,7 +10729,7 @@
         <v>45316.03907407408</v>
       </c>
       <c r="I261" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -10746,7 +10749,7 @@
         <v>684</v>
       </c>
       <c r="F262" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G262" s="3">
         <v>45296.61121527778</v>
@@ -10755,7 +10758,7 @@
         <v>45316.03895833333</v>
       </c>
       <c r="I262" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -10775,7 +10778,7 @@
         <v>617</v>
       </c>
       <c r="F263" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G263" s="3">
         <v>45311.62060185185</v>
@@ -10784,7 +10787,7 @@
         <v>45316.03954861111</v>
       </c>
       <c r="I263" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -10804,7 +10807,7 @@
         <v>602</v>
       </c>
       <c r="F264" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G264" s="3">
         <v>45301.61861111111</v>
@@ -10813,7 +10816,7 @@
         <v>45316.08056712963</v>
       </c>
       <c r="I264" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -10833,7 +10836,7 @@
         <v>602</v>
       </c>
       <c r="F265" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G265" s="3">
         <v>45286.49385416666</v>
@@ -10842,7 +10845,7 @@
         <v>45316.03959490741</v>
       </c>
       <c r="I265" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -10862,7 +10865,7 @@
         <v>639</v>
       </c>
       <c r="F266" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G266" s="3">
         <v>45311.71087962963</v>
@@ -10871,7 +10874,7 @@
         <v>45314.67140046296</v>
       </c>
       <c r="I266" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -10888,10 +10891,10 @@
         <v>559</v>
       </c>
       <c r="E267" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F267" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G267" s="3">
         <v>45288.63045138889</v>
@@ -10900,7 +10903,7 @@
         <v>45316.03887731482</v>
       </c>
       <c r="I267" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -10920,7 +10923,7 @@
         <v>637</v>
       </c>
       <c r="F268" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G268" s="3">
         <v>45280.82067129629</v>
@@ -10929,7 +10932,7 @@
         <v>45316.03997685185</v>
       </c>
       <c r="I268" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -10949,7 +10952,7 @@
         <v>678</v>
       </c>
       <c r="F269" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G269" s="3">
         <v>45296.62119212963</v>
@@ -10958,7 +10961,7 @@
         <v>45316.08042824074</v>
       </c>
       <c r="I269" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -10978,7 +10981,7 @@
         <v>594</v>
       </c>
       <c r="F270" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G270" s="3">
         <v>45300.48923611111</v>
@@ -10987,7 +10990,7 @@
         <v>45316.08054398148</v>
       </c>
       <c r="I270" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -11007,7 +11010,7 @@
         <v>639</v>
       </c>
       <c r="F271" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G271" s="3">
         <v>45314.49359953704</v>
@@ -11016,7 +11019,7 @@
         <v>45314.66849537037</v>
       </c>
       <c r="I271" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -11036,7 +11039,7 @@
         <v>647</v>
       </c>
       <c r="F272" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G272" s="3">
         <v>45312.50121527778</v>
@@ -11045,7 +11048,7 @@
         <v>45312.67422453704</v>
       </c>
       <c r="I272" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -11065,7 +11068,7 @@
         <v>650</v>
       </c>
       <c r="F273" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G273" s="3">
         <v>45261.49545138889</v>
@@ -11074,7 +11077,7 @@
         <v>45309.04300925926</v>
       </c>
       <c r="I273" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -11094,7 +11097,7 @@
         <v>648</v>
       </c>
       <c r="F274" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G274" s="3">
         <v>45291.49003472222</v>
@@ -11103,7 +11106,7 @@
         <v>45316.08077546296</v>
       </c>
       <c r="I274" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -11120,10 +11123,10 @@
         <v>567</v>
       </c>
       <c r="E275" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F275" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G275" s="3">
         <v>45280.21361111111</v>
@@ -11132,7 +11135,7 @@
         <v>45309.04177083333</v>
       </c>
       <c r="I275" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -11152,7 +11155,7 @@
         <v>600</v>
       </c>
       <c r="F276" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G276" s="3">
         <v>45314.56188657408</v>
@@ -11161,7 +11164,7 @@
         <v>45315.48497685185</v>
       </c>
       <c r="I276" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -11181,7 +11184,7 @@
         <v>602</v>
       </c>
       <c r="F277" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G277" s="3">
         <v>45302.49186342592</v>
@@ -11190,7 +11193,7 @@
         <v>45316.08069444444</v>
       </c>
       <c r="I277" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -11210,7 +11213,7 @@
         <v>640</v>
       </c>
       <c r="F278" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G278" s="3">
         <v>45291.5000462963</v>
@@ -11219,7 +11222,7 @@
         <v>45314.49376157407</v>
       </c>
       <c r="I278" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -11239,7 +11242,7 @@
         <v>624</v>
       </c>
       <c r="F279" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G279" s="3">
         <v>45291.49392361111</v>
@@ -11248,7 +11251,7 @@
         <v>45314.49452546296</v>
       </c>
       <c r="I279" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -11268,7 +11271,7 @@
         <v>601</v>
       </c>
       <c r="F280" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G280" s="3">
         <v>45312.49576388889</v>
@@ -11277,7 +11280,7 @@
         <v>45316.03846064815</v>
       </c>
       <c r="I280" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -11297,7 +11300,7 @@
         <v>633</v>
       </c>
       <c r="F281" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G281" s="3">
         <v>45312.98068287037</v>
@@ -11306,7 +11309,7 @@
         <v>45316.08041666666</v>
       </c>
       <c r="I281" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -11326,7 +11329,7 @@
         <v>675</v>
       </c>
       <c r="F282" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G282" s="3">
         <v>45314.49623842593</v>
@@ -11335,7 +11338,7 @@
         <v>45316.08075231482</v>
       </c>
       <c r="I282" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -11355,7 +11358,7 @@
         <v>607</v>
       </c>
       <c r="F283" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G283" s="3">
         <v>45313.14449074074</v>
@@ -11364,7 +11367,7 @@
         <v>45316.08082175926</v>
       </c>
       <c r="I283" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -11384,7 +11387,7 @@
         <v>687</v>
       </c>
       <c r="F284" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G284" s="3">
         <v>45312.50119212963</v>
@@ -11393,7 +11396,7 @@
         <v>45316.08556712963</v>
       </c>
       <c r="I284" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -1792,7 +1792,7 @@
     <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 23, 'timeout': 0}</t>
   </si>
   <si>
-    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 23, 'timeout': 0}</t>
   </si>
   <si>
     <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>

--- a/1.xlsx
+++ b/1.xlsx
@@ -1795,73 +1795,73 @@
     <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 23, 'timeout': 0}</t>
   </si>
   <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 7, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 9, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
     <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 7, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 9, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
   </si>
   <si>
     <t>{'harmless': 56, 'malicious': 10, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
@@ -3766,7 +3766,7 @@
         <v>313</v>
       </c>
       <c r="E21" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="F21" t="s">
         <v>733</v>
@@ -3775,7 +3775,7 @@
         <v>45314.42365740741</v>
       </c>
       <c r="H21" s="3">
-        <v>45314.42368055556</v>
+        <v>45340.51633101852</v>
       </c>
       <c r="I21" t="s">
         <v>790</v>
@@ -3795,7 +3795,7 @@
         <v>314</v>
       </c>
       <c r="E22" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F22" t="s">
         <v>734</v>
@@ -3824,7 +3824,7 @@
         <v>315</v>
       </c>
       <c r="E23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F23" t="s">
         <v>735</v>
@@ -3853,7 +3853,7 @@
         <v>316</v>
       </c>
       <c r="E24" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F24" t="s">
         <v>728</v>
@@ -3882,7 +3882,7 @@
         <v>317</v>
       </c>
       <c r="E25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F25" t="s">
         <v>736</v>
@@ -3911,7 +3911,7 @@
         <v>318</v>
       </c>
       <c r="E26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F26" t="s">
         <v>737</v>
@@ -3940,7 +3940,7 @@
         <v>319</v>
       </c>
       <c r="E27" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F27" t="s">
         <v>734</v>
@@ -3969,7 +3969,7 @@
         <v>320</v>
       </c>
       <c r="E28" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F28" t="s">
         <v>738</v>
@@ -3998,7 +3998,7 @@
         <v>321</v>
       </c>
       <c r="E29" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F29" t="s">
         <v>739</v>
@@ -4027,7 +4027,7 @@
         <v>322</v>
       </c>
       <c r="E30" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F30" t="s">
         <v>740</v>
@@ -4056,7 +4056,7 @@
         <v>323</v>
       </c>
       <c r="E31" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F31" t="s">
         <v>741</v>
@@ -4085,7 +4085,7 @@
         <v>324</v>
       </c>
       <c r="E32" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F32" t="s">
         <v>723</v>
@@ -4114,7 +4114,7 @@
         <v>325</v>
       </c>
       <c r="E33" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F33" t="s">
         <v>737</v>
@@ -4143,7 +4143,7 @@
         <v>326</v>
       </c>
       <c r="E34" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F34" t="s">
         <v>739</v>
@@ -4172,7 +4172,7 @@
         <v>327</v>
       </c>
       <c r="E35" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F35" t="s">
         <v>742</v>
@@ -4201,7 +4201,7 @@
         <v>328</v>
       </c>
       <c r="E36" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F36" t="s">
         <v>723</v>
@@ -4230,7 +4230,7 @@
         <v>329</v>
       </c>
       <c r="E37" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F37" t="s">
         <v>743</v>
@@ -4259,7 +4259,7 @@
         <v>330</v>
       </c>
       <c r="E38" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F38" t="s">
         <v>744</v>
@@ -4288,7 +4288,7 @@
         <v>331</v>
       </c>
       <c r="E39" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F39" t="s">
         <v>727</v>
@@ -4317,7 +4317,7 @@
         <v>332</v>
       </c>
       <c r="E40" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F40" t="s">
         <v>733</v>
@@ -4346,7 +4346,7 @@
         <v>333</v>
       </c>
       <c r="E41" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F41" t="s">
         <v>745</v>
@@ -4375,7 +4375,7 @@
         <v>334</v>
       </c>
       <c r="E42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F42" t="s">
         <v>722</v>
@@ -4404,7 +4404,7 @@
         <v>335</v>
       </c>
       <c r="E43" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F43" t="s">
         <v>723</v>
@@ -4433,7 +4433,7 @@
         <v>336</v>
       </c>
       <c r="E44" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F44" t="s">
         <v>727</v>
@@ -4462,7 +4462,7 @@
         <v>337</v>
       </c>
       <c r="E45" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F45" t="s">
         <v>722</v>
@@ -4491,7 +4491,7 @@
         <v>338</v>
       </c>
       <c r="E46" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F46" t="s">
         <v>746</v>
@@ -4520,7 +4520,7 @@
         <v>339</v>
       </c>
       <c r="E47" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F47" t="s">
         <v>729</v>
@@ -4549,7 +4549,7 @@
         <v>340</v>
       </c>
       <c r="E48" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F48" t="s">
         <v>722</v>
@@ -4578,7 +4578,7 @@
         <v>341</v>
       </c>
       <c r="E49" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F49" t="s">
         <v>747</v>
@@ -4607,7 +4607,7 @@
         <v>342</v>
       </c>
       <c r="E50" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F50" t="s">
         <v>748</v>
@@ -4636,7 +4636,7 @@
         <v>343</v>
       </c>
       <c r="E51" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F51" t="s">
         <v>733</v>
@@ -4665,7 +4665,7 @@
         <v>344</v>
       </c>
       <c r="E52" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="F52" t="s">
         <v>733</v>
@@ -4810,7 +4810,7 @@
         <v>349</v>
       </c>
       <c r="E57" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F57" t="s">
         <v>749</v>
@@ -4868,7 +4868,7 @@
         <v>351</v>
       </c>
       <c r="E59" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F59" t="s">
         <v>722</v>
@@ -4955,7 +4955,7 @@
         <v>354</v>
       </c>
       <c r="E62" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F62" t="s">
         <v>750</v>
@@ -4984,7 +4984,7 @@
         <v>355</v>
       </c>
       <c r="E63" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F63" t="s">
         <v>751</v>
@@ -5013,7 +5013,7 @@
         <v>356</v>
       </c>
       <c r="E64" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F64" t="s">
         <v>722</v>
@@ -5158,7 +5158,7 @@
         <v>361</v>
       </c>
       <c r="E69" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F69" t="s">
         <v>735</v>
@@ -5332,7 +5332,7 @@
         <v>367</v>
       </c>
       <c r="E75" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F75" t="s">
         <v>725</v>
@@ -5387,7 +5387,7 @@
         <v>369</v>
       </c>
       <c r="E77" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F77" t="s">
         <v>735</v>
@@ -5503,7 +5503,7 @@
         <v>373</v>
       </c>
       <c r="E81" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F81" t="s">
         <v>752</v>
@@ -5590,7 +5590,7 @@
         <v>376</v>
       </c>
       <c r="E84" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="F84" t="s">
         <v>733</v>
@@ -5793,7 +5793,7 @@
         <v>383</v>
       </c>
       <c r="E91" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="F91" t="s">
         <v>733</v>
@@ -5822,7 +5822,7 @@
         <v>384</v>
       </c>
       <c r="E92" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F92" t="s">
         <v>722</v>
@@ -5880,7 +5880,7 @@
         <v>386</v>
       </c>
       <c r="E94" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F94" t="s">
         <v>722</v>
@@ -5938,7 +5938,7 @@
         <v>388</v>
       </c>
       <c r="E96" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F96" t="s">
         <v>741</v>
@@ -5967,7 +5967,7 @@
         <v>389</v>
       </c>
       <c r="E97" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F97" t="s">
         <v>722</v>
@@ -5996,7 +5996,7 @@
         <v>390</v>
       </c>
       <c r="E98" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F98" t="s">
         <v>756</v>
@@ -6141,7 +6141,7 @@
         <v>395</v>
       </c>
       <c r="E103" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F103" t="s">
         <v>727</v>
@@ -6373,7 +6373,7 @@
         <v>403</v>
       </c>
       <c r="E111" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F111" t="s">
         <v>722</v>
@@ -6431,7 +6431,7 @@
         <v>405</v>
       </c>
       <c r="E113" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F113" t="s">
         <v>722</v>
@@ -6634,7 +6634,7 @@
         <v>412</v>
       </c>
       <c r="E120" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F120" t="s">
         <v>722</v>
@@ -6895,7 +6895,7 @@
         <v>421</v>
       </c>
       <c r="E129" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F129" t="s">
         <v>728</v>
@@ -7127,7 +7127,7 @@
         <v>429</v>
       </c>
       <c r="E137" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F137" t="s">
         <v>723</v>
@@ -7156,7 +7156,7 @@
         <v>430</v>
       </c>
       <c r="E138" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F138" t="s">
         <v>760</v>
@@ -7272,7 +7272,7 @@
         <v>434</v>
       </c>
       <c r="E142" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F142" t="s">
         <v>733</v>
@@ -7327,7 +7327,7 @@
         <v>436</v>
       </c>
       <c r="E144" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F144" t="s">
         <v>728</v>
@@ -7385,7 +7385,7 @@
         <v>438</v>
       </c>
       <c r="E146" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F146" t="s">
         <v>722</v>
@@ -7617,7 +7617,7 @@
         <v>446</v>
       </c>
       <c r="E154" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="F154" t="s">
         <v>737</v>
@@ -7704,7 +7704,7 @@
         <v>449</v>
       </c>
       <c r="E157" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F157" t="s">
         <v>760</v>
@@ -7849,7 +7849,7 @@
         <v>454</v>
       </c>
       <c r="E162" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F162" t="s">
         <v>728</v>
@@ -7904,7 +7904,7 @@
         <v>456</v>
       </c>
       <c r="E164" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F164" t="s">
         <v>759</v>
@@ -7991,7 +7991,7 @@
         <v>459</v>
       </c>
       <c r="E167" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="F167" t="s">
         <v>733</v>
@@ -8136,7 +8136,7 @@
         <v>464</v>
       </c>
       <c r="E172" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F172" t="s">
         <v>751</v>
@@ -8165,7 +8165,7 @@
         <v>465</v>
       </c>
       <c r="E173" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F173" t="s">
         <v>722</v>
@@ -8194,7 +8194,7 @@
         <v>466</v>
       </c>
       <c r="E174" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="F174" t="s">
         <v>733</v>
@@ -8223,7 +8223,7 @@
         <v>467</v>
       </c>
       <c r="E175" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F175" t="s">
         <v>762</v>
@@ -8281,7 +8281,7 @@
         <v>469</v>
       </c>
       <c r="E177" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F177" t="s">
         <v>728</v>
@@ -8687,7 +8687,7 @@
         <v>483</v>
       </c>
       <c r="E191" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F191" t="s">
         <v>731</v>
@@ -8977,7 +8977,7 @@
         <v>493</v>
       </c>
       <c r="E201" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F201" t="s">
         <v>735</v>
@@ -9122,7 +9122,7 @@
         <v>498</v>
       </c>
       <c r="E206" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F206" t="s">
         <v>754</v>
@@ -9528,7 +9528,7 @@
         <v>512</v>
       </c>
       <c r="E220" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F220" t="s">
         <v>727</v>
@@ -9818,7 +9818,7 @@
         <v>522</v>
       </c>
       <c r="E230" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F230" t="s">
         <v>762</v>
@@ -9876,7 +9876,7 @@
         <v>524</v>
       </c>
       <c r="E232" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F232" t="s">
         <v>722</v>
@@ -9963,7 +9963,7 @@
         <v>527</v>
       </c>
       <c r="E235" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F235" t="s">
         <v>733</v>
@@ -10050,7 +10050,7 @@
         <v>530</v>
       </c>
       <c r="E238" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F238" t="s">
         <v>735</v>
@@ -10079,7 +10079,7 @@
         <v>531</v>
       </c>
       <c r="E239" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F239" t="s">
         <v>769</v>
@@ -10166,7 +10166,7 @@
         <v>534</v>
       </c>
       <c r="E242" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F242" t="s">
         <v>722</v>
@@ -10311,7 +10311,7 @@
         <v>539</v>
       </c>
       <c r="E247" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F247" t="s">
         <v>770</v>
@@ -10543,7 +10543,7 @@
         <v>547</v>
       </c>
       <c r="E255" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F255" t="s">
         <v>722</v>
@@ -10659,7 +10659,7 @@
         <v>551</v>
       </c>
       <c r="E259" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F259" t="s">
         <v>733</v>
@@ -10688,7 +10688,7 @@
         <v>552</v>
       </c>
       <c r="E260" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F260" t="s">
         <v>772</v>
@@ -10717,7 +10717,7 @@
         <v>553</v>
       </c>
       <c r="E261" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F261" t="s">
         <v>734</v>
@@ -10804,7 +10804,7 @@
         <v>556</v>
       </c>
       <c r="E264" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F264" t="s">
         <v>727</v>
@@ -10833,7 +10833,7 @@
         <v>557</v>
       </c>
       <c r="E265" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F265" t="s">
         <v>731</v>
@@ -10978,7 +10978,7 @@
         <v>562</v>
       </c>
       <c r="E270" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F270" t="s">
         <v>722</v>
@@ -11152,7 +11152,7 @@
         <v>568</v>
       </c>
       <c r="E276" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F276" t="s">
         <v>768</v>
@@ -11181,7 +11181,7 @@
         <v>569</v>
       </c>
       <c r="E277" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F277" t="s">
         <v>748</v>
@@ -11268,7 +11268,7 @@
         <v>572</v>
       </c>
       <c r="E280" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F280" t="s">
         <v>738</v>
@@ -11355,7 +11355,7 @@
         <v>575</v>
       </c>
       <c r="E283" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F283" t="s">
         <v>722</v>

--- a/1.xlsx
+++ b/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="927">
   <si>
     <t>Sno</t>
   </si>
@@ -1795,88 +1795,91 @@
     <t>{'harmless': 59, 'malicious': 7, 'suspicious': 1, 'undetected': 23, 'timeout': 0}</t>
   </si>
   <si>
+    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 7, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 9, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 10, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 52, 'malicious': 17, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
     <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 7, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 9, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 10, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 52, 'malicious': 17, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
   </si>
   <si>
     <t>{'harmless': 62, 'malicious': 5, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
@@ -3218,7 +3221,7 @@
         <v>577</v>
       </c>
       <c r="F2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G2" s="3">
         <v>45311.61894675926</v>
@@ -3227,7 +3230,7 @@
         <v>45341.32113425926</v>
       </c>
       <c r="I2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3247,7 +3250,7 @@
         <v>578</v>
       </c>
       <c r="F3" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G3" s="3">
         <v>45328.50989583333</v>
@@ -3256,7 +3259,7 @@
         <v>45341.27945601852</v>
       </c>
       <c r="I3" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3276,7 +3279,7 @@
         <v>578</v>
       </c>
       <c r="F4" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G4" s="3">
         <v>45306.97109953704</v>
@@ -3285,7 +3288,7 @@
         <v>45341.06746527777</v>
       </c>
       <c r="I4" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3305,7 +3308,7 @@
         <v>578</v>
       </c>
       <c r="F5" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G5" s="3">
         <v>45328.57457175926</v>
@@ -3314,7 +3317,7 @@
         <v>45341.27858796297</v>
       </c>
       <c r="I5" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3334,7 +3337,7 @@
         <v>579</v>
       </c>
       <c r="F6" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G6" s="3">
         <v>45337.51012731482</v>
@@ -3343,7 +3346,7 @@
         <v>45341.27866898148</v>
       </c>
       <c r="I6" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3363,7 +3366,7 @@
         <v>580</v>
       </c>
       <c r="F7" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G7" s="3">
         <v>45329.3558912037</v>
@@ -3372,7 +3375,7 @@
         <v>45341.32061342592</v>
       </c>
       <c r="I7" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3392,7 +3395,7 @@
         <v>581</v>
       </c>
       <c r="F8" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G8" s="3">
         <v>45337.50997685185</v>
@@ -3401,7 +3404,7 @@
         <v>45341.10480324074</v>
       </c>
       <c r="I8" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3421,7 +3424,7 @@
         <v>582</v>
       </c>
       <c r="F9" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G9" s="3">
         <v>45308.21690972222</v>
@@ -3430,7 +3433,7 @@
         <v>45341.10543981481</v>
       </c>
       <c r="I9" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3450,7 +3453,7 @@
         <v>583</v>
       </c>
       <c r="F10" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G10" s="3">
         <v>45329.50237268519</v>
@@ -3459,7 +3462,7 @@
         <v>45341.04172453703</v>
       </c>
       <c r="I10" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3479,7 +3482,7 @@
         <v>584</v>
       </c>
       <c r="F11" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G11" s="3">
         <v>45316.49925925926</v>
@@ -3488,7 +3491,7 @@
         <v>45341.10148148148</v>
       </c>
       <c r="I11" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3508,7 +3511,7 @@
         <v>585</v>
       </c>
       <c r="F12" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G12" s="3">
         <v>45329.01333333334</v>
@@ -3517,7 +3520,7 @@
         <v>45341.36274305556</v>
       </c>
       <c r="I12" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3537,7 +3540,7 @@
         <v>586</v>
       </c>
       <c r="F13" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G13" s="3">
         <v>45320.50914351852</v>
@@ -3546,7 +3549,7 @@
         <v>45341.02841435185</v>
       </c>
       <c r="I13" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3566,7 +3569,7 @@
         <v>587</v>
       </c>
       <c r="F14" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G14" s="3">
         <v>45329.05806712963</v>
@@ -3575,7 +3578,7 @@
         <v>45341.07314814815</v>
       </c>
       <c r="I14" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3595,7 +3598,7 @@
         <v>588</v>
       </c>
       <c r="F15" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G15" s="3">
         <v>45341.23758101852</v>
@@ -3604,7 +3607,7 @@
         <v>45341.23922453704</v>
       </c>
       <c r="I15" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3624,7 +3627,7 @@
         <v>589</v>
       </c>
       <c r="F16" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G16" s="3">
         <v>45311.33236111111</v>
@@ -3633,7 +3636,7 @@
         <v>45341.09497685185</v>
       </c>
       <c r="I16" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3653,7 +3656,7 @@
         <v>590</v>
       </c>
       <c r="F17" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G17" s="3">
         <v>45331.50390046297</v>
@@ -3662,7 +3665,7 @@
         <v>45341.03533564815</v>
       </c>
       <c r="I17" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3682,7 +3685,7 @@
         <v>578</v>
       </c>
       <c r="F18" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G18" s="3">
         <v>45336.62003472223</v>
@@ -3691,7 +3694,7 @@
         <v>45341.01741898148</v>
       </c>
       <c r="I18" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3711,7 +3714,7 @@
         <v>591</v>
       </c>
       <c r="F19" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G19" s="3">
         <v>45288.23121527778</v>
@@ -3720,7 +3723,7 @@
         <v>45302.48868055556</v>
       </c>
       <c r="I19" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3740,7 +3743,7 @@
         <v>592</v>
       </c>
       <c r="F20" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G20" s="3">
         <v>45307.52993055555</v>
@@ -3749,7 +3752,7 @@
         <v>45314.19462962963</v>
       </c>
       <c r="I20" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3769,7 +3772,7 @@
         <v>581</v>
       </c>
       <c r="F21" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G21" s="3">
         <v>45314.42365740741</v>
@@ -3778,7 +3781,7 @@
         <v>45340.51633101852</v>
       </c>
       <c r="I21" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3798,16 +3801,16 @@
         <v>593</v>
       </c>
       <c r="F22" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G22" s="3">
-        <v>45305.57067129629</v>
+        <v>45336.62097222222</v>
       </c>
       <c r="H22" s="3">
-        <v>45316.42155092592</v>
+        <v>45341.02842592593</v>
       </c>
       <c r="I22" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3827,7 +3830,7 @@
         <v>594</v>
       </c>
       <c r="F23" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G23" s="3">
         <v>45291.49997685185</v>
@@ -3836,7 +3839,7 @@
         <v>45314.49226851852</v>
       </c>
       <c r="I23" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3856,7 +3859,7 @@
         <v>595</v>
       </c>
       <c r="F24" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G24" s="3">
         <v>45309.80174768518</v>
@@ -3865,7 +3868,7 @@
         <v>45315.85729166667</v>
       </c>
       <c r="I24" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3885,7 +3888,7 @@
         <v>596</v>
       </c>
       <c r="F25" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G25" s="3">
         <v>45299.43368055556</v>
@@ -3894,7 +3897,7 @@
         <v>45316.37909722222</v>
       </c>
       <c r="I25" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3914,7 +3917,7 @@
         <v>597</v>
       </c>
       <c r="F26" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G26" s="3">
         <v>45314.17763888889</v>
@@ -3923,7 +3926,7 @@
         <v>45316.08064814815</v>
       </c>
       <c r="I26" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3943,7 +3946,7 @@
         <v>598</v>
       </c>
       <c r="F27" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G27" s="3">
         <v>45291.49208333333</v>
@@ -3952,7 +3955,7 @@
         <v>45316.34907407407</v>
       </c>
       <c r="I27" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3972,7 +3975,7 @@
         <v>599</v>
       </c>
       <c r="F28" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G28" s="3">
         <v>45289.73149305556</v>
@@ -3981,7 +3984,7 @@
         <v>45316.37931712963</v>
       </c>
       <c r="I28" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4001,7 +4004,7 @@
         <v>600</v>
       </c>
       <c r="F29" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G29" s="3">
         <v>45312.4952662037</v>
@@ -4010,7 +4013,7 @@
         <v>45315.52618055556</v>
       </c>
       <c r="I29" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4030,7 +4033,7 @@
         <v>601</v>
       </c>
       <c r="F30" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G30" s="3">
         <v>45307.49253472222</v>
@@ -4039,7 +4042,7 @@
         <v>45316.3793287037</v>
       </c>
       <c r="I30" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4059,7 +4062,7 @@
         <v>597</v>
       </c>
       <c r="F31" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G31" s="3">
         <v>45311.71104166667</v>
@@ -4068,7 +4071,7 @@
         <v>45316.37922453704</v>
       </c>
       <c r="I31" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4088,7 +4091,7 @@
         <v>597</v>
       </c>
       <c r="F32" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G32" s="3">
         <v>45312.34644675926</v>
@@ -4097,7 +4100,7 @@
         <v>45316.37908564815</v>
       </c>
       <c r="I32" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4117,7 +4120,7 @@
         <v>602</v>
       </c>
       <c r="F33" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G33" s="3">
         <v>44163.34006944444</v>
@@ -4126,7 +4129,7 @@
         <v>44163.34006944444</v>
       </c>
       <c r="I33" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4146,7 +4149,7 @@
         <v>603</v>
       </c>
       <c r="F34" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G34" s="3">
         <v>45286.80534722222</v>
@@ -4155,7 +4158,7 @@
         <v>45316.37934027778</v>
       </c>
       <c r="I34" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4175,7 +4178,7 @@
         <v>604</v>
       </c>
       <c r="F35" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G35" s="3">
         <v>45302.49230324074</v>
@@ -4184,7 +4187,7 @@
         <v>45314.98761574074</v>
       </c>
       <c r="I35" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4204,7 +4207,7 @@
         <v>605</v>
       </c>
       <c r="F36" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G36" s="3">
         <v>45302.49503472223</v>
@@ -4213,7 +4216,7 @@
         <v>45315.48547453704</v>
       </c>
       <c r="I36" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4233,7 +4236,7 @@
         <v>606</v>
       </c>
       <c r="F37" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G37" s="3">
         <v>45311.61938657407</v>
@@ -4242,7 +4245,7 @@
         <v>45316.42167824074</v>
       </c>
       <c r="I37" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4262,7 +4265,7 @@
         <v>601</v>
       </c>
       <c r="F38" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G38" s="3">
         <v>45297.0796412037</v>
@@ -4271,7 +4274,7 @@
         <v>45316.49811342593</v>
       </c>
       <c r="I38" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4291,7 +4294,7 @@
         <v>607</v>
       </c>
       <c r="F39" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G39" s="3">
         <v>45290.31696759259</v>
@@ -4300,7 +4303,7 @@
         <v>45316.49866898148</v>
       </c>
       <c r="I39" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4320,7 +4323,7 @@
         <v>608</v>
       </c>
       <c r="F40" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G40" s="3">
         <v>45313.59486111111</v>
@@ -4329,7 +4332,7 @@
         <v>45316.49662037037</v>
       </c>
       <c r="I40" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4349,7 +4352,7 @@
         <v>609</v>
       </c>
       <c r="F41" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G41" s="3">
         <v>45295.49177083333</v>
@@ -4358,7 +4361,7 @@
         <v>45316.49807870371</v>
       </c>
       <c r="I41" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4378,7 +4381,7 @@
         <v>610</v>
       </c>
       <c r="F42" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G42" s="3">
         <v>45311.92179398148</v>
@@ -4387,7 +4390,7 @@
         <v>45316.4971875</v>
       </c>
       <c r="I42" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4407,7 +4410,7 @@
         <v>609</v>
       </c>
       <c r="F43" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G43" s="3">
         <v>45296.05393518518</v>
@@ -4416,7 +4419,7 @@
         <v>45316.50489583334</v>
       </c>
       <c r="I43" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4436,7 +4439,7 @@
         <v>597</v>
       </c>
       <c r="F44" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G44" s="3">
         <v>45313.11333333333</v>
@@ -4445,7 +4448,7 @@
         <v>45316.49230324074</v>
       </c>
       <c r="I44" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4465,7 +4468,7 @@
         <v>600</v>
       </c>
       <c r="F45" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G45" s="3">
         <v>45306.61894675926</v>
@@ -4474,7 +4477,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I45" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4494,7 +4497,7 @@
         <v>611</v>
       </c>
       <c r="F46" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G46" s="3">
         <v>45312.49850694444</v>
@@ -4503,7 +4506,7 @@
         <v>45316.49799768518</v>
       </c>
       <c r="I46" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4523,7 +4526,7 @@
         <v>612</v>
       </c>
       <c r="F47" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G47" s="3">
         <v>45262.49515046296</v>
@@ -4532,7 +4535,7 @@
         <v>45309.07923611111</v>
       </c>
       <c r="I47" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4552,7 +4555,7 @@
         <v>607</v>
       </c>
       <c r="F48" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G48" s="3">
         <v>45298.49847222222</v>
@@ -4561,7 +4564,7 @@
         <v>45316.49944444445</v>
       </c>
       <c r="I48" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4581,7 +4584,7 @@
         <v>613</v>
       </c>
       <c r="F49" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G49" s="3">
         <v>45311.61908564815</v>
@@ -4590,7 +4593,7 @@
         <v>45316.49847222222</v>
       </c>
       <c r="I49" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4610,7 +4613,7 @@
         <v>614</v>
       </c>
       <c r="F50" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G50" s="3">
         <v>45311.61989583333</v>
@@ -4619,7 +4622,7 @@
         <v>45316.50482638889</v>
       </c>
       <c r="I50" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4639,7 +4642,7 @@
         <v>601</v>
       </c>
       <c r="F51" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G51" s="3">
         <v>45316.50053240741</v>
@@ -4648,7 +4651,7 @@
         <v>45316.50232638889</v>
       </c>
       <c r="I51" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4668,7 +4671,7 @@
         <v>615</v>
       </c>
       <c r="F52" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G52" s="3">
         <v>45313.05881944444</v>
@@ -4677,7 +4680,7 @@
         <v>45314.42322916666</v>
       </c>
       <c r="I52" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4697,7 +4700,7 @@
         <v>616</v>
       </c>
       <c r="F53" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G53" s="3">
         <v>45316.5015162037</v>
@@ -4706,7 +4709,7 @@
         <v>45316.50331018519</v>
       </c>
       <c r="I53" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4726,7 +4729,7 @@
         <v>617</v>
       </c>
       <c r="F54" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G54" s="3">
         <v>45291.62113425926</v>
@@ -4735,7 +4738,7 @@
         <v>45316.49827546296</v>
       </c>
       <c r="I54" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4755,7 +4758,7 @@
         <v>618</v>
       </c>
       <c r="F55" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G55" s="3">
         <v>45287.49758101852</v>
@@ -4764,7 +4767,7 @@
         <v>45316.50458333334</v>
       </c>
       <c r="I55" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4784,7 +4787,7 @@
         <v>619</v>
       </c>
       <c r="F56" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G56" s="3">
         <v>45280.75131944445</v>
@@ -4793,7 +4796,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I56" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4813,7 +4816,7 @@
         <v>600</v>
       </c>
       <c r="F57" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G57" s="3">
         <v>45291.49048611111</v>
@@ -4822,7 +4825,7 @@
         <v>45316.50336805556</v>
       </c>
       <c r="I57" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4842,7 +4845,7 @@
         <v>620</v>
       </c>
       <c r="F58" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G58" s="3">
         <v>45310.86956018519</v>
@@ -4851,7 +4854,7 @@
         <v>45314.48899305556</v>
       </c>
       <c r="I58" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4868,10 +4871,10 @@
         <v>351</v>
       </c>
       <c r="E59" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="F59" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G59" s="3">
         <v>45311.61930555556</v>
@@ -4880,7 +4883,7 @@
         <v>45316.49861111111</v>
       </c>
       <c r="I59" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4897,10 +4900,10 @@
         <v>352</v>
       </c>
       <c r="E60" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F60" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G60" s="3">
         <v>45313.76346064815</v>
@@ -4909,7 +4912,7 @@
         <v>45316.49800925926</v>
       </c>
       <c r="I60" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4926,10 +4929,10 @@
         <v>353</v>
       </c>
       <c r="E61" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F61" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G61" s="3">
         <v>45278.11224537037</v>
@@ -4938,7 +4941,7 @@
         <v>45302.49298611111</v>
       </c>
       <c r="I61" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4958,7 +4961,7 @@
         <v>609</v>
       </c>
       <c r="F62" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G62" s="3">
         <v>45278.21631944444</v>
@@ -4967,7 +4970,7 @@
         <v>45316.50450231481</v>
       </c>
       <c r="I62" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4987,7 +4990,7 @@
         <v>602</v>
       </c>
       <c r="F63" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G63" s="3">
         <v>45163.2121412037</v>
@@ -4996,7 +4999,7 @@
         <v>45163.2121412037</v>
       </c>
       <c r="I63" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -5016,7 +5019,7 @@
         <v>605</v>
       </c>
       <c r="F64" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G64" s="3">
         <v>45316.49957175926</v>
@@ -5025,7 +5028,7 @@
         <v>45316.50452546297</v>
       </c>
       <c r="I64" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -5042,10 +5045,10 @@
         <v>357</v>
       </c>
       <c r="E65" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F65" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G65" s="3">
         <v>45297.49180555555</v>
@@ -5054,7 +5057,7 @@
         <v>45316.50127314815</v>
       </c>
       <c r="I65" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -5071,10 +5074,10 @@
         <v>358</v>
       </c>
       <c r="E66" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F66" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G66" s="3">
         <v>45297.09299768518</v>
@@ -5083,7 +5086,7 @@
         <v>45316.5039699074</v>
       </c>
       <c r="I66" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -5100,10 +5103,10 @@
         <v>359</v>
       </c>
       <c r="E67" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F67" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G67" s="3">
         <v>45316.50059027778</v>
@@ -5112,7 +5115,7 @@
         <v>45316.50255787037</v>
       </c>
       <c r="I67" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -5129,10 +5132,10 @@
         <v>360</v>
       </c>
       <c r="E68" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F68" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G68" s="3">
         <v>45313.63670138889</v>
@@ -5141,7 +5144,7 @@
         <v>45315.90416666667</v>
       </c>
       <c r="I68" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -5158,10 +5161,10 @@
         <v>361</v>
       </c>
       <c r="E69" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="F69" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G69" s="3">
         <v>45304.51188657407</v>
@@ -5170,7 +5173,7 @@
         <v>45315.56863425926</v>
       </c>
       <c r="I69" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -5187,10 +5190,10 @@
         <v>362</v>
       </c>
       <c r="E70" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F70" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G70" s="3">
         <v>45291.49329861111</v>
@@ -5199,7 +5202,7 @@
         <v>45312.93239583333</v>
       </c>
       <c r="I70" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -5216,10 +5219,10 @@
         <v>363</v>
       </c>
       <c r="E71" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F71" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G71" s="3">
         <v>45300.57674768518</v>
@@ -5228,7 +5231,7 @@
         <v>45315.52626157407</v>
       </c>
       <c r="I71" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -5245,10 +5248,10 @@
         <v>364</v>
       </c>
       <c r="E72" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F72" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G72" s="3">
         <v>45310.40046296296</v>
@@ -5257,7 +5260,7 @@
         <v>45312.49293981482</v>
       </c>
       <c r="I72" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5274,10 +5277,10 @@
         <v>365</v>
       </c>
       <c r="E73" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F73" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G73" s="3">
         <v>45291.49876157408</v>
@@ -5286,7 +5289,7 @@
         <v>45314.49362268519</v>
       </c>
       <c r="I73" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5303,10 +5306,10 @@
         <v>366</v>
       </c>
       <c r="E74" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F74" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G74" s="3">
         <v>45292.49576388889</v>
@@ -5315,7 +5318,7 @@
         <v>45314.64596064815</v>
       </c>
       <c r="I74" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5335,13 +5338,13 @@
         <v>602</v>
       </c>
       <c r="F75" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H75" s="3">
         <v>45047.30018518519</v>
       </c>
       <c r="I75" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -5358,10 +5361,10 @@
         <v>368</v>
       </c>
       <c r="E76" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F76" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G76" s="3">
         <v>45291.49430555556</v>
@@ -5370,7 +5373,7 @@
         <v>45316.16467592592</v>
       </c>
       <c r="I76" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5390,7 +5393,7 @@
         <v>597</v>
       </c>
       <c r="F77" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G77" s="3">
         <v>45283.62505787037</v>
@@ -5399,7 +5402,7 @@
         <v>45309.04886574074</v>
       </c>
       <c r="I77" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5416,10 +5419,10 @@
         <v>370</v>
       </c>
       <c r="E78" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F78" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G78" s="3">
         <v>45262.59487268519</v>
@@ -5428,7 +5431,7 @@
         <v>45309.01453703704</v>
       </c>
       <c r="I78" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -5445,10 +5448,10 @@
         <v>371</v>
       </c>
       <c r="E79" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F79" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G79" s="3">
         <v>45312.49354166666</v>
@@ -5457,7 +5460,7 @@
         <v>45316.164375</v>
       </c>
       <c r="I79" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -5477,7 +5480,7 @@
         <v>620</v>
       </c>
       <c r="F80" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G80" s="3">
         <v>45312.7619675926</v>
@@ -5486,7 +5489,7 @@
         <v>45315.65320601852</v>
       </c>
       <c r="I80" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5506,7 +5509,7 @@
         <v>607</v>
       </c>
       <c r="F81" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G81" s="3">
         <v>45310.90116898148</v>
@@ -5515,7 +5518,7 @@
         <v>45316.2090625</v>
       </c>
       <c r="I81" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5532,10 +5535,10 @@
         <v>374</v>
       </c>
       <c r="E82" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F82" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G82" s="3">
         <v>45315.1578125</v>
@@ -5544,7 +5547,7 @@
         <v>45316.16471064815</v>
       </c>
       <c r="I82" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -5561,10 +5564,10 @@
         <v>375</v>
       </c>
       <c r="E83" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F83" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G83" s="3">
         <v>45287.44400462963</v>
@@ -5573,7 +5576,7 @@
         <v>45314.49243055555</v>
       </c>
       <c r="I83" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -5593,7 +5596,7 @@
         <v>615</v>
       </c>
       <c r="F84" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G84" s="3">
         <v>45309.58261574074</v>
@@ -5602,7 +5605,7 @@
         <v>45314.42337962963</v>
       </c>
       <c r="I84" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -5619,10 +5622,10 @@
         <v>377</v>
       </c>
       <c r="E85" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F85" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G85" s="3">
         <v>45280.04030092592</v>
@@ -5631,7 +5634,7 @@
         <v>45309.01909722222</v>
       </c>
       <c r="I85" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -5648,10 +5651,10 @@
         <v>378</v>
       </c>
       <c r="E86" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F86" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G86" s="3">
         <v>45302.49703703704</v>
@@ -5660,7 +5663,7 @@
         <v>45316.20864583334</v>
       </c>
       <c r="I86" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -5677,10 +5680,10 @@
         <v>379</v>
       </c>
       <c r="E87" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F87" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G87" s="3">
         <v>45313.29277777778</v>
@@ -5689,7 +5692,7 @@
         <v>45315.23820601852</v>
       </c>
       <c r="I87" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5706,10 +5709,10 @@
         <v>380</v>
       </c>
       <c r="E88" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F88" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G88" s="3">
         <v>45286.50180555556</v>
@@ -5718,7 +5721,7 @@
         <v>45312.67471064815</v>
       </c>
       <c r="I88" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5735,10 +5738,10 @@
         <v>381</v>
       </c>
       <c r="E89" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F89" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G89" s="3">
         <v>45311.42429398148</v>
@@ -5747,7 +5750,7 @@
         <v>45314.89614583334</v>
       </c>
       <c r="I89" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -5764,10 +5767,10 @@
         <v>382</v>
       </c>
       <c r="E90" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F90" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G90" s="3">
         <v>45306.6199537037</v>
@@ -5776,7 +5779,7 @@
         <v>45314.49379629629</v>
       </c>
       <c r="I90" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -5796,7 +5799,7 @@
         <v>615</v>
       </c>
       <c r="F91" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G91" s="3">
         <v>45315.42351851852</v>
@@ -5805,7 +5808,7 @@
         <v>45315.42354166666</v>
       </c>
       <c r="I91" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5825,7 +5828,7 @@
         <v>601</v>
       </c>
       <c r="F92" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G92" s="3">
         <v>45287.95120370371</v>
@@ -5834,7 +5837,7 @@
         <v>45315.61121527778</v>
       </c>
       <c r="I92" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -5851,10 +5854,10 @@
         <v>385</v>
       </c>
       <c r="E93" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F93" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G93" s="3">
         <v>45312.49561342593</v>
@@ -5863,7 +5866,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I93" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5880,10 +5883,10 @@
         <v>386</v>
       </c>
       <c r="E94" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="F94" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G94" s="3">
         <v>45291.62100694444</v>
@@ -5892,7 +5895,7 @@
         <v>45314.49383101852</v>
       </c>
       <c r="I94" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5909,10 +5912,10 @@
         <v>387</v>
       </c>
       <c r="E95" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F95" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G95" s="3">
         <v>44926.35877314815</v>
@@ -5921,7 +5924,7 @@
         <v>44926.35877314815</v>
       </c>
       <c r="I95" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5938,10 +5941,10 @@
         <v>388</v>
       </c>
       <c r="E96" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="F96" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G96" s="3">
         <v>45297.49363425926</v>
@@ -5950,7 +5953,7 @@
         <v>45311.89606481481</v>
       </c>
       <c r="I96" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5970,7 +5973,7 @@
         <v>613</v>
       </c>
       <c r="F97" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G97" s="3">
         <v>45314.49303240741</v>
@@ -5979,7 +5982,7 @@
         <v>45315.65373842593</v>
       </c>
       <c r="I97" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5999,7 +6002,7 @@
         <v>602</v>
       </c>
       <c r="F98" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G98" s="3">
         <v>45313.05805555556</v>
@@ -6008,7 +6011,7 @@
         <v>45313.05806712963</v>
       </c>
       <c r="I98" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -6025,10 +6028,10 @@
         <v>391</v>
       </c>
       <c r="E99" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F99" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G99" s="3">
         <v>45307.38726851852</v>
@@ -6037,7 +6040,7 @@
         <v>45314.85255787037</v>
       </c>
       <c r="I99" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -6054,10 +6057,10 @@
         <v>392</v>
       </c>
       <c r="E100" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F100" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G100" s="3">
         <v>45293.03614583334</v>
@@ -6066,7 +6069,7 @@
         <v>45293.0361574074</v>
       </c>
       <c r="I100" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6083,10 +6086,10 @@
         <v>393</v>
       </c>
       <c r="E101" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F101" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G101" s="3">
         <v>45314.50199074074</v>
@@ -6095,7 +6098,7 @@
         <v>45315.65385416667</v>
       </c>
       <c r="I101" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -6112,10 +6115,10 @@
         <v>394</v>
       </c>
       <c r="E102" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F102" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G102" s="3">
         <v>45307.37951388889</v>
@@ -6124,7 +6127,7 @@
         <v>45315.36158564815</v>
       </c>
       <c r="I102" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -6144,7 +6147,7 @@
         <v>602</v>
       </c>
       <c r="F103" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G103" s="3">
         <v>45307.00873842592</v>
@@ -6153,7 +6156,7 @@
         <v>45307.00875</v>
       </c>
       <c r="I103" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -6170,10 +6173,10 @@
         <v>396</v>
       </c>
       <c r="E104" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F104" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G104" s="3">
         <v>45315.42385416666</v>
@@ -6182,7 +6185,7 @@
         <v>45315.42386574074</v>
       </c>
       <c r="I104" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -6199,10 +6202,10 @@
         <v>397</v>
       </c>
       <c r="E105" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F105" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G105" s="3">
         <v>45291.49836805555</v>
@@ -6211,7 +6214,7 @@
         <v>45315.65422453704</v>
       </c>
       <c r="I105" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -6228,10 +6231,10 @@
         <v>398</v>
       </c>
       <c r="E106" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F106" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G106" s="3">
         <v>45280.57280092593</v>
@@ -6240,7 +6243,7 @@
         <v>45309.02465277778</v>
       </c>
       <c r="I106" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -6257,10 +6260,10 @@
         <v>399</v>
       </c>
       <c r="E107" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F107" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G107" s="3">
         <v>45302.49490740741</v>
@@ -6269,7 +6272,7 @@
         <v>45312.88666666667</v>
       </c>
       <c r="I107" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -6286,10 +6289,10 @@
         <v>400</v>
       </c>
       <c r="E108" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F108" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G108" s="3">
         <v>45288.28815972222</v>
@@ -6298,7 +6301,7 @@
         <v>45315.60980324074</v>
       </c>
       <c r="I108" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -6315,10 +6318,10 @@
         <v>401</v>
       </c>
       <c r="E109" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F109" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G109" s="3">
         <v>45295.49231481482</v>
@@ -6327,7 +6330,7 @@
         <v>45315.61019675926</v>
       </c>
       <c r="I109" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -6344,10 +6347,10 @@
         <v>402</v>
       </c>
       <c r="E110" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F110" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G110" s="3">
         <v>45312.76140046296</v>
@@ -6356,7 +6359,7 @@
         <v>45314.69101851852</v>
       </c>
       <c r="I110" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -6376,7 +6379,7 @@
         <v>599</v>
       </c>
       <c r="F111" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G111" s="3">
         <v>45314.49325231482</v>
@@ -6385,7 +6388,7 @@
         <v>45315.61035879629</v>
       </c>
       <c r="I111" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -6402,10 +6405,10 @@
         <v>404</v>
       </c>
       <c r="E112" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F112" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G112" s="3">
         <v>45313.42341435186</v>
@@ -6414,7 +6417,7 @@
         <v>45314.19578703704</v>
       </c>
       <c r="I112" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6434,7 +6437,7 @@
         <v>601</v>
       </c>
       <c r="F113" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G113" s="3">
         <v>45292.49325231482</v>
@@ -6443,7 +6446,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I113" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -6460,10 +6463,10 @@
         <v>406</v>
       </c>
       <c r="E114" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F114" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G114" s="3">
         <v>45313.0588425926</v>
@@ -6472,7 +6475,7 @@
         <v>45314.42222222222</v>
       </c>
       <c r="I114" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -6489,10 +6492,10 @@
         <v>407</v>
       </c>
       <c r="E115" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F115" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G115" s="3">
         <v>45307.5822337963</v>
@@ -6501,7 +6504,7 @@
         <v>45314.77590277778</v>
       </c>
       <c r="I115" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -6518,10 +6521,10 @@
         <v>408</v>
       </c>
       <c r="E116" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F116" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G116" s="3">
         <v>45298.49490740741</v>
@@ -6530,7 +6533,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I116" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -6547,10 +6550,10 @@
         <v>409</v>
       </c>
       <c r="E117" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F117" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G117" s="3">
         <v>45300.43424768518</v>
@@ -6559,7 +6562,7 @@
         <v>45314.49525462963</v>
       </c>
       <c r="I117" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -6576,10 +6579,10 @@
         <v>410</v>
       </c>
       <c r="E118" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F118" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G118" s="3">
         <v>45287.49133101852</v>
@@ -6588,7 +6591,7 @@
         <v>45315.68306712963</v>
       </c>
       <c r="I118" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -6605,10 +6608,10 @@
         <v>411</v>
       </c>
       <c r="E119" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F119" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G119" s="3">
         <v>45315.24193287037</v>
@@ -6617,7 +6620,7 @@
         <v>45315.65413194444</v>
       </c>
       <c r="I119" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -6637,7 +6640,7 @@
         <v>601</v>
       </c>
       <c r="F120" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G120" s="3">
         <v>45296.62521990741</v>
@@ -6646,7 +6649,7 @@
         <v>45315.32032407408</v>
       </c>
       <c r="I120" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -6663,10 +6666,10 @@
         <v>413</v>
       </c>
       <c r="E121" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F121" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G121" s="3">
         <v>45293.4970949074</v>
@@ -6675,7 +6678,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I121" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -6692,10 +6695,10 @@
         <v>414</v>
       </c>
       <c r="E122" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F122" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G122" s="3">
         <v>45282.72908564815</v>
@@ -6704,7 +6707,7 @@
         <v>45282.72909722223</v>
       </c>
       <c r="I122" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -6721,10 +6724,10 @@
         <v>415</v>
       </c>
       <c r="E123" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F123" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G123" s="3">
         <v>45314.49591435185</v>
@@ -6733,7 +6736,7 @@
         <v>45315.69609953704</v>
       </c>
       <c r="I123" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -6750,10 +6753,10 @@
         <v>416</v>
       </c>
       <c r="E124" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F124" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G124" s="3">
         <v>45300.97112268519</v>
@@ -6762,7 +6765,7 @@
         <v>45315.69616898148</v>
       </c>
       <c r="I124" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -6779,10 +6782,10 @@
         <v>417</v>
       </c>
       <c r="E125" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F125" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G125" s="3">
         <v>45273.65564814815</v>
@@ -6791,7 +6794,7 @@
         <v>45303.42461805556</v>
       </c>
       <c r="I125" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -6811,7 +6814,7 @@
         <v>620</v>
       </c>
       <c r="F126" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G126" s="3">
         <v>45298.21359953703</v>
@@ -6820,7 +6823,7 @@
         <v>45314.49523148148</v>
       </c>
       <c r="I126" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -6837,10 +6840,10 @@
         <v>419</v>
       </c>
       <c r="E127" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F127" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G127" s="3">
         <v>45308.42383101852</v>
@@ -6849,7 +6852,7 @@
         <v>45314.49195601852</v>
       </c>
       <c r="I127" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -6866,10 +6869,10 @@
         <v>420</v>
       </c>
       <c r="E128" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F128" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G128" s="3">
         <v>45294.41019675926</v>
@@ -6878,7 +6881,7 @@
         <v>45315.69918981481</v>
       </c>
       <c r="I128" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -6898,7 +6901,7 @@
         <v>596</v>
       </c>
       <c r="F129" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G129" s="3">
         <v>45310.61224537037</v>
@@ -6907,7 +6910,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I129" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -6924,10 +6927,10 @@
         <v>422</v>
       </c>
       <c r="E130" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F130" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G130" s="3">
         <v>45304.64673611111</v>
@@ -6936,7 +6939,7 @@
         <v>45315.6959375</v>
       </c>
       <c r="I130" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -6953,10 +6956,10 @@
         <v>423</v>
       </c>
       <c r="E131" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F131" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G131" s="3">
         <v>45295.49403935186</v>
@@ -6965,7 +6968,7 @@
         <v>45315.69605324074</v>
       </c>
       <c r="I131" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -6982,10 +6985,10 @@
         <v>424</v>
       </c>
       <c r="E132" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F132" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G132" s="3">
         <v>45298.06329861111</v>
@@ -6994,7 +6997,7 @@
         <v>45314.49458333333</v>
       </c>
       <c r="I132" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -7011,10 +7014,10 @@
         <v>425</v>
       </c>
       <c r="E133" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F133" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G133" s="3">
         <v>45297.49041666667</v>
@@ -7023,7 +7026,7 @@
         <v>45315.70159722222</v>
       </c>
       <c r="I133" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -7040,10 +7043,10 @@
         <v>426</v>
       </c>
       <c r="E134" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F134" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G134" s="3">
         <v>45296.21274305556</v>
@@ -7052,7 +7055,7 @@
         <v>45309.05621527778</v>
       </c>
       <c r="I134" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -7069,10 +7072,10 @@
         <v>427</v>
       </c>
       <c r="E135" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F135" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G135" s="3">
         <v>45307.08791666666</v>
@@ -7081,7 +7084,7 @@
         <v>45315.65327546297</v>
       </c>
       <c r="I135" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -7098,10 +7101,10 @@
         <v>428</v>
       </c>
       <c r="E136" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F136" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G136" s="3">
         <v>45314.49842592593</v>
@@ -7110,7 +7113,7 @@
         <v>45314.67444444444</v>
       </c>
       <c r="I136" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -7130,7 +7133,7 @@
         <v>597</v>
       </c>
       <c r="F137" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G137" s="3">
         <v>45310.65872685185</v>
@@ -7139,7 +7142,7 @@
         <v>45314.49422453704</v>
       </c>
       <c r="I137" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -7159,7 +7162,7 @@
         <v>597</v>
       </c>
       <c r="F138" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G138" s="3">
         <v>45312.13112268518</v>
@@ -7168,7 +7171,7 @@
         <v>45315.6537962963</v>
       </c>
       <c r="I138" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -7185,10 +7188,10 @@
         <v>431</v>
       </c>
       <c r="E139" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F139" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G139" s="3">
         <v>45270.59310185185</v>
@@ -7197,7 +7200,7 @@
         <v>45309.07831018518</v>
       </c>
       <c r="I139" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -7214,10 +7217,10 @@
         <v>432</v>
       </c>
       <c r="E140" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F140" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G140" s="3">
         <v>45278.77987268518</v>
@@ -7226,7 +7229,7 @@
         <v>45314.6009837963</v>
       </c>
       <c r="I140" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -7246,7 +7249,7 @@
         <v>620</v>
       </c>
       <c r="F141" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G141" s="3">
         <v>45314.49572916667</v>
@@ -7255,7 +7258,7 @@
         <v>45314.67103009259</v>
       </c>
       <c r="I141" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -7275,13 +7278,13 @@
         <v>602</v>
       </c>
       <c r="F142" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H142" s="3">
         <v>43999.85027777778</v>
       </c>
       <c r="I142" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -7298,10 +7301,10 @@
         <v>435</v>
       </c>
       <c r="E143" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F143" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G143" s="3">
         <v>45309.54311342593</v>
@@ -7310,7 +7313,7 @@
         <v>45316.16458333333</v>
       </c>
       <c r="I143" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -7330,7 +7333,7 @@
         <v>602</v>
       </c>
       <c r="F144" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G144" s="3">
         <v>45306.51280092593</v>
@@ -7339,7 +7342,7 @@
         <v>45306.51280092593</v>
       </c>
       <c r="I144" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -7356,10 +7359,10 @@
         <v>437</v>
       </c>
       <c r="E145" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F145" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G145" s="3">
         <v>45314.49275462963</v>
@@ -7368,7 +7371,7 @@
         <v>45315.73717592593</v>
       </c>
       <c r="I145" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -7388,7 +7391,7 @@
         <v>608</v>
       </c>
       <c r="F146" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G146" s="3">
         <v>45308.77947916667</v>
@@ -7397,7 +7400,7 @@
         <v>45309.07209490741</v>
       </c>
       <c r="I146" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -7414,10 +7417,10 @@
         <v>439</v>
       </c>
       <c r="E147" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F147" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G147" s="3">
         <v>45307.50165509259</v>
@@ -7426,7 +7429,7 @@
         <v>45312.88640046296</v>
       </c>
       <c r="I147" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -7443,10 +7446,10 @@
         <v>440</v>
       </c>
       <c r="E148" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F148" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G148" s="3">
         <v>45294.12988425926</v>
@@ -7455,7 +7458,7 @@
         <v>45314.49341435185</v>
       </c>
       <c r="I148" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -7472,10 +7475,10 @@
         <v>441</v>
       </c>
       <c r="E149" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F149" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G149" s="3">
         <v>45296.33108796296</v>
@@ -7484,7 +7487,7 @@
         <v>45314.51508101852</v>
       </c>
       <c r="I149" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -7501,10 +7504,10 @@
         <v>442</v>
       </c>
       <c r="E150" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F150" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G150" s="3">
         <v>45295.49210648148</v>
@@ -7513,7 +7516,7 @@
         <v>45315.69587962963</v>
       </c>
       <c r="I150" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -7530,10 +7533,10 @@
         <v>443</v>
       </c>
       <c r="E151" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F151" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G151" s="3">
         <v>45314.49277777778</v>
@@ -7542,7 +7545,7 @@
         <v>45315.73741898148</v>
       </c>
       <c r="I151" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -7559,10 +7562,10 @@
         <v>444</v>
       </c>
       <c r="E152" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F152" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G152" s="3">
         <v>45308.74111111111</v>
@@ -7571,7 +7574,7 @@
         <v>45310.69127314815</v>
       </c>
       <c r="I152" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -7588,10 +7591,10 @@
         <v>445</v>
       </c>
       <c r="E153" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F153" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G153" s="3">
         <v>45311.61907407407</v>
@@ -7600,7 +7603,7 @@
         <v>45315.73760416666</v>
       </c>
       <c r="I153" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -7620,7 +7623,7 @@
         <v>615</v>
       </c>
       <c r="F154" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G154" s="3">
         <v>45313.06128472222</v>
@@ -7629,7 +7632,7 @@
         <v>45314.4228125</v>
       </c>
       <c r="I154" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -7646,10 +7649,10 @@
         <v>447</v>
       </c>
       <c r="E155" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F155" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G155" s="3">
         <v>45291.49923611111</v>
@@ -7658,7 +7661,7 @@
         <v>45312.49590277778</v>
       </c>
       <c r="I155" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -7675,10 +7678,10 @@
         <v>448</v>
       </c>
       <c r="E156" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F156" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G156" s="3">
         <v>45302.49706018518</v>
@@ -7687,7 +7690,7 @@
         <v>45315.07060185185</v>
       </c>
       <c r="I156" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -7707,7 +7710,7 @@
         <v>599</v>
       </c>
       <c r="F157" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G157" s="3">
         <v>45286.49168981481</v>
@@ -7716,7 +7719,7 @@
         <v>45315.73706018519</v>
       </c>
       <c r="I157" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -7733,10 +7736,10 @@
         <v>450</v>
       </c>
       <c r="E158" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F158" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G158" s="3">
         <v>45306.62078703703</v>
@@ -7745,7 +7748,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I158" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -7762,10 +7765,10 @@
         <v>451</v>
       </c>
       <c r="E159" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F159" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G159" s="3">
         <v>45297.49820601852</v>
@@ -7774,7 +7777,7 @@
         <v>45315.73712962963</v>
       </c>
       <c r="I159" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -7791,10 +7794,10 @@
         <v>452</v>
       </c>
       <c r="E160" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F160" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G160" s="3">
         <v>45314.49293981482</v>
@@ -7803,7 +7806,7 @@
         <v>45315.73753472222</v>
       </c>
       <c r="I160" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -7820,10 +7823,10 @@
         <v>453</v>
       </c>
       <c r="E161" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F161" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G161" s="3">
         <v>45302.49929398148</v>
@@ -7832,7 +7835,7 @@
         <v>45314.49518518519</v>
       </c>
       <c r="I161" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -7852,13 +7855,13 @@
         <v>602</v>
       </c>
       <c r="F162" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H162" s="3">
         <v>45307.36160879629</v>
       </c>
       <c r="I162" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -7875,10 +7878,10 @@
         <v>455</v>
       </c>
       <c r="E163" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F163" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G163" s="3">
         <v>45314.4933912037</v>
@@ -7887,7 +7890,7 @@
         <v>45316.12230324074</v>
       </c>
       <c r="I163" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -7907,7 +7910,7 @@
         <v>610</v>
       </c>
       <c r="F164" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G164" s="3">
         <v>45307.36724537037</v>
@@ -7916,7 +7919,7 @@
         <v>45316.16459490741</v>
       </c>
       <c r="I164" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -7933,10 +7936,10 @@
         <v>457</v>
       </c>
       <c r="E165" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F165" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G165" s="3">
         <v>45297.31922453704</v>
@@ -7945,7 +7948,7 @@
         <v>45314.49394675926</v>
       </c>
       <c r="I165" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -7962,10 +7965,10 @@
         <v>458</v>
       </c>
       <c r="E166" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F166" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G166" s="3">
         <v>45315.42201388889</v>
@@ -7974,7 +7977,7 @@
         <v>45315.7841550926</v>
       </c>
       <c r="I166" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -7994,7 +7997,7 @@
         <v>615</v>
       </c>
       <c r="F167" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G167" s="3">
         <v>45314.42302083333</v>
@@ -8003,7 +8006,7 @@
         <v>45314.42302083333</v>
       </c>
       <c r="I167" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -8020,10 +8023,10 @@
         <v>460</v>
       </c>
       <c r="E168" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F168" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G168" s="3">
         <v>45314.49530092593</v>
@@ -8032,7 +8035,7 @@
         <v>45315.78174768519</v>
       </c>
       <c r="I168" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -8049,10 +8052,10 @@
         <v>461</v>
       </c>
       <c r="E169" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F169" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G169" s="3">
         <v>45312.49302083333</v>
@@ -8061,7 +8064,7 @@
         <v>45314.49451388889</v>
       </c>
       <c r="I169" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -8078,10 +8081,10 @@
         <v>462</v>
       </c>
       <c r="E170" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F170" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G170" s="3">
         <v>45302.49891203704</v>
@@ -8090,7 +8093,7 @@
         <v>45315.78163194445</v>
       </c>
       <c r="I170" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -8107,10 +8110,10 @@
         <v>463</v>
       </c>
       <c r="E171" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F171" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G171" s="3">
         <v>45314.49350694445</v>
@@ -8119,7 +8122,7 @@
         <v>45315.78178240741</v>
       </c>
       <c r="I171" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -8139,7 +8142,7 @@
         <v>602</v>
       </c>
       <c r="F172" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G172" s="3">
         <v>44049.84335648148</v>
@@ -8148,7 +8151,7 @@
         <v>44740.15496527778</v>
       </c>
       <c r="I172" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -8165,10 +8168,10 @@
         <v>465</v>
       </c>
       <c r="E173" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="F173" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G173" s="3">
         <v>45307.49097222222</v>
@@ -8177,7 +8180,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I173" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -8197,7 +8200,7 @@
         <v>615</v>
       </c>
       <c r="F174" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G174" s="3">
         <v>45312.37847222222</v>
@@ -8206,7 +8209,7 @@
         <v>45314.42348379629</v>
       </c>
       <c r="I174" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -8226,7 +8229,7 @@
         <v>607</v>
       </c>
       <c r="F175" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G175" s="3">
         <v>45312.25097222222</v>
@@ -8235,7 +8238,7 @@
         <v>45315.74335648148</v>
       </c>
       <c r="I175" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -8252,10 +8255,10 @@
         <v>468</v>
       </c>
       <c r="E176" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F176" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G176" s="3">
         <v>45310.90118055556</v>
@@ -8264,7 +8267,7 @@
         <v>45314.49304398148</v>
       </c>
       <c r="I176" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -8284,7 +8287,7 @@
         <v>600</v>
       </c>
       <c r="F177" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G177" s="3">
         <v>45296.62515046296</v>
@@ -8293,7 +8296,7 @@
         <v>45314.49361111111</v>
       </c>
       <c r="I177" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -8310,10 +8313,10 @@
         <v>470</v>
       </c>
       <c r="E178" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F178" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G178" s="3">
         <v>45311.61869212963</v>
@@ -8322,7 +8325,7 @@
         <v>45315.73645833333</v>
       </c>
       <c r="I178" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -8339,10 +8342,10 @@
         <v>471</v>
       </c>
       <c r="E179" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F179" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G179" s="3">
         <v>45287.159375</v>
@@ -8351,7 +8354,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I179" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -8368,10 +8371,10 @@
         <v>472</v>
       </c>
       <c r="E180" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F180" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G180" s="3">
         <v>45311.68436342593</v>
@@ -8380,7 +8383,7 @@
         <v>45315.75385416667</v>
       </c>
       <c r="I180" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -8397,10 +8400,10 @@
         <v>473</v>
       </c>
       <c r="E181" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F181" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G181" s="3">
         <v>45291.49039351852</v>
@@ -8409,7 +8412,7 @@
         <v>45315.78164351852</v>
       </c>
       <c r="I181" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -8426,10 +8429,10 @@
         <v>474</v>
       </c>
       <c r="E182" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F182" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G182" s="3">
         <v>45308.74193287037</v>
@@ -8438,7 +8441,7 @@
         <v>45315.7467824074</v>
       </c>
       <c r="I182" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -8455,10 +8458,10 @@
         <v>475</v>
       </c>
       <c r="E183" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F183" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G183" s="3">
         <v>45290.68399305556</v>
@@ -8467,7 +8470,7 @@
         <v>45315.76791666666</v>
       </c>
       <c r="I183" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -8484,10 +8487,10 @@
         <v>476</v>
       </c>
       <c r="E184" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F184" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G184" s="3">
         <v>45294.52609953703</v>
@@ -8496,7 +8499,7 @@
         <v>45315.75109953704</v>
       </c>
       <c r="I184" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -8513,10 +8516,10 @@
         <v>477</v>
       </c>
       <c r="E185" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F185" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G185" s="3">
         <v>45305.28581018518</v>
@@ -8525,7 +8528,7 @@
         <v>45315.73657407407</v>
       </c>
       <c r="I185" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -8542,10 +8545,10 @@
         <v>478</v>
       </c>
       <c r="E186" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F186" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G186" s="3">
         <v>45303.07900462963</v>
@@ -8554,7 +8557,7 @@
         <v>45315.78171296296</v>
       </c>
       <c r="I186" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -8571,10 +8574,10 @@
         <v>479</v>
       </c>
       <c r="E187" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F187" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G187" s="3">
         <v>45294.00594907408</v>
@@ -8583,7 +8586,7 @@
         <v>45315.60971064815</v>
       </c>
       <c r="I187" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -8600,10 +8603,10 @@
         <v>480</v>
       </c>
       <c r="E188" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F188" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G188" s="3">
         <v>45291.6212037037</v>
@@ -8612,7 +8615,7 @@
         <v>45315.76299768518</v>
       </c>
       <c r="I188" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -8629,10 +8632,10 @@
         <v>481</v>
       </c>
       <c r="E189" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F189" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G189" s="3">
         <v>45291.62125</v>
@@ -8641,7 +8644,7 @@
         <v>45315.73672453704</v>
       </c>
       <c r="I189" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -8658,10 +8661,10 @@
         <v>482</v>
       </c>
       <c r="E190" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F190" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G190" s="3">
         <v>45291.49121527778</v>
@@ -8670,7 +8673,7 @@
         <v>45315.73679398148</v>
       </c>
       <c r="I190" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -8687,10 +8690,10 @@
         <v>483</v>
       </c>
       <c r="E191" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="F191" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G191" s="3">
         <v>45305.45537037037</v>
@@ -8699,7 +8702,7 @@
         <v>45315.78153935185</v>
       </c>
       <c r="I191" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -8716,10 +8719,10 @@
         <v>484</v>
       </c>
       <c r="E192" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F192" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G192" s="3">
         <v>45312.66900462963</v>
@@ -8728,7 +8731,7 @@
         <v>45315.78197916667</v>
       </c>
       <c r="I192" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -8745,10 +8748,10 @@
         <v>485</v>
       </c>
       <c r="E193" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F193" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G193" s="3">
         <v>45283.15128472223</v>
@@ -8757,7 +8760,7 @@
         <v>45315.73756944444</v>
       </c>
       <c r="I193" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -8774,10 +8777,10 @@
         <v>486</v>
       </c>
       <c r="E194" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F194" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G194" s="3">
         <v>45290.15359953704</v>
@@ -8786,7 +8789,7 @@
         <v>45315.81050925926</v>
       </c>
       <c r="I194" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -8803,10 +8806,10 @@
         <v>487</v>
       </c>
       <c r="E195" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F195" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G195" s="3">
         <v>45288.77761574074</v>
@@ -8815,7 +8818,7 @@
         <v>45315.8109837963</v>
       </c>
       <c r="I195" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -8832,10 +8835,10 @@
         <v>488</v>
       </c>
       <c r="E196" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F196" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G196" s="3">
         <v>45283.5427199074</v>
@@ -8844,7 +8847,7 @@
         <v>45315.81034722222</v>
       </c>
       <c r="I196" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -8861,10 +8864,10 @@
         <v>489</v>
       </c>
       <c r="E197" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F197" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G197" s="3">
         <v>45290.06099537037</v>
@@ -8873,7 +8876,7 @@
         <v>45315.78223379629</v>
       </c>
       <c r="I197" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -8890,10 +8893,10 @@
         <v>490</v>
       </c>
       <c r="E198" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F198" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G198" s="3">
         <v>45285.78746527778</v>
@@ -8902,7 +8905,7 @@
         <v>45315.81327546296</v>
       </c>
       <c r="I198" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -8919,10 +8922,10 @@
         <v>491</v>
       </c>
       <c r="E199" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F199" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G199" s="3">
         <v>45300.70331018518</v>
@@ -8931,7 +8934,7 @@
         <v>45315.78243055556</v>
       </c>
       <c r="I199" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -8948,10 +8951,10 @@
         <v>492</v>
       </c>
       <c r="E200" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F200" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G200" s="3">
         <v>45313.4215625</v>
@@ -8960,7 +8963,7 @@
         <v>45314.19313657407</v>
       </c>
       <c r="I200" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -8980,7 +8983,7 @@
         <v>596</v>
       </c>
       <c r="F201" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G201" s="3">
         <v>45313.10177083333</v>
@@ -8989,7 +8992,7 @@
         <v>45315.19548611111</v>
       </c>
       <c r="I201" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -9006,10 +9009,10 @@
         <v>494</v>
       </c>
       <c r="E202" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F202" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G202" s="3">
         <v>45313.56241898148</v>
@@ -9018,7 +9021,7 @@
         <v>45315.73755787037</v>
       </c>
       <c r="I202" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -9035,10 +9038,10 @@
         <v>495</v>
       </c>
       <c r="E203" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F203" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G203" s="3">
         <v>45287.49016203704</v>
@@ -9047,7 +9050,7 @@
         <v>45315.81586805556</v>
       </c>
       <c r="I203" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -9064,10 +9067,10 @@
         <v>496</v>
       </c>
       <c r="E204" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F204" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G204" s="3">
         <v>45294.11623842592</v>
@@ -9076,7 +9079,7 @@
         <v>45315.81109953704</v>
       </c>
       <c r="I204" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -9093,10 +9096,10 @@
         <v>497</v>
       </c>
       <c r="E205" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F205" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G205" s="3">
         <v>45281.61627314815</v>
@@ -9105,7 +9108,7 @@
         <v>45315.73660879629</v>
       </c>
       <c r="I205" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -9122,10 +9125,10 @@
         <v>498</v>
       </c>
       <c r="E206" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="F206" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G206" s="3">
         <v>45310.31782407407</v>
@@ -9134,7 +9137,7 @@
         <v>45315.82373842593</v>
       </c>
       <c r="I206" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -9151,10 +9154,10 @@
         <v>499</v>
       </c>
       <c r="E207" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F207" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G207" s="3">
         <v>45292.86751157408</v>
@@ -9163,7 +9166,7 @@
         <v>45315.81833333334</v>
       </c>
       <c r="I207" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -9180,10 +9183,10 @@
         <v>500</v>
       </c>
       <c r="E208" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F208" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G208" s="3">
         <v>45297.78877314815</v>
@@ -9192,7 +9195,7 @@
         <v>45315.82362268519</v>
       </c>
       <c r="I208" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -9209,10 +9212,10 @@
         <v>501</v>
       </c>
       <c r="E209" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F209" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G209" s="3">
         <v>45291.49200231482</v>
@@ -9221,7 +9224,7 @@
         <v>45315.81275462963</v>
       </c>
       <c r="I209" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -9238,10 +9241,10 @@
         <v>502</v>
       </c>
       <c r="E210" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F210" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G210" s="3">
         <v>45314.77236111111</v>
@@ -9250,7 +9253,7 @@
         <v>45315.81111111111</v>
       </c>
       <c r="I210" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -9267,10 +9270,10 @@
         <v>503</v>
       </c>
       <c r="E211" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F211" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G211" s="3">
         <v>45306.94767361111</v>
@@ -9279,7 +9282,7 @@
         <v>45315.81850694444</v>
       </c>
       <c r="I211" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -9296,10 +9299,10 @@
         <v>504</v>
       </c>
       <c r="E212" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F212" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G212" s="3">
         <v>45315.48592592592</v>
@@ -9308,7 +9311,7 @@
         <v>45315.82550925926</v>
       </c>
       <c r="I212" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -9325,10 +9328,10 @@
         <v>505</v>
       </c>
       <c r="E213" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F213" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G213" s="3">
         <v>45278.21140046296</v>
@@ -9337,7 +9340,7 @@
         <v>45315.78211805555</v>
       </c>
       <c r="I213" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -9354,10 +9357,10 @@
         <v>506</v>
       </c>
       <c r="E214" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F214" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G214" s="3">
         <v>45296.58950231481</v>
@@ -9366,7 +9369,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I214" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -9383,10 +9386,10 @@
         <v>507</v>
       </c>
       <c r="E215" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F215" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G215" s="3">
         <v>45308.74321759259</v>
@@ -9395,7 +9398,7 @@
         <v>45315.82768518518</v>
       </c>
       <c r="I215" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -9412,10 +9415,10 @@
         <v>508</v>
       </c>
       <c r="E216" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F216" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G216" s="3">
         <v>45291.49114583333</v>
@@ -9424,7 +9427,7 @@
         <v>45315.82378472222</v>
       </c>
       <c r="I216" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -9441,10 +9444,10 @@
         <v>509</v>
       </c>
       <c r="E217" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F217" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G217" s="3">
         <v>45308.16465277778</v>
@@ -9453,7 +9456,7 @@
         <v>45315.82369212963</v>
       </c>
       <c r="I217" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -9470,10 +9473,10 @@
         <v>510</v>
       </c>
       <c r="E218" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F218" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G218" s="3">
         <v>45296.21802083333</v>
@@ -9482,7 +9485,7 @@
         <v>45315.82553240741</v>
       </c>
       <c r="I218" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -9499,10 +9502,10 @@
         <v>511</v>
       </c>
       <c r="E219" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F219" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G219" s="3">
         <v>45307.36931712963</v>
@@ -9511,7 +9514,7 @@
         <v>45315.78234953704</v>
       </c>
       <c r="I219" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -9531,7 +9534,7 @@
         <v>606</v>
       </c>
       <c r="F220" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G220" s="3">
         <v>45313.02901620371</v>
@@ -9540,7 +9543,7 @@
         <v>45315.78185185185</v>
       </c>
       <c r="I220" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -9557,10 +9560,10 @@
         <v>513</v>
       </c>
       <c r="E221" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F221" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G221" s="3">
         <v>45284.49082175926</v>
@@ -9569,7 +9572,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I221" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -9586,10 +9589,10 @@
         <v>514</v>
       </c>
       <c r="E222" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F222" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G222" s="3">
         <v>45290.06063657408</v>
@@ -9598,7 +9601,7 @@
         <v>45315.81575231482</v>
       </c>
       <c r="I222" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -9615,10 +9618,10 @@
         <v>515</v>
       </c>
       <c r="E223" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F223" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G223" s="3">
         <v>45292.49101851852</v>
@@ -9627,7 +9630,7 @@
         <v>45315.81292824074</v>
       </c>
       <c r="I223" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -9644,10 +9647,10 @@
         <v>516</v>
       </c>
       <c r="E224" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F224" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G224" s="3">
         <v>45291.34520833333</v>
@@ -9656,7 +9659,7 @@
         <v>45315.82354166666</v>
       </c>
       <c r="I224" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -9673,10 +9676,10 @@
         <v>517</v>
       </c>
       <c r="E225" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F225" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G225" s="3">
         <v>45314.42053240741</v>
@@ -9685,7 +9688,7 @@
         <v>45315.81092592593</v>
       </c>
       <c r="I225" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -9702,10 +9705,10 @@
         <v>518</v>
       </c>
       <c r="E226" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F226" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G226" s="3">
         <v>45291.49119212963</v>
@@ -9714,7 +9717,7 @@
         <v>45314.49342592592</v>
       </c>
       <c r="I226" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -9731,10 +9734,10 @@
         <v>519</v>
       </c>
       <c r="E227" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F227" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G227" s="3">
         <v>45306.91820601852</v>
@@ -9743,7 +9746,7 @@
         <v>45315.82215277778</v>
       </c>
       <c r="I227" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -9760,10 +9763,10 @@
         <v>520</v>
       </c>
       <c r="E228" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F228" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G228" s="3">
         <v>45286.62017361111</v>
@@ -9772,7 +9775,7 @@
         <v>45315.78180555555</v>
       </c>
       <c r="I228" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -9789,10 +9792,10 @@
         <v>521</v>
       </c>
       <c r="E229" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F229" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G229" s="3">
         <v>45308.74159722222</v>
@@ -9801,7 +9804,7 @@
         <v>45315.82368055556</v>
       </c>
       <c r="I229" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -9821,7 +9824,7 @@
         <v>600</v>
       </c>
       <c r="F230" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G230" s="3">
         <v>45283.53591435185</v>
@@ -9830,7 +9833,7 @@
         <v>45315.82388888889</v>
       </c>
       <c r="I230" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -9847,10 +9850,10 @@
         <v>523</v>
       </c>
       <c r="E231" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F231" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G231" s="3">
         <v>45279.15613425926</v>
@@ -9859,7 +9862,7 @@
         <v>45310.69137731481</v>
       </c>
       <c r="I231" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -9879,7 +9882,7 @@
         <v>607</v>
       </c>
       <c r="F232" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G232" s="3">
         <v>45302.49265046296</v>
@@ -9888,7 +9891,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I232" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -9905,10 +9908,10 @@
         <v>525</v>
       </c>
       <c r="E233" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F233" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G233" s="3">
         <v>45286.49104166667</v>
@@ -9917,7 +9920,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I233" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -9934,10 +9937,10 @@
         <v>526</v>
       </c>
       <c r="E234" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F234" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G234" s="3">
         <v>45313.42326388889</v>
@@ -9946,7 +9949,7 @@
         <v>45314.18550925926</v>
       </c>
       <c r="I234" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -9966,7 +9969,7 @@
         <v>602</v>
       </c>
       <c r="F235" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G235" s="3">
         <v>44288.33525462963</v>
@@ -9975,7 +9978,7 @@
         <v>44288.33525462963</v>
       </c>
       <c r="I235" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -9992,10 +9995,10 @@
         <v>528</v>
       </c>
       <c r="E236" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F236" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G236" s="3">
         <v>45287.22329861111</v>
@@ -10004,7 +10007,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I236" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -10021,10 +10024,10 @@
         <v>529</v>
       </c>
       <c r="E237" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F237" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G237" s="3">
         <v>45311.90133101852</v>
@@ -10033,7 +10036,7 @@
         <v>45315.82358796296</v>
       </c>
       <c r="I237" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -10050,10 +10053,10 @@
         <v>530</v>
       </c>
       <c r="E238" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="F238" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G238" s="3">
         <v>45298.44405092593</v>
@@ -10062,7 +10065,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I238" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -10082,7 +10085,7 @@
         <v>601</v>
       </c>
       <c r="F239" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G239" s="3">
         <v>45297.01849537037</v>
@@ -10091,7 +10094,7 @@
         <v>45314.90065972223</v>
       </c>
       <c r="I239" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -10108,10 +10111,10 @@
         <v>532</v>
       </c>
       <c r="E240" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F240" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G240" s="3">
         <v>45280.57440972222</v>
@@ -10120,7 +10123,7 @@
         <v>45309.03163194445</v>
       </c>
       <c r="I240" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -10137,10 +10140,10 @@
         <v>533</v>
       </c>
       <c r="E241" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F241" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G241" s="3">
         <v>45314.42252314815</v>
@@ -10149,7 +10152,7 @@
         <v>45315.82351851852</v>
       </c>
       <c r="I241" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -10169,7 +10172,7 @@
         <v>607</v>
       </c>
       <c r="F242" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G242" s="3">
         <v>45301.61993055556</v>
@@ -10178,7 +10181,7 @@
         <v>45314.018125</v>
       </c>
       <c r="I242" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -10195,10 +10198,10 @@
         <v>535</v>
       </c>
       <c r="E243" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F243" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G243" s="3">
         <v>45312.49469907407</v>
@@ -10207,7 +10210,7 @@
         <v>45315.78165509259</v>
       </c>
       <c r="I243" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -10224,10 +10227,10 @@
         <v>536</v>
       </c>
       <c r="E244" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F244" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G244" s="3">
         <v>45295.49803240741</v>
@@ -10236,7 +10239,7 @@
         <v>45315.8234837963</v>
       </c>
       <c r="I244" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -10253,10 +10256,10 @@
         <v>537</v>
       </c>
       <c r="E245" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F245" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G245" s="3">
         <v>45313.05956018518</v>
@@ -10265,7 +10268,7 @@
         <v>45315.82376157407</v>
       </c>
       <c r="I245" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -10282,10 +10285,10 @@
         <v>538</v>
       </c>
       <c r="E246" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F246" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G246" s="3">
         <v>45298.49199074074</v>
@@ -10294,7 +10297,7 @@
         <v>45315.82392361111</v>
       </c>
       <c r="I246" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -10314,7 +10317,7 @@
         <v>607</v>
       </c>
       <c r="F247" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G247" s="3">
         <v>45286.6203587963</v>
@@ -10323,7 +10326,7 @@
         <v>45315.82366898148</v>
       </c>
       <c r="I247" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -10340,10 +10343,10 @@
         <v>540</v>
       </c>
       <c r="E248" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F248" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G248" s="3">
         <v>45311.61991898148</v>
@@ -10352,7 +10355,7 @@
         <v>45315.02909722222</v>
       </c>
       <c r="I248" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -10369,10 +10372,10 @@
         <v>541</v>
       </c>
       <c r="E249" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F249" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G249" s="3">
         <v>45306.75461805556</v>
@@ -10381,7 +10384,7 @@
         <v>45315.04524305555</v>
       </c>
       <c r="I249" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -10398,10 +10401,10 @@
         <v>542</v>
       </c>
       <c r="E250" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F250" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G250" s="3">
         <v>45292.49578703703</v>
@@ -10410,7 +10413,7 @@
         <v>45315.4852662037</v>
       </c>
       <c r="I250" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -10427,10 +10430,10 @@
         <v>543</v>
       </c>
       <c r="E251" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F251" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G251" s="3">
         <v>45308.60100694445</v>
@@ -10439,7 +10442,7 @@
         <v>45314.49393518519</v>
       </c>
       <c r="I251" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -10456,10 +10459,10 @@
         <v>544</v>
       </c>
       <c r="E252" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F252" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G252" s="3">
         <v>45289.35146990741</v>
@@ -10468,7 +10471,7 @@
         <v>45314.49217592592</v>
       </c>
       <c r="I252" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -10485,10 +10488,10 @@
         <v>545</v>
       </c>
       <c r="E253" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F253" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G253" s="3">
         <v>45307.49243055555</v>
@@ -10497,7 +10500,7 @@
         <v>45314.49329861111</v>
       </c>
       <c r="I253" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -10514,10 +10517,10 @@
         <v>546</v>
       </c>
       <c r="E254" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F254" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G254" s="3">
         <v>45313.42297453704</v>
@@ -10526,7 +10529,7 @@
         <v>45313.42299768519</v>
       </c>
       <c r="I254" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -10546,7 +10549,7 @@
         <v>605</v>
       </c>
       <c r="F255" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G255" s="3">
         <v>45291.49054398148</v>
@@ -10555,7 +10558,7 @@
         <v>45314.94496527778</v>
       </c>
       <c r="I255" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -10572,10 +10575,10 @@
         <v>548</v>
       </c>
       <c r="E256" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F256" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G256" s="3">
         <v>45292.15671296296</v>
@@ -10584,7 +10587,7 @@
         <v>45312.75942129629</v>
       </c>
       <c r="I256" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -10601,10 +10604,10 @@
         <v>549</v>
       </c>
       <c r="E257" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F257" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G257" s="3">
         <v>45287.83861111111</v>
@@ -10613,7 +10616,7 @@
         <v>45316.03899305555</v>
       </c>
       <c r="I257" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -10630,10 +10633,10 @@
         <v>550</v>
       </c>
       <c r="E258" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F258" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G258" s="3">
         <v>45293.04358796297</v>
@@ -10642,7 +10645,7 @@
         <v>45315.8656712963</v>
       </c>
       <c r="I258" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -10662,7 +10665,7 @@
         <v>597</v>
       </c>
       <c r="F259" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G259" s="3">
         <v>45307.49564814815</v>
@@ -10671,7 +10674,7 @@
         <v>45315.9937037037</v>
       </c>
       <c r="I259" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -10688,10 +10691,10 @@
         <v>552</v>
       </c>
       <c r="E260" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="F260" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G260" s="3">
         <v>45314.90094907407</v>
@@ -10700,7 +10703,7 @@
         <v>45315.89604166667</v>
       </c>
       <c r="I260" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -10720,7 +10723,7 @@
         <v>598</v>
       </c>
       <c r="F261" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G261" s="3">
         <v>45294.84780092593</v>
@@ -10729,7 +10732,7 @@
         <v>45316.03907407408</v>
       </c>
       <c r="I261" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -10746,10 +10749,10 @@
         <v>554</v>
       </c>
       <c r="E262" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F262" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G262" s="3">
         <v>45296.61121527778</v>
@@ -10758,7 +10761,7 @@
         <v>45316.03895833333</v>
       </c>
       <c r="I262" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -10778,7 +10781,7 @@
         <v>617</v>
       </c>
       <c r="F263" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G263" s="3">
         <v>45311.62060185185</v>
@@ -10787,7 +10790,7 @@
         <v>45316.03954861111</v>
       </c>
       <c r="I263" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -10807,7 +10810,7 @@
         <v>601</v>
       </c>
       <c r="F264" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G264" s="3">
         <v>45301.61861111111</v>
@@ -10816,7 +10819,7 @@
         <v>45316.08056712963</v>
       </c>
       <c r="I264" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -10836,7 +10839,7 @@
         <v>601</v>
       </c>
       <c r="F265" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G265" s="3">
         <v>45286.49385416666</v>
@@ -10845,7 +10848,7 @@
         <v>45316.03959490741</v>
       </c>
       <c r="I265" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -10862,10 +10865,10 @@
         <v>558</v>
       </c>
       <c r="E266" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F266" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G266" s="3">
         <v>45311.71087962963</v>
@@ -10874,7 +10877,7 @@
         <v>45314.67140046296</v>
       </c>
       <c r="I266" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -10891,10 +10894,10 @@
         <v>559</v>
       </c>
       <c r="E267" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F267" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G267" s="3">
         <v>45288.63045138889</v>
@@ -10903,7 +10906,7 @@
         <v>45316.03887731482</v>
       </c>
       <c r="I267" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -10920,10 +10923,10 @@
         <v>560</v>
       </c>
       <c r="E268" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F268" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G268" s="3">
         <v>45280.82067129629</v>
@@ -10932,7 +10935,7 @@
         <v>45316.03997685185</v>
       </c>
       <c r="I268" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -10949,10 +10952,10 @@
         <v>561</v>
       </c>
       <c r="E269" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F269" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G269" s="3">
         <v>45296.62119212963</v>
@@ -10961,7 +10964,7 @@
         <v>45316.08042824074</v>
       </c>
       <c r="I269" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -10978,10 +10981,10 @@
         <v>562</v>
       </c>
       <c r="E270" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="F270" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G270" s="3">
         <v>45300.48923611111</v>
@@ -10990,7 +10993,7 @@
         <v>45316.08054398148</v>
       </c>
       <c r="I270" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -11007,10 +11010,10 @@
         <v>563</v>
       </c>
       <c r="E271" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F271" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G271" s="3">
         <v>45314.49359953704</v>
@@ -11019,7 +11022,7 @@
         <v>45314.66849537037</v>
       </c>
       <c r="I271" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -11036,10 +11039,10 @@
         <v>564</v>
       </c>
       <c r="E272" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F272" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G272" s="3">
         <v>45312.50121527778</v>
@@ -11048,7 +11051,7 @@
         <v>45312.67422453704</v>
       </c>
       <c r="I272" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -11065,10 +11068,10 @@
         <v>565</v>
       </c>
       <c r="E273" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F273" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G273" s="3">
         <v>45261.49545138889</v>
@@ -11077,7 +11080,7 @@
         <v>45309.04300925926</v>
       </c>
       <c r="I273" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -11094,10 +11097,10 @@
         <v>566</v>
       </c>
       <c r="E274" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F274" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G274" s="3">
         <v>45291.49003472222</v>
@@ -11106,7 +11109,7 @@
         <v>45316.08077546296</v>
       </c>
       <c r="I274" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -11123,10 +11126,10 @@
         <v>567</v>
       </c>
       <c r="E275" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F275" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G275" s="3">
         <v>45280.21361111111</v>
@@ -11135,7 +11138,7 @@
         <v>45309.04177083333</v>
       </c>
       <c r="I275" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -11155,7 +11158,7 @@
         <v>599</v>
       </c>
       <c r="F276" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G276" s="3">
         <v>45314.56188657408</v>
@@ -11164,7 +11167,7 @@
         <v>45315.48497685185</v>
       </c>
       <c r="I276" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -11184,7 +11187,7 @@
         <v>601</v>
       </c>
       <c r="F277" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G277" s="3">
         <v>45302.49186342592</v>
@@ -11193,7 +11196,7 @@
         <v>45316.08069444444</v>
       </c>
       <c r="I277" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -11210,10 +11213,10 @@
         <v>570</v>
       </c>
       <c r="E278" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F278" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G278" s="3">
         <v>45291.5000462963</v>
@@ -11222,7 +11225,7 @@
         <v>45314.49376157407</v>
       </c>
       <c r="I278" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -11239,10 +11242,10 @@
         <v>571</v>
       </c>
       <c r="E279" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F279" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G279" s="3">
         <v>45291.49392361111</v>
@@ -11251,7 +11254,7 @@
         <v>45314.49452546296</v>
       </c>
       <c r="I279" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -11271,7 +11274,7 @@
         <v>600</v>
       </c>
       <c r="F280" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G280" s="3">
         <v>45312.49576388889</v>
@@ -11280,7 +11283,7 @@
         <v>45316.03846064815</v>
       </c>
       <c r="I280" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -11297,10 +11300,10 @@
         <v>573</v>
       </c>
       <c r="E281" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F281" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G281" s="3">
         <v>45312.98068287037</v>
@@ -11309,7 +11312,7 @@
         <v>45316.08041666666</v>
       </c>
       <c r="I281" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -11326,10 +11329,10 @@
         <v>574</v>
       </c>
       <c r="E282" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F282" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G282" s="3">
         <v>45314.49623842593</v>
@@ -11338,7 +11341,7 @@
         <v>45316.08075231482</v>
       </c>
       <c r="I282" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -11358,7 +11361,7 @@
         <v>606</v>
       </c>
       <c r="F283" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G283" s="3">
         <v>45313.14449074074</v>
@@ -11367,7 +11370,7 @@
         <v>45316.08082175926</v>
       </c>
       <c r="I283" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -11384,10 +11387,10 @@
         <v>576</v>
       </c>
       <c r="E284" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F284" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G284" s="3">
         <v>45312.50119212963</v>
@@ -11396,7 +11399,7 @@
         <v>45316.08556712963</v>
       </c>
       <c r="I284" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -1798,7 +1798,7 @@
     <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
   </si>
   <si>
-    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
   </si>
   <si>
     <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
@@ -3833,10 +3833,10 @@
         <v>736</v>
       </c>
       <c r="G23" s="3">
-        <v>45291.49997685185</v>
+        <v>45321.50142361111</v>
       </c>
       <c r="H23" s="3">
-        <v>45314.49226851852</v>
+        <v>45341.09378472222</v>
       </c>
       <c r="I23" t="s">
         <v>793</v>

--- a/1.xlsx
+++ b/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="926">
   <si>
     <t>Sno</t>
   </si>
@@ -1799,9 +1799,6 @@
   </si>
   <si>
     <t>{'harmless': 58, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 65, 'malicious': 0, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
   </si>
   <si>
     <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
@@ -3221,7 +3218,7 @@
         <v>577</v>
       </c>
       <c r="F2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G2" s="3">
         <v>45311.61894675926</v>
@@ -3230,7 +3227,7 @@
         <v>45341.32113425926</v>
       </c>
       <c r="I2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3250,7 +3247,7 @@
         <v>578</v>
       </c>
       <c r="F3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G3" s="3">
         <v>45328.50989583333</v>
@@ -3259,7 +3256,7 @@
         <v>45341.27945601852</v>
       </c>
       <c r="I3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3279,7 +3276,7 @@
         <v>578</v>
       </c>
       <c r="F4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G4" s="3">
         <v>45306.97109953704</v>
@@ -3288,7 +3285,7 @@
         <v>45341.06746527777</v>
       </c>
       <c r="I4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3308,7 +3305,7 @@
         <v>578</v>
       </c>
       <c r="F5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G5" s="3">
         <v>45328.57457175926</v>
@@ -3317,7 +3314,7 @@
         <v>45341.27858796297</v>
       </c>
       <c r="I5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3337,7 +3334,7 @@
         <v>579</v>
       </c>
       <c r="F6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G6" s="3">
         <v>45337.51012731482</v>
@@ -3346,7 +3343,7 @@
         <v>45341.27866898148</v>
       </c>
       <c r="I6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3366,7 +3363,7 @@
         <v>580</v>
       </c>
       <c r="F7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G7" s="3">
         <v>45329.3558912037</v>
@@ -3375,7 +3372,7 @@
         <v>45341.32061342592</v>
       </c>
       <c r="I7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3395,7 +3392,7 @@
         <v>581</v>
       </c>
       <c r="F8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G8" s="3">
         <v>45337.50997685185</v>
@@ -3404,7 +3401,7 @@
         <v>45341.10480324074</v>
       </c>
       <c r="I8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3424,7 +3421,7 @@
         <v>582</v>
       </c>
       <c r="F9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G9" s="3">
         <v>45308.21690972222</v>
@@ -3433,7 +3430,7 @@
         <v>45341.10543981481</v>
       </c>
       <c r="I9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3453,7 +3450,7 @@
         <v>583</v>
       </c>
       <c r="F10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G10" s="3">
         <v>45329.50237268519</v>
@@ -3462,7 +3459,7 @@
         <v>45341.04172453703</v>
       </c>
       <c r="I10" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3482,7 +3479,7 @@
         <v>584</v>
       </c>
       <c r="F11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G11" s="3">
         <v>45316.49925925926</v>
@@ -3491,7 +3488,7 @@
         <v>45341.10148148148</v>
       </c>
       <c r="I11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3511,7 +3508,7 @@
         <v>585</v>
       </c>
       <c r="F12" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G12" s="3">
         <v>45329.01333333334</v>
@@ -3520,7 +3517,7 @@
         <v>45341.36274305556</v>
       </c>
       <c r="I12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3540,7 +3537,7 @@
         <v>586</v>
       </c>
       <c r="F13" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G13" s="3">
         <v>45320.50914351852</v>
@@ -3549,7 +3546,7 @@
         <v>45341.02841435185</v>
       </c>
       <c r="I13" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3569,7 +3566,7 @@
         <v>587</v>
       </c>
       <c r="F14" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G14" s="3">
         <v>45329.05806712963</v>
@@ -3578,7 +3575,7 @@
         <v>45341.07314814815</v>
       </c>
       <c r="I14" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3598,7 +3595,7 @@
         <v>588</v>
       </c>
       <c r="F15" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G15" s="3">
         <v>45341.23758101852</v>
@@ -3607,7 +3604,7 @@
         <v>45341.23922453704</v>
       </c>
       <c r="I15" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3627,7 +3624,7 @@
         <v>589</v>
       </c>
       <c r="F16" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G16" s="3">
         <v>45311.33236111111</v>
@@ -3636,7 +3633,7 @@
         <v>45341.09497685185</v>
       </c>
       <c r="I16" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3656,7 +3653,7 @@
         <v>590</v>
       </c>
       <c r="F17" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G17" s="3">
         <v>45331.50390046297</v>
@@ -3665,7 +3662,7 @@
         <v>45341.03533564815</v>
       </c>
       <c r="I17" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3685,7 +3682,7 @@
         <v>578</v>
       </c>
       <c r="F18" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G18" s="3">
         <v>45336.62003472223</v>
@@ -3694,7 +3691,7 @@
         <v>45341.01741898148</v>
       </c>
       <c r="I18" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3714,7 +3711,7 @@
         <v>591</v>
       </c>
       <c r="F19" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G19" s="3">
         <v>45288.23121527778</v>
@@ -3723,7 +3720,7 @@
         <v>45302.48868055556</v>
       </c>
       <c r="I19" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3743,7 +3740,7 @@
         <v>592</v>
       </c>
       <c r="F20" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G20" s="3">
         <v>45307.52993055555</v>
@@ -3752,7 +3749,7 @@
         <v>45314.19462962963</v>
       </c>
       <c r="I20" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3772,7 +3769,7 @@
         <v>581</v>
       </c>
       <c r="F21" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G21" s="3">
         <v>45314.42365740741</v>
@@ -3781,7 +3778,7 @@
         <v>45340.51633101852</v>
       </c>
       <c r="I21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3801,7 +3798,7 @@
         <v>593</v>
       </c>
       <c r="F22" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G22" s="3">
         <v>45336.62097222222</v>
@@ -3810,7 +3807,7 @@
         <v>45341.02842592593</v>
       </c>
       <c r="I22" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3830,7 +3827,7 @@
         <v>594</v>
       </c>
       <c r="F23" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G23" s="3">
         <v>45321.50142361111</v>
@@ -3839,7 +3836,7 @@
         <v>45341.09378472222</v>
       </c>
       <c r="I23" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3850,25 +3847,25 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>316</v>
       </c>
       <c r="E24" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F24" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G24" s="3">
         <v>45309.80174768518</v>
       </c>
       <c r="H24" s="3">
-        <v>45315.85729166667</v>
+        <v>45338.54115740741</v>
       </c>
       <c r="I24" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3885,10 +3882,10 @@
         <v>317</v>
       </c>
       <c r="E25" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F25" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G25" s="3">
         <v>45299.43368055556</v>
@@ -3897,7 +3894,7 @@
         <v>45316.37909722222</v>
       </c>
       <c r="I25" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3914,10 +3911,10 @@
         <v>318</v>
       </c>
       <c r="E26" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F26" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G26" s="3">
         <v>45314.17763888889</v>
@@ -3926,7 +3923,7 @@
         <v>45316.08064814815</v>
       </c>
       <c r="I26" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3943,10 +3940,10 @@
         <v>319</v>
       </c>
       <c r="E27" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F27" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G27" s="3">
         <v>45291.49208333333</v>
@@ -3955,7 +3952,7 @@
         <v>45316.34907407407</v>
       </c>
       <c r="I27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3972,10 +3969,10 @@
         <v>320</v>
       </c>
       <c r="E28" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F28" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G28" s="3">
         <v>45289.73149305556</v>
@@ -3984,7 +3981,7 @@
         <v>45316.37931712963</v>
       </c>
       <c r="I28" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4001,10 +3998,10 @@
         <v>321</v>
       </c>
       <c r="E29" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F29" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G29" s="3">
         <v>45312.4952662037</v>
@@ -4013,7 +4010,7 @@
         <v>45315.52618055556</v>
       </c>
       <c r="I29" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4030,10 +4027,10 @@
         <v>322</v>
       </c>
       <c r="E30" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F30" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G30" s="3">
         <v>45307.49253472222</v>
@@ -4042,7 +4039,7 @@
         <v>45316.3793287037</v>
       </c>
       <c r="I30" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4059,10 +4056,10 @@
         <v>323</v>
       </c>
       <c r="E31" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F31" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G31" s="3">
         <v>45311.71104166667</v>
@@ -4071,7 +4068,7 @@
         <v>45316.37922453704</v>
       </c>
       <c r="I31" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4088,10 +4085,10 @@
         <v>324</v>
       </c>
       <c r="E32" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F32" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G32" s="3">
         <v>45312.34644675926</v>
@@ -4100,7 +4097,7 @@
         <v>45316.37908564815</v>
       </c>
       <c r="I32" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4117,10 +4114,10 @@
         <v>325</v>
       </c>
       <c r="E33" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F33" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G33" s="3">
         <v>44163.34006944444</v>
@@ -4129,7 +4126,7 @@
         <v>44163.34006944444</v>
       </c>
       <c r="I33" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4146,10 +4143,10 @@
         <v>326</v>
       </c>
       <c r="E34" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F34" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G34" s="3">
         <v>45286.80534722222</v>
@@ -4158,7 +4155,7 @@
         <v>45316.37934027778</v>
       </c>
       <c r="I34" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4175,10 +4172,10 @@
         <v>327</v>
       </c>
       <c r="E35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F35" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G35" s="3">
         <v>45302.49230324074</v>
@@ -4187,7 +4184,7 @@
         <v>45314.98761574074</v>
       </c>
       <c r="I35" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4204,10 +4201,10 @@
         <v>328</v>
       </c>
       <c r="E36" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F36" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G36" s="3">
         <v>45302.49503472223</v>
@@ -4216,7 +4213,7 @@
         <v>45315.48547453704</v>
       </c>
       <c r="I36" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4233,10 +4230,10 @@
         <v>329</v>
       </c>
       <c r="E37" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F37" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G37" s="3">
         <v>45311.61938657407</v>
@@ -4245,7 +4242,7 @@
         <v>45316.42167824074</v>
       </c>
       <c r="I37" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4262,10 +4259,10 @@
         <v>330</v>
       </c>
       <c r="E38" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F38" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G38" s="3">
         <v>45297.0796412037</v>
@@ -4274,7 +4271,7 @@
         <v>45316.49811342593</v>
       </c>
       <c r="I38" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4291,10 +4288,10 @@
         <v>331</v>
       </c>
       <c r="E39" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F39" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G39" s="3">
         <v>45290.31696759259</v>
@@ -4303,7 +4300,7 @@
         <v>45316.49866898148</v>
       </c>
       <c r="I39" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4320,10 +4317,10 @@
         <v>332</v>
       </c>
       <c r="E40" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F40" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G40" s="3">
         <v>45313.59486111111</v>
@@ -4332,7 +4329,7 @@
         <v>45316.49662037037</v>
       </c>
       <c r="I40" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4349,10 +4346,10 @@
         <v>333</v>
       </c>
       <c r="E41" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F41" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G41" s="3">
         <v>45295.49177083333</v>
@@ -4361,7 +4358,7 @@
         <v>45316.49807870371</v>
       </c>
       <c r="I41" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4378,10 +4375,10 @@
         <v>334</v>
       </c>
       <c r="E42" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F42" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G42" s="3">
         <v>45311.92179398148</v>
@@ -4390,7 +4387,7 @@
         <v>45316.4971875</v>
       </c>
       <c r="I42" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4407,10 +4404,10 @@
         <v>335</v>
       </c>
       <c r="E43" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F43" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G43" s="3">
         <v>45296.05393518518</v>
@@ -4419,7 +4416,7 @@
         <v>45316.50489583334</v>
       </c>
       <c r="I43" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4436,10 +4433,10 @@
         <v>336</v>
       </c>
       <c r="E44" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F44" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G44" s="3">
         <v>45313.11333333333</v>
@@ -4448,7 +4445,7 @@
         <v>45316.49230324074</v>
       </c>
       <c r="I44" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4465,10 +4462,10 @@
         <v>337</v>
       </c>
       <c r="E45" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F45" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G45" s="3">
         <v>45306.61894675926</v>
@@ -4477,7 +4474,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I45" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4494,10 +4491,10 @@
         <v>338</v>
       </c>
       <c r="E46" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F46" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G46" s="3">
         <v>45312.49850694444</v>
@@ -4506,7 +4503,7 @@
         <v>45316.49799768518</v>
       </c>
       <c r="I46" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4523,10 +4520,10 @@
         <v>339</v>
       </c>
       <c r="E47" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F47" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G47" s="3">
         <v>45262.49515046296</v>
@@ -4535,7 +4532,7 @@
         <v>45309.07923611111</v>
       </c>
       <c r="I47" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4552,10 +4549,10 @@
         <v>340</v>
       </c>
       <c r="E48" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F48" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G48" s="3">
         <v>45298.49847222222</v>
@@ -4564,7 +4561,7 @@
         <v>45316.49944444445</v>
       </c>
       <c r="I48" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4581,10 +4578,10 @@
         <v>341</v>
       </c>
       <c r="E49" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F49" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G49" s="3">
         <v>45311.61908564815</v>
@@ -4593,7 +4590,7 @@
         <v>45316.49847222222</v>
       </c>
       <c r="I49" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4610,10 +4607,10 @@
         <v>342</v>
       </c>
       <c r="E50" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F50" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G50" s="3">
         <v>45311.61989583333</v>
@@ -4622,7 +4619,7 @@
         <v>45316.50482638889</v>
       </c>
       <c r="I50" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4639,10 +4636,10 @@
         <v>343</v>
       </c>
       <c r="E51" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F51" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G51" s="3">
         <v>45316.50053240741</v>
@@ -4651,7 +4648,7 @@
         <v>45316.50232638889</v>
       </c>
       <c r="I51" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4668,10 +4665,10 @@
         <v>344</v>
       </c>
       <c r="E52" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F52" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G52" s="3">
         <v>45313.05881944444</v>
@@ -4680,7 +4677,7 @@
         <v>45314.42322916666</v>
       </c>
       <c r="I52" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4697,10 +4694,10 @@
         <v>345</v>
       </c>
       <c r="E53" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F53" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G53" s="3">
         <v>45316.5015162037</v>
@@ -4709,7 +4706,7 @@
         <v>45316.50331018519</v>
       </c>
       <c r="I53" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4726,10 +4723,10 @@
         <v>346</v>
       </c>
       <c r="E54" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F54" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G54" s="3">
         <v>45291.62113425926</v>
@@ -4738,7 +4735,7 @@
         <v>45316.49827546296</v>
       </c>
       <c r="I54" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4755,10 +4752,10 @@
         <v>347</v>
       </c>
       <c r="E55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F55" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G55" s="3">
         <v>45287.49758101852</v>
@@ -4767,7 +4764,7 @@
         <v>45316.50458333334</v>
       </c>
       <c r="I55" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4784,10 +4781,10 @@
         <v>348</v>
       </c>
       <c r="E56" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F56" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G56" s="3">
         <v>45280.75131944445</v>
@@ -4796,7 +4793,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I56" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4813,10 +4810,10 @@
         <v>349</v>
       </c>
       <c r="E57" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F57" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G57" s="3">
         <v>45291.49048611111</v>
@@ -4825,7 +4822,7 @@
         <v>45316.50336805556</v>
       </c>
       <c r="I57" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4842,10 +4839,10 @@
         <v>350</v>
       </c>
       <c r="E58" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F58" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G58" s="3">
         <v>45310.86956018519</v>
@@ -4854,7 +4851,7 @@
         <v>45314.48899305556</v>
       </c>
       <c r="I58" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4871,10 +4868,10 @@
         <v>351</v>
       </c>
       <c r="E59" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F59" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G59" s="3">
         <v>45311.61930555556</v>
@@ -4883,7 +4880,7 @@
         <v>45316.49861111111</v>
       </c>
       <c r="I59" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4900,10 +4897,10 @@
         <v>352</v>
       </c>
       <c r="E60" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F60" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G60" s="3">
         <v>45313.76346064815</v>
@@ -4912,7 +4909,7 @@
         <v>45316.49800925926</v>
       </c>
       <c r="I60" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4929,10 +4926,10 @@
         <v>353</v>
       </c>
       <c r="E61" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F61" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G61" s="3">
         <v>45278.11224537037</v>
@@ -4941,7 +4938,7 @@
         <v>45302.49298611111</v>
       </c>
       <c r="I61" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4958,10 +4955,10 @@
         <v>354</v>
       </c>
       <c r="E62" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F62" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G62" s="3">
         <v>45278.21631944444</v>
@@ -4970,7 +4967,7 @@
         <v>45316.50450231481</v>
       </c>
       <c r="I62" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4987,10 +4984,10 @@
         <v>355</v>
       </c>
       <c r="E63" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F63" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G63" s="3">
         <v>45163.2121412037</v>
@@ -4999,7 +4996,7 @@
         <v>45163.2121412037</v>
       </c>
       <c r="I63" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -5016,10 +5013,10 @@
         <v>356</v>
       </c>
       <c r="E64" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F64" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G64" s="3">
         <v>45316.49957175926</v>
@@ -5028,7 +5025,7 @@
         <v>45316.50452546297</v>
       </c>
       <c r="I64" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -5045,10 +5042,10 @@
         <v>357</v>
       </c>
       <c r="E65" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F65" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G65" s="3">
         <v>45297.49180555555</v>
@@ -5057,7 +5054,7 @@
         <v>45316.50127314815</v>
       </c>
       <c r="I65" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -5074,10 +5071,10 @@
         <v>358</v>
       </c>
       <c r="E66" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F66" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G66" s="3">
         <v>45297.09299768518</v>
@@ -5086,7 +5083,7 @@
         <v>45316.5039699074</v>
       </c>
       <c r="I66" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -5103,10 +5100,10 @@
         <v>359</v>
       </c>
       <c r="E67" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F67" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G67" s="3">
         <v>45316.50059027778</v>
@@ -5115,7 +5112,7 @@
         <v>45316.50255787037</v>
       </c>
       <c r="I67" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -5132,10 +5129,10 @@
         <v>360</v>
       </c>
       <c r="E68" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F68" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G68" s="3">
         <v>45313.63670138889</v>
@@ -5144,7 +5141,7 @@
         <v>45315.90416666667</v>
       </c>
       <c r="I68" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -5161,10 +5158,10 @@
         <v>361</v>
       </c>
       <c r="E69" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F69" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G69" s="3">
         <v>45304.51188657407</v>
@@ -5173,7 +5170,7 @@
         <v>45315.56863425926</v>
       </c>
       <c r="I69" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -5190,10 +5187,10 @@
         <v>362</v>
       </c>
       <c r="E70" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F70" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G70" s="3">
         <v>45291.49329861111</v>
@@ -5202,7 +5199,7 @@
         <v>45312.93239583333</v>
       </c>
       <c r="I70" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -5219,10 +5216,10 @@
         <v>363</v>
       </c>
       <c r="E71" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F71" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G71" s="3">
         <v>45300.57674768518</v>
@@ -5231,7 +5228,7 @@
         <v>45315.52626157407</v>
       </c>
       <c r="I71" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -5248,10 +5245,10 @@
         <v>364</v>
       </c>
       <c r="E72" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F72" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G72" s="3">
         <v>45310.40046296296</v>
@@ -5260,7 +5257,7 @@
         <v>45312.49293981482</v>
       </c>
       <c r="I72" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5277,10 +5274,10 @@
         <v>365</v>
       </c>
       <c r="E73" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F73" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G73" s="3">
         <v>45291.49876157408</v>
@@ -5289,7 +5286,7 @@
         <v>45314.49362268519</v>
       </c>
       <c r="I73" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5306,10 +5303,10 @@
         <v>366</v>
       </c>
       <c r="E74" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F74" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G74" s="3">
         <v>45292.49576388889</v>
@@ -5318,7 +5315,7 @@
         <v>45314.64596064815</v>
       </c>
       <c r="I74" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5335,16 +5332,16 @@
         <v>367</v>
       </c>
       <c r="E75" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F75" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H75" s="3">
         <v>45047.30018518519</v>
       </c>
       <c r="I75" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -5361,10 +5358,10 @@
         <v>368</v>
       </c>
       <c r="E76" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F76" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G76" s="3">
         <v>45291.49430555556</v>
@@ -5373,7 +5370,7 @@
         <v>45316.16467592592</v>
       </c>
       <c r="I76" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5390,10 +5387,10 @@
         <v>369</v>
       </c>
       <c r="E77" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F77" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G77" s="3">
         <v>45283.62505787037</v>
@@ -5402,7 +5399,7 @@
         <v>45309.04886574074</v>
       </c>
       <c r="I77" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5419,10 +5416,10 @@
         <v>370</v>
       </c>
       <c r="E78" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F78" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G78" s="3">
         <v>45262.59487268519</v>
@@ -5431,7 +5428,7 @@
         <v>45309.01453703704</v>
       </c>
       <c r="I78" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -5448,10 +5445,10 @@
         <v>371</v>
       </c>
       <c r="E79" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F79" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G79" s="3">
         <v>45312.49354166666</v>
@@ -5460,7 +5457,7 @@
         <v>45316.164375</v>
       </c>
       <c r="I79" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -5477,10 +5474,10 @@
         <v>372</v>
       </c>
       <c r="E80" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F80" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G80" s="3">
         <v>45312.7619675926</v>
@@ -5489,7 +5486,7 @@
         <v>45315.65320601852</v>
       </c>
       <c r="I80" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5506,10 +5503,10 @@
         <v>373</v>
       </c>
       <c r="E81" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F81" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G81" s="3">
         <v>45310.90116898148</v>
@@ -5518,7 +5515,7 @@
         <v>45316.2090625</v>
       </c>
       <c r="I81" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5535,10 +5532,10 @@
         <v>374</v>
       </c>
       <c r="E82" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F82" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G82" s="3">
         <v>45315.1578125</v>
@@ -5547,7 +5544,7 @@
         <v>45316.16471064815</v>
       </c>
       <c r="I82" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -5564,10 +5561,10 @@
         <v>375</v>
       </c>
       <c r="E83" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F83" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G83" s="3">
         <v>45287.44400462963</v>
@@ -5576,7 +5573,7 @@
         <v>45314.49243055555</v>
       </c>
       <c r="I83" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -5593,10 +5590,10 @@
         <v>376</v>
       </c>
       <c r="E84" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F84" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G84" s="3">
         <v>45309.58261574074</v>
@@ -5605,7 +5602,7 @@
         <v>45314.42337962963</v>
       </c>
       <c r="I84" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -5622,10 +5619,10 @@
         <v>377</v>
       </c>
       <c r="E85" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F85" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G85" s="3">
         <v>45280.04030092592</v>
@@ -5634,7 +5631,7 @@
         <v>45309.01909722222</v>
       </c>
       <c r="I85" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -5651,10 +5648,10 @@
         <v>378</v>
       </c>
       <c r="E86" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F86" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G86" s="3">
         <v>45302.49703703704</v>
@@ -5663,7 +5660,7 @@
         <v>45316.20864583334</v>
       </c>
       <c r="I86" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -5680,10 +5677,10 @@
         <v>379</v>
       </c>
       <c r="E87" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F87" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G87" s="3">
         <v>45313.29277777778</v>
@@ -5692,7 +5689,7 @@
         <v>45315.23820601852</v>
       </c>
       <c r="I87" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5709,10 +5706,10 @@
         <v>380</v>
       </c>
       <c r="E88" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F88" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G88" s="3">
         <v>45286.50180555556</v>
@@ -5721,7 +5718,7 @@
         <v>45312.67471064815</v>
       </c>
       <c r="I88" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5738,10 +5735,10 @@
         <v>381</v>
       </c>
       <c r="E89" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F89" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G89" s="3">
         <v>45311.42429398148</v>
@@ -5750,7 +5747,7 @@
         <v>45314.89614583334</v>
       </c>
       <c r="I89" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -5767,10 +5764,10 @@
         <v>382</v>
       </c>
       <c r="E90" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F90" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G90" s="3">
         <v>45306.6199537037</v>
@@ -5779,7 +5776,7 @@
         <v>45314.49379629629</v>
       </c>
       <c r="I90" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -5796,10 +5793,10 @@
         <v>383</v>
       </c>
       <c r="E91" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F91" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G91" s="3">
         <v>45315.42351851852</v>
@@ -5808,7 +5805,7 @@
         <v>45315.42354166666</v>
       </c>
       <c r="I91" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5825,10 +5822,10 @@
         <v>384</v>
       </c>
       <c r="E92" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F92" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G92" s="3">
         <v>45287.95120370371</v>
@@ -5837,7 +5834,7 @@
         <v>45315.61121527778</v>
       </c>
       <c r="I92" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -5854,10 +5851,10 @@
         <v>385</v>
       </c>
       <c r="E93" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F93" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G93" s="3">
         <v>45312.49561342593</v>
@@ -5866,7 +5863,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I93" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5883,10 +5880,10 @@
         <v>386</v>
       </c>
       <c r="E94" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F94" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G94" s="3">
         <v>45291.62100694444</v>
@@ -5895,7 +5892,7 @@
         <v>45314.49383101852</v>
       </c>
       <c r="I94" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5912,10 +5909,10 @@
         <v>387</v>
       </c>
       <c r="E95" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F95" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G95" s="3">
         <v>44926.35877314815</v>
@@ -5924,7 +5921,7 @@
         <v>44926.35877314815</v>
       </c>
       <c r="I95" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5941,10 +5938,10 @@
         <v>388</v>
       </c>
       <c r="E96" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F96" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G96" s="3">
         <v>45297.49363425926</v>
@@ -5953,7 +5950,7 @@
         <v>45311.89606481481</v>
       </c>
       <c r="I96" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5970,10 +5967,10 @@
         <v>389</v>
       </c>
       <c r="E97" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F97" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G97" s="3">
         <v>45314.49303240741</v>
@@ -5982,7 +5979,7 @@
         <v>45315.65373842593</v>
       </c>
       <c r="I97" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5999,10 +5996,10 @@
         <v>390</v>
       </c>
       <c r="E98" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F98" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G98" s="3">
         <v>45313.05805555556</v>
@@ -6011,7 +6008,7 @@
         <v>45313.05806712963</v>
       </c>
       <c r="I98" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -6028,10 +6025,10 @@
         <v>391</v>
       </c>
       <c r="E99" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F99" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G99" s="3">
         <v>45307.38726851852</v>
@@ -6040,7 +6037,7 @@
         <v>45314.85255787037</v>
       </c>
       <c r="I99" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -6057,10 +6054,10 @@
         <v>392</v>
       </c>
       <c r="E100" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F100" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G100" s="3">
         <v>45293.03614583334</v>
@@ -6069,7 +6066,7 @@
         <v>45293.0361574074</v>
       </c>
       <c r="I100" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6086,10 +6083,10 @@
         <v>393</v>
       </c>
       <c r="E101" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F101" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G101" s="3">
         <v>45314.50199074074</v>
@@ -6098,7 +6095,7 @@
         <v>45315.65385416667</v>
       </c>
       <c r="I101" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -6115,10 +6112,10 @@
         <v>394</v>
       </c>
       <c r="E102" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F102" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G102" s="3">
         <v>45307.37951388889</v>
@@ -6127,7 +6124,7 @@
         <v>45315.36158564815</v>
       </c>
       <c r="I102" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -6144,10 +6141,10 @@
         <v>395</v>
       </c>
       <c r="E103" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F103" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G103" s="3">
         <v>45307.00873842592</v>
@@ -6156,7 +6153,7 @@
         <v>45307.00875</v>
       </c>
       <c r="I103" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -6173,10 +6170,10 @@
         <v>396</v>
       </c>
       <c r="E104" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F104" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G104" s="3">
         <v>45315.42385416666</v>
@@ -6185,7 +6182,7 @@
         <v>45315.42386574074</v>
       </c>
       <c r="I104" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -6202,10 +6199,10 @@
         <v>397</v>
       </c>
       <c r="E105" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F105" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G105" s="3">
         <v>45291.49836805555</v>
@@ -6214,7 +6211,7 @@
         <v>45315.65422453704</v>
       </c>
       <c r="I105" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -6231,10 +6228,10 @@
         <v>398</v>
       </c>
       <c r="E106" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F106" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G106" s="3">
         <v>45280.57280092593</v>
@@ -6243,7 +6240,7 @@
         <v>45309.02465277778</v>
       </c>
       <c r="I106" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -6260,10 +6257,10 @@
         <v>399</v>
       </c>
       <c r="E107" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F107" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G107" s="3">
         <v>45302.49490740741</v>
@@ -6272,7 +6269,7 @@
         <v>45312.88666666667</v>
       </c>
       <c r="I107" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -6289,10 +6286,10 @@
         <v>400</v>
       </c>
       <c r="E108" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F108" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G108" s="3">
         <v>45288.28815972222</v>
@@ -6301,7 +6298,7 @@
         <v>45315.60980324074</v>
       </c>
       <c r="I108" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -6318,10 +6315,10 @@
         <v>401</v>
       </c>
       <c r="E109" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F109" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G109" s="3">
         <v>45295.49231481482</v>
@@ -6330,7 +6327,7 @@
         <v>45315.61019675926</v>
       </c>
       <c r="I109" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -6347,10 +6344,10 @@
         <v>402</v>
       </c>
       <c r="E110" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F110" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G110" s="3">
         <v>45312.76140046296</v>
@@ -6359,7 +6356,7 @@
         <v>45314.69101851852</v>
       </c>
       <c r="I110" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -6376,10 +6373,10 @@
         <v>403</v>
       </c>
       <c r="E111" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F111" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G111" s="3">
         <v>45314.49325231482</v>
@@ -6388,7 +6385,7 @@
         <v>45315.61035879629</v>
       </c>
       <c r="I111" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -6405,10 +6402,10 @@
         <v>404</v>
       </c>
       <c r="E112" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F112" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G112" s="3">
         <v>45313.42341435186</v>
@@ -6417,7 +6414,7 @@
         <v>45314.19578703704</v>
       </c>
       <c r="I112" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6434,10 +6431,10 @@
         <v>405</v>
       </c>
       <c r="E113" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F113" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G113" s="3">
         <v>45292.49325231482</v>
@@ -6446,7 +6443,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I113" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -6463,10 +6460,10 @@
         <v>406</v>
       </c>
       <c r="E114" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F114" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G114" s="3">
         <v>45313.0588425926</v>
@@ -6475,7 +6472,7 @@
         <v>45314.42222222222</v>
       </c>
       <c r="I114" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -6492,10 +6489,10 @@
         <v>407</v>
       </c>
       <c r="E115" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F115" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G115" s="3">
         <v>45307.5822337963</v>
@@ -6504,7 +6501,7 @@
         <v>45314.77590277778</v>
       </c>
       <c r="I115" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -6521,10 +6518,10 @@
         <v>408</v>
       </c>
       <c r="E116" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F116" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G116" s="3">
         <v>45298.49490740741</v>
@@ -6533,7 +6530,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I116" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -6550,10 +6547,10 @@
         <v>409</v>
       </c>
       <c r="E117" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F117" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G117" s="3">
         <v>45300.43424768518</v>
@@ -6562,7 +6559,7 @@
         <v>45314.49525462963</v>
       </c>
       <c r="I117" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -6579,10 +6576,10 @@
         <v>410</v>
       </c>
       <c r="E118" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F118" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G118" s="3">
         <v>45287.49133101852</v>
@@ -6591,7 +6588,7 @@
         <v>45315.68306712963</v>
       </c>
       <c r="I118" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -6608,10 +6605,10 @@
         <v>411</v>
       </c>
       <c r="E119" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F119" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G119" s="3">
         <v>45315.24193287037</v>
@@ -6620,7 +6617,7 @@
         <v>45315.65413194444</v>
       </c>
       <c r="I119" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -6637,10 +6634,10 @@
         <v>412</v>
       </c>
       <c r="E120" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F120" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G120" s="3">
         <v>45296.62521990741</v>
@@ -6649,7 +6646,7 @@
         <v>45315.32032407408</v>
       </c>
       <c r="I120" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -6666,10 +6663,10 @@
         <v>413</v>
       </c>
       <c r="E121" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F121" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G121" s="3">
         <v>45293.4970949074</v>
@@ -6678,7 +6675,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I121" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -6695,10 +6692,10 @@
         <v>414</v>
       </c>
       <c r="E122" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F122" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G122" s="3">
         <v>45282.72908564815</v>
@@ -6707,7 +6704,7 @@
         <v>45282.72909722223</v>
       </c>
       <c r="I122" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -6724,10 +6721,10 @@
         <v>415</v>
       </c>
       <c r="E123" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F123" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G123" s="3">
         <v>45314.49591435185</v>
@@ -6736,7 +6733,7 @@
         <v>45315.69609953704</v>
       </c>
       <c r="I123" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -6753,10 +6750,10 @@
         <v>416</v>
       </c>
       <c r="E124" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F124" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G124" s="3">
         <v>45300.97112268519</v>
@@ -6765,7 +6762,7 @@
         <v>45315.69616898148</v>
       </c>
       <c r="I124" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -6782,10 +6779,10 @@
         <v>417</v>
       </c>
       <c r="E125" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F125" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G125" s="3">
         <v>45273.65564814815</v>
@@ -6794,7 +6791,7 @@
         <v>45303.42461805556</v>
       </c>
       <c r="I125" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -6811,10 +6808,10 @@
         <v>418</v>
       </c>
       <c r="E126" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F126" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G126" s="3">
         <v>45298.21359953703</v>
@@ -6823,7 +6820,7 @@
         <v>45314.49523148148</v>
       </c>
       <c r="I126" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -6840,10 +6837,10 @@
         <v>419</v>
       </c>
       <c r="E127" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F127" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G127" s="3">
         <v>45308.42383101852</v>
@@ -6852,7 +6849,7 @@
         <v>45314.49195601852</v>
       </c>
       <c r="I127" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -6869,10 +6866,10 @@
         <v>420</v>
       </c>
       <c r="E128" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F128" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G128" s="3">
         <v>45294.41019675926</v>
@@ -6881,7 +6878,7 @@
         <v>45315.69918981481</v>
       </c>
       <c r="I128" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -6898,10 +6895,10 @@
         <v>421</v>
       </c>
       <c r="E129" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F129" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G129" s="3">
         <v>45310.61224537037</v>
@@ -6910,7 +6907,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I129" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -6927,10 +6924,10 @@
         <v>422</v>
       </c>
       <c r="E130" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F130" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G130" s="3">
         <v>45304.64673611111</v>
@@ -6939,7 +6936,7 @@
         <v>45315.6959375</v>
       </c>
       <c r="I130" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -6956,10 +6953,10 @@
         <v>423</v>
       </c>
       <c r="E131" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F131" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G131" s="3">
         <v>45295.49403935186</v>
@@ -6968,7 +6965,7 @@
         <v>45315.69605324074</v>
       </c>
       <c r="I131" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -6985,10 +6982,10 @@
         <v>424</v>
       </c>
       <c r="E132" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F132" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G132" s="3">
         <v>45298.06329861111</v>
@@ -6997,7 +6994,7 @@
         <v>45314.49458333333</v>
       </c>
       <c r="I132" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -7014,10 +7011,10 @@
         <v>425</v>
       </c>
       <c r="E133" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F133" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G133" s="3">
         <v>45297.49041666667</v>
@@ -7026,7 +7023,7 @@
         <v>45315.70159722222</v>
       </c>
       <c r="I133" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -7043,10 +7040,10 @@
         <v>426</v>
       </c>
       <c r="E134" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F134" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G134" s="3">
         <v>45296.21274305556</v>
@@ -7055,7 +7052,7 @@
         <v>45309.05621527778</v>
       </c>
       <c r="I134" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -7072,10 +7069,10 @@
         <v>427</v>
       </c>
       <c r="E135" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F135" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G135" s="3">
         <v>45307.08791666666</v>
@@ -7084,7 +7081,7 @@
         <v>45315.65327546297</v>
       </c>
       <c r="I135" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -7101,10 +7098,10 @@
         <v>428</v>
       </c>
       <c r="E136" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F136" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G136" s="3">
         <v>45314.49842592593</v>
@@ -7113,7 +7110,7 @@
         <v>45314.67444444444</v>
       </c>
       <c r="I136" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -7130,10 +7127,10 @@
         <v>429</v>
       </c>
       <c r="E137" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F137" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G137" s="3">
         <v>45310.65872685185</v>
@@ -7142,7 +7139,7 @@
         <v>45314.49422453704</v>
       </c>
       <c r="I137" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -7159,10 +7156,10 @@
         <v>430</v>
       </c>
       <c r="E138" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F138" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G138" s="3">
         <v>45312.13112268518</v>
@@ -7171,7 +7168,7 @@
         <v>45315.6537962963</v>
       </c>
       <c r="I138" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -7188,10 +7185,10 @@
         <v>431</v>
       </c>
       <c r="E139" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F139" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G139" s="3">
         <v>45270.59310185185</v>
@@ -7200,7 +7197,7 @@
         <v>45309.07831018518</v>
       </c>
       <c r="I139" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -7217,10 +7214,10 @@
         <v>432</v>
       </c>
       <c r="E140" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F140" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G140" s="3">
         <v>45278.77987268518</v>
@@ -7229,7 +7226,7 @@
         <v>45314.6009837963</v>
       </c>
       <c r="I140" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -7246,10 +7243,10 @@
         <v>433</v>
       </c>
       <c r="E141" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F141" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G141" s="3">
         <v>45314.49572916667</v>
@@ -7258,7 +7255,7 @@
         <v>45314.67103009259</v>
       </c>
       <c r="I141" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -7275,16 +7272,16 @@
         <v>434</v>
       </c>
       <c r="E142" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F142" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H142" s="3">
         <v>43999.85027777778</v>
       </c>
       <c r="I142" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -7301,10 +7298,10 @@
         <v>435</v>
       </c>
       <c r="E143" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F143" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G143" s="3">
         <v>45309.54311342593</v>
@@ -7313,7 +7310,7 @@
         <v>45316.16458333333</v>
       </c>
       <c r="I143" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -7330,10 +7327,10 @@
         <v>436</v>
       </c>
       <c r="E144" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F144" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G144" s="3">
         <v>45306.51280092593</v>
@@ -7342,7 +7339,7 @@
         <v>45306.51280092593</v>
       </c>
       <c r="I144" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -7359,10 +7356,10 @@
         <v>437</v>
       </c>
       <c r="E145" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F145" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G145" s="3">
         <v>45314.49275462963</v>
@@ -7371,7 +7368,7 @@
         <v>45315.73717592593</v>
       </c>
       <c r="I145" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -7388,10 +7385,10 @@
         <v>438</v>
       </c>
       <c r="E146" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F146" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G146" s="3">
         <v>45308.77947916667</v>
@@ -7400,7 +7397,7 @@
         <v>45309.07209490741</v>
       </c>
       <c r="I146" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -7417,10 +7414,10 @@
         <v>439</v>
       </c>
       <c r="E147" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F147" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G147" s="3">
         <v>45307.50165509259</v>
@@ -7429,7 +7426,7 @@
         <v>45312.88640046296</v>
       </c>
       <c r="I147" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -7446,10 +7443,10 @@
         <v>440</v>
       </c>
       <c r="E148" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F148" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G148" s="3">
         <v>45294.12988425926</v>
@@ -7458,7 +7455,7 @@
         <v>45314.49341435185</v>
       </c>
       <c r="I148" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -7475,10 +7472,10 @@
         <v>441</v>
       </c>
       <c r="E149" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F149" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G149" s="3">
         <v>45296.33108796296</v>
@@ -7487,7 +7484,7 @@
         <v>45314.51508101852</v>
       </c>
       <c r="I149" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -7504,10 +7501,10 @@
         <v>442</v>
       </c>
       <c r="E150" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F150" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G150" s="3">
         <v>45295.49210648148</v>
@@ -7516,7 +7513,7 @@
         <v>45315.69587962963</v>
       </c>
       <c r="I150" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -7533,10 +7530,10 @@
         <v>443</v>
       </c>
       <c r="E151" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F151" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G151" s="3">
         <v>45314.49277777778</v>
@@ -7545,7 +7542,7 @@
         <v>45315.73741898148</v>
       </c>
       <c r="I151" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -7562,10 +7559,10 @@
         <v>444</v>
       </c>
       <c r="E152" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F152" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G152" s="3">
         <v>45308.74111111111</v>
@@ -7574,7 +7571,7 @@
         <v>45310.69127314815</v>
       </c>
       <c r="I152" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -7591,10 +7588,10 @@
         <v>445</v>
       </c>
       <c r="E153" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F153" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G153" s="3">
         <v>45311.61907407407</v>
@@ -7603,7 +7600,7 @@
         <v>45315.73760416666</v>
       </c>
       <c r="I153" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -7620,10 +7617,10 @@
         <v>446</v>
       </c>
       <c r="E154" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F154" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G154" s="3">
         <v>45313.06128472222</v>
@@ -7632,7 +7629,7 @@
         <v>45314.4228125</v>
       </c>
       <c r="I154" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -7649,10 +7646,10 @@
         <v>447</v>
       </c>
       <c r="E155" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F155" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G155" s="3">
         <v>45291.49923611111</v>
@@ -7661,7 +7658,7 @@
         <v>45312.49590277778</v>
       </c>
       <c r="I155" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -7678,10 +7675,10 @@
         <v>448</v>
       </c>
       <c r="E156" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F156" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G156" s="3">
         <v>45302.49706018518</v>
@@ -7690,7 +7687,7 @@
         <v>45315.07060185185</v>
       </c>
       <c r="I156" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -7707,10 +7704,10 @@
         <v>449</v>
       </c>
       <c r="E157" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F157" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G157" s="3">
         <v>45286.49168981481</v>
@@ -7719,7 +7716,7 @@
         <v>45315.73706018519</v>
       </c>
       <c r="I157" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -7736,10 +7733,10 @@
         <v>450</v>
       </c>
       <c r="E158" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F158" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G158" s="3">
         <v>45306.62078703703</v>
@@ -7748,7 +7745,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I158" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -7765,10 +7762,10 @@
         <v>451</v>
       </c>
       <c r="E159" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F159" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G159" s="3">
         <v>45297.49820601852</v>
@@ -7777,7 +7774,7 @@
         <v>45315.73712962963</v>
       </c>
       <c r="I159" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -7794,10 +7791,10 @@
         <v>452</v>
       </c>
       <c r="E160" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F160" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G160" s="3">
         <v>45314.49293981482</v>
@@ -7806,7 +7803,7 @@
         <v>45315.73753472222</v>
       </c>
       <c r="I160" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -7823,10 +7820,10 @@
         <v>453</v>
       </c>
       <c r="E161" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F161" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G161" s="3">
         <v>45302.49929398148</v>
@@ -7835,7 +7832,7 @@
         <v>45314.49518518519</v>
       </c>
       <c r="I161" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -7852,16 +7849,16 @@
         <v>454</v>
       </c>
       <c r="E162" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F162" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H162" s="3">
         <v>45307.36160879629</v>
       </c>
       <c r="I162" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -7878,10 +7875,10 @@
         <v>455</v>
       </c>
       <c r="E163" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F163" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G163" s="3">
         <v>45314.4933912037</v>
@@ -7890,7 +7887,7 @@
         <v>45316.12230324074</v>
       </c>
       <c r="I163" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -7907,10 +7904,10 @@
         <v>456</v>
       </c>
       <c r="E164" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F164" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G164" s="3">
         <v>45307.36724537037</v>
@@ -7919,7 +7916,7 @@
         <v>45316.16459490741</v>
       </c>
       <c r="I164" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -7936,10 +7933,10 @@
         <v>457</v>
       </c>
       <c r="E165" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F165" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G165" s="3">
         <v>45297.31922453704</v>
@@ -7948,7 +7945,7 @@
         <v>45314.49394675926</v>
       </c>
       <c r="I165" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -7965,10 +7962,10 @@
         <v>458</v>
       </c>
       <c r="E166" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F166" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G166" s="3">
         <v>45315.42201388889</v>
@@ -7977,7 +7974,7 @@
         <v>45315.7841550926</v>
       </c>
       <c r="I166" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -7994,10 +7991,10 @@
         <v>459</v>
       </c>
       <c r="E167" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F167" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G167" s="3">
         <v>45314.42302083333</v>
@@ -8006,7 +8003,7 @@
         <v>45314.42302083333</v>
       </c>
       <c r="I167" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -8023,10 +8020,10 @@
         <v>460</v>
       </c>
       <c r="E168" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F168" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G168" s="3">
         <v>45314.49530092593</v>
@@ -8035,7 +8032,7 @@
         <v>45315.78174768519</v>
       </c>
       <c r="I168" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -8052,10 +8049,10 @@
         <v>461</v>
       </c>
       <c r="E169" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F169" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G169" s="3">
         <v>45312.49302083333</v>
@@ -8064,7 +8061,7 @@
         <v>45314.49451388889</v>
       </c>
       <c r="I169" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -8081,10 +8078,10 @@
         <v>462</v>
       </c>
       <c r="E170" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F170" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G170" s="3">
         <v>45302.49891203704</v>
@@ -8093,7 +8090,7 @@
         <v>45315.78163194445</v>
       </c>
       <c r="I170" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -8110,10 +8107,10 @@
         <v>463</v>
       </c>
       <c r="E171" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F171" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G171" s="3">
         <v>45314.49350694445</v>
@@ -8122,7 +8119,7 @@
         <v>45315.78178240741</v>
       </c>
       <c r="I171" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -8139,10 +8136,10 @@
         <v>464</v>
       </c>
       <c r="E172" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F172" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G172" s="3">
         <v>44049.84335648148</v>
@@ -8151,7 +8148,7 @@
         <v>44740.15496527778</v>
       </c>
       <c r="I172" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -8168,10 +8165,10 @@
         <v>465</v>
       </c>
       <c r="E173" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F173" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G173" s="3">
         <v>45307.49097222222</v>
@@ -8180,7 +8177,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I173" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -8197,10 +8194,10 @@
         <v>466</v>
       </c>
       <c r="E174" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F174" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G174" s="3">
         <v>45312.37847222222</v>
@@ -8209,7 +8206,7 @@
         <v>45314.42348379629</v>
       </c>
       <c r="I174" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -8226,10 +8223,10 @@
         <v>467</v>
       </c>
       <c r="E175" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F175" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G175" s="3">
         <v>45312.25097222222</v>
@@ -8238,7 +8235,7 @@
         <v>45315.74335648148</v>
       </c>
       <c r="I175" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -8255,10 +8252,10 @@
         <v>468</v>
       </c>
       <c r="E176" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F176" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G176" s="3">
         <v>45310.90118055556</v>
@@ -8267,7 +8264,7 @@
         <v>45314.49304398148</v>
       </c>
       <c r="I176" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -8284,10 +8281,10 @@
         <v>469</v>
       </c>
       <c r="E177" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F177" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G177" s="3">
         <v>45296.62515046296</v>
@@ -8296,7 +8293,7 @@
         <v>45314.49361111111</v>
       </c>
       <c r="I177" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -8313,10 +8310,10 @@
         <v>470</v>
       </c>
       <c r="E178" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F178" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G178" s="3">
         <v>45311.61869212963</v>
@@ -8325,7 +8322,7 @@
         <v>45315.73645833333</v>
       </c>
       <c r="I178" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -8342,10 +8339,10 @@
         <v>471</v>
       </c>
       <c r="E179" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F179" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G179" s="3">
         <v>45287.159375</v>
@@ -8354,7 +8351,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I179" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -8371,10 +8368,10 @@
         <v>472</v>
       </c>
       <c r="E180" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F180" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G180" s="3">
         <v>45311.68436342593</v>
@@ -8383,7 +8380,7 @@
         <v>45315.75385416667</v>
       </c>
       <c r="I180" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -8400,10 +8397,10 @@
         <v>473</v>
       </c>
       <c r="E181" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F181" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G181" s="3">
         <v>45291.49039351852</v>
@@ -8412,7 +8409,7 @@
         <v>45315.78164351852</v>
       </c>
       <c r="I181" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -8429,10 +8426,10 @@
         <v>474</v>
       </c>
       <c r="E182" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F182" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G182" s="3">
         <v>45308.74193287037</v>
@@ -8441,7 +8438,7 @@
         <v>45315.7467824074</v>
       </c>
       <c r="I182" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -8458,10 +8455,10 @@
         <v>475</v>
       </c>
       <c r="E183" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F183" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G183" s="3">
         <v>45290.68399305556</v>
@@ -8470,7 +8467,7 @@
         <v>45315.76791666666</v>
       </c>
       <c r="I183" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -8487,10 +8484,10 @@
         <v>476</v>
       </c>
       <c r="E184" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F184" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G184" s="3">
         <v>45294.52609953703</v>
@@ -8499,7 +8496,7 @@
         <v>45315.75109953704</v>
       </c>
       <c r="I184" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -8516,10 +8513,10 @@
         <v>477</v>
       </c>
       <c r="E185" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F185" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G185" s="3">
         <v>45305.28581018518</v>
@@ -8528,7 +8525,7 @@
         <v>45315.73657407407</v>
       </c>
       <c r="I185" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -8545,10 +8542,10 @@
         <v>478</v>
       </c>
       <c r="E186" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F186" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G186" s="3">
         <v>45303.07900462963</v>
@@ -8557,7 +8554,7 @@
         <v>45315.78171296296</v>
       </c>
       <c r="I186" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -8574,10 +8571,10 @@
         <v>479</v>
       </c>
       <c r="E187" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F187" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G187" s="3">
         <v>45294.00594907408</v>
@@ -8586,7 +8583,7 @@
         <v>45315.60971064815</v>
       </c>
       <c r="I187" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -8603,10 +8600,10 @@
         <v>480</v>
       </c>
       <c r="E188" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F188" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G188" s="3">
         <v>45291.6212037037</v>
@@ -8615,7 +8612,7 @@
         <v>45315.76299768518</v>
       </c>
       <c r="I188" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -8632,10 +8629,10 @@
         <v>481</v>
       </c>
       <c r="E189" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F189" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G189" s="3">
         <v>45291.62125</v>
@@ -8644,7 +8641,7 @@
         <v>45315.73672453704</v>
       </c>
       <c r="I189" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -8661,10 +8658,10 @@
         <v>482</v>
       </c>
       <c r="E190" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F190" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G190" s="3">
         <v>45291.49121527778</v>
@@ -8673,7 +8670,7 @@
         <v>45315.73679398148</v>
       </c>
       <c r="I190" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -8690,10 +8687,10 @@
         <v>483</v>
       </c>
       <c r="E191" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F191" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G191" s="3">
         <v>45305.45537037037</v>
@@ -8702,7 +8699,7 @@
         <v>45315.78153935185</v>
       </c>
       <c r="I191" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -8719,10 +8716,10 @@
         <v>484</v>
       </c>
       <c r="E192" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F192" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G192" s="3">
         <v>45312.66900462963</v>
@@ -8731,7 +8728,7 @@
         <v>45315.78197916667</v>
       </c>
       <c r="I192" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -8748,10 +8745,10 @@
         <v>485</v>
       </c>
       <c r="E193" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F193" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G193" s="3">
         <v>45283.15128472223</v>
@@ -8760,7 +8757,7 @@
         <v>45315.73756944444</v>
       </c>
       <c r="I193" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -8777,10 +8774,10 @@
         <v>486</v>
       </c>
       <c r="E194" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F194" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G194" s="3">
         <v>45290.15359953704</v>
@@ -8789,7 +8786,7 @@
         <v>45315.81050925926</v>
       </c>
       <c r="I194" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -8806,10 +8803,10 @@
         <v>487</v>
       </c>
       <c r="E195" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F195" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G195" s="3">
         <v>45288.77761574074</v>
@@ -8818,7 +8815,7 @@
         <v>45315.8109837963</v>
       </c>
       <c r="I195" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -8835,10 +8832,10 @@
         <v>488</v>
       </c>
       <c r="E196" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F196" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G196" s="3">
         <v>45283.5427199074</v>
@@ -8847,7 +8844,7 @@
         <v>45315.81034722222</v>
       </c>
       <c r="I196" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -8864,10 +8861,10 @@
         <v>489</v>
       </c>
       <c r="E197" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F197" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G197" s="3">
         <v>45290.06099537037</v>
@@ -8876,7 +8873,7 @@
         <v>45315.78223379629</v>
       </c>
       <c r="I197" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -8893,10 +8890,10 @@
         <v>490</v>
       </c>
       <c r="E198" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F198" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G198" s="3">
         <v>45285.78746527778</v>
@@ -8905,7 +8902,7 @@
         <v>45315.81327546296</v>
       </c>
       <c r="I198" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -8922,10 +8919,10 @@
         <v>491</v>
       </c>
       <c r="E199" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F199" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G199" s="3">
         <v>45300.70331018518</v>
@@ -8934,7 +8931,7 @@
         <v>45315.78243055556</v>
       </c>
       <c r="I199" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -8951,10 +8948,10 @@
         <v>492</v>
       </c>
       <c r="E200" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F200" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G200" s="3">
         <v>45313.4215625</v>
@@ -8963,7 +8960,7 @@
         <v>45314.19313657407</v>
       </c>
       <c r="I200" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -8980,10 +8977,10 @@
         <v>493</v>
       </c>
       <c r="E201" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F201" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G201" s="3">
         <v>45313.10177083333</v>
@@ -8992,7 +8989,7 @@
         <v>45315.19548611111</v>
       </c>
       <c r="I201" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -9009,10 +9006,10 @@
         <v>494</v>
       </c>
       <c r="E202" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F202" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G202" s="3">
         <v>45313.56241898148</v>
@@ -9021,7 +9018,7 @@
         <v>45315.73755787037</v>
       </c>
       <c r="I202" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -9038,10 +9035,10 @@
         <v>495</v>
       </c>
       <c r="E203" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F203" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G203" s="3">
         <v>45287.49016203704</v>
@@ -9050,7 +9047,7 @@
         <v>45315.81586805556</v>
       </c>
       <c r="I203" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -9067,10 +9064,10 @@
         <v>496</v>
       </c>
       <c r="E204" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F204" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G204" s="3">
         <v>45294.11623842592</v>
@@ -9079,7 +9076,7 @@
         <v>45315.81109953704</v>
       </c>
       <c r="I204" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -9096,10 +9093,10 @@
         <v>497</v>
       </c>
       <c r="E205" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F205" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G205" s="3">
         <v>45281.61627314815</v>
@@ -9108,7 +9105,7 @@
         <v>45315.73660879629</v>
       </c>
       <c r="I205" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -9125,10 +9122,10 @@
         <v>498</v>
       </c>
       <c r="E206" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F206" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G206" s="3">
         <v>45310.31782407407</v>
@@ -9137,7 +9134,7 @@
         <v>45315.82373842593</v>
       </c>
       <c r="I206" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -9154,10 +9151,10 @@
         <v>499</v>
       </c>
       <c r="E207" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F207" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G207" s="3">
         <v>45292.86751157408</v>
@@ -9166,7 +9163,7 @@
         <v>45315.81833333334</v>
       </c>
       <c r="I207" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -9183,10 +9180,10 @@
         <v>500</v>
       </c>
       <c r="E208" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F208" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G208" s="3">
         <v>45297.78877314815</v>
@@ -9195,7 +9192,7 @@
         <v>45315.82362268519</v>
       </c>
       <c r="I208" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -9212,10 +9209,10 @@
         <v>501</v>
       </c>
       <c r="E209" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F209" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G209" s="3">
         <v>45291.49200231482</v>
@@ -9224,7 +9221,7 @@
         <v>45315.81275462963</v>
       </c>
       <c r="I209" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -9241,10 +9238,10 @@
         <v>502</v>
       </c>
       <c r="E210" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F210" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G210" s="3">
         <v>45314.77236111111</v>
@@ -9253,7 +9250,7 @@
         <v>45315.81111111111</v>
       </c>
       <c r="I210" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -9270,10 +9267,10 @@
         <v>503</v>
       </c>
       <c r="E211" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F211" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G211" s="3">
         <v>45306.94767361111</v>
@@ -9282,7 +9279,7 @@
         <v>45315.81850694444</v>
       </c>
       <c r="I211" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -9299,10 +9296,10 @@
         <v>504</v>
       </c>
       <c r="E212" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F212" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G212" s="3">
         <v>45315.48592592592</v>
@@ -9311,7 +9308,7 @@
         <v>45315.82550925926</v>
       </c>
       <c r="I212" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -9328,10 +9325,10 @@
         <v>505</v>
       </c>
       <c r="E213" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F213" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G213" s="3">
         <v>45278.21140046296</v>
@@ -9340,7 +9337,7 @@
         <v>45315.78211805555</v>
       </c>
       <c r="I213" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -9357,10 +9354,10 @@
         <v>506</v>
       </c>
       <c r="E214" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F214" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G214" s="3">
         <v>45296.58950231481</v>
@@ -9369,7 +9366,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I214" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -9386,10 +9383,10 @@
         <v>507</v>
       </c>
       <c r="E215" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F215" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G215" s="3">
         <v>45308.74321759259</v>
@@ -9398,7 +9395,7 @@
         <v>45315.82768518518</v>
       </c>
       <c r="I215" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -9415,10 +9412,10 @@
         <v>508</v>
       </c>
       <c r="E216" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F216" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G216" s="3">
         <v>45291.49114583333</v>
@@ -9427,7 +9424,7 @@
         <v>45315.82378472222</v>
       </c>
       <c r="I216" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -9444,10 +9441,10 @@
         <v>509</v>
       </c>
       <c r="E217" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F217" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G217" s="3">
         <v>45308.16465277778</v>
@@ -9456,7 +9453,7 @@
         <v>45315.82369212963</v>
       </c>
       <c r="I217" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -9473,10 +9470,10 @@
         <v>510</v>
       </c>
       <c r="E218" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F218" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G218" s="3">
         <v>45296.21802083333</v>
@@ -9485,7 +9482,7 @@
         <v>45315.82553240741</v>
       </c>
       <c r="I218" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -9502,10 +9499,10 @@
         <v>511</v>
       </c>
       <c r="E219" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F219" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G219" s="3">
         <v>45307.36931712963</v>
@@ -9514,7 +9511,7 @@
         <v>45315.78234953704</v>
       </c>
       <c r="I219" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -9531,10 +9528,10 @@
         <v>512</v>
       </c>
       <c r="E220" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F220" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G220" s="3">
         <v>45313.02901620371</v>
@@ -9543,7 +9540,7 @@
         <v>45315.78185185185</v>
       </c>
       <c r="I220" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -9560,10 +9557,10 @@
         <v>513</v>
       </c>
       <c r="E221" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F221" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G221" s="3">
         <v>45284.49082175926</v>
@@ -9572,7 +9569,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I221" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -9589,10 +9586,10 @@
         <v>514</v>
       </c>
       <c r="E222" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F222" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G222" s="3">
         <v>45290.06063657408</v>
@@ -9601,7 +9598,7 @@
         <v>45315.81575231482</v>
       </c>
       <c r="I222" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -9618,10 +9615,10 @@
         <v>515</v>
       </c>
       <c r="E223" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F223" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G223" s="3">
         <v>45292.49101851852</v>
@@ -9630,7 +9627,7 @@
         <v>45315.81292824074</v>
       </c>
       <c r="I223" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -9647,10 +9644,10 @@
         <v>516</v>
       </c>
       <c r="E224" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F224" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G224" s="3">
         <v>45291.34520833333</v>
@@ -9659,7 +9656,7 @@
         <v>45315.82354166666</v>
       </c>
       <c r="I224" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -9676,10 +9673,10 @@
         <v>517</v>
       </c>
       <c r="E225" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F225" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G225" s="3">
         <v>45314.42053240741</v>
@@ -9688,7 +9685,7 @@
         <v>45315.81092592593</v>
       </c>
       <c r="I225" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -9705,10 +9702,10 @@
         <v>518</v>
       </c>
       <c r="E226" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F226" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G226" s="3">
         <v>45291.49119212963</v>
@@ -9717,7 +9714,7 @@
         <v>45314.49342592592</v>
       </c>
       <c r="I226" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -9734,10 +9731,10 @@
         <v>519</v>
       </c>
       <c r="E227" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F227" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G227" s="3">
         <v>45306.91820601852</v>
@@ -9746,7 +9743,7 @@
         <v>45315.82215277778</v>
       </c>
       <c r="I227" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -9763,10 +9760,10 @@
         <v>520</v>
       </c>
       <c r="E228" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F228" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G228" s="3">
         <v>45286.62017361111</v>
@@ -9775,7 +9772,7 @@
         <v>45315.78180555555</v>
       </c>
       <c r="I228" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -9792,10 +9789,10 @@
         <v>521</v>
       </c>
       <c r="E229" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F229" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G229" s="3">
         <v>45308.74159722222</v>
@@ -9804,7 +9801,7 @@
         <v>45315.82368055556</v>
       </c>
       <c r="I229" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -9821,10 +9818,10 @@
         <v>522</v>
       </c>
       <c r="E230" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F230" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G230" s="3">
         <v>45283.53591435185</v>
@@ -9833,7 +9830,7 @@
         <v>45315.82388888889</v>
       </c>
       <c r="I230" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -9850,10 +9847,10 @@
         <v>523</v>
       </c>
       <c r="E231" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F231" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G231" s="3">
         <v>45279.15613425926</v>
@@ -9862,7 +9859,7 @@
         <v>45310.69137731481</v>
       </c>
       <c r="I231" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -9879,10 +9876,10 @@
         <v>524</v>
       </c>
       <c r="E232" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F232" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G232" s="3">
         <v>45302.49265046296</v>
@@ -9891,7 +9888,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I232" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -9908,10 +9905,10 @@
         <v>525</v>
       </c>
       <c r="E233" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F233" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G233" s="3">
         <v>45286.49104166667</v>
@@ -9920,7 +9917,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I233" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -9937,10 +9934,10 @@
         <v>526</v>
       </c>
       <c r="E234" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F234" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G234" s="3">
         <v>45313.42326388889</v>
@@ -9949,7 +9946,7 @@
         <v>45314.18550925926</v>
       </c>
       <c r="I234" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -9966,10 +9963,10 @@
         <v>527</v>
       </c>
       <c r="E235" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F235" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G235" s="3">
         <v>44288.33525462963</v>
@@ -9978,7 +9975,7 @@
         <v>44288.33525462963</v>
       </c>
       <c r="I235" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -9995,10 +9992,10 @@
         <v>528</v>
       </c>
       <c r="E236" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F236" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G236" s="3">
         <v>45287.22329861111</v>
@@ -10007,7 +10004,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I236" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -10024,10 +10021,10 @@
         <v>529</v>
       </c>
       <c r="E237" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F237" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G237" s="3">
         <v>45311.90133101852</v>
@@ -10036,7 +10033,7 @@
         <v>45315.82358796296</v>
       </c>
       <c r="I237" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -10053,10 +10050,10 @@
         <v>530</v>
       </c>
       <c r="E238" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F238" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G238" s="3">
         <v>45298.44405092593</v>
@@ -10065,7 +10062,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I238" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -10082,10 +10079,10 @@
         <v>531</v>
       </c>
       <c r="E239" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F239" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G239" s="3">
         <v>45297.01849537037</v>
@@ -10094,7 +10091,7 @@
         <v>45314.90065972223</v>
       </c>
       <c r="I239" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -10111,10 +10108,10 @@
         <v>532</v>
       </c>
       <c r="E240" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F240" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G240" s="3">
         <v>45280.57440972222</v>
@@ -10123,7 +10120,7 @@
         <v>45309.03163194445</v>
       </c>
       <c r="I240" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -10140,10 +10137,10 @@
         <v>533</v>
       </c>
       <c r="E241" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F241" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G241" s="3">
         <v>45314.42252314815</v>
@@ -10152,7 +10149,7 @@
         <v>45315.82351851852</v>
       </c>
       <c r="I241" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -10169,10 +10166,10 @@
         <v>534</v>
       </c>
       <c r="E242" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F242" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G242" s="3">
         <v>45301.61993055556</v>
@@ -10181,7 +10178,7 @@
         <v>45314.018125</v>
       </c>
       <c r="I242" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -10198,10 +10195,10 @@
         <v>535</v>
       </c>
       <c r="E243" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F243" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G243" s="3">
         <v>45312.49469907407</v>
@@ -10210,7 +10207,7 @@
         <v>45315.78165509259</v>
       </c>
       <c r="I243" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -10227,10 +10224,10 @@
         <v>536</v>
       </c>
       <c r="E244" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F244" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G244" s="3">
         <v>45295.49803240741</v>
@@ -10239,7 +10236,7 @@
         <v>45315.8234837963</v>
       </c>
       <c r="I244" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -10256,10 +10253,10 @@
         <v>537</v>
       </c>
       <c r="E245" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F245" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G245" s="3">
         <v>45313.05956018518</v>
@@ -10268,7 +10265,7 @@
         <v>45315.82376157407</v>
       </c>
       <c r="I245" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -10285,10 +10282,10 @@
         <v>538</v>
       </c>
       <c r="E246" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F246" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G246" s="3">
         <v>45298.49199074074</v>
@@ -10297,7 +10294,7 @@
         <v>45315.82392361111</v>
       </c>
       <c r="I246" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -10314,10 +10311,10 @@
         <v>539</v>
       </c>
       <c r="E247" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F247" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G247" s="3">
         <v>45286.6203587963</v>
@@ -10326,7 +10323,7 @@
         <v>45315.82366898148</v>
       </c>
       <c r="I247" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -10343,10 +10340,10 @@
         <v>540</v>
       </c>
       <c r="E248" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F248" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G248" s="3">
         <v>45311.61991898148</v>
@@ -10355,7 +10352,7 @@
         <v>45315.02909722222</v>
       </c>
       <c r="I248" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -10372,10 +10369,10 @@
         <v>541</v>
       </c>
       <c r="E249" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F249" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G249" s="3">
         <v>45306.75461805556</v>
@@ -10384,7 +10381,7 @@
         <v>45315.04524305555</v>
       </c>
       <c r="I249" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -10401,10 +10398,10 @@
         <v>542</v>
       </c>
       <c r="E250" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F250" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G250" s="3">
         <v>45292.49578703703</v>
@@ -10413,7 +10410,7 @@
         <v>45315.4852662037</v>
       </c>
       <c r="I250" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -10430,10 +10427,10 @@
         <v>543</v>
       </c>
       <c r="E251" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F251" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G251" s="3">
         <v>45308.60100694445</v>
@@ -10442,7 +10439,7 @@
         <v>45314.49393518519</v>
       </c>
       <c r="I251" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -10459,10 +10456,10 @@
         <v>544</v>
       </c>
       <c r="E252" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F252" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G252" s="3">
         <v>45289.35146990741</v>
@@ -10471,7 +10468,7 @@
         <v>45314.49217592592</v>
       </c>
       <c r="I252" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -10488,10 +10485,10 @@
         <v>545</v>
       </c>
       <c r="E253" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F253" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G253" s="3">
         <v>45307.49243055555</v>
@@ -10500,7 +10497,7 @@
         <v>45314.49329861111</v>
       </c>
       <c r="I253" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -10517,10 +10514,10 @@
         <v>546</v>
       </c>
       <c r="E254" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F254" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G254" s="3">
         <v>45313.42297453704</v>
@@ -10529,7 +10526,7 @@
         <v>45313.42299768519</v>
       </c>
       <c r="I254" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -10546,10 +10543,10 @@
         <v>547</v>
       </c>
       <c r="E255" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F255" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G255" s="3">
         <v>45291.49054398148</v>
@@ -10558,7 +10555,7 @@
         <v>45314.94496527778</v>
       </c>
       <c r="I255" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -10575,10 +10572,10 @@
         <v>548</v>
       </c>
       <c r="E256" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F256" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G256" s="3">
         <v>45292.15671296296</v>
@@ -10587,7 +10584,7 @@
         <v>45312.75942129629</v>
       </c>
       <c r="I256" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -10604,10 +10601,10 @@
         <v>549</v>
       </c>
       <c r="E257" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F257" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G257" s="3">
         <v>45287.83861111111</v>
@@ -10616,7 +10613,7 @@
         <v>45316.03899305555</v>
       </c>
       <c r="I257" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -10633,10 +10630,10 @@
         <v>550</v>
       </c>
       <c r="E258" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F258" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G258" s="3">
         <v>45293.04358796297</v>
@@ -10645,7 +10642,7 @@
         <v>45315.8656712963</v>
       </c>
       <c r="I258" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -10662,10 +10659,10 @@
         <v>551</v>
       </c>
       <c r="E259" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F259" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G259" s="3">
         <v>45307.49564814815</v>
@@ -10674,7 +10671,7 @@
         <v>45315.9937037037</v>
       </c>
       <c r="I259" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -10691,10 +10688,10 @@
         <v>552</v>
       </c>
       <c r="E260" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F260" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G260" s="3">
         <v>45314.90094907407</v>
@@ -10703,7 +10700,7 @@
         <v>45315.89604166667</v>
       </c>
       <c r="I260" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -10720,10 +10717,10 @@
         <v>553</v>
       </c>
       <c r="E261" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F261" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G261" s="3">
         <v>45294.84780092593</v>
@@ -10732,7 +10729,7 @@
         <v>45316.03907407408</v>
       </c>
       <c r="I261" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -10749,10 +10746,10 @@
         <v>554</v>
       </c>
       <c r="E262" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F262" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G262" s="3">
         <v>45296.61121527778</v>
@@ -10761,7 +10758,7 @@
         <v>45316.03895833333</v>
       </c>
       <c r="I262" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -10778,10 +10775,10 @@
         <v>555</v>
       </c>
       <c r="E263" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F263" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G263" s="3">
         <v>45311.62060185185</v>
@@ -10790,7 +10787,7 @@
         <v>45316.03954861111</v>
       </c>
       <c r="I263" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -10807,10 +10804,10 @@
         <v>556</v>
       </c>
       <c r="E264" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F264" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G264" s="3">
         <v>45301.61861111111</v>
@@ -10819,7 +10816,7 @@
         <v>45316.08056712963</v>
       </c>
       <c r="I264" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -10836,10 +10833,10 @@
         <v>557</v>
       </c>
       <c r="E265" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F265" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G265" s="3">
         <v>45286.49385416666</v>
@@ -10848,7 +10845,7 @@
         <v>45316.03959490741</v>
       </c>
       <c r="I265" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -10865,10 +10862,10 @@
         <v>558</v>
       </c>
       <c r="E266" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F266" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G266" s="3">
         <v>45311.71087962963</v>
@@ -10877,7 +10874,7 @@
         <v>45314.67140046296</v>
       </c>
       <c r="I266" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -10894,10 +10891,10 @@
         <v>559</v>
       </c>
       <c r="E267" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F267" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G267" s="3">
         <v>45288.63045138889</v>
@@ -10906,7 +10903,7 @@
         <v>45316.03887731482</v>
       </c>
       <c r="I267" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -10923,10 +10920,10 @@
         <v>560</v>
       </c>
       <c r="E268" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F268" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G268" s="3">
         <v>45280.82067129629</v>
@@ -10935,7 +10932,7 @@
         <v>45316.03997685185</v>
       </c>
       <c r="I268" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -10952,10 +10949,10 @@
         <v>561</v>
       </c>
       <c r="E269" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F269" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G269" s="3">
         <v>45296.62119212963</v>
@@ -10964,7 +10961,7 @@
         <v>45316.08042824074</v>
       </c>
       <c r="I269" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -10981,10 +10978,10 @@
         <v>562</v>
       </c>
       <c r="E270" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F270" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G270" s="3">
         <v>45300.48923611111</v>
@@ -10993,7 +10990,7 @@
         <v>45316.08054398148</v>
       </c>
       <c r="I270" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -11010,10 +11007,10 @@
         <v>563</v>
       </c>
       <c r="E271" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F271" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G271" s="3">
         <v>45314.49359953704</v>
@@ -11022,7 +11019,7 @@
         <v>45314.66849537037</v>
       </c>
       <c r="I271" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -11039,10 +11036,10 @@
         <v>564</v>
       </c>
       <c r="E272" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F272" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G272" s="3">
         <v>45312.50121527778</v>
@@ -11051,7 +11048,7 @@
         <v>45312.67422453704</v>
       </c>
       <c r="I272" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -11068,10 +11065,10 @@
         <v>565</v>
       </c>
       <c r="E273" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F273" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G273" s="3">
         <v>45261.49545138889</v>
@@ -11080,7 +11077,7 @@
         <v>45309.04300925926</v>
       </c>
       <c r="I273" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -11097,10 +11094,10 @@
         <v>566</v>
       </c>
       <c r="E274" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F274" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G274" s="3">
         <v>45291.49003472222</v>
@@ -11109,7 +11106,7 @@
         <v>45316.08077546296</v>
       </c>
       <c r="I274" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -11126,10 +11123,10 @@
         <v>567</v>
       </c>
       <c r="E275" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F275" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G275" s="3">
         <v>45280.21361111111</v>
@@ -11138,7 +11135,7 @@
         <v>45309.04177083333</v>
       </c>
       <c r="I275" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -11155,10 +11152,10 @@
         <v>568</v>
       </c>
       <c r="E276" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F276" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G276" s="3">
         <v>45314.56188657408</v>
@@ -11167,7 +11164,7 @@
         <v>45315.48497685185</v>
       </c>
       <c r="I276" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -11184,10 +11181,10 @@
         <v>569</v>
       </c>
       <c r="E277" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F277" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G277" s="3">
         <v>45302.49186342592</v>
@@ -11196,7 +11193,7 @@
         <v>45316.08069444444</v>
       </c>
       <c r="I277" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -11213,10 +11210,10 @@
         <v>570</v>
       </c>
       <c r="E278" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F278" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G278" s="3">
         <v>45291.5000462963</v>
@@ -11225,7 +11222,7 @@
         <v>45314.49376157407</v>
       </c>
       <c r="I278" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -11242,10 +11239,10 @@
         <v>571</v>
       </c>
       <c r="E279" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F279" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G279" s="3">
         <v>45291.49392361111</v>
@@ -11254,7 +11251,7 @@
         <v>45314.49452546296</v>
       </c>
       <c r="I279" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -11271,10 +11268,10 @@
         <v>572</v>
       </c>
       <c r="E280" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F280" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G280" s="3">
         <v>45312.49576388889</v>
@@ -11283,7 +11280,7 @@
         <v>45316.03846064815</v>
       </c>
       <c r="I280" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -11300,10 +11297,10 @@
         <v>573</v>
       </c>
       <c r="E281" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F281" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G281" s="3">
         <v>45312.98068287037</v>
@@ -11312,7 +11309,7 @@
         <v>45316.08041666666</v>
       </c>
       <c r="I281" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -11329,10 +11326,10 @@
         <v>574</v>
       </c>
       <c r="E282" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F282" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G282" s="3">
         <v>45314.49623842593</v>
@@ -11341,7 +11338,7 @@
         <v>45316.08075231482</v>
       </c>
       <c r="I282" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -11358,10 +11355,10 @@
         <v>575</v>
       </c>
       <c r="E283" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F283" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G283" s="3">
         <v>45313.14449074074</v>
@@ -11370,7 +11367,7 @@
         <v>45316.08082175926</v>
       </c>
       <c r="I283" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -11387,10 +11384,10 @@
         <v>576</v>
       </c>
       <c r="E284" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F284" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G284" s="3">
         <v>45312.50119212963</v>
@@ -11399,7 +11396,7 @@
         <v>45316.08556712963</v>
       </c>
       <c r="I284" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="927">
   <si>
     <t>Sno</t>
   </si>
@@ -1801,202 +1801,205 @@
     <t>{'harmless': 58, 'malicious': 9, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
   </si>
   <si>
+    <t>{'harmless': 60, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 7, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 9, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 10, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 52, 'malicious': 17, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 5, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 1, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 12, 'suspicious': 2, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 16, 'suspicious': 1, 'undetected': 19, 'harmless': 53, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 6, 'suspicious': 2, 'undetected': 20, 'harmless': 61, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 13, 'suspicious': 1, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 14, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 8, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 8, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 6, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 11, 'suspicious': 1, 'undetected': 23, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 8, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 0, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 1, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 9, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 1, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 4, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 5, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 3, 'suspicious': 0, 'undetected': 23, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 2, 'suspicious': 1, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 4, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 50, 'malicious': 18, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 65, 'malicious': 2, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 51, 'malicious': 18, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
     <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 7, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 9, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 10, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 52, 'malicious': 17, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 5, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 1, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 12, 'suspicious': 2, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 16, 'suspicious': 1, 'undetected': 19, 'harmless': 53, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 6, 'suspicious': 2, 'undetected': 20, 'harmless': 61, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 13, 'suspicious': 1, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 14, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 8, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 8, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 6, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 11, 'suspicious': 1, 'undetected': 23, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 8, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 0, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 1, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 9, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 1, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 4, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 5, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 3, 'suspicious': 0, 'undetected': 23, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 2, 'suspicious': 1, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 4, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 50, 'malicious': 18, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 65, 'malicious': 2, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 51, 'malicious': 18, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
   </si>
   <si>
     <t>{'harmless': 58, 'malicious': 9, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
@@ -3218,7 +3221,7 @@
         <v>577</v>
       </c>
       <c r="F2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G2" s="3">
         <v>45311.61894675926</v>
@@ -3227,7 +3230,7 @@
         <v>45341.32113425926</v>
       </c>
       <c r="I2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3247,7 +3250,7 @@
         <v>578</v>
       </c>
       <c r="F3" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G3" s="3">
         <v>45328.50989583333</v>
@@ -3256,7 +3259,7 @@
         <v>45341.27945601852</v>
       </c>
       <c r="I3" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3276,7 +3279,7 @@
         <v>578</v>
       </c>
       <c r="F4" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G4" s="3">
         <v>45306.97109953704</v>
@@ -3285,7 +3288,7 @@
         <v>45341.06746527777</v>
       </c>
       <c r="I4" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3305,7 +3308,7 @@
         <v>578</v>
       </c>
       <c r="F5" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G5" s="3">
         <v>45328.57457175926</v>
@@ -3314,7 +3317,7 @@
         <v>45341.27858796297</v>
       </c>
       <c r="I5" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3334,7 +3337,7 @@
         <v>579</v>
       </c>
       <c r="F6" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G6" s="3">
         <v>45337.51012731482</v>
@@ -3343,7 +3346,7 @@
         <v>45341.27866898148</v>
       </c>
       <c r="I6" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3363,7 +3366,7 @@
         <v>580</v>
       </c>
       <c r="F7" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G7" s="3">
         <v>45329.3558912037</v>
@@ -3372,7 +3375,7 @@
         <v>45341.32061342592</v>
       </c>
       <c r="I7" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3392,7 +3395,7 @@
         <v>581</v>
       </c>
       <c r="F8" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G8" s="3">
         <v>45337.50997685185</v>
@@ -3401,7 +3404,7 @@
         <v>45341.10480324074</v>
       </c>
       <c r="I8" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3421,7 +3424,7 @@
         <v>582</v>
       </c>
       <c r="F9" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G9" s="3">
         <v>45308.21690972222</v>
@@ -3430,7 +3433,7 @@
         <v>45341.10543981481</v>
       </c>
       <c r="I9" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3450,7 +3453,7 @@
         <v>583</v>
       </c>
       <c r="F10" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G10" s="3">
         <v>45329.50237268519</v>
@@ -3459,7 +3462,7 @@
         <v>45341.04172453703</v>
       </c>
       <c r="I10" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3479,7 +3482,7 @@
         <v>584</v>
       </c>
       <c r="F11" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G11" s="3">
         <v>45316.49925925926</v>
@@ -3488,7 +3491,7 @@
         <v>45341.10148148148</v>
       </c>
       <c r="I11" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3508,7 +3511,7 @@
         <v>585</v>
       </c>
       <c r="F12" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G12" s="3">
         <v>45329.01333333334</v>
@@ -3517,7 +3520,7 @@
         <v>45341.36274305556</v>
       </c>
       <c r="I12" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3537,7 +3540,7 @@
         <v>586</v>
       </c>
       <c r="F13" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G13" s="3">
         <v>45320.50914351852</v>
@@ -3546,7 +3549,7 @@
         <v>45341.02841435185</v>
       </c>
       <c r="I13" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3566,7 +3569,7 @@
         <v>587</v>
       </c>
       <c r="F14" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G14" s="3">
         <v>45329.05806712963</v>
@@ -3575,7 +3578,7 @@
         <v>45341.07314814815</v>
       </c>
       <c r="I14" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3595,7 +3598,7 @@
         <v>588</v>
       </c>
       <c r="F15" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G15" s="3">
         <v>45341.23758101852</v>
@@ -3604,7 +3607,7 @@
         <v>45341.23922453704</v>
       </c>
       <c r="I15" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3624,7 +3627,7 @@
         <v>589</v>
       </c>
       <c r="F16" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G16" s="3">
         <v>45311.33236111111</v>
@@ -3633,7 +3636,7 @@
         <v>45341.09497685185</v>
       </c>
       <c r="I16" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3653,7 +3656,7 @@
         <v>590</v>
       </c>
       <c r="F17" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G17" s="3">
         <v>45331.50390046297</v>
@@ -3662,7 +3665,7 @@
         <v>45341.03533564815</v>
       </c>
       <c r="I17" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3682,7 +3685,7 @@
         <v>578</v>
       </c>
       <c r="F18" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G18" s="3">
         <v>45336.62003472223</v>
@@ -3691,7 +3694,7 @@
         <v>45341.01741898148</v>
       </c>
       <c r="I18" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3711,7 +3714,7 @@
         <v>591</v>
       </c>
       <c r="F19" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G19" s="3">
         <v>45288.23121527778</v>
@@ -3720,7 +3723,7 @@
         <v>45302.48868055556</v>
       </c>
       <c r="I19" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3740,7 +3743,7 @@
         <v>592</v>
       </c>
       <c r="F20" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G20" s="3">
         <v>45307.52993055555</v>
@@ -3749,7 +3752,7 @@
         <v>45314.19462962963</v>
       </c>
       <c r="I20" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3769,7 +3772,7 @@
         <v>581</v>
       </c>
       <c r="F21" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G21" s="3">
         <v>45314.42365740741</v>
@@ -3778,7 +3781,7 @@
         <v>45340.51633101852</v>
       </c>
       <c r="I21" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3798,7 +3801,7 @@
         <v>593</v>
       </c>
       <c r="F22" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G22" s="3">
         <v>45336.62097222222</v>
@@ -3807,7 +3810,7 @@
         <v>45341.02842592593</v>
       </c>
       <c r="I22" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3827,7 +3830,7 @@
         <v>594</v>
       </c>
       <c r="F23" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G23" s="3">
         <v>45321.50142361111</v>
@@ -3836,7 +3839,7 @@
         <v>45341.09378472222</v>
       </c>
       <c r="I23" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3856,7 +3859,7 @@
         <v>588</v>
       </c>
       <c r="F24" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G24" s="3">
         <v>45309.80174768518</v>
@@ -3865,7 +3868,7 @@
         <v>45338.54115740741</v>
       </c>
       <c r="I24" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3885,16 +3888,16 @@
         <v>595</v>
       </c>
       <c r="F25" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G25" s="3">
         <v>45299.43368055556</v>
       </c>
       <c r="H25" s="3">
-        <v>45316.37909722222</v>
+        <v>45341.10300925926</v>
       </c>
       <c r="I25" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3914,7 +3917,7 @@
         <v>596</v>
       </c>
       <c r="F26" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G26" s="3">
         <v>45314.17763888889</v>
@@ -3923,7 +3926,7 @@
         <v>45316.08064814815</v>
       </c>
       <c r="I26" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3943,7 +3946,7 @@
         <v>597</v>
       </c>
       <c r="F27" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G27" s="3">
         <v>45291.49208333333</v>
@@ -3952,7 +3955,7 @@
         <v>45316.34907407407</v>
       </c>
       <c r="I27" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3972,7 +3975,7 @@
         <v>598</v>
       </c>
       <c r="F28" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G28" s="3">
         <v>45289.73149305556</v>
@@ -3981,7 +3984,7 @@
         <v>45316.37931712963</v>
       </c>
       <c r="I28" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4001,7 +4004,7 @@
         <v>599</v>
       </c>
       <c r="F29" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G29" s="3">
         <v>45312.4952662037</v>
@@ -4010,7 +4013,7 @@
         <v>45315.52618055556</v>
       </c>
       <c r="I29" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4030,7 +4033,7 @@
         <v>600</v>
       </c>
       <c r="F30" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G30" s="3">
         <v>45307.49253472222</v>
@@ -4039,7 +4042,7 @@
         <v>45316.3793287037</v>
       </c>
       <c r="I30" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4059,7 +4062,7 @@
         <v>596</v>
       </c>
       <c r="F31" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G31" s="3">
         <v>45311.71104166667</v>
@@ -4068,7 +4071,7 @@
         <v>45316.37922453704</v>
       </c>
       <c r="I31" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4088,7 +4091,7 @@
         <v>596</v>
       </c>
       <c r="F32" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G32" s="3">
         <v>45312.34644675926</v>
@@ -4097,7 +4100,7 @@
         <v>45316.37908564815</v>
       </c>
       <c r="I32" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4117,7 +4120,7 @@
         <v>601</v>
       </c>
       <c r="F33" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G33" s="3">
         <v>44163.34006944444</v>
@@ -4126,7 +4129,7 @@
         <v>44163.34006944444</v>
       </c>
       <c r="I33" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4146,7 +4149,7 @@
         <v>602</v>
       </c>
       <c r="F34" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G34" s="3">
         <v>45286.80534722222</v>
@@ -4155,7 +4158,7 @@
         <v>45316.37934027778</v>
       </c>
       <c r="I34" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4175,7 +4178,7 @@
         <v>603</v>
       </c>
       <c r="F35" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G35" s="3">
         <v>45302.49230324074</v>
@@ -4184,7 +4187,7 @@
         <v>45314.98761574074</v>
       </c>
       <c r="I35" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4204,7 +4207,7 @@
         <v>604</v>
       </c>
       <c r="F36" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G36" s="3">
         <v>45302.49503472223</v>
@@ -4213,7 +4216,7 @@
         <v>45315.48547453704</v>
       </c>
       <c r="I36" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4233,7 +4236,7 @@
         <v>605</v>
       </c>
       <c r="F37" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G37" s="3">
         <v>45311.61938657407</v>
@@ -4242,7 +4245,7 @@
         <v>45316.42167824074</v>
       </c>
       <c r="I37" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4262,7 +4265,7 @@
         <v>600</v>
       </c>
       <c r="F38" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G38" s="3">
         <v>45297.0796412037</v>
@@ -4271,7 +4274,7 @@
         <v>45316.49811342593</v>
       </c>
       <c r="I38" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4291,7 +4294,7 @@
         <v>606</v>
       </c>
       <c r="F39" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G39" s="3">
         <v>45290.31696759259</v>
@@ -4300,7 +4303,7 @@
         <v>45316.49866898148</v>
       </c>
       <c r="I39" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4320,7 +4323,7 @@
         <v>607</v>
       </c>
       <c r="F40" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G40" s="3">
         <v>45313.59486111111</v>
@@ -4329,7 +4332,7 @@
         <v>45316.49662037037</v>
       </c>
       <c r="I40" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4349,7 +4352,7 @@
         <v>608</v>
       </c>
       <c r="F41" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G41" s="3">
         <v>45295.49177083333</v>
@@ -4358,7 +4361,7 @@
         <v>45316.49807870371</v>
       </c>
       <c r="I41" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4378,7 +4381,7 @@
         <v>609</v>
       </c>
       <c r="F42" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G42" s="3">
         <v>45311.92179398148</v>
@@ -4387,7 +4390,7 @@
         <v>45316.4971875</v>
       </c>
       <c r="I42" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4407,7 +4410,7 @@
         <v>608</v>
       </c>
       <c r="F43" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G43" s="3">
         <v>45296.05393518518</v>
@@ -4416,7 +4419,7 @@
         <v>45316.50489583334</v>
       </c>
       <c r="I43" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4436,7 +4439,7 @@
         <v>596</v>
       </c>
       <c r="F44" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G44" s="3">
         <v>45313.11333333333</v>
@@ -4445,7 +4448,7 @@
         <v>45316.49230324074</v>
       </c>
       <c r="I44" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4465,7 +4468,7 @@
         <v>599</v>
       </c>
       <c r="F45" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G45" s="3">
         <v>45306.61894675926</v>
@@ -4474,7 +4477,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I45" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4494,7 +4497,7 @@
         <v>610</v>
       </c>
       <c r="F46" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G46" s="3">
         <v>45312.49850694444</v>
@@ -4503,7 +4506,7 @@
         <v>45316.49799768518</v>
       </c>
       <c r="I46" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4523,7 +4526,7 @@
         <v>611</v>
       </c>
       <c r="F47" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G47" s="3">
         <v>45262.49515046296</v>
@@ -4532,7 +4535,7 @@
         <v>45309.07923611111</v>
       </c>
       <c r="I47" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4552,7 +4555,7 @@
         <v>606</v>
       </c>
       <c r="F48" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G48" s="3">
         <v>45298.49847222222</v>
@@ -4561,7 +4564,7 @@
         <v>45316.49944444445</v>
       </c>
       <c r="I48" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4581,7 +4584,7 @@
         <v>612</v>
       </c>
       <c r="F49" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G49" s="3">
         <v>45311.61908564815</v>
@@ -4590,7 +4593,7 @@
         <v>45316.49847222222</v>
       </c>
       <c r="I49" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4610,7 +4613,7 @@
         <v>613</v>
       </c>
       <c r="F50" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G50" s="3">
         <v>45311.61989583333</v>
@@ -4619,7 +4622,7 @@
         <v>45316.50482638889</v>
       </c>
       <c r="I50" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4639,7 +4642,7 @@
         <v>600</v>
       </c>
       <c r="F51" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G51" s="3">
         <v>45316.50053240741</v>
@@ -4648,7 +4651,7 @@
         <v>45316.50232638889</v>
       </c>
       <c r="I51" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4668,7 +4671,7 @@
         <v>614</v>
       </c>
       <c r="F52" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G52" s="3">
         <v>45313.05881944444</v>
@@ -4677,7 +4680,7 @@
         <v>45314.42322916666</v>
       </c>
       <c r="I52" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4697,7 +4700,7 @@
         <v>615</v>
       </c>
       <c r="F53" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G53" s="3">
         <v>45316.5015162037</v>
@@ -4706,7 +4709,7 @@
         <v>45316.50331018519</v>
       </c>
       <c r="I53" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4726,7 +4729,7 @@
         <v>616</v>
       </c>
       <c r="F54" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G54" s="3">
         <v>45291.62113425926</v>
@@ -4735,7 +4738,7 @@
         <v>45316.49827546296</v>
       </c>
       <c r="I54" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4755,7 +4758,7 @@
         <v>617</v>
       </c>
       <c r="F55" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G55" s="3">
         <v>45287.49758101852</v>
@@ -4764,7 +4767,7 @@
         <v>45316.50458333334</v>
       </c>
       <c r="I55" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4784,7 +4787,7 @@
         <v>618</v>
       </c>
       <c r="F56" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G56" s="3">
         <v>45280.75131944445</v>
@@ -4793,7 +4796,7 @@
         <v>45316.50454861111</v>
       </c>
       <c r="I56" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4813,7 +4816,7 @@
         <v>599</v>
       </c>
       <c r="F57" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G57" s="3">
         <v>45291.49048611111</v>
@@ -4822,7 +4825,7 @@
         <v>45316.50336805556</v>
       </c>
       <c r="I57" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4842,7 +4845,7 @@
         <v>619</v>
       </c>
       <c r="F58" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G58" s="3">
         <v>45310.86956018519</v>
@@ -4851,7 +4854,7 @@
         <v>45314.48899305556</v>
       </c>
       <c r="I58" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4871,7 +4874,7 @@
         <v>620</v>
       </c>
       <c r="F59" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G59" s="3">
         <v>45311.61930555556</v>
@@ -4880,7 +4883,7 @@
         <v>45316.49861111111</v>
       </c>
       <c r="I59" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4900,7 +4903,7 @@
         <v>621</v>
       </c>
       <c r="F60" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G60" s="3">
         <v>45313.76346064815</v>
@@ -4909,7 +4912,7 @@
         <v>45316.49800925926</v>
       </c>
       <c r="I60" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4929,7 +4932,7 @@
         <v>622</v>
       </c>
       <c r="F61" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G61" s="3">
         <v>45278.11224537037</v>
@@ -4938,7 +4941,7 @@
         <v>45302.49298611111</v>
       </c>
       <c r="I61" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4958,7 +4961,7 @@
         <v>608</v>
       </c>
       <c r="F62" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G62" s="3">
         <v>45278.21631944444</v>
@@ -4967,7 +4970,7 @@
         <v>45316.50450231481</v>
       </c>
       <c r="I62" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4987,7 +4990,7 @@
         <v>601</v>
       </c>
       <c r="F63" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G63" s="3">
         <v>45163.2121412037</v>
@@ -4996,7 +4999,7 @@
         <v>45163.2121412037</v>
       </c>
       <c r="I63" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -5016,7 +5019,7 @@
         <v>604</v>
       </c>
       <c r="F64" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G64" s="3">
         <v>45316.49957175926</v>
@@ -5025,7 +5028,7 @@
         <v>45316.50452546297</v>
       </c>
       <c r="I64" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -5045,7 +5048,7 @@
         <v>623</v>
       </c>
       <c r="F65" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G65" s="3">
         <v>45297.49180555555</v>
@@ -5054,7 +5057,7 @@
         <v>45316.50127314815</v>
       </c>
       <c r="I65" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -5074,7 +5077,7 @@
         <v>624</v>
       </c>
       <c r="F66" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G66" s="3">
         <v>45297.09299768518</v>
@@ -5083,7 +5086,7 @@
         <v>45316.5039699074</v>
       </c>
       <c r="I66" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -5103,7 +5106,7 @@
         <v>625</v>
       </c>
       <c r="F67" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G67" s="3">
         <v>45316.50059027778</v>
@@ -5112,7 +5115,7 @@
         <v>45316.50255787037</v>
       </c>
       <c r="I67" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -5132,7 +5135,7 @@
         <v>626</v>
       </c>
       <c r="F68" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G68" s="3">
         <v>45313.63670138889</v>
@@ -5141,7 +5144,7 @@
         <v>45315.90416666667</v>
       </c>
       <c r="I68" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -5161,7 +5164,7 @@
         <v>620</v>
       </c>
       <c r="F69" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G69" s="3">
         <v>45304.51188657407</v>
@@ -5170,7 +5173,7 @@
         <v>45315.56863425926</v>
       </c>
       <c r="I69" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -5190,7 +5193,7 @@
         <v>627</v>
       </c>
       <c r="F70" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G70" s="3">
         <v>45291.49329861111</v>
@@ -5199,7 +5202,7 @@
         <v>45312.93239583333</v>
       </c>
       <c r="I70" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -5219,7 +5222,7 @@
         <v>628</v>
       </c>
       <c r="F71" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G71" s="3">
         <v>45300.57674768518</v>
@@ -5228,7 +5231,7 @@
         <v>45315.52626157407</v>
       </c>
       <c r="I71" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -5248,7 +5251,7 @@
         <v>629</v>
       </c>
       <c r="F72" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G72" s="3">
         <v>45310.40046296296</v>
@@ -5257,7 +5260,7 @@
         <v>45312.49293981482</v>
       </c>
       <c r="I72" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5277,7 +5280,7 @@
         <v>629</v>
       </c>
       <c r="F73" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G73" s="3">
         <v>45291.49876157408</v>
@@ -5286,7 +5289,7 @@
         <v>45314.49362268519</v>
       </c>
       <c r="I73" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5306,7 +5309,7 @@
         <v>630</v>
       </c>
       <c r="F74" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G74" s="3">
         <v>45292.49576388889</v>
@@ -5315,7 +5318,7 @@
         <v>45314.64596064815</v>
       </c>
       <c r="I74" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5335,13 +5338,13 @@
         <v>601</v>
       </c>
       <c r="F75" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H75" s="3">
         <v>45047.30018518519</v>
       </c>
       <c r="I75" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -5361,7 +5364,7 @@
         <v>631</v>
       </c>
       <c r="F76" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G76" s="3">
         <v>45291.49430555556</v>
@@ -5370,7 +5373,7 @@
         <v>45316.16467592592</v>
       </c>
       <c r="I76" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5390,7 +5393,7 @@
         <v>596</v>
       </c>
       <c r="F77" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G77" s="3">
         <v>45283.62505787037</v>
@@ -5399,7 +5402,7 @@
         <v>45309.04886574074</v>
       </c>
       <c r="I77" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5419,7 +5422,7 @@
         <v>621</v>
       </c>
       <c r="F78" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G78" s="3">
         <v>45262.59487268519</v>
@@ -5428,7 +5431,7 @@
         <v>45309.01453703704</v>
       </c>
       <c r="I78" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -5448,7 +5451,7 @@
         <v>632</v>
       </c>
       <c r="F79" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G79" s="3">
         <v>45312.49354166666</v>
@@ -5457,7 +5460,7 @@
         <v>45316.164375</v>
       </c>
       <c r="I79" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -5477,7 +5480,7 @@
         <v>619</v>
       </c>
       <c r="F80" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G80" s="3">
         <v>45312.7619675926</v>
@@ -5486,7 +5489,7 @@
         <v>45315.65320601852</v>
       </c>
       <c r="I80" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5506,7 +5509,7 @@
         <v>606</v>
       </c>
       <c r="F81" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G81" s="3">
         <v>45310.90116898148</v>
@@ -5515,7 +5518,7 @@
         <v>45316.2090625</v>
       </c>
       <c r="I81" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5535,7 +5538,7 @@
         <v>633</v>
       </c>
       <c r="F82" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G82" s="3">
         <v>45315.1578125</v>
@@ -5544,7 +5547,7 @@
         <v>45316.16471064815</v>
       </c>
       <c r="I82" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -5564,7 +5567,7 @@
         <v>634</v>
       </c>
       <c r="F83" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G83" s="3">
         <v>45287.44400462963</v>
@@ -5573,7 +5576,7 @@
         <v>45314.49243055555</v>
       </c>
       <c r="I83" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -5593,7 +5596,7 @@
         <v>614</v>
       </c>
       <c r="F84" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G84" s="3">
         <v>45309.58261574074</v>
@@ -5602,7 +5605,7 @@
         <v>45314.42337962963</v>
       </c>
       <c r="I84" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -5622,7 +5625,7 @@
         <v>622</v>
       </c>
       <c r="F85" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G85" s="3">
         <v>45280.04030092592</v>
@@ -5631,7 +5634,7 @@
         <v>45309.01909722222</v>
       </c>
       <c r="I85" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -5651,7 +5654,7 @@
         <v>635</v>
       </c>
       <c r="F86" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G86" s="3">
         <v>45302.49703703704</v>
@@ -5660,7 +5663,7 @@
         <v>45316.20864583334</v>
       </c>
       <c r="I86" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -5680,7 +5683,7 @@
         <v>636</v>
       </c>
       <c r="F87" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G87" s="3">
         <v>45313.29277777778</v>
@@ -5689,7 +5692,7 @@
         <v>45315.23820601852</v>
       </c>
       <c r="I87" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5709,7 +5712,7 @@
         <v>637</v>
       </c>
       <c r="F88" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G88" s="3">
         <v>45286.50180555556</v>
@@ -5718,7 +5721,7 @@
         <v>45312.67471064815</v>
       </c>
       <c r="I88" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5738,7 +5741,7 @@
         <v>638</v>
       </c>
       <c r="F89" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G89" s="3">
         <v>45311.42429398148</v>
@@ -5747,7 +5750,7 @@
         <v>45314.89614583334</v>
       </c>
       <c r="I89" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -5767,7 +5770,7 @@
         <v>639</v>
       </c>
       <c r="F90" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G90" s="3">
         <v>45306.6199537037</v>
@@ -5776,7 +5779,7 @@
         <v>45314.49379629629</v>
       </c>
       <c r="I90" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -5796,7 +5799,7 @@
         <v>614</v>
       </c>
       <c r="F91" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G91" s="3">
         <v>45315.42351851852</v>
@@ -5805,7 +5808,7 @@
         <v>45315.42354166666</v>
       </c>
       <c r="I91" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5825,7 +5828,7 @@
         <v>600</v>
       </c>
       <c r="F92" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G92" s="3">
         <v>45287.95120370371</v>
@@ -5834,7 +5837,7 @@
         <v>45315.61121527778</v>
       </c>
       <c r="I92" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -5854,7 +5857,7 @@
         <v>640</v>
       </c>
       <c r="F93" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G93" s="3">
         <v>45312.49561342593</v>
@@ -5863,7 +5866,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I93" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5883,7 +5886,7 @@
         <v>620</v>
       </c>
       <c r="F94" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G94" s="3">
         <v>45291.62100694444</v>
@@ -5892,7 +5895,7 @@
         <v>45314.49383101852</v>
       </c>
       <c r="I94" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5912,7 +5915,7 @@
         <v>641</v>
       </c>
       <c r="F95" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G95" s="3">
         <v>44926.35877314815</v>
@@ -5921,7 +5924,7 @@
         <v>44926.35877314815</v>
       </c>
       <c r="I95" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5941,7 +5944,7 @@
         <v>620</v>
       </c>
       <c r="F96" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G96" s="3">
         <v>45297.49363425926</v>
@@ -5950,7 +5953,7 @@
         <v>45311.89606481481</v>
       </c>
       <c r="I96" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5970,7 +5973,7 @@
         <v>612</v>
       </c>
       <c r="F97" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G97" s="3">
         <v>45314.49303240741</v>
@@ -5979,7 +5982,7 @@
         <v>45315.65373842593</v>
       </c>
       <c r="I97" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5999,7 +6002,7 @@
         <v>601</v>
       </c>
       <c r="F98" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G98" s="3">
         <v>45313.05805555556</v>
@@ -6008,7 +6011,7 @@
         <v>45313.05806712963</v>
       </c>
       <c r="I98" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -6028,7 +6031,7 @@
         <v>621</v>
       </c>
       <c r="F99" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G99" s="3">
         <v>45307.38726851852</v>
@@ -6037,7 +6040,7 @@
         <v>45314.85255787037</v>
       </c>
       <c r="I99" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -6057,7 +6060,7 @@
         <v>642</v>
       </c>
       <c r="F100" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G100" s="3">
         <v>45293.03614583334</v>
@@ -6066,7 +6069,7 @@
         <v>45293.0361574074</v>
       </c>
       <c r="I100" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6086,7 +6089,7 @@
         <v>643</v>
       </c>
       <c r="F101" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G101" s="3">
         <v>45314.50199074074</v>
@@ -6095,7 +6098,7 @@
         <v>45315.65385416667</v>
       </c>
       <c r="I101" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -6115,7 +6118,7 @@
         <v>644</v>
       </c>
       <c r="F102" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G102" s="3">
         <v>45307.37951388889</v>
@@ -6124,7 +6127,7 @@
         <v>45315.36158564815</v>
       </c>
       <c r="I102" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -6144,7 +6147,7 @@
         <v>601</v>
       </c>
       <c r="F103" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G103" s="3">
         <v>45307.00873842592</v>
@@ -6153,7 +6156,7 @@
         <v>45307.00875</v>
       </c>
       <c r="I103" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -6173,7 +6176,7 @@
         <v>645</v>
       </c>
       <c r="F104" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G104" s="3">
         <v>45315.42385416666</v>
@@ -6182,7 +6185,7 @@
         <v>45315.42386574074</v>
       </c>
       <c r="I104" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -6202,7 +6205,7 @@
         <v>646</v>
       </c>
       <c r="F105" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G105" s="3">
         <v>45291.49836805555</v>
@@ -6211,7 +6214,7 @@
         <v>45315.65422453704</v>
       </c>
       <c r="I105" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -6231,7 +6234,7 @@
         <v>647</v>
       </c>
       <c r="F106" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G106" s="3">
         <v>45280.57280092593</v>
@@ -6240,7 +6243,7 @@
         <v>45309.02465277778</v>
       </c>
       <c r="I106" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -6260,7 +6263,7 @@
         <v>639</v>
       </c>
       <c r="F107" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G107" s="3">
         <v>45302.49490740741</v>
@@ -6269,7 +6272,7 @@
         <v>45312.88666666667</v>
       </c>
       <c r="I107" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -6289,7 +6292,7 @@
         <v>648</v>
       </c>
       <c r="F108" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G108" s="3">
         <v>45288.28815972222</v>
@@ -6298,7 +6301,7 @@
         <v>45315.60980324074</v>
       </c>
       <c r="I108" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -6318,7 +6321,7 @@
         <v>649</v>
       </c>
       <c r="F109" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G109" s="3">
         <v>45295.49231481482</v>
@@ -6327,7 +6330,7 @@
         <v>45315.61019675926</v>
       </c>
       <c r="I109" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -6347,7 +6350,7 @@
         <v>650</v>
       </c>
       <c r="F110" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G110" s="3">
         <v>45312.76140046296</v>
@@ -6356,7 +6359,7 @@
         <v>45314.69101851852</v>
       </c>
       <c r="I110" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -6376,7 +6379,7 @@
         <v>598</v>
       </c>
       <c r="F111" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G111" s="3">
         <v>45314.49325231482</v>
@@ -6385,7 +6388,7 @@
         <v>45315.61035879629</v>
       </c>
       <c r="I111" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -6405,7 +6408,7 @@
         <v>651</v>
       </c>
       <c r="F112" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G112" s="3">
         <v>45313.42341435186</v>
@@ -6414,7 +6417,7 @@
         <v>45314.19578703704</v>
       </c>
       <c r="I112" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6434,7 +6437,7 @@
         <v>600</v>
       </c>
       <c r="F113" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G113" s="3">
         <v>45292.49325231482</v>
@@ -6443,7 +6446,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I113" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -6463,7 +6466,7 @@
         <v>652</v>
       </c>
       <c r="F114" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G114" s="3">
         <v>45313.0588425926</v>
@@ -6472,7 +6475,7 @@
         <v>45314.42222222222</v>
       </c>
       <c r="I114" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -6492,7 +6495,7 @@
         <v>653</v>
       </c>
       <c r="F115" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G115" s="3">
         <v>45307.5822337963</v>
@@ -6501,7 +6504,7 @@
         <v>45314.77590277778</v>
       </c>
       <c r="I115" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -6521,7 +6524,7 @@
         <v>644</v>
       </c>
       <c r="F116" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G116" s="3">
         <v>45298.49490740741</v>
@@ -6530,7 +6533,7 @@
         <v>45315.65417824074</v>
       </c>
       <c r="I116" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -6550,7 +6553,7 @@
         <v>654</v>
       </c>
       <c r="F117" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G117" s="3">
         <v>45300.43424768518</v>
@@ -6559,7 +6562,7 @@
         <v>45314.49525462963</v>
       </c>
       <c r="I117" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -6579,7 +6582,7 @@
         <v>655</v>
       </c>
       <c r="F118" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G118" s="3">
         <v>45287.49133101852</v>
@@ -6588,7 +6591,7 @@
         <v>45315.68306712963</v>
       </c>
       <c r="I118" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -6608,7 +6611,7 @@
         <v>648</v>
       </c>
       <c r="F119" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G119" s="3">
         <v>45315.24193287037</v>
@@ -6617,7 +6620,7 @@
         <v>45315.65413194444</v>
       </c>
       <c r="I119" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -6637,7 +6640,7 @@
         <v>600</v>
       </c>
       <c r="F120" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G120" s="3">
         <v>45296.62521990741</v>
@@ -6646,7 +6649,7 @@
         <v>45315.32032407408</v>
       </c>
       <c r="I120" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -6666,7 +6669,7 @@
         <v>656</v>
       </c>
       <c r="F121" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G121" s="3">
         <v>45293.4970949074</v>
@@ -6675,7 +6678,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I121" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -6695,7 +6698,7 @@
         <v>622</v>
       </c>
       <c r="F122" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G122" s="3">
         <v>45282.72908564815</v>
@@ -6704,7 +6707,7 @@
         <v>45282.72909722223</v>
       </c>
       <c r="I122" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -6724,7 +6727,7 @@
         <v>657</v>
       </c>
       <c r="F123" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G123" s="3">
         <v>45314.49591435185</v>
@@ -6733,7 +6736,7 @@
         <v>45315.69609953704</v>
       </c>
       <c r="I123" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -6753,7 +6756,7 @@
         <v>658</v>
       </c>
       <c r="F124" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G124" s="3">
         <v>45300.97112268519</v>
@@ -6762,7 +6765,7 @@
         <v>45315.69616898148</v>
       </c>
       <c r="I124" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -6782,7 +6785,7 @@
         <v>659</v>
       </c>
       <c r="F125" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G125" s="3">
         <v>45273.65564814815</v>
@@ -6791,7 +6794,7 @@
         <v>45303.42461805556</v>
       </c>
       <c r="I125" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -6811,7 +6814,7 @@
         <v>619</v>
       </c>
       <c r="F126" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G126" s="3">
         <v>45298.21359953703</v>
@@ -6820,7 +6823,7 @@
         <v>45314.49523148148</v>
       </c>
       <c r="I126" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -6840,7 +6843,7 @@
         <v>654</v>
       </c>
       <c r="F127" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G127" s="3">
         <v>45308.42383101852</v>
@@ -6849,7 +6852,7 @@
         <v>45314.49195601852</v>
       </c>
       <c r="I127" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -6869,7 +6872,7 @@
         <v>660</v>
       </c>
       <c r="F128" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G128" s="3">
         <v>45294.41019675926</v>
@@ -6878,7 +6881,7 @@
         <v>45315.69918981481</v>
       </c>
       <c r="I128" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -6895,10 +6898,10 @@
         <v>421</v>
       </c>
       <c r="E129" t="s">
-        <v>595</v>
+        <v>661</v>
       </c>
       <c r="F129" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G129" s="3">
         <v>45310.61224537037</v>
@@ -6907,7 +6910,7 @@
         <v>45315.65349537037</v>
       </c>
       <c r="I129" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -6927,7 +6930,7 @@
         <v>631</v>
       </c>
       <c r="F130" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G130" s="3">
         <v>45304.64673611111</v>
@@ -6936,7 +6939,7 @@
         <v>45315.6959375</v>
       </c>
       <c r="I130" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -6956,7 +6959,7 @@
         <v>624</v>
       </c>
       <c r="F131" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G131" s="3">
         <v>45295.49403935186</v>
@@ -6965,7 +6968,7 @@
         <v>45315.69605324074</v>
       </c>
       <c r="I131" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -6982,10 +6985,10 @@
         <v>424</v>
       </c>
       <c r="E132" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F132" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G132" s="3">
         <v>45298.06329861111</v>
@@ -6994,7 +6997,7 @@
         <v>45314.49458333333</v>
       </c>
       <c r="I132" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -7014,7 +7017,7 @@
         <v>649</v>
       </c>
       <c r="F133" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G133" s="3">
         <v>45297.49041666667</v>
@@ -7023,7 +7026,7 @@
         <v>45315.70159722222</v>
       </c>
       <c r="I133" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -7043,7 +7046,7 @@
         <v>652</v>
       </c>
       <c r="F134" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G134" s="3">
         <v>45296.21274305556</v>
@@ -7052,7 +7055,7 @@
         <v>45309.05621527778</v>
       </c>
       <c r="I134" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -7072,7 +7075,7 @@
         <v>644</v>
       </c>
       <c r="F135" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G135" s="3">
         <v>45307.08791666666</v>
@@ -7081,7 +7084,7 @@
         <v>45315.65327546297</v>
       </c>
       <c r="I135" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -7101,7 +7104,7 @@
         <v>633</v>
       </c>
       <c r="F136" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G136" s="3">
         <v>45314.49842592593</v>
@@ -7110,7 +7113,7 @@
         <v>45314.67444444444</v>
       </c>
       <c r="I136" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -7130,7 +7133,7 @@
         <v>596</v>
       </c>
       <c r="F137" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G137" s="3">
         <v>45310.65872685185</v>
@@ -7139,7 +7142,7 @@
         <v>45314.49422453704</v>
       </c>
       <c r="I137" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -7159,7 +7162,7 @@
         <v>596</v>
       </c>
       <c r="F138" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G138" s="3">
         <v>45312.13112268518</v>
@@ -7168,7 +7171,7 @@
         <v>45315.6537962963</v>
       </c>
       <c r="I138" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -7185,10 +7188,10 @@
         <v>431</v>
       </c>
       <c r="E139" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F139" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G139" s="3">
         <v>45270.59310185185</v>
@@ -7197,7 +7200,7 @@
         <v>45309.07831018518</v>
       </c>
       <c r="I139" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -7214,10 +7217,10 @@
         <v>432</v>
       </c>
       <c r="E140" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F140" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G140" s="3">
         <v>45278.77987268518</v>
@@ -7226,7 +7229,7 @@
         <v>45314.6009837963</v>
       </c>
       <c r="I140" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -7246,7 +7249,7 @@
         <v>619</v>
       </c>
       <c r="F141" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G141" s="3">
         <v>45314.49572916667</v>
@@ -7255,7 +7258,7 @@
         <v>45314.67103009259</v>
       </c>
       <c r="I141" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -7275,13 +7278,13 @@
         <v>601</v>
       </c>
       <c r="F142" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H142" s="3">
         <v>43999.85027777778</v>
       </c>
       <c r="I142" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -7298,10 +7301,10 @@
         <v>435</v>
       </c>
       <c r="E143" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F143" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G143" s="3">
         <v>45309.54311342593</v>
@@ -7310,7 +7313,7 @@
         <v>45316.16458333333</v>
       </c>
       <c r="I143" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -7330,7 +7333,7 @@
         <v>601</v>
       </c>
       <c r="F144" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G144" s="3">
         <v>45306.51280092593</v>
@@ -7339,7 +7342,7 @@
         <v>45306.51280092593</v>
       </c>
       <c r="I144" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -7359,7 +7362,7 @@
         <v>625</v>
       </c>
       <c r="F145" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G145" s="3">
         <v>45314.49275462963</v>
@@ -7368,7 +7371,7 @@
         <v>45315.73717592593</v>
       </c>
       <c r="I145" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -7388,7 +7391,7 @@
         <v>607</v>
       </c>
       <c r="F146" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G146" s="3">
         <v>45308.77947916667</v>
@@ -7397,7 +7400,7 @@
         <v>45309.07209490741</v>
       </c>
       <c r="I146" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -7417,7 +7420,7 @@
         <v>626</v>
       </c>
       <c r="F147" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G147" s="3">
         <v>45307.50165509259</v>
@@ -7426,7 +7429,7 @@
         <v>45312.88640046296</v>
       </c>
       <c r="I147" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -7446,7 +7449,7 @@
         <v>625</v>
       </c>
       <c r="F148" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G148" s="3">
         <v>45294.12988425926</v>
@@ -7455,7 +7458,7 @@
         <v>45314.49341435185</v>
       </c>
       <c r="I148" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -7475,7 +7478,7 @@
         <v>647</v>
       </c>
       <c r="F149" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G149" s="3">
         <v>45296.33108796296</v>
@@ -7484,7 +7487,7 @@
         <v>45314.51508101852</v>
       </c>
       <c r="I149" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -7501,10 +7504,10 @@
         <v>442</v>
       </c>
       <c r="E150" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F150" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G150" s="3">
         <v>45295.49210648148</v>
@@ -7513,7 +7516,7 @@
         <v>45315.69587962963</v>
       </c>
       <c r="I150" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -7533,7 +7536,7 @@
         <v>648</v>
       </c>
       <c r="F151" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G151" s="3">
         <v>45314.49277777778</v>
@@ -7542,7 +7545,7 @@
         <v>45315.73741898148</v>
       </c>
       <c r="I151" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -7559,10 +7562,10 @@
         <v>444</v>
       </c>
       <c r="E152" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F152" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G152" s="3">
         <v>45308.74111111111</v>
@@ -7571,7 +7574,7 @@
         <v>45310.69127314815</v>
       </c>
       <c r="I152" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -7588,10 +7591,10 @@
         <v>445</v>
       </c>
       <c r="E153" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F153" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G153" s="3">
         <v>45311.61907407407</v>
@@ -7600,7 +7603,7 @@
         <v>45315.73760416666</v>
       </c>
       <c r="I153" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -7620,7 +7623,7 @@
         <v>614</v>
       </c>
       <c r="F154" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G154" s="3">
         <v>45313.06128472222</v>
@@ -7629,7 +7632,7 @@
         <v>45314.4228125</v>
       </c>
       <c r="I154" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -7649,7 +7652,7 @@
         <v>644</v>
       </c>
       <c r="F155" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G155" s="3">
         <v>45291.49923611111</v>
@@ -7658,7 +7661,7 @@
         <v>45312.49590277778</v>
       </c>
       <c r="I155" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -7678,7 +7681,7 @@
         <v>639</v>
       </c>
       <c r="F156" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G156" s="3">
         <v>45302.49706018518</v>
@@ -7687,7 +7690,7 @@
         <v>45315.07060185185</v>
       </c>
       <c r="I156" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -7707,7 +7710,7 @@
         <v>598</v>
       </c>
       <c r="F157" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G157" s="3">
         <v>45286.49168981481</v>
@@ -7716,7 +7719,7 @@
         <v>45315.73706018519</v>
       </c>
       <c r="I157" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -7733,10 +7736,10 @@
         <v>450</v>
       </c>
       <c r="E158" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F158" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G158" s="3">
         <v>45306.62078703703</v>
@@ -7745,7 +7748,7 @@
         <v>45315.69607638889</v>
       </c>
       <c r="I158" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -7762,10 +7765,10 @@
         <v>451</v>
       </c>
       <c r="E159" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F159" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G159" s="3">
         <v>45297.49820601852</v>
@@ -7774,7 +7777,7 @@
         <v>45315.73712962963</v>
       </c>
       <c r="I159" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -7791,10 +7794,10 @@
         <v>452</v>
       </c>
       <c r="E160" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F160" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G160" s="3">
         <v>45314.49293981482</v>
@@ -7803,7 +7806,7 @@
         <v>45315.73753472222</v>
       </c>
       <c r="I160" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -7820,10 +7823,10 @@
         <v>453</v>
       </c>
       <c r="E161" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F161" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G161" s="3">
         <v>45302.49929398148</v>
@@ -7832,7 +7835,7 @@
         <v>45314.49518518519</v>
       </c>
       <c r="I161" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -7852,13 +7855,13 @@
         <v>601</v>
       </c>
       <c r="F162" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H162" s="3">
         <v>45307.36160879629</v>
       </c>
       <c r="I162" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -7875,10 +7878,10 @@
         <v>455</v>
       </c>
       <c r="E163" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F163" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G163" s="3">
         <v>45314.4933912037</v>
@@ -7887,7 +7890,7 @@
         <v>45316.12230324074</v>
       </c>
       <c r="I163" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -7907,7 +7910,7 @@
         <v>609</v>
       </c>
       <c r="F164" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G164" s="3">
         <v>45307.36724537037</v>
@@ -7916,7 +7919,7 @@
         <v>45316.16459490741</v>
       </c>
       <c r="I164" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -7933,10 +7936,10 @@
         <v>457</v>
       </c>
       <c r="E165" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F165" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G165" s="3">
         <v>45297.31922453704</v>
@@ -7945,7 +7948,7 @@
         <v>45314.49394675926</v>
       </c>
       <c r="I165" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -7962,10 +7965,10 @@
         <v>458</v>
       </c>
       <c r="E166" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F166" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G166" s="3">
         <v>45315.42201388889</v>
@@ -7974,7 +7977,7 @@
         <v>45315.7841550926</v>
       </c>
       <c r="I166" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -7994,7 +7997,7 @@
         <v>614</v>
       </c>
       <c r="F167" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G167" s="3">
         <v>45314.42302083333</v>
@@ -8003,7 +8006,7 @@
         <v>45314.42302083333</v>
       </c>
       <c r="I167" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -8020,10 +8023,10 @@
         <v>460</v>
       </c>
       <c r="E168" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F168" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G168" s="3">
         <v>45314.49530092593</v>
@@ -8032,7 +8035,7 @@
         <v>45315.78174768519</v>
       </c>
       <c r="I168" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -8049,10 +8052,10 @@
         <v>461</v>
       </c>
       <c r="E169" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F169" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G169" s="3">
         <v>45312.49302083333</v>
@@ -8061,7 +8064,7 @@
         <v>45314.49451388889</v>
       </c>
       <c r="I169" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -8078,10 +8081,10 @@
         <v>462</v>
       </c>
       <c r="E170" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F170" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G170" s="3">
         <v>45302.49891203704</v>
@@ -8090,7 +8093,7 @@
         <v>45315.78163194445</v>
       </c>
       <c r="I170" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -8107,10 +8110,10 @@
         <v>463</v>
       </c>
       <c r="E171" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F171" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G171" s="3">
         <v>45314.49350694445</v>
@@ -8119,7 +8122,7 @@
         <v>45315.78178240741</v>
       </c>
       <c r="I171" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -8139,7 +8142,7 @@
         <v>601</v>
       </c>
       <c r="F172" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G172" s="3">
         <v>44049.84335648148</v>
@@ -8148,7 +8151,7 @@
         <v>44740.15496527778</v>
       </c>
       <c r="I172" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -8168,7 +8171,7 @@
         <v>620</v>
       </c>
       <c r="F173" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G173" s="3">
         <v>45307.49097222222</v>
@@ -8177,7 +8180,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I173" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -8197,7 +8200,7 @@
         <v>614</v>
       </c>
       <c r="F174" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G174" s="3">
         <v>45312.37847222222</v>
@@ -8206,7 +8209,7 @@
         <v>45314.42348379629</v>
       </c>
       <c r="I174" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -8226,7 +8229,7 @@
         <v>606</v>
       </c>
       <c r="F175" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G175" s="3">
         <v>45312.25097222222</v>
@@ -8235,7 +8238,7 @@
         <v>45315.74335648148</v>
       </c>
       <c r="I175" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -8252,10 +8255,10 @@
         <v>468</v>
       </c>
       <c r="E176" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F176" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G176" s="3">
         <v>45310.90118055556</v>
@@ -8264,7 +8267,7 @@
         <v>45314.49304398148</v>
       </c>
       <c r="I176" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -8284,7 +8287,7 @@
         <v>599</v>
       </c>
       <c r="F177" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G177" s="3">
         <v>45296.62515046296</v>
@@ -8293,7 +8296,7 @@
         <v>45314.49361111111</v>
       </c>
       <c r="I177" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -8310,10 +8313,10 @@
         <v>470</v>
       </c>
       <c r="E178" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F178" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G178" s="3">
         <v>45311.61869212963</v>
@@ -8322,7 +8325,7 @@
         <v>45315.73645833333</v>
       </c>
       <c r="I178" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -8342,7 +8345,7 @@
         <v>649</v>
       </c>
       <c r="F179" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G179" s="3">
         <v>45287.159375</v>
@@ -8351,7 +8354,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I179" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -8368,10 +8371,10 @@
         <v>472</v>
       </c>
       <c r="E180" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F180" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G180" s="3">
         <v>45311.68436342593</v>
@@ -8380,7 +8383,7 @@
         <v>45315.75385416667</v>
       </c>
       <c r="I180" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -8397,10 +8400,10 @@
         <v>473</v>
       </c>
       <c r="E181" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F181" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G181" s="3">
         <v>45291.49039351852</v>
@@ -8409,7 +8412,7 @@
         <v>45315.78164351852</v>
       </c>
       <c r="I181" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -8426,10 +8429,10 @@
         <v>474</v>
       </c>
       <c r="E182" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F182" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G182" s="3">
         <v>45308.74193287037</v>
@@ -8438,7 +8441,7 @@
         <v>45315.7467824074</v>
       </c>
       <c r="I182" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -8455,10 +8458,10 @@
         <v>475</v>
       </c>
       <c r="E183" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F183" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G183" s="3">
         <v>45290.68399305556</v>
@@ -8467,7 +8470,7 @@
         <v>45315.76791666666</v>
       </c>
       <c r="I183" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -8484,10 +8487,10 @@
         <v>476</v>
       </c>
       <c r="E184" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F184" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G184" s="3">
         <v>45294.52609953703</v>
@@ -8496,7 +8499,7 @@
         <v>45315.75109953704</v>
       </c>
       <c r="I184" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -8513,10 +8516,10 @@
         <v>477</v>
       </c>
       <c r="E185" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F185" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G185" s="3">
         <v>45305.28581018518</v>
@@ -8525,7 +8528,7 @@
         <v>45315.73657407407</v>
       </c>
       <c r="I185" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -8542,10 +8545,10 @@
         <v>478</v>
       </c>
       <c r="E186" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F186" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G186" s="3">
         <v>45303.07900462963</v>
@@ -8554,7 +8557,7 @@
         <v>45315.78171296296</v>
       </c>
       <c r="I186" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -8574,7 +8577,7 @@
         <v>639</v>
       </c>
       <c r="F187" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G187" s="3">
         <v>45294.00594907408</v>
@@ -8583,7 +8586,7 @@
         <v>45315.60971064815</v>
       </c>
       <c r="I187" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -8600,10 +8603,10 @@
         <v>480</v>
       </c>
       <c r="E188" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F188" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G188" s="3">
         <v>45291.6212037037</v>
@@ -8612,7 +8615,7 @@
         <v>45315.76299768518</v>
       </c>
       <c r="I188" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -8629,10 +8632,10 @@
         <v>481</v>
       </c>
       <c r="E189" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F189" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G189" s="3">
         <v>45291.62125</v>
@@ -8641,7 +8644,7 @@
         <v>45315.73672453704</v>
       </c>
       <c r="I189" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -8658,10 +8661,10 @@
         <v>482</v>
       </c>
       <c r="E190" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F190" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G190" s="3">
         <v>45291.49121527778</v>
@@ -8670,7 +8673,7 @@
         <v>45315.73679398148</v>
       </c>
       <c r="I190" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -8690,7 +8693,7 @@
         <v>620</v>
       </c>
       <c r="F191" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G191" s="3">
         <v>45305.45537037037</v>
@@ -8699,7 +8702,7 @@
         <v>45315.78153935185</v>
       </c>
       <c r="I191" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -8716,10 +8719,10 @@
         <v>484</v>
       </c>
       <c r="E192" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F192" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G192" s="3">
         <v>45312.66900462963</v>
@@ -8728,7 +8731,7 @@
         <v>45315.78197916667</v>
       </c>
       <c r="I192" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -8745,10 +8748,10 @@
         <v>485</v>
       </c>
       <c r="E193" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F193" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G193" s="3">
         <v>45283.15128472223</v>
@@ -8757,7 +8760,7 @@
         <v>45315.73756944444</v>
       </c>
       <c r="I193" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -8774,10 +8777,10 @@
         <v>486</v>
       </c>
       <c r="E194" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F194" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G194" s="3">
         <v>45290.15359953704</v>
@@ -8786,7 +8789,7 @@
         <v>45315.81050925926</v>
       </c>
       <c r="I194" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -8803,10 +8806,10 @@
         <v>487</v>
       </c>
       <c r="E195" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F195" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G195" s="3">
         <v>45288.77761574074</v>
@@ -8815,7 +8818,7 @@
         <v>45315.8109837963</v>
       </c>
       <c r="I195" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -8832,10 +8835,10 @@
         <v>488</v>
       </c>
       <c r="E196" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F196" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G196" s="3">
         <v>45283.5427199074</v>
@@ -8844,7 +8847,7 @@
         <v>45315.81034722222</v>
       </c>
       <c r="I196" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -8861,10 +8864,10 @@
         <v>489</v>
       </c>
       <c r="E197" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F197" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G197" s="3">
         <v>45290.06099537037</v>
@@ -8873,7 +8876,7 @@
         <v>45315.78223379629</v>
       </c>
       <c r="I197" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -8890,10 +8893,10 @@
         <v>490</v>
       </c>
       <c r="E198" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F198" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G198" s="3">
         <v>45285.78746527778</v>
@@ -8902,7 +8905,7 @@
         <v>45315.81327546296</v>
       </c>
       <c r="I198" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -8919,10 +8922,10 @@
         <v>491</v>
       </c>
       <c r="E199" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F199" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G199" s="3">
         <v>45300.70331018518</v>
@@ -8931,7 +8934,7 @@
         <v>45315.78243055556</v>
       </c>
       <c r="I199" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -8951,7 +8954,7 @@
         <v>651</v>
       </c>
       <c r="F200" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G200" s="3">
         <v>45313.4215625</v>
@@ -8960,7 +8963,7 @@
         <v>45314.19313657407</v>
       </c>
       <c r="I200" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -8977,10 +8980,10 @@
         <v>493</v>
       </c>
       <c r="E201" t="s">
-        <v>595</v>
+        <v>661</v>
       </c>
       <c r="F201" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G201" s="3">
         <v>45313.10177083333</v>
@@ -8989,7 +8992,7 @@
         <v>45315.19548611111</v>
       </c>
       <c r="I201" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -9006,10 +9009,10 @@
         <v>494</v>
       </c>
       <c r="E202" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F202" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G202" s="3">
         <v>45313.56241898148</v>
@@ -9018,7 +9021,7 @@
         <v>45315.73755787037</v>
       </c>
       <c r="I202" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -9035,10 +9038,10 @@
         <v>495</v>
       </c>
       <c r="E203" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F203" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G203" s="3">
         <v>45287.49016203704</v>
@@ -9047,7 +9050,7 @@
         <v>45315.81586805556</v>
       </c>
       <c r="I203" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -9064,10 +9067,10 @@
         <v>496</v>
       </c>
       <c r="E204" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F204" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G204" s="3">
         <v>45294.11623842592</v>
@@ -9076,7 +9079,7 @@
         <v>45315.81109953704</v>
       </c>
       <c r="I204" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -9093,10 +9096,10 @@
         <v>497</v>
       </c>
       <c r="E205" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F205" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G205" s="3">
         <v>45281.61627314815</v>
@@ -9105,7 +9108,7 @@
         <v>45315.73660879629</v>
       </c>
       <c r="I205" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -9125,7 +9128,7 @@
         <v>620</v>
       </c>
       <c r="F206" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G206" s="3">
         <v>45310.31782407407</v>
@@ -9134,7 +9137,7 @@
         <v>45315.82373842593</v>
       </c>
       <c r="I206" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -9151,10 +9154,10 @@
         <v>499</v>
       </c>
       <c r="E207" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F207" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G207" s="3">
         <v>45292.86751157408</v>
@@ -9163,7 +9166,7 @@
         <v>45315.81833333334</v>
       </c>
       <c r="I207" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -9180,10 +9183,10 @@
         <v>500</v>
       </c>
       <c r="E208" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F208" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G208" s="3">
         <v>45297.78877314815</v>
@@ -9192,7 +9195,7 @@
         <v>45315.82362268519</v>
       </c>
       <c r="I208" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -9209,10 +9212,10 @@
         <v>501</v>
       </c>
       <c r="E209" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F209" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G209" s="3">
         <v>45291.49200231482</v>
@@ -9221,7 +9224,7 @@
         <v>45315.81275462963</v>
       </c>
       <c r="I209" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -9238,10 +9241,10 @@
         <v>502</v>
       </c>
       <c r="E210" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F210" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G210" s="3">
         <v>45314.77236111111</v>
@@ -9250,7 +9253,7 @@
         <v>45315.81111111111</v>
       </c>
       <c r="I210" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -9267,10 +9270,10 @@
         <v>503</v>
       </c>
       <c r="E211" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F211" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G211" s="3">
         <v>45306.94767361111</v>
@@ -9279,7 +9282,7 @@
         <v>45315.81850694444</v>
       </c>
       <c r="I211" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -9296,10 +9299,10 @@
         <v>504</v>
       </c>
       <c r="E212" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F212" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G212" s="3">
         <v>45315.48592592592</v>
@@ -9308,7 +9311,7 @@
         <v>45315.82550925926</v>
       </c>
       <c r="I212" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -9325,10 +9328,10 @@
         <v>505</v>
       </c>
       <c r="E213" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F213" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G213" s="3">
         <v>45278.21140046296</v>
@@ -9337,7 +9340,7 @@
         <v>45315.78211805555</v>
       </c>
       <c r="I213" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -9354,10 +9357,10 @@
         <v>506</v>
       </c>
       <c r="E214" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F214" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G214" s="3">
         <v>45296.58950231481</v>
@@ -9366,7 +9369,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I214" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -9383,10 +9386,10 @@
         <v>507</v>
       </c>
       <c r="E215" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F215" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G215" s="3">
         <v>45308.74321759259</v>
@@ -9395,7 +9398,7 @@
         <v>45315.82768518518</v>
       </c>
       <c r="I215" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -9412,10 +9415,10 @@
         <v>508</v>
       </c>
       <c r="E216" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F216" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G216" s="3">
         <v>45291.49114583333</v>
@@ -9424,7 +9427,7 @@
         <v>45315.82378472222</v>
       </c>
       <c r="I216" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -9441,10 +9444,10 @@
         <v>509</v>
       </c>
       <c r="E217" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F217" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G217" s="3">
         <v>45308.16465277778</v>
@@ -9453,7 +9456,7 @@
         <v>45315.82369212963</v>
       </c>
       <c r="I217" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -9470,10 +9473,10 @@
         <v>510</v>
       </c>
       <c r="E218" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F218" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G218" s="3">
         <v>45296.21802083333</v>
@@ -9482,7 +9485,7 @@
         <v>45315.82553240741</v>
       </c>
       <c r="I218" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -9502,7 +9505,7 @@
         <v>636</v>
       </c>
       <c r="F219" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G219" s="3">
         <v>45307.36931712963</v>
@@ -9511,7 +9514,7 @@
         <v>45315.78234953704</v>
       </c>
       <c r="I219" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -9531,7 +9534,7 @@
         <v>605</v>
       </c>
       <c r="F220" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G220" s="3">
         <v>45313.02901620371</v>
@@ -9540,7 +9543,7 @@
         <v>45315.78185185185</v>
       </c>
       <c r="I220" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -9557,10 +9560,10 @@
         <v>513</v>
       </c>
       <c r="E221" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F221" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G221" s="3">
         <v>45284.49082175926</v>
@@ -9569,7 +9572,7 @@
         <v>45315.78212962963</v>
       </c>
       <c r="I221" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -9586,10 +9589,10 @@
         <v>514</v>
       </c>
       <c r="E222" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F222" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G222" s="3">
         <v>45290.06063657408</v>
@@ -9598,7 +9601,7 @@
         <v>45315.81575231482</v>
       </c>
       <c r="I222" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -9615,10 +9618,10 @@
         <v>515</v>
       </c>
       <c r="E223" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F223" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G223" s="3">
         <v>45292.49101851852</v>
@@ -9627,7 +9630,7 @@
         <v>45315.81292824074</v>
       </c>
       <c r="I223" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -9644,10 +9647,10 @@
         <v>516</v>
       </c>
       <c r="E224" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F224" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G224" s="3">
         <v>45291.34520833333</v>
@@ -9656,7 +9659,7 @@
         <v>45315.82354166666</v>
       </c>
       <c r="I224" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -9673,10 +9676,10 @@
         <v>517</v>
       </c>
       <c r="E225" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F225" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G225" s="3">
         <v>45314.42053240741</v>
@@ -9685,7 +9688,7 @@
         <v>45315.81092592593</v>
       </c>
       <c r="I225" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -9702,10 +9705,10 @@
         <v>518</v>
       </c>
       <c r="E226" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F226" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G226" s="3">
         <v>45291.49119212963</v>
@@ -9714,7 +9717,7 @@
         <v>45314.49342592592</v>
       </c>
       <c r="I226" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -9731,10 +9734,10 @@
         <v>519</v>
       </c>
       <c r="E227" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F227" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G227" s="3">
         <v>45306.91820601852</v>
@@ -9743,7 +9746,7 @@
         <v>45315.82215277778</v>
       </c>
       <c r="I227" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -9760,10 +9763,10 @@
         <v>520</v>
       </c>
       <c r="E228" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F228" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G228" s="3">
         <v>45286.62017361111</v>
@@ -9772,7 +9775,7 @@
         <v>45315.78180555555</v>
       </c>
       <c r="I228" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -9789,10 +9792,10 @@
         <v>521</v>
       </c>
       <c r="E229" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F229" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G229" s="3">
         <v>45308.74159722222</v>
@@ -9801,7 +9804,7 @@
         <v>45315.82368055556</v>
       </c>
       <c r="I229" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -9821,7 +9824,7 @@
         <v>599</v>
       </c>
       <c r="F230" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G230" s="3">
         <v>45283.53591435185</v>
@@ -9830,7 +9833,7 @@
         <v>45315.82388888889</v>
       </c>
       <c r="I230" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -9847,10 +9850,10 @@
         <v>523</v>
       </c>
       <c r="E231" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F231" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G231" s="3">
         <v>45279.15613425926</v>
@@ -9859,7 +9862,7 @@
         <v>45310.69137731481</v>
       </c>
       <c r="I231" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -9879,7 +9882,7 @@
         <v>606</v>
       </c>
       <c r="F232" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G232" s="3">
         <v>45302.49265046296</v>
@@ -9888,7 +9891,7 @@
         <v>45314.49377314815</v>
       </c>
       <c r="I232" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -9905,10 +9908,10 @@
         <v>525</v>
       </c>
       <c r="E233" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F233" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G233" s="3">
         <v>45286.49104166667</v>
@@ -9917,7 +9920,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I233" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -9934,10 +9937,10 @@
         <v>526</v>
       </c>
       <c r="E234" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F234" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G234" s="3">
         <v>45313.42326388889</v>
@@ -9946,7 +9949,7 @@
         <v>45314.18550925926</v>
       </c>
       <c r="I234" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -9966,7 +9969,7 @@
         <v>601</v>
       </c>
       <c r="F235" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G235" s="3">
         <v>44288.33525462963</v>
@@ -9975,7 +9978,7 @@
         <v>44288.33525462963</v>
       </c>
       <c r="I235" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -9995,7 +9998,7 @@
         <v>624</v>
       </c>
       <c r="F236" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G236" s="3">
         <v>45287.22329861111</v>
@@ -10004,7 +10007,7 @@
         <v>45315.82387731481</v>
       </c>
       <c r="I236" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -10021,10 +10024,10 @@
         <v>529</v>
       </c>
       <c r="E237" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F237" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G237" s="3">
         <v>45311.90133101852</v>
@@ -10033,7 +10036,7 @@
         <v>45315.82358796296</v>
       </c>
       <c r="I237" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -10053,7 +10056,7 @@
         <v>620</v>
       </c>
       <c r="F238" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G238" s="3">
         <v>45298.44405092593</v>
@@ -10062,7 +10065,7 @@
         <v>45315.82363425926</v>
       </c>
       <c r="I238" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -10082,7 +10085,7 @@
         <v>600</v>
       </c>
       <c r="F239" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G239" s="3">
         <v>45297.01849537037</v>
@@ -10091,7 +10094,7 @@
         <v>45314.90065972223</v>
       </c>
       <c r="I239" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -10108,10 +10111,10 @@
         <v>532</v>
       </c>
       <c r="E240" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F240" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G240" s="3">
         <v>45280.57440972222</v>
@@ -10120,7 +10123,7 @@
         <v>45309.03163194445</v>
       </c>
       <c r="I240" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -10137,10 +10140,10 @@
         <v>533</v>
       </c>
       <c r="E241" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F241" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G241" s="3">
         <v>45314.42252314815</v>
@@ -10149,7 +10152,7 @@
         <v>45315.82351851852</v>
       </c>
       <c r="I241" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -10169,7 +10172,7 @@
         <v>606</v>
       </c>
       <c r="F242" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G242" s="3">
         <v>45301.61993055556</v>
@@ -10178,7 +10181,7 @@
         <v>45314.018125</v>
       </c>
       <c r="I242" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -10195,10 +10198,10 @@
         <v>535</v>
       </c>
       <c r="E243" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F243" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G243" s="3">
         <v>45312.49469907407</v>
@@ -10207,7 +10210,7 @@
         <v>45315.78165509259</v>
       </c>
       <c r="I243" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -10227,7 +10230,7 @@
         <v>625</v>
       </c>
       <c r="F244" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G244" s="3">
         <v>45295.49803240741</v>
@@ -10236,7 +10239,7 @@
         <v>45315.8234837963</v>
       </c>
       <c r="I244" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -10253,10 +10256,10 @@
         <v>537</v>
       </c>
       <c r="E245" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F245" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G245" s="3">
         <v>45313.05956018518</v>
@@ -10265,7 +10268,7 @@
         <v>45315.82376157407</v>
       </c>
       <c r="I245" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -10285,7 +10288,7 @@
         <v>648</v>
       </c>
       <c r="F246" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G246" s="3">
         <v>45298.49199074074</v>
@@ -10294,7 +10297,7 @@
         <v>45315.82392361111</v>
       </c>
       <c r="I246" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -10314,7 +10317,7 @@
         <v>606</v>
       </c>
       <c r="F247" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G247" s="3">
         <v>45286.6203587963</v>
@@ -10323,7 +10326,7 @@
         <v>45315.82366898148</v>
       </c>
       <c r="I247" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -10343,7 +10346,7 @@
         <v>648</v>
       </c>
       <c r="F248" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G248" s="3">
         <v>45311.61991898148</v>
@@ -10352,7 +10355,7 @@
         <v>45315.02909722222</v>
       </c>
       <c r="I248" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -10369,10 +10372,10 @@
         <v>541</v>
       </c>
       <c r="E249" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F249" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G249" s="3">
         <v>45306.75461805556</v>
@@ -10381,7 +10384,7 @@
         <v>45315.04524305555</v>
       </c>
       <c r="I249" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -10398,10 +10401,10 @@
         <v>542</v>
       </c>
       <c r="E250" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F250" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G250" s="3">
         <v>45292.49578703703</v>
@@ -10410,7 +10413,7 @@
         <v>45315.4852662037</v>
       </c>
       <c r="I250" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -10430,7 +10433,7 @@
         <v>626</v>
       </c>
       <c r="F251" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G251" s="3">
         <v>45308.60100694445</v>
@@ -10439,7 +10442,7 @@
         <v>45314.49393518519</v>
       </c>
       <c r="I251" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -10456,10 +10459,10 @@
         <v>544</v>
       </c>
       <c r="E252" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F252" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G252" s="3">
         <v>45289.35146990741</v>
@@ -10468,7 +10471,7 @@
         <v>45314.49217592592</v>
       </c>
       <c r="I252" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -10488,7 +10491,7 @@
         <v>639</v>
       </c>
       <c r="F253" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G253" s="3">
         <v>45307.49243055555</v>
@@ -10497,7 +10500,7 @@
         <v>45314.49329861111</v>
       </c>
       <c r="I253" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -10514,10 +10517,10 @@
         <v>546</v>
       </c>
       <c r="E254" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F254" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G254" s="3">
         <v>45313.42297453704</v>
@@ -10526,7 +10529,7 @@
         <v>45313.42299768519</v>
       </c>
       <c r="I254" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -10546,7 +10549,7 @@
         <v>604</v>
       </c>
       <c r="F255" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G255" s="3">
         <v>45291.49054398148</v>
@@ -10555,7 +10558,7 @@
         <v>45314.94496527778</v>
       </c>
       <c r="I255" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -10572,10 +10575,10 @@
         <v>548</v>
       </c>
       <c r="E256" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F256" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G256" s="3">
         <v>45292.15671296296</v>
@@ -10584,7 +10587,7 @@
         <v>45312.75942129629</v>
       </c>
       <c r="I256" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -10601,10 +10604,10 @@
         <v>549</v>
       </c>
       <c r="E257" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F257" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G257" s="3">
         <v>45287.83861111111</v>
@@ -10613,7 +10616,7 @@
         <v>45316.03899305555</v>
       </c>
       <c r="I257" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -10633,7 +10636,7 @@
         <v>658</v>
       </c>
       <c r="F258" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G258" s="3">
         <v>45293.04358796297</v>
@@ -10642,7 +10645,7 @@
         <v>45315.8656712963</v>
       </c>
       <c r="I258" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -10662,7 +10665,7 @@
         <v>596</v>
       </c>
       <c r="F259" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G259" s="3">
         <v>45307.49564814815</v>
@@ -10671,7 +10674,7 @@
         <v>45315.9937037037</v>
       </c>
       <c r="I259" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -10691,7 +10694,7 @@
         <v>620</v>
       </c>
       <c r="F260" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G260" s="3">
         <v>45314.90094907407</v>
@@ -10700,7 +10703,7 @@
         <v>45315.89604166667</v>
       </c>
       <c r="I260" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -10720,7 +10723,7 @@
         <v>597</v>
       </c>
       <c r="F261" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G261" s="3">
         <v>45294.84780092593</v>
@@ -10729,7 +10732,7 @@
         <v>45316.03907407408</v>
       </c>
       <c r="I261" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -10746,10 +10749,10 @@
         <v>554</v>
       </c>
       <c r="E262" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F262" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G262" s="3">
         <v>45296.61121527778</v>
@@ -10758,7 +10761,7 @@
         <v>45316.03895833333</v>
       </c>
       <c r="I262" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -10778,7 +10781,7 @@
         <v>616</v>
       </c>
       <c r="F263" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G263" s="3">
         <v>45311.62060185185</v>
@@ -10787,7 +10790,7 @@
         <v>45316.03954861111</v>
       </c>
       <c r="I263" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -10807,7 +10810,7 @@
         <v>600</v>
       </c>
       <c r="F264" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G264" s="3">
         <v>45301.61861111111</v>
@@ -10816,7 +10819,7 @@
         <v>45316.08056712963</v>
       </c>
       <c r="I264" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -10836,7 +10839,7 @@
         <v>600</v>
       </c>
       <c r="F265" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G265" s="3">
         <v>45286.49385416666</v>
@@ -10845,7 +10848,7 @@
         <v>45316.03959490741</v>
       </c>
       <c r="I265" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -10865,7 +10868,7 @@
         <v>639</v>
       </c>
       <c r="F266" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G266" s="3">
         <v>45311.71087962963</v>
@@ -10874,7 +10877,7 @@
         <v>45314.67140046296</v>
       </c>
       <c r="I266" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -10891,10 +10894,10 @@
         <v>559</v>
       </c>
       <c r="E267" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F267" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G267" s="3">
         <v>45288.63045138889</v>
@@ -10903,7 +10906,7 @@
         <v>45316.03887731482</v>
       </c>
       <c r="I267" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -10923,7 +10926,7 @@
         <v>637</v>
       </c>
       <c r="F268" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G268" s="3">
         <v>45280.82067129629</v>
@@ -10932,7 +10935,7 @@
         <v>45316.03997685185</v>
       </c>
       <c r="I268" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -10949,10 +10952,10 @@
         <v>561</v>
       </c>
       <c r="E269" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F269" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G269" s="3">
         <v>45296.62119212963</v>
@@ -10961,7 +10964,7 @@
         <v>45316.08042824074</v>
       </c>
       <c r="I269" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -10981,7 +10984,7 @@
         <v>620</v>
       </c>
       <c r="F270" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G270" s="3">
         <v>45300.48923611111</v>
@@ -10990,7 +10993,7 @@
         <v>45316.08054398148</v>
       </c>
       <c r="I270" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -11010,7 +11013,7 @@
         <v>639</v>
       </c>
       <c r="F271" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G271" s="3">
         <v>45314.49359953704</v>
@@ -11019,7 +11022,7 @@
         <v>45314.66849537037</v>
       </c>
       <c r="I271" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -11039,7 +11042,7 @@
         <v>647</v>
       </c>
       <c r="F272" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G272" s="3">
         <v>45312.50121527778</v>
@@ -11048,7 +11051,7 @@
         <v>45312.67422453704</v>
       </c>
       <c r="I272" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -11068,7 +11071,7 @@
         <v>650</v>
       </c>
       <c r="F273" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G273" s="3">
         <v>45261.49545138889</v>
@@ -11077,7 +11080,7 @@
         <v>45309.04300925926</v>
       </c>
       <c r="I273" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -11097,7 +11100,7 @@
         <v>648</v>
       </c>
       <c r="F274" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G274" s="3">
         <v>45291.49003472222</v>
@@ -11106,7 +11109,7 @@
         <v>45316.08077546296</v>
       </c>
       <c r="I274" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -11123,10 +11126,10 @@
         <v>567</v>
       </c>
       <c r="E275" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F275" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G275" s="3">
         <v>45280.21361111111</v>
@@ -11135,7 +11138,7 @@
         <v>45309.04177083333</v>
       </c>
       <c r="I275" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -11155,7 +11158,7 @@
         <v>598</v>
       </c>
       <c r="F276" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G276" s="3">
         <v>45314.56188657408</v>
@@ -11164,7 +11167,7 @@
         <v>45315.48497685185</v>
       </c>
       <c r="I276" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -11184,7 +11187,7 @@
         <v>600</v>
       </c>
       <c r="F277" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G277" s="3">
         <v>45302.49186342592</v>
@@ -11193,7 +11196,7 @@
         <v>45316.08069444444</v>
       </c>
       <c r="I277" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -11213,7 +11216,7 @@
         <v>640</v>
       </c>
       <c r="F278" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G278" s="3">
         <v>45291.5000462963</v>
@@ -11222,7 +11225,7 @@
         <v>45314.49376157407</v>
       </c>
       <c r="I278" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -11242,7 +11245,7 @@
         <v>624</v>
       </c>
       <c r="F279" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G279" s="3">
         <v>45291.49392361111</v>
@@ -11251,7 +11254,7 @@
         <v>45314.49452546296</v>
       </c>
       <c r="I279" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -11271,7 +11274,7 @@
         <v>599</v>
       </c>
       <c r="F280" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G280" s="3">
         <v>45312.49576388889</v>
@@ -11280,7 +11283,7 @@
         <v>45316.03846064815</v>
       </c>
       <c r="I280" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -11300,7 +11303,7 @@
         <v>633</v>
       </c>
       <c r="F281" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G281" s="3">
         <v>45312.98068287037</v>
@@ -11309,7 +11312,7 @@
         <v>45316.08041666666</v>
       </c>
       <c r="I281" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -11326,10 +11329,10 @@
         <v>574</v>
       </c>
       <c r="E282" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F282" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G282" s="3">
         <v>45314.49623842593</v>
@@ -11338,7 +11341,7 @@
         <v>45316.08075231482</v>
       </c>
       <c r="I282" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -11358,7 +11361,7 @@
         <v>605</v>
       </c>
       <c r="F283" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G283" s="3">
         <v>45313.14449074074</v>
@@ -11367,7 +11370,7 @@
         <v>45316.08082175926</v>
       </c>
       <c r="I283" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -11384,10 +11387,10 @@
         <v>576</v>
       </c>
       <c r="E284" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F284" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G284" s="3">
         <v>45312.50119212963</v>
@@ -11396,7 +11399,7 @@
         <v>45316.08556712963</v>
       </c>
       <c r="I284" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -1804,19 +1804,19 @@
     <t>{'harmless': 60, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
   </si>
   <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
     <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
   </si>
   <si>
     <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
@@ -3914,7 +3914,7 @@
         <v>318</v>
       </c>
       <c r="E26" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="F26" t="s">
         <v>738</v>
@@ -3923,7 +3923,7 @@
         <v>45314.17763888889</v>
       </c>
       <c r="H26" s="3">
-        <v>45316.08064814815</v>
+        <v>45341.02903935185</v>
       </c>
       <c r="I26" t="s">
         <v>795</v>
@@ -3943,7 +3943,7 @@
         <v>319</v>
       </c>
       <c r="E27" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F27" t="s">
         <v>735</v>
@@ -3972,7 +3972,7 @@
         <v>320</v>
       </c>
       <c r="E28" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F28" t="s">
         <v>739</v>
@@ -4001,7 +4001,7 @@
         <v>321</v>
       </c>
       <c r="E29" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F29" t="s">
         <v>740</v>
@@ -4030,7 +4030,7 @@
         <v>322</v>
       </c>
       <c r="E30" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F30" t="s">
         <v>741</v>
@@ -4059,7 +4059,7 @@
         <v>323</v>
       </c>
       <c r="E31" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="F31" t="s">
         <v>742</v>
@@ -4088,7 +4088,7 @@
         <v>324</v>
       </c>
       <c r="E32" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="F32" t="s">
         <v>724</v>
@@ -4262,7 +4262,7 @@
         <v>330</v>
       </c>
       <c r="E38" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F38" t="s">
         <v>745</v>
@@ -4436,7 +4436,7 @@
         <v>336</v>
       </c>
       <c r="E44" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="F44" t="s">
         <v>728</v>
@@ -4465,7 +4465,7 @@
         <v>337</v>
       </c>
       <c r="E45" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F45" t="s">
         <v>723</v>
@@ -4639,7 +4639,7 @@
         <v>343</v>
       </c>
       <c r="E51" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F51" t="s">
         <v>734</v>
@@ -4813,7 +4813,7 @@
         <v>349</v>
       </c>
       <c r="E57" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F57" t="s">
         <v>750</v>
@@ -5390,7 +5390,7 @@
         <v>369</v>
       </c>
       <c r="E77" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="F77" t="s">
         <v>736</v>
@@ -5825,7 +5825,7 @@
         <v>384</v>
       </c>
       <c r="E92" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F92" t="s">
         <v>723</v>
@@ -6376,7 +6376,7 @@
         <v>403</v>
       </c>
       <c r="E111" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F111" t="s">
         <v>723</v>
@@ -6434,7 +6434,7 @@
         <v>405</v>
       </c>
       <c r="E113" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F113" t="s">
         <v>723</v>
@@ -6637,7 +6637,7 @@
         <v>412</v>
       </c>
       <c r="E120" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F120" t="s">
         <v>723</v>
@@ -7130,7 +7130,7 @@
         <v>429</v>
       </c>
       <c r="E137" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="F137" t="s">
         <v>724</v>
@@ -7159,7 +7159,7 @@
         <v>430</v>
       </c>
       <c r="E138" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="F138" t="s">
         <v>761</v>
@@ -7707,7 +7707,7 @@
         <v>449</v>
       </c>
       <c r="E157" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F157" t="s">
         <v>761</v>
@@ -8284,7 +8284,7 @@
         <v>469</v>
       </c>
       <c r="E177" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F177" t="s">
         <v>729</v>
@@ -9821,7 +9821,7 @@
         <v>522</v>
       </c>
       <c r="E230" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F230" t="s">
         <v>763</v>
@@ -10082,7 +10082,7 @@
         <v>531</v>
       </c>
       <c r="E239" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F239" t="s">
         <v>770</v>
@@ -10662,7 +10662,7 @@
         <v>551</v>
       </c>
       <c r="E259" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="F259" t="s">
         <v>734</v>
@@ -10720,7 +10720,7 @@
         <v>553</v>
       </c>
       <c r="E261" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F261" t="s">
         <v>735</v>
@@ -10807,7 +10807,7 @@
         <v>556</v>
       </c>
       <c r="E264" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F264" t="s">
         <v>728</v>
@@ -10836,7 +10836,7 @@
         <v>557</v>
       </c>
       <c r="E265" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F265" t="s">
         <v>732</v>
@@ -11155,7 +11155,7 @@
         <v>568</v>
       </c>
       <c r="E276" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F276" t="s">
         <v>769</v>
@@ -11184,7 +11184,7 @@
         <v>569</v>
       </c>
       <c r="E277" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F277" t="s">
         <v>749</v>
@@ -11271,7 +11271,7 @@
         <v>572</v>
       </c>
       <c r="E280" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F280" t="s">
         <v>739</v>

--- a/1.xlsx
+++ b/1.xlsx
@@ -1804,379 +1804,379 @@
     <t>{'harmless': 60, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
   </si>
   <si>
+    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 7, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 9, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 10, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 52, 'malicious': 17, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 5, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 1, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 12, 'suspicious': 2, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 16, 'suspicious': 1, 'undetected': 19, 'harmless': 53, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 6, 'suspicious': 2, 'undetected': 20, 'harmless': 61, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'malicious': 13, 'suspicious': 1, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 14, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 8, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 8, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 6, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 11, 'suspicious': 1, 'undetected': 23, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 8, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 0, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 1, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 9, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 1, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 4, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 5, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 3, 'suspicious': 0, 'undetected': 23, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 2, 'suspicious': 1, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 4, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 50, 'malicious': 18, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 65, 'malicious': 2, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 51, 'malicious': 18, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 16, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 12, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 52, 'malicious': 16, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 6, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 51, 'malicious': 18, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 12, 'suspicious': 0, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 4, 'suspicious': 2, 'undetected': 23, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 51, 'malicious': 18, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 63, 'malicious': 5, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 15, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 16, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 15, 'suspicious': 2, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 3, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 4, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 3, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 2, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 60, 'malicious': 8, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 4, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 4, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 4, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 13, 'suspicious': 4, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 10, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 16, 'suspicious': 3, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 4, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 4, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 5, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 3, 'undetected': 17, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 3, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 52, 'malicious': 19, 'suspicious': 3, 'undetected': 15, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 61, 'malicious': 4, 'suspicious': 1, 'undetected': 23, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 51, 'malicious': 16, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 6, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 4, 'suspicious': 0, 'undetected': 23, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 3, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 62, 'malicious': 3, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 59, 'malicious': 9, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
+  </si>
+  <si>
+    <t>{'harmless': 51, 'malicious': 17, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
+  </si>
+  <si>
     <t>{'harmless': 56, 'malicious': 11, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 0, 'malicious': 0, 'suspicious': 0, 'undetected': 89, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 7, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 9, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 2, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 10, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 52, 'malicious': 17, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 5, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 1, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 9, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 12, 'suspicious': 2, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 16, 'suspicious': 1, 'undetected': 19, 'harmless': 53, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 6, 'suspicious': 2, 'undetected': 20, 'harmless': 61, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'malicious': 13, 'suspicious': 1, 'undetected': 20, 'harmless': 55, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 14, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 8, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 8, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 6, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 11, 'suspicious': 1, 'undetected': 23, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 8, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 0, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 1, 'suspicious': 0, 'undetected': 25, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 9, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 1, 'suspicious': 0, 'undetected': 26, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 6, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 8, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 4, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 5, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 3, 'suspicious': 0, 'undetected': 23, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 2, 'suspicious': 1, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 4, 'suspicious': 1, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 50, 'malicious': 18, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 65, 'malicious': 2, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 51, 'malicious': 18, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 9, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 7, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 16, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 10, 'suspicious': 2, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 12, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 52, 'malicious': 16, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 6, 'suspicious': 2, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 51, 'malicious': 18, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 12, 'suspicious': 0, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 4, 'suspicious': 2, 'undetected': 23, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 51, 'malicious': 18, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 12, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 63, 'malicious': 5, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 15, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 16, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 15, 'suspicious': 2, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 3, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 4, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 11, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 11, 'suspicious': 3, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 14, 'suspicious': 2, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 60, 'malicious': 8, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 13, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 4, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 4, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 57, 'malicious': 12, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 4, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 14, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 13, 'suspicious': 4, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 10, 'suspicious': 1, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 16, 'suspicious': 3, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 13, 'suspicious': 3, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 55, 'malicious': 14, 'suspicious': 2, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 12, 'suspicious': 4, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 4, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 13, 'suspicious': 5, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 3, 'undetected': 17, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 6, 'suspicious': 3, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 52, 'malicious': 19, 'suspicious': 3, 'undetected': 15, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 54, 'malicious': 15, 'suspicious': 0, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 61, 'malicious': 4, 'suspicious': 1, 'undetected': 23, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 51, 'malicious': 16, 'suspicious': 1, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 6, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 64, 'malicious': 3, 'suspicious': 0, 'undetected': 22, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 58, 'malicious': 10, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 4, 'suspicious': 0, 'undetected': 23, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 56, 'malicious': 11, 'suspicious': 3, 'undetected': 19, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 53, 'malicious': 15, 'suspicious': 1, 'undetected': 20, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 62, 'malicious': 3, 'suspicious': 0, 'undetected': 24, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 59, 'malicious': 9, 'suspicious': 0, 'undetected': 21, 'timeout': 0}</t>
-  </si>
-  <si>
-    <t>{'harmless': 51, 'malicious': 17, 'suspicious': 2, 'undetected': 19, 'timeout': 0}</t>
   </si>
   <si>
     <t>{'harmless': 57, 'malicious': 13, 'suspicious': 1, 'undetected': 18, 'timeout': 0}</t>
@@ -3943,16 +3943,16 @@
         <v>319</v>
       </c>
       <c r="E27" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F27" t="s">
         <v>735</v>
       </c>
       <c r="G27" s="3">
-        <v>45291.49208333333</v>
+        <v>45321.49319444445</v>
       </c>
       <c r="H27" s="3">
-        <v>45316.34907407407</v>
+        <v>45341.08733796296</v>
       </c>
       <c r="I27" t="s">
         <v>796</v>
@@ -3972,7 +3972,7 @@
         <v>320</v>
       </c>
       <c r="E28" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F28" t="s">
         <v>739</v>
@@ -4001,7 +4001,7 @@
         <v>321</v>
       </c>
       <c r="E29" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F29" t="s">
         <v>740</v>
@@ -4030,7 +4030,7 @@
         <v>322</v>
       </c>
       <c r="E30" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F30" t="s">
         <v>741</v>
@@ -4059,7 +4059,7 @@
         <v>323</v>
       </c>
       <c r="E31" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F31" t="s">
         <v>742</v>
@@ -4088,7 +4088,7 @@
         <v>324</v>
       </c>
       <c r="E32" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F32" t="s">
         <v>724</v>
@@ -4117,7 +4117,7 @@
         <v>325</v>
       </c>
       <c r="E33" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F33" t="s">
         <v>738</v>
@@ -4146,7 +4146,7 @@
         <v>326</v>
       </c>
       <c r="E34" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F34" t="s">
         <v>740</v>
@@ -4175,7 +4175,7 @@
         <v>327</v>
       </c>
       <c r="E35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F35" t="s">
         <v>743</v>
@@ -4204,7 +4204,7 @@
         <v>328</v>
       </c>
       <c r="E36" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F36" t="s">
         <v>724</v>
@@ -4233,7 +4233,7 @@
         <v>329</v>
       </c>
       <c r="E37" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F37" t="s">
         <v>744</v>
@@ -4262,7 +4262,7 @@
         <v>330</v>
       </c>
       <c r="E38" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F38" t="s">
         <v>745</v>
@@ -4291,7 +4291,7 @@
         <v>331</v>
       </c>
       <c r="E39" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F39" t="s">
         <v>728</v>
@@ -4320,7 +4320,7 @@
         <v>332</v>
       </c>
       <c r="E40" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F40" t="s">
         <v>734</v>
@@ -4349,7 +4349,7 @@
         <v>333</v>
       </c>
       <c r="E41" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F41" t="s">
         <v>746</v>
@@ -4378,7 +4378,7 @@
         <v>334</v>
       </c>
       <c r="E42" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F42" t="s">
         <v>723</v>
@@ -4407,7 +4407,7 @@
         <v>335</v>
       </c>
       <c r="E43" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F43" t="s">
         <v>724</v>
@@ -4436,7 +4436,7 @@
         <v>336</v>
       </c>
       <c r="E44" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F44" t="s">
         <v>728</v>
@@ -4465,7 +4465,7 @@
         <v>337</v>
       </c>
       <c r="E45" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F45" t="s">
         <v>723</v>
@@ -4494,7 +4494,7 @@
         <v>338</v>
       </c>
       <c r="E46" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F46" t="s">
         <v>747</v>
@@ -4523,7 +4523,7 @@
         <v>339</v>
       </c>
       <c r="E47" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F47" t="s">
         <v>730</v>
@@ -4552,7 +4552,7 @@
         <v>340</v>
       </c>
       <c r="E48" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F48" t="s">
         <v>723</v>
@@ -4581,7 +4581,7 @@
         <v>341</v>
       </c>
       <c r="E49" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F49" t="s">
         <v>748</v>
@@ -4610,7 +4610,7 @@
         <v>342</v>
       </c>
       <c r="E50" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F50" t="s">
         <v>749</v>
@@ -4639,7 +4639,7 @@
         <v>343</v>
       </c>
       <c r="E51" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F51" t="s">
         <v>734</v>
@@ -4668,7 +4668,7 @@
         <v>344</v>
       </c>
       <c r="E52" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F52" t="s">
         <v>734</v>
@@ -4697,7 +4697,7 @@
         <v>345</v>
       </c>
       <c r="E53" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F53" t="s">
         <v>736</v>
@@ -4726,7 +4726,7 @@
         <v>346</v>
       </c>
       <c r="E54" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F54" t="s">
         <v>723</v>
@@ -4755,7 +4755,7 @@
         <v>347</v>
       </c>
       <c r="E55" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F55" t="s">
         <v>728</v>
@@ -4784,7 +4784,7 @@
         <v>348</v>
       </c>
       <c r="E56" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F56" t="s">
         <v>723</v>
@@ -4813,7 +4813,7 @@
         <v>349</v>
       </c>
       <c r="E57" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F57" t="s">
         <v>750</v>
@@ -4842,7 +4842,7 @@
         <v>350</v>
       </c>
       <c r="E58" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F58" t="s">
         <v>724</v>
@@ -4871,7 +4871,7 @@
         <v>351</v>
       </c>
       <c r="E59" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F59" t="s">
         <v>723</v>
@@ -4900,7 +4900,7 @@
         <v>352</v>
       </c>
       <c r="E60" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F60" t="s">
         <v>723</v>
@@ -4929,7 +4929,7 @@
         <v>353</v>
       </c>
       <c r="E61" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F61" t="s">
         <v>733</v>
@@ -4958,7 +4958,7 @@
         <v>354</v>
       </c>
       <c r="E62" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F62" t="s">
         <v>751</v>
@@ -4987,7 +4987,7 @@
         <v>355</v>
       </c>
       <c r="E63" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F63" t="s">
         <v>752</v>
@@ -5016,7 +5016,7 @@
         <v>356</v>
       </c>
       <c r="E64" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F64" t="s">
         <v>723</v>
@@ -5045,7 +5045,7 @@
         <v>357</v>
       </c>
       <c r="E65" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F65" t="s">
         <v>724</v>
@@ -5074,7 +5074,7 @@
         <v>358</v>
       </c>
       <c r="E66" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F66" t="s">
         <v>736</v>
@@ -5103,7 +5103,7 @@
         <v>359</v>
       </c>
       <c r="E67" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F67" t="s">
         <v>740</v>
@@ -5132,7 +5132,7 @@
         <v>360</v>
       </c>
       <c r="E68" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F68" t="s">
         <v>731</v>
@@ -5161,7 +5161,7 @@
         <v>361</v>
       </c>
       <c r="E69" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F69" t="s">
         <v>736</v>
@@ -5190,7 +5190,7 @@
         <v>362</v>
       </c>
       <c r="E70" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F70" t="s">
         <v>735</v>
@@ -5219,7 +5219,7 @@
         <v>363</v>
       </c>
       <c r="E71" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F71" t="s">
         <v>723</v>
@@ -5248,7 +5248,7 @@
         <v>364</v>
       </c>
       <c r="E72" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F72" t="s">
         <v>730</v>
@@ -5277,7 +5277,7 @@
         <v>365</v>
       </c>
       <c r="E73" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F73" t="s">
         <v>723</v>
@@ -5306,7 +5306,7 @@
         <v>366</v>
       </c>
       <c r="E74" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F74" t="s">
         <v>724</v>
@@ -5335,7 +5335,7 @@
         <v>367</v>
       </c>
       <c r="E75" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F75" t="s">
         <v>726</v>
@@ -5361,7 +5361,7 @@
         <v>368</v>
       </c>
       <c r="E76" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F76" t="s">
         <v>728</v>
@@ -5390,7 +5390,7 @@
         <v>369</v>
       </c>
       <c r="E77" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F77" t="s">
         <v>736</v>
@@ -5419,7 +5419,7 @@
         <v>370</v>
       </c>
       <c r="E78" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F78" t="s">
         <v>736</v>
@@ -5448,7 +5448,7 @@
         <v>371</v>
       </c>
       <c r="E79" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F79" t="s">
         <v>723</v>
@@ -5477,7 +5477,7 @@
         <v>372</v>
       </c>
       <c r="E80" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F80" t="s">
         <v>723</v>
@@ -5506,7 +5506,7 @@
         <v>373</v>
       </c>
       <c r="E81" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F81" t="s">
         <v>753</v>
@@ -5535,7 +5535,7 @@
         <v>374</v>
       </c>
       <c r="E82" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F82" t="s">
         <v>744</v>
@@ -5564,7 +5564,7 @@
         <v>375</v>
       </c>
       <c r="E83" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F83" t="s">
         <v>740</v>
@@ -5593,7 +5593,7 @@
         <v>376</v>
       </c>
       <c r="E84" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F84" t="s">
         <v>734</v>
@@ -5622,7 +5622,7 @@
         <v>377</v>
       </c>
       <c r="E85" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F85" t="s">
         <v>734</v>
@@ -5651,7 +5651,7 @@
         <v>378</v>
       </c>
       <c r="E86" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F86" t="s">
         <v>754</v>
@@ -5680,7 +5680,7 @@
         <v>379</v>
       </c>
       <c r="E87" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F87" t="s">
         <v>730</v>
@@ -5709,7 +5709,7 @@
         <v>380</v>
       </c>
       <c r="E88" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F88" t="s">
         <v>755</v>
@@ -5738,7 +5738,7 @@
         <v>381</v>
       </c>
       <c r="E89" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F89" t="s">
         <v>723</v>
@@ -5767,7 +5767,7 @@
         <v>382</v>
       </c>
       <c r="E90" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F90" t="s">
         <v>724</v>
@@ -5796,7 +5796,7 @@
         <v>383</v>
       </c>
       <c r="E91" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F91" t="s">
         <v>734</v>
@@ -5825,7 +5825,7 @@
         <v>384</v>
       </c>
       <c r="E92" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F92" t="s">
         <v>723</v>
@@ -5854,7 +5854,7 @@
         <v>385</v>
       </c>
       <c r="E93" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F93" t="s">
         <v>730</v>
@@ -5883,7 +5883,7 @@
         <v>386</v>
       </c>
       <c r="E94" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F94" t="s">
         <v>723</v>
@@ -5912,7 +5912,7 @@
         <v>387</v>
       </c>
       <c r="E95" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F95" t="s">
         <v>756</v>
@@ -5941,7 +5941,7 @@
         <v>388</v>
       </c>
       <c r="E96" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F96" t="s">
         <v>742</v>
@@ -5970,7 +5970,7 @@
         <v>389</v>
       </c>
       <c r="E97" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F97" t="s">
         <v>723</v>
@@ -5999,7 +5999,7 @@
         <v>390</v>
       </c>
       <c r="E98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F98" t="s">
         <v>757</v>
@@ -6028,7 +6028,7 @@
         <v>391</v>
       </c>
       <c r="E99" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F99" t="s">
         <v>739</v>
@@ -6057,7 +6057,7 @@
         <v>392</v>
       </c>
       <c r="E100" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F100" t="s">
         <v>752</v>
@@ -6086,7 +6086,7 @@
         <v>393</v>
       </c>
       <c r="E101" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F101" t="s">
         <v>757</v>
@@ -6115,7 +6115,7 @@
         <v>394</v>
       </c>
       <c r="E102" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F102" t="s">
         <v>723</v>
@@ -6144,7 +6144,7 @@
         <v>395</v>
       </c>
       <c r="E103" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F103" t="s">
         <v>728</v>
@@ -6173,7 +6173,7 @@
         <v>396</v>
       </c>
       <c r="E104" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F104" t="s">
         <v>723</v>
@@ -6202,7 +6202,7 @@
         <v>397</v>
       </c>
       <c r="E105" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F105" t="s">
         <v>758</v>
@@ -6231,7 +6231,7 @@
         <v>398</v>
       </c>
       <c r="E106" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F106" t="s">
         <v>759</v>
@@ -6260,7 +6260,7 @@
         <v>399</v>
       </c>
       <c r="E107" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F107" t="s">
         <v>724</v>
@@ -6289,7 +6289,7 @@
         <v>400</v>
       </c>
       <c r="E108" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F108" t="s">
         <v>724</v>
@@ -6318,7 +6318,7 @@
         <v>401</v>
       </c>
       <c r="E109" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F109" t="s">
         <v>723</v>
@@ -6347,7 +6347,7 @@
         <v>402</v>
       </c>
       <c r="E110" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F110" t="s">
         <v>729</v>
@@ -6376,7 +6376,7 @@
         <v>403</v>
       </c>
       <c r="E111" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F111" t="s">
         <v>723</v>
@@ -6405,7 +6405,7 @@
         <v>404</v>
       </c>
       <c r="E112" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F112" t="s">
         <v>736</v>
@@ -6434,7 +6434,7 @@
         <v>405</v>
       </c>
       <c r="E113" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F113" t="s">
         <v>723</v>
@@ -6463,7 +6463,7 @@
         <v>406</v>
       </c>
       <c r="E114" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F114" t="s">
         <v>734</v>
@@ -6492,7 +6492,7 @@
         <v>407</v>
       </c>
       <c r="E115" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F115" t="s">
         <v>736</v>
@@ -6521,7 +6521,7 @@
         <v>408</v>
       </c>
       <c r="E116" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F116" t="s">
         <v>734</v>
@@ -6550,7 +6550,7 @@
         <v>409</v>
       </c>
       <c r="E117" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F117" t="s">
         <v>731</v>
@@ -6579,7 +6579,7 @@
         <v>410</v>
       </c>
       <c r="E118" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F118" t="s">
         <v>723</v>
@@ -6608,7 +6608,7 @@
         <v>411</v>
       </c>
       <c r="E119" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F119" t="s">
         <v>758</v>
@@ -6637,7 +6637,7 @@
         <v>412</v>
       </c>
       <c r="E120" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F120" t="s">
         <v>723</v>
@@ -6666,7 +6666,7 @@
         <v>413</v>
       </c>
       <c r="E121" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F121" t="s">
         <v>729</v>
@@ -6695,7 +6695,7 @@
         <v>414</v>
       </c>
       <c r="E122" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F122" t="s">
         <v>734</v>
@@ -6724,7 +6724,7 @@
         <v>415</v>
       </c>
       <c r="E123" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F123" t="s">
         <v>741</v>
@@ -6753,7 +6753,7 @@
         <v>416</v>
       </c>
       <c r="E124" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F124" t="s">
         <v>728</v>
@@ -6782,7 +6782,7 @@
         <v>417</v>
       </c>
       <c r="E125" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F125" t="s">
         <v>729</v>
@@ -6811,7 +6811,7 @@
         <v>418</v>
       </c>
       <c r="E126" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F126" t="s">
         <v>723</v>
@@ -6840,7 +6840,7 @@
         <v>419</v>
       </c>
       <c r="E127" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F127" t="s">
         <v>741</v>
@@ -6869,7 +6869,7 @@
         <v>420</v>
       </c>
       <c r="E128" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F128" t="s">
         <v>727</v>
@@ -6898,7 +6898,7 @@
         <v>421</v>
       </c>
       <c r="E129" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F129" t="s">
         <v>729</v>
@@ -6927,7 +6927,7 @@
         <v>422</v>
       </c>
       <c r="E130" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F130" t="s">
         <v>729</v>
@@ -6956,7 +6956,7 @@
         <v>423</v>
       </c>
       <c r="E131" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F131" t="s">
         <v>723</v>
@@ -6985,7 +6985,7 @@
         <v>424</v>
       </c>
       <c r="E132" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F132" t="s">
         <v>724</v>
@@ -7014,7 +7014,7 @@
         <v>425</v>
       </c>
       <c r="E133" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F133" t="s">
         <v>727</v>
@@ -7043,7 +7043,7 @@
         <v>426</v>
       </c>
       <c r="E134" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F134" t="s">
         <v>730</v>
@@ -7072,7 +7072,7 @@
         <v>427</v>
       </c>
       <c r="E135" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F135" t="s">
         <v>760</v>
@@ -7101,7 +7101,7 @@
         <v>428</v>
       </c>
       <c r="E136" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F136" t="s">
         <v>729</v>
@@ -7130,7 +7130,7 @@
         <v>429</v>
       </c>
       <c r="E137" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F137" t="s">
         <v>724</v>
@@ -7159,7 +7159,7 @@
         <v>430</v>
       </c>
       <c r="E138" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F138" t="s">
         <v>761</v>
@@ -7188,7 +7188,7 @@
         <v>431</v>
       </c>
       <c r="E139" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F139" t="s">
         <v>736</v>
@@ -7217,7 +7217,7 @@
         <v>432</v>
       </c>
       <c r="E140" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F140" t="s">
         <v>723</v>
@@ -7246,7 +7246,7 @@
         <v>433</v>
       </c>
       <c r="E141" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F141" t="s">
         <v>734</v>
@@ -7275,7 +7275,7 @@
         <v>434</v>
       </c>
       <c r="E142" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F142" t="s">
         <v>734</v>
@@ -7301,7 +7301,7 @@
         <v>435</v>
       </c>
       <c r="E143" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F143" t="s">
         <v>723</v>
@@ -7330,7 +7330,7 @@
         <v>436</v>
       </c>
       <c r="E144" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F144" t="s">
         <v>729</v>
@@ -7359,7 +7359,7 @@
         <v>437</v>
       </c>
       <c r="E145" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F145" t="s">
         <v>740</v>
@@ -7388,7 +7388,7 @@
         <v>438</v>
       </c>
       <c r="E146" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F146" t="s">
         <v>723</v>
@@ -7417,7 +7417,7 @@
         <v>439</v>
       </c>
       <c r="E147" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F147" t="s">
         <v>723</v>
@@ -7446,7 +7446,7 @@
         <v>440</v>
       </c>
       <c r="E148" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F148" t="s">
         <v>736</v>
@@ -7475,7 +7475,7 @@
         <v>441</v>
       </c>
       <c r="E149" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F149" t="s">
         <v>757</v>
@@ -7504,7 +7504,7 @@
         <v>442</v>
       </c>
       <c r="E150" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F150" t="s">
         <v>724</v>
@@ -7533,7 +7533,7 @@
         <v>443</v>
       </c>
       <c r="E151" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F151" t="s">
         <v>725</v>
@@ -7562,7 +7562,7 @@
         <v>444</v>
       </c>
       <c r="E152" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F152" t="s">
         <v>742</v>
@@ -7591,7 +7591,7 @@
         <v>445</v>
       </c>
       <c r="E153" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F153" t="s">
         <v>762</v>
@@ -7620,7 +7620,7 @@
         <v>446</v>
       </c>
       <c r="E154" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F154" t="s">
         <v>738</v>
@@ -7649,7 +7649,7 @@
         <v>447</v>
       </c>
       <c r="E155" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F155" t="s">
         <v>723</v>
@@ -7678,7 +7678,7 @@
         <v>448</v>
       </c>
       <c r="E156" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F156" t="s">
         <v>724</v>
@@ -7707,7 +7707,7 @@
         <v>449</v>
       </c>
       <c r="E157" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F157" t="s">
         <v>761</v>
@@ -7736,7 +7736,7 @@
         <v>450</v>
       </c>
       <c r="E158" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F158" t="s">
         <v>723</v>
@@ -7765,7 +7765,7 @@
         <v>451</v>
       </c>
       <c r="E159" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F159" t="s">
         <v>742</v>
@@ -7794,7 +7794,7 @@
         <v>452</v>
       </c>
       <c r="E160" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F160" t="s">
         <v>723</v>
@@ -7823,7 +7823,7 @@
         <v>453</v>
       </c>
       <c r="E161" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F161" t="s">
         <v>741</v>
@@ -7852,7 +7852,7 @@
         <v>454</v>
       </c>
       <c r="E162" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F162" t="s">
         <v>729</v>
@@ -7878,7 +7878,7 @@
         <v>455</v>
       </c>
       <c r="E163" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F163" t="s">
         <v>723</v>
@@ -7907,7 +7907,7 @@
         <v>456</v>
       </c>
       <c r="E164" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F164" t="s">
         <v>760</v>
@@ -7936,7 +7936,7 @@
         <v>457</v>
       </c>
       <c r="E165" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F165" t="s">
         <v>728</v>
@@ -7965,7 +7965,7 @@
         <v>458</v>
       </c>
       <c r="E166" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F166" t="s">
         <v>728</v>
@@ -7994,7 +7994,7 @@
         <v>459</v>
       </c>
       <c r="E167" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F167" t="s">
         <v>734</v>
@@ -8023,7 +8023,7 @@
         <v>460</v>
       </c>
       <c r="E168" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F168" t="s">
         <v>723</v>
@@ -8052,7 +8052,7 @@
         <v>461</v>
       </c>
       <c r="E169" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F169" t="s">
         <v>740</v>
@@ -8081,7 +8081,7 @@
         <v>462</v>
       </c>
       <c r="E170" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F170" t="s">
         <v>739</v>
@@ -8110,7 +8110,7 @@
         <v>463</v>
       </c>
       <c r="E171" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F171" t="s">
         <v>728</v>
@@ -8139,7 +8139,7 @@
         <v>464</v>
       </c>
       <c r="E172" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F172" t="s">
         <v>752</v>
@@ -8168,7 +8168,7 @@
         <v>465</v>
       </c>
       <c r="E173" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F173" t="s">
         <v>723</v>
@@ -8197,7 +8197,7 @@
         <v>466</v>
       </c>
       <c r="E174" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F174" t="s">
         <v>734</v>
@@ -8226,7 +8226,7 @@
         <v>467</v>
       </c>
       <c r="E175" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F175" t="s">
         <v>763</v>
@@ -8255,7 +8255,7 @@
         <v>468</v>
       </c>
       <c r="E176" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F176" t="s">
         <v>735</v>
@@ -8284,7 +8284,7 @@
         <v>469</v>
       </c>
       <c r="E177" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F177" t="s">
         <v>729</v>
@@ -8313,7 +8313,7 @@
         <v>470</v>
       </c>
       <c r="E178" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F178" t="s">
         <v>728</v>
@@ -8342,7 +8342,7 @@
         <v>471</v>
       </c>
       <c r="E179" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F179" t="s">
         <v>752</v>
@@ -8371,7 +8371,7 @@
         <v>472</v>
       </c>
       <c r="E180" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F180" t="s">
         <v>738</v>
@@ -8400,7 +8400,7 @@
         <v>473</v>
       </c>
       <c r="E181" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F181" t="s">
         <v>764</v>
@@ -8429,7 +8429,7 @@
         <v>474</v>
       </c>
       <c r="E182" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F182" t="s">
         <v>736</v>
@@ -8458,7 +8458,7 @@
         <v>475</v>
       </c>
       <c r="E183" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F183" t="s">
         <v>763</v>
@@ -8487,7 +8487,7 @@
         <v>476</v>
       </c>
       <c r="E184" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F184" t="s">
         <v>752</v>
@@ -8516,7 +8516,7 @@
         <v>477</v>
       </c>
       <c r="E185" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F185" t="s">
         <v>763</v>
@@ -8545,7 +8545,7 @@
         <v>478</v>
       </c>
       <c r="E186" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F186" t="s">
         <v>763</v>
@@ -8574,7 +8574,7 @@
         <v>479</v>
       </c>
       <c r="E187" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F187" t="s">
         <v>763</v>
@@ -8603,7 +8603,7 @@
         <v>480</v>
       </c>
       <c r="E188" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F188" t="s">
         <v>763</v>
@@ -8632,7 +8632,7 @@
         <v>481</v>
       </c>
       <c r="E189" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F189" t="s">
         <v>763</v>
@@ -8661,7 +8661,7 @@
         <v>482</v>
       </c>
       <c r="E190" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F190" t="s">
         <v>765</v>
@@ -8690,7 +8690,7 @@
         <v>483</v>
       </c>
       <c r="E191" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F191" t="s">
         <v>732</v>
@@ -8719,7 +8719,7 @@
         <v>484</v>
       </c>
       <c r="E192" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F192" t="s">
         <v>763</v>
@@ -8748,7 +8748,7 @@
         <v>485</v>
       </c>
       <c r="E193" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F193" t="s">
         <v>766</v>
@@ -8777,7 +8777,7 @@
         <v>486</v>
       </c>
       <c r="E194" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F194" t="s">
         <v>736</v>
@@ -8806,7 +8806,7 @@
         <v>487</v>
       </c>
       <c r="E195" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F195" t="s">
         <v>763</v>
@@ -8835,7 +8835,7 @@
         <v>488</v>
       </c>
       <c r="E196" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F196" t="s">
         <v>764</v>
@@ -8864,7 +8864,7 @@
         <v>489</v>
       </c>
       <c r="E197" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F197" t="s">
         <v>763</v>
@@ -8893,7 +8893,7 @@
         <v>490</v>
       </c>
       <c r="E198" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F198" t="s">
         <v>738</v>
@@ -8922,7 +8922,7 @@
         <v>491</v>
       </c>
       <c r="E199" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F199" t="s">
         <v>744</v>
@@ -8951,7 +8951,7 @@
         <v>492</v>
       </c>
       <c r="E200" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F200" t="s">
         <v>736</v>
@@ -8980,7 +8980,7 @@
         <v>493</v>
       </c>
       <c r="E201" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F201" t="s">
         <v>736</v>
@@ -9009,7 +9009,7 @@
         <v>494</v>
       </c>
       <c r="E202" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F202" t="s">
         <v>732</v>
@@ -9038,7 +9038,7 @@
         <v>495</v>
       </c>
       <c r="E203" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F203" t="s">
         <v>752</v>
@@ -9067,7 +9067,7 @@
         <v>496</v>
       </c>
       <c r="E204" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F204" t="s">
         <v>760</v>
@@ -9096,7 +9096,7 @@
         <v>497</v>
       </c>
       <c r="E205" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F205" t="s">
         <v>763</v>
@@ -9125,7 +9125,7 @@
         <v>498</v>
       </c>
       <c r="E206" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F206" t="s">
         <v>755</v>
@@ -9154,7 +9154,7 @@
         <v>499</v>
       </c>
       <c r="E207" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F207" t="s">
         <v>759</v>
@@ -9183,7 +9183,7 @@
         <v>500</v>
       </c>
       <c r="E208" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F208" t="s">
         <v>767</v>
@@ -9212,7 +9212,7 @@
         <v>501</v>
       </c>
       <c r="E209" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F209" t="s">
         <v>752</v>
@@ -9241,7 +9241,7 @@
         <v>502</v>
       </c>
       <c r="E210" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F210" t="s">
         <v>732</v>
@@ -9270,7 +9270,7 @@
         <v>503</v>
       </c>
       <c r="E211" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F211" t="s">
         <v>763</v>
@@ -9299,7 +9299,7 @@
         <v>504</v>
       </c>
       <c r="E212" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F212" t="s">
         <v>732</v>
@@ -9328,7 +9328,7 @@
         <v>505</v>
       </c>
       <c r="E213" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F213" t="s">
         <v>763</v>
@@ -9357,7 +9357,7 @@
         <v>506</v>
       </c>
       <c r="E214" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F214" t="s">
         <v>768</v>
@@ -9386,7 +9386,7 @@
         <v>507</v>
       </c>
       <c r="E215" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F215" t="s">
         <v>752</v>
@@ -9415,7 +9415,7 @@
         <v>508</v>
       </c>
       <c r="E216" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F216" t="s">
         <v>763</v>
@@ -9444,7 +9444,7 @@
         <v>509</v>
       </c>
       <c r="E217" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F217" t="s">
         <v>766</v>
@@ -9473,7 +9473,7 @@
         <v>510</v>
       </c>
       <c r="E218" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F218" t="s">
         <v>738</v>
@@ -9502,7 +9502,7 @@
         <v>511</v>
       </c>
       <c r="E219" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F219" t="s">
         <v>724</v>
@@ -9531,7 +9531,7 @@
         <v>512</v>
       </c>
       <c r="E220" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F220" t="s">
         <v>728</v>
@@ -9560,7 +9560,7 @@
         <v>513</v>
       </c>
       <c r="E221" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F221" t="s">
         <v>759</v>
@@ -9589,7 +9589,7 @@
         <v>514</v>
       </c>
       <c r="E222" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F222" t="s">
         <v>736</v>
@@ -9618,7 +9618,7 @@
         <v>515</v>
       </c>
       <c r="E223" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F223" t="s">
         <v>738</v>
@@ -9647,7 +9647,7 @@
         <v>516</v>
       </c>
       <c r="E224" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F224" t="s">
         <v>763</v>
@@ -9676,7 +9676,7 @@
         <v>517</v>
       </c>
       <c r="E225" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F225" t="s">
         <v>736</v>
@@ -9705,7 +9705,7 @@
         <v>518</v>
       </c>
       <c r="E226" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F226" t="s">
         <v>763</v>
@@ -9734,7 +9734,7 @@
         <v>519</v>
       </c>
       <c r="E227" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F227" t="s">
         <v>763</v>
@@ -9763,7 +9763,7 @@
         <v>520</v>
       </c>
       <c r="E228" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F228" t="s">
         <v>736</v>
@@ -9792,7 +9792,7 @@
         <v>521</v>
       </c>
       <c r="E229" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F229" t="s">
         <v>736</v>
@@ -9821,7 +9821,7 @@
         <v>522</v>
       </c>
       <c r="E230" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F230" t="s">
         <v>763</v>
@@ -9850,7 +9850,7 @@
         <v>523</v>
       </c>
       <c r="E231" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F231" t="s">
         <v>739</v>
@@ -9879,7 +9879,7 @@
         <v>524</v>
       </c>
       <c r="E232" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F232" t="s">
         <v>723</v>
@@ -9908,7 +9908,7 @@
         <v>525</v>
       </c>
       <c r="E233" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F233" t="s">
         <v>723</v>
@@ -9937,7 +9937,7 @@
         <v>526</v>
       </c>
       <c r="E234" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F234" t="s">
         <v>769</v>
@@ -9966,7 +9966,7 @@
         <v>527</v>
       </c>
       <c r="E235" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F235" t="s">
         <v>734</v>
@@ -9995,7 +9995,7 @@
         <v>528</v>
       </c>
       <c r="E236" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F236" t="s">
         <v>744</v>
@@ -10024,7 +10024,7 @@
         <v>529</v>
       </c>
       <c r="E237" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F237" t="s">
         <v>723</v>
@@ -10053,7 +10053,7 @@
         <v>530</v>
       </c>
       <c r="E238" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F238" t="s">
         <v>736</v>
@@ -10082,7 +10082,7 @@
         <v>531</v>
       </c>
       <c r="E239" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F239" t="s">
         <v>770</v>
@@ -10111,7 +10111,7 @@
         <v>532</v>
       </c>
       <c r="E240" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F240" t="s">
         <v>736</v>
@@ -10140,7 +10140,7 @@
         <v>533</v>
       </c>
       <c r="E241" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F241" t="s">
         <v>734</v>
@@ -10169,7 +10169,7 @@
         <v>534</v>
       </c>
       <c r="E242" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F242" t="s">
         <v>723</v>
@@ -10198,7 +10198,7 @@
         <v>535</v>
       </c>
       <c r="E243" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F243" t="s">
         <v>738</v>
@@ -10227,7 +10227,7 @@
         <v>536</v>
       </c>
       <c r="E244" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F244" t="s">
         <v>723</v>
@@ -10256,7 +10256,7 @@
         <v>537</v>
       </c>
       <c r="E245" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F245" t="s">
         <v>734</v>
@@ -10285,7 +10285,7 @@
         <v>538</v>
       </c>
       <c r="E246" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F246" t="s">
         <v>728</v>
@@ -10314,7 +10314,7 @@
         <v>539</v>
       </c>
       <c r="E247" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F247" t="s">
         <v>771</v>
@@ -10343,7 +10343,7 @@
         <v>540</v>
       </c>
       <c r="E248" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F248" t="s">
         <v>723</v>
@@ -10372,7 +10372,7 @@
         <v>541</v>
       </c>
       <c r="E249" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F249" t="s">
         <v>736</v>
@@ -10401,7 +10401,7 @@
         <v>542</v>
       </c>
       <c r="E250" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F250" t="s">
         <v>724</v>
@@ -10430,7 +10430,7 @@
         <v>543</v>
       </c>
       <c r="E251" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F251" t="s">
         <v>772</v>
@@ -10459,7 +10459,7 @@
         <v>544</v>
       </c>
       <c r="E252" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F252" t="s">
         <v>735</v>
@@ -10488,7 +10488,7 @@
         <v>545</v>
       </c>
       <c r="E253" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F253" t="s">
         <v>723</v>
@@ -10517,7 +10517,7 @@
         <v>546</v>
       </c>
       <c r="E254" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F254" t="s">
         <v>734</v>
@@ -10546,7 +10546,7 @@
         <v>547</v>
       </c>
       <c r="E255" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F255" t="s">
         <v>723</v>
@@ -10575,7 +10575,7 @@
         <v>548</v>
       </c>
       <c r="E256" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F256" t="s">
         <v>748</v>
@@ -10604,7 +10604,7 @@
         <v>549</v>
       </c>
       <c r="E257" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F257" t="s">
         <v>762</v>
@@ -10633,7 +10633,7 @@
         <v>550</v>
       </c>
       <c r="E258" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F258" t="s">
         <v>723</v>
@@ -10662,7 +10662,7 @@
         <v>551</v>
       </c>
       <c r="E259" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F259" t="s">
         <v>734</v>
@@ -10691,7 +10691,7 @@
         <v>552</v>
       </c>
       <c r="E260" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F260" t="s">
         <v>773</v>
@@ -10720,7 +10720,7 @@
         <v>553</v>
       </c>
       <c r="E261" t="s">
-        <v>596</v>
+        <v>720</v>
       </c>
       <c r="F261" t="s">
         <v>735</v>
@@ -10749,7 +10749,7 @@
         <v>554</v>
       </c>
       <c r="E262" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F262" t="s">
         <v>723</v>
@@ -10778,7 +10778,7 @@
         <v>555</v>
       </c>
       <c r="E263" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F263" t="s">
         <v>723</v>
@@ -10807,7 +10807,7 @@
         <v>556</v>
       </c>
       <c r="E264" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F264" t="s">
         <v>728</v>
@@ -10836,7 +10836,7 @@
         <v>557</v>
       </c>
       <c r="E265" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F265" t="s">
         <v>732</v>
@@ -10865,7 +10865,7 @@
         <v>558</v>
       </c>
       <c r="E266" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F266" t="s">
         <v>745</v>
@@ -10923,7 +10923,7 @@
         <v>560</v>
       </c>
       <c r="E268" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F268" t="s">
         <v>724</v>
@@ -10952,7 +10952,7 @@
         <v>561</v>
       </c>
       <c r="E269" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F269" t="s">
         <v>723</v>
@@ -10981,7 +10981,7 @@
         <v>562</v>
       </c>
       <c r="E270" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F270" t="s">
         <v>723</v>
@@ -11010,7 +11010,7 @@
         <v>563</v>
       </c>
       <c r="E271" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F271" t="s">
         <v>723</v>
@@ -11039,7 +11039,7 @@
         <v>564</v>
       </c>
       <c r="E272" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F272" t="s">
         <v>739</v>
@@ -11068,7 +11068,7 @@
         <v>565</v>
       </c>
       <c r="E273" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F273" t="s">
         <v>774</v>
@@ -11097,7 +110